--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175935</v>
+        <v>0.743398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187315</v>
+        <v>0.542999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196941</v>
+        <v>0.5477959999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176336</v>
+        <v>0.655519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188204</v>
+        <v>0.526658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197467</v>
+        <v>0.572483</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177096</v>
+        <v>0.678759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189133</v>
+        <v>0.554574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198874</v>
+        <v>0.569106</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177694</v>
+        <v>0.643274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190699</v>
+        <v>0.533485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200555</v>
+        <v>0.561094</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178658</v>
+        <v>0.6636339999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192582</v>
+        <v>0.563849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202669</v>
+        <v>0.55353</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18033</v>
+        <v>0.6544410000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194705</v>
+        <v>0.540878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205602</v>
+        <v>0.548522</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182513</v>
+        <v>0.6583869999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19773</v>
+        <v>0.5296110000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210269</v>
+        <v>0.545861</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186249</v>
+        <v>0.652797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201556</v>
+        <v>0.536092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193903</v>
+        <v>0.629259</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181953</v>
+        <v>0.728548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187053</v>
+        <v>0.598909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194048</v>
+        <v>0.620595</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181962</v>
+        <v>0.738656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186987</v>
+        <v>0.5931070000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195364</v>
+        <v>0.611317</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183004</v>
+        <v>0.739987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18723</v>
+        <v>0.600002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194471</v>
+        <v>0.61451</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182161</v>
+        <v>0.710978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187639</v>
+        <v>0.59252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194808</v>
+        <v>0.588217</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182448</v>
+        <v>0.719515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188167</v>
+        <v>0.575728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196542</v>
+        <v>0.581639</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183536</v>
+        <v>0.71937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.189124</v>
+        <v>0.586763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196089</v>
+        <v>0.563601</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182816</v>
+        <v>0.679729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189355</v>
+        <v>0.55261</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19657</v>
+        <v>0.581771</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183237</v>
+        <v>0.6836719999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191028</v>
+        <v>0.562312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197463</v>
+        <v>0.558662</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183647</v>
+        <v>0.6775139999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19203</v>
+        <v>0.54351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198421</v>
+        <v>0.560261</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18518</v>
+        <v>0.684346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192799</v>
+        <v>0.541508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200139</v>
+        <v>0.546193</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18578</v>
+        <v>0.645824</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193825</v>
+        <v>0.528863</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20223</v>
+        <v>0.534755</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188324</v>
+        <v>0.632682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195908</v>
+        <v>0.544655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204776</v>
+        <v>0.558508</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.190098</v>
+        <v>0.647054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198684</v>
+        <v>0.52877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208967</v>
+        <v>0.549585</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193806</v>
+        <v>0.66997</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202211</v>
+        <v>0.53191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201092</v>
+        <v>0.618444</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204996</v>
+        <v>0.7297129999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193559</v>
+        <v>0.634371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201336</v>
+        <v>0.6130100000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.205232</v>
+        <v>0.7359290000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193824</v>
+        <v>0.626162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203833</v>
+        <v>0.614404</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206411</v>
+        <v>0.721004</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19489</v>
+        <v>0.588884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204019</v>
+        <v>0.598452</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206022</v>
+        <v>0.723249</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195741</v>
+        <v>0.61338</v>
       </c>
       <c r="D27" t="n">
-        <v>0.204671</v>
+        <v>0.604181</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206339</v>
+        <v>0.738418</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19586</v>
+        <v>0.600458</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20564</v>
+        <v>0.581777</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20621</v>
+        <v>0.735215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196876</v>
+        <v>0.574183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207272</v>
+        <v>0.578306</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20644</v>
+        <v>0.699616</v>
       </c>
       <c r="C30" t="n">
-        <v>0.197171</v>
+        <v>0.571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.207667</v>
+        <v>0.575628</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206569</v>
+        <v>0.681046</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197203</v>
+        <v>0.564201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207786</v>
+        <v>0.584063</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206899</v>
+        <v>0.676474</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19908</v>
+        <v>0.568793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209029</v>
+        <v>0.570518</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206623</v>
+        <v>0.685496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.200407</v>
+        <v>0.568842</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210402</v>
+        <v>0.56311</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20787</v>
+        <v>0.669328</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201144</v>
+        <v>0.557362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212115</v>
+        <v>0.548644</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.211553</v>
+        <v>0.663354</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203806</v>
+        <v>0.568184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214785</v>
+        <v>0.567013</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211147</v>
+        <v>0.670617</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207186</v>
+        <v>0.577508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219084</v>
+        <v>0.566584</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213507</v>
+        <v>0.680103</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210717</v>
+        <v>0.564538</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218513</v>
+        <v>0.654417</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232133</v>
+        <v>0.849858</v>
       </c>
       <c r="C38" t="n">
-        <v>0.210558</v>
+        <v>0.724593</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220758</v>
+        <v>0.643894</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233165</v>
+        <v>0.849485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210519</v>
+        <v>0.719349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221022</v>
+        <v>0.643226</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232401</v>
+        <v>0.819111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21147</v>
+        <v>0.707093</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220758</v>
+        <v>0.620795</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232563</v>
+        <v>0.8277870000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210817</v>
+        <v>0.689648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221653</v>
+        <v>0.633233</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234064</v>
+        <v>0.827064</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213161</v>
+        <v>0.672009</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223097</v>
+        <v>0.613053</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.235019</v>
+        <v>0.803797</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213956</v>
+        <v>0.677741</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223743</v>
+        <v>0.6018559999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.235333</v>
+        <v>0.797654</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215746</v>
+        <v>0.658794</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225616</v>
+        <v>0.597316</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234311</v>
+        <v>0.771962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215621</v>
+        <v>0.654064</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226186</v>
+        <v>0.605566</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.236535</v>
+        <v>0.773909</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21727</v>
+        <v>0.650552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228383</v>
+        <v>0.5740459999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234949</v>
+        <v>0.760244</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218983</v>
+        <v>0.638221</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229598</v>
+        <v>0.590848</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.235717</v>
+        <v>0.761672</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219335</v>
+        <v>0.653405</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231449</v>
+        <v>0.600651</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236873</v>
+        <v>0.767692</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222927</v>
+        <v>0.6338549999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234798</v>
+        <v>0.59402</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240957</v>
+        <v>0.765315</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225696</v>
+        <v>0.63276</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238581</v>
+        <v>0.580212</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24354</v>
+        <v>0.762343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230408</v>
+        <v>0.62854</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232156</v>
+        <v>0.759993</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245955</v>
+        <v>0.747445</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237328</v>
+        <v>0.63231</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23366</v>
+        <v>0.742513</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254016</v>
+        <v>0.927655</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22592</v>
+        <v>0.801357</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23469</v>
+        <v>0.740432</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260054</v>
+        <v>0.918502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226293</v>
+        <v>0.774385</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234953</v>
+        <v>0.7239409999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253524</v>
+        <v>0.9002830000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226064</v>
+        <v>0.79598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2354</v>
+        <v>0.710297</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261362</v>
+        <v>0.896986</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226662</v>
+        <v>0.75732</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235775</v>
+        <v>0.735939</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259901</v>
+        <v>0.872027</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228415</v>
+        <v>0.755864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236802</v>
+        <v>0.683518</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261399</v>
+        <v>0.869747</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228895</v>
+        <v>0.733494</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237323</v>
+        <v>0.709363</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255449</v>
+        <v>0.863945</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230177</v>
+        <v>0.737471</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23856</v>
+        <v>0.702102</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254837</v>
+        <v>0.863171</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231215</v>
+        <v>0.727701</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239868</v>
+        <v>0.673192</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262137</v>
+        <v>0.838262</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233571</v>
+        <v>0.721146</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242513</v>
+        <v>0.685676</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256315</v>
+        <v>0.849104</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235386</v>
+        <v>0.7076750000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243949</v>
+        <v>0.674793</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263283</v>
+        <v>0.8193</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238183</v>
+        <v>0.711229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247999</v>
+        <v>0.669856</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261632</v>
+        <v>0.828037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241323</v>
+        <v>0.695063</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252234</v>
+        <v>0.676071</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262622</v>
+        <v>0.820726</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246602</v>
+        <v>0.702465</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259785</v>
+        <v>0.670744</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269828</v>
+        <v>0.8208259999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253611</v>
+        <v>0.700338</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242087</v>
+        <v>0.844771</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.273243</v>
+        <v>1.02725</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235993</v>
+        <v>0.859147</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242336</v>
+        <v>0.828276</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.273938</v>
+        <v>1.0198</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236934</v>
+        <v>0.866304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242608</v>
+        <v>0.842457</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.273999</v>
+        <v>1.00799</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237882</v>
+        <v>0.853988</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243535</v>
+        <v>0.809917</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274145</v>
+        <v>0.978824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238726</v>
+        <v>0.855667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.24434</v>
+        <v>0.815559</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274656</v>
+        <v>0.983662</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240094</v>
+        <v>0.840043</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245366</v>
+        <v>0.804999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277195</v>
+        <v>0.9459920000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241207</v>
+        <v>0.8337059999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245603</v>
+        <v>0.807432</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274815</v>
+        <v>0.937382</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24318</v>
+        <v>0.823147</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247375</v>
+        <v>0.793326</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279051</v>
+        <v>0.94847</v>
       </c>
       <c r="C74" t="n">
-        <v>0.244584</v>
+        <v>0.835041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249551</v>
+        <v>0.798623</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27627</v>
+        <v>0.948383</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245914</v>
+        <v>0.8216909999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250375</v>
+        <v>0.791552</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276649</v>
+        <v>0.935934</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248104</v>
+        <v>0.80657</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252631</v>
+        <v>0.797443</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281529</v>
+        <v>0.946926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250048</v>
+        <v>0.811256</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257149</v>
+        <v>0.78371</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279537</v>
+        <v>0.921304</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253836</v>
+        <v>0.7952939999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260874</v>
+        <v>0.789364</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.281801</v>
+        <v>0.964967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257732</v>
+        <v>0.794216</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269337</v>
+        <v>0.773753</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286399</v>
+        <v>0.920272</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26442</v>
+        <v>0.813462</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255336</v>
+        <v>0.997072</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297507</v>
+        <v>1.1412</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241843</v>
+        <v>0.9974769999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257493</v>
+        <v>0.976614</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298302</v>
+        <v>1.12634</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241534</v>
+        <v>1.0071</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252493</v>
+        <v>0.992929</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.294814</v>
+        <v>1.13856</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243107</v>
+        <v>0.985845</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255808</v>
+        <v>0.94765</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298842</v>
+        <v>1.10266</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244474</v>
+        <v>0.994139</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255841</v>
+        <v>0.967265</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298466</v>
+        <v>1.10313</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24603</v>
+        <v>0.994896</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257342</v>
+        <v>0.944512</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298939</v>
+        <v>1.14085</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244635</v>
+        <v>0.980768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258148</v>
+        <v>0.9637520000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300372</v>
+        <v>1.08622</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244563</v>
+        <v>0.960927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257797</v>
+        <v>0.933542</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302679</v>
+        <v>1.07068</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24715</v>
+        <v>0.9733309999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260893</v>
+        <v>0.922951</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.304774</v>
+        <v>1.08785</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250054</v>
+        <v>0.978499</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263201</v>
+        <v>0.919091</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.304311</v>
+        <v>1.08959</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250515</v>
+        <v>0.934117</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264377</v>
+        <v>0.959691</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304276</v>
+        <v>1.0861</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253411</v>
+        <v>0.943018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266396</v>
+        <v>0.934374</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.306166</v>
+        <v>1.07402</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253457</v>
+        <v>0.948068</v>
       </c>
       <c r="D92" t="n">
-        <v>0.27125</v>
+        <v>0.936105</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.30516</v>
+        <v>1.07138</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258593</v>
+        <v>0.940787</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278327</v>
+        <v>0.908294</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.308969</v>
+        <v>1.06063</v>
       </c>
       <c r="C94" t="n">
-        <v>0.267149</v>
+        <v>0.941056</v>
       </c>
       <c r="D94" t="n">
-        <v>0.369907</v>
+        <v>1.17066</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.459696</v>
+        <v>1.26918</v>
       </c>
       <c r="C95" t="n">
-        <v>0.384255</v>
+        <v>1.18033</v>
       </c>
       <c r="D95" t="n">
-        <v>0.371329</v>
+        <v>1.13493</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.440941</v>
+        <v>1.26393</v>
       </c>
       <c r="C96" t="n">
-        <v>0.399213</v>
+        <v>1.15056</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384034</v>
+        <v>1.13693</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46598</v>
+        <v>1.30921</v>
       </c>
       <c r="C97" t="n">
-        <v>0.375799</v>
+        <v>1.17328</v>
       </c>
       <c r="D97" t="n">
-        <v>0.373689</v>
+        <v>1.11505</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.427151</v>
+        <v>1.28221</v>
       </c>
       <c r="C98" t="n">
-        <v>0.38073</v>
+        <v>1.14239</v>
       </c>
       <c r="D98" t="n">
-        <v>0.384085</v>
+        <v>1.12921</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.433451</v>
+        <v>1.27855</v>
       </c>
       <c r="C99" t="n">
-        <v>0.392098</v>
+        <v>1.15321</v>
       </c>
       <c r="D99" t="n">
-        <v>0.382523</v>
+        <v>1.12502</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.434353</v>
+        <v>1.29175</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418658</v>
+        <v>1.15406</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406016</v>
+        <v>1.11919</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496686</v>
+        <v>1.27645</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394769</v>
+        <v>1.12291</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396841</v>
+        <v>1.09478</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.448816</v>
+        <v>1.25486</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429507</v>
+        <v>1.13893</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41858</v>
+        <v>1.07391</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491931</v>
+        <v>1.26284</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433432</v>
+        <v>1.13102</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418178</v>
+        <v>1.07377</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495656</v>
+        <v>1.24928</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405665</v>
+        <v>1.14291</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400784</v>
+        <v>1.06343</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.456956</v>
+        <v>1.24304</v>
       </c>
       <c r="C105" t="n">
-        <v>0.436166</v>
+        <v>1.13091</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417498</v>
+        <v>1.07464</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500381</v>
+        <v>1.2465</v>
       </c>
       <c r="C106" t="n">
-        <v>0.436061</v>
+        <v>1.11168</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41904</v>
+        <v>1.07583</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494462</v>
+        <v>1.27259</v>
       </c>
       <c r="C107" t="n">
-        <v>0.441836</v>
+        <v>1.11847</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433298</v>
+        <v>1.08194</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492435</v>
+        <v>1.21414</v>
       </c>
       <c r="C108" t="n">
-        <v>0.443299</v>
+        <v>1.11664</v>
       </c>
       <c r="D108" t="n">
-        <v>0.687528</v>
+        <v>1.2845</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494148</v>
+        <v>1.24056</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450812</v>
+        <v>1.12418</v>
       </c>
       <c r="D109" t="n">
-        <v>0.693379</v>
+        <v>1.2912</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.821513</v>
+        <v>1.46236</v>
       </c>
       <c r="C110" t="n">
-        <v>0.702449</v>
+        <v>1.34557</v>
       </c>
       <c r="D110" t="n">
-        <v>0.707597</v>
+        <v>1.27035</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.819484</v>
+        <v>1.46048</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68672</v>
+        <v>1.31826</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710651</v>
+        <v>1.28019</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.817094</v>
+        <v>1.49997</v>
       </c>
       <c r="C112" t="n">
-        <v>0.705192</v>
+        <v>1.37285</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7107869999999999</v>
+        <v>1.27657</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.806392</v>
+        <v>1.45695</v>
       </c>
       <c r="C113" t="n">
-        <v>0.706555</v>
+        <v>1.35703</v>
       </c>
       <c r="D113" t="n">
-        <v>0.711884</v>
+        <v>1.27902</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.807478</v>
+        <v>1.48677</v>
       </c>
       <c r="C114" t="n">
-        <v>0.707437</v>
+        <v>1.34764</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713535</v>
+        <v>1.2647</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.822864</v>
+        <v>1.49106</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7097329999999999</v>
+        <v>1.33356</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7038990000000001</v>
+        <v>1.27068</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.808091</v>
+        <v>1.43142</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694043</v>
+        <v>1.33165</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7174199999999999</v>
+        <v>1.27158</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.817838</v>
+        <v>1.4576</v>
       </c>
       <c r="C117" t="n">
-        <v>0.697434</v>
+        <v>1.33531</v>
       </c>
       <c r="D117" t="n">
-        <v>0.718681</v>
+        <v>1.25389</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.819384</v>
+        <v>1.45537</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71561</v>
+        <v>1.32487</v>
       </c>
       <c r="D118" t="n">
-        <v>0.722495</v>
+        <v>1.21858</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.806998</v>
+        <v>1.44369</v>
       </c>
       <c r="C119" t="n">
-        <v>0.719715</v>
+        <v>1.32268</v>
       </c>
       <c r="D119" t="n">
-        <v>0.725233</v>
+        <v>1.2529</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.817949</v>
+        <v>1.49854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7238560000000001</v>
+        <v>1.35447</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7195859999999999</v>
+        <v>1.25089</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.818558</v>
+        <v>1.44513</v>
       </c>
       <c r="C121" t="n">
-        <v>0.730129</v>
+        <v>1.30399</v>
       </c>
       <c r="D121" t="n">
-        <v>0.739083</v>
+        <v>1.23396</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.822273</v>
+        <v>1.44749</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7382880000000001</v>
+        <v>1.33168</v>
       </c>
       <c r="D122" t="n">
-        <v>0.748327</v>
+        <v>1.26206</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.824541</v>
+        <v>1.45968</v>
       </c>
       <c r="C123" t="n">
-        <v>0.747686</v>
+        <v>1.34427</v>
       </c>
       <c r="D123" t="n">
-        <v>0.830082</v>
+        <v>1.49217</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09668</v>
+        <v>1.69445</v>
       </c>
       <c r="C124" t="n">
-        <v>0.819318</v>
+        <v>1.55703</v>
       </c>
       <c r="D124" t="n">
-        <v>0.832251</v>
+        <v>1.47328</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.09485</v>
+        <v>1.71843</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8141620000000001</v>
+        <v>1.56169</v>
       </c>
       <c r="D125" t="n">
-        <v>0.834068</v>
+        <v>1.46352</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09944</v>
+        <v>1.70162</v>
       </c>
       <c r="C126" t="n">
-        <v>0.81472</v>
+        <v>1.55672</v>
       </c>
       <c r="D126" t="n">
-        <v>0.834002</v>
+        <v>1.47813</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11869</v>
+        <v>1.72284</v>
       </c>
       <c r="C127" t="n">
-        <v>0.815905</v>
+        <v>1.56467</v>
       </c>
       <c r="D127" t="n">
-        <v>0.836139</v>
+        <v>1.48169</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11229</v>
+        <v>1.73131</v>
       </c>
       <c r="C128" t="n">
-        <v>0.818392</v>
+        <v>1.56302</v>
       </c>
       <c r="D128" t="n">
-        <v>0.838952</v>
+        <v>1.47719</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10961</v>
+        <v>1.70219</v>
       </c>
       <c r="C129" t="n">
-        <v>0.828611</v>
+        <v>1.55406</v>
       </c>
       <c r="D129" t="n">
-        <v>0.841427</v>
+        <v>1.48964</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10147</v>
+        <v>1.71308</v>
       </c>
       <c r="C130" t="n">
-        <v>0.830443</v>
+        <v>1.5875</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844567</v>
+        <v>1.46659</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10824</v>
+        <v>1.72753</v>
       </c>
       <c r="C131" t="n">
-        <v>0.833937</v>
+        <v>1.55375</v>
       </c>
       <c r="D131" t="n">
-        <v>0.84803</v>
+        <v>1.49306</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10958</v>
+        <v>1.7411</v>
       </c>
       <c r="C132" t="n">
-        <v>0.836708</v>
+        <v>1.55</v>
       </c>
       <c r="D132" t="n">
-        <v>0.851222</v>
+        <v>1.52294</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08048</v>
+        <v>1.70514</v>
       </c>
       <c r="C133" t="n">
-        <v>0.841645</v>
+        <v>1.55848</v>
       </c>
       <c r="D133" t="n">
-        <v>0.85651</v>
+        <v>1.48204</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07817</v>
+        <v>1.72121</v>
       </c>
       <c r="C134" t="n">
-        <v>0.847514</v>
+        <v>1.58944</v>
       </c>
       <c r="D134" t="n">
-        <v>0.858604</v>
+        <v>1.49195</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10831</v>
+        <v>1.72429</v>
       </c>
       <c r="C135" t="n">
-        <v>0.854212</v>
+        <v>1.57739</v>
       </c>
       <c r="D135" t="n">
-        <v>0.87468</v>
+        <v>1.51209</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08642</v>
+        <v>1.72822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8660949999999999</v>
+        <v>1.59697</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8921790000000001</v>
+        <v>1.53307</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09611</v>
+        <v>1.7638</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8816079999999999</v>
+        <v>1.58784</v>
       </c>
       <c r="D137" t="n">
-        <v>0.88586</v>
+        <v>1.72921</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35234</v>
+        <v>1.99156</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87153</v>
+        <v>1.83503</v>
       </c>
       <c r="D138" t="n">
-        <v>0.883483</v>
+        <v>1.74469</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35396</v>
+        <v>1.97931</v>
       </c>
       <c r="C139" t="n">
-        <v>0.872622</v>
+        <v>1.81347</v>
       </c>
       <c r="D139" t="n">
-        <v>0.888558</v>
+        <v>1.75758</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35476</v>
+        <v>1.98954</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87454</v>
+        <v>1.82035</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887594</v>
+        <v>1.7389</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35463</v>
+        <v>1.99304</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875146</v>
+        <v>1.84281</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889257</v>
+        <v>1.77204</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34418</v>
+        <v>2.02199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877048</v>
+        <v>1.84881</v>
       </c>
       <c r="D142" t="n">
-        <v>0.894312</v>
+        <v>1.77722</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3562</v>
+        <v>2.01543</v>
       </c>
       <c r="C143" t="n">
-        <v>0.880449</v>
+        <v>1.84535</v>
       </c>
       <c r="D143" t="n">
-        <v>0.896936</v>
+        <v>1.76909</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.743398</v>
+        <v>0.752906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.542999</v>
+        <v>0.556441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5477959999999999</v>
+        <v>0.569589</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.655519</v>
+        <v>0.684564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.526658</v>
+        <v>0.57353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.572483</v>
+        <v>0.563596</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.678759</v>
+        <v>0.652576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.554574</v>
+        <v>0.542465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.569106</v>
+        <v>0.530813</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.643274</v>
+        <v>0.667756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.533485</v>
+        <v>0.541494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.561094</v>
+        <v>0.556385</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6636339999999999</v>
+        <v>0.667006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.563849</v>
+        <v>0.529196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55353</v>
+        <v>0.5383599999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6544410000000001</v>
+        <v>0.63793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.540878</v>
+        <v>0.529649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.548522</v>
+        <v>0.530651</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6583869999999999</v>
+        <v>0.647473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5296110000000001</v>
+        <v>0.535101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.545861</v>
+        <v>0.539985</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.652797</v>
+        <v>0.632893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.536092</v>
+        <v>0.527214</v>
       </c>
       <c r="D9" t="n">
-        <v>0.629259</v>
+        <v>0.616348</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.728548</v>
+        <v>0.718992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.598909</v>
+        <v>0.603949</v>
       </c>
       <c r="D10" t="n">
-        <v>0.620595</v>
+        <v>0.60195</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.738656</v>
+        <v>0.702539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5931070000000001</v>
+        <v>0.603684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.611317</v>
+        <v>0.59994</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.739987</v>
+        <v>0.710742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.600002</v>
+        <v>0.567118</v>
       </c>
       <c r="D12" t="n">
-        <v>0.61451</v>
+        <v>0.574083</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.710978</v>
+        <v>0.703884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.59252</v>
+        <v>0.5756869999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.588217</v>
+        <v>0.582178</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.719515</v>
+        <v>0.709975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.575728</v>
+        <v>0.580088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.581639</v>
+        <v>0.587887</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.71937</v>
+        <v>0.694069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.586763</v>
+        <v>0.570703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.563601</v>
+        <v>0.570902</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.679729</v>
+        <v>0.679275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.55261</v>
+        <v>0.562589</v>
       </c>
       <c r="D16" t="n">
-        <v>0.581771</v>
+        <v>0.585968</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6836719999999999</v>
+        <v>0.6771509999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.562312</v>
+        <v>0.561561</v>
       </c>
       <c r="D17" t="n">
-        <v>0.558662</v>
+        <v>0.560771</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6775139999999999</v>
+        <v>0.667358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54351</v>
+        <v>0.535818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.560261</v>
+        <v>0.553925</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.684346</v>
+        <v>0.664743</v>
       </c>
       <c r="C19" t="n">
-        <v>0.541508</v>
+        <v>0.537942</v>
       </c>
       <c r="D19" t="n">
-        <v>0.546193</v>
+        <v>0.542142</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.645824</v>
+        <v>0.653797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.528863</v>
+        <v>0.54104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.534755</v>
+        <v>0.552157</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.632682</v>
+        <v>0.644051</v>
       </c>
       <c r="C21" t="n">
-        <v>0.544655</v>
+        <v>0.527856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.558508</v>
+        <v>0.52972</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.647054</v>
+        <v>0.662407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.52877</v>
+        <v>0.552806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.549585</v>
+        <v>0.544421</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.66997</v>
+        <v>0.658009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.53191</v>
+        <v>0.526313</v>
       </c>
       <c r="D23" t="n">
-        <v>0.618444</v>
+        <v>0.626332</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7297129999999999</v>
+        <v>0.730453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.634371</v>
+        <v>0.618888</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6130100000000001</v>
+        <v>0.614638</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7359290000000001</v>
+        <v>0.726572</v>
       </c>
       <c r="C25" t="n">
-        <v>0.626162</v>
+        <v>0.607348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.614404</v>
+        <v>0.616613</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.721004</v>
+        <v>0.746754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.588884</v>
+        <v>0.603201</v>
       </c>
       <c r="D26" t="n">
-        <v>0.598452</v>
+        <v>0.6058249999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.723249</v>
+        <v>0.71577</v>
       </c>
       <c r="C27" t="n">
-        <v>0.61338</v>
+        <v>0.592325</v>
       </c>
       <c r="D27" t="n">
-        <v>0.604181</v>
+        <v>0.590108</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.738418</v>
+        <v>0.711434</v>
       </c>
       <c r="C28" t="n">
-        <v>0.600458</v>
+        <v>0.5958869999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.581777</v>
+        <v>0.594143</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.735215</v>
+        <v>0.699319</v>
       </c>
       <c r="C29" t="n">
-        <v>0.574183</v>
+        <v>0.589491</v>
       </c>
       <c r="D29" t="n">
-        <v>0.578306</v>
+        <v>0.595876</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.699616</v>
+        <v>0.682497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.571</v>
+        <v>0.580582</v>
       </c>
       <c r="D30" t="n">
-        <v>0.575628</v>
+        <v>0.576189</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.681046</v>
+        <v>0.697253</v>
       </c>
       <c r="C31" t="n">
-        <v>0.564201</v>
+        <v>0.580724</v>
       </c>
       <c r="D31" t="n">
-        <v>0.584063</v>
+        <v>0.574425</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.676474</v>
+        <v>0.681156</v>
       </c>
       <c r="C32" t="n">
-        <v>0.568793</v>
+        <v>0.570717</v>
       </c>
       <c r="D32" t="n">
-        <v>0.570518</v>
+        <v>0.56381</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.685496</v>
+        <v>0.695883</v>
       </c>
       <c r="C33" t="n">
-        <v>0.568842</v>
+        <v>0.563408</v>
       </c>
       <c r="D33" t="n">
-        <v>0.56311</v>
+        <v>0.583104</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.669328</v>
+        <v>0.681011</v>
       </c>
       <c r="C34" t="n">
-        <v>0.557362</v>
+        <v>0.55764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.548644</v>
+        <v>0.582708</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.663354</v>
+        <v>0.668285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.568184</v>
+        <v>0.5628919999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567013</v>
+        <v>0.558515</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.670617</v>
+        <v>0.685707</v>
       </c>
       <c r="C36" t="n">
-        <v>0.577508</v>
+        <v>0.562721</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566584</v>
+        <v>0.552826</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.680103</v>
+        <v>0.673345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.564538</v>
+        <v>0.56057</v>
       </c>
       <c r="D37" t="n">
-        <v>0.654417</v>
+        <v>0.649251</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.849858</v>
+        <v>0.854275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.724593</v>
+        <v>0.7114549999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.643894</v>
+        <v>0.650623</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.849485</v>
+        <v>0.818941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.719349</v>
+        <v>0.6974320000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.643226</v>
+        <v>0.623545</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.819111</v>
+        <v>0.828479</v>
       </c>
       <c r="C40" t="n">
-        <v>0.707093</v>
+        <v>0.706104</v>
       </c>
       <c r="D40" t="n">
-        <v>0.620795</v>
+        <v>0.639053</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8277870000000001</v>
+        <v>0.831593</v>
       </c>
       <c r="C41" t="n">
-        <v>0.689648</v>
+        <v>0.709233</v>
       </c>
       <c r="D41" t="n">
-        <v>0.633233</v>
+        <v>0.626934</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.827064</v>
+        <v>0.813893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.672009</v>
+        <v>0.665552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.613053</v>
+        <v>0.631846</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.803797</v>
+        <v>0.79344</v>
       </c>
       <c r="C43" t="n">
-        <v>0.677741</v>
+        <v>0.665683</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6018559999999999</v>
+        <v>0.605452</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.797654</v>
+        <v>0.7878500000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.658794</v>
+        <v>0.66366</v>
       </c>
       <c r="D44" t="n">
-        <v>0.597316</v>
+        <v>0.600604</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.771962</v>
+        <v>0.81586</v>
       </c>
       <c r="C45" t="n">
-        <v>0.654064</v>
+        <v>0.6588850000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.605566</v>
+        <v>0.600426</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.773909</v>
+        <v>0.8051739999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.650552</v>
+        <v>0.667874</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5740459999999999</v>
+        <v>0.598305</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.760244</v>
+        <v>0.769741</v>
       </c>
       <c r="C47" t="n">
-        <v>0.638221</v>
+        <v>0.64147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.590848</v>
+        <v>0.603471</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.761672</v>
+        <v>0.771443</v>
       </c>
       <c r="C48" t="n">
-        <v>0.653405</v>
+        <v>0.630816</v>
       </c>
       <c r="D48" t="n">
-        <v>0.600651</v>
+        <v>0.594284</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.767692</v>
+        <v>0.762728</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6338549999999999</v>
+        <v>0.635665</v>
       </c>
       <c r="D49" t="n">
-        <v>0.59402</v>
+        <v>0.606449</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.765315</v>
+        <v>0.760231</v>
       </c>
       <c r="C50" t="n">
-        <v>0.63276</v>
+        <v>0.637437</v>
       </c>
       <c r="D50" t="n">
-        <v>0.580212</v>
+        <v>0.590708</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.762343</v>
+        <v>0.757907</v>
       </c>
       <c r="C51" t="n">
-        <v>0.62854</v>
+        <v>0.633894</v>
       </c>
       <c r="D51" t="n">
-        <v>0.759993</v>
+        <v>0.746362</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.747445</v>
+        <v>0.748566</v>
       </c>
       <c r="C52" t="n">
-        <v>0.63231</v>
+        <v>0.640326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.742513</v>
+        <v>0.744314</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.927655</v>
+        <v>0.942281</v>
       </c>
       <c r="C53" t="n">
-        <v>0.801357</v>
+        <v>0.8060580000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.740432</v>
+        <v>0.724898</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.918502</v>
+        <v>0.9083329999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.774385</v>
+        <v>0.7904949999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7239409999999999</v>
+        <v>0.719858</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9002830000000001</v>
+        <v>0.9034</v>
       </c>
       <c r="C55" t="n">
-        <v>0.79598</v>
+        <v>0.766057</v>
       </c>
       <c r="D55" t="n">
-        <v>0.710297</v>
+        <v>0.715882</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.896986</v>
+        <v>0.902429</v>
       </c>
       <c r="C56" t="n">
-        <v>0.75732</v>
+        <v>0.758796</v>
       </c>
       <c r="D56" t="n">
-        <v>0.735939</v>
+        <v>0.711001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.872027</v>
+        <v>0.879977</v>
       </c>
       <c r="C57" t="n">
-        <v>0.755864</v>
+        <v>0.753536</v>
       </c>
       <c r="D57" t="n">
-        <v>0.683518</v>
+        <v>0.712595</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869747</v>
+        <v>0.858407</v>
       </c>
       <c r="C58" t="n">
-        <v>0.733494</v>
+        <v>0.743779</v>
       </c>
       <c r="D58" t="n">
-        <v>0.709363</v>
+        <v>0.691968</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.863945</v>
+        <v>0.862466</v>
       </c>
       <c r="C59" t="n">
-        <v>0.737471</v>
+        <v>0.722499</v>
       </c>
       <c r="D59" t="n">
-        <v>0.702102</v>
+        <v>0.693051</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.863171</v>
+        <v>0.8270650000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.727701</v>
+        <v>0.737681</v>
       </c>
       <c r="D60" t="n">
-        <v>0.673192</v>
+        <v>0.672878</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.838262</v>
+        <v>0.843108</v>
       </c>
       <c r="C61" t="n">
-        <v>0.721146</v>
+        <v>0.70932</v>
       </c>
       <c r="D61" t="n">
-        <v>0.685676</v>
+        <v>0.676177</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.849104</v>
+        <v>0.839686</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7076750000000001</v>
+        <v>0.690797</v>
       </c>
       <c r="D62" t="n">
-        <v>0.674793</v>
+        <v>0.675787</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8193</v>
+        <v>0.832043</v>
       </c>
       <c r="C63" t="n">
-        <v>0.711229</v>
+        <v>0.709813</v>
       </c>
       <c r="D63" t="n">
-        <v>0.669856</v>
+        <v>0.675845</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.828037</v>
+        <v>0.832047</v>
       </c>
       <c r="C64" t="n">
-        <v>0.695063</v>
+        <v>0.706052</v>
       </c>
       <c r="D64" t="n">
-        <v>0.676071</v>
+        <v>0.674006</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.820726</v>
+        <v>0.823124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.702465</v>
+        <v>0.701175</v>
       </c>
       <c r="D65" t="n">
-        <v>0.670744</v>
+        <v>0.65693</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8208259999999999</v>
+        <v>0.808295</v>
       </c>
       <c r="C66" t="n">
-        <v>0.700338</v>
+        <v>0.694893</v>
       </c>
       <c r="D66" t="n">
-        <v>0.844771</v>
+        <v>0.863405</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02725</v>
+        <v>1.00536</v>
       </c>
       <c r="C67" t="n">
-        <v>0.859147</v>
+        <v>0.875545</v>
       </c>
       <c r="D67" t="n">
-        <v>0.828276</v>
+        <v>0.854844</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0198</v>
+        <v>0.998117</v>
       </c>
       <c r="C68" t="n">
-        <v>0.866304</v>
+        <v>0.873119</v>
       </c>
       <c r="D68" t="n">
-        <v>0.842457</v>
+        <v>0.817949</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00799</v>
+        <v>0.986703</v>
       </c>
       <c r="C69" t="n">
-        <v>0.853988</v>
+        <v>0.846078</v>
       </c>
       <c r="D69" t="n">
-        <v>0.809917</v>
+        <v>0.839844</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.978824</v>
+        <v>0.971944</v>
       </c>
       <c r="C70" t="n">
-        <v>0.855667</v>
+        <v>0.838507</v>
       </c>
       <c r="D70" t="n">
-        <v>0.815559</v>
+        <v>0.812214</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.983662</v>
+        <v>0.970917</v>
       </c>
       <c r="C71" t="n">
-        <v>0.840043</v>
+        <v>0.838331</v>
       </c>
       <c r="D71" t="n">
-        <v>0.804999</v>
+        <v>0.807918</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9459920000000001</v>
+        <v>0.9588</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8337059999999999</v>
+        <v>0.835245</v>
       </c>
       <c r="D72" t="n">
-        <v>0.807432</v>
+        <v>0.795515</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.937382</v>
+        <v>0.9492620000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823147</v>
+        <v>0.846437</v>
       </c>
       <c r="D73" t="n">
-        <v>0.793326</v>
+        <v>0.818704</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.94847</v>
+        <v>0.953333</v>
       </c>
       <c r="C74" t="n">
-        <v>0.835041</v>
+        <v>0.816079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.798623</v>
+        <v>0.788593</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.948383</v>
+        <v>0.963497</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8216909999999999</v>
+        <v>0.83721</v>
       </c>
       <c r="D75" t="n">
-        <v>0.791552</v>
+        <v>0.817535</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.935934</v>
+        <v>0.9369769999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.80657</v>
+        <v>0.8217950000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797443</v>
+        <v>0.782932</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.946926</v>
+        <v>0.93147</v>
       </c>
       <c r="C77" t="n">
-        <v>0.811256</v>
+        <v>0.804861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78371</v>
+        <v>0.764215</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.921304</v>
+        <v>0.923307</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7952939999999999</v>
+        <v>0.806611</v>
       </c>
       <c r="D78" t="n">
-        <v>0.789364</v>
+        <v>0.770778</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.964967</v>
+        <v>0.9084950000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.794216</v>
+        <v>0.791986</v>
       </c>
       <c r="D79" t="n">
-        <v>0.773753</v>
+        <v>0.790848</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.920272</v>
+        <v>0.929652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.813462</v>
+        <v>0.800474</v>
       </c>
       <c r="D80" t="n">
-        <v>0.997072</v>
+        <v>0.984335</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1412</v>
+        <v>1.13999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9974769999999999</v>
+        <v>1.0073</v>
       </c>
       <c r="D81" t="n">
-        <v>0.976614</v>
+        <v>0.9631729999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12634</v>
+        <v>1.12678</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0071</v>
+        <v>0.996915</v>
       </c>
       <c r="D82" t="n">
-        <v>0.992929</v>
+        <v>0.971684</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.13856</v>
+        <v>1.11471</v>
       </c>
       <c r="C83" t="n">
-        <v>0.985845</v>
+        <v>0.985748</v>
       </c>
       <c r="D83" t="n">
-        <v>0.94765</v>
+        <v>0.96822</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10266</v>
+        <v>1.10625</v>
       </c>
       <c r="C84" t="n">
-        <v>0.994139</v>
+        <v>0.982663</v>
       </c>
       <c r="D84" t="n">
-        <v>0.967265</v>
+        <v>0.959399</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10313</v>
+        <v>1.0833</v>
       </c>
       <c r="C85" t="n">
-        <v>0.994896</v>
+        <v>0.988574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.944512</v>
+        <v>0.966132</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.14085</v>
+        <v>1.07282</v>
       </c>
       <c r="C86" t="n">
-        <v>0.980768</v>
+        <v>0.971656</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9637520000000001</v>
+        <v>0.923936</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08622</v>
+        <v>1.09462</v>
       </c>
       <c r="C87" t="n">
-        <v>0.960927</v>
+        <v>0.955306</v>
       </c>
       <c r="D87" t="n">
-        <v>0.933542</v>
+        <v>0.91564</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.07068</v>
+        <v>1.06675</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9733309999999999</v>
+        <v>0.966988</v>
       </c>
       <c r="D88" t="n">
-        <v>0.922951</v>
+        <v>0.937199</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.08785</v>
+        <v>1.07299</v>
       </c>
       <c r="C89" t="n">
-        <v>0.978499</v>
+        <v>0.957241</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919091</v>
+        <v>0.919634</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.08959</v>
+        <v>1.06298</v>
       </c>
       <c r="C90" t="n">
-        <v>0.934117</v>
+        <v>0.938445</v>
       </c>
       <c r="D90" t="n">
-        <v>0.959691</v>
+        <v>0.910649</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0861</v>
+        <v>1.05403</v>
       </c>
       <c r="C91" t="n">
-        <v>0.943018</v>
+        <v>0.958441</v>
       </c>
       <c r="D91" t="n">
-        <v>0.934374</v>
+        <v>0.918474</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.07402</v>
+        <v>1.07767</v>
       </c>
       <c r="C92" t="n">
-        <v>0.948068</v>
+        <v>0.94591</v>
       </c>
       <c r="D92" t="n">
-        <v>0.936105</v>
+        <v>0.911507</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07138</v>
+        <v>1.05991</v>
       </c>
       <c r="C93" t="n">
-        <v>0.940787</v>
+        <v>0.935441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.908294</v>
+        <v>0.893371</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.06063</v>
+        <v>1.05362</v>
       </c>
       <c r="C94" t="n">
-        <v>0.941056</v>
+        <v>0.926044</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17066</v>
+        <v>1.12108</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.26918</v>
+        <v>1.25157</v>
       </c>
       <c r="C95" t="n">
-        <v>1.18033</v>
+        <v>1.14781</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13493</v>
+        <v>1.10864</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26393</v>
+        <v>1.26751</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15056</v>
+        <v>1.15486</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13693</v>
+        <v>1.09897</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30921</v>
+        <v>1.2615</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17328</v>
+        <v>1.14598</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11505</v>
+        <v>1.11351</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.28221</v>
+        <v>1.24883</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14239</v>
+        <v>1.12882</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12921</v>
+        <v>1.08668</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27855</v>
+        <v>1.24447</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15321</v>
+        <v>1.13722</v>
       </c>
       <c r="D99" t="n">
-        <v>1.12502</v>
+        <v>1.09713</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29175</v>
+        <v>1.22669</v>
       </c>
       <c r="C100" t="n">
-        <v>1.15406</v>
+        <v>1.12869</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11919</v>
+        <v>1.08234</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27645</v>
+        <v>1.26325</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12291</v>
+        <v>1.11237</v>
       </c>
       <c r="D101" t="n">
-        <v>1.09478</v>
+        <v>1.06482</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25486</v>
+        <v>1.24728</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13893</v>
+        <v>1.10892</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07391</v>
+        <v>1.0846</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.26284</v>
+        <v>1.2403</v>
       </c>
       <c r="C103" t="n">
-        <v>1.13102</v>
+        <v>1.09714</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07377</v>
+        <v>1.06657</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.24928</v>
+        <v>1.23181</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14291</v>
+        <v>1.11571</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06343</v>
+        <v>1.06058</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.24304</v>
+        <v>1.23947</v>
       </c>
       <c r="C105" t="n">
-        <v>1.13091</v>
+        <v>1.12913</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07464</v>
+        <v>1.07175</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.2465</v>
+        <v>1.21021</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11168</v>
+        <v>1.11243</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07583</v>
+        <v>1.05556</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.27259</v>
+        <v>1.21775</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11847</v>
+        <v>1.12094</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08194</v>
+        <v>1.05737</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.21414</v>
+        <v>1.22408</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11664</v>
+        <v>1.09372</v>
       </c>
       <c r="D108" t="n">
-        <v>1.2845</v>
+        <v>1.32289</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.24056</v>
+        <v>1.20673</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12418</v>
+        <v>1.11478</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2912</v>
+        <v>1.27402</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.46236</v>
+        <v>1.4412</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34557</v>
+        <v>1.32186</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27035</v>
+        <v>1.26635</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.46048</v>
+        <v>1.45958</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31826</v>
+        <v>1.32009</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28019</v>
+        <v>1.26438</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.49997</v>
+        <v>1.46418</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37285</v>
+        <v>1.30467</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27657</v>
+        <v>1.24961</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45695</v>
+        <v>1.45003</v>
       </c>
       <c r="C113" t="n">
-        <v>1.35703</v>
+        <v>1.34136</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27902</v>
+        <v>1.24257</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.48677</v>
+        <v>1.46114</v>
       </c>
       <c r="C114" t="n">
-        <v>1.34764</v>
+        <v>1.31319</v>
       </c>
       <c r="D114" t="n">
-        <v>1.2647</v>
+        <v>1.25514</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49106</v>
+        <v>1.4308</v>
       </c>
       <c r="C115" t="n">
-        <v>1.33356</v>
+        <v>1.33165</v>
       </c>
       <c r="D115" t="n">
-        <v>1.27068</v>
+        <v>1.23116</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.43142</v>
+        <v>1.4275</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33165</v>
+        <v>1.31683</v>
       </c>
       <c r="D116" t="n">
-        <v>1.27158</v>
+        <v>1.23752</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.4576</v>
+        <v>1.43277</v>
       </c>
       <c r="C117" t="n">
-        <v>1.33531</v>
+        <v>1.31904</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25389</v>
+        <v>1.27338</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.45537</v>
+        <v>1.42484</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32487</v>
+        <v>1.3094</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21858</v>
+        <v>1.24334</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44369</v>
+        <v>1.43119</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32268</v>
+        <v>1.32285</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2529</v>
+        <v>1.2433</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.49854</v>
+        <v>1.44233</v>
       </c>
       <c r="C120" t="n">
-        <v>1.35447</v>
+        <v>1.31409</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25089</v>
+        <v>1.22219</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.44513</v>
+        <v>1.4373</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30399</v>
+        <v>1.32377</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23396</v>
+        <v>1.25252</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.44749</v>
+        <v>1.45688</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33168</v>
+        <v>1.33787</v>
       </c>
       <c r="D122" t="n">
-        <v>1.26206</v>
+        <v>1.25682</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.45968</v>
+        <v>1.44834</v>
       </c>
       <c r="C123" t="n">
-        <v>1.34427</v>
+        <v>1.32716</v>
       </c>
       <c r="D123" t="n">
-        <v>1.49217</v>
+        <v>1.47727</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.69445</v>
+        <v>1.68487</v>
       </c>
       <c r="C124" t="n">
-        <v>1.55703</v>
+        <v>1.54247</v>
       </c>
       <c r="D124" t="n">
-        <v>1.47328</v>
+        <v>1.45332</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71843</v>
+        <v>1.66637</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56169</v>
+        <v>1.5635</v>
       </c>
       <c r="D125" t="n">
-        <v>1.46352</v>
+        <v>1.44713</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.70162</v>
+        <v>1.6898</v>
       </c>
       <c r="C126" t="n">
-        <v>1.55672</v>
+        <v>1.51986</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47813</v>
+        <v>1.48045</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.72284</v>
+        <v>1.69471</v>
       </c>
       <c r="C127" t="n">
-        <v>1.56467</v>
+        <v>1.52451</v>
       </c>
       <c r="D127" t="n">
-        <v>1.48169</v>
+        <v>1.48199</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.73131</v>
+        <v>1.69144</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56302</v>
+        <v>1.57112</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47719</v>
+        <v>1.47611</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.70219</v>
+        <v>1.73806</v>
       </c>
       <c r="C129" t="n">
-        <v>1.55406</v>
+        <v>1.53982</v>
       </c>
       <c r="D129" t="n">
-        <v>1.48964</v>
+        <v>1.47088</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.71308</v>
+        <v>1.7073</v>
       </c>
       <c r="C130" t="n">
-        <v>1.5875</v>
+        <v>1.56346</v>
       </c>
       <c r="D130" t="n">
-        <v>1.46659</v>
+        <v>1.4802</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72753</v>
+        <v>1.70219</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55375</v>
+        <v>1.55046</v>
       </c>
       <c r="D131" t="n">
-        <v>1.49306</v>
+        <v>1.4822</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.7411</v>
+        <v>1.69571</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55</v>
+        <v>1.53861</v>
       </c>
       <c r="D132" t="n">
-        <v>1.52294</v>
+        <v>1.48286</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.70514</v>
+        <v>1.73377</v>
       </c>
       <c r="C133" t="n">
-        <v>1.55848</v>
+        <v>1.58317</v>
       </c>
       <c r="D133" t="n">
-        <v>1.48204</v>
+        <v>1.47063</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.72121</v>
+        <v>1.72177</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58944</v>
+        <v>1.57096</v>
       </c>
       <c r="D134" t="n">
-        <v>1.49195</v>
+        <v>1.52242</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.72429</v>
+        <v>1.72137</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57739</v>
+        <v>1.57959</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51209</v>
+        <v>1.49644</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.72822</v>
+        <v>1.73659</v>
       </c>
       <c r="C136" t="n">
-        <v>1.59697</v>
+        <v>1.59607</v>
       </c>
       <c r="D136" t="n">
-        <v>1.53307</v>
+        <v>1.5218</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.7638</v>
+        <v>1.74215</v>
       </c>
       <c r="C137" t="n">
-        <v>1.58784</v>
+        <v>1.61116</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72921</v>
+        <v>1.76872</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.99156</v>
+        <v>1.97434</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83503</v>
+        <v>1.79821</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74469</v>
+        <v>1.74722</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.97931</v>
+        <v>2.01557</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81347</v>
+        <v>1.83255</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75758</v>
+        <v>1.73881</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.98954</v>
+        <v>1.99217</v>
       </c>
       <c r="C140" t="n">
-        <v>1.82035</v>
+        <v>1.82339</v>
       </c>
       <c r="D140" t="n">
-        <v>1.7389</v>
+        <v>1.75256</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.99304</v>
+        <v>2.00556</v>
       </c>
       <c r="C141" t="n">
-        <v>1.84281</v>
+        <v>1.80521</v>
       </c>
       <c r="D141" t="n">
-        <v>1.77204</v>
+        <v>1.76547</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.02199</v>
+        <v>2.03487</v>
       </c>
       <c r="C142" t="n">
-        <v>1.84881</v>
+        <v>1.82836</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77722</v>
+        <v>1.76615</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.01543</v>
+        <v>2.01704</v>
       </c>
       <c r="C143" t="n">
-        <v>1.84535</v>
+        <v>1.83105</v>
       </c>
       <c r="D143" t="n">
-        <v>1.76909</v>
+        <v>1.76259</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.752906</v>
+        <v>0.701038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556441</v>
+        <v>0.536435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569589</v>
+        <v>0.543554</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.684564</v>
+        <v>0.690538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57353</v>
+        <v>0.534064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.563596</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.652576</v>
+        <v>0.652143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.542465</v>
+        <v>0.5305530000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.530813</v>
+        <v>0.5601930000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.667756</v>
+        <v>0.673789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541494</v>
+        <v>0.532705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.556385</v>
+        <v>0.540583</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.667006</v>
+        <v>0.630483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529196</v>
+        <v>0.523578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5383599999999999</v>
+        <v>0.520549</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.63793</v>
+        <v>0.621816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.529649</v>
+        <v>0.540355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.530651</v>
+        <v>0.53005</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.647473</v>
+        <v>0.63778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.535101</v>
+        <v>0.514705</v>
       </c>
       <c r="D8" t="n">
-        <v>0.539985</v>
+        <v>0.52212</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.632893</v>
+        <v>0.636639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.527214</v>
+        <v>0.5122679999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.616348</v>
+        <v>0.59773</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.718992</v>
+        <v>0.697824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603949</v>
+        <v>0.59453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.60195</v>
+        <v>0.595338</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.702539</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603684</v>
+        <v>0.56837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.59994</v>
+        <v>0.578449</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.710742</v>
+        <v>0.714477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.567118</v>
+        <v>0.59113</v>
       </c>
       <c r="D12" t="n">
-        <v>0.574083</v>
+        <v>0.579871</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.703884</v>
+        <v>0.707326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5756869999999999</v>
+        <v>0.556307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.582178</v>
+        <v>0.574989</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.709975</v>
+        <v>0.690866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.580088</v>
+        <v>0.555733</v>
       </c>
       <c r="D14" t="n">
-        <v>0.587887</v>
+        <v>0.552745</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.694069</v>
+        <v>0.655485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.570703</v>
+        <v>0.553528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.570902</v>
+        <v>0.547443</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.679275</v>
+        <v>0.657291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.562589</v>
+        <v>0.552562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.585968</v>
+        <v>0.5445489999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6771509999999999</v>
+        <v>0.668282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.561561</v>
+        <v>0.532478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.560771</v>
+        <v>0.532713</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.667358</v>
+        <v>0.647684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.535818</v>
+        <v>0.522984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.553925</v>
+        <v>0.529446</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.664743</v>
+        <v>0.631425</v>
       </c>
       <c r="C19" t="n">
-        <v>0.537942</v>
+        <v>0.51771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.542142</v>
+        <v>0.525403</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.653797</v>
+        <v>0.631288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.54104</v>
+        <v>0.527563</v>
       </c>
       <c r="D20" t="n">
-        <v>0.552157</v>
+        <v>0.5204839999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.644051</v>
+        <v>0.641651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.527856</v>
+        <v>0.518848</v>
       </c>
       <c r="D21" t="n">
-        <v>0.52972</v>
+        <v>0.544435</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.662407</v>
+        <v>0.621408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.552806</v>
+        <v>0.5182099999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.544421</v>
+        <v>0.534844</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.658009</v>
+        <v>0.624614</v>
       </c>
       <c r="C23" t="n">
-        <v>0.526313</v>
+        <v>0.520834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.626332</v>
+        <v>0.6218089999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.730453</v>
+        <v>0.723132</v>
       </c>
       <c r="C24" t="n">
-        <v>0.618888</v>
+        <v>0.614792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.614638</v>
+        <v>0.6042149999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.726572</v>
+        <v>0.712704</v>
       </c>
       <c r="C25" t="n">
-        <v>0.607348</v>
+        <v>0.587365</v>
       </c>
       <c r="D25" t="n">
-        <v>0.616613</v>
+        <v>0.59839</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.746754</v>
+        <v>0.701728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.603201</v>
+        <v>0.613419</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6058249999999999</v>
+        <v>0.602824</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.71577</v>
+        <v>0.693204</v>
       </c>
       <c r="C27" t="n">
-        <v>0.592325</v>
+        <v>0.5742350000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.590108</v>
+        <v>0.575364</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.711434</v>
+        <v>0.687165</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5958869999999999</v>
+        <v>0.572213</v>
       </c>
       <c r="D28" t="n">
-        <v>0.594143</v>
+        <v>0.569612</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.699319</v>
+        <v>0.68633</v>
       </c>
       <c r="C29" t="n">
-        <v>0.589491</v>
+        <v>0.583182</v>
       </c>
       <c r="D29" t="n">
-        <v>0.595876</v>
+        <v>0.577869</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.682497</v>
+        <v>0.676678</v>
       </c>
       <c r="C30" t="n">
-        <v>0.580582</v>
+        <v>0.562003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.576189</v>
+        <v>0.6007169999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.697253</v>
+        <v>0.676856</v>
       </c>
       <c r="C31" t="n">
-        <v>0.580724</v>
+        <v>0.561149</v>
       </c>
       <c r="D31" t="n">
-        <v>0.574425</v>
+        <v>0.561132</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.681156</v>
+        <v>0.667706</v>
       </c>
       <c r="C32" t="n">
-        <v>0.570717</v>
+        <v>0.575413</v>
       </c>
       <c r="D32" t="n">
-        <v>0.56381</v>
+        <v>0.568612</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.695883</v>
+        <v>0.660886</v>
       </c>
       <c r="C33" t="n">
-        <v>0.563408</v>
+        <v>0.560399</v>
       </c>
       <c r="D33" t="n">
-        <v>0.583104</v>
+        <v>0.545532</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.681011</v>
+        <v>0.672408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.55764</v>
+        <v>0.546374</v>
       </c>
       <c r="D34" t="n">
-        <v>0.582708</v>
+        <v>0.544714</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.668285</v>
+        <v>0.655619</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5628919999999999</v>
+        <v>0.536898</v>
       </c>
       <c r="D35" t="n">
-        <v>0.558515</v>
+        <v>0.542869</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685707</v>
+        <v>0.650089</v>
       </c>
       <c r="C36" t="n">
-        <v>0.562721</v>
+        <v>0.541206</v>
       </c>
       <c r="D36" t="n">
-        <v>0.552826</v>
+        <v>0.5709649999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.673345</v>
+        <v>0.66971</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56057</v>
+        <v>0.541036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.649251</v>
+        <v>0.628436</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.854275</v>
+        <v>0.820144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7114549999999999</v>
+        <v>0.693995</v>
       </c>
       <c r="D38" t="n">
-        <v>0.650623</v>
+        <v>0.618169</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.818941</v>
+        <v>0.828506</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6974320000000001</v>
+        <v>0.7112579999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.623545</v>
+        <v>0.614967</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.828479</v>
+        <v>0.804003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.706104</v>
+        <v>0.67846</v>
       </c>
       <c r="D40" t="n">
-        <v>0.639053</v>
+        <v>0.620568</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.831593</v>
+        <v>0.796952</v>
       </c>
       <c r="C41" t="n">
-        <v>0.709233</v>
+        <v>0.666832</v>
       </c>
       <c r="D41" t="n">
-        <v>0.626934</v>
+        <v>0.605375</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.813893</v>
+        <v>0.791052</v>
       </c>
       <c r="C42" t="n">
-        <v>0.665552</v>
+        <v>0.662004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.631846</v>
+        <v>0.594461</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.79344</v>
+        <v>0.78762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.665683</v>
+        <v>0.657444</v>
       </c>
       <c r="D43" t="n">
-        <v>0.605452</v>
+        <v>0.5986089999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7878500000000001</v>
+        <v>0.797874</v>
       </c>
       <c r="C44" t="n">
-        <v>0.66366</v>
+        <v>0.65384</v>
       </c>
       <c r="D44" t="n">
-        <v>0.600604</v>
+        <v>0.614042</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.81586</v>
+        <v>0.76174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6588850000000001</v>
+        <v>0.635351</v>
       </c>
       <c r="D45" t="n">
-        <v>0.600426</v>
+        <v>0.590622</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8051739999999999</v>
+        <v>0.798891</v>
       </c>
       <c r="C46" t="n">
-        <v>0.667874</v>
+        <v>0.647018</v>
       </c>
       <c r="D46" t="n">
-        <v>0.598305</v>
+        <v>0.581331</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.769741</v>
+        <v>0.7440600000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.64147</v>
+        <v>0.620081</v>
       </c>
       <c r="D47" t="n">
-        <v>0.603471</v>
+        <v>0.591898</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.771443</v>
+        <v>0.7487470000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.630816</v>
+        <v>0.6269</v>
       </c>
       <c r="D48" t="n">
-        <v>0.594284</v>
+        <v>0.5681079999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.762728</v>
+        <v>0.743232</v>
       </c>
       <c r="C49" t="n">
-        <v>0.635665</v>
+        <v>0.621341</v>
       </c>
       <c r="D49" t="n">
-        <v>0.606449</v>
+        <v>0.571225</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.760231</v>
+        <v>0.733191</v>
       </c>
       <c r="C50" t="n">
-        <v>0.637437</v>
+        <v>0.643181</v>
       </c>
       <c r="D50" t="n">
-        <v>0.590708</v>
+        <v>0.600781</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.757907</v>
+        <v>0.72283</v>
       </c>
       <c r="C51" t="n">
-        <v>0.633894</v>
+        <v>0.631738</v>
       </c>
       <c r="D51" t="n">
-        <v>0.746362</v>
+        <v>0.756019</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.748566</v>
+        <v>0.744622</v>
       </c>
       <c r="C52" t="n">
-        <v>0.640326</v>
+        <v>0.607024</v>
       </c>
       <c r="D52" t="n">
-        <v>0.744314</v>
+        <v>0.724169</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.942281</v>
+        <v>0.89602</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8060580000000001</v>
+        <v>0.768192</v>
       </c>
       <c r="D53" t="n">
-        <v>0.724898</v>
+        <v>0.727467</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9083329999999999</v>
+        <v>0.907281</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7904949999999999</v>
+        <v>0.74866</v>
       </c>
       <c r="D54" t="n">
-        <v>0.719858</v>
+        <v>0.70709</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9034</v>
+        <v>0.884823</v>
       </c>
       <c r="C55" t="n">
-        <v>0.766057</v>
+        <v>0.744615</v>
       </c>
       <c r="D55" t="n">
-        <v>0.715882</v>
+        <v>0.693245</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.902429</v>
+        <v>0.862043</v>
       </c>
       <c r="C56" t="n">
-        <v>0.758796</v>
+        <v>0.734589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.711001</v>
+        <v>0.68476</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.879977</v>
+        <v>0.862353</v>
       </c>
       <c r="C57" t="n">
-        <v>0.753536</v>
+        <v>0.751557</v>
       </c>
       <c r="D57" t="n">
-        <v>0.712595</v>
+        <v>0.680512</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.858407</v>
+        <v>0.847974</v>
       </c>
       <c r="C58" t="n">
-        <v>0.743779</v>
+        <v>0.737841</v>
       </c>
       <c r="D58" t="n">
-        <v>0.691968</v>
+        <v>0.678563</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.862466</v>
+        <v>0.844426</v>
       </c>
       <c r="C59" t="n">
-        <v>0.722499</v>
+        <v>0.731337</v>
       </c>
       <c r="D59" t="n">
-        <v>0.693051</v>
+        <v>0.677695</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8270650000000001</v>
+        <v>0.83331</v>
       </c>
       <c r="C60" t="n">
-        <v>0.737681</v>
+        <v>0.730784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.672878</v>
+        <v>0.672996</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.843108</v>
+        <v>0.815539</v>
       </c>
       <c r="C61" t="n">
-        <v>0.70932</v>
+        <v>0.689923</v>
       </c>
       <c r="D61" t="n">
-        <v>0.676177</v>
+        <v>0.655612</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.839686</v>
+        <v>0.834891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.690797</v>
+        <v>0.688703</v>
       </c>
       <c r="D62" t="n">
-        <v>0.675787</v>
+        <v>0.650775</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.832043</v>
+        <v>0.85093</v>
       </c>
       <c r="C63" t="n">
-        <v>0.709813</v>
+        <v>0.687384</v>
       </c>
       <c r="D63" t="n">
-        <v>0.675845</v>
+        <v>0.653695</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.832047</v>
+        <v>0.835328</v>
       </c>
       <c r="C64" t="n">
-        <v>0.706052</v>
+        <v>0.6931349999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.674006</v>
+        <v>0.645273</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.823124</v>
+        <v>0.800858</v>
       </c>
       <c r="C65" t="n">
-        <v>0.701175</v>
+        <v>0.6748960000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.65693</v>
+        <v>0.644065</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.808295</v>
+        <v>0.823393</v>
       </c>
       <c r="C66" t="n">
-        <v>0.694893</v>
+        <v>0.708279</v>
       </c>
       <c r="D66" t="n">
-        <v>0.863405</v>
+        <v>0.861336</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00536</v>
+        <v>0.977573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.875545</v>
+        <v>0.870245</v>
       </c>
       <c r="D67" t="n">
-        <v>0.854844</v>
+        <v>0.831279</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.998117</v>
+        <v>1.00008</v>
       </c>
       <c r="C68" t="n">
-        <v>0.873119</v>
+        <v>0.835307</v>
       </c>
       <c r="D68" t="n">
-        <v>0.817949</v>
+        <v>0.81742</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.986703</v>
+        <v>0.9705279999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.846078</v>
+        <v>0.865024</v>
       </c>
       <c r="D69" t="n">
-        <v>0.839844</v>
+        <v>0.875633</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.971944</v>
+        <v>0.971118</v>
       </c>
       <c r="C70" t="n">
-        <v>0.838507</v>
+        <v>0.834349</v>
       </c>
       <c r="D70" t="n">
-        <v>0.812214</v>
+        <v>0.805888</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.970917</v>
+        <v>0.943975</v>
       </c>
       <c r="C71" t="n">
-        <v>0.838331</v>
+        <v>0.860316</v>
       </c>
       <c r="D71" t="n">
-        <v>0.807918</v>
+        <v>0.793412</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9588</v>
+        <v>0.931413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.835245</v>
+        <v>0.800034</v>
       </c>
       <c r="D72" t="n">
-        <v>0.795515</v>
+        <v>0.802994</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9492620000000001</v>
+        <v>0.961263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.846437</v>
+        <v>0.797326</v>
       </c>
       <c r="D73" t="n">
-        <v>0.818704</v>
+        <v>0.7988730000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.953333</v>
+        <v>0.92783</v>
       </c>
       <c r="C74" t="n">
-        <v>0.816079</v>
+        <v>0.788153</v>
       </c>
       <c r="D74" t="n">
-        <v>0.788593</v>
+        <v>0.774071</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.963497</v>
+        <v>0.976556</v>
       </c>
       <c r="C75" t="n">
-        <v>0.83721</v>
+        <v>0.795695</v>
       </c>
       <c r="D75" t="n">
-        <v>0.817535</v>
+        <v>0.7803949999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9369769999999999</v>
+        <v>0.918499</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8217950000000001</v>
+        <v>0.806606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.782932</v>
+        <v>0.768379</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.93147</v>
+        <v>0.941849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.804861</v>
+        <v>0.801851</v>
       </c>
       <c r="D77" t="n">
-        <v>0.764215</v>
+        <v>0.76093</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.923307</v>
+        <v>0.921912</v>
       </c>
       <c r="C78" t="n">
-        <v>0.806611</v>
+        <v>0.773699</v>
       </c>
       <c r="D78" t="n">
-        <v>0.770778</v>
+        <v>0.759585</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9084950000000001</v>
+        <v>0.933379</v>
       </c>
       <c r="C79" t="n">
-        <v>0.791986</v>
+        <v>0.780025</v>
       </c>
       <c r="D79" t="n">
-        <v>0.790848</v>
+        <v>0.7680439999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.929652</v>
+        <v>0.930153</v>
       </c>
       <c r="C80" t="n">
-        <v>0.800474</v>
+        <v>0.781739</v>
       </c>
       <c r="D80" t="n">
-        <v>0.984335</v>
+        <v>0.966753</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13999</v>
+        <v>1.08513</v>
       </c>
       <c r="C81" t="n">
-        <v>1.0073</v>
+        <v>0.96126</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9631729999999999</v>
+        <v>0.968478</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12678</v>
+        <v>1.09329</v>
       </c>
       <c r="C82" t="n">
-        <v>0.996915</v>
+        <v>1.00211</v>
       </c>
       <c r="D82" t="n">
-        <v>0.971684</v>
+        <v>0.935791</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11471</v>
+        <v>1.117</v>
       </c>
       <c r="C83" t="n">
-        <v>0.985748</v>
+        <v>0.986781</v>
       </c>
       <c r="D83" t="n">
-        <v>0.96822</v>
+        <v>0.953224</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10625</v>
+        <v>1.09633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.982663</v>
+        <v>0.955164</v>
       </c>
       <c r="D84" t="n">
-        <v>0.959399</v>
+        <v>0.927975</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0833</v>
+        <v>1.08206</v>
       </c>
       <c r="C85" t="n">
-        <v>0.988574</v>
+        <v>0.947252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.966132</v>
+        <v>0.922153</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.07282</v>
+        <v>1.07271</v>
       </c>
       <c r="C86" t="n">
-        <v>0.971656</v>
+        <v>0.944778</v>
       </c>
       <c r="D86" t="n">
-        <v>0.923936</v>
+        <v>0.913198</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09462</v>
+        <v>1.05225</v>
       </c>
       <c r="C87" t="n">
-        <v>0.955306</v>
+        <v>0.934662</v>
       </c>
       <c r="D87" t="n">
-        <v>0.91564</v>
+        <v>0.929956</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06675</v>
+        <v>1.0894</v>
       </c>
       <c r="C88" t="n">
-        <v>0.966988</v>
+        <v>0.942675</v>
       </c>
       <c r="D88" t="n">
-        <v>0.937199</v>
+        <v>0.905304</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07299</v>
+        <v>1.06095</v>
       </c>
       <c r="C89" t="n">
-        <v>0.957241</v>
+        <v>0.962214</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919634</v>
+        <v>0.897299</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06298</v>
+        <v>1.05955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.938445</v>
+        <v>0.921861</v>
       </c>
       <c r="D90" t="n">
-        <v>0.910649</v>
+        <v>0.922606</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05403</v>
+        <v>1.04369</v>
       </c>
       <c r="C91" t="n">
-        <v>0.958441</v>
+        <v>0.921261</v>
       </c>
       <c r="D91" t="n">
-        <v>0.918474</v>
+        <v>0.887363</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.07767</v>
+        <v>1.0604</v>
       </c>
       <c r="C92" t="n">
-        <v>0.94591</v>
+        <v>0.926347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.911507</v>
+        <v>0.904548</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05991</v>
+        <v>1.05065</v>
       </c>
       <c r="C93" t="n">
-        <v>0.935441</v>
+        <v>0.90539</v>
       </c>
       <c r="D93" t="n">
-        <v>0.893371</v>
+        <v>0.904901</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.05362</v>
+        <v>1.02588</v>
       </c>
       <c r="C94" t="n">
-        <v>0.926044</v>
+        <v>0.911776</v>
       </c>
       <c r="D94" t="n">
-        <v>1.12108</v>
+        <v>1.10347</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25157</v>
+        <v>1.2387</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14781</v>
+        <v>1.10449</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10864</v>
+        <v>1.12795</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26751</v>
+        <v>1.22486</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15486</v>
+        <v>1.11366</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09897</v>
+        <v>1.09036</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2615</v>
+        <v>1.25034</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14598</v>
+        <v>1.10844</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11351</v>
+        <v>1.06975</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.24883</v>
+        <v>1.23081</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12882</v>
+        <v>1.13269</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08668</v>
+        <v>1.06914</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.24447</v>
+        <v>1.27195</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13722</v>
+        <v>1.14577</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09713</v>
+        <v>1.11565</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.22669</v>
+        <v>1.2425</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12869</v>
+        <v>1.14622</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08234</v>
+        <v>1.05794</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.26325</v>
+        <v>1.22823</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11237</v>
+        <v>1.09053</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06482</v>
+        <v>1.03784</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24728</v>
+        <v>1.21171</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10892</v>
+        <v>1.07349</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0846</v>
+        <v>1.0378</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.2403</v>
+        <v>1.18458</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09714</v>
+        <v>1.06959</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06657</v>
+        <v>1.04722</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.23181</v>
+        <v>1.17285</v>
       </c>
       <c r="C104" t="n">
-        <v>1.11571</v>
+        <v>1.06939</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06058</v>
+        <v>1.06706</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23947</v>
+        <v>1.19951</v>
       </c>
       <c r="C105" t="n">
-        <v>1.12913</v>
+        <v>1.06412</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07175</v>
+        <v>1.05894</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21021</v>
+        <v>1.17842</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11243</v>
+        <v>1.0673</v>
       </c>
       <c r="D106" t="n">
-        <v>1.05556</v>
+        <v>1.02896</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.21775</v>
+        <v>1.21036</v>
       </c>
       <c r="C107" t="n">
-        <v>1.12094</v>
+        <v>1.11585</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05737</v>
+        <v>1.03097</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22408</v>
+        <v>1.24842</v>
       </c>
       <c r="C108" t="n">
-        <v>1.09372</v>
+        <v>1.07586</v>
       </c>
       <c r="D108" t="n">
-        <v>1.32289</v>
+        <v>1.26212</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.20673</v>
+        <v>1.17701</v>
       </c>
       <c r="C109" t="n">
-        <v>1.11478</v>
+        <v>1.10461</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27402</v>
+        <v>1.23373</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.4412</v>
+        <v>1.3825</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32186</v>
+        <v>1.32485</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26635</v>
+        <v>1.25193</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.45958</v>
+        <v>1.38983</v>
       </c>
       <c r="C111" t="n">
-        <v>1.32009</v>
+        <v>1.30028</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26438</v>
+        <v>1.23644</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.46418</v>
+        <v>1.4141</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30467</v>
+        <v>1.32768</v>
       </c>
       <c r="D112" t="n">
-        <v>1.24961</v>
+        <v>1.23598</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45003</v>
+        <v>1.38089</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34136</v>
+        <v>1.28544</v>
       </c>
       <c r="D113" t="n">
-        <v>1.24257</v>
+        <v>1.22875</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46114</v>
+        <v>1.41704</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31319</v>
+        <v>1.27933</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25514</v>
+        <v>1.21223</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4308</v>
+        <v>1.3975</v>
       </c>
       <c r="C115" t="n">
-        <v>1.33165</v>
+        <v>1.28878</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23116</v>
+        <v>1.22142</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.4275</v>
+        <v>1.3737</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31683</v>
+        <v>1.25963</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23752</v>
+        <v>1.25892</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.43277</v>
+        <v>1.39704</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31904</v>
+        <v>1.26928</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27338</v>
+        <v>1.21799</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42484</v>
+        <v>1.39401</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3094</v>
+        <v>1.3329</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24334</v>
+        <v>1.23788</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.43119</v>
+        <v>1.40443</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32285</v>
+        <v>1.27407</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2433</v>
+        <v>1.19452</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.44233</v>
+        <v>1.40356</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31409</v>
+        <v>1.25533</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22219</v>
+        <v>1.18252</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.4373</v>
+        <v>1.37699</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32377</v>
+        <v>1.26827</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25252</v>
+        <v>1.18934</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.45688</v>
+        <v>1.39132</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33787</v>
+        <v>1.27921</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25682</v>
+        <v>1.195</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.44834</v>
+        <v>1.44527</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32716</v>
+        <v>1.2944</v>
       </c>
       <c r="D123" t="n">
-        <v>1.47727</v>
+        <v>1.43319</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68487</v>
+        <v>1.62579</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54247</v>
+        <v>1.489</v>
       </c>
       <c r="D124" t="n">
-        <v>1.45332</v>
+        <v>1.42451</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.66637</v>
+        <v>1.60018</v>
       </c>
       <c r="C125" t="n">
-        <v>1.5635</v>
+        <v>1.4752</v>
       </c>
       <c r="D125" t="n">
-        <v>1.44713</v>
+        <v>1.42357</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.6898</v>
+        <v>1.60379</v>
       </c>
       <c r="C126" t="n">
-        <v>1.51986</v>
+        <v>1.52424</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48045</v>
+        <v>1.41967</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.69471</v>
+        <v>1.63547</v>
       </c>
       <c r="C127" t="n">
-        <v>1.52451</v>
+        <v>1.52265</v>
       </c>
       <c r="D127" t="n">
-        <v>1.48199</v>
+        <v>1.42075</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.69144</v>
+        <v>1.64383</v>
       </c>
       <c r="C128" t="n">
-        <v>1.57112</v>
+        <v>1.50966</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47611</v>
+        <v>1.46284</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.73806</v>
+        <v>1.6571</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53982</v>
+        <v>1.50945</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47088</v>
+        <v>1.46758</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.7073</v>
+        <v>1.68367</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56346</v>
+        <v>1.49994</v>
       </c>
       <c r="D130" t="n">
-        <v>1.4802</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.70219</v>
+        <v>1.67565</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55046</v>
+        <v>1.52628</v>
       </c>
       <c r="D131" t="n">
-        <v>1.4822</v>
+        <v>1.47355</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.69571</v>
+        <v>1.69469</v>
       </c>
       <c r="C132" t="n">
-        <v>1.53861</v>
+        <v>1.54808</v>
       </c>
       <c r="D132" t="n">
-        <v>1.48286</v>
+        <v>1.4884</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.73377</v>
+        <v>1.70412</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58317</v>
+        <v>1.52737</v>
       </c>
       <c r="D133" t="n">
-        <v>1.47063</v>
+        <v>1.45204</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.72177</v>
+        <v>1.69879</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57096</v>
+        <v>1.54598</v>
       </c>
       <c r="D134" t="n">
-        <v>1.52242</v>
+        <v>1.48331</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.72137</v>
+        <v>1.67039</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57959</v>
+        <v>1.54493</v>
       </c>
       <c r="D135" t="n">
-        <v>1.49644</v>
+        <v>1.44175</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73659</v>
+        <v>1.7219</v>
       </c>
       <c r="C136" t="n">
-        <v>1.59607</v>
+        <v>1.51336</v>
       </c>
       <c r="D136" t="n">
-        <v>1.5218</v>
+        <v>1.4521</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.74215</v>
+        <v>1.71544</v>
       </c>
       <c r="C137" t="n">
-        <v>1.61116</v>
+        <v>1.59495</v>
       </c>
       <c r="D137" t="n">
-        <v>1.76872</v>
+        <v>1.7003</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.97434</v>
+        <v>1.93415</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79821</v>
+        <v>1.75826</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74722</v>
+        <v>1.6973</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.01557</v>
+        <v>1.95708</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83255</v>
+        <v>1.77992</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73881</v>
+        <v>1.72442</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.99217</v>
+        <v>1.94964</v>
       </c>
       <c r="C140" t="n">
-        <v>1.82339</v>
+        <v>1.78865</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75256</v>
+        <v>1.72351</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.00556</v>
+        <v>1.93995</v>
       </c>
       <c r="C141" t="n">
-        <v>1.80521</v>
+        <v>1.77608</v>
       </c>
       <c r="D141" t="n">
-        <v>1.76547</v>
+        <v>1.71779</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.03487</v>
+        <v>1.97253</v>
       </c>
       <c r="C142" t="n">
-        <v>1.82836</v>
+        <v>1.77576</v>
       </c>
       <c r="D142" t="n">
-        <v>1.76615</v>
+        <v>1.69171</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.01704</v>
+        <v>1.93946</v>
       </c>
       <c r="C143" t="n">
-        <v>1.83105</v>
+        <v>1.7582</v>
       </c>
       <c r="D143" t="n">
-        <v>1.76259</v>
+        <v>1.70496</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.701038</v>
+        <v>0.786717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.536435</v>
+        <v>0.5393559999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.543554</v>
+        <v>0.5599730000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690538</v>
+        <v>0.698877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.534064</v>
+        <v>0.540689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.537</v>
+        <v>0.5520620000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.652143</v>
+        <v>0.660758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5305530000000001</v>
+        <v>0.53351</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5601930000000001</v>
+        <v>0.55554</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.673789</v>
+        <v>0.665399</v>
       </c>
       <c r="C5" t="n">
-        <v>0.532705</v>
+        <v>0.550015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.540583</v>
+        <v>0.555935</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.630483</v>
+        <v>0.654624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523578</v>
+        <v>0.520082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.520549</v>
+        <v>0.527298</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.621816</v>
+        <v>0.649929</v>
       </c>
       <c r="C7" t="n">
-        <v>0.540355</v>
+        <v>0.550899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53005</v>
+        <v>0.542041</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.63778</v>
+        <v>0.644303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.514705</v>
+        <v>0.52242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.52212</v>
+        <v>0.534659</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.636639</v>
+        <v>0.640971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5122679999999999</v>
+        <v>0.526369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.59773</v>
+        <v>0.622366</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.697824</v>
+        <v>0.712651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.59453</v>
+        <v>0.617824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.595338</v>
+        <v>0.631762</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6932970000000001</v>
+        <v>0.691152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.56837</v>
+        <v>0.590984</v>
       </c>
       <c r="D11" t="n">
-        <v>0.578449</v>
+        <v>0.599374</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.714477</v>
+        <v>0.705282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.59113</v>
+        <v>0.567152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.579871</v>
+        <v>0.574851</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.707326</v>
+        <v>0.67946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.556307</v>
+        <v>0.563674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.574989</v>
+        <v>0.588631</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.690866</v>
+        <v>0.6868649999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.555733</v>
+        <v>0.551826</v>
       </c>
       <c r="D14" t="n">
-        <v>0.552745</v>
+        <v>0.55176</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.655485</v>
+        <v>0.654213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.553528</v>
+        <v>0.56335</v>
       </c>
       <c r="D15" t="n">
-        <v>0.547443</v>
+        <v>0.569111</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.657291</v>
+        <v>0.680976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.552562</v>
+        <v>0.549396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5445489999999999</v>
+        <v>0.551078</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.668282</v>
+        <v>0.657864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.532478</v>
+        <v>0.553285</v>
       </c>
       <c r="D17" t="n">
-        <v>0.532713</v>
+        <v>0.548518</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.647684</v>
+        <v>0.698443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.522984</v>
+        <v>0.5320820000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.529446</v>
+        <v>0.5560040000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.631425</v>
+        <v>0.636982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.51771</v>
+        <v>0.539822</v>
       </c>
       <c r="D19" t="n">
-        <v>0.525403</v>
+        <v>0.525007</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.631288</v>
+        <v>0.64109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.527563</v>
+        <v>0.530298</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5204839999999999</v>
+        <v>0.528148</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.641651</v>
+        <v>0.642918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.518848</v>
+        <v>0.5247230000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.544435</v>
+        <v>0.550098</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.621408</v>
+        <v>0.647251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5182099999999999</v>
+        <v>0.525506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.534844</v>
+        <v>0.5355529999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.624614</v>
+        <v>0.629397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.520834</v>
+        <v>0.5223719999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6218089999999999</v>
+        <v>0.629298</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.723132</v>
+        <v>0.739216</v>
       </c>
       <c r="C24" t="n">
-        <v>0.614792</v>
+        <v>0.613128</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6042149999999999</v>
+        <v>0.614852</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.712704</v>
+        <v>0.706149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.587365</v>
+        <v>0.603011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.59839</v>
+        <v>0.614448</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.701728</v>
+        <v>0.728306</v>
       </c>
       <c r="C26" t="n">
-        <v>0.613419</v>
+        <v>0.597166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.602824</v>
+        <v>0.592383</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.693204</v>
+        <v>0.7110069999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5742350000000001</v>
+        <v>0.57403</v>
       </c>
       <c r="D27" t="n">
-        <v>0.575364</v>
+        <v>0.573562</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.687165</v>
+        <v>0.688487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.572213</v>
+        <v>0.579129</v>
       </c>
       <c r="D28" t="n">
-        <v>0.569612</v>
+        <v>0.574665</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.68633</v>
+        <v>0.697251</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583182</v>
+        <v>0.569042</v>
       </c>
       <c r="D29" t="n">
-        <v>0.577869</v>
+        <v>0.565267</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.676678</v>
+        <v>0.69973</v>
       </c>
       <c r="C30" t="n">
-        <v>0.562003</v>
+        <v>0.576685</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6007169999999999</v>
+        <v>0.566512</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.676856</v>
+        <v>0.69325</v>
       </c>
       <c r="C31" t="n">
-        <v>0.561149</v>
+        <v>0.580728</v>
       </c>
       <c r="D31" t="n">
-        <v>0.561132</v>
+        <v>0.552701</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.667706</v>
+        <v>0.689119</v>
       </c>
       <c r="C32" t="n">
-        <v>0.575413</v>
+        <v>0.585541</v>
       </c>
       <c r="D32" t="n">
-        <v>0.568612</v>
+        <v>0.562518</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.660886</v>
+        <v>0.68934</v>
       </c>
       <c r="C33" t="n">
-        <v>0.560399</v>
+        <v>0.558114</v>
       </c>
       <c r="D33" t="n">
-        <v>0.545532</v>
+        <v>0.546744</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.672408</v>
+        <v>0.6879960000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.546374</v>
+        <v>0.572719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.544714</v>
+        <v>0.574067</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.655619</v>
+        <v>0.672563</v>
       </c>
       <c r="C35" t="n">
-        <v>0.536898</v>
+        <v>0.569774</v>
       </c>
       <c r="D35" t="n">
-        <v>0.542869</v>
+        <v>0.545831</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.650089</v>
+        <v>0.651979</v>
       </c>
       <c r="C36" t="n">
-        <v>0.541206</v>
+        <v>0.551061</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5709649999999999</v>
+        <v>0.559651</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66971</v>
+        <v>0.676442</v>
       </c>
       <c r="C37" t="n">
-        <v>0.541036</v>
+        <v>0.549817</v>
       </c>
       <c r="D37" t="n">
-        <v>0.628436</v>
+        <v>0.649526</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.820144</v>
+        <v>0.865571</v>
       </c>
       <c r="C38" t="n">
-        <v>0.693995</v>
+        <v>0.731909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.618169</v>
+        <v>0.623798</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.828506</v>
+        <v>0.837374</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7112579999999999</v>
+        <v>0.712896</v>
       </c>
       <c r="D39" t="n">
-        <v>0.614967</v>
+        <v>0.629809</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.804003</v>
+        <v>0.840188</v>
       </c>
       <c r="C40" t="n">
-        <v>0.67846</v>
+        <v>0.709016</v>
       </c>
       <c r="D40" t="n">
-        <v>0.620568</v>
+        <v>0.626105</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.796952</v>
+        <v>0.813394</v>
       </c>
       <c r="C41" t="n">
-        <v>0.666832</v>
+        <v>0.688194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.605375</v>
+        <v>0.605452</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.791052</v>
+        <v>0.785691</v>
       </c>
       <c r="C42" t="n">
-        <v>0.662004</v>
+        <v>0.6749579999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.594461</v>
+        <v>0.60442</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.78762</v>
+        <v>0.786764</v>
       </c>
       <c r="C43" t="n">
-        <v>0.657444</v>
+        <v>0.662615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5986089999999999</v>
+        <v>0.616972</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.797874</v>
+        <v>0.7695340000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.65384</v>
+        <v>0.647559</v>
       </c>
       <c r="D44" t="n">
-        <v>0.614042</v>
+        <v>0.606566</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.76174</v>
+        <v>0.792174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.635351</v>
+        <v>0.659918</v>
       </c>
       <c r="D45" t="n">
-        <v>0.590622</v>
+        <v>0.584639</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.798891</v>
+        <v>0.761234</v>
       </c>
       <c r="C46" t="n">
-        <v>0.647018</v>
+        <v>0.678234</v>
       </c>
       <c r="D46" t="n">
-        <v>0.581331</v>
+        <v>0.614254</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7440600000000001</v>
+        <v>0.784575</v>
       </c>
       <c r="C47" t="n">
-        <v>0.620081</v>
+        <v>0.63832</v>
       </c>
       <c r="D47" t="n">
-        <v>0.591898</v>
+        <v>0.58641</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7487470000000001</v>
+        <v>0.7779509999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6269</v>
+        <v>0.651134</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5681079999999999</v>
+        <v>0.599281</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.743232</v>
+        <v>0.772597</v>
       </c>
       <c r="C49" t="n">
-        <v>0.621341</v>
+        <v>0.640529</v>
       </c>
       <c r="D49" t="n">
-        <v>0.571225</v>
+        <v>0.598451</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.733191</v>
+        <v>0.744956</v>
       </c>
       <c r="C50" t="n">
-        <v>0.643181</v>
+        <v>0.630738</v>
       </c>
       <c r="D50" t="n">
-        <v>0.600781</v>
+        <v>0.586027</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.72283</v>
+        <v>0.775972</v>
       </c>
       <c r="C51" t="n">
-        <v>0.631738</v>
+        <v>0.6276040000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.756019</v>
+        <v>0.751877</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.744622</v>
+        <v>0.722075</v>
       </c>
       <c r="C52" t="n">
-        <v>0.607024</v>
+        <v>0.632567</v>
       </c>
       <c r="D52" t="n">
-        <v>0.724169</v>
+        <v>0.733016</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.89602</v>
+        <v>0.952342</v>
       </c>
       <c r="C53" t="n">
-        <v>0.768192</v>
+        <v>0.786514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.727467</v>
+        <v>0.742547</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.907281</v>
+        <v>0.922423</v>
       </c>
       <c r="C54" t="n">
-        <v>0.74866</v>
+        <v>0.7599359999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.70709</v>
+        <v>0.730665</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.884823</v>
+        <v>0.915902</v>
       </c>
       <c r="C55" t="n">
-        <v>0.744615</v>
+        <v>0.785361</v>
       </c>
       <c r="D55" t="n">
-        <v>0.693245</v>
+        <v>0.717094</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.862043</v>
+        <v>0.891744</v>
       </c>
       <c r="C56" t="n">
-        <v>0.734589</v>
+        <v>0.763274</v>
       </c>
       <c r="D56" t="n">
-        <v>0.68476</v>
+        <v>0.723589</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.862353</v>
+        <v>0.885377</v>
       </c>
       <c r="C57" t="n">
-        <v>0.751557</v>
+        <v>0.7575460000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.680512</v>
+        <v>0.704975</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.847974</v>
+        <v>0.865931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.737841</v>
+        <v>0.740183</v>
       </c>
       <c r="D58" t="n">
-        <v>0.678563</v>
+        <v>0.693379</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.844426</v>
+        <v>0.845545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.731337</v>
+        <v>0.719427</v>
       </c>
       <c r="D59" t="n">
-        <v>0.677695</v>
+        <v>0.696563</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.83331</v>
+        <v>0.838456</v>
       </c>
       <c r="C60" t="n">
-        <v>0.730784</v>
+        <v>0.7096209999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.672996</v>
+        <v>0.700576</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.815539</v>
+        <v>0.812795</v>
       </c>
       <c r="C61" t="n">
-        <v>0.689923</v>
+        <v>0.724317</v>
       </c>
       <c r="D61" t="n">
-        <v>0.655612</v>
+        <v>0.69387</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.834891</v>
+        <v>0.820145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.688703</v>
+        <v>0.710137</v>
       </c>
       <c r="D62" t="n">
-        <v>0.650775</v>
+        <v>0.677804</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.85093</v>
+        <v>0.825407</v>
       </c>
       <c r="C63" t="n">
-        <v>0.687384</v>
+        <v>0.6822589999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.653695</v>
+        <v>0.662003</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.835328</v>
+        <v>0.838439</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6931349999999999</v>
+        <v>0.69553</v>
       </c>
       <c r="D64" t="n">
-        <v>0.645273</v>
+        <v>0.667256</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.800858</v>
+        <v>0.806691</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6748960000000001</v>
+        <v>0.695002</v>
       </c>
       <c r="D65" t="n">
-        <v>0.644065</v>
+        <v>0.661293</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.823393</v>
+        <v>0.805749</v>
       </c>
       <c r="C66" t="n">
-        <v>0.708279</v>
+        <v>0.705785</v>
       </c>
       <c r="D66" t="n">
-        <v>0.861336</v>
+        <v>0.850944</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.977573</v>
+        <v>1.01519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.870245</v>
+        <v>0.853486</v>
       </c>
       <c r="D67" t="n">
-        <v>0.831279</v>
+        <v>0.825504</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.00008</v>
+        <v>0.992507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.835307</v>
+        <v>0.85437</v>
       </c>
       <c r="D68" t="n">
-        <v>0.81742</v>
+        <v>0.833272</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9705279999999999</v>
+        <v>0.9892570000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.865024</v>
+        <v>0.8358989999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.875633</v>
+        <v>0.829019</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.971118</v>
+        <v>0.987774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.834349</v>
+        <v>0.846556</v>
       </c>
       <c r="D70" t="n">
-        <v>0.805888</v>
+        <v>0.815192</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.943975</v>
+        <v>0.961097</v>
       </c>
       <c r="C71" t="n">
-        <v>0.860316</v>
+        <v>0.844925</v>
       </c>
       <c r="D71" t="n">
-        <v>0.793412</v>
+        <v>0.793566</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.931413</v>
+        <v>0.962832</v>
       </c>
       <c r="C72" t="n">
-        <v>0.800034</v>
+        <v>0.85075</v>
       </c>
       <c r="D72" t="n">
-        <v>0.802994</v>
+        <v>0.8063090000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.961263</v>
+        <v>0.968793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.797326</v>
+        <v>0.823247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7988730000000001</v>
+        <v>0.823034</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.92783</v>
+        <v>0.953254</v>
       </c>
       <c r="C74" t="n">
-        <v>0.788153</v>
+        <v>0.826549</v>
       </c>
       <c r="D74" t="n">
-        <v>0.774071</v>
+        <v>0.794064</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.976556</v>
+        <v>0.961325</v>
       </c>
       <c r="C75" t="n">
-        <v>0.795695</v>
+        <v>0.809308</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7803949999999999</v>
+        <v>0.781377</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.918499</v>
+        <v>0.935607</v>
       </c>
       <c r="C76" t="n">
-        <v>0.806606</v>
+        <v>0.806155</v>
       </c>
       <c r="D76" t="n">
-        <v>0.768379</v>
+        <v>0.781579</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.941849</v>
+        <v>0.918478</v>
       </c>
       <c r="C77" t="n">
-        <v>0.801851</v>
+        <v>0.7953209999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76093</v>
+        <v>0.770567</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.921912</v>
+        <v>0.927038</v>
       </c>
       <c r="C78" t="n">
-        <v>0.773699</v>
+        <v>0.78791</v>
       </c>
       <c r="D78" t="n">
-        <v>0.759585</v>
+        <v>0.8055</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.933379</v>
+        <v>0.953512</v>
       </c>
       <c r="C79" t="n">
-        <v>0.780025</v>
+        <v>0.789146</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7680439999999999</v>
+        <v>0.763175</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.930153</v>
+        <v>0.927821</v>
       </c>
       <c r="C80" t="n">
-        <v>0.781739</v>
+        <v>0.785305</v>
       </c>
       <c r="D80" t="n">
-        <v>0.966753</v>
+        <v>1.00606</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08513</v>
+        <v>1.1589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.96126</v>
+        <v>0.9917589999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.968478</v>
+        <v>0.98597</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09329</v>
+        <v>1.14363</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00211</v>
+        <v>0.993706</v>
       </c>
       <c r="D82" t="n">
-        <v>0.935791</v>
+        <v>0.967616</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.117</v>
+        <v>1.12277</v>
       </c>
       <c r="C83" t="n">
-        <v>0.986781</v>
+        <v>1.00972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.953224</v>
+        <v>0.9579220000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.09633</v>
+        <v>1.10215</v>
       </c>
       <c r="C84" t="n">
-        <v>0.955164</v>
+        <v>0.9729100000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.927975</v>
+        <v>0.949762</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.08206</v>
+        <v>1.10693</v>
       </c>
       <c r="C85" t="n">
-        <v>0.947252</v>
+        <v>0.960421</v>
       </c>
       <c r="D85" t="n">
-        <v>0.922153</v>
+        <v>0.968297</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.07271</v>
+        <v>1.1004</v>
       </c>
       <c r="C86" t="n">
-        <v>0.944778</v>
+        <v>0.979896</v>
       </c>
       <c r="D86" t="n">
-        <v>0.913198</v>
+        <v>0.951056</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05225</v>
+        <v>1.11343</v>
       </c>
       <c r="C87" t="n">
-        <v>0.934662</v>
+        <v>0.956593</v>
       </c>
       <c r="D87" t="n">
-        <v>0.929956</v>
+        <v>0.920772</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0894</v>
+        <v>1.07483</v>
       </c>
       <c r="C88" t="n">
-        <v>0.942675</v>
+        <v>0.9417990000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.905304</v>
+        <v>0.935797</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.06095</v>
+        <v>1.07165</v>
       </c>
       <c r="C89" t="n">
-        <v>0.962214</v>
+        <v>0.971092</v>
       </c>
       <c r="D89" t="n">
-        <v>0.897299</v>
+        <v>0.930847</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05955</v>
+        <v>1.05176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.921861</v>
+        <v>0.951072</v>
       </c>
       <c r="D90" t="n">
-        <v>0.922606</v>
+        <v>0.925037</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04369</v>
+        <v>1.09443</v>
       </c>
       <c r="C91" t="n">
-        <v>0.921261</v>
+        <v>0.943594</v>
       </c>
       <c r="D91" t="n">
-        <v>0.887363</v>
+        <v>0.901569</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0604</v>
+        <v>1.04933</v>
       </c>
       <c r="C92" t="n">
-        <v>0.926347</v>
+        <v>0.932773</v>
       </c>
       <c r="D92" t="n">
-        <v>0.904548</v>
+        <v>0.910421</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05065</v>
+        <v>1.04988</v>
       </c>
       <c r="C93" t="n">
-        <v>0.90539</v>
+        <v>0.947304</v>
       </c>
       <c r="D93" t="n">
-        <v>0.904901</v>
+        <v>0.917544</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.02588</v>
+        <v>1.07023</v>
       </c>
       <c r="C94" t="n">
-        <v>0.911776</v>
+        <v>0.944052</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10347</v>
+        <v>1.13166</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2387</v>
+        <v>1.26807</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10449</v>
+        <v>1.12573</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12795</v>
+        <v>1.11507</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.22486</v>
+        <v>1.24051</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11366</v>
+        <v>1.13952</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09036</v>
+        <v>1.12278</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25034</v>
+        <v>1.26061</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10844</v>
+        <v>1.17014</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06975</v>
+        <v>1.12463</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.23081</v>
+        <v>1.24901</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13269</v>
+        <v>1.1246</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06914</v>
+        <v>1.09367</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27195</v>
+        <v>1.26614</v>
       </c>
       <c r="C99" t="n">
-        <v>1.14577</v>
+        <v>1.16044</v>
       </c>
       <c r="D99" t="n">
-        <v>1.11565</v>
+        <v>1.09332</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2425</v>
+        <v>1.22928</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14622</v>
+        <v>1.12827</v>
       </c>
       <c r="D100" t="n">
-        <v>1.05794</v>
+        <v>1.08245</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22823</v>
+        <v>1.27181</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09053</v>
+        <v>1.17218</v>
       </c>
       <c r="D101" t="n">
-        <v>1.03784</v>
+        <v>1.09184</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.21171</v>
+        <v>1.23068</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07349</v>
+        <v>1.12105</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0378</v>
+        <v>1.09211</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.18458</v>
+        <v>1.24436</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06959</v>
+        <v>1.12498</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04722</v>
+        <v>1.06245</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.17285</v>
+        <v>1.25367</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06939</v>
+        <v>1.12268</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06706</v>
+        <v>1.04904</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.19951</v>
+        <v>1.23122</v>
       </c>
       <c r="C105" t="n">
-        <v>1.06412</v>
+        <v>1.11264</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05894</v>
+        <v>1.05393</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.17842</v>
+        <v>1.24359</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0673</v>
+        <v>1.09268</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02896</v>
+        <v>1.08189</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.21036</v>
+        <v>1.23589</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11585</v>
+        <v>1.11046</v>
       </c>
       <c r="D107" t="n">
-        <v>1.03097</v>
+        <v>1.04102</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.24842</v>
+        <v>1.23416</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07586</v>
+        <v>1.12104</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26212</v>
+        <v>1.27488</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17701</v>
+        <v>1.19398</v>
       </c>
       <c r="C109" t="n">
-        <v>1.10461</v>
+        <v>1.12313</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23373</v>
+        <v>1.25968</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3825</v>
+        <v>1.43301</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32485</v>
+        <v>1.31382</v>
       </c>
       <c r="D110" t="n">
-        <v>1.25193</v>
+        <v>1.2536</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38983</v>
+        <v>1.45824</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30028</v>
+        <v>1.32062</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23644</v>
+        <v>1.29342</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.4141</v>
+        <v>1.437</v>
       </c>
       <c r="C112" t="n">
-        <v>1.32768</v>
+        <v>1.34656</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23598</v>
+        <v>1.26153</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.38089</v>
+        <v>1.45302</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28544</v>
+        <v>1.30533</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22875</v>
+        <v>1.24686</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.41704</v>
+        <v>1.44815</v>
       </c>
       <c r="C114" t="n">
-        <v>1.27933</v>
+        <v>1.31069</v>
       </c>
       <c r="D114" t="n">
-        <v>1.21223</v>
+        <v>1.22935</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.3975</v>
+        <v>1.49047</v>
       </c>
       <c r="C115" t="n">
-        <v>1.28878</v>
+        <v>1.31998</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22142</v>
+        <v>1.25028</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3737</v>
+        <v>1.42386</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25963</v>
+        <v>1.30593</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25892</v>
+        <v>1.24889</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39704</v>
+        <v>1.44056</v>
       </c>
       <c r="C117" t="n">
-        <v>1.26928</v>
+        <v>1.33255</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21799</v>
+        <v>1.20107</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.39401</v>
+        <v>1.42725</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3329</v>
+        <v>1.31062</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23788</v>
+        <v>1.26633</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.40443</v>
+        <v>1.46131</v>
       </c>
       <c r="C119" t="n">
-        <v>1.27407</v>
+        <v>1.34103</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19452</v>
+        <v>1.22543</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.40356</v>
+        <v>1.42254</v>
       </c>
       <c r="C120" t="n">
-        <v>1.25533</v>
+        <v>1.35207</v>
       </c>
       <c r="D120" t="n">
-        <v>1.18252</v>
+        <v>1.25016</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.37699</v>
+        <v>1.4428</v>
       </c>
       <c r="C121" t="n">
-        <v>1.26827</v>
+        <v>1.30585</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18934</v>
+        <v>1.22514</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.39132</v>
+        <v>1.45394</v>
       </c>
       <c r="C122" t="n">
-        <v>1.27921</v>
+        <v>1.33374</v>
       </c>
       <c r="D122" t="n">
-        <v>1.195</v>
+        <v>1.21774</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.44527</v>
+        <v>1.43672</v>
       </c>
       <c r="C123" t="n">
-        <v>1.2944</v>
+        <v>1.29846</v>
       </c>
       <c r="D123" t="n">
-        <v>1.43319</v>
+        <v>1.45947</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.62579</v>
+        <v>1.68725</v>
       </c>
       <c r="C124" t="n">
-        <v>1.489</v>
+        <v>1.55193</v>
       </c>
       <c r="D124" t="n">
-        <v>1.42451</v>
+        <v>1.44859</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.60018</v>
+        <v>1.66648</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4752</v>
+        <v>1.55947</v>
       </c>
       <c r="D125" t="n">
-        <v>1.42357</v>
+        <v>1.47376</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.60379</v>
+        <v>1.7094</v>
       </c>
       <c r="C126" t="n">
-        <v>1.52424</v>
+        <v>1.52893</v>
       </c>
       <c r="D126" t="n">
-        <v>1.41967</v>
+        <v>1.47102</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.63547</v>
+        <v>1.70478</v>
       </c>
       <c r="C127" t="n">
-        <v>1.52265</v>
+        <v>1.54178</v>
       </c>
       <c r="D127" t="n">
-        <v>1.42075</v>
+        <v>1.46236</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.64383</v>
+        <v>1.69868</v>
       </c>
       <c r="C128" t="n">
-        <v>1.50966</v>
+        <v>1.54911</v>
       </c>
       <c r="D128" t="n">
-        <v>1.46284</v>
+        <v>1.45014</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.6571</v>
+        <v>1.65343</v>
       </c>
       <c r="C129" t="n">
-        <v>1.50945</v>
+        <v>1.53603</v>
       </c>
       <c r="D129" t="n">
-        <v>1.46758</v>
+        <v>1.44761</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.68367</v>
+        <v>1.67159</v>
       </c>
       <c r="C130" t="n">
-        <v>1.49994</v>
+        <v>1.54403</v>
       </c>
       <c r="D130" t="n">
-        <v>1.45</v>
+        <v>1.47005</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.67565</v>
+        <v>1.66922</v>
       </c>
       <c r="C131" t="n">
-        <v>1.52628</v>
+        <v>1.57424</v>
       </c>
       <c r="D131" t="n">
-        <v>1.47355</v>
+        <v>1.48306</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.69469</v>
+        <v>1.72214</v>
       </c>
       <c r="C132" t="n">
-        <v>1.54808</v>
+        <v>1.56593</v>
       </c>
       <c r="D132" t="n">
-        <v>1.4884</v>
+        <v>1.47576</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.70412</v>
+        <v>1.72855</v>
       </c>
       <c r="C133" t="n">
-        <v>1.52737</v>
+        <v>1.56435</v>
       </c>
       <c r="D133" t="n">
-        <v>1.45204</v>
+        <v>1.48098</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.69879</v>
+        <v>1.73993</v>
       </c>
       <c r="C134" t="n">
-        <v>1.54598</v>
+        <v>1.54612</v>
       </c>
       <c r="D134" t="n">
-        <v>1.48331</v>
+        <v>1.48266</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.67039</v>
+        <v>1.71555</v>
       </c>
       <c r="C135" t="n">
-        <v>1.54493</v>
+        <v>1.57054</v>
       </c>
       <c r="D135" t="n">
-        <v>1.44175</v>
+        <v>1.46317</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.7219</v>
+        <v>1.75688</v>
       </c>
       <c r="C136" t="n">
-        <v>1.51336</v>
+        <v>1.56731</v>
       </c>
       <c r="D136" t="n">
-        <v>1.4521</v>
+        <v>1.51055</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.71544</v>
+        <v>1.71321</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59495</v>
+        <v>1.595</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7003</v>
+        <v>1.73333</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.93415</v>
+        <v>1.96241</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75826</v>
+        <v>1.79315</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6973</v>
+        <v>1.74302</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.95708</v>
+        <v>1.99214</v>
       </c>
       <c r="C139" t="n">
-        <v>1.77992</v>
+        <v>1.81625</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72442</v>
+        <v>1.71539</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.94964</v>
+        <v>1.9603</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78865</v>
+        <v>1.80969</v>
       </c>
       <c r="D140" t="n">
-        <v>1.72351</v>
+        <v>1.74515</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.93995</v>
+        <v>1.98734</v>
       </c>
       <c r="C141" t="n">
-        <v>1.77608</v>
+        <v>1.81863</v>
       </c>
       <c r="D141" t="n">
-        <v>1.71779</v>
+        <v>1.77897</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.97253</v>
+        <v>1.99427</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77576</v>
+        <v>1.807</v>
       </c>
       <c r="D142" t="n">
-        <v>1.69171</v>
+        <v>1.77504</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.93946</v>
+        <v>1.96977</v>
       </c>
       <c r="C143" t="n">
-        <v>1.7582</v>
+        <v>1.81769</v>
       </c>
       <c r="D143" t="n">
-        <v>1.70496</v>
+        <v>1.74932</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.786717</v>
+        <v>0.740078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5393559999999999</v>
+        <v>0.556898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5599730000000001</v>
+        <v>0.5594479999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.698877</v>
+        <v>0.670135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.540689</v>
+        <v>0.5390779999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5520620000000001</v>
+        <v>0.5604980000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.660758</v>
+        <v>0.651479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53351</v>
+        <v>0.533752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55554</v>
+        <v>0.556376</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.665399</v>
+        <v>0.665247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.550015</v>
+        <v>0.550241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555935</v>
+        <v>0.54866</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.654624</v>
+        <v>0.651617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.520082</v>
+        <v>0.538842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.527298</v>
+        <v>0.55994</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.649929</v>
+        <v>0.634701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.550899</v>
+        <v>0.546888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.542041</v>
+        <v>0.564404</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.644303</v>
+        <v>0.659331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.52242</v>
+        <v>0.54645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.534659</v>
+        <v>0.552238</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.640971</v>
+        <v>0.653807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.526369</v>
+        <v>0.532473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.622366</v>
+        <v>0.630094</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.712651</v>
+        <v>0.726543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.617824</v>
+        <v>0.6258860000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.631762</v>
+        <v>0.627831</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.691152</v>
+        <v>0.746027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.590984</v>
+        <v>0.6000180000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.599374</v>
+        <v>0.608826</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.705282</v>
+        <v>0.734185</v>
       </c>
       <c r="C12" t="n">
-        <v>0.567152</v>
+        <v>0.595697</v>
       </c>
       <c r="D12" t="n">
-        <v>0.574851</v>
+        <v>0.6034040000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.67946</v>
+        <v>0.726224</v>
       </c>
       <c r="C13" t="n">
-        <v>0.563674</v>
+        <v>0.593567</v>
       </c>
       <c r="D13" t="n">
-        <v>0.588631</v>
+        <v>0.604303</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6868649999999999</v>
+        <v>0.702318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.551826</v>
+        <v>0.584199</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55176</v>
+        <v>0.59038</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.654213</v>
+        <v>0.681132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.56335</v>
+        <v>0.576963</v>
       </c>
       <c r="D15" t="n">
-        <v>0.569111</v>
+        <v>0.567092</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.680976</v>
+        <v>0.676283</v>
       </c>
       <c r="C16" t="n">
-        <v>0.549396</v>
+        <v>0.564653</v>
       </c>
       <c r="D16" t="n">
-        <v>0.551078</v>
+        <v>0.576468</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.657864</v>
+        <v>0.675767</v>
       </c>
       <c r="C17" t="n">
-        <v>0.553285</v>
+        <v>0.563461</v>
       </c>
       <c r="D17" t="n">
-        <v>0.548518</v>
+        <v>0.588475</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.698443</v>
+        <v>0.6611089999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5320820000000001</v>
+        <v>0.542323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5560040000000001</v>
+        <v>0.55152</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.636982</v>
+        <v>0.6703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.539822</v>
+        <v>0.54005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.525007</v>
+        <v>0.553406</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.64109</v>
+        <v>0.641732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.530298</v>
+        <v>0.52802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.528148</v>
+        <v>0.551884</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.642918</v>
+        <v>0.640841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5247230000000001</v>
+        <v>0.529088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.550098</v>
+        <v>0.539265</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.647251</v>
+        <v>0.647353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.525506</v>
+        <v>0.540012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5355529999999999</v>
+        <v>0.554133</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.629397</v>
+        <v>0.628595</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5223719999999999</v>
+        <v>0.53527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.629298</v>
+        <v>0.629638</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.739216</v>
+        <v>0.731009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.613128</v>
+        <v>0.635754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.614852</v>
+        <v>0.616236</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.706149</v>
+        <v>0.720882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.603011</v>
+        <v>0.605169</v>
       </c>
       <c r="D25" t="n">
-        <v>0.614448</v>
+        <v>0.614092</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.728306</v>
+        <v>0.72376</v>
       </c>
       <c r="C26" t="n">
-        <v>0.597166</v>
+        <v>0.614568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.592383</v>
+        <v>0.606657</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7110069999999999</v>
+        <v>0.733172</v>
       </c>
       <c r="C27" t="n">
-        <v>0.57403</v>
+        <v>0.594034</v>
       </c>
       <c r="D27" t="n">
-        <v>0.573562</v>
+        <v>0.58709</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.688487</v>
+        <v>0.716068</v>
       </c>
       <c r="C28" t="n">
-        <v>0.579129</v>
+        <v>0.62127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.574665</v>
+        <v>0.587932</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.697251</v>
+        <v>0.706848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.569042</v>
+        <v>0.605932</v>
       </c>
       <c r="D29" t="n">
-        <v>0.565267</v>
+        <v>0.589571</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.69973</v>
+        <v>0.703579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.576685</v>
+        <v>0.576697</v>
       </c>
       <c r="D30" t="n">
-        <v>0.566512</v>
+        <v>0.569479</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.69325</v>
+        <v>0.6892470000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.580728</v>
+        <v>0.572103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.552701</v>
+        <v>0.579233</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.689119</v>
+        <v>0.69779</v>
       </c>
       <c r="C32" t="n">
-        <v>0.585541</v>
+        <v>0.5794240000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.562518</v>
+        <v>0.570114</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.68934</v>
+        <v>0.683962</v>
       </c>
       <c r="C33" t="n">
-        <v>0.558114</v>
+        <v>0.570395</v>
       </c>
       <c r="D33" t="n">
-        <v>0.546744</v>
+        <v>0.557588</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6879960000000001</v>
+        <v>0.6715370000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.572719</v>
+        <v>0.560793</v>
       </c>
       <c r="D34" t="n">
-        <v>0.574067</v>
+        <v>0.5715170000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.672563</v>
+        <v>0.690454</v>
       </c>
       <c r="C35" t="n">
-        <v>0.569774</v>
+        <v>0.562632</v>
       </c>
       <c r="D35" t="n">
-        <v>0.545831</v>
+        <v>0.559236</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.651979</v>
+        <v>0.693165</v>
       </c>
       <c r="C36" t="n">
-        <v>0.551061</v>
+        <v>0.550069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.559651</v>
+        <v>0.569196</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.676442</v>
+        <v>0.6707070000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549817</v>
+        <v>0.565666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.649526</v>
+        <v>0.6619620000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.865571</v>
+        <v>0.857264</v>
       </c>
       <c r="C38" t="n">
-        <v>0.731909</v>
+        <v>0.738012</v>
       </c>
       <c r="D38" t="n">
-        <v>0.623798</v>
+        <v>0.649688</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.837374</v>
+        <v>0.847639</v>
       </c>
       <c r="C39" t="n">
-        <v>0.712896</v>
+        <v>0.70109</v>
       </c>
       <c r="D39" t="n">
-        <v>0.629809</v>
+        <v>0.640222</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.840188</v>
+        <v>0.822052</v>
       </c>
       <c r="C40" t="n">
-        <v>0.709016</v>
+        <v>0.704977</v>
       </c>
       <c r="D40" t="n">
-        <v>0.626105</v>
+        <v>0.632256</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.813394</v>
+        <v>0.816152</v>
       </c>
       <c r="C41" t="n">
-        <v>0.688194</v>
+        <v>0.70622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.605452</v>
+        <v>0.628364</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.785691</v>
+        <v>0.826999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6749579999999999</v>
+        <v>0.708293</v>
       </c>
       <c r="D42" t="n">
-        <v>0.60442</v>
+        <v>0.612237</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.786764</v>
+        <v>0.813669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.662615</v>
+        <v>0.677345</v>
       </c>
       <c r="D43" t="n">
-        <v>0.616972</v>
+        <v>0.631024</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7695340000000001</v>
+        <v>0.795669</v>
       </c>
       <c r="C44" t="n">
-        <v>0.647559</v>
+        <v>0.680368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.606566</v>
+        <v>0.60705</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.792174</v>
+        <v>0.786844</v>
       </c>
       <c r="C45" t="n">
-        <v>0.659918</v>
+        <v>0.660556</v>
       </c>
       <c r="D45" t="n">
-        <v>0.584639</v>
+        <v>0.598656</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.761234</v>
+        <v>0.770774</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678234</v>
+        <v>0.653795</v>
       </c>
       <c r="D46" t="n">
-        <v>0.614254</v>
+        <v>0.590415</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.784575</v>
+        <v>0.7676230000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.63832</v>
+        <v>0.648279</v>
       </c>
       <c r="D47" t="n">
-        <v>0.58641</v>
+        <v>0.615186</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7779509999999999</v>
+        <v>0.764544</v>
       </c>
       <c r="C48" t="n">
-        <v>0.651134</v>
+        <v>0.641734</v>
       </c>
       <c r="D48" t="n">
-        <v>0.599281</v>
+        <v>0.598841</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.772597</v>
+        <v>0.751845</v>
       </c>
       <c r="C49" t="n">
-        <v>0.640529</v>
+        <v>0.643462</v>
       </c>
       <c r="D49" t="n">
-        <v>0.598451</v>
+        <v>0.591329</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744956</v>
+        <v>0.753241</v>
       </c>
       <c r="C50" t="n">
-        <v>0.630738</v>
+        <v>0.6349590000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.586027</v>
+        <v>0.595896</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.775972</v>
+        <v>0.752439</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6276040000000001</v>
+        <v>0.6286580000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.751877</v>
+        <v>0.758974</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.722075</v>
+        <v>0.739466</v>
       </c>
       <c r="C52" t="n">
-        <v>0.632567</v>
+        <v>0.635637</v>
       </c>
       <c r="D52" t="n">
-        <v>0.733016</v>
+        <v>0.757858</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.952342</v>
+        <v>0.935048</v>
       </c>
       <c r="C53" t="n">
-        <v>0.786514</v>
+        <v>0.802752</v>
       </c>
       <c r="D53" t="n">
-        <v>0.742547</v>
+        <v>0.740306</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.922423</v>
+        <v>0.908475</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7599359999999999</v>
+        <v>0.77686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.730665</v>
+        <v>0.729558</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.915902</v>
+        <v>0.905276</v>
       </c>
       <c r="C55" t="n">
-        <v>0.785361</v>
+        <v>0.779763</v>
       </c>
       <c r="D55" t="n">
-        <v>0.717094</v>
+        <v>0.719895</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.891744</v>
+        <v>0.897624</v>
       </c>
       <c r="C56" t="n">
-        <v>0.763274</v>
+        <v>0.759076</v>
       </c>
       <c r="D56" t="n">
-        <v>0.723589</v>
+        <v>0.725799</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.885377</v>
+        <v>0.879228</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7575460000000001</v>
+        <v>0.74339</v>
       </c>
       <c r="D57" t="n">
-        <v>0.704975</v>
+        <v>0.706005</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.865931</v>
+        <v>0.899414</v>
       </c>
       <c r="C58" t="n">
-        <v>0.740183</v>
+        <v>0.761814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.693379</v>
+        <v>0.69041</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.845545</v>
+        <v>0.856663</v>
       </c>
       <c r="C59" t="n">
-        <v>0.719427</v>
+        <v>0.747128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.696563</v>
+        <v>0.703358</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.838456</v>
+        <v>0.8616549999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7096209999999999</v>
+        <v>0.739278</v>
       </c>
       <c r="D60" t="n">
-        <v>0.700576</v>
+        <v>0.686505</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.812795</v>
+        <v>0.860337</v>
       </c>
       <c r="C61" t="n">
-        <v>0.724317</v>
+        <v>0.725286</v>
       </c>
       <c r="D61" t="n">
-        <v>0.69387</v>
+        <v>0.692088</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.820145</v>
+        <v>0.862935</v>
       </c>
       <c r="C62" t="n">
-        <v>0.710137</v>
+        <v>0.709095</v>
       </c>
       <c r="D62" t="n">
-        <v>0.677804</v>
+        <v>0.672423</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.825407</v>
+        <v>0.8284319999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6822589999999999</v>
+        <v>0.706862</v>
       </c>
       <c r="D63" t="n">
-        <v>0.662003</v>
+        <v>0.6739849999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.838439</v>
+        <v>0.83851</v>
       </c>
       <c r="C64" t="n">
-        <v>0.69553</v>
+        <v>0.702972</v>
       </c>
       <c r="D64" t="n">
-        <v>0.667256</v>
+        <v>0.6960769999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.806691</v>
+        <v>0.813697</v>
       </c>
       <c r="C65" t="n">
-        <v>0.695002</v>
+        <v>0.717068</v>
       </c>
       <c r="D65" t="n">
-        <v>0.661293</v>
+        <v>0.680183</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.805749</v>
+        <v>0.8161079999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.705785</v>
+        <v>0.696036</v>
       </c>
       <c r="D66" t="n">
-        <v>0.850944</v>
+        <v>0.841784</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01519</v>
+        <v>1.00328</v>
       </c>
       <c r="C67" t="n">
-        <v>0.853486</v>
+        <v>0.881813</v>
       </c>
       <c r="D67" t="n">
-        <v>0.825504</v>
+        <v>0.852026</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.992507</v>
+        <v>1.01213</v>
       </c>
       <c r="C68" t="n">
-        <v>0.85437</v>
+        <v>0.876597</v>
       </c>
       <c r="D68" t="n">
-        <v>0.833272</v>
+        <v>0.846639</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9892570000000001</v>
+        <v>1.01232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8358989999999999</v>
+        <v>0.862414</v>
       </c>
       <c r="D69" t="n">
-        <v>0.829019</v>
+        <v>0.828529</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.987774</v>
+        <v>0.986202</v>
       </c>
       <c r="C70" t="n">
-        <v>0.846556</v>
+        <v>0.856154</v>
       </c>
       <c r="D70" t="n">
-        <v>0.815192</v>
+        <v>0.815345</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.961097</v>
+        <v>0.993998</v>
       </c>
       <c r="C71" t="n">
-        <v>0.844925</v>
+        <v>0.843024</v>
       </c>
       <c r="D71" t="n">
-        <v>0.793566</v>
+        <v>0.795223</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.962832</v>
+        <v>0.994286</v>
       </c>
       <c r="C72" t="n">
-        <v>0.85075</v>
+        <v>0.852649</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8063090000000001</v>
+        <v>0.8061970000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.968793</v>
+        <v>0.9853769999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823247</v>
+        <v>0.823451</v>
       </c>
       <c r="D73" t="n">
-        <v>0.823034</v>
+        <v>0.799287</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.953254</v>
+        <v>0.940349</v>
       </c>
       <c r="C74" t="n">
-        <v>0.826549</v>
+        <v>0.832166</v>
       </c>
       <c r="D74" t="n">
-        <v>0.794064</v>
+        <v>0.817896</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.961325</v>
+        <v>0.982841</v>
       </c>
       <c r="C75" t="n">
-        <v>0.809308</v>
+        <v>0.8347599999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.781377</v>
+        <v>0.787432</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.935607</v>
+        <v>0.960692</v>
       </c>
       <c r="C76" t="n">
-        <v>0.806155</v>
+        <v>0.821563</v>
       </c>
       <c r="D76" t="n">
-        <v>0.781579</v>
+        <v>0.794347</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.918478</v>
+        <v>0.957036</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7953209999999999</v>
+        <v>0.82336</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770567</v>
+        <v>0.808226</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.927038</v>
+        <v>0.941207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.78791</v>
+        <v>0.802991</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8055</v>
+        <v>0.79112</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.953512</v>
+        <v>0.921522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.789146</v>
+        <v>0.815757</v>
       </c>
       <c r="D79" t="n">
-        <v>0.763175</v>
+        <v>0.783131</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.927821</v>
+        <v>0.926449</v>
       </c>
       <c r="C80" t="n">
-        <v>0.785305</v>
+        <v>0.804834</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00606</v>
+        <v>0.983711</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1589</v>
+        <v>1.13797</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9917589999999999</v>
+        <v>1.01356</v>
       </c>
       <c r="D81" t="n">
-        <v>0.98597</v>
+        <v>0.976553</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.14363</v>
+        <v>1.13217</v>
       </c>
       <c r="C82" t="n">
-        <v>0.993706</v>
+        <v>1.00094</v>
       </c>
       <c r="D82" t="n">
-        <v>0.967616</v>
+        <v>0.964485</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12277</v>
+        <v>1.12705</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00972</v>
+        <v>0.999453</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9579220000000001</v>
+        <v>0.9595630000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10215</v>
+        <v>1.1347</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9729100000000001</v>
+        <v>0.9940290000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.949762</v>
+        <v>0.950454</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10693</v>
+        <v>1.11049</v>
       </c>
       <c r="C85" t="n">
-        <v>0.960421</v>
+        <v>0.977563</v>
       </c>
       <c r="D85" t="n">
-        <v>0.968297</v>
+        <v>0.939719</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1004</v>
+        <v>1.11226</v>
       </c>
       <c r="C86" t="n">
-        <v>0.979896</v>
+        <v>0.993638</v>
       </c>
       <c r="D86" t="n">
-        <v>0.951056</v>
+        <v>0.939177</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.11343</v>
+        <v>1.07487</v>
       </c>
       <c r="C87" t="n">
-        <v>0.956593</v>
+        <v>0.979769</v>
       </c>
       <c r="D87" t="n">
-        <v>0.920772</v>
+        <v>0.961125</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.07483</v>
+        <v>1.09146</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9417990000000001</v>
+        <v>0.977389</v>
       </c>
       <c r="D88" t="n">
-        <v>0.935797</v>
+        <v>0.92581</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07165</v>
+        <v>1.07018</v>
       </c>
       <c r="C89" t="n">
-        <v>0.971092</v>
+        <v>0.9733540000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.930847</v>
+        <v>0.914975</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05176</v>
+        <v>1.06378</v>
       </c>
       <c r="C90" t="n">
-        <v>0.951072</v>
+        <v>0.951788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.925037</v>
+        <v>0.92596</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09443</v>
+        <v>1.06518</v>
       </c>
       <c r="C91" t="n">
-        <v>0.943594</v>
+        <v>0.945506</v>
       </c>
       <c r="D91" t="n">
-        <v>0.901569</v>
+        <v>0.91669</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04933</v>
+        <v>1.06303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.932773</v>
+        <v>0.937216</v>
       </c>
       <c r="D92" t="n">
-        <v>0.910421</v>
+        <v>0.9128500000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.04988</v>
+        <v>1.05038</v>
       </c>
       <c r="C93" t="n">
-        <v>0.947304</v>
+        <v>0.946075</v>
       </c>
       <c r="D93" t="n">
-        <v>0.917544</v>
+        <v>0.9211780000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07023</v>
+        <v>1.06782</v>
       </c>
       <c r="C94" t="n">
-        <v>0.944052</v>
+        <v>0.946304</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13166</v>
+        <v>1.14728</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.26807</v>
+        <v>1.29273</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12573</v>
+        <v>1.15958</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11507</v>
+        <v>1.13604</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.24051</v>
+        <v>1.27397</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13952</v>
+        <v>1.14929</v>
       </c>
       <c r="D96" t="n">
-        <v>1.12278</v>
+        <v>1.13381</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26061</v>
+        <v>1.28651</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17014</v>
+        <v>1.17101</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12463</v>
+        <v>1.10863</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.24901</v>
+        <v>1.2472</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1246</v>
+        <v>1.15274</v>
       </c>
       <c r="D98" t="n">
-        <v>1.09367</v>
+        <v>1.12082</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.26614</v>
+        <v>1.2951</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16044</v>
+        <v>1.13186</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09332</v>
+        <v>1.10711</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.22928</v>
+        <v>1.24789</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12827</v>
+        <v>1.13709</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08245</v>
+        <v>1.09476</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27181</v>
+        <v>1.2349</v>
       </c>
       <c r="C101" t="n">
-        <v>1.17218</v>
+        <v>1.11937</v>
       </c>
       <c r="D101" t="n">
-        <v>1.09184</v>
+        <v>1.08648</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23068</v>
+        <v>1.24514</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12105</v>
+        <v>1.15646</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09211</v>
+        <v>1.09591</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24436</v>
+        <v>1.24299</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12498</v>
+        <v>1.09646</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06245</v>
+        <v>1.06338</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.25367</v>
+        <v>1.2289</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12268</v>
+        <v>1.11474</v>
       </c>
       <c r="D104" t="n">
-        <v>1.04904</v>
+        <v>1.0844</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.23122</v>
+        <v>1.2244</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11264</v>
+        <v>1.10938</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05393</v>
+        <v>1.07201</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.24359</v>
+        <v>1.23283</v>
       </c>
       <c r="C106" t="n">
-        <v>1.09268</v>
+        <v>1.11992</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08189</v>
+        <v>1.0573</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.23589</v>
+        <v>1.223</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11046</v>
+        <v>1.11775</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04102</v>
+        <v>1.06919</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.23416</v>
+        <v>1.24515</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12104</v>
+        <v>1.10747</v>
       </c>
       <c r="D108" t="n">
-        <v>1.27488</v>
+        <v>1.31221</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.19398</v>
+        <v>1.25621</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12313</v>
+        <v>1.13044</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25968</v>
+        <v>1.28398</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43301</v>
+        <v>1.45301</v>
       </c>
       <c r="C110" t="n">
-        <v>1.31382</v>
+        <v>1.33472</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2536</v>
+        <v>1.26384</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.45824</v>
+        <v>1.43357</v>
       </c>
       <c r="C111" t="n">
-        <v>1.32062</v>
+        <v>1.32797</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29342</v>
+        <v>1.27949</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.437</v>
+        <v>1.45598</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34656</v>
+        <v>1.37876</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26153</v>
+        <v>1.26878</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45302</v>
+        <v>1.44747</v>
       </c>
       <c r="C113" t="n">
-        <v>1.30533</v>
+        <v>1.33858</v>
       </c>
       <c r="D113" t="n">
-        <v>1.24686</v>
+        <v>1.27952</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44815</v>
+        <v>1.44939</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31069</v>
+        <v>1.32781</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22935</v>
+        <v>1.25169</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49047</v>
+        <v>1.45165</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31998</v>
+        <v>1.32424</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25028</v>
+        <v>1.25259</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.42386</v>
+        <v>1.42191</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30593</v>
+        <v>1.31284</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24889</v>
+        <v>1.23417</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.44056</v>
+        <v>1.44299</v>
       </c>
       <c r="C117" t="n">
-        <v>1.33255</v>
+        <v>1.32625</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20107</v>
+        <v>1.25572</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42725</v>
+        <v>1.46002</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31062</v>
+        <v>1.32662</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26633</v>
+        <v>1.26448</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.46131</v>
+        <v>1.45478</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34103</v>
+        <v>1.34566</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22543</v>
+        <v>1.23167</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.42254</v>
+        <v>1.43844</v>
       </c>
       <c r="C120" t="n">
-        <v>1.35207</v>
+        <v>1.37015</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25016</v>
+        <v>1.25765</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.4428</v>
+        <v>1.46421</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30585</v>
+        <v>1.3469</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22514</v>
+        <v>1.2273</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.45394</v>
+        <v>1.47586</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33374</v>
+        <v>1.35098</v>
       </c>
       <c r="D122" t="n">
-        <v>1.21774</v>
+        <v>1.25242</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.43672</v>
+        <v>1.46709</v>
       </c>
       <c r="C123" t="n">
-        <v>1.29846</v>
+        <v>1.36091</v>
       </c>
       <c r="D123" t="n">
-        <v>1.45947</v>
+        <v>1.49974</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68725</v>
+        <v>1.72007</v>
       </c>
       <c r="C124" t="n">
-        <v>1.55193</v>
+        <v>1.56998</v>
       </c>
       <c r="D124" t="n">
-        <v>1.44859</v>
+        <v>1.51455</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.66648</v>
+        <v>1.70293</v>
       </c>
       <c r="C125" t="n">
-        <v>1.55947</v>
+        <v>1.55939</v>
       </c>
       <c r="D125" t="n">
-        <v>1.47376</v>
+        <v>1.48574</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.7094</v>
+        <v>1.70251</v>
       </c>
       <c r="C126" t="n">
-        <v>1.52893</v>
+        <v>1.54277</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47102</v>
+        <v>1.48015</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.70478</v>
+        <v>1.69636</v>
       </c>
       <c r="C127" t="n">
-        <v>1.54178</v>
+        <v>1.5548</v>
       </c>
       <c r="D127" t="n">
-        <v>1.46236</v>
+        <v>1.48779</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.69868</v>
+        <v>1.697</v>
       </c>
       <c r="C128" t="n">
-        <v>1.54911</v>
+        <v>1.55802</v>
       </c>
       <c r="D128" t="n">
-        <v>1.45014</v>
+        <v>1.48477</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.65343</v>
+        <v>1.69863</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53603</v>
+        <v>1.56435</v>
       </c>
       <c r="D129" t="n">
-        <v>1.44761</v>
+        <v>1.47839</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.67159</v>
+        <v>1.73211</v>
       </c>
       <c r="C130" t="n">
-        <v>1.54403</v>
+        <v>1.56072</v>
       </c>
       <c r="D130" t="n">
-        <v>1.47005</v>
+        <v>1.48134</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.66922</v>
+        <v>1.72163</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57424</v>
+        <v>1.57744</v>
       </c>
       <c r="D131" t="n">
-        <v>1.48306</v>
+        <v>1.48418</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72214</v>
+        <v>1.72897</v>
       </c>
       <c r="C132" t="n">
-        <v>1.56593</v>
+        <v>1.57655</v>
       </c>
       <c r="D132" t="n">
-        <v>1.47576</v>
+        <v>1.48979</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.72855</v>
+        <v>1.73221</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56435</v>
+        <v>1.58555</v>
       </c>
       <c r="D133" t="n">
-        <v>1.48098</v>
+        <v>1.50033</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73993</v>
+        <v>1.74762</v>
       </c>
       <c r="C134" t="n">
-        <v>1.54612</v>
+        <v>1.57546</v>
       </c>
       <c r="D134" t="n">
-        <v>1.48266</v>
+        <v>1.50104</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.71555</v>
+        <v>1.74877</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57054</v>
+        <v>1.59002</v>
       </c>
       <c r="D135" t="n">
-        <v>1.46317</v>
+        <v>1.51599</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.75688</v>
+        <v>1.75171</v>
       </c>
       <c r="C136" t="n">
-        <v>1.56731</v>
+        <v>1.60424</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51055</v>
+        <v>1.51342</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.71321</v>
+        <v>1.75607</v>
       </c>
       <c r="C137" t="n">
-        <v>1.595</v>
+        <v>1.59343</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73333</v>
+        <v>1.74232</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.96241</v>
+        <v>1.98613</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79315</v>
+        <v>1.81945</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74302</v>
+        <v>1.76487</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.99214</v>
+        <v>2.00366</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81625</v>
+        <v>1.85413</v>
       </c>
       <c r="D139" t="n">
-        <v>1.71539</v>
+        <v>1.77201</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.9603</v>
+        <v>2.00832</v>
       </c>
       <c r="C140" t="n">
-        <v>1.80969</v>
+        <v>1.83655</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74515</v>
+        <v>1.75608</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.98734</v>
+        <v>2.00183</v>
       </c>
       <c r="C141" t="n">
-        <v>1.81863</v>
+        <v>1.85109</v>
       </c>
       <c r="D141" t="n">
-        <v>1.77897</v>
+        <v>1.7675</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.99427</v>
+        <v>2.00866</v>
       </c>
       <c r="C142" t="n">
-        <v>1.807</v>
+        <v>1.84504</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77504</v>
+        <v>1.78682</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.96977</v>
+        <v>2.03459</v>
       </c>
       <c r="C143" t="n">
-        <v>1.81769</v>
+        <v>1.8397</v>
       </c>
       <c r="D143" t="n">
-        <v>1.74932</v>
+        <v>1.77437</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740078</v>
+        <v>0.7394770000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556898</v>
+        <v>0.562905</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5594479999999999</v>
+        <v>0.555551</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.670135</v>
+        <v>0.672276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5390779999999999</v>
+        <v>0.5464869999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5604980000000001</v>
+        <v>0.549237</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.651479</v>
+        <v>0.67528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.533752</v>
+        <v>0.549643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.556376</v>
+        <v>0.539369</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.665247</v>
+        <v>0.65925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.550241</v>
+        <v>0.521637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54866</v>
+        <v>0.53422</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.651617</v>
+        <v>0.631429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.538842</v>
+        <v>0.534295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55994</v>
+        <v>0.538497</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.634701</v>
+        <v>0.649915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.546888</v>
+        <v>0.535574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.564404</v>
+        <v>0.560661</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.659331</v>
+        <v>0.651042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.54645</v>
+        <v>0.568121</v>
       </c>
       <c r="D8" t="n">
-        <v>0.552238</v>
+        <v>0.54226</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.653807</v>
+        <v>0.661303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.532473</v>
+        <v>0.554881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.630094</v>
+        <v>0.608912</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.726543</v>
+        <v>0.71784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6258860000000001</v>
+        <v>0.60328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.627831</v>
+        <v>0.601996</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.746027</v>
+        <v>0.719746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6000180000000001</v>
+        <v>0.595011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.608826</v>
+        <v>0.610497</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.734185</v>
+        <v>0.738401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.595697</v>
+        <v>0.589197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6034040000000001</v>
+        <v>0.592715</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.726224</v>
+        <v>0.708433</v>
       </c>
       <c r="C13" t="n">
-        <v>0.593567</v>
+        <v>0.584539</v>
       </c>
       <c r="D13" t="n">
-        <v>0.604303</v>
+        <v>0.5729919999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.702318</v>
+        <v>0.6894940000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.584199</v>
+        <v>0.612766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.59038</v>
+        <v>0.625656</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.681132</v>
+        <v>0.6793129999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.576963</v>
+        <v>0.566192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.567092</v>
+        <v>0.569244</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.676283</v>
+        <v>0.688598</v>
       </c>
       <c r="C16" t="n">
-        <v>0.564653</v>
+        <v>0.570101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.576468</v>
+        <v>0.560259</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.675767</v>
+        <v>0.674238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.563461</v>
+        <v>0.546748</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588475</v>
+        <v>0.581771</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6611089999999999</v>
+        <v>0.681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.542323</v>
+        <v>0.557346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.55152</v>
+        <v>0.552219</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6703</v>
+        <v>0.669929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.54005</v>
+        <v>0.556956</v>
       </c>
       <c r="D19" t="n">
-        <v>0.553406</v>
+        <v>0.545423</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.641732</v>
+        <v>0.655709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.52802</v>
+        <v>0.53145</v>
       </c>
       <c r="D20" t="n">
-        <v>0.551884</v>
+        <v>0.535426</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.640841</v>
+        <v>0.643754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.529088</v>
+        <v>0.544733</v>
       </c>
       <c r="D21" t="n">
-        <v>0.539265</v>
+        <v>0.540235</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.647353</v>
+        <v>0.66038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.540012</v>
+        <v>0.531579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.554133</v>
+        <v>0.5596370000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.628595</v>
+        <v>0.651292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.53527</v>
+        <v>0.539297</v>
       </c>
       <c r="D23" t="n">
-        <v>0.629638</v>
+        <v>0.638801</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.731009</v>
+        <v>0.740998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.635754</v>
+        <v>0.619476</v>
       </c>
       <c r="D24" t="n">
-        <v>0.616236</v>
+        <v>0.623267</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.720882</v>
+        <v>0.746793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.605169</v>
+        <v>0.61237</v>
       </c>
       <c r="D25" t="n">
-        <v>0.614092</v>
+        <v>0.615896</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.72376</v>
+        <v>0.757022</v>
       </c>
       <c r="C26" t="n">
-        <v>0.614568</v>
+        <v>0.619795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.606657</v>
+        <v>0.6064000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.733172</v>
+        <v>0.725028</v>
       </c>
       <c r="C27" t="n">
-        <v>0.594034</v>
+        <v>0.6007670000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.58709</v>
+        <v>0.6790350000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.716068</v>
+        <v>0.713268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.62127</v>
+        <v>0.604781</v>
       </c>
       <c r="D28" t="n">
-        <v>0.587932</v>
+        <v>0.60521</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.706848</v>
+        <v>0.7050380000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.605932</v>
+        <v>0.598946</v>
       </c>
       <c r="D29" t="n">
-        <v>0.589571</v>
+        <v>0.591927</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.703579</v>
+        <v>0.696744</v>
       </c>
       <c r="C30" t="n">
-        <v>0.576697</v>
+        <v>0.575494</v>
       </c>
       <c r="D30" t="n">
-        <v>0.569479</v>
+        <v>0.575252</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6892470000000001</v>
+        <v>0.692849</v>
       </c>
       <c r="C31" t="n">
-        <v>0.572103</v>
+        <v>0.581239</v>
       </c>
       <c r="D31" t="n">
-        <v>0.579233</v>
+        <v>0.583964</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.69779</v>
+        <v>0.705323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5794240000000001</v>
+        <v>0.574289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.570114</v>
+        <v>0.571385</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.683962</v>
+        <v>0.6955750000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.570395</v>
+        <v>0.575781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.557588</v>
+        <v>0.59702</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6715370000000001</v>
+        <v>0.683129</v>
       </c>
       <c r="C34" t="n">
-        <v>0.560793</v>
+        <v>0.570244</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5715170000000001</v>
+        <v>0.571122</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.690454</v>
+        <v>0.686093</v>
       </c>
       <c r="C35" t="n">
-        <v>0.562632</v>
+        <v>0.5684439999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.559236</v>
+        <v>0.565646</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.693165</v>
+        <v>0.724828</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550069</v>
+        <v>0.564545</v>
       </c>
       <c r="D36" t="n">
-        <v>0.569196</v>
+        <v>0.5611660000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6707070000000001</v>
+        <v>0.6792</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565666</v>
+        <v>0.587715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6619620000000001</v>
+        <v>0.730952</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.857264</v>
+        <v>0.904098</v>
       </c>
       <c r="C38" t="n">
-        <v>0.738012</v>
+        <v>0.727782</v>
       </c>
       <c r="D38" t="n">
-        <v>0.649688</v>
+        <v>0.649488</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.847639</v>
+        <v>0.883954</v>
       </c>
       <c r="C39" t="n">
-        <v>0.70109</v>
+        <v>0.716259</v>
       </c>
       <c r="D39" t="n">
-        <v>0.640222</v>
+        <v>0.653598</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.822052</v>
+        <v>0.869636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.704977</v>
+        <v>0.715828</v>
       </c>
       <c r="D40" t="n">
-        <v>0.632256</v>
+        <v>0.633665</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.816152</v>
+        <v>0.841679</v>
       </c>
       <c r="C41" t="n">
-        <v>0.70622</v>
+        <v>0.696572</v>
       </c>
       <c r="D41" t="n">
-        <v>0.628364</v>
+        <v>0.626909</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.826999</v>
+        <v>0.894419</v>
       </c>
       <c r="C42" t="n">
-        <v>0.708293</v>
+        <v>0.721652</v>
       </c>
       <c r="D42" t="n">
-        <v>0.612237</v>
+        <v>0.703979</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.813669</v>
+        <v>0.866179</v>
       </c>
       <c r="C43" t="n">
-        <v>0.677345</v>
+        <v>0.745588</v>
       </c>
       <c r="D43" t="n">
-        <v>0.631024</v>
+        <v>0.618058</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.795669</v>
+        <v>0.819383</v>
       </c>
       <c r="C44" t="n">
-        <v>0.680368</v>
+        <v>0.6835560000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.60705</v>
+        <v>0.617011</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.786844</v>
+        <v>0.806243</v>
       </c>
       <c r="C45" t="n">
-        <v>0.660556</v>
+        <v>0.672184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.598656</v>
+        <v>0.611913</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.770774</v>
+        <v>0.79045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.653795</v>
+        <v>0.664072</v>
       </c>
       <c r="D46" t="n">
-        <v>0.590415</v>
+        <v>0.603484</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7676230000000001</v>
+        <v>0.799281</v>
       </c>
       <c r="C47" t="n">
-        <v>0.648279</v>
+        <v>0.658982</v>
       </c>
       <c r="D47" t="n">
-        <v>0.615186</v>
+        <v>0.597977</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.764544</v>
+        <v>0.777992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.641734</v>
+        <v>0.646479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.598841</v>
+        <v>0.590641</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.751845</v>
+        <v>0.784754</v>
       </c>
       <c r="C49" t="n">
-        <v>0.643462</v>
+        <v>0.648316</v>
       </c>
       <c r="D49" t="n">
-        <v>0.591329</v>
+        <v>0.586554</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.753241</v>
+        <v>0.78102</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6349590000000001</v>
+        <v>0.653244</v>
       </c>
       <c r="D50" t="n">
-        <v>0.595896</v>
+        <v>0.591652</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.752439</v>
+        <v>0.786254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6286580000000001</v>
+        <v>0.644806</v>
       </c>
       <c r="D51" t="n">
-        <v>0.758974</v>
+        <v>0.772262</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.739466</v>
+        <v>0.78321</v>
       </c>
       <c r="C52" t="n">
-        <v>0.635637</v>
+        <v>0.638991</v>
       </c>
       <c r="D52" t="n">
-        <v>0.757858</v>
+        <v>0.759889</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.935048</v>
+        <v>0.960134</v>
       </c>
       <c r="C53" t="n">
-        <v>0.802752</v>
+        <v>0.815833</v>
       </c>
       <c r="D53" t="n">
-        <v>0.740306</v>
+        <v>0.749341</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.908475</v>
+        <v>0.957975</v>
       </c>
       <c r="C54" t="n">
-        <v>0.77686</v>
+        <v>0.8122470000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.729558</v>
+        <v>0.74025</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.905276</v>
+        <v>0.9477100000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.779763</v>
+        <v>0.859049</v>
       </c>
       <c r="D55" t="n">
-        <v>0.719895</v>
+        <v>0.767062</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.897624</v>
+        <v>0.945685</v>
       </c>
       <c r="C56" t="n">
-        <v>0.759076</v>
+        <v>0.7821129999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.725799</v>
+        <v>0.716027</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.879228</v>
+        <v>0.908535</v>
       </c>
       <c r="C57" t="n">
-        <v>0.74339</v>
+        <v>0.78567</v>
       </c>
       <c r="D57" t="n">
-        <v>0.706005</v>
+        <v>0.733188</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.899414</v>
+        <v>0.896974</v>
       </c>
       <c r="C58" t="n">
-        <v>0.761814</v>
+        <v>0.764073</v>
       </c>
       <c r="D58" t="n">
-        <v>0.69041</v>
+        <v>0.715879</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.856663</v>
+        <v>0.897724</v>
       </c>
       <c r="C59" t="n">
-        <v>0.747128</v>
+        <v>0.756429</v>
       </c>
       <c r="D59" t="n">
-        <v>0.703358</v>
+        <v>0.7037060000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8616549999999999</v>
+        <v>0.875237</v>
       </c>
       <c r="C60" t="n">
-        <v>0.739278</v>
+        <v>0.754425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.686505</v>
+        <v>0.710191</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.860337</v>
+        <v>0.87426</v>
       </c>
       <c r="C61" t="n">
-        <v>0.725286</v>
+        <v>0.745069</v>
       </c>
       <c r="D61" t="n">
-        <v>0.692088</v>
+        <v>0.6968800000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.862935</v>
+        <v>0.86698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.709095</v>
+        <v>0.758159</v>
       </c>
       <c r="D62" t="n">
-        <v>0.672423</v>
+        <v>0.695744</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8284319999999999</v>
+        <v>0.878656</v>
       </c>
       <c r="C63" t="n">
-        <v>0.706862</v>
+        <v>0.736547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6739849999999999</v>
+        <v>0.687472</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.83851</v>
+        <v>0.852761</v>
       </c>
       <c r="C64" t="n">
-        <v>0.702972</v>
+        <v>0.75327</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6960769999999999</v>
+        <v>0.691648</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813697</v>
+        <v>0.84192</v>
       </c>
       <c r="C65" t="n">
-        <v>0.717068</v>
+        <v>0.730291</v>
       </c>
       <c r="D65" t="n">
-        <v>0.680183</v>
+        <v>0.75144</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8161079999999999</v>
+        <v>0.88239</v>
       </c>
       <c r="C66" t="n">
-        <v>0.696036</v>
+        <v>0.719768</v>
       </c>
       <c r="D66" t="n">
-        <v>0.841784</v>
+        <v>0.877028</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00328</v>
+        <v>1.04387</v>
       </c>
       <c r="C67" t="n">
-        <v>0.881813</v>
+        <v>0.912128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.852026</v>
+        <v>0.867135</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01213</v>
+        <v>1.10708</v>
       </c>
       <c r="C68" t="n">
-        <v>0.876597</v>
+        <v>0.897326</v>
       </c>
       <c r="D68" t="n">
-        <v>0.846639</v>
+        <v>0.861434</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01232</v>
+        <v>1.08159</v>
       </c>
       <c r="C69" t="n">
-        <v>0.862414</v>
+        <v>0.9215719999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.828529</v>
+        <v>0.845391</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.986202</v>
+        <v>1.04793</v>
       </c>
       <c r="C70" t="n">
-        <v>0.856154</v>
+        <v>0.876425</v>
       </c>
       <c r="D70" t="n">
-        <v>0.815345</v>
+        <v>0.845294</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.993998</v>
+        <v>1.01545</v>
       </c>
       <c r="C71" t="n">
-        <v>0.843024</v>
+        <v>0.902741</v>
       </c>
       <c r="D71" t="n">
-        <v>0.795223</v>
+        <v>0.920488</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.994286</v>
+        <v>1.01566</v>
       </c>
       <c r="C72" t="n">
-        <v>0.852649</v>
+        <v>0.86964</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8061970000000001</v>
+        <v>0.8417750000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9853769999999999</v>
+        <v>1.00657</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823451</v>
+        <v>0.87674</v>
       </c>
       <c r="D73" t="n">
-        <v>0.799287</v>
+        <v>0.833191</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.940349</v>
+        <v>0.997882</v>
       </c>
       <c r="C74" t="n">
-        <v>0.832166</v>
+        <v>0.86131</v>
       </c>
       <c r="D74" t="n">
-        <v>0.817896</v>
+        <v>0.819814</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.982841</v>
+        <v>0.999803</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8347599999999999</v>
+        <v>0.859008</v>
       </c>
       <c r="D75" t="n">
-        <v>0.787432</v>
+        <v>0.830971</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.960692</v>
+        <v>0.988273</v>
       </c>
       <c r="C76" t="n">
-        <v>0.821563</v>
+        <v>0.848136</v>
       </c>
       <c r="D76" t="n">
-        <v>0.794347</v>
+        <v>0.812351</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.957036</v>
+        <v>1.04669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.82336</v>
+        <v>0.878369</v>
       </c>
       <c r="D77" t="n">
-        <v>0.808226</v>
+        <v>0.826914</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.941207</v>
+        <v>0.990032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.802991</v>
+        <v>0.872709</v>
       </c>
       <c r="D78" t="n">
-        <v>0.79112</v>
+        <v>0.805544</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.921522</v>
+        <v>0.975226</v>
       </c>
       <c r="C79" t="n">
-        <v>0.815757</v>
+        <v>0.836737</v>
       </c>
       <c r="D79" t="n">
-        <v>0.783131</v>
+        <v>0.8125520000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.926449</v>
+        <v>0.972307</v>
       </c>
       <c r="C80" t="n">
-        <v>0.804834</v>
+        <v>0.8350030000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.983711</v>
+        <v>1.06501</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13797</v>
+        <v>1.18066</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01356</v>
+        <v>1.06085</v>
       </c>
       <c r="D81" t="n">
-        <v>0.976553</v>
+        <v>1.01043</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.13217</v>
+        <v>1.18089</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00094</v>
+        <v>1.04951</v>
       </c>
       <c r="D82" t="n">
-        <v>0.964485</v>
+        <v>1.01428</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12705</v>
+        <v>1.1847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.999453</v>
+        <v>1.08876</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9595630000000001</v>
+        <v>1.00084</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1347</v>
+        <v>1.2092</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9940290000000001</v>
+        <v>1.08634</v>
       </c>
       <c r="D84" t="n">
-        <v>0.950454</v>
+        <v>1.00615</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.11049</v>
+        <v>1.15879</v>
       </c>
       <c r="C85" t="n">
-        <v>0.977563</v>
+        <v>1.04391</v>
       </c>
       <c r="D85" t="n">
-        <v>0.939719</v>
+        <v>0.990683</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.11226</v>
+        <v>1.16032</v>
       </c>
       <c r="C86" t="n">
-        <v>0.993638</v>
+        <v>1.03165</v>
       </c>
       <c r="D86" t="n">
-        <v>0.939177</v>
+        <v>0.9859869999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.07487</v>
+        <v>1.15502</v>
       </c>
       <c r="C87" t="n">
-        <v>0.979769</v>
+        <v>1.03338</v>
       </c>
       <c r="D87" t="n">
-        <v>0.961125</v>
+        <v>0.988219</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09146</v>
+        <v>1.14839</v>
       </c>
       <c r="C88" t="n">
-        <v>0.977389</v>
+        <v>1.11362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.92581</v>
+        <v>1.00889</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07018</v>
+        <v>1.18995</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9733540000000001</v>
+        <v>1.02711</v>
       </c>
       <c r="D89" t="n">
-        <v>0.914975</v>
+        <v>1.00721</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06378</v>
+        <v>1.14309</v>
       </c>
       <c r="C90" t="n">
-        <v>0.951788</v>
+        <v>1.00367</v>
       </c>
       <c r="D90" t="n">
-        <v>0.92596</v>
+        <v>0.968496</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06518</v>
+        <v>1.1509</v>
       </c>
       <c r="C91" t="n">
-        <v>0.945506</v>
+        <v>1.04542</v>
       </c>
       <c r="D91" t="n">
-        <v>0.91669</v>
+        <v>0.981531</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06303</v>
+        <v>1.20185</v>
       </c>
       <c r="C92" t="n">
-        <v>0.937216</v>
+        <v>1.01628</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9128500000000001</v>
+        <v>0.963875</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05038</v>
+        <v>1.1223</v>
       </c>
       <c r="C93" t="n">
-        <v>0.946075</v>
+        <v>1.00537</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9211780000000001</v>
+        <v>0.9527139999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.06782</v>
+        <v>1.1468</v>
       </c>
       <c r="C94" t="n">
-        <v>0.946304</v>
+        <v>1.00778</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14728</v>
+        <v>1.20209</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.29273</v>
+        <v>1.35376</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15958</v>
+        <v>1.22392</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13604</v>
+        <v>1.26449</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.27397</v>
+        <v>1.35395</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14929</v>
+        <v>1.21872</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13381</v>
+        <v>1.16331</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.28651</v>
+        <v>1.3544</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17101</v>
+        <v>1.22467</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10863</v>
+        <v>1.15256</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2472</v>
+        <v>1.35346</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15274</v>
+        <v>1.22979</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12082</v>
+        <v>1.15141</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2951</v>
+        <v>1.35698</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13186</v>
+        <v>1.27632</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10711</v>
+        <v>1.16587</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24789</v>
+        <v>1.36767</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13709</v>
+        <v>1.27304</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09476</v>
+        <v>1.16535</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2349</v>
+        <v>1.36291</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11937</v>
+        <v>1.25746</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08648</v>
+        <v>1.14947</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24514</v>
+        <v>1.3728</v>
       </c>
       <c r="C102" t="n">
-        <v>1.15646</v>
+        <v>1.23375</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09591</v>
+        <v>1.15703</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24299</v>
+        <v>1.43982</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09646</v>
+        <v>1.23775</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06338</v>
+        <v>1.12585</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2289</v>
+        <v>1.38426</v>
       </c>
       <c r="C104" t="n">
-        <v>1.11474</v>
+        <v>1.21923</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0844</v>
+        <v>1.13017</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.2244</v>
+        <v>1.36936</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10938</v>
+        <v>1.21902</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07201</v>
+        <v>1.17036</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.23283</v>
+        <v>1.36007</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11992</v>
+        <v>1.22818</v>
       </c>
       <c r="D106" t="n">
-        <v>1.0573</v>
+        <v>1.1228</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.223</v>
+        <v>1.36819</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11775</v>
+        <v>1.21882</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06919</v>
+        <v>1.11819</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.24515</v>
+        <v>1.36635</v>
       </c>
       <c r="C108" t="n">
-        <v>1.10747</v>
+        <v>1.21178</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31221</v>
+        <v>1.34205</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.25621</v>
+        <v>1.36075</v>
       </c>
       <c r="C109" t="n">
-        <v>1.13044</v>
+        <v>1.25702</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28398</v>
+        <v>1.35664</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.45301</v>
+        <v>1.5792</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33472</v>
+        <v>1.44131</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26384</v>
+        <v>1.3681</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.43357</v>
+        <v>1.59881</v>
       </c>
       <c r="C111" t="n">
-        <v>1.32797</v>
+        <v>1.45293</v>
       </c>
       <c r="D111" t="n">
-        <v>1.27949</v>
+        <v>1.35539</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.45598</v>
+        <v>1.5927</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37876</v>
+        <v>1.35949</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26878</v>
+        <v>1.29586</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44747</v>
+        <v>1.4964</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33858</v>
+        <v>1.37069</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27952</v>
+        <v>1.30724</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44939</v>
+        <v>1.49325</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32781</v>
+        <v>1.43116</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25169</v>
+        <v>1.27964</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45165</v>
+        <v>1.47448</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32424</v>
+        <v>1.35563</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25259</v>
+        <v>1.29217</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.42191</v>
+        <v>1.51807</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31284</v>
+        <v>1.35376</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23417</v>
+        <v>1.28255</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.44299</v>
+        <v>1.47192</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32625</v>
+        <v>1.35839</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25572</v>
+        <v>1.28699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.46002</v>
+        <v>1.50411</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32662</v>
+        <v>1.35322</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26448</v>
+        <v>1.38129</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.45478</v>
+        <v>1.52232</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34566</v>
+        <v>1.37362</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23167</v>
+        <v>1.28309</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.43844</v>
+        <v>1.50906</v>
       </c>
       <c r="C120" t="n">
-        <v>1.37015</v>
+        <v>1.36165</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25765</v>
+        <v>1.26438</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.46421</v>
+        <v>1.51187</v>
       </c>
       <c r="C121" t="n">
-        <v>1.3469</v>
+        <v>1.36327</v>
       </c>
       <c r="D121" t="n">
-        <v>1.2273</v>
+        <v>1.28758</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.47586</v>
+        <v>1.50768</v>
       </c>
       <c r="C122" t="n">
-        <v>1.35098</v>
+        <v>1.38947</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25242</v>
+        <v>1.29761</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.46709</v>
+        <v>1.54489</v>
       </c>
       <c r="C123" t="n">
-        <v>1.36091</v>
+        <v>1.38807</v>
       </c>
       <c r="D123" t="n">
-        <v>1.49974</v>
+        <v>1.49716</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.72007</v>
+        <v>1.75193</v>
       </c>
       <c r="C124" t="n">
-        <v>1.56998</v>
+        <v>1.58494</v>
       </c>
       <c r="D124" t="n">
-        <v>1.51455</v>
+        <v>1.51058</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.70293</v>
+        <v>1.75234</v>
       </c>
       <c r="C125" t="n">
-        <v>1.55939</v>
+        <v>1.59663</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48574</v>
+        <v>1.57099</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.70251</v>
+        <v>1.779</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54277</v>
+        <v>1.60662</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48015</v>
+        <v>1.52322</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.69636</v>
+        <v>1.75245</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5548</v>
+        <v>1.61672</v>
       </c>
       <c r="D127" t="n">
-        <v>1.48779</v>
+        <v>1.51911</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.697</v>
+        <v>1.76812</v>
       </c>
       <c r="C128" t="n">
-        <v>1.55802</v>
+        <v>1.63049</v>
       </c>
       <c r="D128" t="n">
-        <v>1.48477</v>
+        <v>1.54933</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.69863</v>
+        <v>1.77694</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56435</v>
+        <v>1.62802</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47839</v>
+        <v>1.52727</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.73211</v>
+        <v>1.83627</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56072</v>
+        <v>1.64312</v>
       </c>
       <c r="D130" t="n">
-        <v>1.48134</v>
+        <v>1.53577</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72163</v>
+        <v>1.78557</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57744</v>
+        <v>1.61988</v>
       </c>
       <c r="D131" t="n">
-        <v>1.48418</v>
+        <v>1.55128</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72897</v>
+        <v>1.80956</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57655</v>
+        <v>1.65898</v>
       </c>
       <c r="D132" t="n">
-        <v>1.48979</v>
+        <v>1.5677</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.73221</v>
+        <v>1.8016</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58555</v>
+        <v>1.6446</v>
       </c>
       <c r="D133" t="n">
-        <v>1.50033</v>
+        <v>1.55951</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.74762</v>
+        <v>1.80259</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57546</v>
+        <v>1.66016</v>
       </c>
       <c r="D134" t="n">
-        <v>1.50104</v>
+        <v>1.58052</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.74877</v>
+        <v>1.80641</v>
       </c>
       <c r="C135" t="n">
-        <v>1.59002</v>
+        <v>1.65615</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51599</v>
+        <v>1.57883</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.75171</v>
+        <v>1.84333</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60424</v>
+        <v>1.65308</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51342</v>
+        <v>1.60196</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.75607</v>
+        <v>1.83988</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59343</v>
+        <v>1.67489</v>
       </c>
       <c r="D137" t="n">
-        <v>1.74232</v>
+        <v>1.87313</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.98613</v>
+        <v>2.10859</v>
       </c>
       <c r="C138" t="n">
-        <v>1.81945</v>
+        <v>1.92014</v>
       </c>
       <c r="D138" t="n">
-        <v>1.76487</v>
+        <v>1.86652</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.00366</v>
+        <v>2.14366</v>
       </c>
       <c r="C139" t="n">
-        <v>1.85413</v>
+        <v>1.9357</v>
       </c>
       <c r="D139" t="n">
-        <v>1.77201</v>
+        <v>1.86124</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.00832</v>
+        <v>2.14815</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83655</v>
+        <v>1.94241</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75608</v>
+        <v>1.88029</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.00183</v>
+        <v>2.15836</v>
       </c>
       <c r="C141" t="n">
-        <v>1.85109</v>
+        <v>1.95194</v>
       </c>
       <c r="D141" t="n">
-        <v>1.7675</v>
+        <v>1.90173</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.00866</v>
+        <v>2.18324</v>
       </c>
       <c r="C142" t="n">
-        <v>1.84504</v>
+        <v>1.99751</v>
       </c>
       <c r="D142" t="n">
-        <v>1.78682</v>
+        <v>1.93005</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.03459</v>
+        <v>2.19029</v>
       </c>
       <c r="C143" t="n">
-        <v>1.8397</v>
+        <v>1.99211</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77437</v>
+        <v>1.95081</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7394770000000001</v>
+        <v>0.7232420000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.562905</v>
+        <v>0.57916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.555551</v>
+        <v>0.579248</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.672276</v>
+        <v>0.681208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5464869999999999</v>
+        <v>0.553908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549237</v>
+        <v>0.572119</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.67528</v>
+        <v>0.6549700000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.549643</v>
+        <v>0.545287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539369</v>
+        <v>0.545154</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.65925</v>
+        <v>0.658614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.521637</v>
+        <v>0.54615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53422</v>
+        <v>0.563682</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.631429</v>
+        <v>0.660524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534295</v>
+        <v>0.532738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.538497</v>
+        <v>0.5435720000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.649915</v>
+        <v>0.64827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535574</v>
+        <v>0.542164</v>
       </c>
       <c r="D7" t="n">
-        <v>0.560661</v>
+        <v>0.542474</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.651042</v>
+        <v>0.650528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.568121</v>
+        <v>0.538436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.54226</v>
+        <v>0.534102</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661303</v>
+        <v>0.634779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.554881</v>
+        <v>0.514717</v>
       </c>
       <c r="D9" t="n">
-        <v>0.608912</v>
+        <v>0.625576</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.71784</v>
+        <v>0.727648</v>
       </c>
       <c r="C10" t="n">
-        <v>0.60328</v>
+        <v>0.628217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.601996</v>
+        <v>0.6147820000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.719746</v>
+        <v>0.728432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.595011</v>
+        <v>0.613615</v>
       </c>
       <c r="D11" t="n">
-        <v>0.610497</v>
+        <v>0.603007</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.738401</v>
+        <v>0.740596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.589197</v>
+        <v>0.596576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.592715</v>
+        <v>0.597869</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.708433</v>
+        <v>0.701035</v>
       </c>
       <c r="C13" t="n">
-        <v>0.584539</v>
+        <v>0.577457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5729919999999999</v>
+        <v>0.596098</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6894940000000001</v>
+        <v>0.6897</v>
       </c>
       <c r="C14" t="n">
-        <v>0.612766</v>
+        <v>0.572515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.625656</v>
+        <v>0.588215</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6793129999999999</v>
+        <v>0.684639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.566192</v>
+        <v>0.584836</v>
       </c>
       <c r="D15" t="n">
-        <v>0.569244</v>
+        <v>0.5642509999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.688598</v>
+        <v>0.662891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.570101</v>
+        <v>0.5591970000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.560259</v>
+        <v>0.556005</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.674238</v>
+        <v>0.670093</v>
       </c>
       <c r="C17" t="n">
-        <v>0.546748</v>
+        <v>0.557972</v>
       </c>
       <c r="D17" t="n">
-        <v>0.581771</v>
+        <v>0.564872</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.681</v>
+        <v>0.656879</v>
       </c>
       <c r="C18" t="n">
-        <v>0.557346</v>
+        <v>0.541304</v>
       </c>
       <c r="D18" t="n">
-        <v>0.552219</v>
+        <v>0.53224</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.669929</v>
+        <v>0.66365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.556956</v>
+        <v>0.534214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.545423</v>
+        <v>0.543061</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.655709</v>
+        <v>0.666763</v>
       </c>
       <c r="C20" t="n">
-        <v>0.53145</v>
+        <v>0.539868</v>
       </c>
       <c r="D20" t="n">
-        <v>0.535426</v>
+        <v>0.536745</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.643754</v>
+        <v>0.661833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.544733</v>
+        <v>0.531717</v>
       </c>
       <c r="D21" t="n">
-        <v>0.540235</v>
+        <v>0.5404330000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.66038</v>
+        <v>0.649037</v>
       </c>
       <c r="C22" t="n">
-        <v>0.531579</v>
+        <v>0.536391</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5596370000000001</v>
+        <v>0.536447</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.651292</v>
+        <v>0.6434609999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.539297</v>
+        <v>0.52624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.638801</v>
+        <v>0.630647</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.740998</v>
+        <v>0.729266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.619476</v>
+        <v>0.617939</v>
       </c>
       <c r="D24" t="n">
-        <v>0.623267</v>
+        <v>0.604118</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.746793</v>
+        <v>0.723177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61237</v>
+        <v>0.621426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.615896</v>
+        <v>0.612078</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.757022</v>
+        <v>0.734411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.619795</v>
+        <v>0.592965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6064000000000001</v>
+        <v>0.601791</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.725028</v>
+        <v>0.727011</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6007670000000001</v>
+        <v>0.594239</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6790350000000001</v>
+        <v>0.6078</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.713268</v>
+        <v>0.699526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.604781</v>
+        <v>0.586197</v>
       </c>
       <c r="D28" t="n">
-        <v>0.60521</v>
+        <v>0.573358</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7050380000000001</v>
+        <v>0.687688</v>
       </c>
       <c r="C29" t="n">
-        <v>0.598946</v>
+        <v>0.583043</v>
       </c>
       <c r="D29" t="n">
-        <v>0.591927</v>
+        <v>0.576353</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.696744</v>
+        <v>0.695065</v>
       </c>
       <c r="C30" t="n">
-        <v>0.575494</v>
+        <v>0.57428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.575252</v>
+        <v>0.581503</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.692849</v>
+        <v>0.680995</v>
       </c>
       <c r="C31" t="n">
-        <v>0.581239</v>
+        <v>0.58153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.583964</v>
+        <v>0.57612</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.705323</v>
+        <v>0.68402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.574289</v>
+        <v>0.584496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.571385</v>
+        <v>0.568572</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6955750000000001</v>
+        <v>0.677496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.575781</v>
+        <v>0.564948</v>
       </c>
       <c r="D33" t="n">
-        <v>0.59702</v>
+        <v>0.558003</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.683129</v>
+        <v>0.6778650000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.570244</v>
+        <v>0.566779</v>
       </c>
       <c r="D34" t="n">
-        <v>0.571122</v>
+        <v>0.5605560000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.686093</v>
+        <v>0.667307</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5684439999999999</v>
+        <v>0.561504</v>
       </c>
       <c r="D35" t="n">
-        <v>0.565646</v>
+        <v>0.56448</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.724828</v>
+        <v>0.671306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.564545</v>
+        <v>0.568496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5611660000000001</v>
+        <v>0.559334</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6792</v>
+        <v>0.665736</v>
       </c>
       <c r="C37" t="n">
-        <v>0.587715</v>
+        <v>0.561818</v>
       </c>
       <c r="D37" t="n">
-        <v>0.730952</v>
+        <v>0.664227</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.904098</v>
+        <v>0.854972</v>
       </c>
       <c r="C38" t="n">
-        <v>0.727782</v>
+        <v>0.713907</v>
       </c>
       <c r="D38" t="n">
-        <v>0.649488</v>
+        <v>0.64534</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.883954</v>
+        <v>0.838229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.716259</v>
+        <v>0.708445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.653598</v>
+        <v>0.625323</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.869636</v>
+        <v>0.823905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.715828</v>
+        <v>0.711498</v>
       </c>
       <c r="D40" t="n">
-        <v>0.633665</v>
+        <v>0.631534</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.841679</v>
+        <v>0.821159</v>
       </c>
       <c r="C41" t="n">
-        <v>0.696572</v>
+        <v>0.679837</v>
       </c>
       <c r="D41" t="n">
-        <v>0.626909</v>
+        <v>0.63601</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.894419</v>
+        <v>0.8167450000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.721652</v>
+        <v>0.673563</v>
       </c>
       <c r="D42" t="n">
-        <v>0.703979</v>
+        <v>0.610723</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.866179</v>
+        <v>0.7987610000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.745588</v>
+        <v>0.687514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.618058</v>
+        <v>0.627211</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.819383</v>
+        <v>0.7774489999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6835560000000001</v>
+        <v>0.666381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.617011</v>
+        <v>0.6042920000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.806243</v>
+        <v>0.78485</v>
       </c>
       <c r="C45" t="n">
-        <v>0.672184</v>
+        <v>0.674573</v>
       </c>
       <c r="D45" t="n">
-        <v>0.611913</v>
+        <v>0.589676</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.79045</v>
+        <v>0.7735649999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.664072</v>
+        <v>0.651026</v>
       </c>
       <c r="D46" t="n">
-        <v>0.603484</v>
+        <v>0.617214</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.799281</v>
+        <v>0.7597660000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.658982</v>
+        <v>0.649045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.597977</v>
+        <v>0.577827</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.777992</v>
+        <v>0.753818</v>
       </c>
       <c r="C48" t="n">
-        <v>0.646479</v>
+        <v>0.64385</v>
       </c>
       <c r="D48" t="n">
-        <v>0.590641</v>
+        <v>0.573118</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.784754</v>
+        <v>0.764647</v>
       </c>
       <c r="C49" t="n">
-        <v>0.648316</v>
+        <v>0.642225</v>
       </c>
       <c r="D49" t="n">
-        <v>0.586554</v>
+        <v>0.578454</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.78102</v>
+        <v>0.75141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.653244</v>
+        <v>0.638077</v>
       </c>
       <c r="D50" t="n">
-        <v>0.591652</v>
+        <v>0.578292</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.786254</v>
+        <v>0.74687</v>
       </c>
       <c r="C51" t="n">
-        <v>0.644806</v>
+        <v>0.636331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.772262</v>
+        <v>0.761208</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.78321</v>
+        <v>0.742651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.638991</v>
+        <v>0.620486</v>
       </c>
       <c r="D52" t="n">
-        <v>0.759889</v>
+        <v>0.745262</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.960134</v>
+        <v>0.915886</v>
       </c>
       <c r="C53" t="n">
-        <v>0.815833</v>
+        <v>0.800163</v>
       </c>
       <c r="D53" t="n">
-        <v>0.749341</v>
+        <v>0.731027</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.957975</v>
+        <v>0.890556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8122470000000001</v>
+        <v>0.776163</v>
       </c>
       <c r="D54" t="n">
-        <v>0.74025</v>
+        <v>0.72092</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9477100000000001</v>
+        <v>0.91448</v>
       </c>
       <c r="C55" t="n">
-        <v>0.859049</v>
+        <v>0.7739239999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.767062</v>
+        <v>0.713786</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.945685</v>
+        <v>0.9002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7821129999999999</v>
+        <v>0.764922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.716027</v>
+        <v>0.722481</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.908535</v>
+        <v>0.89439</v>
       </c>
       <c r="C57" t="n">
-        <v>0.78567</v>
+        <v>0.763174</v>
       </c>
       <c r="D57" t="n">
-        <v>0.733188</v>
+        <v>0.701335</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.896974</v>
+        <v>0.882982</v>
       </c>
       <c r="C58" t="n">
-        <v>0.764073</v>
+        <v>0.746025</v>
       </c>
       <c r="D58" t="n">
-        <v>0.715879</v>
+        <v>0.705169</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.897724</v>
+        <v>0.877097</v>
       </c>
       <c r="C59" t="n">
-        <v>0.756429</v>
+        <v>0.756183</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7037060000000001</v>
+        <v>0.683268</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.875237</v>
+        <v>0.857302</v>
       </c>
       <c r="C60" t="n">
-        <v>0.754425</v>
+        <v>0.726622</v>
       </c>
       <c r="D60" t="n">
-        <v>0.710191</v>
+        <v>0.671457</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.87426</v>
+        <v>0.859374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.745069</v>
+        <v>0.72016</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6968800000000001</v>
+        <v>0.673975</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.86698</v>
+        <v>0.832021</v>
       </c>
       <c r="C62" t="n">
-        <v>0.758159</v>
+        <v>0.711015</v>
       </c>
       <c r="D62" t="n">
-        <v>0.695744</v>
+        <v>0.680416</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.878656</v>
+        <v>0.822831</v>
       </c>
       <c r="C63" t="n">
-        <v>0.736547</v>
+        <v>0.688762</v>
       </c>
       <c r="D63" t="n">
-        <v>0.687472</v>
+        <v>0.672932</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.852761</v>
+        <v>0.85598</v>
       </c>
       <c r="C64" t="n">
-        <v>0.75327</v>
+        <v>0.6973780000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.691648</v>
+        <v>0.695564</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.84192</v>
+        <v>0.835947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.730291</v>
+        <v>0.711437</v>
       </c>
       <c r="D65" t="n">
-        <v>0.75144</v>
+        <v>0.654874</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.88239</v>
+        <v>0.825468</v>
       </c>
       <c r="C66" t="n">
-        <v>0.719768</v>
+        <v>0.690019</v>
       </c>
       <c r="D66" t="n">
-        <v>0.877028</v>
+        <v>0.8579639999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.04387</v>
+        <v>1.0331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.912128</v>
+        <v>0.867334</v>
       </c>
       <c r="D67" t="n">
-        <v>0.867135</v>
+        <v>0.845372</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.10708</v>
+        <v>1.03582</v>
       </c>
       <c r="C68" t="n">
-        <v>0.897326</v>
+        <v>0.86898</v>
       </c>
       <c r="D68" t="n">
-        <v>0.861434</v>
+        <v>0.8388640000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08159</v>
+        <v>0.978028</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9215719999999999</v>
+        <v>0.852701</v>
       </c>
       <c r="D69" t="n">
-        <v>0.845391</v>
+        <v>0.832022</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04793</v>
+        <v>0.992366</v>
       </c>
       <c r="C70" t="n">
-        <v>0.876425</v>
+        <v>0.863863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.845294</v>
+        <v>0.82482</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01545</v>
+        <v>0.991602</v>
       </c>
       <c r="C71" t="n">
-        <v>0.902741</v>
+        <v>0.8429179999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.920488</v>
+        <v>0.81655</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.01566</v>
+        <v>0.969789</v>
       </c>
       <c r="C72" t="n">
-        <v>0.86964</v>
+        <v>0.821397</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8417750000000001</v>
+        <v>0.78765</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.00657</v>
+        <v>0.9669410000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.87674</v>
+        <v>0.823299</v>
       </c>
       <c r="D73" t="n">
-        <v>0.833191</v>
+        <v>0.803584</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.997882</v>
+        <v>0.948966</v>
       </c>
       <c r="C74" t="n">
-        <v>0.86131</v>
+        <v>0.847211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.819814</v>
+        <v>0.78631</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.999803</v>
+        <v>0.959804</v>
       </c>
       <c r="C75" t="n">
-        <v>0.859008</v>
+        <v>0.830415</v>
       </c>
       <c r="D75" t="n">
-        <v>0.830971</v>
+        <v>0.782581</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.988273</v>
+        <v>0.934439</v>
       </c>
       <c r="C76" t="n">
-        <v>0.848136</v>
+        <v>0.8227680000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.812351</v>
+        <v>0.793183</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04669</v>
+        <v>0.919357</v>
       </c>
       <c r="C77" t="n">
-        <v>0.878369</v>
+        <v>0.795728</v>
       </c>
       <c r="D77" t="n">
-        <v>0.826914</v>
+        <v>0.788228</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.990032</v>
+        <v>0.9437759999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.872709</v>
+        <v>0.807386</v>
       </c>
       <c r="D78" t="n">
-        <v>0.805544</v>
+        <v>0.776486</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.975226</v>
+        <v>0.935107</v>
       </c>
       <c r="C79" t="n">
-        <v>0.836737</v>
+        <v>0.806856</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8125520000000001</v>
+        <v>0.8031239999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.972307</v>
+        <v>0.931705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8350030000000001</v>
+        <v>0.826079</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06501</v>
+        <v>0.98669</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18066</v>
+        <v>1.14521</v>
       </c>
       <c r="C81" t="n">
-        <v>1.06085</v>
+        <v>1.02066</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01043</v>
+        <v>0.96526</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.18089</v>
+        <v>1.13341</v>
       </c>
       <c r="C82" t="n">
-        <v>1.04951</v>
+        <v>0.988787</v>
       </c>
       <c r="D82" t="n">
-        <v>1.01428</v>
+        <v>0.959705</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1847</v>
+        <v>1.1236</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08876</v>
+        <v>1.00728</v>
       </c>
       <c r="D83" t="n">
-        <v>1.00084</v>
+        <v>0.9528759999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.2092</v>
+        <v>1.10043</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08634</v>
+        <v>0.974202</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00615</v>
+        <v>0.9548219999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.15879</v>
+        <v>1.09582</v>
       </c>
       <c r="C85" t="n">
-        <v>1.04391</v>
+        <v>0.976577</v>
       </c>
       <c r="D85" t="n">
-        <v>0.990683</v>
+        <v>0.9496329999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.16032</v>
+        <v>1.09665</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03165</v>
+        <v>0.9895620000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9859869999999999</v>
+        <v>0.947261</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.15502</v>
+        <v>1.1034</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03338</v>
+        <v>0.956319</v>
       </c>
       <c r="D87" t="n">
-        <v>0.988219</v>
+        <v>0.926382</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.14839</v>
+        <v>1.07617</v>
       </c>
       <c r="C88" t="n">
-        <v>1.11362</v>
+        <v>0.956116</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00889</v>
+        <v>0.92837</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18995</v>
+        <v>1.07986</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02711</v>
+        <v>0.9363089999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00721</v>
+        <v>0.931012</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14309</v>
+        <v>1.08703</v>
       </c>
       <c r="C90" t="n">
-        <v>1.00367</v>
+        <v>0.944843</v>
       </c>
       <c r="D90" t="n">
-        <v>0.968496</v>
+        <v>0.917943</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1509</v>
+        <v>1.0552</v>
       </c>
       <c r="C91" t="n">
-        <v>1.04542</v>
+        <v>0.942058</v>
       </c>
       <c r="D91" t="n">
-        <v>0.981531</v>
+        <v>0.930223</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.20185</v>
+        <v>1.07278</v>
       </c>
       <c r="C92" t="n">
-        <v>1.01628</v>
+        <v>0.950633</v>
       </c>
       <c r="D92" t="n">
-        <v>0.963875</v>
+        <v>0.925214</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.1223</v>
+        <v>1.05186</v>
       </c>
       <c r="C93" t="n">
-        <v>1.00537</v>
+        <v>0.949252</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9527139999999999</v>
+        <v>0.913012</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1468</v>
+        <v>1.06944</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00778</v>
+        <v>0.960537</v>
       </c>
       <c r="D94" t="n">
-        <v>1.20209</v>
+        <v>1.14005</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.35376</v>
+        <v>1.27747</v>
       </c>
       <c r="C95" t="n">
-        <v>1.22392</v>
+        <v>1.15017</v>
       </c>
       <c r="D95" t="n">
-        <v>1.26449</v>
+        <v>1.12637</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.35395</v>
+        <v>1.2807</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21872</v>
+        <v>1.13291</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16331</v>
+        <v>1.11855</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3544</v>
+        <v>1.27196</v>
       </c>
       <c r="C97" t="n">
-        <v>1.22467</v>
+        <v>1.1334</v>
       </c>
       <c r="D97" t="n">
-        <v>1.15256</v>
+        <v>1.08896</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.35346</v>
+        <v>1.2551</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22979</v>
+        <v>1.12893</v>
       </c>
       <c r="D98" t="n">
-        <v>1.15141</v>
+        <v>1.10215</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.35698</v>
+        <v>1.27012</v>
       </c>
       <c r="C99" t="n">
-        <v>1.27632</v>
+        <v>1.12112</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16587</v>
+        <v>1.0995</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.36767</v>
+        <v>1.24513</v>
       </c>
       <c r="C100" t="n">
-        <v>1.27304</v>
+        <v>1.14253</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16535</v>
+        <v>1.1102</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.36291</v>
+        <v>1.2419</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25746</v>
+        <v>1.12121</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14947</v>
+        <v>1.11113</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3728</v>
+        <v>1.25151</v>
       </c>
       <c r="C102" t="n">
-        <v>1.23375</v>
+        <v>1.1336</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15703</v>
+        <v>1.07947</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.43982</v>
+        <v>1.23561</v>
       </c>
       <c r="C103" t="n">
-        <v>1.23775</v>
+        <v>1.11106</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12585</v>
+        <v>1.07384</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.38426</v>
+        <v>1.21428</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21923</v>
+        <v>1.11645</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13017</v>
+        <v>1.07531</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36936</v>
+        <v>1.25768</v>
       </c>
       <c r="C105" t="n">
-        <v>1.21902</v>
+        <v>1.11457</v>
       </c>
       <c r="D105" t="n">
-        <v>1.17036</v>
+        <v>1.06329</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.36007</v>
+        <v>1.21846</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22818</v>
+        <v>1.1193</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1228</v>
+        <v>1.06569</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36819</v>
+        <v>1.22912</v>
       </c>
       <c r="C107" t="n">
-        <v>1.21882</v>
+        <v>1.09782</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11819</v>
+        <v>1.08167</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36635</v>
+        <v>1.22472</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21178</v>
+        <v>1.11096</v>
       </c>
       <c r="D108" t="n">
-        <v>1.34205</v>
+        <v>1.26157</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.36075</v>
+        <v>1.23447</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25702</v>
+        <v>1.1045</v>
       </c>
       <c r="D109" t="n">
-        <v>1.35664</v>
+        <v>1.26209</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5792</v>
+        <v>1.43862</v>
       </c>
       <c r="C110" t="n">
-        <v>1.44131</v>
+        <v>1.3471</v>
       </c>
       <c r="D110" t="n">
-        <v>1.3681</v>
+        <v>1.2664</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.59881</v>
+        <v>1.44385</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45293</v>
+        <v>1.3197</v>
       </c>
       <c r="D111" t="n">
-        <v>1.35539</v>
+        <v>1.24711</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.5927</v>
+        <v>1.45843</v>
       </c>
       <c r="C112" t="n">
-        <v>1.35949</v>
+        <v>1.30737</v>
       </c>
       <c r="D112" t="n">
-        <v>1.29586</v>
+        <v>1.25809</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4964</v>
+        <v>1.45229</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37069</v>
+        <v>1.31466</v>
       </c>
       <c r="D113" t="n">
-        <v>1.30724</v>
+        <v>1.26851</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.49325</v>
+        <v>1.41373</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43116</v>
+        <v>1.31889</v>
       </c>
       <c r="D114" t="n">
-        <v>1.27964</v>
+        <v>1.26327</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47448</v>
+        <v>1.45038</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35563</v>
+        <v>1.31355</v>
       </c>
       <c r="D115" t="n">
-        <v>1.29217</v>
+        <v>1.25088</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.51807</v>
+        <v>1.42717</v>
       </c>
       <c r="C116" t="n">
-        <v>1.35376</v>
+        <v>1.31825</v>
       </c>
       <c r="D116" t="n">
-        <v>1.28255</v>
+        <v>1.25441</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.47192</v>
+        <v>1.45625</v>
       </c>
       <c r="C117" t="n">
-        <v>1.35839</v>
+        <v>1.31499</v>
       </c>
       <c r="D117" t="n">
-        <v>1.28699</v>
+        <v>1.22785</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.50411</v>
+        <v>1.44828</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35322</v>
+        <v>1.3425</v>
       </c>
       <c r="D118" t="n">
-        <v>1.38129</v>
+        <v>1.26387</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.52232</v>
+        <v>1.44422</v>
       </c>
       <c r="C119" t="n">
-        <v>1.37362</v>
+        <v>1.33012</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28309</v>
+        <v>1.22803</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.50906</v>
+        <v>1.45454</v>
       </c>
       <c r="C120" t="n">
-        <v>1.36165</v>
+        <v>1.33209</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26438</v>
+        <v>1.23569</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.51187</v>
+        <v>1.44383</v>
       </c>
       <c r="C121" t="n">
-        <v>1.36327</v>
+        <v>1.34292</v>
       </c>
       <c r="D121" t="n">
-        <v>1.28758</v>
+        <v>1.23784</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.50768</v>
+        <v>1.45463</v>
       </c>
       <c r="C122" t="n">
-        <v>1.38947</v>
+        <v>1.3323</v>
       </c>
       <c r="D122" t="n">
-        <v>1.29761</v>
+        <v>1.23569</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.54489</v>
+        <v>1.47223</v>
       </c>
       <c r="C123" t="n">
-        <v>1.38807</v>
+        <v>1.31991</v>
       </c>
       <c r="D123" t="n">
-        <v>1.49716</v>
+        <v>1.46695</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.75193</v>
+        <v>1.67456</v>
       </c>
       <c r="C124" t="n">
-        <v>1.58494</v>
+        <v>1.57995</v>
       </c>
       <c r="D124" t="n">
-        <v>1.51058</v>
+        <v>1.46091</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.75234</v>
+        <v>1.69443</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59663</v>
+        <v>1.55235</v>
       </c>
       <c r="D125" t="n">
-        <v>1.57099</v>
+        <v>1.48633</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.779</v>
+        <v>1.69113</v>
       </c>
       <c r="C126" t="n">
-        <v>1.60662</v>
+        <v>1.54469</v>
       </c>
       <c r="D126" t="n">
-        <v>1.52322</v>
+        <v>1.491</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.75245</v>
+        <v>1.70654</v>
       </c>
       <c r="C127" t="n">
-        <v>1.61672</v>
+        <v>1.5359</v>
       </c>
       <c r="D127" t="n">
-        <v>1.51911</v>
+        <v>1.47567</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.76812</v>
+        <v>1.7075</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63049</v>
+        <v>1.55429</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54933</v>
+        <v>1.47317</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.77694</v>
+        <v>1.71616</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62802</v>
+        <v>1.58788</v>
       </c>
       <c r="D129" t="n">
-        <v>1.52727</v>
+        <v>1.47351</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.83627</v>
+        <v>1.72469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64312</v>
+        <v>1.55255</v>
       </c>
       <c r="D130" t="n">
-        <v>1.53577</v>
+        <v>1.4815</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.78557</v>
+        <v>1.71506</v>
       </c>
       <c r="C131" t="n">
-        <v>1.61988</v>
+        <v>1.57318</v>
       </c>
       <c r="D131" t="n">
-        <v>1.55128</v>
+        <v>1.49367</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.80956</v>
+        <v>1.72795</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65898</v>
+        <v>1.57018</v>
       </c>
       <c r="D132" t="n">
-        <v>1.5677</v>
+        <v>1.48608</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.8016</v>
+        <v>1.73605</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6446</v>
+        <v>1.5632</v>
       </c>
       <c r="D133" t="n">
-        <v>1.55951</v>
+        <v>1.48302</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.80259</v>
+        <v>1.71599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.66016</v>
+        <v>1.57819</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58052</v>
+        <v>1.49098</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.80641</v>
+        <v>1.74151</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65615</v>
+        <v>1.59465</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57883</v>
+        <v>1.49691</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84333</v>
+        <v>1.73032</v>
       </c>
       <c r="C136" t="n">
-        <v>1.65308</v>
+        <v>1.58858</v>
       </c>
       <c r="D136" t="n">
-        <v>1.60196</v>
+        <v>1.51724</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.83988</v>
+        <v>1.74653</v>
       </c>
       <c r="C137" t="n">
-        <v>1.67489</v>
+        <v>1.59994</v>
       </c>
       <c r="D137" t="n">
-        <v>1.87313</v>
+        <v>1.75529</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.10859</v>
+        <v>1.98738</v>
       </c>
       <c r="C138" t="n">
-        <v>1.92014</v>
+        <v>1.84095</v>
       </c>
       <c r="D138" t="n">
-        <v>1.86652</v>
+        <v>1.74107</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.14366</v>
+        <v>1.99121</v>
       </c>
       <c r="C139" t="n">
-        <v>1.9357</v>
+        <v>1.82716</v>
       </c>
       <c r="D139" t="n">
-        <v>1.86124</v>
+        <v>1.75934</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.14815</v>
+        <v>1.99559</v>
       </c>
       <c r="C140" t="n">
-        <v>1.94241</v>
+        <v>1.83123</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88029</v>
+        <v>1.76918</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.15836</v>
+        <v>1.9938</v>
       </c>
       <c r="C141" t="n">
-        <v>1.95194</v>
+        <v>1.82249</v>
       </c>
       <c r="D141" t="n">
-        <v>1.90173</v>
+        <v>1.77187</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.18324</v>
+        <v>1.99408</v>
       </c>
       <c r="C142" t="n">
-        <v>1.99751</v>
+        <v>1.84501</v>
       </c>
       <c r="D142" t="n">
-        <v>1.93005</v>
+        <v>1.76255</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19029</v>
+        <v>2.02928</v>
       </c>
       <c r="C143" t="n">
-        <v>1.99211</v>
+        <v>1.86495</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95081</v>
+        <v>1.7693</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7232420000000001</v>
+        <v>0.762545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.57916</v>
+        <v>0.557193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.579248</v>
+        <v>0.557243</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.681208</v>
+        <v>0.668059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.553908</v>
+        <v>0.556542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.572119</v>
+        <v>0.582389</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6549700000000001</v>
+        <v>0.67154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.545287</v>
+        <v>0.554718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.545154</v>
+        <v>0.549909</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.658614</v>
+        <v>0.6638579999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.54615</v>
+        <v>0.539745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.563682</v>
+        <v>0.543808</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.660524</v>
+        <v>0.65852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.532738</v>
+        <v>0.53992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5435720000000001</v>
+        <v>0.527668</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.64827</v>
+        <v>0.644275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.542164</v>
+        <v>0.544413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.542474</v>
+        <v>0.550695</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.650528</v>
+        <v>0.662316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.538436</v>
+        <v>0.5492669999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.534102</v>
+        <v>0.56415</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.634779</v>
+        <v>0.661805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.514717</v>
+        <v>0.538787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625576</v>
+        <v>0.639642</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.727648</v>
+        <v>0.733262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.628217</v>
+        <v>0.600542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6147820000000001</v>
+        <v>0.622217</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.728432</v>
+        <v>0.7335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.613615</v>
+        <v>0.599807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.603007</v>
+        <v>0.585691</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.740596</v>
+        <v>0.713235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.596576</v>
+        <v>0.579445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.597869</v>
+        <v>0.600733</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.701035</v>
+        <v>0.69389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.577457</v>
+        <v>0.590706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.596098</v>
+        <v>0.592553</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6897</v>
+        <v>0.69809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.572515</v>
+        <v>0.57564</v>
       </c>
       <c r="D14" t="n">
-        <v>0.588215</v>
+        <v>0.576543</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.684639</v>
+        <v>0.6787840000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.584836</v>
+        <v>0.5636100000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5642509999999999</v>
+        <v>0.566288</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.662891</v>
+        <v>0.699825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5591970000000001</v>
+        <v>0.573631</v>
       </c>
       <c r="D16" t="n">
-        <v>0.556005</v>
+        <v>0.561862</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.670093</v>
+        <v>0.690259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.557972</v>
+        <v>0.564518</v>
       </c>
       <c r="D17" t="n">
-        <v>0.564872</v>
+        <v>0.565436</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.656879</v>
+        <v>0.650511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.541304</v>
+        <v>0.552492</v>
       </c>
       <c r="D18" t="n">
-        <v>0.53224</v>
+        <v>0.556544</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.66365</v>
+        <v>0.6619350000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.534214</v>
+        <v>0.54295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.543061</v>
+        <v>0.534137</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.666763</v>
+        <v>0.664729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.539868</v>
+        <v>0.551741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.536745</v>
+        <v>0.54684</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.661833</v>
+        <v>0.650722</v>
       </c>
       <c r="C21" t="n">
-        <v>0.531717</v>
+        <v>0.535808</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5404330000000001</v>
+        <v>0.526963</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.649037</v>
+        <v>0.635562</v>
       </c>
       <c r="C22" t="n">
-        <v>0.536391</v>
+        <v>0.531973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.536447</v>
+        <v>0.52665</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6434609999999999</v>
+        <v>0.650852</v>
       </c>
       <c r="C23" t="n">
-        <v>0.52624</v>
+        <v>0.532537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.630647</v>
+        <v>0.654857</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.729266</v>
+        <v>0.735071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.617939</v>
+        <v>0.618135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.604118</v>
+        <v>0.635976</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.723177</v>
+        <v>0.727165</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621426</v>
+        <v>0.6140099999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.612078</v>
+        <v>0.615571</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.734411</v>
+        <v>0.716052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.592965</v>
+        <v>0.602609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.601791</v>
+        <v>0.600801</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.727011</v>
+        <v>0.732302</v>
       </c>
       <c r="C27" t="n">
-        <v>0.594239</v>
+        <v>0.611195</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6078</v>
+        <v>0.588067</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.699526</v>
+        <v>0.705275</v>
       </c>
       <c r="C28" t="n">
-        <v>0.586197</v>
+        <v>0.596253</v>
       </c>
       <c r="D28" t="n">
-        <v>0.573358</v>
+        <v>0.590365</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.687688</v>
+        <v>0.7178909999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583043</v>
+        <v>0.591509</v>
       </c>
       <c r="D29" t="n">
-        <v>0.576353</v>
+        <v>0.580153</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.695065</v>
+        <v>0.706175</v>
       </c>
       <c r="C30" t="n">
-        <v>0.57428</v>
+        <v>0.599902</v>
       </c>
       <c r="D30" t="n">
-        <v>0.581503</v>
+        <v>0.584848</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.680995</v>
+        <v>0.685981</v>
       </c>
       <c r="C31" t="n">
-        <v>0.58153</v>
+        <v>0.576568</v>
       </c>
       <c r="D31" t="n">
-        <v>0.57612</v>
+        <v>0.581774</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.68402</v>
+        <v>0.709935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.584496</v>
+        <v>0.579</v>
       </c>
       <c r="D32" t="n">
-        <v>0.568572</v>
+        <v>0.573648</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.677496</v>
+        <v>0.677229</v>
       </c>
       <c r="C33" t="n">
-        <v>0.564948</v>
+        <v>0.580584</v>
       </c>
       <c r="D33" t="n">
-        <v>0.558003</v>
+        <v>0.575893</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6778650000000001</v>
+        <v>0.673602</v>
       </c>
       <c r="C34" t="n">
-        <v>0.566779</v>
+        <v>0.565491</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5605560000000001</v>
+        <v>0.568119</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.667307</v>
+        <v>0.679518</v>
       </c>
       <c r="C35" t="n">
-        <v>0.561504</v>
+        <v>0.565587</v>
       </c>
       <c r="D35" t="n">
-        <v>0.56448</v>
+        <v>0.572406</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.671306</v>
+        <v>0.66151</v>
       </c>
       <c r="C36" t="n">
-        <v>0.568496</v>
+        <v>0.561974</v>
       </c>
       <c r="D36" t="n">
-        <v>0.559334</v>
+        <v>0.562979</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.665736</v>
+        <v>0.677674</v>
       </c>
       <c r="C37" t="n">
-        <v>0.561818</v>
+        <v>0.551292</v>
       </c>
       <c r="D37" t="n">
-        <v>0.664227</v>
+        <v>0.650096</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.854972</v>
+        <v>0.857231</v>
       </c>
       <c r="C38" t="n">
-        <v>0.713907</v>
+        <v>0.709998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.64534</v>
+        <v>0.636276</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.838229</v>
+        <v>0.856107</v>
       </c>
       <c r="C39" t="n">
-        <v>0.708445</v>
+        <v>0.712401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.625323</v>
+        <v>0.6191719999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.823905</v>
+        <v>0.8084480000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.711498</v>
+        <v>0.706685</v>
       </c>
       <c r="D40" t="n">
-        <v>0.631534</v>
+        <v>0.626762</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.821159</v>
+        <v>0.833075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.679837</v>
+        <v>0.693143</v>
       </c>
       <c r="D41" t="n">
-        <v>0.63601</v>
+        <v>0.614548</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8167450000000001</v>
+        <v>0.797907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.673563</v>
+        <v>0.67705</v>
       </c>
       <c r="D42" t="n">
-        <v>0.610723</v>
+        <v>0.626647</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7987610000000001</v>
+        <v>0.789472</v>
       </c>
       <c r="C43" t="n">
-        <v>0.687514</v>
+        <v>0.687543</v>
       </c>
       <c r="D43" t="n">
-        <v>0.627211</v>
+        <v>0.611087</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7774489999999999</v>
+        <v>0.808404</v>
       </c>
       <c r="C44" t="n">
-        <v>0.666381</v>
+        <v>0.666027</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6042920000000001</v>
+        <v>0.602861</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.78485</v>
+        <v>0.79427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.674573</v>
+        <v>0.657465</v>
       </c>
       <c r="D45" t="n">
-        <v>0.589676</v>
+        <v>0.621916</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7735649999999999</v>
+        <v>0.768799</v>
       </c>
       <c r="C46" t="n">
-        <v>0.651026</v>
+        <v>0.656711</v>
       </c>
       <c r="D46" t="n">
-        <v>0.617214</v>
+        <v>0.607609</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7597660000000001</v>
+        <v>0.794567</v>
       </c>
       <c r="C47" t="n">
-        <v>0.649045</v>
+        <v>0.651888</v>
       </c>
       <c r="D47" t="n">
-        <v>0.577827</v>
+        <v>0.587109</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.753818</v>
+        <v>0.757927</v>
       </c>
       <c r="C48" t="n">
-        <v>0.64385</v>
+        <v>0.639662</v>
       </c>
       <c r="D48" t="n">
-        <v>0.573118</v>
+        <v>0.611613</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.764647</v>
+        <v>0.748248</v>
       </c>
       <c r="C49" t="n">
-        <v>0.642225</v>
+        <v>0.637834</v>
       </c>
       <c r="D49" t="n">
-        <v>0.578454</v>
+        <v>0.586554</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.75141</v>
+        <v>0.756108</v>
       </c>
       <c r="C50" t="n">
-        <v>0.638077</v>
+        <v>0.631474</v>
       </c>
       <c r="D50" t="n">
-        <v>0.578292</v>
+        <v>0.588114</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.74687</v>
+        <v>0.750842</v>
       </c>
       <c r="C51" t="n">
-        <v>0.636331</v>
+        <v>0.626456</v>
       </c>
       <c r="D51" t="n">
-        <v>0.761208</v>
+        <v>0.76107</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.742651</v>
+        <v>0.759928</v>
       </c>
       <c r="C52" t="n">
-        <v>0.620486</v>
+        <v>0.628502</v>
       </c>
       <c r="D52" t="n">
-        <v>0.745262</v>
+        <v>0.74064</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.915886</v>
+        <v>0.916596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.800163</v>
+        <v>0.8401149999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.731027</v>
+        <v>0.746512</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.890556</v>
+        <v>0.905022</v>
       </c>
       <c r="C54" t="n">
-        <v>0.776163</v>
+        <v>0.78154</v>
       </c>
       <c r="D54" t="n">
-        <v>0.72092</v>
+        <v>0.7217170000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.91448</v>
+        <v>0.906813</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7739239999999999</v>
+        <v>0.773574</v>
       </c>
       <c r="D55" t="n">
-        <v>0.713786</v>
+        <v>0.72273</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9002</v>
+        <v>0.875577</v>
       </c>
       <c r="C56" t="n">
-        <v>0.764922</v>
+        <v>0.773269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.722481</v>
+        <v>0.713965</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.89439</v>
+        <v>0.890817</v>
       </c>
       <c r="C57" t="n">
-        <v>0.763174</v>
+        <v>0.750981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.701335</v>
+        <v>0.703836</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.882982</v>
+        <v>0.889447</v>
       </c>
       <c r="C58" t="n">
-        <v>0.746025</v>
+        <v>0.7457589999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.705169</v>
+        <v>0.697126</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.877097</v>
+        <v>0.854069</v>
       </c>
       <c r="C59" t="n">
-        <v>0.756183</v>
+        <v>0.7400910000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.683268</v>
+        <v>0.686575</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.857302</v>
+        <v>0.8717240000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.726622</v>
+        <v>0.725484</v>
       </c>
       <c r="D60" t="n">
-        <v>0.671457</v>
+        <v>0.694482</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.859374</v>
+        <v>0.844867</v>
       </c>
       <c r="C61" t="n">
-        <v>0.72016</v>
+        <v>0.7154740000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.673975</v>
+        <v>0.667528</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.832021</v>
+        <v>0.833876</v>
       </c>
       <c r="C62" t="n">
-        <v>0.711015</v>
+        <v>0.721176</v>
       </c>
       <c r="D62" t="n">
-        <v>0.680416</v>
+        <v>0.672982</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.822831</v>
+        <v>0.816202</v>
       </c>
       <c r="C63" t="n">
-        <v>0.688762</v>
+        <v>0.707382</v>
       </c>
       <c r="D63" t="n">
-        <v>0.672932</v>
+        <v>0.664629</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.85598</v>
+        <v>0.828712</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6973780000000001</v>
+        <v>0.707832</v>
       </c>
       <c r="D64" t="n">
-        <v>0.695564</v>
+        <v>0.671308</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.835947</v>
+        <v>0.803515</v>
       </c>
       <c r="C65" t="n">
-        <v>0.711437</v>
+        <v>0.715927</v>
       </c>
       <c r="D65" t="n">
-        <v>0.654874</v>
+        <v>0.675417</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.825468</v>
+        <v>0.802068</v>
       </c>
       <c r="C66" t="n">
-        <v>0.690019</v>
+        <v>0.706357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8579639999999999</v>
+        <v>0.849312</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0331</v>
+        <v>1.00703</v>
       </c>
       <c r="C67" t="n">
-        <v>0.867334</v>
+        <v>0.854441</v>
       </c>
       <c r="D67" t="n">
-        <v>0.845372</v>
+        <v>0.82905</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03582</v>
+        <v>1.02359</v>
       </c>
       <c r="C68" t="n">
-        <v>0.86898</v>
+        <v>0.851447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8388640000000001</v>
+        <v>0.82707</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.978028</v>
+        <v>0.978922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.852701</v>
+        <v>0.854089</v>
       </c>
       <c r="D69" t="n">
-        <v>0.832022</v>
+        <v>0.829312</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.992366</v>
+        <v>0.9996159999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.863863</v>
+        <v>0.840093</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82482</v>
+        <v>0.853593</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.991602</v>
+        <v>0.970616</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8429179999999999</v>
+        <v>0.837216</v>
       </c>
       <c r="D71" t="n">
-        <v>0.81655</v>
+        <v>0.812215</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.969789</v>
+        <v>0.97625</v>
       </c>
       <c r="C72" t="n">
-        <v>0.821397</v>
+        <v>0.833529</v>
       </c>
       <c r="D72" t="n">
-        <v>0.78765</v>
+        <v>0.804903</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9669410000000001</v>
+        <v>0.942252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823299</v>
+        <v>0.814734</v>
       </c>
       <c r="D73" t="n">
-        <v>0.803584</v>
+        <v>0.813376</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.948966</v>
+        <v>0.945804</v>
       </c>
       <c r="C74" t="n">
-        <v>0.847211</v>
+        <v>0.820006</v>
       </c>
       <c r="D74" t="n">
-        <v>0.78631</v>
+        <v>0.797947</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.959804</v>
+        <v>0.953072</v>
       </c>
       <c r="C75" t="n">
-        <v>0.830415</v>
+        <v>0.8027030000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.782581</v>
+        <v>0.784991</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.934439</v>
+        <v>0.937988</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8227680000000001</v>
+        <v>0.807653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.793183</v>
+        <v>0.781063</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.919357</v>
+        <v>0.923581</v>
       </c>
       <c r="C77" t="n">
-        <v>0.795728</v>
+        <v>0.787224</v>
       </c>
       <c r="D77" t="n">
-        <v>0.788228</v>
+        <v>0.787172</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9437759999999999</v>
+        <v>0.942611</v>
       </c>
       <c r="C78" t="n">
-        <v>0.807386</v>
+        <v>0.8235</v>
       </c>
       <c r="D78" t="n">
-        <v>0.776486</v>
+        <v>0.794963</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.935107</v>
+        <v>0.923247</v>
       </c>
       <c r="C79" t="n">
-        <v>0.806856</v>
+        <v>0.803817</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8031239999999999</v>
+        <v>0.79756</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.931705</v>
+        <v>0.921688</v>
       </c>
       <c r="C80" t="n">
-        <v>0.826079</v>
+        <v>0.786799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.98669</v>
+        <v>0.985751</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14521</v>
+        <v>1.148</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02066</v>
+        <v>0.990271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.96526</v>
+        <v>0.963363</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.13341</v>
+        <v>1.10941</v>
       </c>
       <c r="C82" t="n">
-        <v>0.988787</v>
+        <v>0.996173</v>
       </c>
       <c r="D82" t="n">
-        <v>0.959705</v>
+        <v>0.97081</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1236</v>
+        <v>1.09319</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00728</v>
+        <v>0.9947820000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9528759999999999</v>
+        <v>0.9741610000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10043</v>
+        <v>1.09335</v>
       </c>
       <c r="C84" t="n">
-        <v>0.974202</v>
+        <v>0.959796</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9548219999999999</v>
+        <v>0.946262</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09582</v>
+        <v>1.11073</v>
       </c>
       <c r="C85" t="n">
-        <v>0.976577</v>
+        <v>0.983291</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9496329999999999</v>
+        <v>0.938538</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.09665</v>
+        <v>1.09556</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9895620000000001</v>
+        <v>0.98695</v>
       </c>
       <c r="D86" t="n">
-        <v>0.947261</v>
+        <v>0.941437</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1034</v>
+        <v>1.08577</v>
       </c>
       <c r="C87" t="n">
-        <v>0.956319</v>
+        <v>0.9623969999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.926382</v>
+        <v>0.943267</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.07617</v>
+        <v>1.11225</v>
       </c>
       <c r="C88" t="n">
-        <v>0.956116</v>
+        <v>0.958006</v>
       </c>
       <c r="D88" t="n">
-        <v>0.92837</v>
+        <v>0.947757</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07986</v>
+        <v>1.0831</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9363089999999999</v>
+        <v>0.956992</v>
       </c>
       <c r="D89" t="n">
-        <v>0.931012</v>
+        <v>0.933443</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.08703</v>
+        <v>1.08285</v>
       </c>
       <c r="C90" t="n">
-        <v>0.944843</v>
+        <v>0.980419</v>
       </c>
       <c r="D90" t="n">
-        <v>0.917943</v>
+        <v>0.915821</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0552</v>
+        <v>1.07758</v>
       </c>
       <c r="C91" t="n">
-        <v>0.942058</v>
+        <v>0.956186</v>
       </c>
       <c r="D91" t="n">
-        <v>0.930223</v>
+        <v>0.906229</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.07278</v>
+        <v>1.05094</v>
       </c>
       <c r="C92" t="n">
-        <v>0.950633</v>
+        <v>0.936735</v>
       </c>
       <c r="D92" t="n">
-        <v>0.925214</v>
+        <v>0.918247</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05186</v>
+        <v>1.05637</v>
       </c>
       <c r="C93" t="n">
-        <v>0.949252</v>
+        <v>0.935464</v>
       </c>
       <c r="D93" t="n">
-        <v>0.913012</v>
+        <v>0.931999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.06944</v>
+        <v>1.0707</v>
       </c>
       <c r="C94" t="n">
-        <v>0.960537</v>
+        <v>0.925813</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14005</v>
+        <v>1.13895</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27747</v>
+        <v>1.25705</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15017</v>
+        <v>1.15055</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12637</v>
+        <v>1.14853</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2807</v>
+        <v>1.26103</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13291</v>
+        <v>1.17979</v>
       </c>
       <c r="D96" t="n">
-        <v>1.11855</v>
+        <v>1.12505</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.27196</v>
+        <v>1.25806</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1334</v>
+        <v>1.14098</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08896</v>
+        <v>1.12089</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2551</v>
+        <v>1.26617</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12893</v>
+        <v>1.14392</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10215</v>
+        <v>1.08339</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.27012</v>
+        <v>1.24101</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12112</v>
+        <v>1.14206</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0995</v>
+        <v>1.11201</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24513</v>
+        <v>1.2794</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14253</v>
+        <v>1.09908</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1102</v>
+        <v>1.10149</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2419</v>
+        <v>1.25071</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12121</v>
+        <v>1.11691</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11113</v>
+        <v>1.08309</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.25151</v>
+        <v>1.24552</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1336</v>
+        <v>1.15584</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07947</v>
+        <v>1.07387</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23561</v>
+        <v>1.23917</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11106</v>
+        <v>1.09786</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07384</v>
+        <v>1.06503</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.21428</v>
+        <v>1.22294</v>
       </c>
       <c r="C104" t="n">
-        <v>1.11645</v>
+        <v>1.12692</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07531</v>
+        <v>1.05261</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.25768</v>
+        <v>1.21541</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11457</v>
+        <v>1.13212</v>
       </c>
       <c r="D105" t="n">
-        <v>1.06329</v>
+        <v>1.07283</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21846</v>
+        <v>1.2383</v>
       </c>
       <c r="C106" t="n">
-        <v>1.1193</v>
+        <v>1.11959</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06569</v>
+        <v>1.04501</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22912</v>
+        <v>1.22527</v>
       </c>
       <c r="C107" t="n">
-        <v>1.09782</v>
+        <v>1.13492</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08167</v>
+        <v>1.05224</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22472</v>
+        <v>1.20891</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11096</v>
+        <v>1.09753</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26157</v>
+        <v>1.31103</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.23447</v>
+        <v>1.20059</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1045</v>
+        <v>1.11211</v>
       </c>
       <c r="D109" t="n">
-        <v>1.26209</v>
+        <v>1.28001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43862</v>
+        <v>1.41259</v>
       </c>
       <c r="C110" t="n">
-        <v>1.3471</v>
+        <v>1.32597</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2664</v>
+        <v>1.25101</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.44385</v>
+        <v>1.42702</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3197</v>
+        <v>1.29326</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24711</v>
+        <v>1.26585</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.45843</v>
+        <v>1.44551</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30737</v>
+        <v>1.32296</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25809</v>
+        <v>1.25804</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45229</v>
+        <v>1.41991</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31466</v>
+        <v>1.35026</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26851</v>
+        <v>1.25256</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.41373</v>
+        <v>1.43845</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31889</v>
+        <v>1.31842</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26327</v>
+        <v>1.25195</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45038</v>
+        <v>1.42682</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31355</v>
+        <v>1.30364</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25088</v>
+        <v>1.28689</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.42717</v>
+        <v>1.45056</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31825</v>
+        <v>1.32549</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25441</v>
+        <v>1.21867</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.45625</v>
+        <v>1.46274</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31499</v>
+        <v>1.30957</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22785</v>
+        <v>1.24789</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.44828</v>
+        <v>1.42375</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3425</v>
+        <v>1.34722</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26387</v>
+        <v>1.24334</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44422</v>
+        <v>1.44045</v>
       </c>
       <c r="C119" t="n">
-        <v>1.33012</v>
+        <v>1.32938</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22803</v>
+        <v>1.22401</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.45454</v>
+        <v>1.46045</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33209</v>
+        <v>1.30774</v>
       </c>
       <c r="D120" t="n">
-        <v>1.23569</v>
+        <v>1.22551</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.44383</v>
+        <v>1.44652</v>
       </c>
       <c r="C121" t="n">
-        <v>1.34292</v>
+        <v>1.33642</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23784</v>
+        <v>1.22746</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.45463</v>
+        <v>1.45025</v>
       </c>
       <c r="C122" t="n">
-        <v>1.3323</v>
+        <v>1.32942</v>
       </c>
       <c r="D122" t="n">
-        <v>1.23569</v>
+        <v>1.24913</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.47223</v>
+        <v>1.44002</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31991</v>
+        <v>1.33439</v>
       </c>
       <c r="D123" t="n">
-        <v>1.46695</v>
+        <v>1.48793</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.67456</v>
+        <v>1.67882</v>
       </c>
       <c r="C124" t="n">
-        <v>1.57995</v>
+        <v>1.53916</v>
       </c>
       <c r="D124" t="n">
-        <v>1.46091</v>
+        <v>1.46452</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.69443</v>
+        <v>1.69752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.55235</v>
+        <v>1.55028</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48633</v>
+        <v>1.4545</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.69113</v>
+        <v>1.69677</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54469</v>
+        <v>1.5355</v>
       </c>
       <c r="D126" t="n">
-        <v>1.491</v>
+        <v>1.48249</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.70654</v>
+        <v>1.68381</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5359</v>
+        <v>1.55454</v>
       </c>
       <c r="D127" t="n">
-        <v>1.47567</v>
+        <v>1.47329</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.7075</v>
+        <v>1.69595</v>
       </c>
       <c r="C128" t="n">
-        <v>1.55429</v>
+        <v>1.54298</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47317</v>
+        <v>1.46865</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71616</v>
+        <v>1.70897</v>
       </c>
       <c r="C129" t="n">
-        <v>1.58788</v>
+        <v>1.56941</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47351</v>
+        <v>1.47835</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72469</v>
+        <v>1.69237</v>
       </c>
       <c r="C130" t="n">
-        <v>1.55255</v>
+        <v>1.57819</v>
       </c>
       <c r="D130" t="n">
-        <v>1.4815</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.71506</v>
+        <v>1.7288</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57318</v>
+        <v>1.56918</v>
       </c>
       <c r="D131" t="n">
-        <v>1.49367</v>
+        <v>1.47629</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72795</v>
+        <v>1.71136</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57018</v>
+        <v>1.57056</v>
       </c>
       <c r="D132" t="n">
-        <v>1.48608</v>
+        <v>1.48861</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.73605</v>
+        <v>1.70363</v>
       </c>
       <c r="C133" t="n">
-        <v>1.5632</v>
+        <v>1.55899</v>
       </c>
       <c r="D133" t="n">
-        <v>1.48302</v>
+        <v>1.50208</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.71599</v>
+        <v>1.72086</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57819</v>
+        <v>1.56397</v>
       </c>
       <c r="D134" t="n">
-        <v>1.49098</v>
+        <v>1.49913</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.74151</v>
+        <v>1.75302</v>
       </c>
       <c r="C135" t="n">
-        <v>1.59465</v>
+        <v>1.58871</v>
       </c>
       <c r="D135" t="n">
-        <v>1.49691</v>
+        <v>1.50078</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73032</v>
+        <v>1.74783</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58858</v>
+        <v>1.59983</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51724</v>
+        <v>1.50687</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.74653</v>
+        <v>1.75616</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59994</v>
+        <v>1.61833</v>
       </c>
       <c r="D137" t="n">
-        <v>1.75529</v>
+        <v>1.73373</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.98738</v>
+        <v>1.95934</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84095</v>
+        <v>1.81328</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74107</v>
+        <v>1.73271</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.99121</v>
+        <v>1.99291</v>
       </c>
       <c r="C139" t="n">
-        <v>1.82716</v>
+        <v>1.81722</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75934</v>
+        <v>1.75524</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.99559</v>
+        <v>1.97962</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83123</v>
+        <v>1.81808</v>
       </c>
       <c r="D140" t="n">
-        <v>1.76918</v>
+        <v>1.74937</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.9938</v>
+        <v>2.00136</v>
       </c>
       <c r="C141" t="n">
-        <v>1.82249</v>
+        <v>1.83897</v>
       </c>
       <c r="D141" t="n">
-        <v>1.77187</v>
+        <v>1.75365</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.99408</v>
+        <v>2.01886</v>
       </c>
       <c r="C142" t="n">
-        <v>1.84501</v>
+        <v>1.84356</v>
       </c>
       <c r="D142" t="n">
-        <v>1.76255</v>
+        <v>1.77564</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.02928</v>
+        <v>2.02168</v>
       </c>
       <c r="C143" t="n">
-        <v>1.86495</v>
+        <v>1.83514</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7693</v>
+        <v>1.79538</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.762545</v>
+        <v>0.645461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.557193</v>
+        <v>0.544459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.557243</v>
+        <v>0.549881</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.668059</v>
+        <v>0.638872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.556542</v>
+        <v>0.522213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.582389</v>
+        <v>0.543107</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.67154</v>
+        <v>0.638109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.554718</v>
+        <v>0.524002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.549909</v>
+        <v>0.543035</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6638579999999999</v>
+        <v>0.640505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539745</v>
+        <v>0.5131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.543808</v>
+        <v>0.542417</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.65852</v>
+        <v>0.615267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53992</v>
+        <v>0.518909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.527668</v>
+        <v>0.543857</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.644275</v>
+        <v>0.644751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.544413</v>
+        <v>0.5071600000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.550695</v>
+        <v>0.539005</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.662316</v>
+        <v>0.614598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5492669999999999</v>
+        <v>0.512391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.56415</v>
+        <v>0.5379969999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661805</v>
+        <v>0.649994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.538787</v>
+        <v>0.506935</v>
       </c>
       <c r="D9" t="n">
-        <v>0.639642</v>
+        <v>0.6370749999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.733262</v>
+        <v>0.706394</v>
       </c>
       <c r="C10" t="n">
-        <v>0.600542</v>
+        <v>0.581496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622217</v>
+        <v>0.615179</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7335</v>
+        <v>0.693045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.599807</v>
+        <v>0.571749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585691</v>
+        <v>0.608839</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.713235</v>
+        <v>0.704743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.579445</v>
+        <v>0.580252</v>
       </c>
       <c r="D12" t="n">
-        <v>0.600733</v>
+        <v>0.601125</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.69389</v>
+        <v>0.687704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.590706</v>
+        <v>0.568426</v>
       </c>
       <c r="D13" t="n">
-        <v>0.592553</v>
+        <v>0.587322</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.69809</v>
+        <v>0.685306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.57564</v>
+        <v>0.565298</v>
       </c>
       <c r="D14" t="n">
-        <v>0.576543</v>
+        <v>0.584174</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6787840000000001</v>
+        <v>0.6835329999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5636100000000001</v>
+        <v>0.572425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.566288</v>
+        <v>0.576761</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.699825</v>
+        <v>0.678793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.573631</v>
+        <v>0.576141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.561862</v>
+        <v>0.567008</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.690259</v>
+        <v>0.651305</v>
       </c>
       <c r="C17" t="n">
-        <v>0.564518</v>
+        <v>0.538396</v>
       </c>
       <c r="D17" t="n">
-        <v>0.565436</v>
+        <v>0.561725</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.650511</v>
+        <v>0.6553909999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.552492</v>
+        <v>0.526505</v>
       </c>
       <c r="D18" t="n">
-        <v>0.556544</v>
+        <v>0.5602279999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6619350000000001</v>
+        <v>0.651361</v>
       </c>
       <c r="C19" t="n">
-        <v>0.54295</v>
+        <v>0.547202</v>
       </c>
       <c r="D19" t="n">
-        <v>0.534137</v>
+        <v>0.562443</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664729</v>
+        <v>0.6527770000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.551741</v>
+        <v>0.530339</v>
       </c>
       <c r="D20" t="n">
-        <v>0.54684</v>
+        <v>0.550974</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.650722</v>
+        <v>0.6498080000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535808</v>
+        <v>0.547091</v>
       </c>
       <c r="D21" t="n">
-        <v>0.526963</v>
+        <v>0.554149</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.635562</v>
+        <v>0.649008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.531973</v>
+        <v>0.55257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.52665</v>
+        <v>0.545876</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.650852</v>
+        <v>0.645938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.532537</v>
+        <v>0.5348810000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.654857</v>
+        <v>0.644769</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.735071</v>
+        <v>0.745391</v>
       </c>
       <c r="C24" t="n">
-        <v>0.618135</v>
+        <v>0.609861</v>
       </c>
       <c r="D24" t="n">
-        <v>0.635976</v>
+        <v>0.619264</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.727165</v>
+        <v>0.717661</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6140099999999999</v>
+        <v>0.600515</v>
       </c>
       <c r="D25" t="n">
-        <v>0.615571</v>
+        <v>0.604992</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.716052</v>
+        <v>0.713697</v>
       </c>
       <c r="C26" t="n">
-        <v>0.602609</v>
+        <v>0.599787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.600801</v>
+        <v>0.605449</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.732302</v>
+        <v>0.747198</v>
       </c>
       <c r="C27" t="n">
-        <v>0.611195</v>
+        <v>0.585636</v>
       </c>
       <c r="D27" t="n">
-        <v>0.588067</v>
+        <v>0.608693</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.705275</v>
+        <v>0.703967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.596253</v>
+        <v>0.585849</v>
       </c>
       <c r="D28" t="n">
-        <v>0.590365</v>
+        <v>0.600927</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7178909999999999</v>
+        <v>0.714859</v>
       </c>
       <c r="C29" t="n">
-        <v>0.591509</v>
+        <v>0.58633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.580153</v>
+        <v>0.586668</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.706175</v>
+        <v>0.707295</v>
       </c>
       <c r="C30" t="n">
-        <v>0.599902</v>
+        <v>0.586055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.584848</v>
+        <v>0.579838</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.685981</v>
+        <v>0.698569</v>
       </c>
       <c r="C31" t="n">
-        <v>0.576568</v>
+        <v>0.592814</v>
       </c>
       <c r="D31" t="n">
-        <v>0.581774</v>
+        <v>0.584216</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.709935</v>
+        <v>0.6938569999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.579</v>
+        <v>0.564393</v>
       </c>
       <c r="D32" t="n">
-        <v>0.573648</v>
+        <v>0.583302</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.677229</v>
+        <v>0.689559</v>
       </c>
       <c r="C33" t="n">
-        <v>0.580584</v>
+        <v>0.560681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.575893</v>
+        <v>0.555076</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.673602</v>
+        <v>0.65957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.565491</v>
+        <v>0.57089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.568119</v>
+        <v>0.556233</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.679518</v>
+        <v>0.661147</v>
       </c>
       <c r="C35" t="n">
-        <v>0.565587</v>
+        <v>0.553551</v>
       </c>
       <c r="D35" t="n">
-        <v>0.572406</v>
+        <v>0.560454</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.66151</v>
+        <v>0.66057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.561974</v>
+        <v>0.557957</v>
       </c>
       <c r="D36" t="n">
-        <v>0.562979</v>
+        <v>0.550194</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.677674</v>
+        <v>0.694757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.551292</v>
+        <v>0.553577</v>
       </c>
       <c r="D37" t="n">
-        <v>0.650096</v>
+        <v>0.662385</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.857231</v>
+        <v>0.852649</v>
       </c>
       <c r="C38" t="n">
-        <v>0.709998</v>
+        <v>0.715941</v>
       </c>
       <c r="D38" t="n">
-        <v>0.636276</v>
+        <v>0.65197</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.856107</v>
+        <v>0.852812</v>
       </c>
       <c r="C39" t="n">
-        <v>0.712401</v>
+        <v>0.716214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6191719999999999</v>
+        <v>0.652954</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8084480000000001</v>
+        <v>0.841705</v>
       </c>
       <c r="C40" t="n">
-        <v>0.706685</v>
+        <v>0.715548</v>
       </c>
       <c r="D40" t="n">
-        <v>0.626762</v>
+        <v>0.636601</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.833075</v>
+        <v>0.812119</v>
       </c>
       <c r="C41" t="n">
-        <v>0.693143</v>
+        <v>0.686174</v>
       </c>
       <c r="D41" t="n">
-        <v>0.614548</v>
+        <v>0.6241</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.797907</v>
+        <v>0.814533</v>
       </c>
       <c r="C42" t="n">
-        <v>0.67705</v>
+        <v>0.685562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.626647</v>
+        <v>0.615735</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.789472</v>
+        <v>0.80186</v>
       </c>
       <c r="C43" t="n">
-        <v>0.687543</v>
+        <v>0.667517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.611087</v>
+        <v>0.625894</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.808404</v>
+        <v>0.787648</v>
       </c>
       <c r="C44" t="n">
-        <v>0.666027</v>
+        <v>0.661927</v>
       </c>
       <c r="D44" t="n">
-        <v>0.602861</v>
+        <v>0.6075430000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.79427</v>
+        <v>0.808214</v>
       </c>
       <c r="C45" t="n">
-        <v>0.657465</v>
+        <v>0.664368</v>
       </c>
       <c r="D45" t="n">
-        <v>0.621916</v>
+        <v>0.61674</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.768799</v>
+        <v>0.780371</v>
       </c>
       <c r="C46" t="n">
-        <v>0.656711</v>
+        <v>0.644145</v>
       </c>
       <c r="D46" t="n">
-        <v>0.607609</v>
+        <v>0.609686</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794567</v>
+        <v>0.761565</v>
       </c>
       <c r="C47" t="n">
-        <v>0.651888</v>
+        <v>0.645435</v>
       </c>
       <c r="D47" t="n">
-        <v>0.587109</v>
+        <v>0.603009</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.757927</v>
+        <v>0.772632</v>
       </c>
       <c r="C48" t="n">
-        <v>0.639662</v>
+        <v>0.670113</v>
       </c>
       <c r="D48" t="n">
-        <v>0.611613</v>
+        <v>0.602251</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.748248</v>
+        <v>0.745776</v>
       </c>
       <c r="C49" t="n">
-        <v>0.637834</v>
+        <v>0.635014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.586554</v>
+        <v>0.583287</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.756108</v>
+        <v>0.744835</v>
       </c>
       <c r="C50" t="n">
-        <v>0.631474</v>
+        <v>0.625427</v>
       </c>
       <c r="D50" t="n">
-        <v>0.588114</v>
+        <v>0.592645</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.750842</v>
+        <v>0.7482839999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.626456</v>
+        <v>0.624968</v>
       </c>
       <c r="D51" t="n">
-        <v>0.76107</v>
+        <v>0.758823</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.759928</v>
+        <v>0.73116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.628502</v>
+        <v>0.632783</v>
       </c>
       <c r="D52" t="n">
-        <v>0.74064</v>
+        <v>0.7367320000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.916596</v>
+        <v>0.935103</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8401149999999999</v>
+        <v>0.799046</v>
       </c>
       <c r="D53" t="n">
-        <v>0.746512</v>
+        <v>0.734667</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.905022</v>
+        <v>0.915327</v>
       </c>
       <c r="C54" t="n">
-        <v>0.78154</v>
+        <v>0.7783910000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7217170000000001</v>
+        <v>0.726517</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.906813</v>
+        <v>0.8872139999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.773574</v>
+        <v>0.761119</v>
       </c>
       <c r="D55" t="n">
-        <v>0.72273</v>
+        <v>0.73427</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.875577</v>
+        <v>0.891572</v>
       </c>
       <c r="C56" t="n">
-        <v>0.773269</v>
+        <v>0.768058</v>
       </c>
       <c r="D56" t="n">
-        <v>0.713965</v>
+        <v>0.723042</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.890817</v>
+        <v>0.873267</v>
       </c>
       <c r="C57" t="n">
-        <v>0.750981</v>
+        <v>0.744495</v>
       </c>
       <c r="D57" t="n">
-        <v>0.703836</v>
+        <v>0.6928299999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.889447</v>
+        <v>0.85715</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7457589999999999</v>
+        <v>0.74043</v>
       </c>
       <c r="D58" t="n">
-        <v>0.697126</v>
+        <v>0.687903</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.854069</v>
+        <v>0.866388</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7400910000000001</v>
+        <v>0.742441</v>
       </c>
       <c r="D59" t="n">
-        <v>0.686575</v>
+        <v>0.690802</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8717240000000001</v>
+        <v>0.8493270000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.725484</v>
+        <v>0.749817</v>
       </c>
       <c r="D60" t="n">
-        <v>0.694482</v>
+        <v>0.695875</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.844867</v>
+        <v>0.83695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7154740000000001</v>
+        <v>0.728073</v>
       </c>
       <c r="D61" t="n">
-        <v>0.667528</v>
+        <v>0.676017</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.833876</v>
+        <v>0.83714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.721176</v>
+        <v>0.722168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.672982</v>
+        <v>0.665083</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.816202</v>
+        <v>0.826231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.707382</v>
+        <v>0.69747</v>
       </c>
       <c r="D63" t="n">
-        <v>0.664629</v>
+        <v>0.663807</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.828712</v>
+        <v>0.832045</v>
       </c>
       <c r="C64" t="n">
-        <v>0.707832</v>
+        <v>0.701801</v>
       </c>
       <c r="D64" t="n">
-        <v>0.671308</v>
+        <v>0.664185</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.803515</v>
+        <v>0.811812</v>
       </c>
       <c r="C65" t="n">
-        <v>0.715927</v>
+        <v>0.684308</v>
       </c>
       <c r="D65" t="n">
-        <v>0.675417</v>
+        <v>0.673736</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.802068</v>
+        <v>0.8027879999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.706357</v>
+        <v>0.6904</v>
       </c>
       <c r="D66" t="n">
-        <v>0.849312</v>
+        <v>0.850447</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00703</v>
+        <v>1.00207</v>
       </c>
       <c r="C67" t="n">
-        <v>0.854441</v>
+        <v>0.867978</v>
       </c>
       <c r="D67" t="n">
-        <v>0.82905</v>
+        <v>0.8698360000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.02359</v>
+        <v>1.01874</v>
       </c>
       <c r="C68" t="n">
-        <v>0.851447</v>
+        <v>0.86103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.82707</v>
+        <v>0.867052</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.978922</v>
+        <v>0.9911180000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.854089</v>
+        <v>0.852874</v>
       </c>
       <c r="D69" t="n">
-        <v>0.829312</v>
+        <v>0.823915</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9996159999999999</v>
+        <v>0.973626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.840093</v>
+        <v>0.869985</v>
       </c>
       <c r="D70" t="n">
-        <v>0.853593</v>
+        <v>0.810375</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.970616</v>
+        <v>0.964924</v>
       </c>
       <c r="C71" t="n">
-        <v>0.837216</v>
+        <v>0.8227370000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812215</v>
+        <v>0.800381</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.97625</v>
+        <v>0.955232</v>
       </c>
       <c r="C72" t="n">
-        <v>0.833529</v>
+        <v>0.8329220000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.804903</v>
+        <v>0.808334</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.942252</v>
+        <v>0.9640300000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.814734</v>
+        <v>0.84575</v>
       </c>
       <c r="D73" t="n">
-        <v>0.813376</v>
+        <v>0.825754</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.945804</v>
+        <v>0.949103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.820006</v>
+        <v>0.827344</v>
       </c>
       <c r="D74" t="n">
-        <v>0.797947</v>
+        <v>0.7834950000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.953072</v>
+        <v>0.944726</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8027030000000001</v>
+        <v>0.807296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.784991</v>
+        <v>0.787476</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.937988</v>
+        <v>0.94091</v>
       </c>
       <c r="C76" t="n">
-        <v>0.807653</v>
+        <v>0.803101</v>
       </c>
       <c r="D76" t="n">
-        <v>0.781063</v>
+        <v>0.800243</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.923581</v>
+        <v>0.920615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.787224</v>
+        <v>0.8062</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787172</v>
+        <v>0.783981</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.942611</v>
+        <v>0.914544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8235</v>
+        <v>0.805582</v>
       </c>
       <c r="D78" t="n">
-        <v>0.794963</v>
+        <v>0.800775</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.923247</v>
+        <v>0.908838</v>
       </c>
       <c r="C79" t="n">
-        <v>0.803817</v>
+        <v>0.807875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.79756</v>
+        <v>0.785338</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.921688</v>
+        <v>0.92365</v>
       </c>
       <c r="C80" t="n">
-        <v>0.786799</v>
+        <v>0.78665</v>
       </c>
       <c r="D80" t="n">
-        <v>0.985751</v>
+        <v>1.00834</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.148</v>
+        <v>1.11713</v>
       </c>
       <c r="C81" t="n">
-        <v>0.990271</v>
+        <v>1.02619</v>
       </c>
       <c r="D81" t="n">
-        <v>0.963363</v>
+        <v>0.97844</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10941</v>
+        <v>1.1417</v>
       </c>
       <c r="C82" t="n">
-        <v>0.996173</v>
+        <v>1.00837</v>
       </c>
       <c r="D82" t="n">
-        <v>0.97081</v>
+        <v>0.956669</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.09319</v>
+        <v>1.11007</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9947820000000001</v>
+        <v>0.99027</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9741610000000001</v>
+        <v>0.991798</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.09335</v>
+        <v>1.1171</v>
       </c>
       <c r="C84" t="n">
-        <v>0.959796</v>
+        <v>0.97821</v>
       </c>
       <c r="D84" t="n">
-        <v>0.946262</v>
+        <v>0.957592</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.11073</v>
+        <v>1.12116</v>
       </c>
       <c r="C85" t="n">
-        <v>0.983291</v>
+        <v>0.9685049999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.938538</v>
+        <v>0.949004</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.09556</v>
+        <v>1.12044</v>
       </c>
       <c r="C86" t="n">
-        <v>0.98695</v>
+        <v>0.982548</v>
       </c>
       <c r="D86" t="n">
-        <v>0.941437</v>
+        <v>0.941559</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08577</v>
+        <v>1.09786</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9623969999999999</v>
+        <v>0.9657289999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.943267</v>
+        <v>0.937005</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11225</v>
+        <v>1.10621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.958006</v>
+        <v>0.960484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.947757</v>
+        <v>0.944421</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0831</v>
+        <v>1.07417</v>
       </c>
       <c r="C89" t="n">
-        <v>0.956992</v>
+        <v>0.9999209999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.933443</v>
+        <v>0.931597</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.08285</v>
+        <v>1.09143</v>
       </c>
       <c r="C90" t="n">
-        <v>0.980419</v>
+        <v>0.959245</v>
       </c>
       <c r="D90" t="n">
-        <v>0.915821</v>
+        <v>0.925523</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.07758</v>
+        <v>1.09635</v>
       </c>
       <c r="C91" t="n">
-        <v>0.956186</v>
+        <v>0.953936</v>
       </c>
       <c r="D91" t="n">
-        <v>0.906229</v>
+        <v>0.911691</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05094</v>
+        <v>1.0664</v>
       </c>
       <c r="C92" t="n">
-        <v>0.936735</v>
+        <v>0.962101</v>
       </c>
       <c r="D92" t="n">
-        <v>0.918247</v>
+        <v>0.924279</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05637</v>
+        <v>1.0752</v>
       </c>
       <c r="C93" t="n">
-        <v>0.935464</v>
+        <v>0.92401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.931999</v>
+        <v>0.920747</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.0707</v>
+        <v>1.05374</v>
       </c>
       <c r="C94" t="n">
-        <v>0.925813</v>
+        <v>0.9274210000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13895</v>
+        <v>1.14856</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25705</v>
+        <v>1.25236</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15055</v>
+        <v>1.12664</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14853</v>
+        <v>1.149</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.26103</v>
+        <v>1.25687</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17979</v>
+        <v>1.16855</v>
       </c>
       <c r="D96" t="n">
-        <v>1.12505</v>
+        <v>1.13106</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25806</v>
+        <v>1.29168</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14098</v>
+        <v>1.1711</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12089</v>
+        <v>1.13775</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26617</v>
+        <v>1.29189</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14392</v>
+        <v>1.14565</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08339</v>
+        <v>1.12695</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.24101</v>
+        <v>1.2671</v>
       </c>
       <c r="C99" t="n">
-        <v>1.14206</v>
+        <v>1.11852</v>
       </c>
       <c r="D99" t="n">
-        <v>1.11201</v>
+        <v>1.08944</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2794</v>
+        <v>1.2642</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09908</v>
+        <v>1.1722</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10149</v>
+        <v>1.09056</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25071</v>
+        <v>1.249</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11691</v>
+        <v>1.13941</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08309</v>
+        <v>1.06641</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24552</v>
+        <v>1.24919</v>
       </c>
       <c r="C102" t="n">
-        <v>1.15584</v>
+        <v>1.13192</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07387</v>
+        <v>1.09244</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23917</v>
+        <v>1.25039</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09786</v>
+        <v>1.13095</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06503</v>
+        <v>1.08688</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.22294</v>
+        <v>1.21061</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12692</v>
+        <v>1.1232</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05261</v>
+        <v>1.08408</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.21541</v>
+        <v>1.22686</v>
       </c>
       <c r="C105" t="n">
-        <v>1.13212</v>
+        <v>1.1078</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07283</v>
+        <v>1.07369</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.2383</v>
+        <v>1.22096</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11959</v>
+        <v>1.11306</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04501</v>
+        <v>1.08347</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.22527</v>
+        <v>1.25556</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13492</v>
+        <v>1.11833</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05224</v>
+        <v>1.06911</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.20891</v>
+        <v>1.18229</v>
       </c>
       <c r="C108" t="n">
-        <v>1.09753</v>
+        <v>1.10101</v>
       </c>
       <c r="D108" t="n">
-        <v>1.31103</v>
+        <v>1.32319</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.20059</v>
+        <v>1.21271</v>
       </c>
       <c r="C109" t="n">
-        <v>1.11211</v>
+        <v>1.14057</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28001</v>
+        <v>1.28872</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41259</v>
+        <v>1.43746</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32597</v>
+        <v>1.33632</v>
       </c>
       <c r="D110" t="n">
-        <v>1.25101</v>
+        <v>1.24906</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42702</v>
+        <v>1.42938</v>
       </c>
       <c r="C111" t="n">
-        <v>1.29326</v>
+        <v>1.31751</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26585</v>
+        <v>1.24333</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44551</v>
+        <v>1.42159</v>
       </c>
       <c r="C112" t="n">
-        <v>1.32296</v>
+        <v>1.31709</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25804</v>
+        <v>1.24072</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.41991</v>
+        <v>1.46432</v>
       </c>
       <c r="C113" t="n">
-        <v>1.35026</v>
+        <v>1.29912</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25256</v>
+        <v>1.2568</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.43845</v>
+        <v>1.45787</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31842</v>
+        <v>1.32949</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25195</v>
+        <v>1.25686</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.42682</v>
+        <v>1.41847</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30364</v>
+        <v>1.31635</v>
       </c>
       <c r="D115" t="n">
-        <v>1.28689</v>
+        <v>1.28059</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.45056</v>
+        <v>1.43082</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32549</v>
+        <v>1.32378</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21867</v>
+        <v>1.27194</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.46274</v>
+        <v>1.46065</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30957</v>
+        <v>1.3293</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24789</v>
+        <v>1.24836</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42375</v>
+        <v>1.43486</v>
       </c>
       <c r="C118" t="n">
-        <v>1.34722</v>
+        <v>1.31884</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24334</v>
+        <v>1.24232</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44045</v>
+        <v>1.4405</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32938</v>
+        <v>1.31955</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22401</v>
+        <v>1.24382</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.46045</v>
+        <v>1.48573</v>
       </c>
       <c r="C120" t="n">
-        <v>1.30774</v>
+        <v>1.31742</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22551</v>
+        <v>1.24114</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.44652</v>
+        <v>1.46407</v>
       </c>
       <c r="C121" t="n">
-        <v>1.33642</v>
+        <v>1.33146</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22746</v>
+        <v>1.23311</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.45025</v>
+        <v>1.42914</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32942</v>
+        <v>1.33164</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24913</v>
+        <v>1.25799</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.44002</v>
+        <v>1.43006</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33439</v>
+        <v>1.34882</v>
       </c>
       <c r="D123" t="n">
-        <v>1.48793</v>
+        <v>1.49644</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.67882</v>
+        <v>1.67202</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53916</v>
+        <v>1.53648</v>
       </c>
       <c r="D124" t="n">
-        <v>1.46452</v>
+        <v>1.49183</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.69752</v>
+        <v>1.6942</v>
       </c>
       <c r="C125" t="n">
-        <v>1.55028</v>
+        <v>1.55581</v>
       </c>
       <c r="D125" t="n">
-        <v>1.4545</v>
+        <v>1.44566</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.69677</v>
+        <v>1.6891</v>
       </c>
       <c r="C126" t="n">
-        <v>1.5355</v>
+        <v>1.552</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48249</v>
+        <v>1.48186</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.68381</v>
+        <v>1.6998</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55454</v>
+        <v>1.55726</v>
       </c>
       <c r="D127" t="n">
-        <v>1.47329</v>
+        <v>1.47106</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.69595</v>
+        <v>1.68516</v>
       </c>
       <c r="C128" t="n">
-        <v>1.54298</v>
+        <v>1.56723</v>
       </c>
       <c r="D128" t="n">
-        <v>1.46865</v>
+        <v>1.4751</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.70897</v>
+        <v>1.70969</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56941</v>
+        <v>1.54957</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47835</v>
+        <v>1.49178</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.69237</v>
+        <v>1.71911</v>
       </c>
       <c r="C130" t="n">
-        <v>1.57819</v>
+        <v>1.57552</v>
       </c>
       <c r="D130" t="n">
-        <v>1.48</v>
+        <v>1.48805</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.7288</v>
+        <v>1.72876</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56918</v>
+        <v>1.57798</v>
       </c>
       <c r="D131" t="n">
-        <v>1.47629</v>
+        <v>1.49355</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.71136</v>
+        <v>1.72736</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57056</v>
+        <v>1.55339</v>
       </c>
       <c r="D132" t="n">
-        <v>1.48861</v>
+        <v>1.4801</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.70363</v>
+        <v>1.71283</v>
       </c>
       <c r="C133" t="n">
-        <v>1.55899</v>
+        <v>1.54923</v>
       </c>
       <c r="D133" t="n">
-        <v>1.50208</v>
+        <v>1.49482</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.72086</v>
+        <v>1.73941</v>
       </c>
       <c r="C134" t="n">
-        <v>1.56397</v>
+        <v>1.57535</v>
       </c>
       <c r="D134" t="n">
-        <v>1.49913</v>
+        <v>1.51048</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.75302</v>
+        <v>1.74844</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58871</v>
+        <v>1.58198</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50078</v>
+        <v>1.48962</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.74783</v>
+        <v>1.73497</v>
       </c>
       <c r="C136" t="n">
-        <v>1.59983</v>
+        <v>1.60181</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50687</v>
+        <v>1.52291</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.75616</v>
+        <v>1.73649</v>
       </c>
       <c r="C137" t="n">
-        <v>1.61833</v>
+        <v>1.59751</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73373</v>
+        <v>1.74338</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.95934</v>
+        <v>1.98641</v>
       </c>
       <c r="C138" t="n">
-        <v>1.81328</v>
+        <v>1.81414</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73271</v>
+        <v>1.76575</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.99291</v>
+        <v>1.9796</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81722</v>
+        <v>1.82901</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75524</v>
+        <v>1.76288</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.97962</v>
+        <v>2.00774</v>
       </c>
       <c r="C140" t="n">
-        <v>1.81808</v>
+        <v>1.83227</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74937</v>
+        <v>1.74945</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.00136</v>
+        <v>2.00582</v>
       </c>
       <c r="C141" t="n">
-        <v>1.83897</v>
+        <v>1.83013</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75365</v>
+        <v>1.7614</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.01886</v>
+        <v>2.00653</v>
       </c>
       <c r="C142" t="n">
-        <v>1.84356</v>
+        <v>1.83272</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77564</v>
+        <v>1.77421</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.02168</v>
+        <v>2.01269</v>
       </c>
       <c r="C143" t="n">
-        <v>1.83514</v>
+        <v>1.82767</v>
       </c>
       <c r="D143" t="n">
-        <v>1.79538</v>
+        <v>1.78602</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.645461</v>
+        <v>0.656087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.544459</v>
+        <v>0.552866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.549881</v>
+        <v>0.561328</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.638872</v>
+        <v>0.63657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.522213</v>
+        <v>0.531462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.543107</v>
+        <v>0.547833</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.638109</v>
+        <v>0.650249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.524002</v>
+        <v>0.5222830000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.543035</v>
+        <v>0.5599730000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.640505</v>
+        <v>0.64515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5131</v>
+        <v>0.5050519999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542417</v>
+        <v>0.558387</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.615267</v>
+        <v>0.650041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.518909</v>
+        <v>0.512566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.543857</v>
+        <v>0.553078</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.644751</v>
+        <v>0.607192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5071600000000001</v>
+        <v>0.516123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.539005</v>
+        <v>0.561066</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.614598</v>
+        <v>0.606546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512391</v>
+        <v>0.519292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5379969999999999</v>
+        <v>0.546891</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.649994</v>
+        <v>0.61854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.506935</v>
+        <v>0.515462</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6370749999999999</v>
+        <v>0.6168400000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.706394</v>
+        <v>0.695106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.581496</v>
+        <v>0.600368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.615179</v>
+        <v>0.61306</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.693045</v>
+        <v>0.727696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.571749</v>
+        <v>0.588304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.608839</v>
+        <v>0.6051339999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.704743</v>
+        <v>0.695966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.580252</v>
+        <v>0.58567</v>
       </c>
       <c r="D12" t="n">
-        <v>0.601125</v>
+        <v>0.590684</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.687704</v>
+        <v>0.678331</v>
       </c>
       <c r="C13" t="n">
-        <v>0.568426</v>
+        <v>0.568334</v>
       </c>
       <c r="D13" t="n">
-        <v>0.587322</v>
+        <v>0.603336</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.685306</v>
+        <v>0.68868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.565298</v>
+        <v>0.557902</v>
       </c>
       <c r="D14" t="n">
-        <v>0.584174</v>
+        <v>0.615756</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6835329999999999</v>
+        <v>0.667662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.572425</v>
+        <v>0.560832</v>
       </c>
       <c r="D15" t="n">
-        <v>0.576761</v>
+        <v>0.576925</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.678793</v>
+        <v>0.6700199999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.576141</v>
+        <v>0.561442</v>
       </c>
       <c r="D16" t="n">
-        <v>0.567008</v>
+        <v>0.573559</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.651305</v>
+        <v>0.662972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.538396</v>
+        <v>0.557515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.561725</v>
+        <v>0.561764</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6553909999999999</v>
+        <v>0.65167</v>
       </c>
       <c r="C18" t="n">
-        <v>0.526505</v>
+        <v>0.542075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5602279999999999</v>
+        <v>0.568578</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.651361</v>
+        <v>0.664308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.547202</v>
+        <v>0.537154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.562443</v>
+        <v>0.562741</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6527770000000001</v>
+        <v>0.659011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.530339</v>
+        <v>0.540253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.550974</v>
+        <v>0.5505409999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6498080000000001</v>
+        <v>0.6545299999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.547091</v>
+        <v>0.5370239999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.554149</v>
+        <v>0.539436</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.649008</v>
+        <v>0.635343</v>
       </c>
       <c r="C22" t="n">
-        <v>0.55257</v>
+        <v>0.539327</v>
       </c>
       <c r="D22" t="n">
-        <v>0.545876</v>
+        <v>0.539573</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.645938</v>
+        <v>0.632744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5348810000000001</v>
+        <v>0.532603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.644769</v>
+        <v>0.63834</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.745391</v>
+        <v>0.726249</v>
       </c>
       <c r="C24" t="n">
-        <v>0.609861</v>
+        <v>0.600224</v>
       </c>
       <c r="D24" t="n">
-        <v>0.619264</v>
+        <v>0.620417</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.717661</v>
+        <v>0.724045</v>
       </c>
       <c r="C25" t="n">
-        <v>0.600515</v>
+        <v>0.61191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.604992</v>
+        <v>0.619918</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.713697</v>
+        <v>0.711812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.599787</v>
+        <v>0.59104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.605449</v>
+        <v>0.613999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.747198</v>
+        <v>0.737531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.585636</v>
+        <v>0.596086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.608693</v>
+        <v>0.609756</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.703967</v>
+        <v>0.723402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.585849</v>
+        <v>0.58462</v>
       </c>
       <c r="D28" t="n">
-        <v>0.600927</v>
+        <v>0.600521</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.714859</v>
+        <v>0.695458</v>
       </c>
       <c r="C29" t="n">
-        <v>0.58633</v>
+        <v>0.568626</v>
       </c>
       <c r="D29" t="n">
-        <v>0.586668</v>
+        <v>0.59177</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.707295</v>
+        <v>0.703045</v>
       </c>
       <c r="C30" t="n">
-        <v>0.586055</v>
+        <v>0.592645</v>
       </c>
       <c r="D30" t="n">
-        <v>0.579838</v>
+        <v>0.60051</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.698569</v>
+        <v>0.682706</v>
       </c>
       <c r="C31" t="n">
-        <v>0.592814</v>
+        <v>0.561306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.584216</v>
+        <v>0.572721</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6938569999999999</v>
+        <v>0.690862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.564393</v>
+        <v>0.577654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.583302</v>
+        <v>0.6012380000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689559</v>
+        <v>0.671356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.560681</v>
+        <v>0.559258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.555076</v>
+        <v>0.565672</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.65957</v>
+        <v>0.691474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.57089</v>
+        <v>0.572472</v>
       </c>
       <c r="D34" t="n">
-        <v>0.556233</v>
+        <v>0.58809</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.661147</v>
+        <v>0.678223</v>
       </c>
       <c r="C35" t="n">
-        <v>0.553551</v>
+        <v>0.560943</v>
       </c>
       <c r="D35" t="n">
-        <v>0.560454</v>
+        <v>0.566859</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.66057</v>
+        <v>0.679633</v>
       </c>
       <c r="C36" t="n">
-        <v>0.557957</v>
+        <v>0.559217</v>
       </c>
       <c r="D36" t="n">
-        <v>0.550194</v>
+        <v>0.557195</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.694757</v>
+        <v>0.66593</v>
       </c>
       <c r="C37" t="n">
-        <v>0.553577</v>
+        <v>0.560168</v>
       </c>
       <c r="D37" t="n">
-        <v>0.662385</v>
+        <v>0.776442</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.852649</v>
+        <v>0.861713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.715941</v>
+        <v>0.722489</v>
       </c>
       <c r="D38" t="n">
-        <v>0.65197</v>
+        <v>0.760962</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.852812</v>
+        <v>0.846256</v>
       </c>
       <c r="C39" t="n">
-        <v>0.716214</v>
+        <v>0.699125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.652954</v>
+        <v>0.738042</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.841705</v>
+        <v>0.828726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.715548</v>
+        <v>0.7029530000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.636601</v>
+        <v>0.735151</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.812119</v>
+        <v>0.808304</v>
       </c>
       <c r="C41" t="n">
-        <v>0.686174</v>
+        <v>0.680206</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6241</v>
+        <v>0.704515</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.814533</v>
+        <v>0.793945</v>
       </c>
       <c r="C42" t="n">
-        <v>0.685562</v>
+        <v>0.689988</v>
       </c>
       <c r="D42" t="n">
-        <v>0.615735</v>
+        <v>0.7074279999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.80186</v>
+        <v>0.805465</v>
       </c>
       <c r="C43" t="n">
-        <v>0.667517</v>
+        <v>0.6634910000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.625894</v>
+        <v>0.693314</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.787648</v>
+        <v>0.797304</v>
       </c>
       <c r="C44" t="n">
-        <v>0.661927</v>
+        <v>0.662882</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6075430000000001</v>
+        <v>0.686514</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.808214</v>
+        <v>0.793256</v>
       </c>
       <c r="C45" t="n">
-        <v>0.664368</v>
+        <v>0.667104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.61674</v>
+        <v>0.681369</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.780371</v>
+        <v>0.767168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.644145</v>
+        <v>0.656289</v>
       </c>
       <c r="D46" t="n">
-        <v>0.609686</v>
+        <v>0.671472</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.761565</v>
+        <v>0.757012</v>
       </c>
       <c r="C47" t="n">
-        <v>0.645435</v>
+        <v>0.6460129999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.603009</v>
+        <v>0.667278</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.772632</v>
+        <v>0.7600170000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.670113</v>
+        <v>0.638951</v>
       </c>
       <c r="D48" t="n">
-        <v>0.602251</v>
+        <v>0.669912</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.745776</v>
+        <v>0.756896</v>
       </c>
       <c r="C49" t="n">
-        <v>0.635014</v>
+        <v>0.646443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.583287</v>
+        <v>0.671496</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744835</v>
+        <v>0.761132</v>
       </c>
       <c r="C50" t="n">
-        <v>0.625427</v>
+        <v>0.636259</v>
       </c>
       <c r="D50" t="n">
-        <v>0.592645</v>
+        <v>0.63727</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7482839999999999</v>
+        <v>0.753387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.624968</v>
+        <v>0.6216970000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.758823</v>
+        <v>0.82056</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.73116</v>
+        <v>0.739158</v>
       </c>
       <c r="C52" t="n">
-        <v>0.632783</v>
+        <v>0.617158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7367320000000001</v>
+        <v>0.742128</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.935103</v>
+        <v>0.935651</v>
       </c>
       <c r="C53" t="n">
-        <v>0.799046</v>
+        <v>0.792343</v>
       </c>
       <c r="D53" t="n">
-        <v>0.734667</v>
+        <v>0.726066</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.915327</v>
+        <v>0.892505</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7783910000000001</v>
+        <v>0.783153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.726517</v>
+        <v>0.736673</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8872139999999999</v>
+        <v>0.921661</v>
       </c>
       <c r="C55" t="n">
-        <v>0.761119</v>
+        <v>0.774987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.73427</v>
+        <v>0.709624</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.891572</v>
+        <v>0.892528</v>
       </c>
       <c r="C56" t="n">
-        <v>0.768058</v>
+        <v>0.756232</v>
       </c>
       <c r="D56" t="n">
-        <v>0.723042</v>
+        <v>0.723319</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.873267</v>
+        <v>0.867827</v>
       </c>
       <c r="C57" t="n">
-        <v>0.744495</v>
+        <v>0.748673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6928299999999999</v>
+        <v>0.722125</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.85715</v>
+        <v>0.86846</v>
       </c>
       <c r="C58" t="n">
-        <v>0.74043</v>
+        <v>0.738391</v>
       </c>
       <c r="D58" t="n">
-        <v>0.687903</v>
+        <v>0.686958</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.866388</v>
+        <v>0.86521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.742441</v>
+        <v>0.741958</v>
       </c>
       <c r="D59" t="n">
-        <v>0.690802</v>
+        <v>0.680957</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8493270000000001</v>
+        <v>0.849957</v>
       </c>
       <c r="C60" t="n">
-        <v>0.749817</v>
+        <v>0.735868</v>
       </c>
       <c r="D60" t="n">
-        <v>0.695875</v>
+        <v>0.673688</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.83695</v>
+        <v>0.8464429999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.728073</v>
+        <v>0.731496</v>
       </c>
       <c r="D61" t="n">
-        <v>0.676017</v>
+        <v>0.6871390000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.83714</v>
+        <v>0.824381</v>
       </c>
       <c r="C62" t="n">
-        <v>0.722168</v>
+        <v>0.709288</v>
       </c>
       <c r="D62" t="n">
-        <v>0.665083</v>
+        <v>0.672833</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.826231</v>
+        <v>0.835406</v>
       </c>
       <c r="C63" t="n">
-        <v>0.69747</v>
+        <v>0.700665</v>
       </c>
       <c r="D63" t="n">
-        <v>0.663807</v>
+        <v>0.6699580000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.832045</v>
+        <v>0.814353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.701801</v>
+        <v>0.6993740000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.664185</v>
+        <v>0.667523</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.811812</v>
+        <v>0.829241</v>
       </c>
       <c r="C65" t="n">
-        <v>0.684308</v>
+        <v>0.6889960000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.673736</v>
+        <v>0.678307</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8027879999999999</v>
+        <v>0.796851</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6904</v>
+        <v>0.689421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.850447</v>
+        <v>0.830512</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00207</v>
+        <v>1.00156</v>
       </c>
       <c r="C67" t="n">
-        <v>0.867978</v>
+        <v>0.872578</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8698360000000001</v>
+        <v>0.834192</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01874</v>
+        <v>1.01979</v>
       </c>
       <c r="C68" t="n">
-        <v>0.86103</v>
+        <v>0.862836</v>
       </c>
       <c r="D68" t="n">
-        <v>0.867052</v>
+        <v>0.827081</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9911180000000001</v>
+        <v>0.9756089999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.852874</v>
+        <v>0.848803</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823915</v>
+        <v>0.826703</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.973626</v>
+        <v>0.990679</v>
       </c>
       <c r="C70" t="n">
-        <v>0.869985</v>
+        <v>0.851526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.810375</v>
+        <v>0.826068</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.964924</v>
+        <v>0.976057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8227370000000001</v>
+        <v>0.8480490000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.800381</v>
+        <v>0.797168</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.955232</v>
+        <v>0.968081</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8329220000000001</v>
+        <v>0.840289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.808334</v>
+        <v>0.808122</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9640300000000001</v>
+        <v>0.96749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.84575</v>
+        <v>0.818557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.825754</v>
+        <v>0.824481</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.949103</v>
+        <v>0.95556</v>
       </c>
       <c r="C74" t="n">
-        <v>0.827344</v>
+        <v>0.825919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7834950000000001</v>
+        <v>0.795002</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.944726</v>
+        <v>0.925821</v>
       </c>
       <c r="C75" t="n">
-        <v>0.807296</v>
+        <v>0.827751</v>
       </c>
       <c r="D75" t="n">
-        <v>0.787476</v>
+        <v>0.823095</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.94091</v>
+        <v>0.938288</v>
       </c>
       <c r="C76" t="n">
-        <v>0.803101</v>
+        <v>0.826819</v>
       </c>
       <c r="D76" t="n">
-        <v>0.800243</v>
+        <v>0.78203</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.920615</v>
+        <v>0.93721</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8062</v>
+        <v>0.793507</v>
       </c>
       <c r="D77" t="n">
-        <v>0.783981</v>
+        <v>0.788461</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.914544</v>
+        <v>0.923865</v>
       </c>
       <c r="C78" t="n">
-        <v>0.805582</v>
+        <v>0.798826</v>
       </c>
       <c r="D78" t="n">
-        <v>0.800775</v>
+        <v>0.796583</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.908838</v>
+        <v>0.937103</v>
       </c>
       <c r="C79" t="n">
-        <v>0.807875</v>
+        <v>0.810171</v>
       </c>
       <c r="D79" t="n">
-        <v>0.785338</v>
+        <v>0.8057299999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.92365</v>
+        <v>0.931772</v>
       </c>
       <c r="C80" t="n">
-        <v>0.78665</v>
+        <v>0.796627</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00834</v>
+        <v>0.998113</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.11713</v>
+        <v>1.14842</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02619</v>
+        <v>1.01064</v>
       </c>
       <c r="D81" t="n">
-        <v>0.97844</v>
+        <v>0.973449</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.1417</v>
+        <v>1.12631</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00837</v>
+        <v>1.02048</v>
       </c>
       <c r="D82" t="n">
-        <v>0.956669</v>
+        <v>0.977645</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11007</v>
+        <v>1.12479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.99027</v>
+        <v>0.982321</v>
       </c>
       <c r="D83" t="n">
-        <v>0.991798</v>
+        <v>0.958114</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1171</v>
+        <v>1.11771</v>
       </c>
       <c r="C84" t="n">
-        <v>0.97821</v>
+        <v>1.00095</v>
       </c>
       <c r="D84" t="n">
-        <v>0.957592</v>
+        <v>0.956068</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12116</v>
+        <v>1.1184</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9685049999999999</v>
+        <v>0.975247</v>
       </c>
       <c r="D85" t="n">
-        <v>0.949004</v>
+        <v>0.934601</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.12044</v>
+        <v>1.10191</v>
       </c>
       <c r="C86" t="n">
-        <v>0.982548</v>
+        <v>0.969452</v>
       </c>
       <c r="D86" t="n">
-        <v>0.941559</v>
+        <v>0.953498</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09786</v>
+        <v>1.09477</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9657289999999999</v>
+        <v>0.974935</v>
       </c>
       <c r="D87" t="n">
-        <v>0.937005</v>
+        <v>0.9447179999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10621</v>
+        <v>1.0793</v>
       </c>
       <c r="C88" t="n">
-        <v>0.960484</v>
+        <v>0.97589</v>
       </c>
       <c r="D88" t="n">
-        <v>0.944421</v>
+        <v>0.928929</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07417</v>
+        <v>1.07039</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9999209999999999</v>
+        <v>0.9561229999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.931597</v>
+        <v>0.9448220000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.09143</v>
+        <v>1.07827</v>
       </c>
       <c r="C90" t="n">
-        <v>0.959245</v>
+        <v>0.95875</v>
       </c>
       <c r="D90" t="n">
-        <v>0.925523</v>
+        <v>0.915339</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09635</v>
+        <v>1.06008</v>
       </c>
       <c r="C91" t="n">
-        <v>0.953936</v>
+        <v>0.944344</v>
       </c>
       <c r="D91" t="n">
-        <v>0.911691</v>
+        <v>0.923749</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0664</v>
+        <v>1.06373</v>
       </c>
       <c r="C92" t="n">
-        <v>0.962101</v>
+        <v>0.964769</v>
       </c>
       <c r="D92" t="n">
-        <v>0.924279</v>
+        <v>0.924386</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0752</v>
+        <v>1.05624</v>
       </c>
       <c r="C93" t="n">
-        <v>0.92401</v>
+        <v>0.941153</v>
       </c>
       <c r="D93" t="n">
-        <v>0.920747</v>
+        <v>0.9395210000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.05374</v>
+        <v>1.03888</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9274210000000001</v>
+        <v>0.930976</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14856</v>
+        <v>1.14691</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25236</v>
+        <v>1.25166</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12664</v>
+        <v>1.15075</v>
       </c>
       <c r="D95" t="n">
-        <v>1.149</v>
+        <v>1.12881</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25687</v>
+        <v>1.2852</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16855</v>
+        <v>1.14769</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13106</v>
+        <v>1.13889</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.29168</v>
+        <v>1.27368</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1711</v>
+        <v>1.15425</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13775</v>
+        <v>1.11359</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.29189</v>
+        <v>1.28517</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14565</v>
+        <v>1.15245</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12695</v>
+        <v>1.11018</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2671</v>
+        <v>1.23827</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11852</v>
+        <v>1.17774</v>
       </c>
       <c r="D99" t="n">
-        <v>1.08944</v>
+        <v>1.09475</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2642</v>
+        <v>1.29441</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1722</v>
+        <v>1.12871</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09056</v>
+        <v>1.09571</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.249</v>
+        <v>1.23898</v>
       </c>
       <c r="C101" t="n">
-        <v>1.13941</v>
+        <v>1.12445</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06641</v>
+        <v>1.06466</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24919</v>
+        <v>1.23332</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13192</v>
+        <v>1.13336</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09244</v>
+        <v>1.10309</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25039</v>
+        <v>1.25795</v>
       </c>
       <c r="C103" t="n">
-        <v>1.13095</v>
+        <v>1.12787</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08688</v>
+        <v>1.07351</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.21061</v>
+        <v>1.24825</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1232</v>
+        <v>1.13027</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08408</v>
+        <v>1.07879</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.22686</v>
+        <v>1.21818</v>
       </c>
       <c r="C105" t="n">
-        <v>1.1078</v>
+        <v>1.12946</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07369</v>
+        <v>1.07907</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.22096</v>
+        <v>1.24033</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11306</v>
+        <v>1.10428</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08347</v>
+        <v>1.05403</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.25556</v>
+        <v>1.23001</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11833</v>
+        <v>1.143</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06911</v>
+        <v>1.06366</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.18229</v>
+        <v>1.25518</v>
       </c>
       <c r="C108" t="n">
-        <v>1.10101</v>
+        <v>1.12806</v>
       </c>
       <c r="D108" t="n">
-        <v>1.32319</v>
+        <v>1.35008</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.21271</v>
+        <v>1.23736</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14057</v>
+        <v>1.12933</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28872</v>
+        <v>1.27559</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.43746</v>
+        <v>1.45623</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33632</v>
+        <v>1.31191</v>
       </c>
       <c r="D110" t="n">
-        <v>1.24906</v>
+        <v>1.27959</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42938</v>
+        <v>1.43228</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31751</v>
+        <v>1.33682</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24333</v>
+        <v>1.26866</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.42159</v>
+        <v>1.48135</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31709</v>
+        <v>1.34657</v>
       </c>
       <c r="D112" t="n">
-        <v>1.24072</v>
+        <v>1.2849</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.46432</v>
+        <v>1.45016</v>
       </c>
       <c r="C113" t="n">
-        <v>1.29912</v>
+        <v>1.37635</v>
       </c>
       <c r="D113" t="n">
-        <v>1.2568</v>
+        <v>1.26713</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45787</v>
+        <v>1.47331</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32949</v>
+        <v>1.32851</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25686</v>
+        <v>1.26177</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.41847</v>
+        <v>1.44551</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31635</v>
+        <v>1.30673</v>
       </c>
       <c r="D115" t="n">
-        <v>1.28059</v>
+        <v>1.2896</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.43082</v>
+        <v>1.49931</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32378</v>
+        <v>1.30979</v>
       </c>
       <c r="D116" t="n">
-        <v>1.27194</v>
+        <v>1.24466</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.46065</v>
+        <v>1.46989</v>
       </c>
       <c r="C117" t="n">
-        <v>1.3293</v>
+        <v>1.34429</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24836</v>
+        <v>1.26197</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43486</v>
+        <v>1.46686</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31884</v>
+        <v>1.34862</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24232</v>
+        <v>1.26609</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.4405</v>
+        <v>1.43743</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31955</v>
+        <v>1.32892</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24382</v>
+        <v>1.24273</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.48573</v>
+        <v>1.45113</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31742</v>
+        <v>1.30844</v>
       </c>
       <c r="D120" t="n">
-        <v>1.24114</v>
+        <v>1.24885</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.46407</v>
+        <v>1.45295</v>
       </c>
       <c r="C121" t="n">
-        <v>1.33146</v>
+        <v>1.30536</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23311</v>
+        <v>1.24424</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.42914</v>
+        <v>1.43868</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33164</v>
+        <v>1.3542</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25799</v>
+        <v>1.26688</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.43006</v>
+        <v>1.43612</v>
       </c>
       <c r="C123" t="n">
-        <v>1.34882</v>
+        <v>1.36435</v>
       </c>
       <c r="D123" t="n">
-        <v>1.49644</v>
+        <v>1.4795</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.67202</v>
+        <v>1.70154</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53648</v>
+        <v>1.54303</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49183</v>
+        <v>1.49701</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.6942</v>
+        <v>1.67671</v>
       </c>
       <c r="C125" t="n">
-        <v>1.55581</v>
+        <v>1.5341</v>
       </c>
       <c r="D125" t="n">
-        <v>1.44566</v>
+        <v>1.48499</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.6891</v>
+        <v>1.71176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.552</v>
+        <v>1.58935</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48186</v>
+        <v>1.48232</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.6998</v>
+        <v>1.70987</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55726</v>
+        <v>1.55923</v>
       </c>
       <c r="D127" t="n">
-        <v>1.47106</v>
+        <v>1.48685</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.68516</v>
+        <v>1.71208</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56723</v>
+        <v>1.56393</v>
       </c>
       <c r="D128" t="n">
-        <v>1.4751</v>
+        <v>1.48982</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.70969</v>
+        <v>1.70882</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54957</v>
+        <v>1.54409</v>
       </c>
       <c r="D129" t="n">
-        <v>1.49178</v>
+        <v>1.50145</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.71911</v>
+        <v>1.71504</v>
       </c>
       <c r="C130" t="n">
-        <v>1.57552</v>
+        <v>1.56245</v>
       </c>
       <c r="D130" t="n">
-        <v>1.48805</v>
+        <v>1.50123</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72876</v>
+        <v>1.71766</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57798</v>
+        <v>1.56184</v>
       </c>
       <c r="D131" t="n">
-        <v>1.49355</v>
+        <v>1.48526</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72736</v>
+        <v>1.72066</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55339</v>
+        <v>1.59064</v>
       </c>
       <c r="D132" t="n">
-        <v>1.4801</v>
+        <v>1.50208</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.71283</v>
+        <v>1.71261</v>
       </c>
       <c r="C133" t="n">
-        <v>1.54923</v>
+        <v>1.59098</v>
       </c>
       <c r="D133" t="n">
-        <v>1.49482</v>
+        <v>1.50574</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73941</v>
+        <v>1.73943</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57535</v>
+        <v>1.59308</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51048</v>
+        <v>1.50971</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.74844</v>
+        <v>1.75039</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58198</v>
+        <v>1.58735</v>
       </c>
       <c r="D135" t="n">
-        <v>1.48962</v>
+        <v>1.51958</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73497</v>
+        <v>1.73627</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60181</v>
+        <v>1.60446</v>
       </c>
       <c r="D136" t="n">
-        <v>1.52291</v>
+        <v>1.51401</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.73649</v>
+        <v>1.77212</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59751</v>
+        <v>1.59249</v>
       </c>
       <c r="D137" t="n">
-        <v>1.74338</v>
+        <v>1.74596</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.98641</v>
+        <v>1.9735</v>
       </c>
       <c r="C138" t="n">
-        <v>1.81414</v>
+        <v>1.82787</v>
       </c>
       <c r="D138" t="n">
-        <v>1.76575</v>
+        <v>1.74831</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.9796</v>
+        <v>1.9998</v>
       </c>
       <c r="C139" t="n">
-        <v>1.82901</v>
+        <v>1.84224</v>
       </c>
       <c r="D139" t="n">
-        <v>1.76288</v>
+        <v>1.76739</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.00774</v>
+        <v>1.9977</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83227</v>
+        <v>1.83403</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74945</v>
+        <v>1.76721</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.00582</v>
+        <v>2.02652</v>
       </c>
       <c r="C141" t="n">
-        <v>1.83013</v>
+        <v>1.85207</v>
       </c>
       <c r="D141" t="n">
-        <v>1.7614</v>
+        <v>1.75573</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.00653</v>
+        <v>2.03417</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83272</v>
+        <v>1.84276</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77421</v>
+        <v>1.79803</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.01269</v>
+        <v>2.02687</v>
       </c>
       <c r="C143" t="n">
-        <v>1.82767</v>
+        <v>1.83875</v>
       </c>
       <c r="D143" t="n">
-        <v>1.78602</v>
+        <v>1.7875</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.656087</v>
+        <v>0.693317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.552866</v>
+        <v>0.580889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.561328</v>
+        <v>0.532742</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.63657</v>
+        <v>0.6681820000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.531462</v>
+        <v>0.553509</v>
       </c>
       <c r="D3" t="n">
-        <v>0.547833</v>
+        <v>0.533251</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.650249</v>
+        <v>0.629733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5222830000000001</v>
+        <v>0.550701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5599730000000001</v>
+        <v>0.534548</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.64515</v>
+        <v>0.6317970000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5050519999999999</v>
+        <v>0.532846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.558387</v>
+        <v>0.519658</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.650041</v>
+        <v>0.628493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.512566</v>
+        <v>0.531305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.553078</v>
+        <v>0.5270359999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.607192</v>
+        <v>0.627763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.516123</v>
+        <v>0.5430430000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.561066</v>
+        <v>0.529334</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.606546</v>
+        <v>0.622346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.519292</v>
+        <v>0.536006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546891</v>
+        <v>0.528196</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61854</v>
+        <v>0.6191950000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515462</v>
+        <v>0.540616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6168400000000001</v>
+        <v>0.612799</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.695106</v>
+        <v>0.69833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.600368</v>
+        <v>0.624186</v>
       </c>
       <c r="D10" t="n">
-        <v>0.61306</v>
+        <v>0.597834</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.727696</v>
+        <v>0.6884209999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.588304</v>
+        <v>0.60043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6051339999999999</v>
+        <v>0.581578</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.695966</v>
+        <v>0.698909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.58567</v>
+        <v>0.606467</v>
       </c>
       <c r="D12" t="n">
-        <v>0.590684</v>
+        <v>0.57536</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.678331</v>
+        <v>0.675596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.568334</v>
+        <v>0.601288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.603336</v>
+        <v>0.579929</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.68868</v>
+        <v>0.700307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.557902</v>
+        <v>0.585592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.615756</v>
+        <v>0.573502</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.667662</v>
+        <v>0.6740969999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.560832</v>
+        <v>0.600487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.576925</v>
+        <v>0.5608</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6700199999999999</v>
+        <v>0.676226</v>
       </c>
       <c r="C16" t="n">
-        <v>0.561442</v>
+        <v>0.577611</v>
       </c>
       <c r="D16" t="n">
-        <v>0.573559</v>
+        <v>0.551783</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.662972</v>
+        <v>0.656519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.557515</v>
+        <v>0.567496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.561764</v>
+        <v>0.558331</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.65167</v>
+        <v>0.657102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.542075</v>
+        <v>0.571653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.568578</v>
+        <v>0.5459850000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.664308</v>
+        <v>0.637506</v>
       </c>
       <c r="C19" t="n">
-        <v>0.537154</v>
+        <v>0.5538110000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.562741</v>
+        <v>0.543903</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.659011</v>
+        <v>0.6657960000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.540253</v>
+        <v>0.5554750000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5505409999999999</v>
+        <v>0.554903</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6545299999999999</v>
+        <v>0.6341639999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5370239999999999</v>
+        <v>0.542979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.539436</v>
+        <v>0.537967</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.635343</v>
+        <v>0.633798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.539327</v>
+        <v>0.543809</v>
       </c>
       <c r="D22" t="n">
-        <v>0.539573</v>
+        <v>0.540116</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.632744</v>
+        <v>0.630836</v>
       </c>
       <c r="C23" t="n">
-        <v>0.532603</v>
+        <v>0.5608300000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.63834</v>
+        <v>0.632811</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.726249</v>
+        <v>0.713383</v>
       </c>
       <c r="C24" t="n">
-        <v>0.600224</v>
+        <v>0.625872</v>
       </c>
       <c r="D24" t="n">
-        <v>0.620417</v>
+        <v>0.631367</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.724045</v>
+        <v>0.7377590000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61191</v>
+        <v>0.627348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.619918</v>
+        <v>0.620808</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.711812</v>
+        <v>0.745128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.59104</v>
+        <v>0.622411</v>
       </c>
       <c r="D26" t="n">
-        <v>0.613999</v>
+        <v>0.592158</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.737531</v>
+        <v>0.708473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.596086</v>
+        <v>0.608398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.609756</v>
+        <v>0.606934</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.723402</v>
+        <v>0.704265</v>
       </c>
       <c r="C28" t="n">
-        <v>0.58462</v>
+        <v>0.603276</v>
       </c>
       <c r="D28" t="n">
-        <v>0.600521</v>
+        <v>0.583745</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.695458</v>
+        <v>0.697723</v>
       </c>
       <c r="C29" t="n">
-        <v>0.568626</v>
+        <v>0.606976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.59177</v>
+        <v>0.578967</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.703045</v>
+        <v>0.698796</v>
       </c>
       <c r="C30" t="n">
-        <v>0.592645</v>
+        <v>0.588921</v>
       </c>
       <c r="D30" t="n">
-        <v>0.60051</v>
+        <v>0.573437</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.682706</v>
+        <v>0.677856</v>
       </c>
       <c r="C31" t="n">
-        <v>0.561306</v>
+        <v>0.584831</v>
       </c>
       <c r="D31" t="n">
-        <v>0.572721</v>
+        <v>0.573807</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.690862</v>
+        <v>0.702881</v>
       </c>
       <c r="C32" t="n">
-        <v>0.577654</v>
+        <v>0.572217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6012380000000001</v>
+        <v>0.574302</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.671356</v>
+        <v>0.704044</v>
       </c>
       <c r="C33" t="n">
-        <v>0.559258</v>
+        <v>0.566715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.565672</v>
+        <v>0.562536</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.691474</v>
+        <v>0.67034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.572472</v>
+        <v>0.559646</v>
       </c>
       <c r="D34" t="n">
-        <v>0.58809</v>
+        <v>0.559287</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.678223</v>
+        <v>0.67202</v>
       </c>
       <c r="C35" t="n">
-        <v>0.560943</v>
+        <v>0.563725</v>
       </c>
       <c r="D35" t="n">
-        <v>0.566859</v>
+        <v>0.558664</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.679633</v>
+        <v>0.667194</v>
       </c>
       <c r="C36" t="n">
-        <v>0.559217</v>
+        <v>0.560173</v>
       </c>
       <c r="D36" t="n">
-        <v>0.557195</v>
+        <v>0.563873</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66593</v>
+        <v>0.679487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.560168</v>
+        <v>0.573286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.776442</v>
+        <v>0.667302</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.861713</v>
+        <v>0.841927</v>
       </c>
       <c r="C38" t="n">
-        <v>0.722489</v>
+        <v>0.715265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.760962</v>
+        <v>0.64713</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.846256</v>
+        <v>0.829457</v>
       </c>
       <c r="C39" t="n">
-        <v>0.699125</v>
+        <v>0.728379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.738042</v>
+        <v>0.632632</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.828726</v>
+        <v>0.813489</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7029530000000001</v>
+        <v>0.719797</v>
       </c>
       <c r="D40" t="n">
-        <v>0.735151</v>
+        <v>0.648424</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.808304</v>
+        <v>0.819454</v>
       </c>
       <c r="C41" t="n">
-        <v>0.680206</v>
+        <v>0.717791</v>
       </c>
       <c r="D41" t="n">
-        <v>0.704515</v>
+        <v>0.621385</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.793945</v>
+        <v>0.8088340000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.689988</v>
+        <v>0.687675</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7074279999999999</v>
+        <v>0.6025199999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.805465</v>
+        <v>0.793869</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6634910000000001</v>
+        <v>0.680578</v>
       </c>
       <c r="D43" t="n">
-        <v>0.693314</v>
+        <v>0.604318</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.797304</v>
+        <v>0.786451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.662882</v>
+        <v>0.684496</v>
       </c>
       <c r="D44" t="n">
-        <v>0.686514</v>
+        <v>0.611264</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.793256</v>
+        <v>0.78527</v>
       </c>
       <c r="C45" t="n">
-        <v>0.667104</v>
+        <v>0.671516</v>
       </c>
       <c r="D45" t="n">
-        <v>0.681369</v>
+        <v>0.603389</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.767168</v>
+        <v>0.771733</v>
       </c>
       <c r="C46" t="n">
-        <v>0.656289</v>
+        <v>0.67127</v>
       </c>
       <c r="D46" t="n">
-        <v>0.671472</v>
+        <v>0.599875</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.757012</v>
+        <v>0.752325</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6460129999999999</v>
+        <v>0.6505300000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.667278</v>
+        <v>0.604155</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7600170000000001</v>
+        <v>0.768626</v>
       </c>
       <c r="C48" t="n">
-        <v>0.638951</v>
+        <v>0.656463</v>
       </c>
       <c r="D48" t="n">
-        <v>0.669912</v>
+        <v>0.586847</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.756896</v>
+        <v>0.74365</v>
       </c>
       <c r="C49" t="n">
-        <v>0.646443</v>
+        <v>0.63784</v>
       </c>
       <c r="D49" t="n">
-        <v>0.671496</v>
+        <v>0.5873350000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.761132</v>
+        <v>0.762885</v>
       </c>
       <c r="C50" t="n">
-        <v>0.636259</v>
+        <v>0.637439</v>
       </c>
       <c r="D50" t="n">
-        <v>0.63727</v>
+        <v>0.604256</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.753387</v>
+        <v>0.736993</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6216970000000001</v>
+        <v>0.633239</v>
       </c>
       <c r="D51" t="n">
-        <v>0.82056</v>
+        <v>0.748186</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.739158</v>
+        <v>0.726826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.617158</v>
+        <v>0.634332</v>
       </c>
       <c r="D52" t="n">
-        <v>0.742128</v>
+        <v>0.747271</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.935651</v>
+        <v>0.9174639999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.792343</v>
+        <v>0.810798</v>
       </c>
       <c r="D53" t="n">
-        <v>0.726066</v>
+        <v>0.733953</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.892505</v>
+        <v>0.928693</v>
       </c>
       <c r="C54" t="n">
-        <v>0.783153</v>
+        <v>0.796762</v>
       </c>
       <c r="D54" t="n">
-        <v>0.736673</v>
+        <v>0.714924</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.921661</v>
+        <v>0.8977810000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.774987</v>
+        <v>0.785428</v>
       </c>
       <c r="D55" t="n">
-        <v>0.709624</v>
+        <v>0.71839</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.892528</v>
+        <v>0.894557</v>
       </c>
       <c r="C56" t="n">
-        <v>0.756232</v>
+        <v>0.774882</v>
       </c>
       <c r="D56" t="n">
-        <v>0.723319</v>
+        <v>0.704201</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.867827</v>
+        <v>0.882649</v>
       </c>
       <c r="C57" t="n">
-        <v>0.748673</v>
+        <v>0.760011</v>
       </c>
       <c r="D57" t="n">
-        <v>0.722125</v>
+        <v>0.692527</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.86846</v>
+        <v>0.848336</v>
       </c>
       <c r="C58" t="n">
-        <v>0.738391</v>
+        <v>0.751158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.686958</v>
+        <v>0.708985</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.86521</v>
+        <v>0.870337</v>
       </c>
       <c r="C59" t="n">
-        <v>0.741958</v>
+        <v>0.730561</v>
       </c>
       <c r="D59" t="n">
-        <v>0.680957</v>
+        <v>0.680381</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.849957</v>
+        <v>0.886992</v>
       </c>
       <c r="C60" t="n">
-        <v>0.735868</v>
+        <v>0.726542</v>
       </c>
       <c r="D60" t="n">
-        <v>0.673688</v>
+        <v>0.682488</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8464429999999999</v>
+        <v>0.8398870000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.731496</v>
+        <v>0.7176360000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6871390000000001</v>
+        <v>0.666747</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.824381</v>
+        <v>0.843411</v>
       </c>
       <c r="C62" t="n">
-        <v>0.709288</v>
+        <v>0.705039</v>
       </c>
       <c r="D62" t="n">
-        <v>0.672833</v>
+        <v>0.661384</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.835406</v>
+        <v>0.81385</v>
       </c>
       <c r="C63" t="n">
-        <v>0.700665</v>
+        <v>0.696604</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6699580000000001</v>
+        <v>0.66326</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.814353</v>
+        <v>0.795479</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6993740000000001</v>
+        <v>0.682864</v>
       </c>
       <c r="D64" t="n">
-        <v>0.667523</v>
+        <v>0.654401</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.829241</v>
+        <v>0.83314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6889960000000001</v>
+        <v>0.697442</v>
       </c>
       <c r="D65" t="n">
-        <v>0.678307</v>
+        <v>0.651029</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.796851</v>
+        <v>0.815334</v>
       </c>
       <c r="C66" t="n">
-        <v>0.689421</v>
+        <v>0.696596</v>
       </c>
       <c r="D66" t="n">
-        <v>0.830512</v>
+        <v>0.841065</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.00156</v>
+        <v>0.989858</v>
       </c>
       <c r="C67" t="n">
-        <v>0.872578</v>
+        <v>0.87696</v>
       </c>
       <c r="D67" t="n">
-        <v>0.834192</v>
+        <v>0.835001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01979</v>
+        <v>0.999864</v>
       </c>
       <c r="C68" t="n">
-        <v>0.862836</v>
+        <v>0.879037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.827081</v>
+        <v>0.852613</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9756089999999999</v>
+        <v>0.988249</v>
       </c>
       <c r="C69" t="n">
-        <v>0.848803</v>
+        <v>0.8415820000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.826703</v>
+        <v>0.806925</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.990679</v>
+        <v>0.983283</v>
       </c>
       <c r="C70" t="n">
-        <v>0.851526</v>
+        <v>0.844731</v>
       </c>
       <c r="D70" t="n">
-        <v>0.826068</v>
+        <v>0.813665</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.976057</v>
+        <v>0.98358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8480490000000001</v>
+        <v>0.838277</v>
       </c>
       <c r="D71" t="n">
-        <v>0.797168</v>
+        <v>0.821512</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.968081</v>
+        <v>0.959385</v>
       </c>
       <c r="C72" t="n">
-        <v>0.840289</v>
+        <v>0.84644</v>
       </c>
       <c r="D72" t="n">
-        <v>0.808122</v>
+        <v>0.805855</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.96749</v>
+        <v>0.959003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.818557</v>
+        <v>0.823482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.824481</v>
+        <v>0.786202</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.95556</v>
+        <v>0.977972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.825919</v>
+        <v>0.808039</v>
       </c>
       <c r="D74" t="n">
-        <v>0.795002</v>
+        <v>0.7819120000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.925821</v>
+        <v>0.940862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.827751</v>
+        <v>0.837433</v>
       </c>
       <c r="D75" t="n">
-        <v>0.823095</v>
+        <v>0.796003</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.938288</v>
+        <v>0.9441889999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.826819</v>
+        <v>0.798484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.78203</v>
+        <v>0.784004</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.93721</v>
+        <v>0.941692</v>
       </c>
       <c r="C77" t="n">
-        <v>0.793507</v>
+        <v>0.802961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.788461</v>
+        <v>0.774725</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.923865</v>
+        <v>0.927414</v>
       </c>
       <c r="C78" t="n">
-        <v>0.798826</v>
+        <v>0.7936299999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.796583</v>
+        <v>0.773822</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.937103</v>
+        <v>0.923969</v>
       </c>
       <c r="C79" t="n">
-        <v>0.810171</v>
+        <v>0.793215</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8057299999999999</v>
+        <v>0.775806</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.931772</v>
+        <v>0.915102</v>
       </c>
       <c r="C80" t="n">
-        <v>0.796627</v>
+        <v>0.783873</v>
       </c>
       <c r="D80" t="n">
-        <v>0.998113</v>
+        <v>0.999125</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14842</v>
+        <v>1.13136</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01064</v>
+        <v>1.01302</v>
       </c>
       <c r="D81" t="n">
-        <v>0.973449</v>
+        <v>0.96154</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12631</v>
+        <v>1.14163</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02048</v>
+        <v>0.998752</v>
       </c>
       <c r="D82" t="n">
-        <v>0.977645</v>
+        <v>0.967288</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12479</v>
+        <v>1.12526</v>
       </c>
       <c r="C83" t="n">
-        <v>0.982321</v>
+        <v>1.00928</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958114</v>
+        <v>0.97016</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.11771</v>
+        <v>1.13008</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00095</v>
+        <v>0.975111</v>
       </c>
       <c r="D84" t="n">
-        <v>0.956068</v>
+        <v>0.948809</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.1184</v>
+        <v>1.1128</v>
       </c>
       <c r="C85" t="n">
-        <v>0.975247</v>
+        <v>0.97327</v>
       </c>
       <c r="D85" t="n">
-        <v>0.934601</v>
+        <v>0.933961</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10191</v>
+        <v>1.14088</v>
       </c>
       <c r="C86" t="n">
-        <v>0.969452</v>
+        <v>0.9656400000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.953498</v>
+        <v>0.950108</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09477</v>
+        <v>1.11345</v>
       </c>
       <c r="C87" t="n">
-        <v>0.974935</v>
+        <v>0.964247</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9447179999999999</v>
+        <v>0.944861</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0793</v>
+        <v>1.09949</v>
       </c>
       <c r="C88" t="n">
-        <v>0.97589</v>
+        <v>0.954284</v>
       </c>
       <c r="D88" t="n">
-        <v>0.928929</v>
+        <v>0.939334</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07039</v>
+        <v>1.09058</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9561229999999999</v>
+        <v>0.9344749999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9448220000000001</v>
+        <v>0.926875</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07827</v>
+        <v>1.05875</v>
       </c>
       <c r="C90" t="n">
-        <v>0.95875</v>
+        <v>0.944008</v>
       </c>
       <c r="D90" t="n">
-        <v>0.915339</v>
+        <v>0.924446</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06008</v>
+        <v>1.08748</v>
       </c>
       <c r="C91" t="n">
-        <v>0.944344</v>
+        <v>0.947372</v>
       </c>
       <c r="D91" t="n">
-        <v>0.923749</v>
+        <v>0.911581</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06373</v>
+        <v>1.06097</v>
       </c>
       <c r="C92" t="n">
-        <v>0.964769</v>
+        <v>0.947861</v>
       </c>
       <c r="D92" t="n">
-        <v>0.924386</v>
+        <v>0.91254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05624</v>
+        <v>1.04081</v>
       </c>
       <c r="C93" t="n">
-        <v>0.941153</v>
+        <v>0.934061</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9395210000000001</v>
+        <v>0.899263</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.03888</v>
+        <v>1.03439</v>
       </c>
       <c r="C94" t="n">
-        <v>0.930976</v>
+        <v>0.922445</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14691</v>
+        <v>1.13881</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25166</v>
+        <v>1.24685</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15075</v>
+        <v>1.14352</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12881</v>
+        <v>1.13794</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2852</v>
+        <v>1.25294</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14769</v>
+        <v>1.13094</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13889</v>
+        <v>1.1193</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.27368</v>
+        <v>1.25706</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15425</v>
+        <v>1.12723</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11359</v>
+        <v>1.11684</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.28517</v>
+        <v>1.25947</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15245</v>
+        <v>1.11381</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11018</v>
+        <v>1.12505</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23827</v>
+        <v>1.25535</v>
       </c>
       <c r="C99" t="n">
-        <v>1.17774</v>
+        <v>1.1471</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09475</v>
+        <v>1.07947</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29441</v>
+        <v>1.26792</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12871</v>
+        <v>1.1035</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09571</v>
+        <v>1.13871</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.23898</v>
+        <v>1.24153</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12445</v>
+        <v>1.10647</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06466</v>
+        <v>1.08556</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23332</v>
+        <v>1.26839</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13336</v>
+        <v>1.12246</v>
       </c>
       <c r="D102" t="n">
-        <v>1.10309</v>
+        <v>1.07507</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25795</v>
+        <v>1.24559</v>
       </c>
       <c r="C103" t="n">
-        <v>1.12787</v>
+        <v>1.11561</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07351</v>
+        <v>1.08319</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.24825</v>
+        <v>1.25405</v>
       </c>
       <c r="C104" t="n">
-        <v>1.13027</v>
+        <v>1.10855</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07879</v>
+        <v>1.07745</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.21818</v>
+        <v>1.25549</v>
       </c>
       <c r="C105" t="n">
-        <v>1.12946</v>
+        <v>1.08705</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07907</v>
+        <v>1.06868</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.24033</v>
+        <v>1.22317</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10428</v>
+        <v>1.10481</v>
       </c>
       <c r="D106" t="n">
-        <v>1.05403</v>
+        <v>1.06598</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.23001</v>
+        <v>1.24156</v>
       </c>
       <c r="C107" t="n">
-        <v>1.143</v>
+        <v>1.10922</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06366</v>
+        <v>1.0615</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.25518</v>
+        <v>1.1887</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12806</v>
+        <v>1.13232</v>
       </c>
       <c r="D108" t="n">
-        <v>1.35008</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.23736</v>
+        <v>1.2491</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12933</v>
+        <v>1.12131</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27559</v>
+        <v>1.27166</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.45623</v>
+        <v>1.447</v>
       </c>
       <c r="C110" t="n">
-        <v>1.31191</v>
+        <v>1.32308</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27959</v>
+        <v>1.27402</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.43228</v>
+        <v>1.44057</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33682</v>
+        <v>1.32225</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26866</v>
+        <v>1.29298</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.48135</v>
+        <v>1.41966</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34657</v>
+        <v>1.31839</v>
       </c>
       <c r="D112" t="n">
-        <v>1.2849</v>
+        <v>1.27734</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45016</v>
+        <v>1.47459</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37635</v>
+        <v>1.34901</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26713</v>
+        <v>1.2538</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47331</v>
+        <v>1.45894</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32851</v>
+        <v>1.30052</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26177</v>
+        <v>1.26994</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.44551</v>
+        <v>1.44836</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30673</v>
+        <v>1.31</v>
       </c>
       <c r="D115" t="n">
-        <v>1.2896</v>
+        <v>1.25381</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49931</v>
+        <v>1.46711</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30979</v>
+        <v>1.3324</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24466</v>
+        <v>1.25833</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.46989</v>
+        <v>1.43254</v>
       </c>
       <c r="C117" t="n">
-        <v>1.34429</v>
+        <v>1.30464</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26197</v>
+        <v>1.28395</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.46686</v>
+        <v>1.44295</v>
       </c>
       <c r="C118" t="n">
-        <v>1.34862</v>
+        <v>1.32346</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26609</v>
+        <v>1.27002</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.43743</v>
+        <v>1.44531</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32892</v>
+        <v>1.29041</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24273</v>
+        <v>1.25509</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.45113</v>
+        <v>1.46784</v>
       </c>
       <c r="C120" t="n">
-        <v>1.30844</v>
+        <v>1.29024</v>
       </c>
       <c r="D120" t="n">
-        <v>1.24885</v>
+        <v>1.24874</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.45295</v>
+        <v>1.46098</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30536</v>
+        <v>1.30006</v>
       </c>
       <c r="D121" t="n">
-        <v>1.24424</v>
+        <v>1.21201</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.43868</v>
+        <v>1.46546</v>
       </c>
       <c r="C122" t="n">
-        <v>1.3542</v>
+        <v>1.30035</v>
       </c>
       <c r="D122" t="n">
-        <v>1.26688</v>
+        <v>1.26892</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.43612</v>
+        <v>1.46391</v>
       </c>
       <c r="C123" t="n">
-        <v>1.36435</v>
+        <v>1.32867</v>
       </c>
       <c r="D123" t="n">
-        <v>1.4795</v>
+        <v>1.48083</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.70154</v>
+        <v>1.68428</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54303</v>
+        <v>1.51304</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49701</v>
+        <v>1.46307</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.67671</v>
+        <v>1.68294</v>
       </c>
       <c r="C125" t="n">
-        <v>1.5341</v>
+        <v>1.51508</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48499</v>
+        <v>1.45177</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.71176</v>
+        <v>1.70543</v>
       </c>
       <c r="C126" t="n">
-        <v>1.58935</v>
+        <v>1.51571</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48232</v>
+        <v>1.47065</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.70987</v>
+        <v>1.69168</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55923</v>
+        <v>1.50428</v>
       </c>
       <c r="D127" t="n">
-        <v>1.48685</v>
+        <v>1.45998</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71208</v>
+        <v>1.72899</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56393</v>
+        <v>1.50722</v>
       </c>
       <c r="D128" t="n">
-        <v>1.48982</v>
+        <v>1.45742</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.70882</v>
+        <v>1.72615</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54409</v>
+        <v>1.49054</v>
       </c>
       <c r="D129" t="n">
-        <v>1.50145</v>
+        <v>1.48173</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.71504</v>
+        <v>1.70776</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56245</v>
+        <v>1.50334</v>
       </c>
       <c r="D130" t="n">
-        <v>1.50123</v>
+        <v>1.43381</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.71766</v>
+        <v>1.71242</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56184</v>
+        <v>1.48804</v>
       </c>
       <c r="D131" t="n">
-        <v>1.48526</v>
+        <v>1.38605</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72066</v>
+        <v>1.64346</v>
       </c>
       <c r="C132" t="n">
-        <v>1.59064</v>
+        <v>1.4515</v>
       </c>
       <c r="D132" t="n">
-        <v>1.50208</v>
+        <v>1.36402</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.71261</v>
+        <v>1.6307</v>
       </c>
       <c r="C133" t="n">
-        <v>1.59098</v>
+        <v>1.42929</v>
       </c>
       <c r="D133" t="n">
-        <v>1.50574</v>
+        <v>1.40958</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73943</v>
+        <v>1.63711</v>
       </c>
       <c r="C134" t="n">
-        <v>1.59308</v>
+        <v>1.43366</v>
       </c>
       <c r="D134" t="n">
-        <v>1.50971</v>
+        <v>1.36236</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.75039</v>
+        <v>1.62318</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58735</v>
+        <v>1.41335</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51958</v>
+        <v>1.37979</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73627</v>
+        <v>1.74865</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60446</v>
+        <v>1.51033</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51401</v>
+        <v>1.44982</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.77212</v>
+        <v>1.76145</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59249</v>
+        <v>1.50136</v>
       </c>
       <c r="D137" t="n">
-        <v>1.74596</v>
+        <v>1.69275</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.9735</v>
+        <v>1.97375</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82787</v>
+        <v>1.71613</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74831</v>
+        <v>1.66834</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.9998</v>
+        <v>2.00091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.84224</v>
+        <v>1.71832</v>
       </c>
       <c r="D139" t="n">
-        <v>1.76739</v>
+        <v>1.64795</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.9977</v>
+        <v>1.98245</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83403</v>
+        <v>1.70384</v>
       </c>
       <c r="D140" t="n">
-        <v>1.76721</v>
+        <v>1.65881</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.02652</v>
+        <v>2.0403</v>
       </c>
       <c r="C141" t="n">
-        <v>1.85207</v>
+        <v>1.7102</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75573</v>
+        <v>1.66389</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.03417</v>
+        <v>2.0098</v>
       </c>
       <c r="C142" t="n">
-        <v>1.84276</v>
+        <v>1.69274</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79803</v>
+        <v>1.64555</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.02687</v>
+        <v>2.0125</v>
       </c>
       <c r="C143" t="n">
-        <v>1.83875</v>
+        <v>1.68669</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7875</v>
+        <v>1.65724</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693317</v>
+        <v>0.661934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.580889</v>
+        <v>0.5589499999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.532742</v>
+        <v>0.539705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6681820000000001</v>
+        <v>0.641077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.553509</v>
+        <v>0.553804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.533251</v>
+        <v>0.545018</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.629733</v>
+        <v>0.641109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.550701</v>
+        <v>0.563841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.534548</v>
+        <v>0.535177</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6317970000000001</v>
+        <v>0.651493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.532846</v>
+        <v>0.56098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.519658</v>
+        <v>0.5404060000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.628493</v>
+        <v>0.627776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.531305</v>
+        <v>0.539205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5270359999999999</v>
+        <v>0.523734</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.627763</v>
+        <v>0.633123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5430430000000001</v>
+        <v>0.5333290000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.529334</v>
+        <v>0.543562</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.622346</v>
+        <v>0.628007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.536006</v>
+        <v>0.539849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.528196</v>
+        <v>0.549916</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6191950000000001</v>
+        <v>0.642519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.540616</v>
+        <v>0.54983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.612799</v>
+        <v>0.6119250000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.69833</v>
+        <v>0.702008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.624186</v>
+        <v>0.609216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.597834</v>
+        <v>0.616717</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6884209999999999</v>
+        <v>0.709966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.60043</v>
+        <v>0.621763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.581578</v>
+        <v>0.605156</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.698909</v>
+        <v>0.70184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.606467</v>
+        <v>0.609089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.57536</v>
+        <v>0.592224</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.675596</v>
+        <v>0.710959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.601288</v>
+        <v>0.620965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.579929</v>
+        <v>0.59279</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.700307</v>
+        <v>0.674588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.585592</v>
+        <v>0.5811269999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.573502</v>
+        <v>0.568091</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6740969999999999</v>
+        <v>0.6687419999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.600487</v>
+        <v>0.590089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5608</v>
+        <v>0.5758799999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.676226</v>
+        <v>0.661537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.577611</v>
+        <v>0.578444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.551783</v>
+        <v>0.564463</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.656519</v>
+        <v>0.663131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.567496</v>
+        <v>0.565876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.558331</v>
+        <v>0.553813</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.657102</v>
+        <v>0.671123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.571653</v>
+        <v>0.561007</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5459850000000001</v>
+        <v>0.568538</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.637506</v>
+        <v>0.661756</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5538110000000001</v>
+        <v>0.5563940000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.543903</v>
+        <v>0.545534</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6657960000000001</v>
+        <v>0.6465880000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5554750000000001</v>
+        <v>0.557758</v>
       </c>
       <c r="D20" t="n">
-        <v>0.554903</v>
+        <v>0.551314</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6341639999999999</v>
+        <v>0.656295</v>
       </c>
       <c r="C21" t="n">
-        <v>0.542979</v>
+        <v>0.5662469999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.537967</v>
+        <v>0.551051</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.633798</v>
+        <v>0.653046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.543809</v>
+        <v>0.572253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.540116</v>
+        <v>0.535484</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.630836</v>
+        <v>0.631802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5608300000000001</v>
+        <v>0.5538920000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.632811</v>
+        <v>0.638441</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.713383</v>
+        <v>0.72627</v>
       </c>
       <c r="C24" t="n">
-        <v>0.625872</v>
+        <v>0.62929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.631367</v>
+        <v>0.621902</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7377590000000001</v>
+        <v>0.7283539999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.627348</v>
+        <v>0.642632</v>
       </c>
       <c r="D25" t="n">
-        <v>0.620808</v>
+        <v>0.642192</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.745128</v>
+        <v>0.755896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.622411</v>
+        <v>0.63286</v>
       </c>
       <c r="D26" t="n">
-        <v>0.592158</v>
+        <v>0.61127</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.708473</v>
+        <v>0.721043</v>
       </c>
       <c r="C27" t="n">
-        <v>0.608398</v>
+        <v>0.607706</v>
       </c>
       <c r="D27" t="n">
-        <v>0.606934</v>
+        <v>0.613364</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.704265</v>
+        <v>0.701615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.603276</v>
+        <v>0.6393</v>
       </c>
       <c r="D28" t="n">
-        <v>0.583745</v>
+        <v>0.600718</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.697723</v>
+        <v>0.684474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.606976</v>
+        <v>0.611359</v>
       </c>
       <c r="D29" t="n">
-        <v>0.578967</v>
+        <v>0.594218</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.698796</v>
+        <v>0.691571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.588921</v>
+        <v>0.5980569999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.573437</v>
+        <v>0.58861</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.677856</v>
+        <v>0.69778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.584831</v>
+        <v>0.598373</v>
       </c>
       <c r="D31" t="n">
-        <v>0.573807</v>
+        <v>0.581043</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.702881</v>
+        <v>0.69118</v>
       </c>
       <c r="C32" t="n">
-        <v>0.572217</v>
+        <v>0.602635</v>
       </c>
       <c r="D32" t="n">
-        <v>0.574302</v>
+        <v>0.575466</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.704044</v>
+        <v>0.669172</v>
       </c>
       <c r="C33" t="n">
-        <v>0.566715</v>
+        <v>0.575359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.562536</v>
+        <v>0.5802389999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.67034</v>
+        <v>0.673551</v>
       </c>
       <c r="C34" t="n">
-        <v>0.559646</v>
+        <v>0.583551</v>
       </c>
       <c r="D34" t="n">
-        <v>0.559287</v>
+        <v>0.57023</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.67202</v>
+        <v>0.675444</v>
       </c>
       <c r="C35" t="n">
-        <v>0.563725</v>
+        <v>0.583892</v>
       </c>
       <c r="D35" t="n">
-        <v>0.558664</v>
+        <v>0.566648</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.667194</v>
+        <v>0.650526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.560173</v>
+        <v>0.579357</v>
       </c>
       <c r="D36" t="n">
-        <v>0.563873</v>
+        <v>0.568742</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.679487</v>
+        <v>0.6902239999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.573286</v>
+        <v>0.5701040000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.667302</v>
+        <v>0.769076</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.841927</v>
+        <v>0.8816349999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.715265</v>
+        <v>0.752667</v>
       </c>
       <c r="D38" t="n">
-        <v>0.64713</v>
+        <v>0.75452</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.829457</v>
+        <v>0.839495</v>
       </c>
       <c r="C39" t="n">
-        <v>0.728379</v>
+        <v>0.721899</v>
       </c>
       <c r="D39" t="n">
-        <v>0.632632</v>
+        <v>0.736156</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813489</v>
+        <v>0.843322</v>
       </c>
       <c r="C40" t="n">
-        <v>0.719797</v>
+        <v>0.7169219999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.648424</v>
+        <v>0.732294</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.819454</v>
+        <v>0.812291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.717791</v>
+        <v>0.701516</v>
       </c>
       <c r="D41" t="n">
-        <v>0.621385</v>
+        <v>0.715831</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8088340000000001</v>
+        <v>0.808601</v>
       </c>
       <c r="C42" t="n">
-        <v>0.687675</v>
+        <v>0.711117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6025199999999999</v>
+        <v>0.711054</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.793869</v>
+        <v>0.79886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.680578</v>
+        <v>0.6835830000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.604318</v>
+        <v>0.703487</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.786451</v>
+        <v>0.795354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.684496</v>
+        <v>0.6924709999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.611264</v>
+        <v>0.683488</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.78527</v>
+        <v>0.768989</v>
       </c>
       <c r="C45" t="n">
-        <v>0.671516</v>
+        <v>0.665557</v>
       </c>
       <c r="D45" t="n">
-        <v>0.603389</v>
+        <v>0.6893280000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.771733</v>
+        <v>0.781108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.67127</v>
+        <v>0.6628039999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.599875</v>
+        <v>0.674288</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.752325</v>
+        <v>0.778502</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6505300000000001</v>
+        <v>0.6657920000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.604155</v>
+        <v>0.664243</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.768626</v>
+        <v>0.770669</v>
       </c>
       <c r="C48" t="n">
-        <v>0.656463</v>
+        <v>0.651238</v>
       </c>
       <c r="D48" t="n">
-        <v>0.586847</v>
+        <v>0.655752</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.74365</v>
+        <v>0.754165</v>
       </c>
       <c r="C49" t="n">
-        <v>0.63784</v>
+        <v>0.652579</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5873350000000001</v>
+        <v>0.659699</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.762885</v>
+        <v>0.761947</v>
       </c>
       <c r="C50" t="n">
-        <v>0.637439</v>
+        <v>0.644829</v>
       </c>
       <c r="D50" t="n">
-        <v>0.604256</v>
+        <v>0.6563909999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.736993</v>
+        <v>0.752486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.633239</v>
+        <v>0.639811</v>
       </c>
       <c r="D51" t="n">
-        <v>0.748186</v>
+        <v>0.848913</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.726826</v>
+        <v>0.735192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.634332</v>
+        <v>0.641244</v>
       </c>
       <c r="D52" t="n">
-        <v>0.747271</v>
+        <v>0.780865</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9174639999999999</v>
+        <v>0.917991</v>
       </c>
       <c r="C53" t="n">
-        <v>0.810798</v>
+        <v>0.805217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.733953</v>
+        <v>0.755329</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.928693</v>
+        <v>0.901809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.796762</v>
+        <v>0.779211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.714924</v>
+        <v>0.738901</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8977810000000001</v>
+        <v>0.884965</v>
       </c>
       <c r="C55" t="n">
-        <v>0.785428</v>
+        <v>0.787964</v>
       </c>
       <c r="D55" t="n">
-        <v>0.71839</v>
+        <v>0.7346009999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.894557</v>
+        <v>0.878607</v>
       </c>
       <c r="C56" t="n">
-        <v>0.774882</v>
+        <v>0.779424</v>
       </c>
       <c r="D56" t="n">
-        <v>0.704201</v>
+        <v>0.718265</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.882649</v>
+        <v>0.863818</v>
       </c>
       <c r="C57" t="n">
-        <v>0.760011</v>
+        <v>0.762196</v>
       </c>
       <c r="D57" t="n">
-        <v>0.692527</v>
+        <v>0.717499</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.848336</v>
+        <v>0.88834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.751158</v>
+        <v>0.75965</v>
       </c>
       <c r="D58" t="n">
-        <v>0.708985</v>
+        <v>0.7200029999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.870337</v>
+        <v>0.864406</v>
       </c>
       <c r="C59" t="n">
-        <v>0.730561</v>
+        <v>0.727962</v>
       </c>
       <c r="D59" t="n">
-        <v>0.680381</v>
+        <v>0.6935170000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.886992</v>
+        <v>0.856106</v>
       </c>
       <c r="C60" t="n">
-        <v>0.726542</v>
+        <v>0.7400060000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.682488</v>
+        <v>0.697277</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8398870000000001</v>
+        <v>0.8278799999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7176360000000001</v>
+        <v>0.711053</v>
       </c>
       <c r="D61" t="n">
-        <v>0.666747</v>
+        <v>0.691295</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.843411</v>
+        <v>0.841487</v>
       </c>
       <c r="C62" t="n">
-        <v>0.705039</v>
+        <v>0.731344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.661384</v>
+        <v>0.678517</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.81385</v>
+        <v>0.810906</v>
       </c>
       <c r="C63" t="n">
-        <v>0.696604</v>
+        <v>0.718662</v>
       </c>
       <c r="D63" t="n">
-        <v>0.66326</v>
+        <v>0.678579</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.795479</v>
+        <v>0.806045</v>
       </c>
       <c r="C64" t="n">
-        <v>0.682864</v>
+        <v>0.718539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.654401</v>
+        <v>0.677906</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.83314</v>
+        <v>0.8097569999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.697442</v>
+        <v>0.7432839999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.651029</v>
+        <v>0.680831</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.815334</v>
+        <v>0.822987</v>
       </c>
       <c r="C66" t="n">
-        <v>0.696596</v>
+        <v>0.716213</v>
       </c>
       <c r="D66" t="n">
-        <v>0.841065</v>
+        <v>0.871134</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.989858</v>
+        <v>1.01501</v>
       </c>
       <c r="C67" t="n">
-        <v>0.87696</v>
+        <v>0.89513</v>
       </c>
       <c r="D67" t="n">
-        <v>0.835001</v>
+        <v>0.850098</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.999864</v>
+        <v>1.00257</v>
       </c>
       <c r="C68" t="n">
-        <v>0.879037</v>
+        <v>0.891298</v>
       </c>
       <c r="D68" t="n">
-        <v>0.852613</v>
+        <v>0.835697</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.988249</v>
+        <v>0.9773810000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8415820000000001</v>
+        <v>0.855241</v>
       </c>
       <c r="D69" t="n">
-        <v>0.806925</v>
+        <v>0.855886</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.983283</v>
+        <v>0.97307</v>
       </c>
       <c r="C70" t="n">
-        <v>0.844731</v>
+        <v>0.866941</v>
       </c>
       <c r="D70" t="n">
-        <v>0.813665</v>
+        <v>0.838893</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.98358</v>
+        <v>0.962062</v>
       </c>
       <c r="C71" t="n">
-        <v>0.838277</v>
+        <v>0.860071</v>
       </c>
       <c r="D71" t="n">
-        <v>0.821512</v>
+        <v>0.833306</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.959385</v>
+        <v>0.940284</v>
       </c>
       <c r="C72" t="n">
-        <v>0.84644</v>
+        <v>0.841536</v>
       </c>
       <c r="D72" t="n">
-        <v>0.805855</v>
+        <v>0.828638</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.959003</v>
+        <v>0.943851</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823482</v>
+        <v>0.844172</v>
       </c>
       <c r="D73" t="n">
-        <v>0.786202</v>
+        <v>0.815615</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.977972</v>
+        <v>0.942544</v>
       </c>
       <c r="C74" t="n">
-        <v>0.808039</v>
+        <v>0.826139</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7819120000000001</v>
+        <v>0.8176290000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.940862</v>
+        <v>0.963769</v>
       </c>
       <c r="C75" t="n">
-        <v>0.837433</v>
+        <v>0.8264550000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.796003</v>
+        <v>0.8121969999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9441889999999999</v>
+        <v>0.924369</v>
       </c>
       <c r="C76" t="n">
-        <v>0.798484</v>
+        <v>0.837942</v>
       </c>
       <c r="D76" t="n">
-        <v>0.784004</v>
+        <v>0.800484</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.941692</v>
+        <v>0.943621</v>
       </c>
       <c r="C77" t="n">
-        <v>0.802961</v>
+        <v>0.874312</v>
       </c>
       <c r="D77" t="n">
-        <v>0.774725</v>
+        <v>0.794893</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.927414</v>
+        <v>0.929936</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7936299999999999</v>
+        <v>0.812908</v>
       </c>
       <c r="D78" t="n">
-        <v>0.773822</v>
+        <v>0.79653</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.923969</v>
+        <v>0.913842</v>
       </c>
       <c r="C79" t="n">
-        <v>0.793215</v>
+        <v>0.799777</v>
       </c>
       <c r="D79" t="n">
-        <v>0.775806</v>
+        <v>0.799623</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.915102</v>
+        <v>0.920865</v>
       </c>
       <c r="C80" t="n">
-        <v>0.783873</v>
+        <v>0.801312</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999125</v>
+        <v>1.01694</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13136</v>
+        <v>1.1224</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01302</v>
+        <v>1.03164</v>
       </c>
       <c r="D81" t="n">
-        <v>0.96154</v>
+        <v>0.981658</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.14163</v>
+        <v>1.14894</v>
       </c>
       <c r="C82" t="n">
-        <v>0.998752</v>
+        <v>1.03308</v>
       </c>
       <c r="D82" t="n">
-        <v>0.967288</v>
+        <v>0.985521</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12526</v>
+        <v>1.11338</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00928</v>
+        <v>1.02698</v>
       </c>
       <c r="D83" t="n">
-        <v>0.97016</v>
+        <v>0.989023</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.13008</v>
+        <v>1.10017</v>
       </c>
       <c r="C84" t="n">
-        <v>0.975111</v>
+        <v>1.01278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.948809</v>
+        <v>0.949403</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.1128</v>
+        <v>1.10123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.97327</v>
+        <v>1.00036</v>
       </c>
       <c r="D85" t="n">
-        <v>0.933961</v>
+        <v>0.972081</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.14088</v>
+        <v>1.12945</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9656400000000001</v>
+        <v>0.985154</v>
       </c>
       <c r="D86" t="n">
-        <v>0.950108</v>
+        <v>0.957308</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.11345</v>
+        <v>1.12768</v>
       </c>
       <c r="C87" t="n">
-        <v>0.964247</v>
+        <v>0.985402</v>
       </c>
       <c r="D87" t="n">
-        <v>0.944861</v>
+        <v>0.9385599999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09949</v>
+        <v>1.08244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.954284</v>
+        <v>0.988585</v>
       </c>
       <c r="D88" t="n">
-        <v>0.939334</v>
+        <v>0.973857</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.09058</v>
+        <v>1.05296</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9344749999999999</v>
+        <v>0.960901</v>
       </c>
       <c r="D89" t="n">
-        <v>0.926875</v>
+        <v>0.959081</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05875</v>
+        <v>1.06264</v>
       </c>
       <c r="C90" t="n">
-        <v>0.944008</v>
+        <v>1.01454</v>
       </c>
       <c r="D90" t="n">
-        <v>0.924446</v>
+        <v>0.946712</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.08748</v>
+        <v>1.1038</v>
       </c>
       <c r="C91" t="n">
-        <v>0.947372</v>
+        <v>0.961672</v>
       </c>
       <c r="D91" t="n">
-        <v>0.911581</v>
+        <v>0.93402</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06097</v>
+        <v>1.04833</v>
       </c>
       <c r="C92" t="n">
-        <v>0.947861</v>
+        <v>0.982772</v>
       </c>
       <c r="D92" t="n">
-        <v>0.91254</v>
+        <v>0.935329</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.04081</v>
+        <v>1.04477</v>
       </c>
       <c r="C93" t="n">
-        <v>0.934061</v>
+        <v>0.943923</v>
       </c>
       <c r="D93" t="n">
-        <v>0.899263</v>
+        <v>0.929498</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.03439</v>
+        <v>1.06063</v>
       </c>
       <c r="C94" t="n">
-        <v>0.922445</v>
+        <v>0.9568719999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13881</v>
+        <v>1.16321</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24685</v>
+        <v>1.24427</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14352</v>
+        <v>1.14163</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13794</v>
+        <v>1.12461</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.25294</v>
+        <v>1.29001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13094</v>
+        <v>1.16904</v>
       </c>
       <c r="D96" t="n">
-        <v>1.1193</v>
+        <v>1.12389</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25706</v>
+        <v>1.25555</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12723</v>
+        <v>1.15941</v>
       </c>
       <c r="D97" t="n">
-        <v>1.11684</v>
+        <v>1.13219</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.25947</v>
+        <v>1.29167</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11381</v>
+        <v>1.13774</v>
       </c>
       <c r="D98" t="n">
-        <v>1.12505</v>
+        <v>1.13079</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.25535</v>
+        <v>1.24316</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1471</v>
+        <v>1.14645</v>
       </c>
       <c r="D99" t="n">
-        <v>1.07947</v>
+        <v>1.10714</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.26792</v>
+        <v>1.27389</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1035</v>
+        <v>1.14577</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13871</v>
+        <v>1.10991</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24153</v>
+        <v>1.24002</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10647</v>
+        <v>1.14756</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08556</v>
+        <v>1.08905</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.26839</v>
+        <v>1.24033</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12246</v>
+        <v>1.1455</v>
       </c>
       <c r="D102" t="n">
-        <v>1.07507</v>
+        <v>1.11061</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24559</v>
+        <v>1.23395</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11561</v>
+        <v>1.11547</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08319</v>
+        <v>1.07728</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.25405</v>
+        <v>1.23277</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10855</v>
+        <v>1.1303</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07745</v>
+        <v>1.09201</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.25549</v>
+        <v>1.21797</v>
       </c>
       <c r="C105" t="n">
-        <v>1.08705</v>
+        <v>1.13324</v>
       </c>
       <c r="D105" t="n">
-        <v>1.06868</v>
+        <v>1.11665</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.22317</v>
+        <v>1.21787</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10481</v>
+        <v>1.11888</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06598</v>
+        <v>1.07486</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24156</v>
+        <v>1.2575</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10922</v>
+        <v>1.16118</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0615</v>
+        <v>1.08883</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.1887</v>
+        <v>1.21455</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13232</v>
+        <v>1.13455</v>
       </c>
       <c r="D108" t="n">
-        <v>1.302</v>
+        <v>1.28589</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.2491</v>
+        <v>1.22088</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12131</v>
+        <v>1.11987</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27166</v>
+        <v>1.30327</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.447</v>
+        <v>1.44957</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32308</v>
+        <v>1.35122</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27402</v>
+        <v>1.26778</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.44057</v>
+        <v>1.42241</v>
       </c>
       <c r="C111" t="n">
-        <v>1.32225</v>
+        <v>1.34955</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29298</v>
+        <v>1.29054</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.41966</v>
+        <v>1.46982</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31839</v>
+        <v>1.33443</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27734</v>
+        <v>1.27571</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.47459</v>
+        <v>1.45503</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34901</v>
+        <v>1.32273</v>
       </c>
       <c r="D113" t="n">
-        <v>1.2538</v>
+        <v>1.28716</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45894</v>
+        <v>1.43463</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30052</v>
+        <v>1.32283</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26994</v>
+        <v>1.26561</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.44836</v>
+        <v>1.4359</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31</v>
+        <v>1.34176</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25381</v>
+        <v>1.26746</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.46711</v>
+        <v>1.46201</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3324</v>
+        <v>1.34842</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25833</v>
+        <v>1.24864</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.43254</v>
+        <v>1.43828</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30464</v>
+        <v>1.32551</v>
       </c>
       <c r="D117" t="n">
-        <v>1.28395</v>
+        <v>1.24747</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.44295</v>
+        <v>1.46151</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32346</v>
+        <v>1.33725</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27002</v>
+        <v>1.27199</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44531</v>
+        <v>1.45642</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29041</v>
+        <v>1.32537</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25509</v>
+        <v>1.2614</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.46784</v>
+        <v>1.47007</v>
       </c>
       <c r="C120" t="n">
-        <v>1.29024</v>
+        <v>1.33846</v>
       </c>
       <c r="D120" t="n">
-        <v>1.24874</v>
+        <v>1.26299</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.46098</v>
+        <v>1.47836</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30006</v>
+        <v>1.33437</v>
       </c>
       <c r="D121" t="n">
-        <v>1.21201</v>
+        <v>1.26008</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.46546</v>
+        <v>1.47987</v>
       </c>
       <c r="C122" t="n">
-        <v>1.30035</v>
+        <v>1.33126</v>
       </c>
       <c r="D122" t="n">
-        <v>1.26892</v>
+        <v>1.26111</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.46391</v>
+        <v>1.4741</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32867</v>
+        <v>1.33753</v>
       </c>
       <c r="D123" t="n">
-        <v>1.48083</v>
+        <v>1.4843</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68428</v>
+        <v>1.65136</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51304</v>
+        <v>1.54003</v>
       </c>
       <c r="D124" t="n">
-        <v>1.46307</v>
+        <v>1.46692</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.68294</v>
+        <v>1.66427</v>
       </c>
       <c r="C125" t="n">
-        <v>1.51508</v>
+        <v>1.56756</v>
       </c>
       <c r="D125" t="n">
-        <v>1.45177</v>
+        <v>1.47145</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.70543</v>
+        <v>1.68542</v>
       </c>
       <c r="C126" t="n">
-        <v>1.51571</v>
+        <v>1.56933</v>
       </c>
       <c r="D126" t="n">
-        <v>1.47065</v>
+        <v>1.49273</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.69168</v>
+        <v>1.7203</v>
       </c>
       <c r="C127" t="n">
-        <v>1.50428</v>
+        <v>1.56371</v>
       </c>
       <c r="D127" t="n">
-        <v>1.45998</v>
+        <v>1.4713</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72899</v>
+        <v>1.6909</v>
       </c>
       <c r="C128" t="n">
-        <v>1.50722</v>
+        <v>1.56513</v>
       </c>
       <c r="D128" t="n">
-        <v>1.45742</v>
+        <v>1.50316</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.72615</v>
+        <v>1.69552</v>
       </c>
       <c r="C129" t="n">
-        <v>1.49054</v>
+        <v>1.54409</v>
       </c>
       <c r="D129" t="n">
-        <v>1.48173</v>
+        <v>1.51909</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.70776</v>
+        <v>1.68938</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50334</v>
+        <v>1.57956</v>
       </c>
       <c r="D130" t="n">
-        <v>1.43381</v>
+        <v>1.50265</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.71242</v>
+        <v>1.72185</v>
       </c>
       <c r="C131" t="n">
-        <v>1.48804</v>
+        <v>1.58885</v>
       </c>
       <c r="D131" t="n">
-        <v>1.38605</v>
+        <v>1.51118</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.64346</v>
+        <v>1.72747</v>
       </c>
       <c r="C132" t="n">
-        <v>1.4515</v>
+        <v>1.57652</v>
       </c>
       <c r="D132" t="n">
-        <v>1.36402</v>
+        <v>1.51508</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.6307</v>
+        <v>1.7478</v>
       </c>
       <c r="C133" t="n">
-        <v>1.42929</v>
+        <v>1.60308</v>
       </c>
       <c r="D133" t="n">
-        <v>1.40958</v>
+        <v>1.51861</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.63711</v>
+        <v>1.73628</v>
       </c>
       <c r="C134" t="n">
-        <v>1.43366</v>
+        <v>1.58861</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36236</v>
+        <v>1.51556</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.62318</v>
+        <v>1.75553</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41335</v>
+        <v>1.6064</v>
       </c>
       <c r="D135" t="n">
-        <v>1.37979</v>
+        <v>1.50621</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.74865</v>
+        <v>1.73844</v>
       </c>
       <c r="C136" t="n">
-        <v>1.51033</v>
+        <v>1.6156</v>
       </c>
       <c r="D136" t="n">
-        <v>1.44982</v>
+        <v>1.53157</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.76145</v>
+        <v>1.78352</v>
       </c>
       <c r="C137" t="n">
-        <v>1.50136</v>
+        <v>1.61984</v>
       </c>
       <c r="D137" t="n">
-        <v>1.69275</v>
+        <v>1.7737</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.97375</v>
+        <v>2.00585</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71613</v>
+        <v>1.834</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66834</v>
+        <v>1.75883</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.00091</v>
+        <v>1.9812</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71832</v>
+        <v>1.84845</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64795</v>
+        <v>1.7676</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.98245</v>
+        <v>1.99599</v>
       </c>
       <c r="C140" t="n">
-        <v>1.70384</v>
+        <v>1.84859</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65881</v>
+        <v>1.7738</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.0403</v>
+        <v>2.02082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7102</v>
+        <v>1.84653</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66389</v>
+        <v>1.79946</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.0098</v>
+        <v>1.99385</v>
       </c>
       <c r="C142" t="n">
-        <v>1.69274</v>
+        <v>1.87289</v>
       </c>
       <c r="D142" t="n">
-        <v>1.64555</v>
+        <v>1.79181</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.0125</v>
+        <v>2.03314</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68669</v>
+        <v>1.85826</v>
       </c>
       <c r="D143" t="n">
-        <v>1.65724</v>
+        <v>1.80581</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.661934</v>
+        <v>0.665404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5589499999999999</v>
+        <v>0.560025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.539705</v>
+        <v>0.5631389999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641077</v>
+        <v>0.653365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.553804</v>
+        <v>0.562767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.545018</v>
+        <v>0.554888</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.641109</v>
+        <v>0.632853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.563841</v>
+        <v>0.550017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.535177</v>
+        <v>0.536891</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.651493</v>
+        <v>0.631914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.56098</v>
+        <v>0.545019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5404060000000001</v>
+        <v>0.533017</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.627776</v>
+        <v>0.6403450000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539205</v>
+        <v>0.539972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.523734</v>
+        <v>0.531883</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.633123</v>
+        <v>0.628564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5333290000000001</v>
+        <v>0.548474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.543562</v>
+        <v>0.546777</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.628007</v>
+        <v>0.6116279999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.539849</v>
+        <v>0.525496</v>
       </c>
       <c r="D8" t="n">
-        <v>0.549916</v>
+        <v>0.518945</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.642519</v>
+        <v>0.635029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.54983</v>
+        <v>0.542777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6119250000000001</v>
+        <v>0.617748</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.702008</v>
+        <v>0.694943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.609216</v>
+        <v>0.612503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.616717</v>
+        <v>0.606592</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.709966</v>
+        <v>0.72093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.621763</v>
+        <v>0.611932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.605156</v>
+        <v>0.595004</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.70184</v>
+        <v>0.6953279999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.609089</v>
+        <v>0.596732</v>
       </c>
       <c r="D12" t="n">
-        <v>0.592224</v>
+        <v>0.593334</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.710959</v>
+        <v>0.689447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.620965</v>
+        <v>0.592462</v>
       </c>
       <c r="D13" t="n">
-        <v>0.59279</v>
+        <v>0.582292</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.674588</v>
+        <v>0.6842009999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5811269999999999</v>
+        <v>0.596377</v>
       </c>
       <c r="D14" t="n">
-        <v>0.568091</v>
+        <v>0.581448</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6687419999999999</v>
+        <v>0.683775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.590089</v>
+        <v>0.591565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5758799999999999</v>
+        <v>0.57194</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.661537</v>
+        <v>0.673423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.578444</v>
+        <v>0.583281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.564463</v>
+        <v>0.555546</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.663131</v>
+        <v>0.655424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.565876</v>
+        <v>0.581105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.553813</v>
+        <v>0.550998</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.671123</v>
+        <v>0.706195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.561007</v>
+        <v>0.569931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.568538</v>
+        <v>0.55072</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.661756</v>
+        <v>0.64588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5563940000000001</v>
+        <v>0.558578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.545534</v>
+        <v>0.559824</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6465880000000001</v>
+        <v>0.6806720000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.557758</v>
+        <v>0.55424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.551314</v>
+        <v>0.54614</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.656295</v>
+        <v>0.64724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5662469999999999</v>
+        <v>0.5468190000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.551051</v>
+        <v>0.54883</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.653046</v>
+        <v>0.6473950000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.572253</v>
+        <v>0.554264</v>
       </c>
       <c r="D22" t="n">
-        <v>0.535484</v>
+        <v>0.546531</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.631802</v>
+        <v>0.687608</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5538920000000001</v>
+        <v>0.549336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.638441</v>
+        <v>0.641943</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.72627</v>
+        <v>0.768481</v>
       </c>
       <c r="C24" t="n">
-        <v>0.62929</v>
+        <v>0.640694</v>
       </c>
       <c r="D24" t="n">
-        <v>0.621902</v>
+        <v>0.632158</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7283539999999999</v>
+        <v>0.734335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.642632</v>
+        <v>0.620274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.642192</v>
+        <v>0.625482</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.755896</v>
+        <v>0.708304</v>
       </c>
       <c r="C26" t="n">
-        <v>0.63286</v>
+        <v>0.635121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.61127</v>
+        <v>0.651496</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.721043</v>
+        <v>0.732206</v>
       </c>
       <c r="C27" t="n">
-        <v>0.607706</v>
+        <v>0.618376</v>
       </c>
       <c r="D27" t="n">
-        <v>0.613364</v>
+        <v>0.59401</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.701615</v>
+        <v>0.719708</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6393</v>
+        <v>0.608445</v>
       </c>
       <c r="D28" t="n">
-        <v>0.600718</v>
+        <v>0.586531</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.684474</v>
+        <v>0.738753</v>
       </c>
       <c r="C29" t="n">
-        <v>0.611359</v>
+        <v>0.601506</v>
       </c>
       <c r="D29" t="n">
-        <v>0.594218</v>
+        <v>0.60058</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.691571</v>
+        <v>0.682664</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5980569999999999</v>
+        <v>0.593749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.58861</v>
+        <v>0.575367</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.69778</v>
+        <v>0.710886</v>
       </c>
       <c r="C31" t="n">
-        <v>0.598373</v>
+        <v>0.595947</v>
       </c>
       <c r="D31" t="n">
-        <v>0.581043</v>
+        <v>0.575963</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.69118</v>
+        <v>0.667376</v>
       </c>
       <c r="C32" t="n">
-        <v>0.602635</v>
+        <v>0.597815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.575466</v>
+        <v>0.5794</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.669172</v>
+        <v>0.666338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.575359</v>
+        <v>0.581844</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5802389999999999</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.673551</v>
+        <v>0.679796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.583551</v>
+        <v>0.581854</v>
       </c>
       <c r="D34" t="n">
-        <v>0.57023</v>
+        <v>0.580778</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.675444</v>
+        <v>0.69096</v>
       </c>
       <c r="C35" t="n">
-        <v>0.583892</v>
+        <v>0.571576</v>
       </c>
       <c r="D35" t="n">
-        <v>0.566648</v>
+        <v>0.552522</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.650526</v>
+        <v>0.662544</v>
       </c>
       <c r="C36" t="n">
-        <v>0.579357</v>
+        <v>0.580224</v>
       </c>
       <c r="D36" t="n">
-        <v>0.568742</v>
+        <v>0.550913</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6902239999999999</v>
+        <v>0.7024010000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5701040000000001</v>
+        <v>0.576991</v>
       </c>
       <c r="D37" t="n">
-        <v>0.769076</v>
+        <v>0.656201</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8816349999999999</v>
+        <v>0.860082</v>
       </c>
       <c r="C38" t="n">
-        <v>0.752667</v>
+        <v>0.731521</v>
       </c>
       <c r="D38" t="n">
-        <v>0.75452</v>
+        <v>0.661068</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.839495</v>
+        <v>0.855671</v>
       </c>
       <c r="C39" t="n">
-        <v>0.721899</v>
+        <v>0.735496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.736156</v>
+        <v>0.672624</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.843322</v>
+        <v>0.832629</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7169219999999999</v>
+        <v>0.728791</v>
       </c>
       <c r="D40" t="n">
-        <v>0.732294</v>
+        <v>0.6251409999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.812291</v>
+        <v>0.812956</v>
       </c>
       <c r="C41" t="n">
-        <v>0.701516</v>
+        <v>0.6972660000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.715831</v>
+        <v>0.614965</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.808601</v>
+        <v>0.802834</v>
       </c>
       <c r="C42" t="n">
-        <v>0.711117</v>
+        <v>0.703077</v>
       </c>
       <c r="D42" t="n">
-        <v>0.711054</v>
+        <v>0.643026</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.79886</v>
+        <v>0.80845</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6835830000000001</v>
+        <v>0.67708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.703487</v>
+        <v>0.614684</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.795354</v>
+        <v>0.805327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6924709999999999</v>
+        <v>0.6797879999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.683488</v>
+        <v>0.627942</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.768989</v>
+        <v>0.793637</v>
       </c>
       <c r="C45" t="n">
-        <v>0.665557</v>
+        <v>0.663781</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6893280000000001</v>
+        <v>0.617104</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.781108</v>
+        <v>0.761637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6628039999999999</v>
+        <v>0.671881</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674288</v>
+        <v>0.604459</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.778502</v>
+        <v>0.753975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6657920000000001</v>
+        <v>0.668037</v>
       </c>
       <c r="D47" t="n">
-        <v>0.664243</v>
+        <v>0.612021</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.770669</v>
+        <v>0.741835</v>
       </c>
       <c r="C48" t="n">
-        <v>0.651238</v>
+        <v>0.6553639999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.655752</v>
+        <v>0.597701</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.754165</v>
+        <v>0.736201</v>
       </c>
       <c r="C49" t="n">
-        <v>0.652579</v>
+        <v>0.652911</v>
       </c>
       <c r="D49" t="n">
-        <v>0.659699</v>
+        <v>0.601615</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.761947</v>
+        <v>0.73704</v>
       </c>
       <c r="C50" t="n">
-        <v>0.644829</v>
+        <v>0.639259</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6563909999999999</v>
+        <v>0.596052</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.752486</v>
+        <v>0.736809</v>
       </c>
       <c r="C51" t="n">
-        <v>0.639811</v>
+        <v>0.636421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.848913</v>
+        <v>0.751199</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.735192</v>
+        <v>0.743496</v>
       </c>
       <c r="C52" t="n">
-        <v>0.641244</v>
+        <v>0.638774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.780865</v>
+        <v>0.740657</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.917991</v>
+        <v>0.900871</v>
       </c>
       <c r="C53" t="n">
-        <v>0.805217</v>
+        <v>0.804526</v>
       </c>
       <c r="D53" t="n">
-        <v>0.755329</v>
+        <v>0.748478</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.901809</v>
+        <v>0.907981</v>
       </c>
       <c r="C54" t="n">
-        <v>0.779211</v>
+        <v>0.779693</v>
       </c>
       <c r="D54" t="n">
-        <v>0.738901</v>
+        <v>0.7371760000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.884965</v>
+        <v>0.888205</v>
       </c>
       <c r="C55" t="n">
-        <v>0.787964</v>
+        <v>0.775093</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7346009999999999</v>
+        <v>0.747448</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.878607</v>
+        <v>0.871258</v>
       </c>
       <c r="C56" t="n">
-        <v>0.779424</v>
+        <v>0.8004250000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.718265</v>
+        <v>0.73767</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.863818</v>
+        <v>0.860421</v>
       </c>
       <c r="C57" t="n">
-        <v>0.762196</v>
+        <v>0.7649</v>
       </c>
       <c r="D57" t="n">
-        <v>0.717499</v>
+        <v>0.694418</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.88834</v>
+        <v>0.853711</v>
       </c>
       <c r="C58" t="n">
-        <v>0.75965</v>
+        <v>0.747205</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7200029999999999</v>
+        <v>0.686083</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.864406</v>
+        <v>0.841437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.727962</v>
+        <v>0.743815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6935170000000001</v>
+        <v>0.698614</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.856106</v>
+        <v>0.853892</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7400060000000001</v>
+        <v>0.74133</v>
       </c>
       <c r="D60" t="n">
-        <v>0.697277</v>
+        <v>0.685425</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8278799999999999</v>
+        <v>0.829109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.711053</v>
+        <v>0.758466</v>
       </c>
       <c r="D61" t="n">
-        <v>0.691295</v>
+        <v>0.688598</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.841487</v>
+        <v>0.814353</v>
       </c>
       <c r="C62" t="n">
-        <v>0.731344</v>
+        <v>0.732939</v>
       </c>
       <c r="D62" t="n">
-        <v>0.678517</v>
+        <v>0.679605</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.810906</v>
+        <v>0.828214</v>
       </c>
       <c r="C63" t="n">
-        <v>0.718662</v>
+        <v>0.7221070000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.678579</v>
+        <v>0.685844</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.806045</v>
+        <v>0.827456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.718539</v>
+        <v>0.718063</v>
       </c>
       <c r="D64" t="n">
-        <v>0.677906</v>
+        <v>0.677265</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8097569999999999</v>
+        <v>0.82193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7432839999999999</v>
+        <v>0.7127559999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.680831</v>
+        <v>0.6635</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.822987</v>
+        <v>0.813706</v>
       </c>
       <c r="C66" t="n">
-        <v>0.716213</v>
+        <v>0.745352</v>
       </c>
       <c r="D66" t="n">
-        <v>0.871134</v>
+        <v>0.847572</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01501</v>
+        <v>1.03081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.89513</v>
+        <v>0.895431</v>
       </c>
       <c r="D67" t="n">
-        <v>0.850098</v>
+        <v>0.863109</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.00257</v>
+        <v>1.0022</v>
       </c>
       <c r="C68" t="n">
-        <v>0.891298</v>
+        <v>0.867706</v>
       </c>
       <c r="D68" t="n">
-        <v>0.835697</v>
+        <v>0.841744</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9773810000000001</v>
+        <v>1.01764</v>
       </c>
       <c r="C69" t="n">
-        <v>0.855241</v>
+        <v>0.880381</v>
       </c>
       <c r="D69" t="n">
-        <v>0.855886</v>
+        <v>0.841058</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.97307</v>
+        <v>0.974504</v>
       </c>
       <c r="C70" t="n">
-        <v>0.866941</v>
+        <v>0.8595</v>
       </c>
       <c r="D70" t="n">
-        <v>0.838893</v>
+        <v>0.839025</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.962062</v>
+        <v>0.980742</v>
       </c>
       <c r="C71" t="n">
-        <v>0.860071</v>
+        <v>0.842557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.833306</v>
+        <v>0.822229</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.940284</v>
+        <v>0.98295</v>
       </c>
       <c r="C72" t="n">
-        <v>0.841536</v>
+        <v>0.8637010000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.828638</v>
+        <v>0.8149729999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.943851</v>
+        <v>0.969796</v>
       </c>
       <c r="C73" t="n">
-        <v>0.844172</v>
+        <v>0.848251</v>
       </c>
       <c r="D73" t="n">
-        <v>0.815615</v>
+        <v>0.814564</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.942544</v>
+        <v>0.967461</v>
       </c>
       <c r="C74" t="n">
-        <v>0.826139</v>
+        <v>0.837534</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8176290000000001</v>
+        <v>0.804478</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.963769</v>
+        <v>0.963723</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8264550000000001</v>
+        <v>0.832245</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8121969999999999</v>
+        <v>0.8012</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.924369</v>
+        <v>0.965297</v>
       </c>
       <c r="C76" t="n">
-        <v>0.837942</v>
+        <v>0.831623</v>
       </c>
       <c r="D76" t="n">
-        <v>0.800484</v>
+        <v>0.802382</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.943621</v>
+        <v>0.950335</v>
       </c>
       <c r="C77" t="n">
-        <v>0.874312</v>
+        <v>0.827763</v>
       </c>
       <c r="D77" t="n">
-        <v>0.794893</v>
+        <v>0.812461</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.929936</v>
+        <v>0.93712</v>
       </c>
       <c r="C78" t="n">
-        <v>0.812908</v>
+        <v>0.811735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.79653</v>
+        <v>0.7972320000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.913842</v>
+        <v>0.926861</v>
       </c>
       <c r="C79" t="n">
-        <v>0.799777</v>
+        <v>0.826053</v>
       </c>
       <c r="D79" t="n">
-        <v>0.799623</v>
+        <v>0.807951</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.920865</v>
+        <v>0.913463</v>
       </c>
       <c r="C80" t="n">
-        <v>0.801312</v>
+        <v>0.818509</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01694</v>
+        <v>1.02303</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1224</v>
+        <v>1.13629</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03164</v>
+        <v>0.991354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.981658</v>
+        <v>0.9859</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.14894</v>
+        <v>1.11731</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03308</v>
+        <v>1.03409</v>
       </c>
       <c r="D82" t="n">
-        <v>0.985521</v>
+        <v>0.975046</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11338</v>
+        <v>1.11841</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02698</v>
+        <v>1.02106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.989023</v>
+        <v>0.988943</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.10017</v>
+        <v>1.12669</v>
       </c>
       <c r="C84" t="n">
-        <v>1.01278</v>
+        <v>1.00311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.949403</v>
+        <v>0.96718</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10123</v>
+        <v>1.09961</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00036</v>
+        <v>1.00394</v>
       </c>
       <c r="D85" t="n">
-        <v>0.972081</v>
+        <v>0.975468</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.12945</v>
+        <v>1.11755</v>
       </c>
       <c r="C86" t="n">
-        <v>0.985154</v>
+        <v>0.998</v>
       </c>
       <c r="D86" t="n">
-        <v>0.957308</v>
+        <v>0.948757</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.12768</v>
+        <v>1.09322</v>
       </c>
       <c r="C87" t="n">
-        <v>0.985402</v>
+        <v>0.9832070000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9385599999999999</v>
+        <v>0.9589220000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.08244</v>
+        <v>1.05318</v>
       </c>
       <c r="C88" t="n">
-        <v>0.988585</v>
+        <v>0.968989</v>
       </c>
       <c r="D88" t="n">
-        <v>0.973857</v>
+        <v>0.946296</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05296</v>
+        <v>1.05949</v>
       </c>
       <c r="C89" t="n">
-        <v>0.960901</v>
+        <v>0.958471</v>
       </c>
       <c r="D89" t="n">
-        <v>0.959081</v>
+        <v>0.935142</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06264</v>
+        <v>1.05521</v>
       </c>
       <c r="C90" t="n">
-        <v>1.01454</v>
+        <v>0.945326</v>
       </c>
       <c r="D90" t="n">
-        <v>0.946712</v>
+        <v>0.967345</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1038</v>
+        <v>1.04974</v>
       </c>
       <c r="C91" t="n">
-        <v>0.961672</v>
+        <v>0.941881</v>
       </c>
       <c r="D91" t="n">
-        <v>0.93402</v>
+        <v>0.928601</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04833</v>
+        <v>1.04893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.982772</v>
+        <v>0.940377</v>
       </c>
       <c r="D92" t="n">
-        <v>0.935329</v>
+        <v>0.931515</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.04477</v>
+        <v>1.09025</v>
       </c>
       <c r="C93" t="n">
-        <v>0.943923</v>
+        <v>0.970104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.929498</v>
+        <v>0.94251</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.06063</v>
+        <v>1.1038</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9568719999999999</v>
+        <v>0.935329</v>
       </c>
       <c r="D94" t="n">
-        <v>1.16321</v>
+        <v>1.16426</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.24427</v>
+        <v>1.27608</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14163</v>
+        <v>1.14791</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12461</v>
+        <v>1.13574</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.29001</v>
+        <v>1.27353</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16904</v>
+        <v>1.17823</v>
       </c>
       <c r="D96" t="n">
-        <v>1.12389</v>
+        <v>1.13665</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25555</v>
+        <v>1.27461</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15941</v>
+        <v>1.17294</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13219</v>
+        <v>1.13159</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.29167</v>
+        <v>1.25305</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13774</v>
+        <v>1.16632</v>
       </c>
       <c r="D98" t="n">
-        <v>1.13079</v>
+        <v>1.14023</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.24316</v>
+        <v>1.25898</v>
       </c>
       <c r="C99" t="n">
-        <v>1.14645</v>
+        <v>1.17165</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10714</v>
+        <v>1.10858</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.27389</v>
+        <v>1.21989</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14577</v>
+        <v>1.13455</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10991</v>
+        <v>1.13431</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.24002</v>
+        <v>1.2403</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14756</v>
+        <v>1.14908</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08905</v>
+        <v>1.08852</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24033</v>
+        <v>1.24113</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1455</v>
+        <v>1.14389</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11061</v>
+        <v>1.09302</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23395</v>
+        <v>1.22019</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11547</v>
+        <v>1.11936</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07728</v>
+        <v>1.07784</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.23277</v>
+        <v>1.2267</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1303</v>
+        <v>1.1158</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09201</v>
+        <v>1.0668</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.21797</v>
+        <v>1.21291</v>
       </c>
       <c r="C105" t="n">
-        <v>1.13324</v>
+        <v>1.12787</v>
       </c>
       <c r="D105" t="n">
-        <v>1.11665</v>
+        <v>1.08668</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.21787</v>
+        <v>1.20759</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11888</v>
+        <v>1.16666</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07486</v>
+        <v>1.06673</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.2575</v>
+        <v>1.21285</v>
       </c>
       <c r="C107" t="n">
-        <v>1.16118</v>
+        <v>1.10569</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08883</v>
+        <v>1.09128</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.21455</v>
+        <v>1.2358</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13455</v>
+        <v>1.12181</v>
       </c>
       <c r="D108" t="n">
-        <v>1.28589</v>
+        <v>1.3024</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.22088</v>
+        <v>1.19305</v>
       </c>
       <c r="C109" t="n">
-        <v>1.11987</v>
+        <v>1.14947</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30327</v>
+        <v>1.30832</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.44957</v>
+        <v>1.42025</v>
       </c>
       <c r="C110" t="n">
-        <v>1.35122</v>
+        <v>1.33357</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26778</v>
+        <v>1.28641</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42241</v>
+        <v>1.41106</v>
       </c>
       <c r="C111" t="n">
-        <v>1.34955</v>
+        <v>1.36572</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29054</v>
+        <v>1.26014</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.46982</v>
+        <v>1.41492</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33443</v>
+        <v>1.35156</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27571</v>
+        <v>1.29834</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45503</v>
+        <v>1.46584</v>
       </c>
       <c r="C113" t="n">
-        <v>1.32273</v>
+        <v>1.34497</v>
       </c>
       <c r="D113" t="n">
-        <v>1.28716</v>
+        <v>1.2773</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.43463</v>
+        <v>1.45837</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32283</v>
+        <v>1.31127</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26561</v>
+        <v>1.25636</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.4359</v>
+        <v>1.45031</v>
       </c>
       <c r="C115" t="n">
-        <v>1.34176</v>
+        <v>1.32162</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26746</v>
+        <v>1.26681</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.46201</v>
+        <v>1.42119</v>
       </c>
       <c r="C116" t="n">
-        <v>1.34842</v>
+        <v>1.30989</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24864</v>
+        <v>1.27639</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.43828</v>
+        <v>1.45582</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32551</v>
+        <v>1.32813</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24747</v>
+        <v>1.28766</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.46151</v>
+        <v>1.43785</v>
       </c>
       <c r="C118" t="n">
-        <v>1.33725</v>
+        <v>1.36805</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27199</v>
+        <v>1.2663</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.45642</v>
+        <v>1.45494</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32537</v>
+        <v>1.33361</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2614</v>
+        <v>1.23115</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.47007</v>
+        <v>1.44442</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33846</v>
+        <v>1.33436</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26299</v>
+        <v>1.29361</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.47836</v>
+        <v>1.45883</v>
       </c>
       <c r="C121" t="n">
-        <v>1.33437</v>
+        <v>1.32998</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26008</v>
+        <v>1.25081</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.47987</v>
+        <v>1.43976</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33126</v>
+        <v>1.31204</v>
       </c>
       <c r="D122" t="n">
-        <v>1.26111</v>
+        <v>1.2491</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.4741</v>
+        <v>1.43293</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33753</v>
+        <v>1.34749</v>
       </c>
       <c r="D123" t="n">
-        <v>1.4843</v>
+        <v>1.48825</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.65136</v>
+        <v>1.68439</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54003</v>
+        <v>1.56052</v>
       </c>
       <c r="D124" t="n">
-        <v>1.46692</v>
+        <v>1.49531</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.66427</v>
+        <v>1.69786</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56756</v>
+        <v>1.56521</v>
       </c>
       <c r="D125" t="n">
-        <v>1.47145</v>
+        <v>1.49418</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.68542</v>
+        <v>1.70096</v>
       </c>
       <c r="C126" t="n">
-        <v>1.56933</v>
+        <v>1.57335</v>
       </c>
       <c r="D126" t="n">
-        <v>1.49273</v>
+        <v>1.48087</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.7203</v>
+        <v>1.69824</v>
       </c>
       <c r="C127" t="n">
-        <v>1.56371</v>
+        <v>1.55772</v>
       </c>
       <c r="D127" t="n">
-        <v>1.4713</v>
+        <v>1.49141</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.6909</v>
+        <v>1.68656</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56513</v>
+        <v>1.55703</v>
       </c>
       <c r="D128" t="n">
-        <v>1.50316</v>
+        <v>1.50109</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.69552</v>
+        <v>1.71075</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54409</v>
+        <v>1.55326</v>
       </c>
       <c r="D129" t="n">
-        <v>1.51909</v>
+        <v>1.50422</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.68938</v>
+        <v>1.70173</v>
       </c>
       <c r="C130" t="n">
-        <v>1.57956</v>
+        <v>1.56907</v>
       </c>
       <c r="D130" t="n">
-        <v>1.50265</v>
+        <v>1.50585</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72185</v>
+        <v>1.71077</v>
       </c>
       <c r="C131" t="n">
-        <v>1.58885</v>
+        <v>1.59145</v>
       </c>
       <c r="D131" t="n">
-        <v>1.51118</v>
+        <v>1.51786</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72747</v>
+        <v>1.70158</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57652</v>
+        <v>1.58319</v>
       </c>
       <c r="D132" t="n">
-        <v>1.51508</v>
+        <v>1.52417</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.7478</v>
+        <v>1.74737</v>
       </c>
       <c r="C133" t="n">
-        <v>1.60308</v>
+        <v>1.59143</v>
       </c>
       <c r="D133" t="n">
-        <v>1.51861</v>
+        <v>1.51495</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73628</v>
+        <v>1.74464</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58861</v>
+        <v>1.5835</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51556</v>
+        <v>1.51356</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.75553</v>
+        <v>1.72289</v>
       </c>
       <c r="C135" t="n">
-        <v>1.6064</v>
+        <v>1.57776</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50621</v>
+        <v>1.52382</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.73844</v>
+        <v>1.75115</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6156</v>
+        <v>1.58652</v>
       </c>
       <c r="D136" t="n">
-        <v>1.53157</v>
+        <v>1.51038</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78352</v>
+        <v>1.76076</v>
       </c>
       <c r="C137" t="n">
-        <v>1.61984</v>
+        <v>1.6135</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7737</v>
+        <v>1.75507</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.00585</v>
+        <v>1.98845</v>
       </c>
       <c r="C138" t="n">
-        <v>1.834</v>
+        <v>1.82716</v>
       </c>
       <c r="D138" t="n">
-        <v>1.75883</v>
+        <v>1.77971</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.9812</v>
+        <v>1.98437</v>
       </c>
       <c r="C139" t="n">
-        <v>1.84845</v>
+        <v>1.84277</v>
       </c>
       <c r="D139" t="n">
-        <v>1.7676</v>
+        <v>1.75054</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.99599</v>
+        <v>1.9924</v>
       </c>
       <c r="C140" t="n">
-        <v>1.84859</v>
+        <v>1.84721</v>
       </c>
       <c r="D140" t="n">
-        <v>1.7738</v>
+        <v>1.77052</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.02082</v>
+        <v>2.005</v>
       </c>
       <c r="C141" t="n">
-        <v>1.84653</v>
+        <v>1.83609</v>
       </c>
       <c r="D141" t="n">
-        <v>1.79946</v>
+        <v>1.79522</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.99385</v>
+        <v>2.01445</v>
       </c>
       <c r="C142" t="n">
-        <v>1.87289</v>
+        <v>1.83915</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79181</v>
+        <v>1.77568</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.03314</v>
+        <v>2.00609</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85826</v>
+        <v>1.85222</v>
       </c>
       <c r="D143" t="n">
-        <v>1.80581</v>
+        <v>1.78508</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.665404</v>
+        <v>0.513822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.560025</v>
+        <v>0.384692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5631389999999999</v>
+        <v>0.365435</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.653365</v>
+        <v>0.47379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.562767</v>
+        <v>0.381905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.554888</v>
+        <v>0.364142</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.632853</v>
+        <v>0.469443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.550017</v>
+        <v>0.36458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.536891</v>
+        <v>0.356673</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.631914</v>
+        <v>0.452537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.545019</v>
+        <v>0.359264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.533017</v>
+        <v>0.36617</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6403450000000001</v>
+        <v>0.453913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539972</v>
+        <v>0.363075</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531883</v>
+        <v>0.35581</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.628564</v>
+        <v>0.45874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.548474</v>
+        <v>0.376382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.546777</v>
+        <v>0.353899</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6116279999999999</v>
+        <v>0.459961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.525496</v>
+        <v>0.359316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.518945</v>
+        <v>0.352299</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.635029</v>
+        <v>0.438954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.542777</v>
+        <v>0.368711</v>
       </c>
       <c r="D9" t="n">
-        <v>0.617748</v>
+        <v>0.4481</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.694943</v>
+        <v>0.543181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.612503</v>
+        <v>0.44207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.606592</v>
+        <v>0.430804</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.72093</v>
+        <v>0.537565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.611932</v>
+        <v>0.421754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.595004</v>
+        <v>0.427842</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6953279999999999</v>
+        <v>0.523428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.596732</v>
+        <v>0.42663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.593334</v>
+        <v>0.427114</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.689447</v>
+        <v>0.511938</v>
       </c>
       <c r="C13" t="n">
-        <v>0.592462</v>
+        <v>0.410394</v>
       </c>
       <c r="D13" t="n">
-        <v>0.582292</v>
+        <v>0.397154</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6842009999999999</v>
+        <v>0.499528</v>
       </c>
       <c r="C14" t="n">
-        <v>0.596377</v>
+        <v>0.40924</v>
       </c>
       <c r="D14" t="n">
-        <v>0.581448</v>
+        <v>0.404024</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.683775</v>
+        <v>0.512275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.591565</v>
+        <v>0.405125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.57194</v>
+        <v>0.391265</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.673423</v>
+        <v>0.511234</v>
       </c>
       <c r="C16" t="n">
-        <v>0.583281</v>
+        <v>0.393832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.555546</v>
+        <v>0.385672</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.655424</v>
+        <v>0.502363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.581105</v>
+        <v>0.403789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.550998</v>
+        <v>0.402347</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.706195</v>
+        <v>0.476299</v>
       </c>
       <c r="C18" t="n">
-        <v>0.569931</v>
+        <v>0.38403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.55072</v>
+        <v>0.378775</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.64588</v>
+        <v>0.475115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.558578</v>
+        <v>0.38213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.559824</v>
+        <v>0.376318</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6806720000000001</v>
+        <v>0.474333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.55424</v>
+        <v>0.372094</v>
       </c>
       <c r="D20" t="n">
-        <v>0.54614</v>
+        <v>0.372671</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.64724</v>
+        <v>0.462008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5468190000000001</v>
+        <v>0.370634</v>
       </c>
       <c r="D21" t="n">
-        <v>0.54883</v>
+        <v>0.359706</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6473950000000001</v>
+        <v>0.482983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.554264</v>
+        <v>0.372733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.546531</v>
+        <v>0.361974</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.687608</v>
+        <v>0.470066</v>
       </c>
       <c r="C23" t="n">
-        <v>0.549336</v>
+        <v>0.365405</v>
       </c>
       <c r="D23" t="n">
-        <v>0.641943</v>
+        <v>0.461393</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.768481</v>
+        <v>0.54367</v>
       </c>
       <c r="C24" t="n">
-        <v>0.640694</v>
+        <v>0.467416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.632158</v>
+        <v>0.44434</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.734335</v>
+        <v>0.544645</v>
       </c>
       <c r="C25" t="n">
-        <v>0.620274</v>
+        <v>0.443297</v>
       </c>
       <c r="D25" t="n">
-        <v>0.625482</v>
+        <v>0.440099</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.708304</v>
+        <v>0.540304</v>
       </c>
       <c r="C26" t="n">
-        <v>0.635121</v>
+        <v>0.436675</v>
       </c>
       <c r="D26" t="n">
-        <v>0.651496</v>
+        <v>0.436518</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.732206</v>
+        <v>0.531071</v>
       </c>
       <c r="C27" t="n">
-        <v>0.618376</v>
+        <v>0.44725</v>
       </c>
       <c r="D27" t="n">
-        <v>0.59401</v>
+        <v>0.430739</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.719708</v>
+        <v>0.531817</v>
       </c>
       <c r="C28" t="n">
-        <v>0.608445</v>
+        <v>0.425345</v>
       </c>
       <c r="D28" t="n">
-        <v>0.586531</v>
+        <v>0.417902</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.738753</v>
+        <v>0.5180090000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.601506</v>
+        <v>0.434896</v>
       </c>
       <c r="D29" t="n">
-        <v>0.60058</v>
+        <v>0.406299</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.682664</v>
+        <v>0.514953</v>
       </c>
       <c r="C30" t="n">
-        <v>0.593749</v>
+        <v>0.402729</v>
       </c>
       <c r="D30" t="n">
-        <v>0.575367</v>
+        <v>0.403619</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.710886</v>
+        <v>0.499913</v>
       </c>
       <c r="C31" t="n">
-        <v>0.595947</v>
+        <v>0.423692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.575963</v>
+        <v>0.39567</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.667376</v>
+        <v>0.49532</v>
       </c>
       <c r="C32" t="n">
-        <v>0.597815</v>
+        <v>0.400099</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5794</v>
+        <v>0.39902</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.666338</v>
+        <v>0.497723</v>
       </c>
       <c r="C33" t="n">
-        <v>0.581844</v>
+        <v>0.39094</v>
       </c>
       <c r="D33" t="n">
-        <v>0.582</v>
+        <v>0.385913</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.679796</v>
+        <v>0.499294</v>
       </c>
       <c r="C34" t="n">
-        <v>0.581854</v>
+        <v>0.387557</v>
       </c>
       <c r="D34" t="n">
-        <v>0.580778</v>
+        <v>0.40189</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.69096</v>
+        <v>0.5045269999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.571576</v>
+        <v>0.39717</v>
       </c>
       <c r="D35" t="n">
-        <v>0.552522</v>
+        <v>0.385706</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.662544</v>
+        <v>0.480797</v>
       </c>
       <c r="C36" t="n">
-        <v>0.580224</v>
+        <v>0.399849</v>
       </c>
       <c r="D36" t="n">
-        <v>0.550913</v>
+        <v>0.389902</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7024010000000001</v>
+        <v>0.47948</v>
       </c>
       <c r="C37" t="n">
-        <v>0.576991</v>
+        <v>0.395097</v>
       </c>
       <c r="D37" t="n">
-        <v>0.656201</v>
+        <v>0.48039</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.860082</v>
+        <v>0.655655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.731521</v>
+        <v>0.541343</v>
       </c>
       <c r="D38" t="n">
-        <v>0.661068</v>
+        <v>0.46388</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.855671</v>
+        <v>0.638424</v>
       </c>
       <c r="C39" t="n">
-        <v>0.735496</v>
+        <v>0.532487</v>
       </c>
       <c r="D39" t="n">
-        <v>0.672624</v>
+        <v>0.459089</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.832629</v>
+        <v>0.623883</v>
       </c>
       <c r="C40" t="n">
-        <v>0.728791</v>
+        <v>0.51896</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6251409999999999</v>
+        <v>0.446754</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.812956</v>
+        <v>0.621671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6972660000000001</v>
+        <v>0.546976</v>
       </c>
       <c r="D41" t="n">
-        <v>0.614965</v>
+        <v>0.450694</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.802834</v>
+        <v>0.600868</v>
       </c>
       <c r="C42" t="n">
-        <v>0.703077</v>
+        <v>0.495603</v>
       </c>
       <c r="D42" t="n">
-        <v>0.643026</v>
+        <v>0.444517</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.80845</v>
+        <v>0.612653</v>
       </c>
       <c r="C43" t="n">
-        <v>0.67708</v>
+        <v>0.490962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.614684</v>
+        <v>0.431186</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805327</v>
+        <v>0.599208</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6797879999999999</v>
+        <v>0.48378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.627942</v>
+        <v>0.421252</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.793637</v>
+        <v>0.581559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.663781</v>
+        <v>0.482955</v>
       </c>
       <c r="D45" t="n">
-        <v>0.617104</v>
+        <v>0.423143</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.761637</v>
+        <v>0.5749030000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.671881</v>
+        <v>0.461918</v>
       </c>
       <c r="D46" t="n">
-        <v>0.604459</v>
+        <v>0.412989</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.753975</v>
+        <v>0.564708</v>
       </c>
       <c r="C47" t="n">
-        <v>0.668037</v>
+        <v>0.459854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.612021</v>
+        <v>0.407586</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.741835</v>
+        <v>0.556911</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6553639999999999</v>
+        <v>0.452014</v>
       </c>
       <c r="D48" t="n">
-        <v>0.597701</v>
+        <v>0.407163</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.736201</v>
+        <v>0.553648</v>
       </c>
       <c r="C49" t="n">
-        <v>0.652911</v>
+        <v>0.450123</v>
       </c>
       <c r="D49" t="n">
-        <v>0.601615</v>
+        <v>0.39585</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.73704</v>
+        <v>0.5488229999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.639259</v>
+        <v>0.442322</v>
       </c>
       <c r="D50" t="n">
-        <v>0.596052</v>
+        <v>0.393644</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.736809</v>
+        <v>0.543665</v>
       </c>
       <c r="C51" t="n">
-        <v>0.636421</v>
+        <v>0.451647</v>
       </c>
       <c r="D51" t="n">
-        <v>0.751199</v>
+        <v>0.556795</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.743496</v>
+        <v>0.551293</v>
       </c>
       <c r="C52" t="n">
-        <v>0.638774</v>
+        <v>0.443604</v>
       </c>
       <c r="D52" t="n">
-        <v>0.740657</v>
+        <v>0.553832</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.900871</v>
+        <v>0.709999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.804526</v>
+        <v>0.6098749999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.748478</v>
+        <v>0.56128</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.907981</v>
+        <v>0.693777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.779693</v>
+        <v>0.587442</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7371760000000001</v>
+        <v>0.541583</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.888205</v>
+        <v>0.700129</v>
       </c>
       <c r="C55" t="n">
-        <v>0.775093</v>
+        <v>0.5751039999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.747448</v>
+        <v>0.529565</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.871258</v>
+        <v>0.705184</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8004250000000001</v>
+        <v>0.553082</v>
       </c>
       <c r="D56" t="n">
-        <v>0.73767</v>
+        <v>0.521343</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.860421</v>
+        <v>0.66682</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7649</v>
+        <v>0.5555290000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.694418</v>
+        <v>0.516091</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.853711</v>
+        <v>0.644343</v>
       </c>
       <c r="C58" t="n">
-        <v>0.747205</v>
+        <v>0.537938</v>
       </c>
       <c r="D58" t="n">
-        <v>0.686083</v>
+        <v>0.499038</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.841437</v>
+        <v>0.642394</v>
       </c>
       <c r="C59" t="n">
-        <v>0.743815</v>
+        <v>0.530288</v>
       </c>
       <c r="D59" t="n">
-        <v>0.698614</v>
+        <v>0.507482</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.853892</v>
+        <v>0.647922</v>
       </c>
       <c r="C60" t="n">
-        <v>0.74133</v>
+        <v>0.533733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.685425</v>
+        <v>0.505157</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.829109</v>
+        <v>0.622783</v>
       </c>
       <c r="C61" t="n">
-        <v>0.758466</v>
+        <v>0.523597</v>
       </c>
       <c r="D61" t="n">
-        <v>0.688598</v>
+        <v>0.475174</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.814353</v>
+        <v>0.612659</v>
       </c>
       <c r="C62" t="n">
-        <v>0.732939</v>
+        <v>0.512281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.679605</v>
+        <v>0.476402</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.828214</v>
+        <v>0.608948</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7221070000000001</v>
+        <v>0.501543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.685844</v>
+        <v>0.48225</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.827456</v>
+        <v>0.592889</v>
       </c>
       <c r="C64" t="n">
-        <v>0.718063</v>
+        <v>0.499073</v>
       </c>
       <c r="D64" t="n">
-        <v>0.677265</v>
+        <v>0.461833</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.82193</v>
+        <v>0.587412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7127559999999999</v>
+        <v>0.488153</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6635</v>
+        <v>0.469926</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.813706</v>
+        <v>0.5908099999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.745352</v>
+        <v>0.481498</v>
       </c>
       <c r="D66" t="n">
-        <v>0.847572</v>
+        <v>0.635162</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.03081</v>
+        <v>0.765664</v>
       </c>
       <c r="C67" t="n">
-        <v>0.895431</v>
+        <v>0.662828</v>
       </c>
       <c r="D67" t="n">
-        <v>0.863109</v>
+        <v>0.635122</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0022</v>
+        <v>0.765411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.867706</v>
+        <v>0.652037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.841744</v>
+        <v>0.623214</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01764</v>
+        <v>0.767601</v>
       </c>
       <c r="C69" t="n">
-        <v>0.880381</v>
+        <v>0.650061</v>
       </c>
       <c r="D69" t="n">
-        <v>0.841058</v>
+        <v>0.6198050000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.974504</v>
+        <v>0.748216</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8595</v>
+        <v>0.647553</v>
       </c>
       <c r="D70" t="n">
-        <v>0.839025</v>
+        <v>0.612751</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.980742</v>
+        <v>0.747872</v>
       </c>
       <c r="C71" t="n">
-        <v>0.842557</v>
+        <v>0.621935</v>
       </c>
       <c r="D71" t="n">
-        <v>0.822229</v>
+        <v>0.606384</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.98295</v>
+        <v>0.750479</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8637010000000001</v>
+        <v>0.608962</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8149729999999999</v>
+        <v>0.603723</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.969796</v>
+        <v>0.730764</v>
       </c>
       <c r="C73" t="n">
-        <v>0.848251</v>
+        <v>0.608077</v>
       </c>
       <c r="D73" t="n">
-        <v>0.814564</v>
+        <v>0.587112</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.967461</v>
+        <v>0.712295</v>
       </c>
       <c r="C74" t="n">
-        <v>0.837534</v>
+        <v>0.610977</v>
       </c>
       <c r="D74" t="n">
-        <v>0.804478</v>
+        <v>0.57839</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.963723</v>
+        <v>0.714856</v>
       </c>
       <c r="C75" t="n">
-        <v>0.832245</v>
+        <v>0.5845320000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8012</v>
+        <v>0.58318</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.965297</v>
+        <v>0.702031</v>
       </c>
       <c r="C76" t="n">
-        <v>0.831623</v>
+        <v>0.584118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.802382</v>
+        <v>0.558113</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.950335</v>
+        <v>0.686613</v>
       </c>
       <c r="C77" t="n">
-        <v>0.827763</v>
+        <v>0.601974</v>
       </c>
       <c r="D77" t="n">
-        <v>0.812461</v>
+        <v>0.568117</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.93712</v>
+        <v>0.68663</v>
       </c>
       <c r="C78" t="n">
-        <v>0.811735</v>
+        <v>0.585638</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7972320000000001</v>
+        <v>0.5748180000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.926861</v>
+        <v>0.67086</v>
       </c>
       <c r="C79" t="n">
-        <v>0.826053</v>
+        <v>0.577601</v>
       </c>
       <c r="D79" t="n">
-        <v>0.807951</v>
+        <v>0.556599</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.913463</v>
+        <v>0.684876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.818509</v>
+        <v>0.57312</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02303</v>
+        <v>0.766497</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13629</v>
+        <v>0.898744</v>
       </c>
       <c r="C81" t="n">
-        <v>0.991354</v>
+        <v>0.767896</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9859</v>
+        <v>0.740588</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11731</v>
+        <v>0.882027</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03409</v>
+        <v>0.75906</v>
       </c>
       <c r="D82" t="n">
-        <v>0.975046</v>
+        <v>0.731596</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11841</v>
+        <v>0.862514</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02106</v>
+        <v>0.764042</v>
       </c>
       <c r="D83" t="n">
-        <v>0.988943</v>
+        <v>0.724308</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.12669</v>
+        <v>0.860094</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00311</v>
+        <v>0.748171</v>
       </c>
       <c r="D84" t="n">
-        <v>0.96718</v>
+        <v>0.722485</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09961</v>
+        <v>0.834752</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00394</v>
+        <v>0.73455</v>
       </c>
       <c r="D85" t="n">
-        <v>0.975468</v>
+        <v>0.704896</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.11755</v>
+        <v>0.83194</v>
       </c>
       <c r="C86" t="n">
-        <v>0.998</v>
+        <v>0.733142</v>
       </c>
       <c r="D86" t="n">
-        <v>0.948757</v>
+        <v>0.700228</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09322</v>
+        <v>0.835943</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9832070000000001</v>
+        <v>0.719159</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9589220000000001</v>
+        <v>0.721533</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.05318</v>
+        <v>0.82981</v>
       </c>
       <c r="C88" t="n">
-        <v>0.968989</v>
+        <v>0.719209</v>
       </c>
       <c r="D88" t="n">
-        <v>0.946296</v>
+        <v>0.682608</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05949</v>
+        <v>0.827952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.958471</v>
+        <v>0.705323</v>
       </c>
       <c r="D89" t="n">
-        <v>0.935142</v>
+        <v>0.691219</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05521</v>
+        <v>0.809558</v>
       </c>
       <c r="C90" t="n">
-        <v>0.945326</v>
+        <v>0.696352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.967345</v>
+        <v>0.678423</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04974</v>
+        <v>0.802583</v>
       </c>
       <c r="C91" t="n">
-        <v>0.941881</v>
+        <v>0.687461</v>
       </c>
       <c r="D91" t="n">
-        <v>0.928601</v>
+        <v>0.674065</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04893</v>
+        <v>0.803916</v>
       </c>
       <c r="C92" t="n">
-        <v>0.940377</v>
+        <v>0.711556</v>
       </c>
       <c r="D92" t="n">
-        <v>0.931515</v>
+        <v>0.68918</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.09025</v>
+        <v>0.799088</v>
       </c>
       <c r="C93" t="n">
-        <v>0.970104</v>
+        <v>0.670693</v>
       </c>
       <c r="D93" t="n">
-        <v>0.94251</v>
+        <v>0.678538</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1038</v>
+        <v>0.775295</v>
       </c>
       <c r="C94" t="n">
-        <v>0.935329</v>
+        <v>0.678357</v>
       </c>
       <c r="D94" t="n">
-        <v>1.16426</v>
+        <v>0.887365</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.27608</v>
+        <v>0.993452</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14791</v>
+        <v>0.873323</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13574</v>
+        <v>0.88061</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.27353</v>
+        <v>0.985104</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17823</v>
+        <v>0.891661</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13665</v>
+        <v>0.860698</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.27461</v>
+        <v>0.998009</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17294</v>
+        <v>0.891458</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13159</v>
+        <v>0.854133</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.25305</v>
+        <v>0.978475</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16632</v>
+        <v>0.901153</v>
       </c>
       <c r="D98" t="n">
-        <v>1.14023</v>
+        <v>0.85009</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.25898</v>
+        <v>0.952183</v>
       </c>
       <c r="C99" t="n">
-        <v>1.17165</v>
+        <v>0.876459</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10858</v>
+        <v>0.830238</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21989</v>
+        <v>0.96016</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13455</v>
+        <v>0.856364</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13431</v>
+        <v>0.8415</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.2403</v>
+        <v>0.979459</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14908</v>
+        <v>0.845312</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08852</v>
+        <v>0.822068</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.24113</v>
+        <v>0.9328419999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14389</v>
+        <v>0.843293</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09302</v>
+        <v>0.799377</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.22019</v>
+        <v>0.946331</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11936</v>
+        <v>0.840118</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07784</v>
+        <v>0.778002</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2267</v>
+        <v>0.937649</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1158</v>
+        <v>0.832064</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0668</v>
+        <v>0.784238</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.21291</v>
+        <v>0.920956</v>
       </c>
       <c r="C105" t="n">
-        <v>1.12787</v>
+        <v>0.836267</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08668</v>
+        <v>0.794642</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.20759</v>
+        <v>0.916131</v>
       </c>
       <c r="C106" t="n">
-        <v>1.16666</v>
+        <v>0.8187410000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06673</v>
+        <v>0.79051</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.21285</v>
+        <v>0.917143</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10569</v>
+        <v>0.814272</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09128</v>
+        <v>0.782685</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.2358</v>
+        <v>0.914166</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12181</v>
+        <v>0.83172</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3024</v>
+        <v>1.0052</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.19305</v>
+        <v>0.926519</v>
       </c>
       <c r="C109" t="n">
-        <v>1.14947</v>
+        <v>0.805235</v>
       </c>
       <c r="D109" t="n">
-        <v>1.30832</v>
+        <v>0.984981</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42025</v>
+        <v>1.13983</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33357</v>
+        <v>1.04001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.28641</v>
+        <v>0.975073</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41106</v>
+        <v>1.12689</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36572</v>
+        <v>1.03226</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26014</v>
+        <v>0.985152</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.41492</v>
+        <v>1.08705</v>
       </c>
       <c r="C112" t="n">
-        <v>1.35156</v>
+        <v>1.00255</v>
       </c>
       <c r="D112" t="n">
-        <v>1.29834</v>
+        <v>0.9868400000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.46584</v>
+        <v>1.12391</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34497</v>
+        <v>1.01608</v>
       </c>
       <c r="D113" t="n">
-        <v>1.2773</v>
+        <v>0.948985</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45837</v>
+        <v>1.10818</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31127</v>
+        <v>1.00012</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25636</v>
+        <v>0.94068</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45031</v>
+        <v>1.10856</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32162</v>
+        <v>1.02014</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26681</v>
+        <v>0.951857</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.42119</v>
+        <v>1.14363</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30989</v>
+        <v>0.992968</v>
       </c>
       <c r="D116" t="n">
-        <v>1.27639</v>
+        <v>0.939138</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.45582</v>
+        <v>1.11386</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32813</v>
+        <v>0.969514</v>
       </c>
       <c r="D117" t="n">
-        <v>1.28766</v>
+        <v>0.943364</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43785</v>
+        <v>1.10261</v>
       </c>
       <c r="C118" t="n">
-        <v>1.36805</v>
+        <v>1.00369</v>
       </c>
       <c r="D118" t="n">
-        <v>1.2663</v>
+        <v>0.926096</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.45494</v>
+        <v>1.12141</v>
       </c>
       <c r="C119" t="n">
-        <v>1.33361</v>
+        <v>0.980773</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23115</v>
+        <v>0.926544</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.44442</v>
+        <v>1.11444</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33436</v>
+        <v>0.992926</v>
       </c>
       <c r="D120" t="n">
-        <v>1.29361</v>
+        <v>0.935216</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.45883</v>
+        <v>1.09927</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32998</v>
+        <v>1.0031</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25081</v>
+        <v>0.94643</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.43976</v>
+        <v>1.10496</v>
       </c>
       <c r="C122" t="n">
-        <v>1.31204</v>
+        <v>1.00007</v>
       </c>
       <c r="D122" t="n">
-        <v>1.2491</v>
+        <v>0.932157</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.43293</v>
+        <v>1.11098</v>
       </c>
       <c r="C123" t="n">
-        <v>1.34749</v>
+        <v>0.988749</v>
       </c>
       <c r="D123" t="n">
-        <v>1.48825</v>
+        <v>1.16128</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.68439</v>
+        <v>1.35139</v>
       </c>
       <c r="C124" t="n">
-        <v>1.56052</v>
+        <v>1.22156</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49531</v>
+        <v>1.14415</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.69786</v>
+        <v>1.34606</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56521</v>
+        <v>1.1947</v>
       </c>
       <c r="D125" t="n">
-        <v>1.49418</v>
+        <v>1.13436</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.70096</v>
+        <v>1.34083</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57335</v>
+        <v>1.19938</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48087</v>
+        <v>1.13053</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.69824</v>
+        <v>1.33521</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55772</v>
+        <v>1.22531</v>
       </c>
       <c r="D127" t="n">
-        <v>1.49141</v>
+        <v>1.14749</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.68656</v>
+        <v>1.35009</v>
       </c>
       <c r="C128" t="n">
-        <v>1.55703</v>
+        <v>1.19694</v>
       </c>
       <c r="D128" t="n">
-        <v>1.50109</v>
+        <v>1.15232</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.71075</v>
+        <v>1.33829</v>
       </c>
       <c r="C129" t="n">
-        <v>1.55326</v>
+        <v>1.20648</v>
       </c>
       <c r="D129" t="n">
-        <v>1.50422</v>
+        <v>1.14808</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.70173</v>
+        <v>1.34843</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56907</v>
+        <v>1.21895</v>
       </c>
       <c r="D130" t="n">
-        <v>1.50585</v>
+        <v>1.14953</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.71077</v>
+        <v>1.35511</v>
       </c>
       <c r="C131" t="n">
-        <v>1.59145</v>
+        <v>1.19476</v>
       </c>
       <c r="D131" t="n">
-        <v>1.51786</v>
+        <v>1.12608</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.70158</v>
+        <v>1.34081</v>
       </c>
       <c r="C132" t="n">
-        <v>1.58319</v>
+        <v>1.20174</v>
       </c>
       <c r="D132" t="n">
-        <v>1.52417</v>
+        <v>1.13803</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74737</v>
+        <v>1.35238</v>
       </c>
       <c r="C133" t="n">
-        <v>1.59143</v>
+        <v>1.22969</v>
       </c>
       <c r="D133" t="n">
-        <v>1.51495</v>
+        <v>1.12744</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.74464</v>
+        <v>1.35309</v>
       </c>
       <c r="C134" t="n">
-        <v>1.5835</v>
+        <v>1.23312</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51356</v>
+        <v>1.14721</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.72289</v>
+        <v>1.34184</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57776</v>
+        <v>1.22226</v>
       </c>
       <c r="D135" t="n">
-        <v>1.52382</v>
+        <v>1.14306</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.75115</v>
+        <v>1.38571</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58652</v>
+        <v>1.21417</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51038</v>
+        <v>1.14863</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.76076</v>
+        <v>1.37719</v>
       </c>
       <c r="C137" t="n">
-        <v>1.6135</v>
+        <v>1.2276</v>
       </c>
       <c r="D137" t="n">
-        <v>1.75507</v>
+        <v>1.3863</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.98845</v>
+        <v>1.5812</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82716</v>
+        <v>1.4447</v>
       </c>
       <c r="D138" t="n">
-        <v>1.77971</v>
+        <v>1.39687</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.98437</v>
+        <v>1.58953</v>
       </c>
       <c r="C139" t="n">
-        <v>1.84277</v>
+        <v>1.45582</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75054</v>
+        <v>1.36565</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.9924</v>
+        <v>1.62049</v>
       </c>
       <c r="C140" t="n">
-        <v>1.84721</v>
+        <v>1.45382</v>
       </c>
       <c r="D140" t="n">
-        <v>1.77052</v>
+        <v>1.37142</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.005</v>
+        <v>1.60521</v>
       </c>
       <c r="C141" t="n">
-        <v>1.83609</v>
+        <v>1.44021</v>
       </c>
       <c r="D141" t="n">
-        <v>1.79522</v>
+        <v>1.38893</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.01445</v>
+        <v>1.62896</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83915</v>
+        <v>1.45809</v>
       </c>
       <c r="D142" t="n">
-        <v>1.77568</v>
+        <v>1.37549</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.00609</v>
+        <v>1.61168</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85222</v>
+        <v>1.44767</v>
       </c>
       <c r="D143" t="n">
-        <v>1.78508</v>
+        <v>1.3865</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.513822</v>
+        <v>0.484249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.384692</v>
+        <v>0.356161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365435</v>
+        <v>0.358213</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.47379</v>
+        <v>0.471877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.381905</v>
+        <v>0.358506</v>
       </c>
       <c r="D3" t="n">
-        <v>0.364142</v>
+        <v>0.350047</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.469443</v>
+        <v>0.470629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36458</v>
+        <v>0.35118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356673</v>
+        <v>0.346964</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452537</v>
+        <v>0.466404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359264</v>
+        <v>0.343658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36617</v>
+        <v>0.348711</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.453913</v>
+        <v>0.458989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.363075</v>
+        <v>0.338478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35581</v>
+        <v>0.343049</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.45874</v>
+        <v>0.462544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376382</v>
+        <v>0.332793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.353899</v>
+        <v>0.349436</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.459961</v>
+        <v>0.446902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.359316</v>
+        <v>0.329464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.352299</v>
+        <v>0.351872</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.438954</v>
+        <v>0.437789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.368711</v>
+        <v>0.338675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4481</v>
+        <v>0.420131</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.543181</v>
+        <v>0.5457379999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.44207</v>
+        <v>0.432053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.430804</v>
+        <v>0.428828</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537565</v>
+        <v>0.542918</v>
       </c>
       <c r="C11" t="n">
-        <v>0.421754</v>
+        <v>0.400217</v>
       </c>
       <c r="D11" t="n">
-        <v>0.427842</v>
+        <v>0.411824</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.523428</v>
+        <v>0.532631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.42663</v>
+        <v>0.39286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.427114</v>
+        <v>0.403291</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.511938</v>
+        <v>0.521813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.410394</v>
+        <v>0.385489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397154</v>
+        <v>0.390724</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.499528</v>
+        <v>0.51145</v>
       </c>
       <c r="C14" t="n">
-        <v>0.40924</v>
+        <v>0.389586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.404024</v>
+        <v>0.387902</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.512275</v>
+        <v>0.5017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.405125</v>
+        <v>0.38064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.391265</v>
+        <v>0.388093</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.511234</v>
+        <v>0.492471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.393832</v>
+        <v>0.373662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.385672</v>
+        <v>0.386985</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.502363</v>
+        <v>0.5137659999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.403789</v>
+        <v>0.3652</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402347</v>
+        <v>0.378075</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.476299</v>
+        <v>0.487109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.38403</v>
+        <v>0.369668</v>
       </c>
       <c r="D18" t="n">
-        <v>0.378775</v>
+        <v>0.368203</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475115</v>
+        <v>0.492129</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38213</v>
+        <v>0.346132</v>
       </c>
       <c r="D19" t="n">
-        <v>0.376318</v>
+        <v>0.361233</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.474333</v>
+        <v>0.475392</v>
       </c>
       <c r="C20" t="n">
-        <v>0.372094</v>
+        <v>0.35445</v>
       </c>
       <c r="D20" t="n">
-        <v>0.372671</v>
+        <v>0.376743</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.462008</v>
+        <v>0.465017</v>
       </c>
       <c r="C21" t="n">
-        <v>0.370634</v>
+        <v>0.343707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.359706</v>
+        <v>0.358568</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.482983</v>
+        <v>0.45967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.372733</v>
+        <v>0.362792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.361974</v>
+        <v>0.35663</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.470066</v>
+        <v>0.474209</v>
       </c>
       <c r="C23" t="n">
-        <v>0.365405</v>
+        <v>0.352367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.461393</v>
+        <v>0.434809</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.54367</v>
+        <v>0.55442</v>
       </c>
       <c r="C24" t="n">
-        <v>0.467416</v>
+        <v>0.426147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44434</v>
+        <v>0.442928</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.544645</v>
+        <v>0.550453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.443297</v>
+        <v>0.420412</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440099</v>
+        <v>0.438484</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.540304</v>
+        <v>0.546342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.436675</v>
+        <v>0.410883</v>
       </c>
       <c r="D26" t="n">
-        <v>0.436518</v>
+        <v>0.432535</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.531071</v>
+        <v>0.53689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.44725</v>
+        <v>0.405091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.430739</v>
+        <v>0.405168</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.531817</v>
+        <v>0.531624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425345</v>
+        <v>0.395241</v>
       </c>
       <c r="D28" t="n">
-        <v>0.417902</v>
+        <v>0.406909</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5180090000000001</v>
+        <v>0.512459</v>
       </c>
       <c r="C29" t="n">
-        <v>0.434896</v>
+        <v>0.392851</v>
       </c>
       <c r="D29" t="n">
-        <v>0.406299</v>
+        <v>0.392145</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.514953</v>
+        <v>0.508636</v>
       </c>
       <c r="C30" t="n">
-        <v>0.402729</v>
+        <v>0.385719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403619</v>
+        <v>0.400102</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.499913</v>
+        <v>0.496031</v>
       </c>
       <c r="C31" t="n">
-        <v>0.423692</v>
+        <v>0.376107</v>
       </c>
       <c r="D31" t="n">
-        <v>0.39567</v>
+        <v>0.388739</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49532</v>
+        <v>0.508051</v>
       </c>
       <c r="C32" t="n">
-        <v>0.400099</v>
+        <v>0.391654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.39902</v>
+        <v>0.390252</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.497723</v>
+        <v>0.485274</v>
       </c>
       <c r="C33" t="n">
-        <v>0.39094</v>
+        <v>0.370525</v>
       </c>
       <c r="D33" t="n">
-        <v>0.385913</v>
+        <v>0.392405</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.499294</v>
+        <v>0.483308</v>
       </c>
       <c r="C34" t="n">
-        <v>0.387557</v>
+        <v>0.365564</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40189</v>
+        <v>0.38332</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5045269999999999</v>
+        <v>0.493819</v>
       </c>
       <c r="C35" t="n">
-        <v>0.39717</v>
+        <v>0.351321</v>
       </c>
       <c r="D35" t="n">
-        <v>0.385706</v>
+        <v>0.3702</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.480797</v>
+        <v>0.487658</v>
       </c>
       <c r="C36" t="n">
-        <v>0.399849</v>
+        <v>0.359088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.389902</v>
+        <v>0.36512</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.47948</v>
+        <v>0.471739</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395097</v>
+        <v>0.367471</v>
       </c>
       <c r="D37" t="n">
-        <v>0.48039</v>
+        <v>0.455311</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.655655</v>
+        <v>0.654009</v>
       </c>
       <c r="C38" t="n">
-        <v>0.541343</v>
+        <v>0.527776</v>
       </c>
       <c r="D38" t="n">
-        <v>0.46388</v>
+        <v>0.452345</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.638424</v>
+        <v>0.645941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.532487</v>
+        <v>0.5084959999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.459089</v>
+        <v>0.45012</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.623883</v>
+        <v>0.625347</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51896</v>
+        <v>0.497958</v>
       </c>
       <c r="D40" t="n">
-        <v>0.446754</v>
+        <v>0.438028</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.621671</v>
+        <v>0.623184</v>
       </c>
       <c r="C41" t="n">
-        <v>0.546976</v>
+        <v>0.486476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.450694</v>
+        <v>0.438786</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.600868</v>
+        <v>0.5990259999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.495603</v>
+        <v>0.477447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.444517</v>
+        <v>0.433455</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.612653</v>
+        <v>0.6040140000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.490962</v>
+        <v>0.477224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.431186</v>
+        <v>0.412724</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.599208</v>
+        <v>0.591091</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48378</v>
+        <v>0.458511</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421252</v>
+        <v>0.414954</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.581559</v>
+        <v>0.593354</v>
       </c>
       <c r="C45" t="n">
-        <v>0.482955</v>
+        <v>0.44876</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423143</v>
+        <v>0.399375</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5749030000000001</v>
+        <v>0.578138</v>
       </c>
       <c r="C46" t="n">
-        <v>0.461918</v>
+        <v>0.44939</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412989</v>
+        <v>0.408049</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.564708</v>
+        <v>0.56488</v>
       </c>
       <c r="C47" t="n">
-        <v>0.459854</v>
+        <v>0.438171</v>
       </c>
       <c r="D47" t="n">
-        <v>0.407586</v>
+        <v>0.393475</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.556911</v>
+        <v>0.55089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.452014</v>
+        <v>0.42932</v>
       </c>
       <c r="D48" t="n">
-        <v>0.407163</v>
+        <v>0.390844</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.553648</v>
+        <v>0.55703</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450123</v>
+        <v>0.42228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.39585</v>
+        <v>0.389018</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5488229999999999</v>
+        <v>0.557427</v>
       </c>
       <c r="C50" t="n">
-        <v>0.442322</v>
+        <v>0.41005</v>
       </c>
       <c r="D50" t="n">
-        <v>0.393644</v>
+        <v>0.402291</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.543665</v>
+        <v>0.5396879999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.451647</v>
+        <v>0.411981</v>
       </c>
       <c r="D51" t="n">
-        <v>0.556795</v>
+        <v>0.553787</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.551293</v>
+        <v>0.527053</v>
       </c>
       <c r="C52" t="n">
-        <v>0.443604</v>
+        <v>0.415434</v>
       </c>
       <c r="D52" t="n">
-        <v>0.553832</v>
+        <v>0.537054</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.709999</v>
+        <v>0.725299</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6098749999999999</v>
+        <v>0.591441</v>
       </c>
       <c r="D53" t="n">
-        <v>0.56128</v>
+        <v>0.530794</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.693777</v>
+        <v>0.700587</v>
       </c>
       <c r="C54" t="n">
-        <v>0.587442</v>
+        <v>0.563374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.541583</v>
+        <v>0.527339</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.700129</v>
+        <v>0.691875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5751039999999999</v>
+        <v>0.545068</v>
       </c>
       <c r="D55" t="n">
-        <v>0.529565</v>
+        <v>0.510914</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.705184</v>
+        <v>0.674262</v>
       </c>
       <c r="C56" t="n">
-        <v>0.553082</v>
+        <v>0.537797</v>
       </c>
       <c r="D56" t="n">
-        <v>0.521343</v>
+        <v>0.511983</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.66682</v>
+        <v>0.67422</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5555290000000001</v>
+        <v>0.525983</v>
       </c>
       <c r="D57" t="n">
-        <v>0.516091</v>
+        <v>0.508445</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.644343</v>
+        <v>0.656132</v>
       </c>
       <c r="C58" t="n">
-        <v>0.537938</v>
+        <v>0.518904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.499038</v>
+        <v>0.485045</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.642394</v>
+        <v>0.645612</v>
       </c>
       <c r="C59" t="n">
-        <v>0.530288</v>
+        <v>0.5050519999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.507482</v>
+        <v>0.473343</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.647922</v>
+        <v>0.637889</v>
       </c>
       <c r="C60" t="n">
-        <v>0.533733</v>
+        <v>0.500058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.505157</v>
+        <v>0.469827</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622783</v>
+        <v>0.626997</v>
       </c>
       <c r="C61" t="n">
-        <v>0.523597</v>
+        <v>0.488825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.475174</v>
+        <v>0.483119</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.612659</v>
+        <v>0.609504</v>
       </c>
       <c r="C62" t="n">
-        <v>0.512281</v>
+        <v>0.484772</v>
       </c>
       <c r="D62" t="n">
-        <v>0.476402</v>
+        <v>0.468597</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.608948</v>
+        <v>0.641154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.501543</v>
+        <v>0.481904</v>
       </c>
       <c r="D63" t="n">
-        <v>0.48225</v>
+        <v>0.462333</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592889</v>
+        <v>0.594863</v>
       </c>
       <c r="C64" t="n">
-        <v>0.499073</v>
+        <v>0.474847</v>
       </c>
       <c r="D64" t="n">
-        <v>0.461833</v>
+        <v>0.455424</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587412</v>
+        <v>0.619117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.488153</v>
+        <v>0.465604</v>
       </c>
       <c r="D65" t="n">
-        <v>0.469926</v>
+        <v>0.454114</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5908099999999999</v>
+        <v>0.579593</v>
       </c>
       <c r="C66" t="n">
-        <v>0.481498</v>
+        <v>0.45585</v>
       </c>
       <c r="D66" t="n">
-        <v>0.635162</v>
+        <v>0.6261409999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.765664</v>
+        <v>0.772927</v>
       </c>
       <c r="C67" t="n">
-        <v>0.662828</v>
+        <v>0.630641</v>
       </c>
       <c r="D67" t="n">
-        <v>0.635122</v>
+        <v>0.621577</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.765411</v>
+        <v>0.770688</v>
       </c>
       <c r="C68" t="n">
-        <v>0.652037</v>
+        <v>0.632308</v>
       </c>
       <c r="D68" t="n">
-        <v>0.623214</v>
+        <v>0.6060179999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.767601</v>
+        <v>0.782785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.650061</v>
+        <v>0.6036049999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6198050000000001</v>
+        <v>0.607179</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.748216</v>
+        <v>0.758441</v>
       </c>
       <c r="C70" t="n">
-        <v>0.647553</v>
+        <v>0.598788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612751</v>
+        <v>0.593769</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.747872</v>
+        <v>0.748896</v>
       </c>
       <c r="C71" t="n">
-        <v>0.621935</v>
+        <v>0.588588</v>
       </c>
       <c r="D71" t="n">
-        <v>0.606384</v>
+        <v>0.578686</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.750479</v>
+        <v>0.728538</v>
       </c>
       <c r="C72" t="n">
-        <v>0.608962</v>
+        <v>0.587318</v>
       </c>
       <c r="D72" t="n">
-        <v>0.603723</v>
+        <v>0.574827</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.730764</v>
+        <v>0.727833</v>
       </c>
       <c r="C73" t="n">
-        <v>0.608077</v>
+        <v>0.579431</v>
       </c>
       <c r="D73" t="n">
-        <v>0.587112</v>
+        <v>0.568363</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.712295</v>
+        <v>0.7083120000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.610977</v>
+        <v>0.575762</v>
       </c>
       <c r="D74" t="n">
-        <v>0.57839</v>
+        <v>0.566682</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.714856</v>
+        <v>0.714472</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5845320000000001</v>
+        <v>0.5586179999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.58318</v>
+        <v>0.563564</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.702031</v>
+        <v>0.703223</v>
       </c>
       <c r="C76" t="n">
-        <v>0.584118</v>
+        <v>0.564909</v>
       </c>
       <c r="D76" t="n">
-        <v>0.558113</v>
+        <v>0.569856</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.686613</v>
+        <v>0.710099</v>
       </c>
       <c r="C77" t="n">
-        <v>0.601974</v>
+        <v>0.545621</v>
       </c>
       <c r="D77" t="n">
-        <v>0.568117</v>
+        <v>0.558876</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.68663</v>
+        <v>0.701196</v>
       </c>
       <c r="C78" t="n">
-        <v>0.585638</v>
+        <v>0.532125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5748180000000001</v>
+        <v>0.556741</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.67086</v>
+        <v>0.684663</v>
       </c>
       <c r="C79" t="n">
-        <v>0.577601</v>
+        <v>0.531672</v>
       </c>
       <c r="D79" t="n">
-        <v>0.556599</v>
+        <v>0.5454830000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.684876</v>
+        <v>0.674339</v>
       </c>
       <c r="C80" t="n">
-        <v>0.57312</v>
+        <v>0.523482</v>
       </c>
       <c r="D80" t="n">
-        <v>0.766497</v>
+        <v>0.744768</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.898744</v>
+        <v>0.879141</v>
       </c>
       <c r="C81" t="n">
-        <v>0.767896</v>
+        <v>0.73323</v>
       </c>
       <c r="D81" t="n">
-        <v>0.740588</v>
+        <v>0.728067</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.882027</v>
+        <v>0.888763</v>
       </c>
       <c r="C82" t="n">
-        <v>0.75906</v>
+        <v>0.726382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.731596</v>
+        <v>0.736174</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.862514</v>
+        <v>0.876807</v>
       </c>
       <c r="C83" t="n">
-        <v>0.764042</v>
+        <v>0.724029</v>
       </c>
       <c r="D83" t="n">
-        <v>0.724308</v>
+        <v>0.711646</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.860094</v>
+        <v>0.865494</v>
       </c>
       <c r="C84" t="n">
-        <v>0.748171</v>
+        <v>0.707511</v>
       </c>
       <c r="D84" t="n">
-        <v>0.722485</v>
+        <v>0.700275</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.834752</v>
+        <v>0.885</v>
       </c>
       <c r="C85" t="n">
-        <v>0.73455</v>
+        <v>0.710817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.704896</v>
+        <v>0.702224</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.83194</v>
+        <v>0.839129</v>
       </c>
       <c r="C86" t="n">
-        <v>0.733142</v>
+        <v>0.6907219999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.700228</v>
+        <v>0.691425</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.835943</v>
+        <v>0.831087</v>
       </c>
       <c r="C87" t="n">
-        <v>0.719159</v>
+        <v>0.689458</v>
       </c>
       <c r="D87" t="n">
-        <v>0.721533</v>
+        <v>0.681536</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.82981</v>
+        <v>0.804746</v>
       </c>
       <c r="C88" t="n">
-        <v>0.719209</v>
+        <v>0.677941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.682608</v>
+        <v>0.678279</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.827952</v>
+        <v>0.819276</v>
       </c>
       <c r="C89" t="n">
-        <v>0.705323</v>
+        <v>0.660304</v>
       </c>
       <c r="D89" t="n">
-        <v>0.691219</v>
+        <v>0.66327</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.809558</v>
+        <v>0.798407</v>
       </c>
       <c r="C90" t="n">
-        <v>0.696352</v>
+        <v>0.6629699999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.678423</v>
+        <v>0.660559</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.802583</v>
+        <v>0.80391</v>
       </c>
       <c r="C91" t="n">
-        <v>0.687461</v>
+        <v>0.65256</v>
       </c>
       <c r="D91" t="n">
-        <v>0.674065</v>
+        <v>0.661147</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.803916</v>
+        <v>0.812018</v>
       </c>
       <c r="C92" t="n">
-        <v>0.711556</v>
+        <v>0.641634</v>
       </c>
       <c r="D92" t="n">
-        <v>0.68918</v>
+        <v>0.647607</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.799088</v>
+        <v>0.792582</v>
       </c>
       <c r="C93" t="n">
-        <v>0.670693</v>
+        <v>0.6361790000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.678538</v>
+        <v>0.653006</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.775295</v>
+        <v>0.800037</v>
       </c>
       <c r="C94" t="n">
-        <v>0.678357</v>
+        <v>0.636315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.887365</v>
+        <v>0.865629</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.993452</v>
+        <v>0.9996429999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.873323</v>
+        <v>0.833176</v>
       </c>
       <c r="D95" t="n">
-        <v>0.88061</v>
+        <v>0.86452</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.985104</v>
+        <v>1.00567</v>
       </c>
       <c r="C96" t="n">
-        <v>0.891661</v>
+        <v>0.857874</v>
       </c>
       <c r="D96" t="n">
-        <v>0.860698</v>
+        <v>0.855095</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.998009</v>
+        <v>1.00486</v>
       </c>
       <c r="C97" t="n">
-        <v>0.891458</v>
+        <v>0.845985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.854133</v>
+        <v>0.8490799999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.978475</v>
+        <v>0.988247</v>
       </c>
       <c r="C98" t="n">
-        <v>0.901153</v>
+        <v>0.823059</v>
       </c>
       <c r="D98" t="n">
-        <v>0.85009</v>
+        <v>0.839107</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.952183</v>
+        <v>1.0077</v>
       </c>
       <c r="C99" t="n">
-        <v>0.876459</v>
+        <v>0.842341</v>
       </c>
       <c r="D99" t="n">
-        <v>0.830238</v>
+        <v>0.833371</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.96016</v>
+        <v>0.9763770000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.856364</v>
+        <v>0.832372</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8415</v>
+        <v>0.826796</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.979459</v>
+        <v>0.967458</v>
       </c>
       <c r="C101" t="n">
-        <v>0.845312</v>
+        <v>0.8102</v>
       </c>
       <c r="D101" t="n">
-        <v>0.822068</v>
+        <v>0.822264</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9328419999999999</v>
+        <v>0.965472</v>
       </c>
       <c r="C102" t="n">
-        <v>0.843293</v>
+        <v>0.80436</v>
       </c>
       <c r="D102" t="n">
-        <v>0.799377</v>
+        <v>0.799105</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.946331</v>
+        <v>0.9562310000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.840118</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.778002</v>
+        <v>0.805347</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.937649</v>
+        <v>0.95903</v>
       </c>
       <c r="C104" t="n">
-        <v>0.832064</v>
+        <v>0.798517</v>
       </c>
       <c r="D104" t="n">
-        <v>0.784238</v>
+        <v>0.7866109999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.920956</v>
+        <v>0.942312</v>
       </c>
       <c r="C105" t="n">
-        <v>0.836267</v>
+        <v>0.7930779999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.794642</v>
+        <v>0.782775</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.916131</v>
+        <v>0.948379</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8187410000000001</v>
+        <v>0.79193</v>
       </c>
       <c r="D106" t="n">
-        <v>0.79051</v>
+        <v>0.7721519999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.917143</v>
+        <v>0.923727</v>
       </c>
       <c r="C107" t="n">
-        <v>0.814272</v>
+        <v>0.7780010000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.782685</v>
+        <v>0.77859</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.914166</v>
+        <v>0.9232669999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.83172</v>
+        <v>0.763194</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0052</v>
+        <v>0.99221</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.926519</v>
+        <v>0.927</v>
       </c>
       <c r="C109" t="n">
-        <v>0.805235</v>
+        <v>0.771237</v>
       </c>
       <c r="D109" t="n">
-        <v>0.984981</v>
+        <v>0.986541</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.13983</v>
+        <v>1.11465</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04001</v>
+        <v>0.9835930000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.975073</v>
+        <v>0.98202</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.12689</v>
+        <v>1.15568</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03226</v>
+        <v>1.01284</v>
       </c>
       <c r="D111" t="n">
-        <v>0.985152</v>
+        <v>0.9763810000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.08705</v>
+        <v>1.1519</v>
       </c>
       <c r="C112" t="n">
-        <v>1.00255</v>
+        <v>1.00221</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9868400000000001</v>
+        <v>0.96597</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12391</v>
+        <v>1.11317</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01608</v>
+        <v>0.993639</v>
       </c>
       <c r="D113" t="n">
-        <v>0.948985</v>
+        <v>0.963316</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10818</v>
+        <v>1.10765</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00012</v>
+        <v>0.977815</v>
       </c>
       <c r="D114" t="n">
-        <v>0.94068</v>
+        <v>0.965108</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.10856</v>
+        <v>1.12335</v>
       </c>
       <c r="C115" t="n">
-        <v>1.02014</v>
+        <v>0.948817</v>
       </c>
       <c r="D115" t="n">
-        <v>0.951857</v>
+        <v>0.941752</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14363</v>
+        <v>1.1393</v>
       </c>
       <c r="C116" t="n">
-        <v>0.992968</v>
+        <v>0.962543</v>
       </c>
       <c r="D116" t="n">
-        <v>0.939138</v>
+        <v>0.926669</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11386</v>
+        <v>1.10038</v>
       </c>
       <c r="C117" t="n">
-        <v>0.969514</v>
+        <v>0.97654</v>
       </c>
       <c r="D117" t="n">
-        <v>0.943364</v>
+        <v>0.937256</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10261</v>
+        <v>1.12658</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00369</v>
+        <v>0.961523</v>
       </c>
       <c r="D118" t="n">
-        <v>0.926096</v>
+        <v>0.925517</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12141</v>
+        <v>1.10711</v>
       </c>
       <c r="C119" t="n">
-        <v>0.980773</v>
+        <v>0.9625280000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.926544</v>
+        <v>0.920658</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11444</v>
+        <v>1.09995</v>
       </c>
       <c r="C120" t="n">
-        <v>0.992926</v>
+        <v>0.960779</v>
       </c>
       <c r="D120" t="n">
-        <v>0.935216</v>
+        <v>0.912884</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09927</v>
+        <v>1.10018</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0031</v>
+        <v>0.948041</v>
       </c>
       <c r="D121" t="n">
-        <v>0.94643</v>
+        <v>0.907067</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10496</v>
+        <v>1.12434</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00007</v>
+        <v>0.952862</v>
       </c>
       <c r="D122" t="n">
-        <v>0.932157</v>
+        <v>0.919705</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.11098</v>
+        <v>1.10614</v>
       </c>
       <c r="C123" t="n">
-        <v>0.988749</v>
+        <v>0.9564279999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>1.16128</v>
+        <v>1.13208</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35139</v>
+        <v>1.32645</v>
       </c>
       <c r="C124" t="n">
-        <v>1.22156</v>
+        <v>1.16522</v>
       </c>
       <c r="D124" t="n">
-        <v>1.14415</v>
+        <v>1.14503</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34606</v>
+        <v>1.32774</v>
       </c>
       <c r="C125" t="n">
-        <v>1.1947</v>
+        <v>1.18725</v>
       </c>
       <c r="D125" t="n">
-        <v>1.13436</v>
+        <v>1.12755</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34083</v>
+        <v>1.34907</v>
       </c>
       <c r="C126" t="n">
-        <v>1.19938</v>
+        <v>1.19546</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13053</v>
+        <v>1.15501</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33521</v>
+        <v>1.35125</v>
       </c>
       <c r="C127" t="n">
-        <v>1.22531</v>
+        <v>1.18578</v>
       </c>
       <c r="D127" t="n">
-        <v>1.14749</v>
+        <v>1.1197</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.35009</v>
+        <v>1.35674</v>
       </c>
       <c r="C128" t="n">
-        <v>1.19694</v>
+        <v>1.17299</v>
       </c>
       <c r="D128" t="n">
-        <v>1.15232</v>
+        <v>1.16198</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33829</v>
+        <v>1.35026</v>
       </c>
       <c r="C129" t="n">
-        <v>1.20648</v>
+        <v>1.19812</v>
       </c>
       <c r="D129" t="n">
-        <v>1.14808</v>
+        <v>1.13309</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34843</v>
+        <v>1.34915</v>
       </c>
       <c r="C130" t="n">
-        <v>1.21895</v>
+        <v>1.17204</v>
       </c>
       <c r="D130" t="n">
-        <v>1.14953</v>
+        <v>1.14679</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35511</v>
+        <v>1.35343</v>
       </c>
       <c r="C131" t="n">
-        <v>1.19476</v>
+        <v>1.18213</v>
       </c>
       <c r="D131" t="n">
-        <v>1.12608</v>
+        <v>1.12521</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.34081</v>
+        <v>1.34371</v>
       </c>
       <c r="C132" t="n">
-        <v>1.20174</v>
+        <v>1.17002</v>
       </c>
       <c r="D132" t="n">
-        <v>1.13803</v>
+        <v>1.1188</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35238</v>
+        <v>1.35371</v>
       </c>
       <c r="C133" t="n">
-        <v>1.22969</v>
+        <v>1.21564</v>
       </c>
       <c r="D133" t="n">
-        <v>1.12744</v>
+        <v>1.15281</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35309</v>
+        <v>1.36387</v>
       </c>
       <c r="C134" t="n">
-        <v>1.23312</v>
+        <v>1.17947</v>
       </c>
       <c r="D134" t="n">
-        <v>1.14721</v>
+        <v>1.12857</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34184</v>
+        <v>1.34493</v>
       </c>
       <c r="C135" t="n">
-        <v>1.22226</v>
+        <v>1.20194</v>
       </c>
       <c r="D135" t="n">
-        <v>1.14306</v>
+        <v>1.13198</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.38571</v>
+        <v>1.37604</v>
       </c>
       <c r="C136" t="n">
-        <v>1.21417</v>
+        <v>1.19742</v>
       </c>
       <c r="D136" t="n">
-        <v>1.14863</v>
+        <v>1.15365</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.37719</v>
+        <v>1.36771</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2276</v>
+        <v>1.2004</v>
       </c>
       <c r="D137" t="n">
-        <v>1.3863</v>
+        <v>1.67723</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5812</v>
+        <v>1.61435</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4447</v>
+        <v>1.40907</v>
       </c>
       <c r="D138" t="n">
-        <v>1.39687</v>
+        <v>1.38584</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58953</v>
+        <v>1.59599</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45582</v>
+        <v>1.43371</v>
       </c>
       <c r="D139" t="n">
-        <v>1.36565</v>
+        <v>1.36801</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62049</v>
+        <v>1.6096</v>
       </c>
       <c r="C140" t="n">
-        <v>1.45382</v>
+        <v>1.41764</v>
       </c>
       <c r="D140" t="n">
-        <v>1.37142</v>
+        <v>1.37383</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60521</v>
+        <v>1.6029</v>
       </c>
       <c r="C141" t="n">
-        <v>1.44021</v>
+        <v>1.41002</v>
       </c>
       <c r="D141" t="n">
-        <v>1.38893</v>
+        <v>1.37067</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62896</v>
+        <v>1.61587</v>
       </c>
       <c r="C142" t="n">
-        <v>1.45809</v>
+        <v>1.41272</v>
       </c>
       <c r="D142" t="n">
-        <v>1.37549</v>
+        <v>1.37909</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61168</v>
+        <v>1.60639</v>
       </c>
       <c r="C143" t="n">
-        <v>1.44767</v>
+        <v>1.41737</v>
       </c>
       <c r="D143" t="n">
-        <v>1.3865</v>
+        <v>1.38393</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484249</v>
+        <v>0.410361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.356161</v>
+        <v>0.302196</v>
       </c>
       <c r="D2" t="n">
-        <v>0.358213</v>
+        <v>0.29213</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.471877</v>
+        <v>0.398743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.358506</v>
+        <v>0.290504</v>
       </c>
       <c r="D3" t="n">
-        <v>0.350047</v>
+        <v>0.279254</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.470629</v>
+        <v>0.389813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35118</v>
+        <v>0.278486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.346964</v>
+        <v>0.270287</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.466404</v>
+        <v>0.382596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.343658</v>
+        <v>0.279743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.348711</v>
+        <v>0.276912</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.458989</v>
+        <v>0.387479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.338478</v>
+        <v>0.283857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343049</v>
+        <v>0.266465</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.462544</v>
+        <v>0.377412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.332793</v>
+        <v>0.279368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.349436</v>
+        <v>0.270269</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.446902</v>
+        <v>0.371762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.329464</v>
+        <v>0.273577</v>
       </c>
       <c r="D8" t="n">
-        <v>0.351872</v>
+        <v>0.264329</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437789</v>
+        <v>0.370946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.338675</v>
+        <v>0.267944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420131</v>
+        <v>0.346872</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5457379999999999</v>
+        <v>0.458233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.432053</v>
+        <v>0.354731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.428828</v>
+        <v>0.338429</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.542918</v>
+        <v>0.459632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400217</v>
+        <v>0.349838</v>
       </c>
       <c r="D11" t="n">
-        <v>0.411824</v>
+        <v>0.33466</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532631</v>
+        <v>0.455005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.39286</v>
+        <v>0.348325</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403291</v>
+        <v>0.329586</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.521813</v>
+        <v>0.434333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.385489</v>
+        <v>0.333886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.390724</v>
+        <v>0.318644</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.51145</v>
+        <v>0.437752</v>
       </c>
       <c r="C14" t="n">
-        <v>0.389586</v>
+        <v>0.327371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.387902</v>
+        <v>0.313615</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5017</v>
+        <v>0.431222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38064</v>
+        <v>0.31845</v>
       </c>
       <c r="D15" t="n">
-        <v>0.388093</v>
+        <v>0.317529</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.492471</v>
+        <v>0.410732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.373662</v>
+        <v>0.311633</v>
       </c>
       <c r="D16" t="n">
-        <v>0.386985</v>
+        <v>0.299774</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5137659999999999</v>
+        <v>0.406208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3652</v>
+        <v>0.307982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378075</v>
+        <v>0.29835</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.487109</v>
+        <v>0.404397</v>
       </c>
       <c r="C18" t="n">
-        <v>0.369668</v>
+        <v>0.301563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.368203</v>
+        <v>0.293195</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.492129</v>
+        <v>0.404483</v>
       </c>
       <c r="C19" t="n">
-        <v>0.346132</v>
+        <v>0.298965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.361233</v>
+        <v>0.293207</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475392</v>
+        <v>0.39275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.35445</v>
+        <v>0.294208</v>
       </c>
       <c r="D20" t="n">
-        <v>0.376743</v>
+        <v>0.286437</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.465017</v>
+        <v>0.396009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343707</v>
+        <v>0.286641</v>
       </c>
       <c r="D21" t="n">
-        <v>0.358568</v>
+        <v>0.284836</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45967</v>
+        <v>0.388649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.362792</v>
+        <v>0.285435</v>
       </c>
       <c r="D22" t="n">
-        <v>0.35663</v>
+        <v>0.283317</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.474209</v>
+        <v>0.389923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.352367</v>
+        <v>0.282969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.434809</v>
+        <v>0.379258</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.55442</v>
+        <v>0.472477</v>
       </c>
       <c r="C24" t="n">
-        <v>0.426147</v>
+        <v>0.368624</v>
       </c>
       <c r="D24" t="n">
-        <v>0.442928</v>
+        <v>0.370186</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.550453</v>
+        <v>0.461427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.420412</v>
+        <v>0.358002</v>
       </c>
       <c r="D25" t="n">
-        <v>0.438484</v>
+        <v>0.356006</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.546342</v>
+        <v>0.455967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.410883</v>
+        <v>0.349162</v>
       </c>
       <c r="D26" t="n">
-        <v>0.432535</v>
+        <v>0.345693</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.53689</v>
+        <v>0.452697</v>
       </c>
       <c r="C27" t="n">
-        <v>0.405091</v>
+        <v>0.348876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.405168</v>
+        <v>0.340772</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.531624</v>
+        <v>0.479668</v>
       </c>
       <c r="C28" t="n">
-        <v>0.395241</v>
+        <v>0.347697</v>
       </c>
       <c r="D28" t="n">
-        <v>0.406909</v>
+        <v>0.337003</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.512459</v>
+        <v>0.439388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.392851</v>
+        <v>0.343727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.392145</v>
+        <v>0.328425</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508636</v>
+        <v>0.456573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.385719</v>
+        <v>0.343715</v>
       </c>
       <c r="D30" t="n">
-        <v>0.400102</v>
+        <v>0.318116</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496031</v>
+        <v>0.432766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.376107</v>
+        <v>0.328796</v>
       </c>
       <c r="D31" t="n">
-        <v>0.388739</v>
+        <v>0.317323</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508051</v>
+        <v>0.432068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.391654</v>
+        <v>0.319829</v>
       </c>
       <c r="D32" t="n">
-        <v>0.390252</v>
+        <v>0.308809</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.485274</v>
+        <v>0.413457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.370525</v>
+        <v>0.319135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392405</v>
+        <v>0.310094</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.483308</v>
+        <v>0.409957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.365564</v>
+        <v>0.31319</v>
       </c>
       <c r="D34" t="n">
-        <v>0.38332</v>
+        <v>0.306302</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.493819</v>
+        <v>0.414055</v>
       </c>
       <c r="C35" t="n">
-        <v>0.351321</v>
+        <v>0.307555</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3702</v>
+        <v>0.306276</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.487658</v>
+        <v>0.410816</v>
       </c>
       <c r="C36" t="n">
-        <v>0.359088</v>
+        <v>0.308372</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36512</v>
+        <v>0.298638</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.471739</v>
+        <v>0.402376</v>
       </c>
       <c r="C37" t="n">
-        <v>0.367471</v>
+        <v>0.302863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.455311</v>
+        <v>0.390384</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.654009</v>
+        <v>0.574396</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527776</v>
+        <v>0.459763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452345</v>
+        <v>0.390334</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.645941</v>
+        <v>0.5649960000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5084959999999999</v>
+        <v>0.45314</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45012</v>
+        <v>0.372453</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.625347</v>
+        <v>0.546639</v>
       </c>
       <c r="C40" t="n">
-        <v>0.497958</v>
+        <v>0.443181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.438028</v>
+        <v>0.359718</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.623184</v>
+        <v>0.547629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.486476</v>
+        <v>0.432731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.438786</v>
+        <v>0.362332</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5990259999999999</v>
+        <v>0.5336109999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.477447</v>
+        <v>0.433993</v>
       </c>
       <c r="D42" t="n">
-        <v>0.433455</v>
+        <v>0.349574</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6040140000000001</v>
+        <v>0.5288350000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.477224</v>
+        <v>0.411391</v>
       </c>
       <c r="D43" t="n">
-        <v>0.412724</v>
+        <v>0.345716</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.591091</v>
+        <v>0.512166</v>
       </c>
       <c r="C44" t="n">
-        <v>0.458511</v>
+        <v>0.402293</v>
       </c>
       <c r="D44" t="n">
-        <v>0.414954</v>
+        <v>0.341643</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.593354</v>
+        <v>0.510135</v>
       </c>
       <c r="C45" t="n">
-        <v>0.44876</v>
+        <v>0.402055</v>
       </c>
       <c r="D45" t="n">
-        <v>0.399375</v>
+        <v>0.345303</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.578138</v>
+        <v>0.494091</v>
       </c>
       <c r="C46" t="n">
-        <v>0.44939</v>
+        <v>0.390579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408049</v>
+        <v>0.33167</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.56488</v>
+        <v>0.487924</v>
       </c>
       <c r="C47" t="n">
-        <v>0.438171</v>
+        <v>0.384524</v>
       </c>
       <c r="D47" t="n">
-        <v>0.393475</v>
+        <v>0.325584</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.55089</v>
+        <v>0.477077</v>
       </c>
       <c r="C48" t="n">
-        <v>0.42932</v>
+        <v>0.376489</v>
       </c>
       <c r="D48" t="n">
-        <v>0.390844</v>
+        <v>0.323271</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.55703</v>
+        <v>0.475451</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42228</v>
+        <v>0.372057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.389018</v>
+        <v>0.316837</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.557427</v>
+        <v>0.481496</v>
       </c>
       <c r="C50" t="n">
-        <v>0.41005</v>
+        <v>0.375254</v>
       </c>
       <c r="D50" t="n">
-        <v>0.402291</v>
+        <v>0.318866</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5396879999999999</v>
+        <v>0.464721</v>
       </c>
       <c r="C51" t="n">
-        <v>0.411981</v>
+        <v>0.363621</v>
       </c>
       <c r="D51" t="n">
-        <v>0.553787</v>
+        <v>0.485214</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.527053</v>
+        <v>0.468668</v>
       </c>
       <c r="C52" t="n">
-        <v>0.415434</v>
+        <v>0.360677</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537054</v>
+        <v>0.482356</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.725299</v>
+        <v>0.644188</v>
       </c>
       <c r="C53" t="n">
-        <v>0.591441</v>
+        <v>0.530868</v>
       </c>
       <c r="D53" t="n">
-        <v>0.530794</v>
+        <v>0.466509</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.700587</v>
+        <v>0.6294380000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.563374</v>
+        <v>0.511975</v>
       </c>
       <c r="D54" t="n">
-        <v>0.527339</v>
+        <v>0.449726</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.691875</v>
+        <v>0.623421</v>
       </c>
       <c r="C55" t="n">
-        <v>0.545068</v>
+        <v>0.517007</v>
       </c>
       <c r="D55" t="n">
-        <v>0.510914</v>
+        <v>0.456183</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.674262</v>
+        <v>0.6218</v>
       </c>
       <c r="C56" t="n">
-        <v>0.537797</v>
+        <v>0.482898</v>
       </c>
       <c r="D56" t="n">
-        <v>0.511983</v>
+        <v>0.435302</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.67422</v>
+        <v>0.597865</v>
       </c>
       <c r="C57" t="n">
-        <v>0.525983</v>
+        <v>0.473673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.508445</v>
+        <v>0.427538</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.656132</v>
+        <v>0.583103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.518904</v>
+        <v>0.465158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.485045</v>
+        <v>0.420216</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.645612</v>
+        <v>0.581243</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5050519999999999</v>
+        <v>0.457291</v>
       </c>
       <c r="D59" t="n">
-        <v>0.473343</v>
+        <v>0.405125</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.637889</v>
+        <v>0.5654979999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.500058</v>
+        <v>0.435331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.469827</v>
+        <v>0.396767</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.626997</v>
+        <v>0.584849</v>
       </c>
       <c r="C61" t="n">
-        <v>0.488825</v>
+        <v>0.43863</v>
       </c>
       <c r="D61" t="n">
-        <v>0.483119</v>
+        <v>0.396831</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609504</v>
+        <v>0.549098</v>
       </c>
       <c r="C62" t="n">
-        <v>0.484772</v>
+        <v>0.427455</v>
       </c>
       <c r="D62" t="n">
-        <v>0.468597</v>
+        <v>0.390665</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.641154</v>
+        <v>0.546857</v>
       </c>
       <c r="C63" t="n">
-        <v>0.481904</v>
+        <v>0.427437</v>
       </c>
       <c r="D63" t="n">
-        <v>0.462333</v>
+        <v>0.380564</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.594863</v>
+        <v>0.545856</v>
       </c>
       <c r="C64" t="n">
-        <v>0.474847</v>
+        <v>0.41003</v>
       </c>
       <c r="D64" t="n">
-        <v>0.455424</v>
+        <v>0.394773</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.619117</v>
+        <v>0.533572</v>
       </c>
       <c r="C65" t="n">
-        <v>0.465604</v>
+        <v>0.410691</v>
       </c>
       <c r="D65" t="n">
-        <v>0.454114</v>
+        <v>0.37918</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.579593</v>
+        <v>0.525645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.45585</v>
+        <v>0.405406</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6261409999999999</v>
+        <v>0.568974</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.772927</v>
+        <v>0.723445</v>
       </c>
       <c r="C67" t="n">
-        <v>0.630641</v>
+        <v>0.575639</v>
       </c>
       <c r="D67" t="n">
-        <v>0.621577</v>
+        <v>0.555476</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.770688</v>
+        <v>0.736329</v>
       </c>
       <c r="C68" t="n">
-        <v>0.632308</v>
+        <v>0.567645</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6060179999999999</v>
+        <v>0.525791</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.782785</v>
+        <v>0.71444</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6036049999999999</v>
+        <v>0.546452</v>
       </c>
       <c r="D69" t="n">
-        <v>0.607179</v>
+        <v>0.5226229999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.758441</v>
+        <v>0.712548</v>
       </c>
       <c r="C70" t="n">
-        <v>0.598788</v>
+        <v>0.548176</v>
       </c>
       <c r="D70" t="n">
-        <v>0.593769</v>
+        <v>0.52197</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.748896</v>
+        <v>0.694955</v>
       </c>
       <c r="C71" t="n">
-        <v>0.588588</v>
+        <v>0.5241400000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.578686</v>
+        <v>0.502873</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.728538</v>
+        <v>0.693618</v>
       </c>
       <c r="C72" t="n">
-        <v>0.587318</v>
+        <v>0.522459</v>
       </c>
       <c r="D72" t="n">
-        <v>0.574827</v>
+        <v>0.502464</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.727833</v>
+        <v>0.671525</v>
       </c>
       <c r="C73" t="n">
-        <v>0.579431</v>
+        <v>0.514952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.568363</v>
+        <v>0.485405</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7083120000000001</v>
+        <v>0.66267</v>
       </c>
       <c r="C74" t="n">
-        <v>0.575762</v>
+        <v>0.5070519999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.566682</v>
+        <v>0.481309</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.714472</v>
+        <v>0.67262</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5586179999999999</v>
+        <v>0.50441</v>
       </c>
       <c r="D75" t="n">
-        <v>0.563564</v>
+        <v>0.473539</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.703223</v>
+        <v>0.651872</v>
       </c>
       <c r="C76" t="n">
-        <v>0.564909</v>
+        <v>0.490114</v>
       </c>
       <c r="D76" t="n">
-        <v>0.569856</v>
+        <v>0.469518</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.710099</v>
+        <v>0.648567</v>
       </c>
       <c r="C77" t="n">
-        <v>0.545621</v>
+        <v>0.484347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.558876</v>
+        <v>0.45946</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.701196</v>
+        <v>0.650133</v>
       </c>
       <c r="C78" t="n">
-        <v>0.532125</v>
+        <v>0.49482</v>
       </c>
       <c r="D78" t="n">
-        <v>0.556741</v>
+        <v>0.457863</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.684663</v>
+        <v>0.6630509999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.531672</v>
+        <v>0.480542</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5454830000000001</v>
+        <v>0.454561</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.674339</v>
+        <v>0.639945</v>
       </c>
       <c r="C80" t="n">
-        <v>0.523482</v>
+        <v>0.473298</v>
       </c>
       <c r="D80" t="n">
-        <v>0.744768</v>
+        <v>0.658992</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.879141</v>
+        <v>0.854472</v>
       </c>
       <c r="C81" t="n">
-        <v>0.73323</v>
+        <v>0.660958</v>
       </c>
       <c r="D81" t="n">
-        <v>0.728067</v>
+        <v>0.645936</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.888763</v>
+        <v>0.843406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.726382</v>
+        <v>0.6689000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.736174</v>
+        <v>0.635676</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876807</v>
+        <v>0.851608</v>
       </c>
       <c r="C83" t="n">
-        <v>0.724029</v>
+        <v>0.660899</v>
       </c>
       <c r="D83" t="n">
-        <v>0.711646</v>
+        <v>0.646889</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.865494</v>
+        <v>0.83623</v>
       </c>
       <c r="C84" t="n">
-        <v>0.707511</v>
+        <v>0.637285</v>
       </c>
       <c r="D84" t="n">
-        <v>0.700275</v>
+        <v>0.610109</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.885</v>
+        <v>0.82973</v>
       </c>
       <c r="C85" t="n">
-        <v>0.710817</v>
+        <v>0.631876</v>
       </c>
       <c r="D85" t="n">
-        <v>0.702224</v>
+        <v>0.602302</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.839129</v>
+        <v>0.813236</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6907219999999999</v>
+        <v>0.628762</v>
       </c>
       <c r="D86" t="n">
-        <v>0.691425</v>
+        <v>0.602366</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.831087</v>
+        <v>0.80816</v>
       </c>
       <c r="C87" t="n">
-        <v>0.689458</v>
+        <v>0.614442</v>
       </c>
       <c r="D87" t="n">
-        <v>0.681536</v>
+        <v>0.580477</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.804746</v>
+        <v>0.799141</v>
       </c>
       <c r="C88" t="n">
-        <v>0.677941</v>
+        <v>0.595248</v>
       </c>
       <c r="D88" t="n">
-        <v>0.678279</v>
+        <v>0.572007</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819276</v>
+        <v>0.797953</v>
       </c>
       <c r="C89" t="n">
-        <v>0.660304</v>
+        <v>0.605975</v>
       </c>
       <c r="D89" t="n">
-        <v>0.66327</v>
+        <v>0.570509</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.798407</v>
+        <v>0.790023</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6629699999999999</v>
+        <v>0.596904</v>
       </c>
       <c r="D90" t="n">
-        <v>0.660559</v>
+        <v>0.562096</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.80391</v>
+        <v>0.79015</v>
       </c>
       <c r="C91" t="n">
-        <v>0.65256</v>
+        <v>0.597097</v>
       </c>
       <c r="D91" t="n">
-        <v>0.661147</v>
+        <v>0.5623629999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.812018</v>
+        <v>0.784123</v>
       </c>
       <c r="C92" t="n">
-        <v>0.641634</v>
+        <v>0.585278</v>
       </c>
       <c r="D92" t="n">
-        <v>0.647607</v>
+        <v>0.55783</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.792582</v>
+        <v>0.765613</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6361790000000001</v>
+        <v>0.56723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.653006</v>
+        <v>0.546438</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.800037</v>
+        <v>0.754831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.636315</v>
+        <v>0.569281</v>
       </c>
       <c r="D94" t="n">
-        <v>0.865629</v>
+        <v>0.774404</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9996429999999999</v>
+        <v>0.973944</v>
       </c>
       <c r="C95" t="n">
-        <v>0.833176</v>
+        <v>0.765169</v>
       </c>
       <c r="D95" t="n">
-        <v>0.86452</v>
+        <v>0.759394</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00567</v>
+        <v>0.970709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.857874</v>
+        <v>0.764656</v>
       </c>
       <c r="D96" t="n">
-        <v>0.855095</v>
+        <v>0.74149</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.00486</v>
+        <v>0.967445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.845985</v>
+        <v>0.762543</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8490799999999999</v>
+        <v>0.737963</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.988247</v>
+        <v>0.971911</v>
       </c>
       <c r="C98" t="n">
-        <v>0.823059</v>
+        <v>0.765964</v>
       </c>
       <c r="D98" t="n">
-        <v>0.839107</v>
+        <v>0.740644</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0077</v>
+        <v>0.93279</v>
       </c>
       <c r="C99" t="n">
-        <v>0.842341</v>
+        <v>0.770312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.833371</v>
+        <v>0.729007</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9763770000000001</v>
+        <v>0.942122</v>
       </c>
       <c r="C100" t="n">
-        <v>0.832372</v>
+        <v>0.761725</v>
       </c>
       <c r="D100" t="n">
-        <v>0.826796</v>
+        <v>0.7280180000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.967458</v>
+        <v>0.956437</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8102</v>
+        <v>0.744363</v>
       </c>
       <c r="D101" t="n">
-        <v>0.822264</v>
+        <v>0.701028</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.965472</v>
+        <v>0.938584</v>
       </c>
       <c r="C102" t="n">
-        <v>0.80436</v>
+        <v>0.727196</v>
       </c>
       <c r="D102" t="n">
-        <v>0.799105</v>
+        <v>0.69908</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9562310000000001</v>
+        <v>0.929244</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7960469999999999</v>
+        <v>0.730205</v>
       </c>
       <c r="D103" t="n">
-        <v>0.805347</v>
+        <v>0.68679</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.95903</v>
+        <v>0.9281740000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.798517</v>
+        <v>0.728893</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7866109999999999</v>
+        <v>0.689895</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.942312</v>
+        <v>0.916539</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7930779999999999</v>
+        <v>0.709822</v>
       </c>
       <c r="D105" t="n">
-        <v>0.782775</v>
+        <v>0.684976</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.948379</v>
+        <v>0.944933</v>
       </c>
       <c r="C106" t="n">
-        <v>0.79193</v>
+        <v>0.714225</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7721519999999999</v>
+        <v>0.66886</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923727</v>
+        <v>0.904456</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7780010000000001</v>
+        <v>0.687771</v>
       </c>
       <c r="D107" t="n">
-        <v>0.77859</v>
+        <v>0.651141</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9232669999999999</v>
+        <v>0.88606</v>
       </c>
       <c r="C108" t="n">
-        <v>0.763194</v>
+        <v>0.6813979999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99221</v>
+        <v>0.873965</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.927</v>
+        <v>0.9200430000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.771237</v>
+        <v>0.704146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.986541</v>
+        <v>0.909586</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11465</v>
+        <v>1.15754</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9835930000000001</v>
+        <v>0.918795</v>
       </c>
       <c r="D110" t="n">
-        <v>0.98202</v>
+        <v>0.909458</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.15568</v>
+        <v>1.16149</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01284</v>
+        <v>0.939431</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9763810000000001</v>
+        <v>0.91486</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1519</v>
+        <v>1.17358</v>
       </c>
       <c r="C112" t="n">
-        <v>1.00221</v>
+        <v>0.918573</v>
       </c>
       <c r="D112" t="n">
-        <v>0.96597</v>
+        <v>0.900282</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11317</v>
+        <v>1.16841</v>
       </c>
       <c r="C113" t="n">
-        <v>0.993639</v>
+        <v>0.942157</v>
       </c>
       <c r="D113" t="n">
-        <v>0.963316</v>
+        <v>0.876671</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10765</v>
+        <v>1.1757</v>
       </c>
       <c r="C114" t="n">
-        <v>0.977815</v>
+        <v>0.90603</v>
       </c>
       <c r="D114" t="n">
-        <v>0.965108</v>
+        <v>0.889576</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12335</v>
+        <v>1.15306</v>
       </c>
       <c r="C115" t="n">
-        <v>0.948817</v>
+        <v>0.93016</v>
       </c>
       <c r="D115" t="n">
-        <v>0.941752</v>
+        <v>0.857313</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1393</v>
+        <v>1.14615</v>
       </c>
       <c r="C116" t="n">
-        <v>0.962543</v>
+        <v>0.916098</v>
       </c>
       <c r="D116" t="n">
-        <v>0.926669</v>
+        <v>0.870427</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10038</v>
+        <v>1.14679</v>
       </c>
       <c r="C117" t="n">
-        <v>0.97654</v>
+        <v>0.910745</v>
       </c>
       <c r="D117" t="n">
-        <v>0.937256</v>
+        <v>0.8549060000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.12658</v>
+        <v>1.15232</v>
       </c>
       <c r="C118" t="n">
-        <v>0.961523</v>
+        <v>0.929969</v>
       </c>
       <c r="D118" t="n">
-        <v>0.925517</v>
+        <v>0.856576</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10711</v>
+        <v>1.15003</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9625280000000001</v>
+        <v>0.898562</v>
       </c>
       <c r="D119" t="n">
-        <v>0.920658</v>
+        <v>0.861381</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09995</v>
+        <v>1.16257</v>
       </c>
       <c r="C120" t="n">
-        <v>0.960779</v>
+        <v>0.887958</v>
       </c>
       <c r="D120" t="n">
-        <v>0.912884</v>
+        <v>0.847932</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10018</v>
+        <v>1.14539</v>
       </c>
       <c r="C121" t="n">
-        <v>0.948041</v>
+        <v>0.889247</v>
       </c>
       <c r="D121" t="n">
-        <v>0.907067</v>
+        <v>0.860985</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.12434</v>
+        <v>1.16261</v>
       </c>
       <c r="C122" t="n">
-        <v>0.952862</v>
+        <v>0.906671</v>
       </c>
       <c r="D122" t="n">
-        <v>0.919705</v>
+        <v>0.840811</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10614</v>
+        <v>1.15217</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9564279999999999</v>
+        <v>0.899294</v>
       </c>
       <c r="D123" t="n">
-        <v>1.13208</v>
+        <v>1.11971</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32645</v>
+        <v>1.38415</v>
       </c>
       <c r="C124" t="n">
-        <v>1.16522</v>
+        <v>1.10761</v>
       </c>
       <c r="D124" t="n">
-        <v>1.14503</v>
+        <v>1.07431</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32774</v>
+        <v>1.35919</v>
       </c>
       <c r="C125" t="n">
-        <v>1.18725</v>
+        <v>1.10342</v>
       </c>
       <c r="D125" t="n">
-        <v>1.12755</v>
+        <v>1.07012</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34907</v>
+        <v>1.37876</v>
       </c>
       <c r="C126" t="n">
-        <v>1.19546</v>
+        <v>1.13412</v>
       </c>
       <c r="D126" t="n">
-        <v>1.15501</v>
+        <v>1.10612</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.35125</v>
+        <v>1.4097</v>
       </c>
       <c r="C127" t="n">
-        <v>1.18578</v>
+        <v>1.12681</v>
       </c>
       <c r="D127" t="n">
-        <v>1.1197</v>
+        <v>1.10156</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.35674</v>
+        <v>1.40512</v>
       </c>
       <c r="C128" t="n">
-        <v>1.17299</v>
+        <v>1.12574</v>
       </c>
       <c r="D128" t="n">
-        <v>1.16198</v>
+        <v>1.08139</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35026</v>
+        <v>1.44364</v>
       </c>
       <c r="C129" t="n">
-        <v>1.19812</v>
+        <v>1.14762</v>
       </c>
       <c r="D129" t="n">
-        <v>1.13309</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34915</v>
+        <v>1.44096</v>
       </c>
       <c r="C130" t="n">
-        <v>1.17204</v>
+        <v>1.14801</v>
       </c>
       <c r="D130" t="n">
-        <v>1.14679</v>
+        <v>1.08744</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35343</v>
+        <v>1.41668</v>
       </c>
       <c r="C131" t="n">
-        <v>1.18213</v>
+        <v>1.13514</v>
       </c>
       <c r="D131" t="n">
-        <v>1.12521</v>
+        <v>1.08646</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.34371</v>
+        <v>1.44933</v>
       </c>
       <c r="C132" t="n">
-        <v>1.17002</v>
+        <v>1.13877</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1188</v>
+        <v>1.07392</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35371</v>
+        <v>1.43608</v>
       </c>
       <c r="C133" t="n">
-        <v>1.21564</v>
+        <v>1.13253</v>
       </c>
       <c r="D133" t="n">
-        <v>1.15281</v>
+        <v>1.09344</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.36387</v>
+        <v>1.4576</v>
       </c>
       <c r="C134" t="n">
-        <v>1.17947</v>
+        <v>1.14337</v>
       </c>
       <c r="D134" t="n">
-        <v>1.12857</v>
+        <v>1.0855</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34493</v>
+        <v>1.45712</v>
       </c>
       <c r="C135" t="n">
-        <v>1.20194</v>
+        <v>1.14838</v>
       </c>
       <c r="D135" t="n">
-        <v>1.13198</v>
+        <v>1.0992</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37604</v>
+        <v>1.44514</v>
       </c>
       <c r="C136" t="n">
-        <v>1.19742</v>
+        <v>1.14515</v>
       </c>
       <c r="D136" t="n">
-        <v>1.15365</v>
+        <v>1.0929</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36771</v>
+        <v>1.46246</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2004</v>
+        <v>1.14289</v>
       </c>
       <c r="D137" t="n">
-        <v>1.67723</v>
+        <v>1.35088</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.61435</v>
+        <v>1.69257</v>
       </c>
       <c r="C138" t="n">
-        <v>1.40907</v>
+        <v>1.36904</v>
       </c>
       <c r="D138" t="n">
-        <v>1.38584</v>
+        <v>1.34122</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.59599</v>
+        <v>1.6873</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43371</v>
+        <v>1.36297</v>
       </c>
       <c r="D139" t="n">
-        <v>1.36801</v>
+        <v>1.33739</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6096</v>
+        <v>1.69557</v>
       </c>
       <c r="C140" t="n">
-        <v>1.41764</v>
+        <v>1.37937</v>
       </c>
       <c r="D140" t="n">
-        <v>1.37383</v>
+        <v>1.3376</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6029</v>
+        <v>1.72848</v>
       </c>
       <c r="C141" t="n">
-        <v>1.41002</v>
+        <v>1.36808</v>
       </c>
       <c r="D141" t="n">
-        <v>1.37067</v>
+        <v>1.33781</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61587</v>
+        <v>1.73497</v>
       </c>
       <c r="C142" t="n">
-        <v>1.41272</v>
+        <v>1.38454</v>
       </c>
       <c r="D142" t="n">
-        <v>1.37909</v>
+        <v>1.34011</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60639</v>
+        <v>1.76129</v>
       </c>
       <c r="C143" t="n">
-        <v>1.41737</v>
+        <v>1.38593</v>
       </c>
       <c r="D143" t="n">
-        <v>1.38393</v>
+        <v>1.35026</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.410361</v>
+        <v>0.466498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.302196</v>
+        <v>0.29557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29213</v>
+        <v>0.288002</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.398743</v>
+        <v>0.428134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290504</v>
+        <v>0.287196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.279254</v>
+        <v>0.286805</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.389813</v>
+        <v>0.407164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278486</v>
+        <v>0.288709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.270287</v>
+        <v>0.283674</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.382596</v>
+        <v>0.404319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279743</v>
+        <v>0.287667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.276912</v>
+        <v>0.290799</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387479</v>
+        <v>0.40406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.283857</v>
+        <v>0.275506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.266465</v>
+        <v>0.278119</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.377412</v>
+        <v>0.411801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.279368</v>
+        <v>0.279786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.270269</v>
+        <v>0.269773</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.371762</v>
+        <v>0.3895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.273577</v>
+        <v>0.272429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.264329</v>
+        <v>0.278274</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.370946</v>
+        <v>0.398627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267944</v>
+        <v>0.275159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.346872</v>
+        <v>0.364481</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.458233</v>
+        <v>0.477407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.354731</v>
+        <v>0.372252</v>
       </c>
       <c r="D10" t="n">
-        <v>0.338429</v>
+        <v>0.352769</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.459632</v>
+        <v>0.477624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349838</v>
+        <v>0.361472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.33466</v>
+        <v>0.346826</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.455005</v>
+        <v>0.469164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.348325</v>
+        <v>0.34958</v>
       </c>
       <c r="D12" t="n">
-        <v>0.329586</v>
+        <v>0.35258</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434333</v>
+        <v>0.47116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333886</v>
+        <v>0.341758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318644</v>
+        <v>0.329101</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.437752</v>
+        <v>0.467397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.327371</v>
+        <v>0.324815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.313615</v>
+        <v>0.322475</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.431222</v>
+        <v>0.447283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.31845</v>
+        <v>0.319415</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317529</v>
+        <v>0.315308</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.410732</v>
+        <v>0.441917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.311633</v>
+        <v>0.308471</v>
       </c>
       <c r="D16" t="n">
-        <v>0.299774</v>
+        <v>0.307373</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.406208</v>
+        <v>0.430377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.307982</v>
+        <v>0.306417</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29835</v>
+        <v>0.296097</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.404397</v>
+        <v>0.422064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.301563</v>
+        <v>0.299317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293195</v>
+        <v>0.295342</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.404483</v>
+        <v>0.437989</v>
       </c>
       <c r="C19" t="n">
-        <v>0.298965</v>
+        <v>0.291817</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293207</v>
+        <v>0.299073</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.39275</v>
+        <v>0.41779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294208</v>
+        <v>0.288725</v>
       </c>
       <c r="D20" t="n">
-        <v>0.286437</v>
+        <v>0.284959</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396009</v>
+        <v>0.414108</v>
       </c>
       <c r="C21" t="n">
-        <v>0.286641</v>
+        <v>0.284835</v>
       </c>
       <c r="D21" t="n">
-        <v>0.284836</v>
+        <v>0.28709</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.388649</v>
+        <v>0.40315</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285435</v>
+        <v>0.280721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.283317</v>
+        <v>0.284442</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.389923</v>
+        <v>0.422732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.282969</v>
+        <v>0.281126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.379258</v>
+        <v>0.391123</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.472477</v>
+        <v>0.642235</v>
       </c>
       <c r="C24" t="n">
-        <v>0.368624</v>
+        <v>0.527347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.370186</v>
+        <v>0.372682</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.461427</v>
+        <v>0.653827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.358002</v>
+        <v>0.521459</v>
       </c>
       <c r="D25" t="n">
-        <v>0.356006</v>
+        <v>0.367974</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.455967</v>
+        <v>0.636911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349162</v>
+        <v>0.500121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.345693</v>
+        <v>0.359269</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.452697</v>
+        <v>0.614569</v>
       </c>
       <c r="C27" t="n">
-        <v>0.348876</v>
+        <v>0.483985</v>
       </c>
       <c r="D27" t="n">
-        <v>0.340772</v>
+        <v>0.342058</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.479668</v>
+        <v>0.601762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.347697</v>
+        <v>0.462468</v>
       </c>
       <c r="D28" t="n">
-        <v>0.337003</v>
+        <v>0.331101</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.439388</v>
+        <v>0.591342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.343727</v>
+        <v>0.455545</v>
       </c>
       <c r="D29" t="n">
-        <v>0.328425</v>
+        <v>0.329885</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.456573</v>
+        <v>0.564912</v>
       </c>
       <c r="C30" t="n">
-        <v>0.343715</v>
+        <v>0.447539</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318116</v>
+        <v>0.328767</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.432766</v>
+        <v>0.569766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.328796</v>
+        <v>0.433496</v>
       </c>
       <c r="D31" t="n">
-        <v>0.317323</v>
+        <v>0.319685</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.432068</v>
+        <v>0.5478460000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319829</v>
+        <v>0.416857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308809</v>
+        <v>0.315393</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.413457</v>
+        <v>0.540965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.319135</v>
+        <v>0.402467</v>
       </c>
       <c r="D33" t="n">
-        <v>0.310094</v>
+        <v>0.296195</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.409957</v>
+        <v>0.528122</v>
       </c>
       <c r="C34" t="n">
-        <v>0.31319</v>
+        <v>0.393993</v>
       </c>
       <c r="D34" t="n">
-        <v>0.306302</v>
+        <v>0.302227</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.414055</v>
+        <v>0.517272</v>
       </c>
       <c r="C35" t="n">
-        <v>0.307555</v>
+        <v>0.383033</v>
       </c>
       <c r="D35" t="n">
-        <v>0.306276</v>
+        <v>0.293282</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.410816</v>
+        <v>0.51822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.308372</v>
+        <v>0.373918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.298638</v>
+        <v>0.29476</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.402376</v>
+        <v>0.502846</v>
       </c>
       <c r="C37" t="n">
-        <v>0.302863</v>
+        <v>0.370757</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390384</v>
+        <v>0.542072</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.574396</v>
+        <v>0.75444</v>
       </c>
       <c r="C38" t="n">
-        <v>0.459763</v>
+        <v>0.643981</v>
       </c>
       <c r="D38" t="n">
-        <v>0.390334</v>
+        <v>0.5335569999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5649960000000001</v>
+        <v>0.7491</v>
       </c>
       <c r="C39" t="n">
-        <v>0.45314</v>
+        <v>0.626553</v>
       </c>
       <c r="D39" t="n">
-        <v>0.372453</v>
+        <v>0.518302</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.546639</v>
+        <v>0.728108</v>
       </c>
       <c r="C40" t="n">
-        <v>0.443181</v>
+        <v>0.597732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.359718</v>
+        <v>0.503385</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.547629</v>
+        <v>0.710626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.432731</v>
+        <v>0.58217</v>
       </c>
       <c r="D41" t="n">
-        <v>0.362332</v>
+        <v>0.489951</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5336109999999999</v>
+        <v>0.697767</v>
       </c>
       <c r="C42" t="n">
-        <v>0.433993</v>
+        <v>0.563262</v>
       </c>
       <c r="D42" t="n">
-        <v>0.349574</v>
+        <v>0.472355</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5288350000000001</v>
+        <v>0.6898339999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.411391</v>
+        <v>0.54237</v>
       </c>
       <c r="D43" t="n">
-        <v>0.345716</v>
+        <v>0.465448</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.512166</v>
+        <v>0.666754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.402293</v>
+        <v>0.532241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.341643</v>
+        <v>0.44646</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510135</v>
+        <v>0.650912</v>
       </c>
       <c r="C45" t="n">
-        <v>0.402055</v>
+        <v>0.50989</v>
       </c>
       <c r="D45" t="n">
-        <v>0.345303</v>
+        <v>0.436793</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.494091</v>
+        <v>0.641996</v>
       </c>
       <c r="C46" t="n">
-        <v>0.390579</v>
+        <v>0.494465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.33167</v>
+        <v>0.426055</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487924</v>
+        <v>0.631288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.384524</v>
+        <v>0.487306</v>
       </c>
       <c r="D47" t="n">
-        <v>0.325584</v>
+        <v>0.42481</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477077</v>
+        <v>0.606646</v>
       </c>
       <c r="C48" t="n">
-        <v>0.376489</v>
+        <v>0.476906</v>
       </c>
       <c r="D48" t="n">
-        <v>0.323271</v>
+        <v>0.405302</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.475451</v>
+        <v>0.6065739999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.372057</v>
+        <v>0.459566</v>
       </c>
       <c r="D49" t="n">
-        <v>0.316837</v>
+        <v>0.39547</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.481496</v>
+        <v>0.607974</v>
       </c>
       <c r="C50" t="n">
-        <v>0.375254</v>
+        <v>0.44816</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318866</v>
+        <v>0.393477</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.464721</v>
+        <v>0.570888</v>
       </c>
       <c r="C51" t="n">
-        <v>0.363621</v>
+        <v>0.443379</v>
       </c>
       <c r="D51" t="n">
-        <v>0.485214</v>
+        <v>0.659515</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468668</v>
+        <v>0.576596</v>
       </c>
       <c r="C52" t="n">
-        <v>0.360677</v>
+        <v>0.442608</v>
       </c>
       <c r="D52" t="n">
-        <v>0.482356</v>
+        <v>0.653073</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.644188</v>
+        <v>0.831125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.530868</v>
+        <v>0.690005</v>
       </c>
       <c r="D53" t="n">
-        <v>0.466509</v>
+        <v>0.626574</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6294380000000001</v>
+        <v>0.8132779999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.511975</v>
+        <v>0.677614</v>
       </c>
       <c r="D54" t="n">
-        <v>0.449726</v>
+        <v>0.621629</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.623421</v>
+        <v>0.796668</v>
       </c>
       <c r="C55" t="n">
-        <v>0.517007</v>
+        <v>0.66765</v>
       </c>
       <c r="D55" t="n">
-        <v>0.456183</v>
+        <v>0.613791</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6218</v>
+        <v>0.787206</v>
       </c>
       <c r="C56" t="n">
-        <v>0.482898</v>
+        <v>0.648042</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435302</v>
+        <v>0.583917</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.597865</v>
+        <v>0.765339</v>
       </c>
       <c r="C57" t="n">
-        <v>0.473673</v>
+        <v>0.612254</v>
       </c>
       <c r="D57" t="n">
-        <v>0.427538</v>
+        <v>0.573782</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.583103</v>
+        <v>0.7502180000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.465158</v>
+        <v>0.61271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420216</v>
+        <v>0.572211</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.581243</v>
+        <v>0.755706</v>
       </c>
       <c r="C59" t="n">
-        <v>0.457291</v>
+        <v>0.590042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.405125</v>
+        <v>0.556146</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5654979999999999</v>
+        <v>0.732144</v>
       </c>
       <c r="C60" t="n">
-        <v>0.435331</v>
+        <v>0.5816249999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.396767</v>
+        <v>0.5363</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.584849</v>
+        <v>0.711305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.43863</v>
+        <v>0.5716599999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.396831</v>
+        <v>0.522761</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.549098</v>
+        <v>0.709431</v>
       </c>
       <c r="C62" t="n">
-        <v>0.427455</v>
+        <v>0.556691</v>
       </c>
       <c r="D62" t="n">
-        <v>0.390665</v>
+        <v>0.510549</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.546857</v>
+        <v>0.693709</v>
       </c>
       <c r="C63" t="n">
-        <v>0.427437</v>
+        <v>0.543378</v>
       </c>
       <c r="D63" t="n">
-        <v>0.380564</v>
+        <v>0.513474</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.545856</v>
+        <v>0.6967449999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.41003</v>
+        <v>0.542191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.394773</v>
+        <v>0.502712</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.533572</v>
+        <v>0.687639</v>
       </c>
       <c r="C65" t="n">
-        <v>0.410691</v>
+        <v>0.519968</v>
       </c>
       <c r="D65" t="n">
-        <v>0.37918</v>
+        <v>0.49066</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.525645</v>
+        <v>0.6782049999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405406</v>
+        <v>0.529467</v>
       </c>
       <c r="D66" t="n">
-        <v>0.568974</v>
+        <v>0.7888849999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.723445</v>
+        <v>0.943843</v>
       </c>
       <c r="C67" t="n">
-        <v>0.575639</v>
+        <v>0.7988769999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.555476</v>
+        <v>0.745859</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.736329</v>
+        <v>0.9255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.567645</v>
+        <v>0.767364</v>
       </c>
       <c r="D68" t="n">
-        <v>0.525791</v>
+        <v>0.741551</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.71444</v>
+        <v>0.920079</v>
       </c>
       <c r="C69" t="n">
-        <v>0.546452</v>
+        <v>0.751706</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5226229999999999</v>
+        <v>0.721181</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.712548</v>
+        <v>0.9059199999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.548176</v>
+        <v>0.735217</v>
       </c>
       <c r="D70" t="n">
-        <v>0.52197</v>
+        <v>0.697086</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.694955</v>
+        <v>0.8922909999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5241400000000001</v>
+        <v>0.7325660000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.502873</v>
+        <v>0.67797</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.693618</v>
+        <v>0.886373</v>
       </c>
       <c r="C72" t="n">
-        <v>0.522459</v>
+        <v>0.729353</v>
       </c>
       <c r="D72" t="n">
-        <v>0.502464</v>
+        <v>0.667157</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.671525</v>
+        <v>0.869022</v>
       </c>
       <c r="C73" t="n">
-        <v>0.514952</v>
+        <v>0.696882</v>
       </c>
       <c r="D73" t="n">
-        <v>0.485405</v>
+        <v>0.665652</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.66267</v>
+        <v>0.848064</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5070519999999999</v>
+        <v>0.676594</v>
       </c>
       <c r="D74" t="n">
-        <v>0.481309</v>
+        <v>0.637396</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.67262</v>
+        <v>0.833819</v>
       </c>
       <c r="C75" t="n">
-        <v>0.50441</v>
+        <v>0.653618</v>
       </c>
       <c r="D75" t="n">
-        <v>0.473539</v>
+        <v>0.634359</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.651872</v>
+        <v>0.807664</v>
       </c>
       <c r="C76" t="n">
-        <v>0.490114</v>
+        <v>0.645892</v>
       </c>
       <c r="D76" t="n">
-        <v>0.469518</v>
+        <v>0.616214</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.648567</v>
+        <v>0.804799</v>
       </c>
       <c r="C77" t="n">
-        <v>0.484347</v>
+        <v>0.632835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.45946</v>
+        <v>0.6047979999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.650133</v>
+        <v>0.798247</v>
       </c>
       <c r="C78" t="n">
-        <v>0.49482</v>
+        <v>0.623047</v>
       </c>
       <c r="D78" t="n">
-        <v>0.457863</v>
+        <v>0.593356</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6630509999999999</v>
+        <v>0.805914</v>
       </c>
       <c r="C79" t="n">
-        <v>0.480542</v>
+        <v>0.619356</v>
       </c>
       <c r="D79" t="n">
-        <v>0.454561</v>
+        <v>0.588592</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.639945</v>
+        <v>0.775489</v>
       </c>
       <c r="C80" t="n">
-        <v>0.473298</v>
+        <v>0.6110370000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.658992</v>
+        <v>0.924683</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.854472</v>
+        <v>1.09066</v>
       </c>
       <c r="C81" t="n">
-        <v>0.660958</v>
+        <v>0.940835</v>
       </c>
       <c r="D81" t="n">
-        <v>0.645936</v>
+        <v>0.902008</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.843406</v>
+        <v>1.0671</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6689000000000001</v>
+        <v>0.914713</v>
       </c>
       <c r="D82" t="n">
-        <v>0.635676</v>
+        <v>0.875603</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.851608</v>
+        <v>1.06305</v>
       </c>
       <c r="C83" t="n">
-        <v>0.660899</v>
+        <v>0.9014259999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.646889</v>
+        <v>0.873024</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.83623</v>
+        <v>1.02125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.637285</v>
+        <v>0.86583</v>
       </c>
       <c r="D84" t="n">
-        <v>0.610109</v>
+        <v>0.842078</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.82973</v>
+        <v>1.02051</v>
       </c>
       <c r="C85" t="n">
-        <v>0.631876</v>
+        <v>0.86291</v>
       </c>
       <c r="D85" t="n">
-        <v>0.602302</v>
+        <v>0.814715</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.813236</v>
+        <v>1.00513</v>
       </c>
       <c r="C86" t="n">
-        <v>0.628762</v>
+        <v>0.837903</v>
       </c>
       <c r="D86" t="n">
-        <v>0.602366</v>
+        <v>0.795351</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.80816</v>
+        <v>0.98276</v>
       </c>
       <c r="C87" t="n">
-        <v>0.614442</v>
+        <v>0.809799</v>
       </c>
       <c r="D87" t="n">
-        <v>0.580477</v>
+        <v>0.789031</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.799141</v>
+        <v>0.954997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.595248</v>
+        <v>0.799693</v>
       </c>
       <c r="D88" t="n">
-        <v>0.572007</v>
+        <v>0.765894</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.797953</v>
+        <v>0.994784</v>
       </c>
       <c r="C89" t="n">
-        <v>0.605975</v>
+        <v>0.80809</v>
       </c>
       <c r="D89" t="n">
-        <v>0.570509</v>
+        <v>0.741016</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.790023</v>
+        <v>0.942944</v>
       </c>
       <c r="C90" t="n">
-        <v>0.596904</v>
+        <v>0.769661</v>
       </c>
       <c r="D90" t="n">
-        <v>0.562096</v>
+        <v>0.725256</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79015</v>
+        <v>0.933537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597097</v>
+        <v>0.7582410000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5623629999999999</v>
+        <v>0.722424</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.784123</v>
+        <v>0.9358340000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.585278</v>
+        <v>0.7453920000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.55783</v>
+        <v>0.708993</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.765613</v>
+        <v>0.913678</v>
       </c>
       <c r="C93" t="n">
-        <v>0.56723</v>
+        <v>0.73889</v>
       </c>
       <c r="D93" t="n">
-        <v>0.546438</v>
+        <v>0.726533</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.754831</v>
+        <v>0.891604</v>
       </c>
       <c r="C94" t="n">
-        <v>0.569281</v>
+        <v>0.723699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.774404</v>
+        <v>1.03527</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.973944</v>
+        <v>1.20704</v>
       </c>
       <c r="C95" t="n">
-        <v>0.765169</v>
+        <v>1.05451</v>
       </c>
       <c r="D95" t="n">
-        <v>0.759394</v>
+        <v>0.985641</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.970709</v>
+        <v>1.19883</v>
       </c>
       <c r="C96" t="n">
-        <v>0.764656</v>
+        <v>1.02897</v>
       </c>
       <c r="D96" t="n">
-        <v>0.74149</v>
+        <v>0.972217</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.967445</v>
+        <v>1.17712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.762543</v>
+        <v>1.0153</v>
       </c>
       <c r="D97" t="n">
-        <v>0.737963</v>
+        <v>0.945906</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.971911</v>
+        <v>1.15178</v>
       </c>
       <c r="C98" t="n">
-        <v>0.765964</v>
+        <v>0.990023</v>
       </c>
       <c r="D98" t="n">
-        <v>0.740644</v>
+        <v>0.934682</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.93279</v>
+        <v>1.17917</v>
       </c>
       <c r="C99" t="n">
-        <v>0.770312</v>
+        <v>0.980943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.729007</v>
+        <v>0.917571</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.942122</v>
+        <v>1.11939</v>
       </c>
       <c r="C100" t="n">
-        <v>0.761725</v>
+        <v>0.953054</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7280180000000001</v>
+        <v>0.8899010000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.956437</v>
+        <v>1.12262</v>
       </c>
       <c r="C101" t="n">
-        <v>0.744363</v>
+        <v>0.9362549999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.701028</v>
+        <v>0.899336</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.938584</v>
+        <v>1.10454</v>
       </c>
       <c r="C102" t="n">
-        <v>0.727196</v>
+        <v>0.924135</v>
       </c>
       <c r="D102" t="n">
-        <v>0.69908</v>
+        <v>0.8649520000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.929244</v>
+        <v>1.09889</v>
       </c>
       <c r="C103" t="n">
-        <v>0.730205</v>
+        <v>0.911425</v>
       </c>
       <c r="D103" t="n">
-        <v>0.68679</v>
+        <v>0.888024</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9281740000000001</v>
+        <v>1.08196</v>
       </c>
       <c r="C104" t="n">
-        <v>0.728893</v>
+        <v>0.914273</v>
       </c>
       <c r="D104" t="n">
-        <v>0.689895</v>
+        <v>0.847485</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.916539</v>
+        <v>1.07198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.709822</v>
+        <v>0.897657</v>
       </c>
       <c r="D105" t="n">
-        <v>0.684976</v>
+        <v>0.8504119999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.944933</v>
+        <v>1.05322</v>
       </c>
       <c r="C106" t="n">
-        <v>0.714225</v>
+        <v>0.883899</v>
       </c>
       <c r="D106" t="n">
-        <v>0.66886</v>
+        <v>0.837869</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.904456</v>
+        <v>1.04501</v>
       </c>
       <c r="C107" t="n">
-        <v>0.687771</v>
+        <v>0.8658360000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.651141</v>
+        <v>0.811314</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.88606</v>
+        <v>1.04344</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6813979999999999</v>
+        <v>0.866412</v>
       </c>
       <c r="D108" t="n">
-        <v>0.873965</v>
+        <v>1.17994</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9200430000000001</v>
+        <v>1.03539</v>
       </c>
       <c r="C109" t="n">
-        <v>0.704146</v>
+        <v>0.868323</v>
       </c>
       <c r="D109" t="n">
-        <v>0.909586</v>
+        <v>1.15306</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15754</v>
+        <v>1.35373</v>
       </c>
       <c r="C110" t="n">
-        <v>0.918795</v>
+        <v>1.19363</v>
       </c>
       <c r="D110" t="n">
-        <v>0.909458</v>
+        <v>1.12459</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16149</v>
+        <v>1.32144</v>
       </c>
       <c r="C111" t="n">
-        <v>0.939431</v>
+        <v>1.17103</v>
       </c>
       <c r="D111" t="n">
-        <v>0.91486</v>
+        <v>1.1072</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17358</v>
+        <v>1.32328</v>
       </c>
       <c r="C112" t="n">
-        <v>0.918573</v>
+        <v>1.18073</v>
       </c>
       <c r="D112" t="n">
-        <v>0.900282</v>
+        <v>1.11318</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16841</v>
+        <v>1.31474</v>
       </c>
       <c r="C113" t="n">
-        <v>0.942157</v>
+        <v>1.15841</v>
       </c>
       <c r="D113" t="n">
-        <v>0.876671</v>
+        <v>1.08999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1757</v>
+        <v>1.31295</v>
       </c>
       <c r="C114" t="n">
-        <v>0.90603</v>
+        <v>1.13725</v>
       </c>
       <c r="D114" t="n">
-        <v>0.889576</v>
+        <v>1.09542</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15306</v>
+        <v>1.31293</v>
       </c>
       <c r="C115" t="n">
-        <v>0.93016</v>
+        <v>1.12274</v>
       </c>
       <c r="D115" t="n">
-        <v>0.857313</v>
+        <v>1.0896</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.14615</v>
+        <v>1.27032</v>
       </c>
       <c r="C116" t="n">
-        <v>0.916098</v>
+        <v>1.13576</v>
       </c>
       <c r="D116" t="n">
-        <v>0.870427</v>
+        <v>1.04508</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.14679</v>
+        <v>1.28255</v>
       </c>
       <c r="C117" t="n">
-        <v>0.910745</v>
+        <v>1.09286</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8549060000000001</v>
+        <v>1.04097</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.15232</v>
+        <v>1.28074</v>
       </c>
       <c r="C118" t="n">
-        <v>0.929969</v>
+        <v>1.09337</v>
       </c>
       <c r="D118" t="n">
-        <v>0.856576</v>
+        <v>1.01786</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15003</v>
+        <v>1.28547</v>
       </c>
       <c r="C119" t="n">
-        <v>0.898562</v>
+        <v>1.10215</v>
       </c>
       <c r="D119" t="n">
-        <v>0.861381</v>
+        <v>1.04149</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16257</v>
+        <v>1.26983</v>
       </c>
       <c r="C120" t="n">
-        <v>0.887958</v>
+        <v>1.07288</v>
       </c>
       <c r="D120" t="n">
-        <v>0.847932</v>
+        <v>1.01156</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14539</v>
+        <v>1.26539</v>
       </c>
       <c r="C121" t="n">
-        <v>0.889247</v>
+        <v>1.07884</v>
       </c>
       <c r="D121" t="n">
-        <v>0.860985</v>
+        <v>1.03309</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16261</v>
+        <v>1.2637</v>
       </c>
       <c r="C122" t="n">
-        <v>0.906671</v>
+        <v>1.0844</v>
       </c>
       <c r="D122" t="n">
-        <v>0.840811</v>
+        <v>1.01137</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.15217</v>
+        <v>1.2475</v>
       </c>
       <c r="C123" t="n">
-        <v>0.899294</v>
+        <v>1.08605</v>
       </c>
       <c r="D123" t="n">
-        <v>1.11971</v>
+        <v>1.36704</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.38415</v>
+        <v>1.56622</v>
       </c>
       <c r="C124" t="n">
-        <v>1.10761</v>
+        <v>1.403</v>
       </c>
       <c r="D124" t="n">
-        <v>1.07431</v>
+        <v>1.34072</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.35919</v>
+        <v>1.58871</v>
       </c>
       <c r="C125" t="n">
-        <v>1.10342</v>
+        <v>1.40094</v>
       </c>
       <c r="D125" t="n">
-        <v>1.07012</v>
+        <v>1.34061</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37876</v>
+        <v>1.55003</v>
       </c>
       <c r="C126" t="n">
-        <v>1.13412</v>
+        <v>1.38985</v>
       </c>
       <c r="D126" t="n">
-        <v>1.10612</v>
+        <v>1.33649</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.4097</v>
+        <v>1.57106</v>
       </c>
       <c r="C127" t="n">
-        <v>1.12681</v>
+        <v>1.38314</v>
       </c>
       <c r="D127" t="n">
-        <v>1.10156</v>
+        <v>1.31149</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.40512</v>
+        <v>1.54318</v>
       </c>
       <c r="C128" t="n">
-        <v>1.12574</v>
+        <v>1.39905</v>
       </c>
       <c r="D128" t="n">
-        <v>1.08139</v>
+        <v>1.30881</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.44364</v>
+        <v>1.54227</v>
       </c>
       <c r="C129" t="n">
-        <v>1.14762</v>
+        <v>1.37082</v>
       </c>
       <c r="D129" t="n">
-        <v>1.0625</v>
+        <v>1.32915</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.44096</v>
+        <v>1.56845</v>
       </c>
       <c r="C130" t="n">
-        <v>1.14801</v>
+        <v>1.40081</v>
       </c>
       <c r="D130" t="n">
-        <v>1.08744</v>
+        <v>1.30861</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.41668</v>
+        <v>1.57052</v>
       </c>
       <c r="C131" t="n">
-        <v>1.13514</v>
+        <v>1.35539</v>
       </c>
       <c r="D131" t="n">
-        <v>1.08646</v>
+        <v>1.31731</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.44933</v>
+        <v>1.5532</v>
       </c>
       <c r="C132" t="n">
-        <v>1.13877</v>
+        <v>1.36122</v>
       </c>
       <c r="D132" t="n">
-        <v>1.07392</v>
+        <v>1.30838</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.43608</v>
+        <v>1.52847</v>
       </c>
       <c r="C133" t="n">
-        <v>1.13253</v>
+        <v>1.37464</v>
       </c>
       <c r="D133" t="n">
-        <v>1.09344</v>
+        <v>1.28518</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4576</v>
+        <v>1.53724</v>
       </c>
       <c r="C134" t="n">
-        <v>1.14337</v>
+        <v>1.34248</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0855</v>
+        <v>1.28282</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.45712</v>
+        <v>1.52013</v>
       </c>
       <c r="C135" t="n">
-        <v>1.14838</v>
+        <v>1.3638</v>
       </c>
       <c r="D135" t="n">
-        <v>1.0992</v>
+        <v>1.30876</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.44514</v>
+        <v>1.54333</v>
       </c>
       <c r="C136" t="n">
-        <v>1.14515</v>
+        <v>1.35362</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0929</v>
+        <v>1.29728</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.46246</v>
+        <v>1.54316</v>
       </c>
       <c r="C137" t="n">
-        <v>1.14289</v>
+        <v>1.36852</v>
       </c>
       <c r="D137" t="n">
-        <v>1.35088</v>
+        <v>1.65989</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.69257</v>
+        <v>1.85731</v>
       </c>
       <c r="C138" t="n">
-        <v>1.36904</v>
+        <v>1.694</v>
       </c>
       <c r="D138" t="n">
-        <v>1.34122</v>
+        <v>1.65197</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.6873</v>
+        <v>1.85632</v>
       </c>
       <c r="C139" t="n">
-        <v>1.36297</v>
+        <v>1.69484</v>
       </c>
       <c r="D139" t="n">
-        <v>1.33739</v>
+        <v>1.64865</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.69557</v>
+        <v>1.86566</v>
       </c>
       <c r="C140" t="n">
-        <v>1.37937</v>
+        <v>1.67946</v>
       </c>
       <c r="D140" t="n">
-        <v>1.3376</v>
+        <v>1.62605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.72848</v>
+        <v>1.83807</v>
       </c>
       <c r="C141" t="n">
-        <v>1.36808</v>
+        <v>1.67253</v>
       </c>
       <c r="D141" t="n">
-        <v>1.33781</v>
+        <v>1.64319</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.73497</v>
+        <v>1.83559</v>
       </c>
       <c r="C142" t="n">
-        <v>1.38454</v>
+        <v>1.67481</v>
       </c>
       <c r="D142" t="n">
-        <v>1.34011</v>
+        <v>1.60665</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.76129</v>
+        <v>1.82326</v>
       </c>
       <c r="C143" t="n">
-        <v>1.38593</v>
+        <v>1.63973</v>
       </c>
       <c r="D143" t="n">
-        <v>1.35026</v>
+        <v>1.61129</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466498</v>
+        <v>0.430494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29557</v>
+        <v>0.322663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.288002</v>
+        <v>0.297849</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.428134</v>
+        <v>0.427503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.287196</v>
+        <v>0.3026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.286805</v>
+        <v>0.29214</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.407164</v>
+        <v>0.418553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.288709</v>
+        <v>0.294777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.283674</v>
+        <v>0.28334</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.404319</v>
+        <v>0.41368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.287667</v>
+        <v>0.285365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.290799</v>
+        <v>0.282264</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.40406</v>
+        <v>0.410658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.275506</v>
+        <v>0.281173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.278119</v>
+        <v>0.281105</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.411801</v>
+        <v>0.400982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.279786</v>
+        <v>0.280711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.269773</v>
+        <v>0.273494</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3895</v>
+        <v>0.397995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272429</v>
+        <v>0.274084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.278274</v>
+        <v>0.273978</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.398627</v>
+        <v>0.412416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.275159</v>
+        <v>0.280407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.364481</v>
+        <v>0.375182</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.477407</v>
+        <v>0.480128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.372252</v>
+        <v>0.375015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.352769</v>
+        <v>0.360287</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.477624</v>
+        <v>0.482543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.361472</v>
+        <v>0.362691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.346826</v>
+        <v>0.353048</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.469164</v>
+        <v>0.473771</v>
       </c>
       <c r="C12" t="n">
-        <v>0.34958</v>
+        <v>0.354846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.35258</v>
+        <v>0.347768</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.47116</v>
+        <v>0.471082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341758</v>
+        <v>0.342949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.329101</v>
+        <v>0.339882</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.467397</v>
+        <v>0.472372</v>
       </c>
       <c r="C14" t="n">
-        <v>0.324815</v>
+        <v>0.341828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.322475</v>
+        <v>0.327593</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.447283</v>
+        <v>0.448963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319415</v>
+        <v>0.319238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.315308</v>
+        <v>0.320175</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.441917</v>
+        <v>0.450525</v>
       </c>
       <c r="C16" t="n">
-        <v>0.308471</v>
+        <v>0.320796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.307373</v>
+        <v>0.311791</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.430377</v>
+        <v>0.430889</v>
       </c>
       <c r="C17" t="n">
-        <v>0.306417</v>
+        <v>0.315389</v>
       </c>
       <c r="D17" t="n">
-        <v>0.296097</v>
+        <v>0.309275</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.422064</v>
+        <v>0.434859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.299317</v>
+        <v>0.30668</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295342</v>
+        <v>0.305431</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.437989</v>
+        <v>0.422326</v>
       </c>
       <c r="C19" t="n">
-        <v>0.291817</v>
+        <v>0.301306</v>
       </c>
       <c r="D19" t="n">
-        <v>0.299073</v>
+        <v>0.29497</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.41779</v>
+        <v>0.424329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.288725</v>
+        <v>0.291592</v>
       </c>
       <c r="D20" t="n">
-        <v>0.284959</v>
+        <v>0.290333</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.414108</v>
+        <v>0.415773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.284835</v>
+        <v>0.290573</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28709</v>
+        <v>0.288461</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40315</v>
+        <v>0.42002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.280721</v>
+        <v>0.285909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.284442</v>
+        <v>0.288765</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.422732</v>
+        <v>0.424543</v>
       </c>
       <c r="C23" t="n">
-        <v>0.281126</v>
+        <v>0.288119</v>
       </c>
       <c r="D23" t="n">
-        <v>0.391123</v>
+        <v>0.39013</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.642235</v>
+        <v>0.673508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.527347</v>
+        <v>0.5577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.372682</v>
+        <v>0.376822</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.653827</v>
+        <v>0.665345</v>
       </c>
       <c r="C25" t="n">
-        <v>0.521459</v>
+        <v>0.5381010000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.367974</v>
+        <v>0.368636</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.636911</v>
+        <v>0.653058</v>
       </c>
       <c r="C26" t="n">
-        <v>0.500121</v>
+        <v>0.518232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.359269</v>
+        <v>0.364594</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.614569</v>
+        <v>0.637201</v>
       </c>
       <c r="C27" t="n">
-        <v>0.483985</v>
+        <v>0.4935</v>
       </c>
       <c r="D27" t="n">
-        <v>0.342058</v>
+        <v>0.361038</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.601762</v>
+        <v>0.611963</v>
       </c>
       <c r="C28" t="n">
-        <v>0.462468</v>
+        <v>0.469411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.331101</v>
+        <v>0.344597</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591342</v>
+        <v>0.6251719999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.455545</v>
+        <v>0.463097</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329885</v>
+        <v>0.336261</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.564912</v>
+        <v>0.5964429999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.447539</v>
+        <v>0.450463</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328767</v>
+        <v>0.322483</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.569766</v>
+        <v>0.575207</v>
       </c>
       <c r="C31" t="n">
-        <v>0.433496</v>
+        <v>0.444609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319685</v>
+        <v>0.326471</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5478460000000001</v>
+        <v>0.550771</v>
       </c>
       <c r="C32" t="n">
-        <v>0.416857</v>
+        <v>0.423001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.315393</v>
+        <v>0.315772</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.540965</v>
+        <v>0.549617</v>
       </c>
       <c r="C33" t="n">
-        <v>0.402467</v>
+        <v>0.413588</v>
       </c>
       <c r="D33" t="n">
-        <v>0.296195</v>
+        <v>0.300554</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.528122</v>
+        <v>0.530466</v>
       </c>
       <c r="C34" t="n">
-        <v>0.393993</v>
+        <v>0.406119</v>
       </c>
       <c r="D34" t="n">
-        <v>0.302227</v>
+        <v>0.300546</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.517272</v>
+        <v>0.540784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.383033</v>
+        <v>0.394794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.293282</v>
+        <v>0.298185</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51822</v>
+        <v>0.531656</v>
       </c>
       <c r="C36" t="n">
-        <v>0.373918</v>
+        <v>0.388281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.29476</v>
+        <v>0.29661</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.502846</v>
+        <v>0.51481</v>
       </c>
       <c r="C37" t="n">
-        <v>0.370757</v>
+        <v>0.386284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.542072</v>
+        <v>0.558782</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75444</v>
+        <v>0.799472</v>
       </c>
       <c r="C38" t="n">
-        <v>0.643981</v>
+        <v>0.663972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5335569999999999</v>
+        <v>0.546752</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7491</v>
+        <v>0.74792</v>
       </c>
       <c r="C39" t="n">
-        <v>0.626553</v>
+        <v>0.625345</v>
       </c>
       <c r="D39" t="n">
-        <v>0.518302</v>
+        <v>0.5336340000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.728108</v>
+        <v>0.750341</v>
       </c>
       <c r="C40" t="n">
-        <v>0.597732</v>
+        <v>0.6076319999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.503385</v>
+        <v>0.533314</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.710626</v>
+        <v>0.710645</v>
       </c>
       <c r="C41" t="n">
-        <v>0.58217</v>
+        <v>0.586792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.489951</v>
+        <v>0.50467</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.697767</v>
+        <v>0.706183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.563262</v>
+        <v>0.556831</v>
       </c>
       <c r="D42" t="n">
-        <v>0.472355</v>
+        <v>0.479036</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6898339999999999</v>
+        <v>0.691697</v>
       </c>
       <c r="C43" t="n">
-        <v>0.54237</v>
+        <v>0.545921</v>
       </c>
       <c r="D43" t="n">
-        <v>0.465448</v>
+        <v>0.457303</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.666754</v>
+        <v>0.669168</v>
       </c>
       <c r="C44" t="n">
-        <v>0.532241</v>
+        <v>0.536722</v>
       </c>
       <c r="D44" t="n">
-        <v>0.44646</v>
+        <v>0.448201</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.650912</v>
+        <v>0.655648</v>
       </c>
       <c r="C45" t="n">
-        <v>0.50989</v>
+        <v>0.520894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.436793</v>
+        <v>0.439384</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641996</v>
+        <v>0.639273</v>
       </c>
       <c r="C46" t="n">
-        <v>0.494465</v>
+        <v>0.5000869999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426055</v>
+        <v>0.425604</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631288</v>
+        <v>0.6440360000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.487306</v>
+        <v>0.495793</v>
       </c>
       <c r="D47" t="n">
-        <v>0.42481</v>
+        <v>0.415919</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.606646</v>
+        <v>0.603257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.476906</v>
+        <v>0.468228</v>
       </c>
       <c r="D48" t="n">
-        <v>0.405302</v>
+        <v>0.418533</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6065739999999999</v>
+        <v>0.599933</v>
       </c>
       <c r="C49" t="n">
-        <v>0.459566</v>
+        <v>0.466725</v>
       </c>
       <c r="D49" t="n">
-        <v>0.39547</v>
+        <v>0.404117</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.607974</v>
+        <v>0.607757</v>
       </c>
       <c r="C50" t="n">
-        <v>0.44816</v>
+        <v>0.459744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.393477</v>
+        <v>0.388332</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.570888</v>
+        <v>0.594483</v>
       </c>
       <c r="C51" t="n">
-        <v>0.443379</v>
+        <v>0.447619</v>
       </c>
       <c r="D51" t="n">
-        <v>0.659515</v>
+        <v>0.689391</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.576596</v>
+        <v>0.613883</v>
       </c>
       <c r="C52" t="n">
-        <v>0.442608</v>
+        <v>0.441543</v>
       </c>
       <c r="D52" t="n">
-        <v>0.653073</v>
+        <v>0.671697</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.831125</v>
+        <v>0.822424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.690005</v>
+        <v>0.706963</v>
       </c>
       <c r="D53" t="n">
-        <v>0.626574</v>
+        <v>0.650374</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8132779999999999</v>
+        <v>0.816659</v>
       </c>
       <c r="C54" t="n">
-        <v>0.677614</v>
+        <v>0.696796</v>
       </c>
       <c r="D54" t="n">
-        <v>0.621629</v>
+        <v>0.631437</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.796668</v>
+        <v>0.804843</v>
       </c>
       <c r="C55" t="n">
-        <v>0.66765</v>
+        <v>0.665002</v>
       </c>
       <c r="D55" t="n">
-        <v>0.613791</v>
+        <v>0.607291</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.787206</v>
+        <v>0.811743</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648042</v>
+        <v>0.671641</v>
       </c>
       <c r="D56" t="n">
-        <v>0.583917</v>
+        <v>0.590802</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.765339</v>
+        <v>0.775762</v>
       </c>
       <c r="C57" t="n">
-        <v>0.612254</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.573782</v>
+        <v>0.589251</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7502180000000001</v>
+        <v>0.760026</v>
       </c>
       <c r="C58" t="n">
-        <v>0.61271</v>
+        <v>0.624777</v>
       </c>
       <c r="D58" t="n">
-        <v>0.572211</v>
+        <v>0.5758180000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755706</v>
+        <v>0.746723</v>
       </c>
       <c r="C59" t="n">
-        <v>0.590042</v>
+        <v>0.60732</v>
       </c>
       <c r="D59" t="n">
-        <v>0.556146</v>
+        <v>0.565726</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.732144</v>
+        <v>0.747413</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5816249999999999</v>
+        <v>0.611737</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5363</v>
+        <v>0.547936</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.711305</v>
+        <v>0.722664</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5716599999999999</v>
+        <v>0.570967</v>
       </c>
       <c r="D61" t="n">
-        <v>0.522761</v>
+        <v>0.534899</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709431</v>
+        <v>0.749228</v>
       </c>
       <c r="C62" t="n">
-        <v>0.556691</v>
+        <v>0.563244</v>
       </c>
       <c r="D62" t="n">
-        <v>0.510549</v>
+        <v>0.524494</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.693709</v>
+        <v>0.70109</v>
       </c>
       <c r="C63" t="n">
-        <v>0.543378</v>
+        <v>0.558265</v>
       </c>
       <c r="D63" t="n">
-        <v>0.513474</v>
+        <v>0.509175</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6967449999999999</v>
+        <v>0.685095</v>
       </c>
       <c r="C64" t="n">
-        <v>0.542191</v>
+        <v>0.538062</v>
       </c>
       <c r="D64" t="n">
-        <v>0.502712</v>
+        <v>0.504609</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.687639</v>
+        <v>0.686408</v>
       </c>
       <c r="C65" t="n">
-        <v>0.519968</v>
+        <v>0.5356030000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.49066</v>
+        <v>0.494897</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6782049999999999</v>
+        <v>0.664295</v>
       </c>
       <c r="C66" t="n">
-        <v>0.529467</v>
+        <v>0.528625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7888849999999999</v>
+        <v>0.801737</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.943843</v>
+        <v>0.945573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7988769999999999</v>
+        <v>0.818377</v>
       </c>
       <c r="D67" t="n">
-        <v>0.745859</v>
+        <v>0.780176</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9255</v>
+        <v>0.954352</v>
       </c>
       <c r="C68" t="n">
-        <v>0.767364</v>
+        <v>0.78951</v>
       </c>
       <c r="D68" t="n">
-        <v>0.741551</v>
+        <v>0.749403</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.920079</v>
+        <v>0.913232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.751706</v>
+        <v>0.798114</v>
       </c>
       <c r="D69" t="n">
-        <v>0.721181</v>
+        <v>0.717841</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9059199999999999</v>
+        <v>0.921158</v>
       </c>
       <c r="C70" t="n">
-        <v>0.735217</v>
+        <v>0.758234</v>
       </c>
       <c r="D70" t="n">
-        <v>0.697086</v>
+        <v>0.709817</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8922909999999999</v>
+        <v>0.879804</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7325660000000001</v>
+        <v>0.736444</v>
       </c>
       <c r="D71" t="n">
-        <v>0.67797</v>
+        <v>0.70596</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.886373</v>
+        <v>0.869665</v>
       </c>
       <c r="C72" t="n">
-        <v>0.729353</v>
+        <v>0.719424</v>
       </c>
       <c r="D72" t="n">
-        <v>0.667157</v>
+        <v>0.683274</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.869022</v>
+        <v>0.857383</v>
       </c>
       <c r="C73" t="n">
-        <v>0.696882</v>
+        <v>0.711404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.665652</v>
+        <v>0.662624</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.848064</v>
+        <v>0.859019</v>
       </c>
       <c r="C74" t="n">
-        <v>0.676594</v>
+        <v>0.68085</v>
       </c>
       <c r="D74" t="n">
-        <v>0.637396</v>
+        <v>0.662062</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.833819</v>
+        <v>0.847766</v>
       </c>
       <c r="C75" t="n">
-        <v>0.653618</v>
+        <v>0.675848</v>
       </c>
       <c r="D75" t="n">
-        <v>0.634359</v>
+        <v>0.633148</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.807664</v>
+        <v>0.817982</v>
       </c>
       <c r="C76" t="n">
-        <v>0.645892</v>
+        <v>0.663304</v>
       </c>
       <c r="D76" t="n">
-        <v>0.616214</v>
+        <v>0.625815</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.804799</v>
+        <v>0.8105329999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.632835</v>
+        <v>0.6732900000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6047979999999999</v>
+        <v>0.60378</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.798247</v>
+        <v>0.8091</v>
       </c>
       <c r="C78" t="n">
-        <v>0.623047</v>
+        <v>0.640911</v>
       </c>
       <c r="D78" t="n">
-        <v>0.593356</v>
+        <v>0.603723</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.805914</v>
+        <v>0.781215</v>
       </c>
       <c r="C79" t="n">
-        <v>0.619356</v>
+        <v>0.615088</v>
       </c>
       <c r="D79" t="n">
-        <v>0.588592</v>
+        <v>0.592929</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.775489</v>
+        <v>0.806994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6110370000000001</v>
+        <v>0.625584</v>
       </c>
       <c r="D80" t="n">
-        <v>0.924683</v>
+        <v>0.918786</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09066</v>
+        <v>1.11994</v>
       </c>
       <c r="C81" t="n">
-        <v>0.940835</v>
+        <v>0.933393</v>
       </c>
       <c r="D81" t="n">
-        <v>0.902008</v>
+        <v>0.878475</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0671</v>
+        <v>1.08536</v>
       </c>
       <c r="C82" t="n">
-        <v>0.914713</v>
+        <v>0.906563</v>
       </c>
       <c r="D82" t="n">
-        <v>0.875603</v>
+        <v>0.892659</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06305</v>
+        <v>1.05739</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9014259999999999</v>
+        <v>0.9008890000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.873024</v>
+        <v>0.847923</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02125</v>
+        <v>1.03556</v>
       </c>
       <c r="C84" t="n">
-        <v>0.86583</v>
+        <v>0.871079</v>
       </c>
       <c r="D84" t="n">
-        <v>0.842078</v>
+        <v>0.830087</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02051</v>
+        <v>1.02402</v>
       </c>
       <c r="C85" t="n">
-        <v>0.86291</v>
+        <v>0.871335</v>
       </c>
       <c r="D85" t="n">
-        <v>0.814715</v>
+        <v>0.801417</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00513</v>
+        <v>0.981511</v>
       </c>
       <c r="C86" t="n">
-        <v>0.837903</v>
+        <v>0.82723</v>
       </c>
       <c r="D86" t="n">
-        <v>0.795351</v>
+        <v>0.780159</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.98276</v>
+        <v>0.975915</v>
       </c>
       <c r="C87" t="n">
-        <v>0.809799</v>
+        <v>0.818381</v>
       </c>
       <c r="D87" t="n">
-        <v>0.789031</v>
+        <v>0.769916</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.954997</v>
+        <v>0.974675</v>
       </c>
       <c r="C88" t="n">
-        <v>0.799693</v>
+        <v>0.799364</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765894</v>
+        <v>0.772104</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.994784</v>
+        <v>0.956111</v>
       </c>
       <c r="C89" t="n">
-        <v>0.80809</v>
+        <v>0.77694</v>
       </c>
       <c r="D89" t="n">
-        <v>0.741016</v>
+        <v>0.739522</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.942944</v>
+        <v>0.952701</v>
       </c>
       <c r="C90" t="n">
-        <v>0.769661</v>
+        <v>0.7668</v>
       </c>
       <c r="D90" t="n">
-        <v>0.725256</v>
+        <v>0.730899</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.933537</v>
+        <v>0.9334170000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7582410000000001</v>
+        <v>0.7546659999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.722424</v>
+        <v>0.705086</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9358340000000001</v>
+        <v>0.927373</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7453920000000001</v>
+        <v>0.738456</v>
       </c>
       <c r="D92" t="n">
-        <v>0.708993</v>
+        <v>0.698393</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.913678</v>
+        <v>0.913669</v>
       </c>
       <c r="C93" t="n">
-        <v>0.73889</v>
+        <v>0.736917</v>
       </c>
       <c r="D93" t="n">
-        <v>0.726533</v>
+        <v>0.705548</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.891604</v>
+        <v>0.893144</v>
       </c>
       <c r="C94" t="n">
-        <v>0.723699</v>
+        <v>0.722777</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03527</v>
+        <v>1.05017</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20704</v>
+        <v>1.20113</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05451</v>
+        <v>1.07017</v>
       </c>
       <c r="D95" t="n">
-        <v>0.985641</v>
+        <v>0.9938129999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19883</v>
+        <v>1.16865</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02897</v>
+        <v>1.01765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.972217</v>
+        <v>0.966046</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17712</v>
+        <v>1.17028</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0153</v>
+        <v>0.998918</v>
       </c>
       <c r="D97" t="n">
-        <v>0.945906</v>
+        <v>0.984766</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15178</v>
+        <v>1.16018</v>
       </c>
       <c r="C98" t="n">
-        <v>0.990023</v>
+        <v>0.989476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.934682</v>
+        <v>0.951336</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17917</v>
+        <v>1.13948</v>
       </c>
       <c r="C99" t="n">
-        <v>0.980943</v>
+        <v>0.96906</v>
       </c>
       <c r="D99" t="n">
-        <v>0.917571</v>
+        <v>0.921061</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11939</v>
+        <v>1.12446</v>
       </c>
       <c r="C100" t="n">
-        <v>0.953054</v>
+        <v>0.958224</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8899010000000001</v>
+        <v>0.921448</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12262</v>
+        <v>1.1688</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9362549999999999</v>
+        <v>0.957439</v>
       </c>
       <c r="D101" t="n">
-        <v>0.899336</v>
+        <v>0.902064</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10454</v>
+        <v>1.11245</v>
       </c>
       <c r="C102" t="n">
-        <v>0.924135</v>
+        <v>0.924724</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8649520000000001</v>
+        <v>0.8987889999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09889</v>
+        <v>1.07266</v>
       </c>
       <c r="C103" t="n">
-        <v>0.911425</v>
+        <v>0.905135</v>
       </c>
       <c r="D103" t="n">
-        <v>0.888024</v>
+        <v>0.855087</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08196</v>
+        <v>1.06385</v>
       </c>
       <c r="C104" t="n">
-        <v>0.914273</v>
+        <v>0.908571</v>
       </c>
       <c r="D104" t="n">
-        <v>0.847485</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07198</v>
+        <v>1.05957</v>
       </c>
       <c r="C105" t="n">
-        <v>0.897657</v>
+        <v>0.879854</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8504119999999999</v>
+        <v>0.8289</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05322</v>
+        <v>1.07232</v>
       </c>
       <c r="C106" t="n">
-        <v>0.883899</v>
+        <v>0.886204</v>
       </c>
       <c r="D106" t="n">
-        <v>0.837869</v>
+        <v>0.822898</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04501</v>
+        <v>1.06539</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8658360000000001</v>
+        <v>0.870715</v>
       </c>
       <c r="D107" t="n">
-        <v>0.811314</v>
+        <v>0.819898</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04344</v>
+        <v>1.05287</v>
       </c>
       <c r="C108" t="n">
-        <v>0.866412</v>
+        <v>0.875095</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17994</v>
+        <v>1.16389</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.03539</v>
+        <v>1.04235</v>
       </c>
       <c r="C109" t="n">
-        <v>0.868323</v>
+        <v>0.8655119999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15306</v>
+        <v>1.12072</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.35373</v>
+        <v>1.33768</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19363</v>
+        <v>1.16926</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12459</v>
+        <v>1.11948</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32144</v>
+        <v>1.32591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17103</v>
+        <v>1.15639</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1072</v>
+        <v>1.08368</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32328</v>
+        <v>1.30971</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18073</v>
+        <v>1.16854</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11318</v>
+        <v>1.08626</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31474</v>
+        <v>1.31011</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15841</v>
+        <v>1.15127</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08999</v>
+        <v>1.07275</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.31295</v>
+        <v>1.29269</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13725</v>
+        <v>1.13556</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09542</v>
+        <v>1.08991</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31293</v>
+        <v>1.292</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12274</v>
+        <v>1.12563</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0896</v>
+        <v>1.05785</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.27032</v>
+        <v>1.31617</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13576</v>
+        <v>1.12159</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04508</v>
+        <v>1.03649</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28255</v>
+        <v>1.29438</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09286</v>
+        <v>1.0916</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04097</v>
+        <v>1.04662</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28074</v>
+        <v>1.26138</v>
       </c>
       <c r="C118" t="n">
-        <v>1.09337</v>
+        <v>1.08511</v>
       </c>
       <c r="D118" t="n">
-        <v>1.01786</v>
+        <v>1.02622</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28547</v>
+        <v>1.26797</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10215</v>
+        <v>1.09345</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04149</v>
+        <v>1.04772</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.26983</v>
+        <v>1.24428</v>
       </c>
       <c r="C120" t="n">
-        <v>1.07288</v>
+        <v>1.08014</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01156</v>
+        <v>1.01325</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26539</v>
+        <v>1.25736</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07884</v>
+        <v>1.08474</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03309</v>
+        <v>1.01261</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2637</v>
+        <v>1.2441</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0844</v>
+        <v>1.07619</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01137</v>
+        <v>0.998108</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2475</v>
+        <v>1.2509</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08605</v>
+        <v>1.06785</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36704</v>
+        <v>1.32601</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.56622</v>
+        <v>1.56556</v>
       </c>
       <c r="C124" t="n">
-        <v>1.403</v>
+        <v>1.39111</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34072</v>
+        <v>1.34146</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58871</v>
+        <v>1.551</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40094</v>
+        <v>1.38975</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34061</v>
+        <v>1.31389</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.55003</v>
+        <v>1.56194</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38985</v>
+        <v>1.39183</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33649</v>
+        <v>1.30701</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.57106</v>
+        <v>1.5658</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38314</v>
+        <v>1.37878</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31149</v>
+        <v>1.32505</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54318</v>
+        <v>1.55224</v>
       </c>
       <c r="C128" t="n">
-        <v>1.39905</v>
+        <v>1.38503</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30881</v>
+        <v>1.30165</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54227</v>
+        <v>1.54719</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37082</v>
+        <v>1.36851</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32915</v>
+        <v>1.30213</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.56845</v>
+        <v>1.52695</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40081</v>
+        <v>1.35965</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30861</v>
+        <v>1.29909</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.57052</v>
+        <v>1.54728</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35539</v>
+        <v>1.3671</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31731</v>
+        <v>1.28825</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.5532</v>
+        <v>1.52759</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36122</v>
+        <v>1.37867</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30838</v>
+        <v>1.29181</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.52847</v>
+        <v>1.51635</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37464</v>
+        <v>1.35193</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28518</v>
+        <v>1.29053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53724</v>
+        <v>1.56084</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34248</v>
+        <v>1.34864</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28282</v>
+        <v>1.30473</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.52013</v>
+        <v>1.54421</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3638</v>
+        <v>1.35018</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30876</v>
+        <v>1.29502</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.54333</v>
+        <v>1.54379</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35362</v>
+        <v>1.36616</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29728</v>
+        <v>1.33105</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54316</v>
+        <v>1.53115</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36852</v>
+        <v>1.35297</v>
       </c>
       <c r="D137" t="n">
-        <v>1.65989</v>
+        <v>1.65401</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.85731</v>
+        <v>1.88165</v>
       </c>
       <c r="C138" t="n">
-        <v>1.694</v>
+        <v>1.70043</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65197</v>
+        <v>1.65305</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85632</v>
+        <v>1.85219</v>
       </c>
       <c r="C139" t="n">
-        <v>1.69484</v>
+        <v>1.67734</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64865</v>
+        <v>1.64051</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86566</v>
+        <v>1.83892</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67946</v>
+        <v>1.67769</v>
       </c>
       <c r="D140" t="n">
-        <v>1.62605</v>
+        <v>1.64026</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.83807</v>
+        <v>1.86443</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67253</v>
+        <v>1.66819</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64319</v>
+        <v>1.63243</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.83559</v>
+        <v>1.83837</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67481</v>
+        <v>1.67192</v>
       </c>
       <c r="D142" t="n">
-        <v>1.60665</v>
+        <v>1.62263</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.82326</v>
+        <v>1.84925</v>
       </c>
       <c r="C143" t="n">
-        <v>1.63973</v>
+        <v>1.67034</v>
       </c>
       <c r="D143" t="n">
-        <v>1.61129</v>
+        <v>1.63785</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.430494</v>
+        <v>0.486399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.322663</v>
+        <v>0.306201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.297849</v>
+        <v>0.289244</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.427503</v>
+        <v>0.421572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3026</v>
+        <v>0.29108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29214</v>
+        <v>0.285858</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.418553</v>
+        <v>0.421163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.294777</v>
+        <v>0.288664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28334</v>
+        <v>0.283787</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41368</v>
+        <v>0.420105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285365</v>
+        <v>0.279298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282264</v>
+        <v>0.282726</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410658</v>
+        <v>0.408469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.281173</v>
+        <v>0.276124</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281105</v>
+        <v>0.272888</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.400982</v>
+        <v>0.404096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.280711</v>
+        <v>0.280598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.273494</v>
+        <v>0.268948</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.397995</v>
+        <v>0.397593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.274084</v>
+        <v>0.270404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.273978</v>
+        <v>0.270397</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.412416</v>
+        <v>0.397396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.280407</v>
+        <v>0.266634</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375182</v>
+        <v>0.365231</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.480128</v>
+        <v>0.472132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375015</v>
+        <v>0.369439</v>
       </c>
       <c r="D10" t="n">
-        <v>0.360287</v>
+        <v>0.355848</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.482543</v>
+        <v>0.487383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.362691</v>
+        <v>0.350951</v>
       </c>
       <c r="D11" t="n">
-        <v>0.353048</v>
+        <v>0.343176</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.473771</v>
+        <v>0.467405</v>
       </c>
       <c r="C12" t="n">
-        <v>0.354846</v>
+        <v>0.339036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.347768</v>
+        <v>0.345435</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.471082</v>
+        <v>0.459435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342949</v>
+        <v>0.341122</v>
       </c>
       <c r="D13" t="n">
-        <v>0.339882</v>
+        <v>0.33405</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.472372</v>
+        <v>0.446746</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341828</v>
+        <v>0.339556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327593</v>
+        <v>0.325694</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.448963</v>
+        <v>0.44393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319238</v>
+        <v>0.316005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.320175</v>
+        <v>0.318294</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450525</v>
+        <v>0.45544</v>
       </c>
       <c r="C16" t="n">
-        <v>0.320796</v>
+        <v>0.312094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.311791</v>
+        <v>0.307049</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.430889</v>
+        <v>0.441875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315389</v>
+        <v>0.306288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309275</v>
+        <v>0.29659</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434859</v>
+        <v>0.41737</v>
       </c>
       <c r="C18" t="n">
-        <v>0.30668</v>
+        <v>0.304011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305431</v>
+        <v>0.291277</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.422326</v>
+        <v>0.422828</v>
       </c>
       <c r="C19" t="n">
-        <v>0.301306</v>
+        <v>0.2969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29497</v>
+        <v>0.29603</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.424329</v>
+        <v>0.432315</v>
       </c>
       <c r="C20" t="n">
-        <v>0.291592</v>
+        <v>0.29009</v>
       </c>
       <c r="D20" t="n">
-        <v>0.290333</v>
+        <v>0.285791</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.415773</v>
+        <v>0.421831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.290573</v>
+        <v>0.293335</v>
       </c>
       <c r="D21" t="n">
-        <v>0.288461</v>
+        <v>0.27848</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42002</v>
+        <v>0.417289</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285909</v>
+        <v>0.285328</v>
       </c>
       <c r="D22" t="n">
-        <v>0.288765</v>
+        <v>0.280615</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.424543</v>
+        <v>0.405582</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288119</v>
+        <v>0.284426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.39013</v>
+        <v>0.390263</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673508</v>
+        <v>0.66974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5577</v>
+        <v>0.534924</v>
       </c>
       <c r="D24" t="n">
-        <v>0.376822</v>
+        <v>0.379733</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.665345</v>
+        <v>0.641976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5381010000000001</v>
+        <v>0.506003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368636</v>
+        <v>0.379802</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.653058</v>
+        <v>0.619036</v>
       </c>
       <c r="C26" t="n">
-        <v>0.518232</v>
+        <v>0.498508</v>
       </c>
       <c r="D26" t="n">
-        <v>0.364594</v>
+        <v>0.356862</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.637201</v>
+        <v>0.610714</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4935</v>
+        <v>0.481944</v>
       </c>
       <c r="D27" t="n">
-        <v>0.361038</v>
+        <v>0.346437</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.611963</v>
+        <v>0.607259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.469411</v>
+        <v>0.465756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344597</v>
+        <v>0.338648</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6251719999999999</v>
+        <v>0.594544</v>
       </c>
       <c r="C29" t="n">
-        <v>0.463097</v>
+        <v>0.449796</v>
       </c>
       <c r="D29" t="n">
-        <v>0.336261</v>
+        <v>0.339261</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5964429999999999</v>
+        <v>0.56834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.450463</v>
+        <v>0.437532</v>
       </c>
       <c r="D30" t="n">
-        <v>0.322483</v>
+        <v>0.329711</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.575207</v>
+        <v>0.569834</v>
       </c>
       <c r="C31" t="n">
-        <v>0.444609</v>
+        <v>0.42239</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326471</v>
+        <v>0.326365</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.550771</v>
+        <v>0.554365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.423001</v>
+        <v>0.410854</v>
       </c>
       <c r="D32" t="n">
-        <v>0.315772</v>
+        <v>0.320644</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549617</v>
+        <v>0.549534</v>
       </c>
       <c r="C33" t="n">
-        <v>0.413588</v>
+        <v>0.399826</v>
       </c>
       <c r="D33" t="n">
-        <v>0.300554</v>
+        <v>0.307981</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530466</v>
+        <v>0.539918</v>
       </c>
       <c r="C34" t="n">
-        <v>0.406119</v>
+        <v>0.394764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.300546</v>
+        <v>0.301625</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.540784</v>
+        <v>0.522433</v>
       </c>
       <c r="C35" t="n">
-        <v>0.394794</v>
+        <v>0.385383</v>
       </c>
       <c r="D35" t="n">
-        <v>0.298185</v>
+        <v>0.295754</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.531656</v>
+        <v>0.521051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.388281</v>
+        <v>0.380025</v>
       </c>
       <c r="D36" t="n">
-        <v>0.29661</v>
+        <v>0.286224</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.51481</v>
+        <v>0.516402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.386284</v>
+        <v>0.368665</v>
       </c>
       <c r="D37" t="n">
-        <v>0.558782</v>
+        <v>0.543493</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.799472</v>
+        <v>0.786143</v>
       </c>
       <c r="C38" t="n">
-        <v>0.663972</v>
+        <v>0.630551</v>
       </c>
       <c r="D38" t="n">
-        <v>0.546752</v>
+        <v>0.541359</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.74792</v>
+        <v>0.75227</v>
       </c>
       <c r="C39" t="n">
-        <v>0.625345</v>
+        <v>0.623858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5336340000000001</v>
+        <v>0.513317</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.750341</v>
+        <v>0.730953</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6076319999999999</v>
+        <v>0.598071</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533314</v>
+        <v>0.502068</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.710645</v>
+        <v>0.705291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.586792</v>
+        <v>0.579834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.50467</v>
+        <v>0.481384</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.706183</v>
+        <v>0.6891080000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.556831</v>
+        <v>0.564331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.479036</v>
+        <v>0.46997</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.691697</v>
+        <v>0.684684</v>
       </c>
       <c r="C43" t="n">
-        <v>0.545921</v>
+        <v>0.54049</v>
       </c>
       <c r="D43" t="n">
-        <v>0.457303</v>
+        <v>0.454268</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.669168</v>
+        <v>0.678236</v>
       </c>
       <c r="C44" t="n">
-        <v>0.536722</v>
+        <v>0.533585</v>
       </c>
       <c r="D44" t="n">
-        <v>0.448201</v>
+        <v>0.444904</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.655648</v>
+        <v>0.669787</v>
       </c>
       <c r="C45" t="n">
-        <v>0.520894</v>
+        <v>0.518401</v>
       </c>
       <c r="D45" t="n">
-        <v>0.439384</v>
+        <v>0.439983</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639273</v>
+        <v>0.63731</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5000869999999999</v>
+        <v>0.499698</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425604</v>
+        <v>0.429329</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6440360000000001</v>
+        <v>0.616631</v>
       </c>
       <c r="C47" t="n">
-        <v>0.495793</v>
+        <v>0.476331</v>
       </c>
       <c r="D47" t="n">
-        <v>0.415919</v>
+        <v>0.426149</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.603257</v>
+        <v>0.6065199999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.468228</v>
+        <v>0.462411</v>
       </c>
       <c r="D48" t="n">
-        <v>0.418533</v>
+        <v>0.412027</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.599933</v>
+        <v>0.5951109999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.466725</v>
+        <v>0.464768</v>
       </c>
       <c r="D49" t="n">
-        <v>0.404117</v>
+        <v>0.40377</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.607757</v>
+        <v>0.591406</v>
       </c>
       <c r="C50" t="n">
-        <v>0.459744</v>
+        <v>0.456328</v>
       </c>
       <c r="D50" t="n">
-        <v>0.388332</v>
+        <v>0.386727</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.594483</v>
+        <v>0.579831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.447619</v>
+        <v>0.447574</v>
       </c>
       <c r="D51" t="n">
-        <v>0.689391</v>
+        <v>0.6772820000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.613883</v>
+        <v>0.567895</v>
       </c>
       <c r="C52" t="n">
-        <v>0.441543</v>
+        <v>0.430232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.671697</v>
+        <v>0.656158</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.822424</v>
+        <v>0.819069</v>
       </c>
       <c r="C53" t="n">
-        <v>0.706963</v>
+        <v>0.6887</v>
       </c>
       <c r="D53" t="n">
-        <v>0.650374</v>
+        <v>0.656622</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.816659</v>
+        <v>0.809772</v>
       </c>
       <c r="C54" t="n">
-        <v>0.696796</v>
+        <v>0.679466</v>
       </c>
       <c r="D54" t="n">
-        <v>0.631437</v>
+        <v>0.627669</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.804843</v>
+        <v>0.807857</v>
       </c>
       <c r="C55" t="n">
-        <v>0.665002</v>
+        <v>0.672784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.607291</v>
+        <v>0.612235</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.811743</v>
+        <v>0.778122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.671641</v>
+        <v>0.646969</v>
       </c>
       <c r="D56" t="n">
-        <v>0.590802</v>
+        <v>0.5997440000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.775762</v>
+        <v>0.767877</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6658269999999999</v>
+        <v>0.625982</v>
       </c>
       <c r="D57" t="n">
-        <v>0.589251</v>
+        <v>0.589742</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.760026</v>
+        <v>0.763804</v>
       </c>
       <c r="C58" t="n">
-        <v>0.624777</v>
+        <v>0.613889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5758180000000001</v>
+        <v>0.561958</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.746723</v>
+        <v>0.749758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.60732</v>
+        <v>0.602922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565726</v>
+        <v>0.554596</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.747413</v>
+        <v>0.721288</v>
       </c>
       <c r="C60" t="n">
-        <v>0.611737</v>
+        <v>0.578193</v>
       </c>
       <c r="D60" t="n">
-        <v>0.547936</v>
+        <v>0.535432</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.722664</v>
+        <v>0.704824</v>
       </c>
       <c r="C61" t="n">
-        <v>0.570967</v>
+        <v>0.580298</v>
       </c>
       <c r="D61" t="n">
-        <v>0.534899</v>
+        <v>0.5266999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.749228</v>
+        <v>0.709308</v>
       </c>
       <c r="C62" t="n">
-        <v>0.563244</v>
+        <v>0.547602</v>
       </c>
       <c r="D62" t="n">
-        <v>0.524494</v>
+        <v>0.5081</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.70109</v>
+        <v>0.698373</v>
       </c>
       <c r="C63" t="n">
-        <v>0.558265</v>
+        <v>0.546522</v>
       </c>
       <c r="D63" t="n">
-        <v>0.509175</v>
+        <v>0.50261</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.685095</v>
+        <v>0.6951079999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.538062</v>
+        <v>0.541265</v>
       </c>
       <c r="D64" t="n">
-        <v>0.504609</v>
+        <v>0.506616</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.686408</v>
+        <v>0.664923</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5356030000000001</v>
+        <v>0.530075</v>
       </c>
       <c r="D65" t="n">
-        <v>0.494897</v>
+        <v>0.503516</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.664295</v>
+        <v>0.663419</v>
       </c>
       <c r="C66" t="n">
-        <v>0.528625</v>
+        <v>0.516526</v>
       </c>
       <c r="D66" t="n">
-        <v>0.801737</v>
+        <v>0.784312</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.945573</v>
+        <v>0.954662</v>
       </c>
       <c r="C67" t="n">
-        <v>0.818377</v>
+        <v>0.791751</v>
       </c>
       <c r="D67" t="n">
-        <v>0.780176</v>
+        <v>0.74754</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.954352</v>
+        <v>0.9441310000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.78951</v>
+        <v>0.784125</v>
       </c>
       <c r="D68" t="n">
-        <v>0.749403</v>
+        <v>0.737192</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.913232</v>
+        <v>0.912964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.798114</v>
+        <v>0.753375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.717841</v>
+        <v>0.703149</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.921158</v>
+        <v>0.903919</v>
       </c>
       <c r="C70" t="n">
-        <v>0.758234</v>
+        <v>0.736443</v>
       </c>
       <c r="D70" t="n">
-        <v>0.709817</v>
+        <v>0.70026</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.879804</v>
+        <v>0.881464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.736444</v>
+        <v>0.720522</v>
       </c>
       <c r="D71" t="n">
-        <v>0.70596</v>
+        <v>0.682274</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.869665</v>
+        <v>0.864768</v>
       </c>
       <c r="C72" t="n">
-        <v>0.719424</v>
+        <v>0.70849</v>
       </c>
       <c r="D72" t="n">
-        <v>0.683274</v>
+        <v>0.667168</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.857383</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.711404</v>
+        <v>0.678741</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662624</v>
+        <v>0.656832</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.859019</v>
+        <v>0.8430839999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.68085</v>
+        <v>0.672883</v>
       </c>
       <c r="D74" t="n">
-        <v>0.662062</v>
+        <v>0.6576149999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.847766</v>
+        <v>0.834259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.675848</v>
+        <v>0.6505379999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.633148</v>
+        <v>0.649383</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.817982</v>
+        <v>0.818337</v>
       </c>
       <c r="C76" t="n">
-        <v>0.663304</v>
+        <v>0.648943</v>
       </c>
       <c r="D76" t="n">
-        <v>0.625815</v>
+        <v>0.617559</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8105329999999999</v>
+        <v>0.797893</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6732900000000001</v>
+        <v>0.647456</v>
       </c>
       <c r="D77" t="n">
-        <v>0.60378</v>
+        <v>0.597982</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8091</v>
+        <v>0.829523</v>
       </c>
       <c r="C78" t="n">
-        <v>0.640911</v>
+        <v>0.620687</v>
       </c>
       <c r="D78" t="n">
-        <v>0.603723</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.781215</v>
+        <v>0.772668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.615088</v>
+        <v>0.6253300000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.592929</v>
+        <v>0.585066</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.806994</v>
+        <v>0.775321</v>
       </c>
       <c r="C80" t="n">
-        <v>0.625584</v>
+        <v>0.613888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.918786</v>
+        <v>0.902715</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.11994</v>
+        <v>1.10426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.933393</v>
+        <v>0.940286</v>
       </c>
       <c r="D81" t="n">
-        <v>0.878475</v>
+        <v>0.9026380000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08536</v>
+        <v>1.06687</v>
       </c>
       <c r="C82" t="n">
-        <v>0.906563</v>
+        <v>0.9099080000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.892659</v>
+        <v>0.883244</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.05739</v>
+        <v>1.04847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9008890000000001</v>
+        <v>0.891111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.847923</v>
+        <v>0.860281</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03556</v>
+        <v>1.01861</v>
       </c>
       <c r="C84" t="n">
-        <v>0.871079</v>
+        <v>0.875861</v>
       </c>
       <c r="D84" t="n">
-        <v>0.830087</v>
+        <v>0.832823</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02402</v>
+        <v>1.01818</v>
       </c>
       <c r="C85" t="n">
-        <v>0.871335</v>
+        <v>0.841401</v>
       </c>
       <c r="D85" t="n">
-        <v>0.801417</v>
+        <v>0.806206</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.981511</v>
+        <v>0.993595</v>
       </c>
       <c r="C86" t="n">
-        <v>0.82723</v>
+        <v>0.8349569999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.780159</v>
+        <v>0.805485</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.975915</v>
+        <v>1.00515</v>
       </c>
       <c r="C87" t="n">
-        <v>0.818381</v>
+        <v>0.818683</v>
       </c>
       <c r="D87" t="n">
-        <v>0.769916</v>
+        <v>0.792658</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.974675</v>
+        <v>0.965537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.799364</v>
+        <v>0.811177</v>
       </c>
       <c r="D88" t="n">
-        <v>0.772104</v>
+        <v>0.76678</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.956111</v>
+        <v>0.969897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.77694</v>
+        <v>0.779172</v>
       </c>
       <c r="D89" t="n">
-        <v>0.739522</v>
+        <v>0.744854</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.952701</v>
+        <v>0.960506</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7668</v>
+        <v>0.76758</v>
       </c>
       <c r="D90" t="n">
-        <v>0.730899</v>
+        <v>0.72712</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9334170000000001</v>
+        <v>0.94502</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7546659999999999</v>
+        <v>0.78294</v>
       </c>
       <c r="D91" t="n">
-        <v>0.705086</v>
+        <v>0.720151</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.927373</v>
+        <v>0.935558</v>
       </c>
       <c r="C92" t="n">
-        <v>0.738456</v>
+        <v>0.750506</v>
       </c>
       <c r="D92" t="n">
-        <v>0.698393</v>
+        <v>0.707367</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.913669</v>
+        <v>0.937357</v>
       </c>
       <c r="C93" t="n">
-        <v>0.736917</v>
+        <v>0.735032</v>
       </c>
       <c r="D93" t="n">
-        <v>0.705548</v>
+        <v>0.704192</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.893144</v>
+        <v>0.9125760000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.722777</v>
+        <v>0.723498</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05017</v>
+        <v>1.04556</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20113</v>
+        <v>1.19231</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07017</v>
+        <v>1.03371</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9938129999999999</v>
+        <v>0.994581</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.16865</v>
+        <v>1.19266</v>
       </c>
       <c r="C96" t="n">
-        <v>1.01765</v>
+        <v>1.03673</v>
       </c>
       <c r="D96" t="n">
-        <v>0.966046</v>
+        <v>0.979571</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17028</v>
+        <v>1.18424</v>
       </c>
       <c r="C97" t="n">
-        <v>0.998918</v>
+        <v>1.03235</v>
       </c>
       <c r="D97" t="n">
-        <v>0.984766</v>
+        <v>0.964475</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16018</v>
+        <v>1.1747</v>
       </c>
       <c r="C98" t="n">
-        <v>0.989476</v>
+        <v>0.998197</v>
       </c>
       <c r="D98" t="n">
-        <v>0.951336</v>
+        <v>0.939496</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13948</v>
+        <v>1.14847</v>
       </c>
       <c r="C99" t="n">
-        <v>0.96906</v>
+        <v>0.980356</v>
       </c>
       <c r="D99" t="n">
-        <v>0.921061</v>
+        <v>0.920094</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12446</v>
+        <v>1.12102</v>
       </c>
       <c r="C100" t="n">
-        <v>0.958224</v>
+        <v>0.967133</v>
       </c>
       <c r="D100" t="n">
-        <v>0.921448</v>
+        <v>0.900015</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1688</v>
+        <v>1.1401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.957439</v>
+        <v>0.948511</v>
       </c>
       <c r="D101" t="n">
-        <v>0.902064</v>
+        <v>0.8913</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11245</v>
+        <v>1.09241</v>
       </c>
       <c r="C102" t="n">
-        <v>0.924724</v>
+        <v>0.92614</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8987889999999999</v>
+        <v>0.877502</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07266</v>
+        <v>1.10742</v>
       </c>
       <c r="C103" t="n">
-        <v>0.905135</v>
+        <v>0.919174</v>
       </c>
       <c r="D103" t="n">
-        <v>0.855087</v>
+        <v>0.847177</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06385</v>
+        <v>1.0902</v>
       </c>
       <c r="C104" t="n">
-        <v>0.908571</v>
+        <v>0.916921</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8448</v>
+        <v>0.839754</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05957</v>
+        <v>1.06782</v>
       </c>
       <c r="C105" t="n">
-        <v>0.879854</v>
+        <v>0.890633</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8289</v>
+        <v>0.832268</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.07232</v>
+        <v>1.03858</v>
       </c>
       <c r="C106" t="n">
-        <v>0.886204</v>
+        <v>0.8788</v>
       </c>
       <c r="D106" t="n">
-        <v>0.822898</v>
+        <v>0.830029</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06539</v>
+        <v>1.03861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.870715</v>
+        <v>0.884385</v>
       </c>
       <c r="D107" t="n">
-        <v>0.819898</v>
+        <v>0.812636</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.05287</v>
+        <v>1.02109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.875095</v>
+        <v>0.855968</v>
       </c>
       <c r="D108" t="n">
-        <v>1.16389</v>
+        <v>1.17723</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04235</v>
+        <v>1.04516</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8655119999999999</v>
+        <v>0.865669</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12072</v>
+        <v>1.15084</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.33768</v>
+        <v>1.34596</v>
       </c>
       <c r="C110" t="n">
-        <v>1.16926</v>
+        <v>1.16584</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11948</v>
+        <v>1.12624</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32591</v>
+        <v>1.32308</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15639</v>
+        <v>1.1502</v>
       </c>
       <c r="D111" t="n">
-        <v>1.08368</v>
+        <v>1.13624</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30971</v>
+        <v>1.30607</v>
       </c>
       <c r="C112" t="n">
-        <v>1.16854</v>
+        <v>1.16239</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08626</v>
+        <v>1.10966</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31011</v>
+        <v>1.28851</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15127</v>
+        <v>1.13785</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07275</v>
+        <v>1.06044</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29269</v>
+        <v>1.28567</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13556</v>
+        <v>1.12829</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08991</v>
+        <v>1.08105</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.292</v>
+        <v>1.28754</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12563</v>
+        <v>1.11895</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05785</v>
+        <v>1.09796</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31617</v>
+        <v>1.29361</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12159</v>
+        <v>1.13367</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03649</v>
+        <v>1.06063</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29438</v>
+        <v>1.27121</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0916</v>
+        <v>1.0985</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04662</v>
+        <v>1.02664</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26138</v>
+        <v>1.25206</v>
       </c>
       <c r="C118" t="n">
-        <v>1.08511</v>
+        <v>1.07879</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02622</v>
+        <v>1.02104</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26797</v>
+        <v>1.26268</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09345</v>
+        <v>1.10214</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04772</v>
+        <v>1.03233</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.24428</v>
+        <v>1.25799</v>
       </c>
       <c r="C120" t="n">
-        <v>1.08014</v>
+        <v>1.0733</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01325</v>
+        <v>1.01395</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.25736</v>
+        <v>1.24109</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08474</v>
+        <v>1.09731</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01261</v>
+        <v>1.02365</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2441</v>
+        <v>1.27347</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07619</v>
+        <v>1.07301</v>
       </c>
       <c r="D122" t="n">
-        <v>0.998108</v>
+        <v>1.00734</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2509</v>
+        <v>1.23986</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06785</v>
+        <v>1.083</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32601</v>
+        <v>1.354</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.56556</v>
+        <v>1.58717</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39111</v>
+        <v>1.38976</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34146</v>
+        <v>1.32684</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.551</v>
+        <v>1.56832</v>
       </c>
       <c r="C125" t="n">
-        <v>1.38975</v>
+        <v>1.4106</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31389</v>
+        <v>1.30253</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56194</v>
+        <v>1.53447</v>
       </c>
       <c r="C126" t="n">
-        <v>1.39183</v>
+        <v>1.37144</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30701</v>
+        <v>1.30978</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.5658</v>
+        <v>1.55964</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37878</v>
+        <v>1.38476</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32505</v>
+        <v>1.31327</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55224</v>
+        <v>1.5524</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38503</v>
+        <v>1.37841</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30165</v>
+        <v>1.30797</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54719</v>
+        <v>1.54598</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36851</v>
+        <v>1.37685</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30213</v>
+        <v>1.30182</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.52695</v>
+        <v>1.55572</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35965</v>
+        <v>1.35533</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29909</v>
+        <v>1.3169</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54728</v>
+        <v>1.53184</v>
       </c>
       <c r="C131" t="n">
-        <v>1.3671</v>
+        <v>1.3679</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28825</v>
+        <v>1.32721</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.52759</v>
+        <v>1.53944</v>
       </c>
       <c r="C132" t="n">
-        <v>1.37867</v>
+        <v>1.35737</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29181</v>
+        <v>1.30144</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.51635</v>
+        <v>1.5539</v>
       </c>
       <c r="C133" t="n">
-        <v>1.35193</v>
+        <v>1.36393</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29053</v>
+        <v>1.3158</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.56084</v>
+        <v>1.52458</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34864</v>
+        <v>1.34775</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30473</v>
+        <v>1.29793</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54421</v>
+        <v>1.54343</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35018</v>
+        <v>1.36693</v>
       </c>
       <c r="D135" t="n">
-        <v>1.29502</v>
+        <v>1.30685</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.54379</v>
+        <v>1.52204</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36616</v>
+        <v>1.34469</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33105</v>
+        <v>1.30187</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.53115</v>
+        <v>1.53597</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35297</v>
+        <v>1.37262</v>
       </c>
       <c r="D137" t="n">
-        <v>1.65401</v>
+        <v>1.65773</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.88165</v>
+        <v>1.84027</v>
       </c>
       <c r="C138" t="n">
-        <v>1.70043</v>
+        <v>1.6832</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65305</v>
+        <v>1.6394</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85219</v>
+        <v>1.84545</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67734</v>
+        <v>1.68672</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64051</v>
+        <v>1.64383</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.83892</v>
+        <v>1.87866</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67769</v>
+        <v>1.68565</v>
       </c>
       <c r="D140" t="n">
-        <v>1.64026</v>
+        <v>1.61653</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86443</v>
+        <v>1.8504</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66819</v>
+        <v>1.68035</v>
       </c>
       <c r="D141" t="n">
-        <v>1.63243</v>
+        <v>1.62513</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.83837</v>
+        <v>1.8619</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67192</v>
+        <v>1.66588</v>
       </c>
       <c r="D142" t="n">
-        <v>1.62263</v>
+        <v>1.62964</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84925</v>
+        <v>1.85429</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67034</v>
+        <v>1.67508</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63785</v>
+        <v>1.62399</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.486399</v>
+        <v>0.435575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.306201</v>
+        <v>0.294286</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289244</v>
+        <v>0.284588</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.421572</v>
+        <v>0.407571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.29108</v>
+        <v>0.29741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.285858</v>
+        <v>0.276973</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.421163</v>
+        <v>0.403852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.288664</v>
+        <v>0.283507</v>
       </c>
       <c r="D4" t="n">
-        <v>0.283787</v>
+        <v>0.272169</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420105</v>
+        <v>0.401505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279298</v>
+        <v>0.280555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.282726</v>
+        <v>0.268173</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.408469</v>
+        <v>0.420878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.276124</v>
+        <v>0.268802</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272888</v>
+        <v>0.259664</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.404096</v>
+        <v>0.390554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.280598</v>
+        <v>0.2727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268948</v>
+        <v>0.258988</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.397593</v>
+        <v>0.387918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.270404</v>
+        <v>0.271531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270397</v>
+        <v>0.260882</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.397396</v>
+        <v>0.399824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266634</v>
+        <v>0.269449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.365231</v>
+        <v>0.345472</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.472132</v>
+        <v>0.479199</v>
       </c>
       <c r="C10" t="n">
-        <v>0.369439</v>
+        <v>0.371898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.355848</v>
+        <v>0.337791</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.487383</v>
+        <v>0.469684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.350951</v>
+        <v>0.351526</v>
       </c>
       <c r="D11" t="n">
-        <v>0.343176</v>
+        <v>0.331941</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.467405</v>
+        <v>0.46446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.339036</v>
+        <v>0.353049</v>
       </c>
       <c r="D12" t="n">
-        <v>0.345435</v>
+        <v>0.324936</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.459435</v>
+        <v>0.448249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341122</v>
+        <v>0.335626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.33405</v>
+        <v>0.312732</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.446746</v>
+        <v>0.450636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.339556</v>
+        <v>0.332113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325694</v>
+        <v>0.316582</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.44393</v>
+        <v>0.450436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.316005</v>
+        <v>0.325603</v>
       </c>
       <c r="D15" t="n">
-        <v>0.318294</v>
+        <v>0.301911</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45544</v>
+        <v>0.439504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.312094</v>
+        <v>0.317537</v>
       </c>
       <c r="D16" t="n">
-        <v>0.307049</v>
+        <v>0.291595</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441875</v>
+        <v>0.429074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.306288</v>
+        <v>0.30562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29659</v>
+        <v>0.291098</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.41737</v>
+        <v>0.421426</v>
       </c>
       <c r="C18" t="n">
-        <v>0.304011</v>
+        <v>0.299849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291277</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.422828</v>
+        <v>0.428499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2969</v>
+        <v>0.292037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29603</v>
+        <v>0.288925</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.432315</v>
+        <v>0.438018</v>
       </c>
       <c r="C20" t="n">
-        <v>0.29009</v>
+        <v>0.287847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.285791</v>
+        <v>0.277472</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421831</v>
+        <v>0.427802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.293335</v>
+        <v>0.29121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.27848</v>
+        <v>0.276243</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417289</v>
+        <v>0.416439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285328</v>
+        <v>0.286297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280615</v>
+        <v>0.273471</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.405582</v>
+        <v>0.411698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.284426</v>
+        <v>0.289732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.390263</v>
+        <v>0.372643</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.66974</v>
+        <v>0.65538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.534924</v>
+        <v>0.536423</v>
       </c>
       <c r="D24" t="n">
-        <v>0.379733</v>
+        <v>0.369312</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.641976</v>
+        <v>0.639055</v>
       </c>
       <c r="C25" t="n">
-        <v>0.506003</v>
+        <v>0.521307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.379802</v>
+        <v>0.352156</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.619036</v>
+        <v>0.647057</v>
       </c>
       <c r="C26" t="n">
-        <v>0.498508</v>
+        <v>0.496743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.356862</v>
+        <v>0.343849</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.610714</v>
+        <v>0.624982</v>
       </c>
       <c r="C27" t="n">
-        <v>0.481944</v>
+        <v>0.489783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346437</v>
+        <v>0.331837</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.607259</v>
+        <v>0.6131760000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.465756</v>
+        <v>0.470647</v>
       </c>
       <c r="D28" t="n">
-        <v>0.338648</v>
+        <v>0.331582</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.594544</v>
+        <v>0.59452</v>
       </c>
       <c r="C29" t="n">
-        <v>0.449796</v>
+        <v>0.457102</v>
       </c>
       <c r="D29" t="n">
-        <v>0.339261</v>
+        <v>0.321813</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56834</v>
+        <v>0.5787600000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.437532</v>
+        <v>0.447826</v>
       </c>
       <c r="D30" t="n">
-        <v>0.329711</v>
+        <v>0.311371</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.569834</v>
+        <v>0.590153</v>
       </c>
       <c r="C31" t="n">
-        <v>0.42239</v>
+        <v>0.437144</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326365</v>
+        <v>0.312773</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.554365</v>
+        <v>0.542419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.410854</v>
+        <v>0.418772</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320644</v>
+        <v>0.299057</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549534</v>
+        <v>0.538085</v>
       </c>
       <c r="C33" t="n">
-        <v>0.399826</v>
+        <v>0.418136</v>
       </c>
       <c r="D33" t="n">
-        <v>0.307981</v>
+        <v>0.29171</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.539918</v>
+        <v>0.529321</v>
       </c>
       <c r="C34" t="n">
-        <v>0.394764</v>
+        <v>0.417843</v>
       </c>
       <c r="D34" t="n">
-        <v>0.301625</v>
+        <v>0.293641</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.522433</v>
+        <v>0.51869</v>
       </c>
       <c r="C35" t="n">
-        <v>0.385383</v>
+        <v>0.394847</v>
       </c>
       <c r="D35" t="n">
-        <v>0.295754</v>
+        <v>0.284585</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521051</v>
+        <v>0.510194</v>
       </c>
       <c r="C36" t="n">
-        <v>0.380025</v>
+        <v>0.391125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286224</v>
+        <v>0.28218</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.516402</v>
+        <v>0.503088</v>
       </c>
       <c r="C37" t="n">
-        <v>0.368665</v>
+        <v>0.382906</v>
       </c>
       <c r="D37" t="n">
-        <v>0.543493</v>
+        <v>0.548697</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.786143</v>
+        <v>0.778954</v>
       </c>
       <c r="C38" t="n">
-        <v>0.630551</v>
+        <v>0.6554140000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.541359</v>
+        <v>0.539282</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.75227</v>
+        <v>0.765059</v>
       </c>
       <c r="C39" t="n">
-        <v>0.623858</v>
+        <v>0.63617</v>
       </c>
       <c r="D39" t="n">
-        <v>0.513317</v>
+        <v>0.526959</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.730953</v>
+        <v>0.718212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.598071</v>
+        <v>0.609576</v>
       </c>
       <c r="D40" t="n">
-        <v>0.502068</v>
+        <v>0.505632</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.705291</v>
+        <v>0.724143</v>
       </c>
       <c r="C41" t="n">
-        <v>0.579834</v>
+        <v>0.5867560000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.481384</v>
+        <v>0.470515</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6891080000000001</v>
+        <v>0.70438</v>
       </c>
       <c r="C42" t="n">
-        <v>0.564331</v>
+        <v>0.580212</v>
       </c>
       <c r="D42" t="n">
-        <v>0.46997</v>
+        <v>0.45576</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.684684</v>
+        <v>0.679273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.54049</v>
+        <v>0.553962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.454268</v>
+        <v>0.448769</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678236</v>
+        <v>0.676417</v>
       </c>
       <c r="C44" t="n">
-        <v>0.533585</v>
+        <v>0.543921</v>
       </c>
       <c r="D44" t="n">
-        <v>0.444904</v>
+        <v>0.437644</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669787</v>
+        <v>0.665362</v>
       </c>
       <c r="C45" t="n">
-        <v>0.518401</v>
+        <v>0.52023</v>
       </c>
       <c r="D45" t="n">
-        <v>0.439983</v>
+        <v>0.424269</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.63731</v>
+        <v>0.641651</v>
       </c>
       <c r="C46" t="n">
-        <v>0.499698</v>
+        <v>0.504202</v>
       </c>
       <c r="D46" t="n">
-        <v>0.429329</v>
+        <v>0.424709</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.616631</v>
+        <v>0.619359</v>
       </c>
       <c r="C47" t="n">
-        <v>0.476331</v>
+        <v>0.497421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.426149</v>
+        <v>0.413627</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6065199999999999</v>
+        <v>0.616777</v>
       </c>
       <c r="C48" t="n">
-        <v>0.462411</v>
+        <v>0.486165</v>
       </c>
       <c r="D48" t="n">
-        <v>0.412027</v>
+        <v>0.396472</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5951109999999999</v>
+        <v>0.607355</v>
       </c>
       <c r="C49" t="n">
-        <v>0.464768</v>
+        <v>0.475601</v>
       </c>
       <c r="D49" t="n">
-        <v>0.40377</v>
+        <v>0.387916</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.591406</v>
+        <v>0.583429</v>
       </c>
       <c r="C50" t="n">
-        <v>0.456328</v>
+        <v>0.463232</v>
       </c>
       <c r="D50" t="n">
-        <v>0.386727</v>
+        <v>0.38061</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.579831</v>
+        <v>0.573607</v>
       </c>
       <c r="C51" t="n">
-        <v>0.447574</v>
+        <v>0.447678</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6772820000000001</v>
+        <v>0.664254</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.567895</v>
+        <v>0.56552</v>
       </c>
       <c r="C52" t="n">
-        <v>0.430232</v>
+        <v>0.447048</v>
       </c>
       <c r="D52" t="n">
-        <v>0.656158</v>
+        <v>0.645164</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.819069</v>
+        <v>0.8356789999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6887</v>
+        <v>0.715603</v>
       </c>
       <c r="D53" t="n">
-        <v>0.656622</v>
+        <v>0.63937</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.809772</v>
+        <v>0.803905</v>
       </c>
       <c r="C54" t="n">
-        <v>0.679466</v>
+        <v>0.692343</v>
       </c>
       <c r="D54" t="n">
-        <v>0.627669</v>
+        <v>0.612408</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.807857</v>
+        <v>0.815566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672784</v>
+        <v>0.691226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.612235</v>
+        <v>0.595229</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.778122</v>
+        <v>0.781533</v>
       </c>
       <c r="C56" t="n">
-        <v>0.646969</v>
+        <v>0.6738499999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5997440000000001</v>
+        <v>0.578831</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.767877</v>
+        <v>0.771663</v>
       </c>
       <c r="C57" t="n">
-        <v>0.625982</v>
+        <v>0.651443</v>
       </c>
       <c r="D57" t="n">
-        <v>0.589742</v>
+        <v>0.569078</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.763804</v>
+        <v>0.756995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.613889</v>
+        <v>0.646288</v>
       </c>
       <c r="D58" t="n">
-        <v>0.561958</v>
+        <v>0.557632</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.749758</v>
+        <v>0.754065</v>
       </c>
       <c r="C59" t="n">
-        <v>0.602922</v>
+        <v>0.628818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.554596</v>
+        <v>0.539951</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.721288</v>
+        <v>0.733281</v>
       </c>
       <c r="C60" t="n">
-        <v>0.578193</v>
+        <v>0.5977749999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.535432</v>
+        <v>0.533737</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.704824</v>
+        <v>0.716716</v>
       </c>
       <c r="C61" t="n">
-        <v>0.580298</v>
+        <v>0.579427</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5266999999999999</v>
+        <v>0.518767</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709308</v>
+        <v>0.736527</v>
       </c>
       <c r="C62" t="n">
-        <v>0.547602</v>
+        <v>0.569783</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5081</v>
+        <v>0.518858</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.698373</v>
+        <v>0.693188</v>
       </c>
       <c r="C63" t="n">
-        <v>0.546522</v>
+        <v>0.546467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.50261</v>
+        <v>0.504108</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6951079999999999</v>
+        <v>0.709461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.541265</v>
+        <v>0.555705</v>
       </c>
       <c r="D64" t="n">
-        <v>0.506616</v>
+        <v>0.488698</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.664923</v>
+        <v>0.7186630000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.530075</v>
+        <v>0.53866</v>
       </c>
       <c r="D65" t="n">
-        <v>0.503516</v>
+        <v>0.491591</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.663419</v>
+        <v>0.668578</v>
       </c>
       <c r="C66" t="n">
-        <v>0.516526</v>
+        <v>0.5278040000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.784312</v>
+        <v>0.775616</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.954662</v>
+        <v>0.955175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.791751</v>
+        <v>0.817347</v>
       </c>
       <c r="D67" t="n">
-        <v>0.74754</v>
+        <v>0.753515</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9441310000000001</v>
+        <v>0.933925</v>
       </c>
       <c r="C68" t="n">
-        <v>0.784125</v>
+        <v>0.799601</v>
       </c>
       <c r="D68" t="n">
-        <v>0.737192</v>
+        <v>0.74218</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.912964</v>
+        <v>0.924184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.753375</v>
+        <v>0.76634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.703149</v>
+        <v>0.696825</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.903919</v>
+        <v>0.917853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.736443</v>
+        <v>0.770442</v>
       </c>
       <c r="D70" t="n">
-        <v>0.70026</v>
+        <v>0.690249</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.881464</v>
+        <v>0.872871</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720522</v>
+        <v>0.716492</v>
       </c>
       <c r="D71" t="n">
-        <v>0.682274</v>
+        <v>0.6586109999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.864768</v>
+        <v>0.90426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.70849</v>
+        <v>0.726224</v>
       </c>
       <c r="D72" t="n">
-        <v>0.667168</v>
+        <v>0.663129</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.8749130000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678741</v>
+        <v>0.703533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.656832</v>
+        <v>0.640483</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8430839999999999</v>
+        <v>0.8431340000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.672883</v>
+        <v>0.678646</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6576149999999999</v>
+        <v>0.641353</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.834259</v>
+        <v>0.840747</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6505379999999999</v>
+        <v>0.667547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.649383</v>
+        <v>0.605422</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.818337</v>
+        <v>0.827669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.648943</v>
+        <v>0.661813</v>
       </c>
       <c r="D76" t="n">
-        <v>0.617559</v>
+        <v>0.62495</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.797893</v>
+        <v>0.817378</v>
       </c>
       <c r="C77" t="n">
-        <v>0.647456</v>
+        <v>0.64932</v>
       </c>
       <c r="D77" t="n">
-        <v>0.597982</v>
+        <v>0.596764</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.829523</v>
+        <v>0.805005</v>
       </c>
       <c r="C78" t="n">
-        <v>0.620687</v>
+        <v>0.630781</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.579971</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.772668</v>
+        <v>0.784459</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6253300000000001</v>
+        <v>0.618944</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585066</v>
+        <v>0.5984930000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.775321</v>
+        <v>0.78382</v>
       </c>
       <c r="C80" t="n">
-        <v>0.613888</v>
+        <v>0.617354</v>
       </c>
       <c r="D80" t="n">
-        <v>0.902715</v>
+        <v>0.951202</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10426</v>
+        <v>1.0681</v>
       </c>
       <c r="C81" t="n">
-        <v>0.940286</v>
+        <v>0.941743</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9026380000000001</v>
+        <v>0.876514</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06687</v>
+        <v>1.09283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9099080000000001</v>
+        <v>0.91879</v>
       </c>
       <c r="D82" t="n">
-        <v>0.883244</v>
+        <v>0.853145</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.04847</v>
+        <v>1.0548</v>
       </c>
       <c r="C83" t="n">
-        <v>0.891111</v>
+        <v>0.902497</v>
       </c>
       <c r="D83" t="n">
-        <v>0.860281</v>
+        <v>0.843229</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01861</v>
+        <v>1.05576</v>
       </c>
       <c r="C84" t="n">
-        <v>0.875861</v>
+        <v>0.884815</v>
       </c>
       <c r="D84" t="n">
-        <v>0.832823</v>
+        <v>0.81885</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01818</v>
+        <v>1.00625</v>
       </c>
       <c r="C85" t="n">
-        <v>0.841401</v>
+        <v>0.875198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.806206</v>
+        <v>0.805763</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.993595</v>
+        <v>0.997292</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8349569999999999</v>
+        <v>0.847314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.805485</v>
+        <v>0.787039</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00515</v>
+        <v>0.987492</v>
       </c>
       <c r="C87" t="n">
-        <v>0.818683</v>
+        <v>0.829385</v>
       </c>
       <c r="D87" t="n">
-        <v>0.792658</v>
+        <v>0.768093</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.965537</v>
+        <v>0.969922</v>
       </c>
       <c r="C88" t="n">
-        <v>0.811177</v>
+        <v>0.820314</v>
       </c>
       <c r="D88" t="n">
-        <v>0.76678</v>
+        <v>0.779141</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.969897</v>
+        <v>0.95302</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779172</v>
+        <v>0.797358</v>
       </c>
       <c r="D89" t="n">
-        <v>0.744854</v>
+        <v>0.7373690000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.960506</v>
+        <v>0.962376</v>
       </c>
       <c r="C90" t="n">
-        <v>0.76758</v>
+        <v>0.781319</v>
       </c>
       <c r="D90" t="n">
-        <v>0.72712</v>
+        <v>0.715688</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.94502</v>
+        <v>0.93768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.78294</v>
+        <v>0.759591</v>
       </c>
       <c r="D91" t="n">
-        <v>0.720151</v>
+        <v>0.714441</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.935558</v>
+        <v>0.922742</v>
       </c>
       <c r="C92" t="n">
-        <v>0.750506</v>
+        <v>0.757396</v>
       </c>
       <c r="D92" t="n">
-        <v>0.707367</v>
+        <v>0.704196</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.937357</v>
+        <v>0.9051439999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.735032</v>
+        <v>0.735511</v>
       </c>
       <c r="D93" t="n">
-        <v>0.704192</v>
+        <v>0.695078</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9125760000000001</v>
+        <v>0.914348</v>
       </c>
       <c r="C94" t="n">
-        <v>0.723498</v>
+        <v>0.731074</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04556</v>
+        <v>1.01866</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19231</v>
+        <v>1.19827</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03371</v>
+        <v>1.05714</v>
       </c>
       <c r="D95" t="n">
-        <v>0.994581</v>
+        <v>0.989915</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19266</v>
+        <v>1.21415</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03673</v>
+        <v>1.05717</v>
       </c>
       <c r="D96" t="n">
-        <v>0.979571</v>
+        <v>0.980335</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18424</v>
+        <v>1.20589</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03235</v>
+        <v>1.03536</v>
       </c>
       <c r="D97" t="n">
-        <v>0.964475</v>
+        <v>0.944963</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1747</v>
+        <v>1.16301</v>
       </c>
       <c r="C98" t="n">
-        <v>0.998197</v>
+        <v>1.00952</v>
       </c>
       <c r="D98" t="n">
-        <v>0.939496</v>
+        <v>0.957574</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14847</v>
+        <v>1.17366</v>
       </c>
       <c r="C99" t="n">
-        <v>0.980356</v>
+        <v>0.99236</v>
       </c>
       <c r="D99" t="n">
-        <v>0.920094</v>
+        <v>0.929515</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12102</v>
+        <v>1.12289</v>
       </c>
       <c r="C100" t="n">
-        <v>0.967133</v>
+        <v>0.965592</v>
       </c>
       <c r="D100" t="n">
-        <v>0.900015</v>
+        <v>0.891329</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1401</v>
+        <v>1.10478</v>
       </c>
       <c r="C101" t="n">
-        <v>0.948511</v>
+        <v>0.968647</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8913</v>
+        <v>0.8940669999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09241</v>
+        <v>1.10227</v>
       </c>
       <c r="C102" t="n">
-        <v>0.92614</v>
+        <v>0.952431</v>
       </c>
       <c r="D102" t="n">
-        <v>0.877502</v>
+        <v>0.884172</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10742</v>
+        <v>1.10496</v>
       </c>
       <c r="C103" t="n">
-        <v>0.919174</v>
+        <v>0.944978</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847177</v>
+        <v>0.8718089999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0902</v>
+        <v>1.07442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.916921</v>
+        <v>0.953918</v>
       </c>
       <c r="D104" t="n">
-        <v>0.839754</v>
+        <v>0.843669</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06782</v>
+        <v>1.06313</v>
       </c>
       <c r="C105" t="n">
-        <v>0.890633</v>
+        <v>0.919804</v>
       </c>
       <c r="D105" t="n">
-        <v>0.832268</v>
+        <v>0.831404</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.03858</v>
+        <v>1.05654</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8788</v>
+        <v>0.898926</v>
       </c>
       <c r="D106" t="n">
-        <v>0.830029</v>
+        <v>0.822483</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.03861</v>
+        <v>1.05867</v>
       </c>
       <c r="C107" t="n">
-        <v>0.884385</v>
+        <v>0.889425</v>
       </c>
       <c r="D107" t="n">
-        <v>0.812636</v>
+        <v>0.803881</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.02109</v>
+        <v>1.04607</v>
       </c>
       <c r="C108" t="n">
-        <v>0.855968</v>
+        <v>0.886818</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17723</v>
+        <v>1.14569</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04516</v>
+        <v>1.03078</v>
       </c>
       <c r="C109" t="n">
-        <v>0.865669</v>
+        <v>0.9021980000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15084</v>
+        <v>1.14891</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.34596</v>
+        <v>1.38301</v>
       </c>
       <c r="C110" t="n">
-        <v>1.16584</v>
+        <v>1.21055</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12624</v>
+        <v>1.13497</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32308</v>
+        <v>1.36923</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1502</v>
+        <v>1.19521</v>
       </c>
       <c r="D111" t="n">
-        <v>1.13624</v>
+        <v>1.09308</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30607</v>
+        <v>1.31563</v>
       </c>
       <c r="C112" t="n">
-        <v>1.16239</v>
+        <v>1.20432</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10966</v>
+        <v>1.08847</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.28851</v>
+        <v>1.31945</v>
       </c>
       <c r="C113" t="n">
-        <v>1.13785</v>
+        <v>1.18265</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06044</v>
+        <v>1.07167</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28567</v>
+        <v>1.29331</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12829</v>
+        <v>1.18817</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08105</v>
+        <v>1.06441</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.28754</v>
+        <v>1.30622</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11895</v>
+        <v>1.16894</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09796</v>
+        <v>1.07762</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.29361</v>
+        <v>1.28328</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13367</v>
+        <v>1.17076</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06063</v>
+        <v>1.08739</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27121</v>
+        <v>1.28539</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0985</v>
+        <v>1.17471</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02664</v>
+        <v>1.05877</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.25206</v>
+        <v>1.25555</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07879</v>
+        <v>1.15611</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02104</v>
+        <v>1.03518</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26268</v>
+        <v>1.2545</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10214</v>
+        <v>1.1252</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03233</v>
+        <v>1.03887</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25799</v>
+        <v>1.24897</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0733</v>
+        <v>1.15153</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01395</v>
+        <v>1.02944</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.24109</v>
+        <v>1.26716</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09731</v>
+        <v>1.15188</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02365</v>
+        <v>1.04013</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.27347</v>
+        <v>1.27425</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07301</v>
+        <v>1.15883</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00734</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.23986</v>
+        <v>1.26872</v>
       </c>
       <c r="C123" t="n">
-        <v>1.083</v>
+        <v>1.15879</v>
       </c>
       <c r="D123" t="n">
-        <v>1.354</v>
+        <v>1.38763</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58717</v>
+        <v>1.55652</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38976</v>
+        <v>1.45468</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32684</v>
+        <v>1.37367</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.56832</v>
+        <v>1.60349</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4106</v>
+        <v>1.46231</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30253</v>
+        <v>1.34529</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.53447</v>
+        <v>1.54032</v>
       </c>
       <c r="C126" t="n">
-        <v>1.37144</v>
+        <v>1.47956</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30978</v>
+        <v>1.34288</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55964</v>
+        <v>1.56939</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38476</v>
+        <v>1.46306</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31327</v>
+        <v>1.3435</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.5524</v>
+        <v>1.56066</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37841</v>
+        <v>1.47127</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30797</v>
+        <v>1.36767</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54598</v>
+        <v>1.55485</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37685</v>
+        <v>1.44534</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30182</v>
+        <v>1.36838</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55572</v>
+        <v>1.55073</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35533</v>
+        <v>1.46529</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3169</v>
+        <v>1.35256</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.53184</v>
+        <v>1.54138</v>
       </c>
       <c r="C131" t="n">
-        <v>1.3679</v>
+        <v>1.4532</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32721</v>
+        <v>1.36135</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.53944</v>
+        <v>1.54303</v>
       </c>
       <c r="C132" t="n">
-        <v>1.35737</v>
+        <v>1.44649</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30144</v>
+        <v>1.33396</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.5539</v>
+        <v>1.55665</v>
       </c>
       <c r="C133" t="n">
-        <v>1.36393</v>
+        <v>1.43811</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3158</v>
+        <v>1.34469</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52458</v>
+        <v>1.53401</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34775</v>
+        <v>1.47027</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29793</v>
+        <v>1.35238</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54343</v>
+        <v>1.54313</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36693</v>
+        <v>1.45505</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30685</v>
+        <v>1.3634</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52204</v>
+        <v>1.52626</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34469</v>
+        <v>1.44697</v>
       </c>
       <c r="D136" t="n">
-        <v>1.30187</v>
+        <v>1.34242</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.53597</v>
+        <v>1.55792</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37262</v>
+        <v>1.45582</v>
       </c>
       <c r="D137" t="n">
-        <v>1.65773</v>
+        <v>1.70062</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84027</v>
+        <v>1.86173</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6832</v>
+        <v>1.77736</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6394</v>
+        <v>1.69646</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.84545</v>
+        <v>1.84874</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68672</v>
+        <v>1.7806</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64383</v>
+        <v>1.68742</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87866</v>
+        <v>1.85272</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68565</v>
+        <v>1.78226</v>
       </c>
       <c r="D140" t="n">
-        <v>1.61653</v>
+        <v>1.68098</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.8504</v>
+        <v>1.86161</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68035</v>
+        <v>1.8175</v>
       </c>
       <c r="D141" t="n">
-        <v>1.62513</v>
+        <v>1.69806</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.8619</v>
+        <v>1.83236</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66588</v>
+        <v>1.77988</v>
       </c>
       <c r="D142" t="n">
-        <v>1.62964</v>
+        <v>1.7142</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85429</v>
+        <v>1.84725</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67508</v>
+        <v>1.78433</v>
       </c>
       <c r="D143" t="n">
-        <v>1.62399</v>
+        <v>1.69431</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.435575</v>
+        <v>0.427979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.294286</v>
+        <v>0.293811</v>
       </c>
       <c r="D2" t="n">
-        <v>0.284588</v>
+        <v>0.288192</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407571</v>
+        <v>0.419877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.29741</v>
+        <v>0.285779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276973</v>
+        <v>0.277922</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.403852</v>
+        <v>0.42605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283507</v>
+        <v>0.280603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272169</v>
+        <v>0.271405</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.401505</v>
+        <v>0.416418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280555</v>
+        <v>0.27616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.268173</v>
+        <v>0.276276</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420878</v>
+        <v>0.409579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.268802</v>
+        <v>0.278958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259664</v>
+        <v>0.267527</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.390554</v>
+        <v>0.410045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2727</v>
+        <v>0.26792</v>
       </c>
       <c r="D7" t="n">
-        <v>0.258988</v>
+        <v>0.259667</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.387918</v>
+        <v>0.414732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.271531</v>
+        <v>0.276355</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260882</v>
+        <v>0.263424</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.399824</v>
+        <v>0.389647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269449</v>
+        <v>0.266182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.345472</v>
+        <v>0.362311</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.479199</v>
+        <v>0.470497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.371898</v>
+        <v>0.36061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.337791</v>
+        <v>0.33988</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.469684</v>
+        <v>0.495599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351526</v>
+        <v>0.350424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.331941</v>
+        <v>0.330186</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.46446</v>
+        <v>0.462533</v>
       </c>
       <c r="C12" t="n">
-        <v>0.353049</v>
+        <v>0.341897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.324936</v>
+        <v>0.34514</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.448249</v>
+        <v>0.468681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335626</v>
+        <v>0.340736</v>
       </c>
       <c r="D13" t="n">
-        <v>0.312732</v>
+        <v>0.32438</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.450636</v>
+        <v>0.451629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.332113</v>
+        <v>0.327245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316582</v>
+        <v>0.315013</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450436</v>
+        <v>0.454509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.325603</v>
+        <v>0.320702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.301911</v>
+        <v>0.307842</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439504</v>
+        <v>0.448976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.317537</v>
+        <v>0.318318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.291595</v>
+        <v>0.298661</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.429074</v>
+        <v>0.431965</v>
       </c>
       <c r="C17" t="n">
-        <v>0.30562</v>
+        <v>0.309141</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291098</v>
+        <v>0.300738</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.421426</v>
+        <v>0.4349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.299849</v>
+        <v>0.314182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2825</v>
+        <v>0.288786</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428499</v>
+        <v>0.423794</v>
       </c>
       <c r="C19" t="n">
-        <v>0.292037</v>
+        <v>0.31083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.288925</v>
+        <v>0.288085</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438018</v>
+        <v>0.422895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.287847</v>
+        <v>0.296939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.277472</v>
+        <v>0.287444</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.427802</v>
+        <v>0.412941</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29121</v>
+        <v>0.294805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.276243</v>
+        <v>0.276845</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416439</v>
+        <v>0.420733</v>
       </c>
       <c r="C22" t="n">
-        <v>0.286297</v>
+        <v>0.289982</v>
       </c>
       <c r="D22" t="n">
-        <v>0.273471</v>
+        <v>0.272131</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.411698</v>
+        <v>0.427456</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289732</v>
+        <v>0.28798</v>
       </c>
       <c r="D23" t="n">
-        <v>0.372643</v>
+        <v>0.367489</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.65538</v>
+        <v>0.6665180000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.536423</v>
+        <v>0.5346109999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.369312</v>
+        <v>0.364817</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.639055</v>
+        <v>0.655295</v>
       </c>
       <c r="C25" t="n">
-        <v>0.521307</v>
+        <v>0.512219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.352156</v>
+        <v>0.360224</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.647057</v>
+        <v>0.629713</v>
       </c>
       <c r="C26" t="n">
-        <v>0.496743</v>
+        <v>0.500044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343849</v>
+        <v>0.343937</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.624982</v>
+        <v>0.619036</v>
       </c>
       <c r="C27" t="n">
-        <v>0.489783</v>
+        <v>0.483635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.331837</v>
+        <v>0.339024</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6131760000000001</v>
+        <v>0.6034</v>
       </c>
       <c r="C28" t="n">
-        <v>0.470647</v>
+        <v>0.471303</v>
       </c>
       <c r="D28" t="n">
-        <v>0.331582</v>
+        <v>0.335435</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.59452</v>
+        <v>0.578759</v>
       </c>
       <c r="C29" t="n">
-        <v>0.457102</v>
+        <v>0.461392</v>
       </c>
       <c r="D29" t="n">
-        <v>0.321813</v>
+        <v>0.332556</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5787600000000001</v>
+        <v>0.591461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.447826</v>
+        <v>0.454051</v>
       </c>
       <c r="D30" t="n">
-        <v>0.311371</v>
+        <v>0.314754</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.590153</v>
+        <v>0.564609</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437144</v>
+        <v>0.436775</v>
       </c>
       <c r="D31" t="n">
-        <v>0.312773</v>
+        <v>0.307999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.542419</v>
+        <v>0.55078</v>
       </c>
       <c r="C32" t="n">
-        <v>0.418772</v>
+        <v>0.440071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.299057</v>
+        <v>0.304343</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.538085</v>
+        <v>0.533373</v>
       </c>
       <c r="C33" t="n">
-        <v>0.418136</v>
+        <v>0.421247</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29171</v>
+        <v>0.301052</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.529321</v>
+        <v>0.530002</v>
       </c>
       <c r="C34" t="n">
-        <v>0.417843</v>
+        <v>0.408422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293641</v>
+        <v>0.289847</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.51869</v>
+        <v>0.537492</v>
       </c>
       <c r="C35" t="n">
-        <v>0.394847</v>
+        <v>0.398282</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284585</v>
+        <v>0.291496</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.510194</v>
+        <v>0.521375</v>
       </c>
       <c r="C36" t="n">
-        <v>0.391125</v>
+        <v>0.393319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28218</v>
+        <v>0.287412</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.503088</v>
+        <v>0.5039360000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382906</v>
+        <v>0.38816</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548697</v>
+        <v>0.545584</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.778954</v>
+        <v>0.762511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6554140000000001</v>
+        <v>0.640639</v>
       </c>
       <c r="D38" t="n">
-        <v>0.539282</v>
+        <v>0.518746</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.765059</v>
+        <v>0.731007</v>
       </c>
       <c r="C39" t="n">
-        <v>0.63617</v>
+        <v>0.617402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.526959</v>
+        <v>0.505447</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.718212</v>
+        <v>0.7326780000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.609576</v>
+        <v>0.6091490000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.505632</v>
+        <v>0.488848</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.724143</v>
+        <v>0.706443</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5867560000000001</v>
+        <v>0.593696</v>
       </c>
       <c r="D41" t="n">
-        <v>0.470515</v>
+        <v>0.472523</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.70438</v>
+        <v>0.686795</v>
       </c>
       <c r="C42" t="n">
-        <v>0.580212</v>
+        <v>0.581165</v>
       </c>
       <c r="D42" t="n">
-        <v>0.45576</v>
+        <v>0.467806</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.679273</v>
+        <v>0.677849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.553962</v>
+        <v>0.553041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.448769</v>
+        <v>0.459769</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.676417</v>
+        <v>0.653621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.543921</v>
+        <v>0.5471</v>
       </c>
       <c r="D44" t="n">
-        <v>0.437644</v>
+        <v>0.442864</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.665362</v>
+        <v>0.635945</v>
       </c>
       <c r="C45" t="n">
-        <v>0.52023</v>
+        <v>0.520867</v>
       </c>
       <c r="D45" t="n">
-        <v>0.424269</v>
+        <v>0.42455</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641651</v>
+        <v>0.641278</v>
       </c>
       <c r="C46" t="n">
-        <v>0.504202</v>
+        <v>0.509069</v>
       </c>
       <c r="D46" t="n">
-        <v>0.424709</v>
+        <v>0.414641</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619359</v>
+        <v>0.616274</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497421</v>
+        <v>0.489829</v>
       </c>
       <c r="D47" t="n">
-        <v>0.413627</v>
+        <v>0.405892</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.616777</v>
+        <v>0.600951</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486165</v>
+        <v>0.481372</v>
       </c>
       <c r="D48" t="n">
-        <v>0.396472</v>
+        <v>0.393075</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.607355</v>
+        <v>0.596118</v>
       </c>
       <c r="C49" t="n">
-        <v>0.475601</v>
+        <v>0.472768</v>
       </c>
       <c r="D49" t="n">
-        <v>0.387916</v>
+        <v>0.390873</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.583429</v>
+        <v>0.597097</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463232</v>
+        <v>0.472553</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38061</v>
+        <v>0.388316</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.573607</v>
+        <v>0.578696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.447678</v>
+        <v>0.45318</v>
       </c>
       <c r="D51" t="n">
-        <v>0.664254</v>
+        <v>0.665508</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.56552</v>
+        <v>0.5722739999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.447048</v>
+        <v>0.445923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.645164</v>
+        <v>0.654521</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8356789999999999</v>
+        <v>0.837407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.715603</v>
+        <v>0.7105590000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.63937</v>
+        <v>0.640813</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.803905</v>
+        <v>0.814215</v>
       </c>
       <c r="C54" t="n">
-        <v>0.692343</v>
+        <v>0.68926</v>
       </c>
       <c r="D54" t="n">
-        <v>0.612408</v>
+        <v>0.611317</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.815566</v>
+        <v>0.792527</v>
       </c>
       <c r="C55" t="n">
-        <v>0.691226</v>
+        <v>0.672834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.595229</v>
+        <v>0.597543</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.781533</v>
+        <v>0.7825839999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6738499999999999</v>
+        <v>0.644614</v>
       </c>
       <c r="D56" t="n">
-        <v>0.578831</v>
+        <v>0.57339</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.771663</v>
+        <v>0.767066</v>
       </c>
       <c r="C57" t="n">
-        <v>0.651443</v>
+        <v>0.651599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.569078</v>
+        <v>0.573107</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.756995</v>
+        <v>0.753808</v>
       </c>
       <c r="C58" t="n">
-        <v>0.646288</v>
+        <v>0.614364</v>
       </c>
       <c r="D58" t="n">
-        <v>0.557632</v>
+        <v>0.559679</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.754065</v>
+        <v>0.756238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.628818</v>
+        <v>0.606228</v>
       </c>
       <c r="D59" t="n">
-        <v>0.539951</v>
+        <v>0.538762</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.733281</v>
+        <v>0.753064</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5977749999999999</v>
+        <v>0.590502</v>
       </c>
       <c r="D60" t="n">
-        <v>0.533737</v>
+        <v>0.534198</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.716716</v>
+        <v>0.71077</v>
       </c>
       <c r="C61" t="n">
-        <v>0.579427</v>
+        <v>0.570519</v>
       </c>
       <c r="D61" t="n">
-        <v>0.518767</v>
+        <v>0.533341</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.736527</v>
+        <v>0.703424</v>
       </c>
       <c r="C62" t="n">
-        <v>0.569783</v>
+        <v>0.570484</v>
       </c>
       <c r="D62" t="n">
-        <v>0.518858</v>
+        <v>0.505499</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.693188</v>
+        <v>0.685256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.546467</v>
+        <v>0.544741</v>
       </c>
       <c r="D63" t="n">
-        <v>0.504108</v>
+        <v>0.507898</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.709461</v>
+        <v>0.67861</v>
       </c>
       <c r="C64" t="n">
-        <v>0.555705</v>
+        <v>0.548539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.488698</v>
+        <v>0.500268</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7186630000000001</v>
+        <v>0.670981</v>
       </c>
       <c r="C65" t="n">
-        <v>0.53866</v>
+        <v>0.532276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.491591</v>
+        <v>0.503198</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.668578</v>
+        <v>0.664404</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5278040000000001</v>
+        <v>0.533092</v>
       </c>
       <c r="D66" t="n">
-        <v>0.775616</v>
+        <v>0.796532</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.955175</v>
+        <v>0.967225</v>
       </c>
       <c r="C67" t="n">
-        <v>0.817347</v>
+        <v>0.83373</v>
       </c>
       <c r="D67" t="n">
-        <v>0.753515</v>
+        <v>0.7508629999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.933925</v>
+        <v>0.961197</v>
       </c>
       <c r="C68" t="n">
-        <v>0.799601</v>
+        <v>0.79143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.74218</v>
+        <v>0.735631</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.924184</v>
+        <v>0.914646</v>
       </c>
       <c r="C69" t="n">
-        <v>0.76634</v>
+        <v>0.781164</v>
       </c>
       <c r="D69" t="n">
-        <v>0.696825</v>
+        <v>0.713616</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.917853</v>
+        <v>0.906192</v>
       </c>
       <c r="C70" t="n">
-        <v>0.770442</v>
+        <v>0.764117</v>
       </c>
       <c r="D70" t="n">
-        <v>0.690249</v>
+        <v>0.697833</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.872871</v>
+        <v>0.889138</v>
       </c>
       <c r="C71" t="n">
-        <v>0.716492</v>
+        <v>0.7434190000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6586109999999999</v>
+        <v>0.673022</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.90426</v>
+        <v>0.878642</v>
       </c>
       <c r="C72" t="n">
-        <v>0.726224</v>
+        <v>0.726642</v>
       </c>
       <c r="D72" t="n">
-        <v>0.663129</v>
+        <v>0.6679079999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8749130000000001</v>
+        <v>0.857666</v>
       </c>
       <c r="C73" t="n">
-        <v>0.703533</v>
+        <v>0.707295</v>
       </c>
       <c r="D73" t="n">
-        <v>0.640483</v>
+        <v>0.650923</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8431340000000001</v>
+        <v>0.836558</v>
       </c>
       <c r="C74" t="n">
-        <v>0.678646</v>
+        <v>0.6837259999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.641353</v>
+        <v>0.640377</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.840747</v>
+        <v>0.843633</v>
       </c>
       <c r="C75" t="n">
-        <v>0.667547</v>
+        <v>0.666973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.605422</v>
+        <v>0.6224189999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.827669</v>
+        <v>0.830662</v>
       </c>
       <c r="C76" t="n">
-        <v>0.661813</v>
+        <v>0.648968</v>
       </c>
       <c r="D76" t="n">
-        <v>0.62495</v>
+        <v>0.621912</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.817378</v>
+        <v>0.8152</v>
       </c>
       <c r="C77" t="n">
-        <v>0.64932</v>
+        <v>0.640972</v>
       </c>
       <c r="D77" t="n">
-        <v>0.596764</v>
+        <v>0.595753</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.805005</v>
+        <v>0.819855</v>
       </c>
       <c r="C78" t="n">
-        <v>0.630781</v>
+        <v>0.628522</v>
       </c>
       <c r="D78" t="n">
-        <v>0.579971</v>
+        <v>0.58061</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.784459</v>
+        <v>0.776383</v>
       </c>
       <c r="C79" t="n">
-        <v>0.618944</v>
+        <v>0.619258</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5984930000000001</v>
+        <v>0.582811</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.78382</v>
+        <v>0.792093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.617354</v>
+        <v>0.626271</v>
       </c>
       <c r="D80" t="n">
-        <v>0.951202</v>
+        <v>0.915948</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0681</v>
+        <v>1.09219</v>
       </c>
       <c r="C81" t="n">
-        <v>0.941743</v>
+        <v>0.929561</v>
       </c>
       <c r="D81" t="n">
-        <v>0.876514</v>
+        <v>0.886034</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09283</v>
+        <v>1.06871</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91879</v>
+        <v>0.916206</v>
       </c>
       <c r="D82" t="n">
-        <v>0.853145</v>
+        <v>0.855409</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0548</v>
+        <v>1.05436</v>
       </c>
       <c r="C83" t="n">
-        <v>0.902497</v>
+        <v>0.881296</v>
       </c>
       <c r="D83" t="n">
-        <v>0.843229</v>
+        <v>0.845274</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05576</v>
+        <v>1.02687</v>
       </c>
       <c r="C84" t="n">
-        <v>0.884815</v>
+        <v>0.885287</v>
       </c>
       <c r="D84" t="n">
-        <v>0.81885</v>
+        <v>0.835871</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00625</v>
+        <v>1.01969</v>
       </c>
       <c r="C85" t="n">
-        <v>0.875198</v>
+        <v>0.867221</v>
       </c>
       <c r="D85" t="n">
-        <v>0.805763</v>
+        <v>0.789075</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.997292</v>
+        <v>1.00778</v>
       </c>
       <c r="C86" t="n">
-        <v>0.847314</v>
+        <v>0.841622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.787039</v>
+        <v>0.789382</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.987492</v>
+        <v>0.980318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.829385</v>
+        <v>0.826699</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768093</v>
+        <v>0.768798</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.969922</v>
+        <v>0.957973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.820314</v>
+        <v>0.793264</v>
       </c>
       <c r="D88" t="n">
-        <v>0.779141</v>
+        <v>0.760296</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.95302</v>
+        <v>0.961215</v>
       </c>
       <c r="C89" t="n">
-        <v>0.797358</v>
+        <v>0.792353</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7373690000000001</v>
+        <v>0.732699</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.962376</v>
+        <v>0.97921</v>
       </c>
       <c r="C90" t="n">
-        <v>0.781319</v>
+        <v>0.773841</v>
       </c>
       <c r="D90" t="n">
-        <v>0.715688</v>
+        <v>0.721265</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.93768</v>
+        <v>0.938781</v>
       </c>
       <c r="C91" t="n">
-        <v>0.759591</v>
+        <v>0.752018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.714441</v>
+        <v>0.714778</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.922742</v>
+        <v>0.91642</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757396</v>
+        <v>0.7720320000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.704196</v>
+        <v>0.7074279999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9051439999999999</v>
+        <v>0.908482</v>
       </c>
       <c r="C93" t="n">
-        <v>0.735511</v>
+        <v>0.738136</v>
       </c>
       <c r="D93" t="n">
-        <v>0.695078</v>
+        <v>0.680967</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.914348</v>
+        <v>0.9041</v>
       </c>
       <c r="C94" t="n">
-        <v>0.731074</v>
+        <v>0.745795</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01866</v>
+        <v>1.01669</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19827</v>
+        <v>1.21871</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05714</v>
+        <v>1.02949</v>
       </c>
       <c r="D95" t="n">
-        <v>0.989915</v>
+        <v>0.996074</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21415</v>
+        <v>1.19579</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05717</v>
+        <v>1.0351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.980335</v>
+        <v>0.958605</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20589</v>
+        <v>1.17149</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03536</v>
+        <v>1.02257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.944963</v>
+        <v>0.9382200000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16301</v>
+        <v>1.16375</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00952</v>
+        <v>1.02163</v>
       </c>
       <c r="D98" t="n">
-        <v>0.957574</v>
+        <v>0.9392470000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17366</v>
+        <v>1.15311</v>
       </c>
       <c r="C99" t="n">
-        <v>0.99236</v>
+        <v>0.997943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.929515</v>
+        <v>0.902033</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12289</v>
+        <v>1.14364</v>
       </c>
       <c r="C100" t="n">
-        <v>0.965592</v>
+        <v>0.982486</v>
       </c>
       <c r="D100" t="n">
-        <v>0.891329</v>
+        <v>0.881605</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10478</v>
+        <v>1.13419</v>
       </c>
       <c r="C101" t="n">
-        <v>0.968647</v>
+        <v>0.969633</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8940669999999999</v>
+        <v>0.86456</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10227</v>
+        <v>1.10667</v>
       </c>
       <c r="C102" t="n">
-        <v>0.952431</v>
+        <v>0.961624</v>
       </c>
       <c r="D102" t="n">
-        <v>0.884172</v>
+        <v>0.870471</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10496</v>
+        <v>1.09252</v>
       </c>
       <c r="C103" t="n">
-        <v>0.944978</v>
+        <v>0.936859</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8718089999999999</v>
+        <v>0.845735</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07442</v>
+        <v>1.08899</v>
       </c>
       <c r="C104" t="n">
-        <v>0.953918</v>
+        <v>0.9394749999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.843669</v>
+        <v>0.841844</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06313</v>
+        <v>1.06858</v>
       </c>
       <c r="C105" t="n">
-        <v>0.919804</v>
+        <v>0.919309</v>
       </c>
       <c r="D105" t="n">
-        <v>0.831404</v>
+        <v>0.831663</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05654</v>
+        <v>1.06284</v>
       </c>
       <c r="C106" t="n">
-        <v>0.898926</v>
+        <v>0.917039</v>
       </c>
       <c r="D106" t="n">
-        <v>0.822483</v>
+        <v>0.843967</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.05867</v>
+        <v>1.06263</v>
       </c>
       <c r="C107" t="n">
-        <v>0.889425</v>
+        <v>0.904442</v>
       </c>
       <c r="D107" t="n">
-        <v>0.803881</v>
+        <v>0.812343</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04607</v>
+        <v>1.05723</v>
       </c>
       <c r="C108" t="n">
-        <v>0.886818</v>
+        <v>0.871557</v>
       </c>
       <c r="D108" t="n">
-        <v>1.14569</v>
+        <v>1.11974</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.03078</v>
+        <v>1.06892</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9021980000000001</v>
+        <v>0.889266</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14891</v>
+        <v>1.10498</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38301</v>
+        <v>1.37476</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21055</v>
+        <v>1.18938</v>
       </c>
       <c r="D110" t="n">
-        <v>1.13497</v>
+        <v>1.1277</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.36923</v>
+        <v>1.31998</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19521</v>
+        <v>1.18975</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09308</v>
+        <v>1.0948</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31563</v>
+        <v>1.29201</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20432</v>
+        <v>1.18555</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08847</v>
+        <v>1.08544</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31945</v>
+        <v>1.35382</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18265</v>
+        <v>1.19295</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07167</v>
+        <v>1.0683</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29331</v>
+        <v>1.29675</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18817</v>
+        <v>1.15876</v>
       </c>
       <c r="D114" t="n">
-        <v>1.06441</v>
+        <v>1.06115</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30622</v>
+        <v>1.27202</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16894</v>
+        <v>1.17285</v>
       </c>
       <c r="D115" t="n">
-        <v>1.07762</v>
+        <v>1.05095</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28328</v>
+        <v>1.30738</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17076</v>
+        <v>1.1538</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08739</v>
+        <v>1.03413</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28539</v>
+        <v>1.25701</v>
       </c>
       <c r="C117" t="n">
-        <v>1.17471</v>
+        <v>1.15387</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05877</v>
+        <v>1.04483</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.25555</v>
+        <v>1.28713</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15611</v>
+        <v>1.16155</v>
       </c>
       <c r="D118" t="n">
-        <v>1.03518</v>
+        <v>1.02621</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2545</v>
+        <v>1.25718</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1252</v>
+        <v>1.12685</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03887</v>
+        <v>1.01677</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.24897</v>
+        <v>1.29216</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15153</v>
+        <v>1.13553</v>
       </c>
       <c r="D120" t="n">
-        <v>1.02944</v>
+        <v>0.9918090000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26716</v>
+        <v>1.24374</v>
       </c>
       <c r="C121" t="n">
-        <v>1.15188</v>
+        <v>1.1181</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04013</v>
+        <v>1.00438</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.27425</v>
+        <v>1.24162</v>
       </c>
       <c r="C122" t="n">
-        <v>1.15883</v>
+        <v>1.11655</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01299</v>
+        <v>1.00594</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.26872</v>
+        <v>1.24957</v>
       </c>
       <c r="C123" t="n">
-        <v>1.15879</v>
+        <v>1.11055</v>
       </c>
       <c r="D123" t="n">
-        <v>1.38763</v>
+        <v>1.33285</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.55652</v>
+        <v>1.56763</v>
       </c>
       <c r="C124" t="n">
-        <v>1.45468</v>
+        <v>1.45127</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37367</v>
+        <v>1.31269</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.60349</v>
+        <v>1.54375</v>
       </c>
       <c r="C125" t="n">
-        <v>1.46231</v>
+        <v>1.44827</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34529</v>
+        <v>1.31144</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.54032</v>
+        <v>1.55442</v>
       </c>
       <c r="C126" t="n">
-        <v>1.47956</v>
+        <v>1.44478</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34288</v>
+        <v>1.33738</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.56939</v>
+        <v>1.54285</v>
       </c>
       <c r="C127" t="n">
-        <v>1.46306</v>
+        <v>1.45747</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3435</v>
+        <v>1.32301</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56066</v>
+        <v>1.54876</v>
       </c>
       <c r="C128" t="n">
-        <v>1.47127</v>
+        <v>1.44199</v>
       </c>
       <c r="D128" t="n">
-        <v>1.36767</v>
+        <v>1.31278</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55485</v>
+        <v>1.53172</v>
       </c>
       <c r="C129" t="n">
-        <v>1.44534</v>
+        <v>1.43318</v>
       </c>
       <c r="D129" t="n">
-        <v>1.36838</v>
+        <v>1.31906</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55073</v>
+        <v>1.55455</v>
       </c>
       <c r="C130" t="n">
-        <v>1.46529</v>
+        <v>1.43968</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35256</v>
+        <v>1.30032</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54138</v>
+        <v>1.54924</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4532</v>
+        <v>1.44535</v>
       </c>
       <c r="D131" t="n">
-        <v>1.36135</v>
+        <v>1.29444</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54303</v>
+        <v>1.53261</v>
       </c>
       <c r="C132" t="n">
-        <v>1.44649</v>
+        <v>1.42172</v>
       </c>
       <c r="D132" t="n">
-        <v>1.33396</v>
+        <v>1.29262</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55665</v>
+        <v>1.54725</v>
       </c>
       <c r="C133" t="n">
-        <v>1.43811</v>
+        <v>1.445</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34469</v>
+        <v>1.29125</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53401</v>
+        <v>1.53678</v>
       </c>
       <c r="C134" t="n">
-        <v>1.47027</v>
+        <v>1.4448</v>
       </c>
       <c r="D134" t="n">
-        <v>1.35238</v>
+        <v>1.2962</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54313</v>
+        <v>1.54188</v>
       </c>
       <c r="C135" t="n">
-        <v>1.45505</v>
+        <v>1.41941</v>
       </c>
       <c r="D135" t="n">
-        <v>1.3634</v>
+        <v>1.2922</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52626</v>
+        <v>1.55795</v>
       </c>
       <c r="C136" t="n">
-        <v>1.44697</v>
+        <v>1.46373</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34242</v>
+        <v>1.29745</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.55792</v>
+        <v>1.53718</v>
       </c>
       <c r="C137" t="n">
-        <v>1.45582</v>
+        <v>1.43829</v>
       </c>
       <c r="D137" t="n">
-        <v>1.70062</v>
+        <v>1.64089</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86173</v>
+        <v>1.85614</v>
       </c>
       <c r="C138" t="n">
-        <v>1.77736</v>
+        <v>1.78169</v>
       </c>
       <c r="D138" t="n">
-        <v>1.69646</v>
+        <v>1.62251</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.84874</v>
+        <v>1.8756</v>
       </c>
       <c r="C139" t="n">
-        <v>1.7806</v>
+        <v>1.76482</v>
       </c>
       <c r="D139" t="n">
-        <v>1.68742</v>
+        <v>1.63563</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85272</v>
+        <v>1.85161</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78226</v>
+        <v>1.78414</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68098</v>
+        <v>1.6338</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86161</v>
+        <v>1.85886</v>
       </c>
       <c r="C141" t="n">
-        <v>1.8175</v>
+        <v>1.78309</v>
       </c>
       <c r="D141" t="n">
-        <v>1.69806</v>
+        <v>1.63118</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.83236</v>
+        <v>1.85627</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77988</v>
+        <v>1.77282</v>
       </c>
       <c r="D142" t="n">
-        <v>1.7142</v>
+        <v>1.6302</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84725</v>
+        <v>1.826</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78433</v>
+        <v>1.78061</v>
       </c>
       <c r="D143" t="n">
-        <v>1.69431</v>
+        <v>1.63154</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427979</v>
+        <v>0.5566489999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.293811</v>
+        <v>0.331204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.288192</v>
+        <v>0.324413</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419877</v>
+        <v>0.439567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285779</v>
+        <v>0.316521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277922</v>
+        <v>0.308591</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42605</v>
+        <v>0.428182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280603</v>
+        <v>0.313212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271405</v>
+        <v>0.316431</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.416418</v>
+        <v>0.426037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27616</v>
+        <v>0.312876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.276276</v>
+        <v>0.296522</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.409579</v>
+        <v>0.427001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.278958</v>
+        <v>0.296709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267527</v>
+        <v>0.29465</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.410045</v>
+        <v>0.417976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.26792</v>
+        <v>0.297521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.259667</v>
+        <v>0.286395</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414732</v>
+        <v>0.415311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276355</v>
+        <v>0.294974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.263424</v>
+        <v>0.28989</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.389647</v>
+        <v>0.420208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266182</v>
+        <v>0.289872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.362311</v>
+        <v>0.394633</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.470497</v>
+        <v>0.501538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36061</v>
+        <v>0.373123</v>
       </c>
       <c r="D10" t="n">
-        <v>0.33988</v>
+        <v>0.376951</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.495599</v>
+        <v>0.49273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.350424</v>
+        <v>0.374285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.330186</v>
+        <v>0.365802</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.462533</v>
+        <v>0.479073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.341897</v>
+        <v>0.366375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.34514</v>
+        <v>0.358196</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.468681</v>
+        <v>0.469087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340736</v>
+        <v>0.356775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.32438</v>
+        <v>0.344397</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.451629</v>
+        <v>0.461894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.327245</v>
+        <v>0.338677</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315013</v>
+        <v>0.343167</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.454509</v>
+        <v>0.453108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.320702</v>
+        <v>0.332723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307842</v>
+        <v>0.332698</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.448976</v>
+        <v>0.457656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.318318</v>
+        <v>0.325282</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298661</v>
+        <v>0.312485</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.431965</v>
+        <v>0.432881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.309141</v>
+        <v>0.320647</v>
       </c>
       <c r="D17" t="n">
-        <v>0.300738</v>
+        <v>0.315218</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4349</v>
+        <v>0.434401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314182</v>
+        <v>0.317412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.288786</v>
+        <v>0.311304</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.423794</v>
+        <v>0.423434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31083</v>
+        <v>0.315269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.288085</v>
+        <v>0.29243</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.422895</v>
+        <v>0.443114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.296939</v>
+        <v>0.305341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287444</v>
+        <v>0.297329</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.412941</v>
+        <v>0.418839</v>
       </c>
       <c r="C21" t="n">
-        <v>0.294805</v>
+        <v>0.303037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.276845</v>
+        <v>0.289389</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420733</v>
+        <v>0.412397</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289982</v>
+        <v>0.297505</v>
       </c>
       <c r="D22" t="n">
-        <v>0.272131</v>
+        <v>0.294707</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427456</v>
+        <v>0.415574</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28798</v>
+        <v>0.29982</v>
       </c>
       <c r="D23" t="n">
-        <v>0.367489</v>
+        <v>0.618437</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6665180000000001</v>
+        <v>0.667301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5346109999999999</v>
+        <v>0.545574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364817</v>
+        <v>0.608444</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.655295</v>
+        <v>0.644359</v>
       </c>
       <c r="C25" t="n">
-        <v>0.512219</v>
+        <v>0.533425</v>
       </c>
       <c r="D25" t="n">
-        <v>0.360224</v>
+        <v>0.581356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.629713</v>
+        <v>0.628502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.500044</v>
+        <v>0.517459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343937</v>
+        <v>0.573214</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.619036</v>
+        <v>0.616892</v>
       </c>
       <c r="C27" t="n">
-        <v>0.483635</v>
+        <v>0.502542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.339024</v>
+        <v>0.536347</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6034</v>
+        <v>0.604117</v>
       </c>
       <c r="C28" t="n">
-        <v>0.471303</v>
+        <v>0.485306</v>
       </c>
       <c r="D28" t="n">
-        <v>0.335435</v>
+        <v>0.527814</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.578759</v>
+        <v>0.58557</v>
       </c>
       <c r="C29" t="n">
-        <v>0.461392</v>
+        <v>0.479107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.332556</v>
+        <v>0.508955</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591461</v>
+        <v>0.590132</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454051</v>
+        <v>0.463694</v>
       </c>
       <c r="D30" t="n">
-        <v>0.314754</v>
+        <v>0.502806</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.564609</v>
+        <v>0.554045</v>
       </c>
       <c r="C31" t="n">
-        <v>0.436775</v>
+        <v>0.451572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.307999</v>
+        <v>0.487296</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55078</v>
+        <v>0.563522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.440071</v>
+        <v>0.448788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.304343</v>
+        <v>0.470388</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.533373</v>
+        <v>0.544068</v>
       </c>
       <c r="C33" t="n">
-        <v>0.421247</v>
+        <v>0.42442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.301052</v>
+        <v>0.462377</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530002</v>
+        <v>0.532825</v>
       </c>
       <c r="C34" t="n">
-        <v>0.408422</v>
+        <v>0.422777</v>
       </c>
       <c r="D34" t="n">
-        <v>0.289847</v>
+        <v>0.440421</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.537492</v>
+        <v>0.538029</v>
       </c>
       <c r="C35" t="n">
-        <v>0.398282</v>
+        <v>0.406906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.291496</v>
+        <v>0.43323</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521375</v>
+        <v>0.52255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.393319</v>
+        <v>0.400577</v>
       </c>
       <c r="D36" t="n">
-        <v>0.287412</v>
+        <v>0.429633</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5039360000000001</v>
+        <v>0.51189</v>
       </c>
       <c r="C37" t="n">
-        <v>0.38816</v>
+        <v>0.390913</v>
       </c>
       <c r="D37" t="n">
-        <v>0.545584</v>
+        <v>0.684447</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.762511</v>
+        <v>0.767528</v>
       </c>
       <c r="C38" t="n">
-        <v>0.640639</v>
+        <v>0.654121</v>
       </c>
       <c r="D38" t="n">
-        <v>0.518746</v>
+        <v>0.68199</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.731007</v>
+        <v>0.753818</v>
       </c>
       <c r="C39" t="n">
-        <v>0.617402</v>
+        <v>0.631563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.505447</v>
+        <v>0.655376</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7326780000000001</v>
+        <v>0.725458</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6091490000000001</v>
+        <v>0.617713</v>
       </c>
       <c r="D40" t="n">
-        <v>0.488848</v>
+        <v>0.638158</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.706443</v>
+        <v>0.723905</v>
       </c>
       <c r="C41" t="n">
-        <v>0.593696</v>
+        <v>0.609162</v>
       </c>
       <c r="D41" t="n">
-        <v>0.472523</v>
+        <v>0.611992</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.686795</v>
+        <v>0.699703</v>
       </c>
       <c r="C42" t="n">
-        <v>0.581165</v>
+        <v>0.575004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.467806</v>
+        <v>0.6006010000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.677849</v>
+        <v>0.702106</v>
       </c>
       <c r="C43" t="n">
-        <v>0.553041</v>
+        <v>0.565611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.459769</v>
+        <v>0.56641</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.653621</v>
+        <v>0.662141</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5471</v>
+        <v>0.5475139999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.442864</v>
+        <v>0.573099</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.635945</v>
+        <v>0.655049</v>
       </c>
       <c r="C45" t="n">
-        <v>0.520867</v>
+        <v>0.528533</v>
       </c>
       <c r="D45" t="n">
-        <v>0.42455</v>
+        <v>0.537149</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641278</v>
+        <v>0.640696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.509069</v>
+        <v>0.520301</v>
       </c>
       <c r="D46" t="n">
-        <v>0.414641</v>
+        <v>0.519465</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.616274</v>
+        <v>0.620668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.489829</v>
+        <v>0.511091</v>
       </c>
       <c r="D47" t="n">
-        <v>0.405892</v>
+        <v>0.5141559999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.600951</v>
+        <v>0.619469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.481372</v>
+        <v>0.490253</v>
       </c>
       <c r="D48" t="n">
-        <v>0.393075</v>
+        <v>0.498753</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.596118</v>
+        <v>0.6041260000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.472768</v>
+        <v>0.491519</v>
       </c>
       <c r="D49" t="n">
-        <v>0.390873</v>
+        <v>0.480636</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.597097</v>
+        <v>0.612405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.472553</v>
+        <v>0.465699</v>
       </c>
       <c r="D50" t="n">
-        <v>0.388316</v>
+        <v>0.465586</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.578696</v>
+        <v>0.580456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.45318</v>
+        <v>0.459796</v>
       </c>
       <c r="D51" t="n">
-        <v>0.665508</v>
+        <v>0.760256</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5722739999999999</v>
+        <v>0.570103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.445923</v>
+        <v>0.45389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.654521</v>
+        <v>0.737453</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.837407</v>
+        <v>0.8318489999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7105590000000001</v>
+        <v>0.736331</v>
       </c>
       <c r="D53" t="n">
-        <v>0.640813</v>
+        <v>0.711836</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.814215</v>
+        <v>0.812196</v>
       </c>
       <c r="C54" t="n">
-        <v>0.68926</v>
+        <v>0.69037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.611317</v>
+        <v>0.692367</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.792527</v>
+        <v>0.8177990000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.672834</v>
+        <v>0.682963</v>
       </c>
       <c r="D55" t="n">
-        <v>0.597543</v>
+        <v>0.6696800000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7825839999999999</v>
+        <v>0.781053</v>
       </c>
       <c r="C56" t="n">
-        <v>0.644614</v>
+        <v>0.665561</v>
       </c>
       <c r="D56" t="n">
-        <v>0.57339</v>
+        <v>0.665721</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.767066</v>
+        <v>0.79109</v>
       </c>
       <c r="C57" t="n">
-        <v>0.651599</v>
+        <v>0.650484</v>
       </c>
       <c r="D57" t="n">
-        <v>0.573107</v>
+        <v>0.643079</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.753808</v>
+        <v>0.771459</v>
       </c>
       <c r="C58" t="n">
-        <v>0.614364</v>
+        <v>0.632192</v>
       </c>
       <c r="D58" t="n">
-        <v>0.559679</v>
+        <v>0.618014</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.756238</v>
+        <v>0.742753</v>
       </c>
       <c r="C59" t="n">
-        <v>0.606228</v>
+        <v>0.614222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.538762</v>
+        <v>0.5978599999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.753064</v>
+        <v>0.72955</v>
       </c>
       <c r="C60" t="n">
-        <v>0.590502</v>
+        <v>0.600091</v>
       </c>
       <c r="D60" t="n">
-        <v>0.534198</v>
+        <v>0.587983</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.71077</v>
+        <v>0.722028</v>
       </c>
       <c r="C61" t="n">
-        <v>0.570519</v>
+        <v>0.579673</v>
       </c>
       <c r="D61" t="n">
-        <v>0.533341</v>
+        <v>0.564662</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.703424</v>
+        <v>0.699908</v>
       </c>
       <c r="C62" t="n">
-        <v>0.570484</v>
+        <v>0.572029</v>
       </c>
       <c r="D62" t="n">
-        <v>0.505499</v>
+        <v>0.558044</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.685256</v>
+        <v>0.697663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.544741</v>
+        <v>0.555238</v>
       </c>
       <c r="D63" t="n">
-        <v>0.507898</v>
+        <v>0.566588</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.67861</v>
+        <v>0.6867490000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.548539</v>
+        <v>0.555837</v>
       </c>
       <c r="D64" t="n">
-        <v>0.500268</v>
+        <v>0.537656</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.670981</v>
+        <v>0.676814</v>
       </c>
       <c r="C65" t="n">
-        <v>0.532276</v>
+        <v>0.532913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.503198</v>
+        <v>0.5333329999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.664404</v>
+        <v>0.666287</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533092</v>
+        <v>0.5448229999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.796532</v>
+        <v>0.850654</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.967225</v>
+        <v>0.979322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.83373</v>
+        <v>0.81685</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7508629999999999</v>
+        <v>0.783037</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.961197</v>
+        <v>0.92765</v>
       </c>
       <c r="C68" t="n">
-        <v>0.79143</v>
+        <v>0.79369</v>
       </c>
       <c r="D68" t="n">
-        <v>0.735631</v>
+        <v>0.797342</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.914646</v>
+        <v>0.912942</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781164</v>
+        <v>0.784897</v>
       </c>
       <c r="D69" t="n">
-        <v>0.713616</v>
+        <v>0.763338</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.906192</v>
+        <v>0.883237</v>
       </c>
       <c r="C70" t="n">
-        <v>0.764117</v>
+        <v>0.766671</v>
       </c>
       <c r="D70" t="n">
-        <v>0.697833</v>
+        <v>0.737217</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.889138</v>
+        <v>0.894006</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7434190000000001</v>
+        <v>0.745711</v>
       </c>
       <c r="D71" t="n">
-        <v>0.673022</v>
+        <v>0.708074</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.878642</v>
+        <v>0.877151</v>
       </c>
       <c r="C72" t="n">
-        <v>0.726642</v>
+        <v>0.733443</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6679079999999999</v>
+        <v>0.708318</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.857666</v>
+        <v>0.871439</v>
       </c>
       <c r="C73" t="n">
-        <v>0.707295</v>
+        <v>0.719702</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650923</v>
+        <v>0.697825</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.836558</v>
+        <v>0.855997</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6837259999999999</v>
+        <v>0.689748</v>
       </c>
       <c r="D74" t="n">
-        <v>0.640377</v>
+        <v>0.667977</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.843633</v>
+        <v>0.837558</v>
       </c>
       <c r="C75" t="n">
-        <v>0.666973</v>
+        <v>0.690782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6224189999999999</v>
+        <v>0.660784</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.830662</v>
+        <v>0.80905</v>
       </c>
       <c r="C76" t="n">
-        <v>0.648968</v>
+        <v>0.668504</v>
       </c>
       <c r="D76" t="n">
-        <v>0.621912</v>
+        <v>0.637325</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8152</v>
+        <v>0.823949</v>
       </c>
       <c r="C77" t="n">
-        <v>0.640972</v>
+        <v>0.642151</v>
       </c>
       <c r="D77" t="n">
-        <v>0.595753</v>
+        <v>0.622727</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.819855</v>
+        <v>0.7864640000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.628522</v>
+        <v>0.639451</v>
       </c>
       <c r="D78" t="n">
-        <v>0.58061</v>
+        <v>0.628031</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.776383</v>
+        <v>0.784734</v>
       </c>
       <c r="C79" t="n">
-        <v>0.619258</v>
+        <v>0.613626</v>
       </c>
       <c r="D79" t="n">
-        <v>0.582811</v>
+        <v>0.607515</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.792093</v>
+        <v>0.778477</v>
       </c>
       <c r="C80" t="n">
-        <v>0.626271</v>
+        <v>0.613018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.915948</v>
+        <v>0.947634</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09219</v>
+        <v>1.08316</v>
       </c>
       <c r="C81" t="n">
-        <v>0.929561</v>
+        <v>0.924921</v>
       </c>
       <c r="D81" t="n">
-        <v>0.886034</v>
+        <v>0.906044</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06871</v>
+        <v>1.08571</v>
       </c>
       <c r="C82" t="n">
-        <v>0.916206</v>
+        <v>0.908423</v>
       </c>
       <c r="D82" t="n">
-        <v>0.855409</v>
+        <v>0.871533</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.05436</v>
+        <v>1.0298</v>
       </c>
       <c r="C83" t="n">
-        <v>0.881296</v>
+        <v>0.896702</v>
       </c>
       <c r="D83" t="n">
-        <v>0.845274</v>
+        <v>0.885219</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02687</v>
+        <v>1.0342</v>
       </c>
       <c r="C84" t="n">
-        <v>0.885287</v>
+        <v>0.875328</v>
       </c>
       <c r="D84" t="n">
-        <v>0.835871</v>
+        <v>0.843627</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01969</v>
+        <v>1.00965</v>
       </c>
       <c r="C85" t="n">
-        <v>0.867221</v>
+        <v>0.861308</v>
       </c>
       <c r="D85" t="n">
-        <v>0.789075</v>
+        <v>0.829965</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00778</v>
+        <v>0.996078</v>
       </c>
       <c r="C86" t="n">
-        <v>0.841622</v>
+        <v>0.847409</v>
       </c>
       <c r="D86" t="n">
-        <v>0.789382</v>
+        <v>0.823512</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.980318</v>
+        <v>0.982016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.826699</v>
+        <v>0.828674</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768798</v>
+        <v>0.788893</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.957973</v>
+        <v>0.976722</v>
       </c>
       <c r="C88" t="n">
-        <v>0.793264</v>
+        <v>0.809142</v>
       </c>
       <c r="D88" t="n">
-        <v>0.760296</v>
+        <v>0.775234</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.961215</v>
+        <v>0.948914</v>
       </c>
       <c r="C89" t="n">
-        <v>0.792353</v>
+        <v>0.805243</v>
       </c>
       <c r="D89" t="n">
-        <v>0.732699</v>
+        <v>0.757122</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.97921</v>
+        <v>0.931055</v>
       </c>
       <c r="C90" t="n">
-        <v>0.773841</v>
+        <v>0.78174</v>
       </c>
       <c r="D90" t="n">
-        <v>0.721265</v>
+        <v>0.745432</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.938781</v>
+        <v>0.93985</v>
       </c>
       <c r="C91" t="n">
-        <v>0.752018</v>
+        <v>0.754152</v>
       </c>
       <c r="D91" t="n">
-        <v>0.714778</v>
+        <v>0.735194</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.91642</v>
+        <v>0.936295</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7720320000000001</v>
+        <v>0.754413</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7074279999999999</v>
+        <v>0.7227789999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.908482</v>
+        <v>0.927785</v>
       </c>
       <c r="C93" t="n">
-        <v>0.738136</v>
+        <v>0.741886</v>
       </c>
       <c r="D93" t="n">
-        <v>0.680967</v>
+        <v>0.725882</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9041</v>
+        <v>0.893944</v>
       </c>
       <c r="C94" t="n">
-        <v>0.745795</v>
+        <v>0.723018</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01669</v>
+        <v>1.04278</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21871</v>
+        <v>1.20382</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02949</v>
+        <v>1.04477</v>
       </c>
       <c r="D95" t="n">
-        <v>0.996074</v>
+        <v>0.99852</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19579</v>
+        <v>1.17128</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0351</v>
+        <v>1.04591</v>
       </c>
       <c r="D96" t="n">
-        <v>0.958605</v>
+        <v>0.988394</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17149</v>
+        <v>1.19701</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02257</v>
+        <v>1.03171</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9382200000000001</v>
+        <v>0.987465</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16375</v>
+        <v>1.16747</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02163</v>
+        <v>1.0077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9392470000000001</v>
+        <v>0.975255</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.15311</v>
+        <v>1.16068</v>
       </c>
       <c r="C99" t="n">
-        <v>0.997943</v>
+        <v>1.00746</v>
       </c>
       <c r="D99" t="n">
-        <v>0.902033</v>
+        <v>0.937575</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14364</v>
+        <v>1.11505</v>
       </c>
       <c r="C100" t="n">
-        <v>0.982486</v>
+        <v>0.995455</v>
       </c>
       <c r="D100" t="n">
-        <v>0.881605</v>
+        <v>0.916961</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13419</v>
+        <v>1.10895</v>
       </c>
       <c r="C101" t="n">
-        <v>0.969633</v>
+        <v>0.969476</v>
       </c>
       <c r="D101" t="n">
-        <v>0.86456</v>
+        <v>0.89438</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10667</v>
+        <v>1.10197</v>
       </c>
       <c r="C102" t="n">
-        <v>0.961624</v>
+        <v>0.941621</v>
       </c>
       <c r="D102" t="n">
-        <v>0.870471</v>
+        <v>0.888473</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09252</v>
+        <v>1.08916</v>
       </c>
       <c r="C103" t="n">
-        <v>0.936859</v>
+        <v>0.9402740000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.845735</v>
+        <v>0.874884</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08899</v>
+        <v>1.08267</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9394749999999999</v>
+        <v>0.930221</v>
       </c>
       <c r="D104" t="n">
-        <v>0.841844</v>
+        <v>0.877911</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06858</v>
+        <v>1.03735</v>
       </c>
       <c r="C105" t="n">
-        <v>0.919309</v>
+        <v>0.92436</v>
       </c>
       <c r="D105" t="n">
-        <v>0.831663</v>
+        <v>0.8473270000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06284</v>
+        <v>1.05921</v>
       </c>
       <c r="C106" t="n">
-        <v>0.917039</v>
+        <v>0.901909</v>
       </c>
       <c r="D106" t="n">
-        <v>0.843967</v>
+        <v>0.829973</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06263</v>
+        <v>1.0529</v>
       </c>
       <c r="C107" t="n">
-        <v>0.904442</v>
+        <v>0.886042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.812343</v>
+        <v>0.8188299999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.05723</v>
+        <v>1.0463</v>
       </c>
       <c r="C108" t="n">
-        <v>0.871557</v>
+        <v>0.879688</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11974</v>
+        <v>1.19567</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06892</v>
+        <v>1.02688</v>
       </c>
       <c r="C109" t="n">
-        <v>0.889266</v>
+        <v>0.895602</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10498</v>
+        <v>1.13124</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37476</v>
+        <v>1.31802</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18938</v>
+        <v>1.22733</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1277</v>
+        <v>1.12206</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31998</v>
+        <v>1.31011</v>
       </c>
       <c r="C111" t="n">
-        <v>1.18975</v>
+        <v>1.19859</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0948</v>
+        <v>1.09822</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.29201</v>
+        <v>1.32034</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18555</v>
+        <v>1.17352</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08544</v>
+        <v>1.07554</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.35382</v>
+        <v>1.32892</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19295</v>
+        <v>1.1666</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0683</v>
+        <v>1.08224</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29675</v>
+        <v>1.30206</v>
       </c>
       <c r="C114" t="n">
-        <v>1.15876</v>
+        <v>1.16475</v>
       </c>
       <c r="D114" t="n">
-        <v>1.06115</v>
+        <v>1.06725</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.27202</v>
+        <v>1.27722</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17285</v>
+        <v>1.1667</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05095</v>
+        <v>1.05708</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30738</v>
+        <v>1.30272</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1538</v>
+        <v>1.16191</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03413</v>
+        <v>1.06501</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.25701</v>
+        <v>1.27287</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15387</v>
+        <v>1.16677</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04483</v>
+        <v>1.05677</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28713</v>
+        <v>1.29517</v>
       </c>
       <c r="C118" t="n">
-        <v>1.16155</v>
+        <v>1.14737</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02621</v>
+        <v>1.05478</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25718</v>
+        <v>1.2667</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12685</v>
+        <v>1.13807</v>
       </c>
       <c r="D119" t="n">
-        <v>1.01677</v>
+        <v>1.02204</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.29216</v>
+        <v>1.27611</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13553</v>
+        <v>1.11279</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9918090000000001</v>
+        <v>1.00684</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.24374</v>
+        <v>1.26188</v>
       </c>
       <c r="C121" t="n">
-        <v>1.1181</v>
+        <v>1.11465</v>
       </c>
       <c r="D121" t="n">
-        <v>1.00438</v>
+        <v>1.01521</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.24162</v>
+        <v>1.24709</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11655</v>
+        <v>1.11478</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00594</v>
+        <v>0.994941</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.24957</v>
+        <v>1.24759</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11055</v>
+        <v>1.10838</v>
       </c>
       <c r="D123" t="n">
-        <v>1.33285</v>
+        <v>1.34899</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.56763</v>
+        <v>1.5496</v>
       </c>
       <c r="C124" t="n">
-        <v>1.45127</v>
+        <v>1.44536</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31269</v>
+        <v>1.36696</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.54375</v>
+        <v>1.55241</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44827</v>
+        <v>1.45976</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31144</v>
+        <v>1.36707</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.55442</v>
+        <v>1.54802</v>
       </c>
       <c r="C126" t="n">
-        <v>1.44478</v>
+        <v>1.46111</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33738</v>
+        <v>1.33658</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.54285</v>
+        <v>1.56981</v>
       </c>
       <c r="C127" t="n">
-        <v>1.45747</v>
+        <v>1.43558</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32301</v>
+        <v>1.31714</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54876</v>
+        <v>1.54219</v>
       </c>
       <c r="C128" t="n">
-        <v>1.44199</v>
+        <v>1.44403</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31278</v>
+        <v>1.33407</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.53172</v>
+        <v>1.5599</v>
       </c>
       <c r="C129" t="n">
-        <v>1.43318</v>
+        <v>1.45757</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31906</v>
+        <v>1.31008</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55455</v>
+        <v>1.54141</v>
       </c>
       <c r="C130" t="n">
-        <v>1.43968</v>
+        <v>1.42969</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30032</v>
+        <v>1.30984</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54924</v>
+        <v>1.54806</v>
       </c>
       <c r="C131" t="n">
-        <v>1.44535</v>
+        <v>1.42952</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29444</v>
+        <v>1.33351</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.53261</v>
+        <v>1.54267</v>
       </c>
       <c r="C132" t="n">
-        <v>1.42172</v>
+        <v>1.43775</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29262</v>
+        <v>1.28738</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.54725</v>
+        <v>1.54334</v>
       </c>
       <c r="C133" t="n">
-        <v>1.445</v>
+        <v>1.44557</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29125</v>
+        <v>1.33834</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53678</v>
+        <v>1.53075</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4448</v>
+        <v>1.43386</v>
       </c>
       <c r="D134" t="n">
-        <v>1.2962</v>
+        <v>1.29733</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54188</v>
+        <v>1.53203</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41941</v>
+        <v>1.43651</v>
       </c>
       <c r="D135" t="n">
-        <v>1.2922</v>
+        <v>1.30339</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.55795</v>
+        <v>1.51927</v>
       </c>
       <c r="C136" t="n">
-        <v>1.46373</v>
+        <v>1.42783</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29745</v>
+        <v>1.2938</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.53718</v>
+        <v>1.55107</v>
       </c>
       <c r="C137" t="n">
-        <v>1.43829</v>
+        <v>1.42993</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64089</v>
+        <v>1.66415</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.85614</v>
+        <v>1.86675</v>
       </c>
       <c r="C138" t="n">
-        <v>1.78169</v>
+        <v>1.7713</v>
       </c>
       <c r="D138" t="n">
-        <v>1.62251</v>
+        <v>1.65255</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.8756</v>
+        <v>1.88698</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76482</v>
+        <v>1.80072</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63563</v>
+        <v>1.64595</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85161</v>
+        <v>1.86969</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78414</v>
+        <v>1.7818</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6338</v>
+        <v>1.61896</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85886</v>
+        <v>1.83349</v>
       </c>
       <c r="C141" t="n">
-        <v>1.78309</v>
+        <v>1.79779</v>
       </c>
       <c r="D141" t="n">
-        <v>1.63118</v>
+        <v>1.64529</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85627</v>
+        <v>1.86991</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77282</v>
+        <v>1.79476</v>
       </c>
       <c r="D142" t="n">
-        <v>1.6302</v>
+        <v>1.63451</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.826</v>
+        <v>1.84674</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78061</v>
+        <v>1.78507</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63154</v>
+        <v>1.62944</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5566489999999999</v>
+        <v>0.525901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.331204</v>
+        <v>0.320475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.324413</v>
+        <v>0.318846</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.439567</v>
+        <v>0.449096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316521</v>
+        <v>0.306889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.308591</v>
+        <v>0.315001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428182</v>
+        <v>0.432272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313212</v>
+        <v>0.30794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316431</v>
+        <v>0.308966</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.426037</v>
+        <v>0.438368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.312876</v>
+        <v>0.30318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296522</v>
+        <v>0.296906</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427001</v>
+        <v>0.426623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296709</v>
+        <v>0.297047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29465</v>
+        <v>0.290909</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417976</v>
+        <v>0.418825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.297521</v>
+        <v>0.297023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286395</v>
+        <v>0.287716</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.415311</v>
+        <v>0.413627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.294974</v>
+        <v>0.284758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28989</v>
+        <v>0.293727</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.420208</v>
+        <v>0.414699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289872</v>
+        <v>0.284406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394633</v>
+        <v>0.3867</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.501538</v>
+        <v>0.50225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.373123</v>
+        <v>0.381607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.376951</v>
+        <v>0.377149</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.49273</v>
+        <v>0.493871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374285</v>
+        <v>0.370472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.365802</v>
+        <v>0.359575</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479073</v>
+        <v>0.475708</v>
       </c>
       <c r="C12" t="n">
-        <v>0.366375</v>
+        <v>0.360779</v>
       </c>
       <c r="D12" t="n">
-        <v>0.358196</v>
+        <v>0.350277</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.469087</v>
+        <v>0.469635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.356775</v>
+        <v>0.351897</v>
       </c>
       <c r="D13" t="n">
-        <v>0.344397</v>
+        <v>0.35215</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.461894</v>
+        <v>0.462162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.338677</v>
+        <v>0.337118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.343167</v>
+        <v>0.332367</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.453108</v>
+        <v>0.458379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.332723</v>
+        <v>0.331138</v>
       </c>
       <c r="D15" t="n">
-        <v>0.332698</v>
+        <v>0.322595</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.457656</v>
+        <v>0.453366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.325282</v>
+        <v>0.321108</v>
       </c>
       <c r="D16" t="n">
-        <v>0.312485</v>
+        <v>0.320746</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.432881</v>
+        <v>0.438946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.320647</v>
+        <v>0.322588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.315218</v>
+        <v>0.31287</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434401</v>
+        <v>0.434588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.317412</v>
+        <v>0.31264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311304</v>
+        <v>0.305302</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.423434</v>
+        <v>0.426701</v>
       </c>
       <c r="C19" t="n">
-        <v>0.315269</v>
+        <v>0.30302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29243</v>
+        <v>0.30289</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.443114</v>
+        <v>0.414924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.305341</v>
+        <v>0.304003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.297329</v>
+        <v>0.295406</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.418839</v>
+        <v>0.421625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.303037</v>
+        <v>0.297745</v>
       </c>
       <c r="D21" t="n">
-        <v>0.289389</v>
+        <v>0.284341</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.412397</v>
+        <v>0.414656</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297505</v>
+        <v>0.289164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.294707</v>
+        <v>0.283744</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.415574</v>
+        <v>0.424906</v>
       </c>
       <c r="C23" t="n">
-        <v>0.29982</v>
+        <v>0.295799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.618437</v>
+        <v>0.61935</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.667301</v>
+        <v>0.656019</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545574</v>
+        <v>0.545076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.608444</v>
+        <v>0.6014890000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.644359</v>
+        <v>0.635421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.533425</v>
+        <v>0.525964</v>
       </c>
       <c r="D25" t="n">
-        <v>0.581356</v>
+        <v>0.581281</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.628502</v>
+        <v>0.617719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.517459</v>
+        <v>0.505434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.573214</v>
+        <v>0.557889</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.616892</v>
+        <v>0.6246159999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.502542</v>
+        <v>0.495259</v>
       </c>
       <c r="D27" t="n">
-        <v>0.536347</v>
+        <v>0.541864</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.604117</v>
+        <v>0.617488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.485306</v>
+        <v>0.482418</v>
       </c>
       <c r="D28" t="n">
-        <v>0.527814</v>
+        <v>0.519129</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58557</v>
+        <v>0.583914</v>
       </c>
       <c r="C29" t="n">
-        <v>0.479107</v>
+        <v>0.475209</v>
       </c>
       <c r="D29" t="n">
-        <v>0.508955</v>
+        <v>0.509742</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.590132</v>
+        <v>0.577018</v>
       </c>
       <c r="C30" t="n">
-        <v>0.463694</v>
+        <v>0.449304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.502806</v>
+        <v>0.499826</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.554045</v>
+        <v>0.562923</v>
       </c>
       <c r="C31" t="n">
-        <v>0.451572</v>
+        <v>0.447959</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487296</v>
+        <v>0.481466</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.563522</v>
+        <v>0.566564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.448788</v>
+        <v>0.434058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.470388</v>
+        <v>0.469353</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544068</v>
+        <v>0.546154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42442</v>
+        <v>0.415977</v>
       </c>
       <c r="D33" t="n">
-        <v>0.462377</v>
+        <v>0.453173</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.532825</v>
+        <v>0.538319</v>
       </c>
       <c r="C34" t="n">
-        <v>0.422777</v>
+        <v>0.424091</v>
       </c>
       <c r="D34" t="n">
-        <v>0.440421</v>
+        <v>0.436566</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.538029</v>
+        <v>0.522465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.406906</v>
+        <v>0.40085</v>
       </c>
       <c r="D35" t="n">
-        <v>0.43323</v>
+        <v>0.435993</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.52255</v>
+        <v>0.517207</v>
       </c>
       <c r="C36" t="n">
-        <v>0.400577</v>
+        <v>0.402271</v>
       </c>
       <c r="D36" t="n">
-        <v>0.429633</v>
+        <v>0.423322</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.51189</v>
+        <v>0.52937</v>
       </c>
       <c r="C37" t="n">
-        <v>0.390913</v>
+        <v>0.386929</v>
       </c>
       <c r="D37" t="n">
-        <v>0.684447</v>
+        <v>0.687707</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.767528</v>
+        <v>0.760902</v>
       </c>
       <c r="C38" t="n">
-        <v>0.654121</v>
+        <v>0.645716</v>
       </c>
       <c r="D38" t="n">
-        <v>0.68199</v>
+        <v>0.678326</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.753818</v>
+        <v>0.765589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.631563</v>
+        <v>0.629766</v>
       </c>
       <c r="D39" t="n">
-        <v>0.655376</v>
+        <v>0.639747</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.725458</v>
+        <v>0.727577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.617713</v>
+        <v>0.624183</v>
       </c>
       <c r="D40" t="n">
-        <v>0.638158</v>
+        <v>0.625777</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.723905</v>
+        <v>0.718143</v>
       </c>
       <c r="C41" t="n">
-        <v>0.609162</v>
+        <v>0.585627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.611992</v>
+        <v>0.597316</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.699703</v>
+        <v>0.713372</v>
       </c>
       <c r="C42" t="n">
-        <v>0.575004</v>
+        <v>0.574854</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6006010000000001</v>
+        <v>0.579321</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.702106</v>
+        <v>0.675463</v>
       </c>
       <c r="C43" t="n">
-        <v>0.565611</v>
+        <v>0.566812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.56641</v>
+        <v>0.557499</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.662141</v>
+        <v>0.682063</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5475139999999999</v>
+        <v>0.553064</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573099</v>
+        <v>0.566018</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.655049</v>
+        <v>0.669617</v>
       </c>
       <c r="C45" t="n">
-        <v>0.528533</v>
+        <v>0.539876</v>
       </c>
       <c r="D45" t="n">
-        <v>0.537149</v>
+        <v>0.530537</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.640696</v>
+        <v>0.641999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.520301</v>
+        <v>0.519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.519465</v>
+        <v>0.51675</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.620668</v>
+        <v>0.633028</v>
       </c>
       <c r="C47" t="n">
-        <v>0.511091</v>
+        <v>0.497664</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5141559999999999</v>
+        <v>0.511483</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.619469</v>
+        <v>0.631756</v>
       </c>
       <c r="C48" t="n">
-        <v>0.490253</v>
+        <v>0.488697</v>
       </c>
       <c r="D48" t="n">
-        <v>0.498753</v>
+        <v>0.495506</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6041260000000001</v>
+        <v>0.598841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.491519</v>
+        <v>0.482492</v>
       </c>
       <c r="D49" t="n">
-        <v>0.480636</v>
+        <v>0.473609</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.612405</v>
+        <v>0.596492</v>
       </c>
       <c r="C50" t="n">
-        <v>0.465699</v>
+        <v>0.466327</v>
       </c>
       <c r="D50" t="n">
-        <v>0.465586</v>
+        <v>0.465042</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.580456</v>
+        <v>0.582521</v>
       </c>
       <c r="C51" t="n">
-        <v>0.459796</v>
+        <v>0.462192</v>
       </c>
       <c r="D51" t="n">
-        <v>0.760256</v>
+        <v>0.765343</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.570103</v>
+        <v>0.565804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.45389</v>
+        <v>0.458656</v>
       </c>
       <c r="D52" t="n">
-        <v>0.737453</v>
+        <v>0.7421</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8318489999999999</v>
+        <v>0.835332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.736331</v>
+        <v>0.712717</v>
       </c>
       <c r="D53" t="n">
-        <v>0.711836</v>
+        <v>0.694238</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.812196</v>
+        <v>0.824288</v>
       </c>
       <c r="C54" t="n">
-        <v>0.69037</v>
+        <v>0.70506</v>
       </c>
       <c r="D54" t="n">
-        <v>0.692367</v>
+        <v>0.681007</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8177990000000001</v>
+        <v>0.804278</v>
       </c>
       <c r="C55" t="n">
-        <v>0.682963</v>
+        <v>0.67491</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6696800000000001</v>
+        <v>0.67987</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.781053</v>
+        <v>0.806436</v>
       </c>
       <c r="C56" t="n">
-        <v>0.665561</v>
+        <v>0.664632</v>
       </c>
       <c r="D56" t="n">
-        <v>0.665721</v>
+        <v>0.651135</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.79109</v>
+        <v>0.773257</v>
       </c>
       <c r="C57" t="n">
-        <v>0.650484</v>
+        <v>0.63633</v>
       </c>
       <c r="D57" t="n">
-        <v>0.643079</v>
+        <v>0.624936</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.771459</v>
+        <v>0.759003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632192</v>
+        <v>0.628907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.618014</v>
+        <v>0.608423</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.742753</v>
+        <v>0.738962</v>
       </c>
       <c r="C59" t="n">
-        <v>0.614222</v>
+        <v>0.614864</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5978599999999999</v>
+        <v>0.601205</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.72955</v>
+        <v>0.726087</v>
       </c>
       <c r="C60" t="n">
-        <v>0.600091</v>
+        <v>0.605891</v>
       </c>
       <c r="D60" t="n">
-        <v>0.587983</v>
+        <v>0.590892</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.722028</v>
+        <v>0.722839</v>
       </c>
       <c r="C61" t="n">
-        <v>0.579673</v>
+        <v>0.582362</v>
       </c>
       <c r="D61" t="n">
-        <v>0.564662</v>
+        <v>0.58284</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.699908</v>
+        <v>0.717715</v>
       </c>
       <c r="C62" t="n">
-        <v>0.572029</v>
+        <v>0.578999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558044</v>
+        <v>0.547856</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.697663</v>
+        <v>0.6943049999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.555238</v>
+        <v>0.561728</v>
       </c>
       <c r="D63" t="n">
-        <v>0.566588</v>
+        <v>0.545116</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6867490000000001</v>
+        <v>0.680505</v>
       </c>
       <c r="C64" t="n">
-        <v>0.555837</v>
+        <v>0.542185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.537656</v>
+        <v>0.536662</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.676814</v>
+        <v>0.673785</v>
       </c>
       <c r="C65" t="n">
-        <v>0.532913</v>
+        <v>0.538453</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5333329999999999</v>
+        <v>0.525509</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.666287</v>
+        <v>0.659613</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5448229999999999</v>
+        <v>0.533276</v>
       </c>
       <c r="D66" t="n">
-        <v>0.850654</v>
+        <v>0.811852</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.979322</v>
+        <v>0.953912</v>
       </c>
       <c r="C67" t="n">
-        <v>0.81685</v>
+        <v>0.812608</v>
       </c>
       <c r="D67" t="n">
-        <v>0.783037</v>
+        <v>0.796825</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.92765</v>
+        <v>0.935619</v>
       </c>
       <c r="C68" t="n">
-        <v>0.79369</v>
+        <v>0.811155</v>
       </c>
       <c r="D68" t="n">
-        <v>0.797342</v>
+        <v>0.7606619999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.912942</v>
+        <v>0.939042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.784897</v>
+        <v>0.76795</v>
       </c>
       <c r="D69" t="n">
-        <v>0.763338</v>
+        <v>0.744324</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.883237</v>
+        <v>0.924058</v>
       </c>
       <c r="C70" t="n">
-        <v>0.766671</v>
+        <v>0.774043</v>
       </c>
       <c r="D70" t="n">
-        <v>0.737217</v>
+        <v>0.731308</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.894006</v>
+        <v>0.884525</v>
       </c>
       <c r="C71" t="n">
-        <v>0.745711</v>
+        <v>0.721171</v>
       </c>
       <c r="D71" t="n">
-        <v>0.708074</v>
+        <v>0.720012</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.877151</v>
+        <v>0.892828</v>
       </c>
       <c r="C72" t="n">
-        <v>0.733443</v>
+        <v>0.71004</v>
       </c>
       <c r="D72" t="n">
-        <v>0.708318</v>
+        <v>0.688008</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.871439</v>
+        <v>0.881817</v>
       </c>
       <c r="C73" t="n">
-        <v>0.719702</v>
+        <v>0.699425</v>
       </c>
       <c r="D73" t="n">
-        <v>0.697825</v>
+        <v>0.674207</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.855997</v>
+        <v>0.857917</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689748</v>
+        <v>0.68754</v>
       </c>
       <c r="D74" t="n">
-        <v>0.667977</v>
+        <v>0.65505</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.837558</v>
+        <v>0.82528</v>
       </c>
       <c r="C75" t="n">
-        <v>0.690782</v>
+        <v>0.676077</v>
       </c>
       <c r="D75" t="n">
-        <v>0.660784</v>
+        <v>0.65357</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.80905</v>
+        <v>0.813784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.668504</v>
+        <v>0.656034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.637325</v>
+        <v>0.633316</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.823949</v>
+        <v>0.814119</v>
       </c>
       <c r="C77" t="n">
-        <v>0.642151</v>
+        <v>0.635838</v>
       </c>
       <c r="D77" t="n">
-        <v>0.622727</v>
+        <v>0.636257</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7864640000000001</v>
+        <v>0.79661</v>
       </c>
       <c r="C78" t="n">
-        <v>0.639451</v>
+        <v>0.631526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.628031</v>
+        <v>0.618563</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.784734</v>
+        <v>0.784195</v>
       </c>
       <c r="C79" t="n">
-        <v>0.613626</v>
+        <v>0.617009</v>
       </c>
       <c r="D79" t="n">
-        <v>0.607515</v>
+        <v>0.606986</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.778477</v>
+        <v>0.768948</v>
       </c>
       <c r="C80" t="n">
-        <v>0.613018</v>
+        <v>0.617804</v>
       </c>
       <c r="D80" t="n">
-        <v>0.947634</v>
+        <v>0.92919</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08316</v>
+        <v>1.08176</v>
       </c>
       <c r="C81" t="n">
-        <v>0.924921</v>
+        <v>0.917733</v>
       </c>
       <c r="D81" t="n">
-        <v>0.906044</v>
+        <v>0.912445</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08571</v>
+        <v>1.06947</v>
       </c>
       <c r="C82" t="n">
-        <v>0.908423</v>
+        <v>0.9294249999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.871533</v>
+        <v>0.904435</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0298</v>
+        <v>1.0459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.896702</v>
+        <v>0.895512</v>
       </c>
       <c r="D83" t="n">
-        <v>0.885219</v>
+        <v>0.880068</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0342</v>
+        <v>1.02595</v>
       </c>
       <c r="C84" t="n">
-        <v>0.875328</v>
+        <v>0.883375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.843627</v>
+        <v>0.852505</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00965</v>
+        <v>1.0251</v>
       </c>
       <c r="C85" t="n">
-        <v>0.861308</v>
+        <v>0.875041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.829965</v>
+        <v>0.830603</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.996078</v>
+        <v>1.0245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.847409</v>
+        <v>0.8565199999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.823512</v>
+        <v>0.806117</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.982016</v>
+        <v>1.01018</v>
       </c>
       <c r="C87" t="n">
-        <v>0.828674</v>
+        <v>0.819775</v>
       </c>
       <c r="D87" t="n">
-        <v>0.788893</v>
+        <v>0.7896609999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.976722</v>
+        <v>0.965513</v>
       </c>
       <c r="C88" t="n">
-        <v>0.809142</v>
+        <v>0.824551</v>
       </c>
       <c r="D88" t="n">
-        <v>0.775234</v>
+        <v>0.781092</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.948914</v>
+        <v>0.967409</v>
       </c>
       <c r="C89" t="n">
-        <v>0.805243</v>
+        <v>0.802463</v>
       </c>
       <c r="D89" t="n">
-        <v>0.757122</v>
+        <v>0.752543</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.931055</v>
+        <v>0.943428</v>
       </c>
       <c r="C90" t="n">
-        <v>0.78174</v>
+        <v>0.7843</v>
       </c>
       <c r="D90" t="n">
-        <v>0.745432</v>
+        <v>0.735335</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.93985</v>
+        <v>0.924556</v>
       </c>
       <c r="C91" t="n">
-        <v>0.754152</v>
+        <v>0.777801</v>
       </c>
       <c r="D91" t="n">
-        <v>0.735194</v>
+        <v>0.728158</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.936295</v>
+        <v>0.927061</v>
       </c>
       <c r="C92" t="n">
-        <v>0.754413</v>
+        <v>0.755051</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7227789999999999</v>
+        <v>0.719652</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.927785</v>
+        <v>0.918987</v>
       </c>
       <c r="C93" t="n">
-        <v>0.741886</v>
+        <v>0.737832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.725882</v>
+        <v>0.724397</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.893944</v>
+        <v>0.8899899999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.723018</v>
+        <v>0.738375</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04278</v>
+        <v>1.04054</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20382</v>
+        <v>1.17351</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04477</v>
+        <v>1.06194</v>
       </c>
       <c r="D95" t="n">
-        <v>0.99852</v>
+        <v>1.00222</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.17128</v>
+        <v>1.18318</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04591</v>
+        <v>1.04993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.988394</v>
+        <v>1.00174</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19701</v>
+        <v>1.16981</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03171</v>
+        <v>1.02504</v>
       </c>
       <c r="D97" t="n">
-        <v>0.987465</v>
+        <v>0.953368</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16747</v>
+        <v>1.17644</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0077</v>
+        <v>1.01715</v>
       </c>
       <c r="D98" t="n">
-        <v>0.975255</v>
+        <v>0.950912</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16068</v>
+        <v>1.13636</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00746</v>
+        <v>1.00253</v>
       </c>
       <c r="D99" t="n">
-        <v>0.937575</v>
+        <v>0.948696</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11505</v>
+        <v>1.1211</v>
       </c>
       <c r="C100" t="n">
-        <v>0.995455</v>
+        <v>1.00219</v>
       </c>
       <c r="D100" t="n">
-        <v>0.916961</v>
+        <v>0.919177</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10895</v>
+        <v>1.10439</v>
       </c>
       <c r="C101" t="n">
-        <v>0.969476</v>
+        <v>0.966482</v>
       </c>
       <c r="D101" t="n">
-        <v>0.89438</v>
+        <v>0.890319</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10197</v>
+        <v>1.10571</v>
       </c>
       <c r="C102" t="n">
-        <v>0.941621</v>
+        <v>0.950271</v>
       </c>
       <c r="D102" t="n">
-        <v>0.888473</v>
+        <v>0.896658</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.08916</v>
+        <v>1.10299</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9402740000000001</v>
+        <v>0.92732</v>
       </c>
       <c r="D103" t="n">
-        <v>0.874884</v>
+        <v>0.873096</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08267</v>
+        <v>1.0742</v>
       </c>
       <c r="C104" t="n">
-        <v>0.930221</v>
+        <v>0.932837</v>
       </c>
       <c r="D104" t="n">
-        <v>0.877911</v>
+        <v>0.850889</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03735</v>
+        <v>1.05524</v>
       </c>
       <c r="C105" t="n">
-        <v>0.92436</v>
+        <v>0.92497</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8473270000000001</v>
+        <v>0.851897</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05921</v>
+        <v>1.06579</v>
       </c>
       <c r="C106" t="n">
-        <v>0.901909</v>
+        <v>0.916842</v>
       </c>
       <c r="D106" t="n">
-        <v>0.829973</v>
+        <v>0.834951</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0529</v>
+        <v>1.06484</v>
       </c>
       <c r="C107" t="n">
-        <v>0.886042</v>
+        <v>0.89698</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8188299999999999</v>
+        <v>0.834452</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.0463</v>
+        <v>1.04416</v>
       </c>
       <c r="C108" t="n">
-        <v>0.879688</v>
+        <v>0.903511</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19567</v>
+        <v>1.1796</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02688</v>
+        <v>1.03844</v>
       </c>
       <c r="C109" t="n">
-        <v>0.895602</v>
+        <v>0.888246</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13124</v>
+        <v>1.15341</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.31802</v>
+        <v>1.34505</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22733</v>
+        <v>1.24733</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12206</v>
+        <v>1.1091</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31011</v>
+        <v>1.31316</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19859</v>
+        <v>1.22126</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09822</v>
+        <v>1.12423</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32034</v>
+        <v>1.31381</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17352</v>
+        <v>1.17027</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07554</v>
+        <v>1.0792</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.32892</v>
+        <v>1.30474</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1666</v>
+        <v>1.17705</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08224</v>
+        <v>1.10075</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30206</v>
+        <v>1.33579</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16475</v>
+        <v>1.21536</v>
       </c>
       <c r="D114" t="n">
-        <v>1.06725</v>
+        <v>1.09061</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.27722</v>
+        <v>1.30239</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1667</v>
+        <v>1.1709</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05708</v>
+        <v>1.0695</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30272</v>
+        <v>1.28048</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16191</v>
+        <v>1.19259</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06501</v>
+        <v>1.0582</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27287</v>
+        <v>1.28715</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16677</v>
+        <v>1.15127</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05677</v>
+        <v>1.0514</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29517</v>
+        <v>1.27597</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14737</v>
+        <v>1.15786</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05478</v>
+        <v>1.0336</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2667</v>
+        <v>1.25663</v>
       </c>
       <c r="C119" t="n">
-        <v>1.13807</v>
+        <v>1.15355</v>
       </c>
       <c r="D119" t="n">
-        <v>1.02204</v>
+        <v>1.03301</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27611</v>
+        <v>1.27225</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11279</v>
+        <v>1.13872</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00684</v>
+        <v>1.01705</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26188</v>
+        <v>1.2967</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11465</v>
+        <v>1.13242</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01521</v>
+        <v>1.02807</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.24709</v>
+        <v>1.28879</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11478</v>
+        <v>1.12791</v>
       </c>
       <c r="D122" t="n">
-        <v>0.994941</v>
+        <v>1.01171</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.24759</v>
+        <v>1.27793</v>
       </c>
       <c r="C123" t="n">
-        <v>1.10838</v>
+        <v>1.11451</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34899</v>
+        <v>1.37986</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.5496</v>
+        <v>1.57474</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44536</v>
+        <v>1.46196</v>
       </c>
       <c r="D124" t="n">
-        <v>1.36696</v>
+        <v>1.34514</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.55241</v>
+        <v>1.54477</v>
       </c>
       <c r="C125" t="n">
-        <v>1.45976</v>
+        <v>1.46279</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36707</v>
+        <v>1.35479</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.54802</v>
+        <v>1.546</v>
       </c>
       <c r="C126" t="n">
-        <v>1.46111</v>
+        <v>1.47018</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33658</v>
+        <v>1.35142</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.56981</v>
+        <v>1.55312</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43558</v>
+        <v>1.46942</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31714</v>
+        <v>1.3353</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54219</v>
+        <v>1.56524</v>
       </c>
       <c r="C128" t="n">
-        <v>1.44403</v>
+        <v>1.46774</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33407</v>
+        <v>1.31786</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.5599</v>
+        <v>1.54348</v>
       </c>
       <c r="C129" t="n">
-        <v>1.45757</v>
+        <v>1.43703</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31008</v>
+        <v>1.3267</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54141</v>
+        <v>1.52376</v>
       </c>
       <c r="C130" t="n">
-        <v>1.42969</v>
+        <v>1.44854</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30984</v>
+        <v>1.32885</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54806</v>
+        <v>1.55059</v>
       </c>
       <c r="C131" t="n">
-        <v>1.42952</v>
+        <v>1.46259</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33351</v>
+        <v>1.3184</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54267</v>
+        <v>1.51966</v>
       </c>
       <c r="C132" t="n">
-        <v>1.43775</v>
+        <v>1.45772</v>
       </c>
       <c r="D132" t="n">
-        <v>1.28738</v>
+        <v>1.31494</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.54334</v>
+        <v>1.5366</v>
       </c>
       <c r="C133" t="n">
-        <v>1.44557</v>
+        <v>1.43495</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33834</v>
+        <v>1.29922</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53075</v>
+        <v>1.5527</v>
       </c>
       <c r="C134" t="n">
-        <v>1.43386</v>
+        <v>1.44378</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29733</v>
+        <v>1.31418</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.53203</v>
+        <v>1.55214</v>
       </c>
       <c r="C135" t="n">
-        <v>1.43651</v>
+        <v>1.47709</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30339</v>
+        <v>1.31564</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.51927</v>
+        <v>1.55056</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42783</v>
+        <v>1.47587</v>
       </c>
       <c r="D136" t="n">
-        <v>1.2938</v>
+        <v>1.31964</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.55107</v>
+        <v>1.55682</v>
       </c>
       <c r="C137" t="n">
-        <v>1.42993</v>
+        <v>1.4375</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66415</v>
+        <v>1.67784</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86675</v>
+        <v>1.86742</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7713</v>
+        <v>1.79078</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65255</v>
+        <v>1.65955</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.88698</v>
+        <v>1.85761</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80072</v>
+        <v>1.79238</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64595</v>
+        <v>1.65923</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86969</v>
+        <v>1.85077</v>
       </c>
       <c r="C140" t="n">
-        <v>1.7818</v>
+        <v>1.78814</v>
       </c>
       <c r="D140" t="n">
-        <v>1.61896</v>
+        <v>1.66062</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.83349</v>
+        <v>1.86307</v>
       </c>
       <c r="C141" t="n">
-        <v>1.79779</v>
+        <v>1.76068</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64529</v>
+        <v>1.64884</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86991</v>
+        <v>1.85209</v>
       </c>
       <c r="C142" t="n">
-        <v>1.79476</v>
+        <v>1.77836</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63451</v>
+        <v>1.63457</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84674</v>
+        <v>1.84435</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78507</v>
+        <v>1.78267</v>
       </c>
       <c r="D143" t="n">
-        <v>1.62944</v>
+        <v>1.63875</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.525901</v>
+        <v>0.513717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320475</v>
+        <v>0.276688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.318846</v>
+        <v>0.316345</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.449096</v>
+        <v>0.428126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306889</v>
+        <v>0.277598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.315001</v>
+        <v>0.317131</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.432272</v>
+        <v>0.448295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30794</v>
+        <v>0.277235</v>
       </c>
       <c r="D4" t="n">
-        <v>0.308966</v>
+        <v>0.328022</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.438368</v>
+        <v>0.441983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.30318</v>
+        <v>0.26933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296906</v>
+        <v>0.304929</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426623</v>
+        <v>0.431381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.297047</v>
+        <v>0.259404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290909</v>
+        <v>0.309494</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.418825</v>
+        <v>0.409339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.297023</v>
+        <v>0.263008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.287716</v>
+        <v>0.308878</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413627</v>
+        <v>0.424184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284758</v>
+        <v>0.256909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293727</v>
+        <v>0.304261</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414699</v>
+        <v>0.42077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284406</v>
+        <v>0.25725</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3867</v>
+        <v>0.398851</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.50225</v>
+        <v>0.495006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.381607</v>
+        <v>0.3402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377149</v>
+        <v>0.390648</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.493871</v>
+        <v>0.495067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370472</v>
+        <v>0.339456</v>
       </c>
       <c r="D11" t="n">
-        <v>0.359575</v>
+        <v>0.375917</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.475708</v>
+        <v>0.483695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.360779</v>
+        <v>0.31785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.350277</v>
+        <v>0.36601</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.469635</v>
+        <v>0.474415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.351897</v>
+        <v>0.319311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.35215</v>
+        <v>0.360481</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.462162</v>
+        <v>0.457154</v>
       </c>
       <c r="C14" t="n">
-        <v>0.337118</v>
+        <v>0.303697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.332367</v>
+        <v>0.350024</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.458379</v>
+        <v>0.453367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.331138</v>
+        <v>0.294943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.322595</v>
+        <v>0.34255</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.453366</v>
+        <v>0.449812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.321108</v>
+        <v>0.286346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.320746</v>
+        <v>0.330203</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.438946</v>
+        <v>0.43769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.322588</v>
+        <v>0.281818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31287</v>
+        <v>0.332867</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434588</v>
+        <v>0.433994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.31264</v>
+        <v>0.274677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305302</v>
+        <v>0.328144</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426701</v>
+        <v>0.424917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30302</v>
+        <v>0.265592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30289</v>
+        <v>0.315389</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.414924</v>
+        <v>0.42456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304003</v>
+        <v>0.260999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.295406</v>
+        <v>0.31875</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421625</v>
+        <v>0.416737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.297745</v>
+        <v>0.266127</v>
       </c>
       <c r="D21" t="n">
-        <v>0.284341</v>
+        <v>0.310777</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.414656</v>
+        <v>0.405715</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289164</v>
+        <v>0.253904</v>
       </c>
       <c r="D22" t="n">
-        <v>0.283744</v>
+        <v>0.31113</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.424906</v>
+        <v>0.410852</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295799</v>
+        <v>0.259748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.61935</v>
+        <v>0.408916</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.656019</v>
+        <v>0.663874</v>
       </c>
       <c r="C24" t="n">
-        <v>0.545076</v>
+        <v>0.50782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6014890000000001</v>
+        <v>0.397387</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.635421</v>
+        <v>0.646053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.525964</v>
+        <v>0.493546</v>
       </c>
       <c r="D25" t="n">
-        <v>0.581281</v>
+        <v>0.387851</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.617719</v>
+        <v>0.623176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.505434</v>
+        <v>0.479659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.557889</v>
+        <v>0.383768</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6246159999999999</v>
+        <v>0.6164770000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.495259</v>
+        <v>0.457398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.541864</v>
+        <v>0.371083</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.617488</v>
+        <v>0.608935</v>
       </c>
       <c r="C28" t="n">
-        <v>0.482418</v>
+        <v>0.444472</v>
       </c>
       <c r="D28" t="n">
-        <v>0.519129</v>
+        <v>0.367351</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583914</v>
+        <v>0.587564</v>
       </c>
       <c r="C29" t="n">
-        <v>0.475209</v>
+        <v>0.425553</v>
       </c>
       <c r="D29" t="n">
-        <v>0.509742</v>
+        <v>0.357098</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.577018</v>
+        <v>0.580918</v>
       </c>
       <c r="C30" t="n">
-        <v>0.449304</v>
+        <v>0.421819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.499826</v>
+        <v>0.356991</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.562923</v>
+        <v>0.56829</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447959</v>
+        <v>0.406417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.481466</v>
+        <v>0.344436</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.566564</v>
+        <v>0.568261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.434058</v>
+        <v>0.402845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.469353</v>
+        <v>0.344062</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.546154</v>
+        <v>0.549373</v>
       </c>
       <c r="C33" t="n">
-        <v>0.415977</v>
+        <v>0.388062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.453173</v>
+        <v>0.33584</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.538319</v>
+        <v>0.542218</v>
       </c>
       <c r="C34" t="n">
-        <v>0.424091</v>
+        <v>0.379498</v>
       </c>
       <c r="D34" t="n">
-        <v>0.436566</v>
+        <v>0.332624</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.522465</v>
+        <v>0.524184</v>
       </c>
       <c r="C35" t="n">
-        <v>0.40085</v>
+        <v>0.371296</v>
       </c>
       <c r="D35" t="n">
-        <v>0.435993</v>
+        <v>0.323361</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.517207</v>
+        <v>0.512829</v>
       </c>
       <c r="C36" t="n">
-        <v>0.402271</v>
+        <v>0.351235</v>
       </c>
       <c r="D36" t="n">
-        <v>0.423322</v>
+        <v>0.324022</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.52937</v>
+        <v>0.5114919999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.386929</v>
+        <v>0.347503</v>
       </c>
       <c r="D37" t="n">
-        <v>0.687707</v>
+        <v>0.587567</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.760902</v>
+        <v>0.774855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.645716</v>
+        <v>0.623072</v>
       </c>
       <c r="D38" t="n">
-        <v>0.678326</v>
+        <v>0.560456</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.765589</v>
+        <v>0.753594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.629766</v>
+        <v>0.602975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.639747</v>
+        <v>0.557654</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727577</v>
+        <v>0.7444809999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.624183</v>
+        <v>0.568366</v>
       </c>
       <c r="D40" t="n">
-        <v>0.625777</v>
+        <v>0.529008</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.718143</v>
+        <v>0.706172</v>
       </c>
       <c r="C41" t="n">
-        <v>0.585627</v>
+        <v>0.553185</v>
       </c>
       <c r="D41" t="n">
-        <v>0.597316</v>
+        <v>0.519717</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.713372</v>
+        <v>0.708072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.574854</v>
+        <v>0.5474250000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.579321</v>
+        <v>0.51294</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.675463</v>
+        <v>0.678428</v>
       </c>
       <c r="C43" t="n">
-        <v>0.566812</v>
+        <v>0.520225</v>
       </c>
       <c r="D43" t="n">
-        <v>0.557499</v>
+        <v>0.490423</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.682063</v>
+        <v>0.671558</v>
       </c>
       <c r="C44" t="n">
-        <v>0.553064</v>
+        <v>0.509675</v>
       </c>
       <c r="D44" t="n">
-        <v>0.566018</v>
+        <v>0.481508</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669617</v>
+        <v>0.6520860000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.539876</v>
+        <v>0.485007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530537</v>
+        <v>0.474379</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.641999</v>
+        <v>0.652247</v>
       </c>
       <c r="C46" t="n">
-        <v>0.519</v>
+        <v>0.478416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.51675</v>
+        <v>0.452607</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.633028</v>
+        <v>0.62558</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497664</v>
+        <v>0.472</v>
       </c>
       <c r="D47" t="n">
-        <v>0.511483</v>
+        <v>0.44956</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.631756</v>
+        <v>0.618716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.488697</v>
+        <v>0.447017</v>
       </c>
       <c r="D48" t="n">
-        <v>0.495506</v>
+        <v>0.439453</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.598841</v>
+        <v>0.602712</v>
       </c>
       <c r="C49" t="n">
-        <v>0.482492</v>
+        <v>0.43853</v>
       </c>
       <c r="D49" t="n">
-        <v>0.473609</v>
+        <v>0.43729</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.596492</v>
+        <v>0.615473</v>
       </c>
       <c r="C50" t="n">
-        <v>0.466327</v>
+        <v>0.423464</v>
       </c>
       <c r="D50" t="n">
-        <v>0.465042</v>
+        <v>0.425363</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.582521</v>
+        <v>0.60717</v>
       </c>
       <c r="C51" t="n">
-        <v>0.462192</v>
+        <v>0.418201</v>
       </c>
       <c r="D51" t="n">
-        <v>0.765343</v>
+        <v>0.703726</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.565804</v>
+        <v>0.575274</v>
       </c>
       <c r="C52" t="n">
-        <v>0.458656</v>
+        <v>0.40907</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7421</v>
+        <v>0.693307</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.835332</v>
+        <v>0.832009</v>
       </c>
       <c r="C53" t="n">
-        <v>0.712717</v>
+        <v>0.665065</v>
       </c>
       <c r="D53" t="n">
-        <v>0.694238</v>
+        <v>0.666162</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.824288</v>
+        <v>0.833519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.70506</v>
+        <v>0.662404</v>
       </c>
       <c r="D54" t="n">
-        <v>0.681007</v>
+        <v>0.664057</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.804278</v>
+        <v>0.815464</v>
       </c>
       <c r="C55" t="n">
-        <v>0.67491</v>
+        <v>0.6395420000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.67987</v>
+        <v>0.64794</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.806436</v>
+        <v>0.791499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.664632</v>
+        <v>0.620112</v>
       </c>
       <c r="D56" t="n">
-        <v>0.651135</v>
+        <v>0.621626</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.773257</v>
+        <v>0.779827</v>
       </c>
       <c r="C57" t="n">
-        <v>0.63633</v>
+        <v>0.62295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.624936</v>
+        <v>0.621043</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.759003</v>
+        <v>0.752027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.628907</v>
+        <v>0.587022</v>
       </c>
       <c r="D58" t="n">
-        <v>0.608423</v>
+        <v>0.609758</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.738962</v>
+        <v>0.755767</v>
       </c>
       <c r="C59" t="n">
-        <v>0.614864</v>
+        <v>0.56853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.601205</v>
+        <v>0.581962</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.726087</v>
+        <v>0.7340140000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.605891</v>
+        <v>0.570106</v>
       </c>
       <c r="D60" t="n">
-        <v>0.590892</v>
+        <v>0.576817</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.722839</v>
+        <v>0.723886</v>
       </c>
       <c r="C61" t="n">
-        <v>0.582362</v>
+        <v>0.541614</v>
       </c>
       <c r="D61" t="n">
-        <v>0.58284</v>
+        <v>0.553108</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.717715</v>
+        <v>0.718363</v>
       </c>
       <c r="C62" t="n">
-        <v>0.578999</v>
+        <v>0.531477</v>
       </c>
       <c r="D62" t="n">
-        <v>0.547856</v>
+        <v>0.544167</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6943049999999999</v>
+        <v>0.703281</v>
       </c>
       <c r="C63" t="n">
-        <v>0.561728</v>
+        <v>0.5313600000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.545116</v>
+        <v>0.541297</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.680505</v>
+        <v>0.701719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.542185</v>
+        <v>0.517509</v>
       </c>
       <c r="D64" t="n">
-        <v>0.536662</v>
+        <v>0.534129</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.673785</v>
+        <v>0.673257</v>
       </c>
       <c r="C65" t="n">
-        <v>0.538453</v>
+        <v>0.502934</v>
       </c>
       <c r="D65" t="n">
-        <v>0.525509</v>
+        <v>0.530558</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.659613</v>
+        <v>0.6737300000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.533276</v>
+        <v>0.49454</v>
       </c>
       <c r="D66" t="n">
-        <v>0.811852</v>
+        <v>0.80699</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.953912</v>
+        <v>0.978368</v>
       </c>
       <c r="C67" t="n">
-        <v>0.812608</v>
+        <v>0.773021</v>
       </c>
       <c r="D67" t="n">
-        <v>0.796825</v>
+        <v>0.79708</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.935619</v>
+        <v>0.945701</v>
       </c>
       <c r="C68" t="n">
-        <v>0.811155</v>
+        <v>0.732866</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7606619999999999</v>
+        <v>0.746397</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.939042</v>
+        <v>0.9208769999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.76795</v>
+        <v>0.716862</v>
       </c>
       <c r="D69" t="n">
-        <v>0.744324</v>
+        <v>0.729897</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.924058</v>
+        <v>0.933646</v>
       </c>
       <c r="C70" t="n">
-        <v>0.774043</v>
+        <v>0.6999109999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.731308</v>
+        <v>0.711553</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.884525</v>
+        <v>0.8911480000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.721171</v>
+        <v>0.6767069999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.720012</v>
+        <v>0.704324</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.892828</v>
+        <v>0.857221</v>
       </c>
       <c r="C72" t="n">
-        <v>0.71004</v>
+        <v>0.6649119999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.688008</v>
+        <v>0.684059</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.881817</v>
+        <v>0.864742</v>
       </c>
       <c r="C73" t="n">
-        <v>0.699425</v>
+        <v>0.660806</v>
       </c>
       <c r="D73" t="n">
-        <v>0.674207</v>
+        <v>0.675864</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.857917</v>
+        <v>0.852286</v>
       </c>
       <c r="C74" t="n">
-        <v>0.68754</v>
+        <v>0.671789</v>
       </c>
       <c r="D74" t="n">
-        <v>0.65505</v>
+        <v>0.684916</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.82528</v>
+        <v>0.845243</v>
       </c>
       <c r="C75" t="n">
-        <v>0.676077</v>
+        <v>0.645111</v>
       </c>
       <c r="D75" t="n">
-        <v>0.65357</v>
+        <v>0.677791</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.813784</v>
+        <v>0.817937</v>
       </c>
       <c r="C76" t="n">
-        <v>0.656034</v>
+        <v>0.623932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.633316</v>
+        <v>0.663894</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.814119</v>
+        <v>0.800998</v>
       </c>
       <c r="C77" t="n">
-        <v>0.635838</v>
+        <v>0.6066550000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.636257</v>
+        <v>0.621486</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.79661</v>
+        <v>0.8019770000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.631526</v>
+        <v>0.6025700000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.618563</v>
+        <v>0.617359</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.784195</v>
+        <v>0.795757</v>
       </c>
       <c r="C79" t="n">
-        <v>0.617009</v>
+        <v>0.579362</v>
       </c>
       <c r="D79" t="n">
-        <v>0.606986</v>
+        <v>0.603343</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.768948</v>
+        <v>0.771046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.617804</v>
+        <v>0.571593</v>
       </c>
       <c r="D80" t="n">
-        <v>0.92919</v>
+        <v>0.950994</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08176</v>
+        <v>1.08507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.917733</v>
+        <v>0.874362</v>
       </c>
       <c r="D81" t="n">
-        <v>0.912445</v>
+        <v>0.934372</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06947</v>
+        <v>1.08946</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9294249999999999</v>
+        <v>0.881623</v>
       </c>
       <c r="D82" t="n">
-        <v>0.904435</v>
+        <v>0.889562</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0459</v>
+        <v>1.03438</v>
       </c>
       <c r="C83" t="n">
-        <v>0.895512</v>
+        <v>0.845063</v>
       </c>
       <c r="D83" t="n">
-        <v>0.880068</v>
+        <v>0.883582</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02595</v>
+        <v>1.04147</v>
       </c>
       <c r="C84" t="n">
-        <v>0.883375</v>
+        <v>0.847449</v>
       </c>
       <c r="D84" t="n">
-        <v>0.852505</v>
+        <v>0.856757</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0251</v>
+        <v>1.02016</v>
       </c>
       <c r="C85" t="n">
-        <v>0.875041</v>
+        <v>0.8352540000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.830603</v>
+        <v>0.840225</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0245</v>
+        <v>0.994187</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8565199999999999</v>
+        <v>0.7962360000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.806117</v>
+        <v>0.810413</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01018</v>
+        <v>1.00815</v>
       </c>
       <c r="C87" t="n">
-        <v>0.819775</v>
+        <v>0.7920199999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7896609999999999</v>
+        <v>0.8045909999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.965513</v>
+        <v>0.978853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.824551</v>
+        <v>0.766466</v>
       </c>
       <c r="D88" t="n">
-        <v>0.781092</v>
+        <v>0.786633</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.967409</v>
+        <v>0.972197</v>
       </c>
       <c r="C89" t="n">
-        <v>0.802463</v>
+        <v>0.757819</v>
       </c>
       <c r="D89" t="n">
-        <v>0.752543</v>
+        <v>0.76641</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.943428</v>
+        <v>0.957437</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7843</v>
+        <v>0.73581</v>
       </c>
       <c r="D90" t="n">
-        <v>0.735335</v>
+        <v>0.751745</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.924556</v>
+        <v>0.9265679999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.777801</v>
+        <v>0.7332070000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.728158</v>
+        <v>0.744136</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.927061</v>
+        <v>0.924335</v>
       </c>
       <c r="C92" t="n">
-        <v>0.755051</v>
+        <v>0.711105</v>
       </c>
       <c r="D92" t="n">
-        <v>0.719652</v>
+        <v>0.731907</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.918987</v>
+        <v>0.919916</v>
       </c>
       <c r="C93" t="n">
-        <v>0.737832</v>
+        <v>0.697361</v>
       </c>
       <c r="D93" t="n">
-        <v>0.724397</v>
+        <v>0.718437</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8899899999999999</v>
+        <v>0.90551</v>
       </c>
       <c r="C94" t="n">
-        <v>0.738375</v>
+        <v>0.690877</v>
       </c>
       <c r="D94" t="n">
-        <v>1.04054</v>
+        <v>1.05236</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17351</v>
+        <v>1.23811</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06194</v>
+        <v>1.01305</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00222</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18318</v>
+        <v>1.1957</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04993</v>
+        <v>0.996879</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00174</v>
+        <v>1.00992</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16981</v>
+        <v>1.18912</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02504</v>
+        <v>0.984747</v>
       </c>
       <c r="D97" t="n">
-        <v>0.953368</v>
+        <v>0.968858</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17644</v>
+        <v>1.14952</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01715</v>
+        <v>0.973137</v>
       </c>
       <c r="D98" t="n">
-        <v>0.950912</v>
+        <v>0.957468</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13636</v>
+        <v>1.13288</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00253</v>
+        <v>0.962341</v>
       </c>
       <c r="D99" t="n">
-        <v>0.948696</v>
+        <v>0.950105</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1211</v>
+        <v>1.12187</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00219</v>
+        <v>0.9408879999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.919177</v>
+        <v>0.946909</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10439</v>
+        <v>1.11849</v>
       </c>
       <c r="C101" t="n">
-        <v>0.966482</v>
+        <v>0.9278419999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.890319</v>
+        <v>0.897219</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10571</v>
+        <v>1.10054</v>
       </c>
       <c r="C102" t="n">
-        <v>0.950271</v>
+        <v>0.900956</v>
       </c>
       <c r="D102" t="n">
-        <v>0.896658</v>
+        <v>0.906601</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10299</v>
+        <v>1.08316</v>
       </c>
       <c r="C103" t="n">
-        <v>0.92732</v>
+        <v>0.885373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.873096</v>
+        <v>0.892018</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0742</v>
+        <v>1.06684</v>
       </c>
       <c r="C104" t="n">
-        <v>0.932837</v>
+        <v>0.8802410000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.850889</v>
+        <v>0.878295</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05524</v>
+        <v>1.05769</v>
       </c>
       <c r="C105" t="n">
-        <v>0.92497</v>
+        <v>0.861876</v>
       </c>
       <c r="D105" t="n">
-        <v>0.851897</v>
+        <v>0.859793</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06579</v>
+        <v>1.08866</v>
       </c>
       <c r="C106" t="n">
-        <v>0.916842</v>
+        <v>0.87462</v>
       </c>
       <c r="D106" t="n">
-        <v>0.834951</v>
+        <v>0.855012</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06484</v>
+        <v>1.06493</v>
       </c>
       <c r="C107" t="n">
-        <v>0.89698</v>
+        <v>0.857291</v>
       </c>
       <c r="D107" t="n">
-        <v>0.834452</v>
+        <v>0.8304009999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04416</v>
+        <v>1.04378</v>
       </c>
       <c r="C108" t="n">
-        <v>0.903511</v>
+        <v>0.851962</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1796</v>
+        <v>1.19186</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.03844</v>
+        <v>1.04353</v>
       </c>
       <c r="C109" t="n">
-        <v>0.888246</v>
+        <v>0.837943</v>
       </c>
       <c r="D109" t="n">
-        <v>1.15341</v>
+        <v>1.14879</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.34505</v>
+        <v>1.36763</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24733</v>
+        <v>1.1899</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1091</v>
+        <v>1.14469</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31316</v>
+        <v>1.33892</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22126</v>
+        <v>1.1444</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12423</v>
+        <v>1.11752</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31381</v>
+        <v>1.3376</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17027</v>
+        <v>1.144</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0792</v>
+        <v>1.09919</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.30474</v>
+        <v>1.29709</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17705</v>
+        <v>1.10824</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10075</v>
+        <v>1.10963</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.33579</v>
+        <v>1.29292</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21536</v>
+        <v>1.09899</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09061</v>
+        <v>1.10049</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30239</v>
+        <v>1.31919</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1709</v>
+        <v>1.11297</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0695</v>
+        <v>1.0856</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28048</v>
+        <v>1.31109</v>
       </c>
       <c r="C116" t="n">
-        <v>1.19259</v>
+        <v>1.09317</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0582</v>
+        <v>1.08631</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28715</v>
+        <v>1.27238</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15127</v>
+        <v>1.10971</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0514</v>
+        <v>1.06039</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.27597</v>
+        <v>1.27581</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15786</v>
+        <v>1.09144</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0336</v>
+        <v>1.06108</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25663</v>
+        <v>1.26206</v>
       </c>
       <c r="C119" t="n">
-        <v>1.15355</v>
+        <v>1.06388</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03301</v>
+        <v>1.05234</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27225</v>
+        <v>1.25535</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13872</v>
+        <v>1.08401</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01705</v>
+        <v>1.02579</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2967</v>
+        <v>1.26136</v>
       </c>
       <c r="C121" t="n">
-        <v>1.13242</v>
+        <v>1.07733</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02807</v>
+        <v>1.01895</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.28879</v>
+        <v>1.26145</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12791</v>
+        <v>1.05529</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01171</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27793</v>
+        <v>1.25324</v>
       </c>
       <c r="C123" t="n">
-        <v>1.11451</v>
+        <v>1.06779</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37986</v>
+        <v>1.37973</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.57474</v>
+        <v>1.5908</v>
       </c>
       <c r="C124" t="n">
-        <v>1.46196</v>
+        <v>1.39422</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34514</v>
+        <v>1.34839</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.54477</v>
+        <v>1.55053</v>
       </c>
       <c r="C125" t="n">
-        <v>1.46279</v>
+        <v>1.37141</v>
       </c>
       <c r="D125" t="n">
-        <v>1.35479</v>
+        <v>1.36344</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.546</v>
+        <v>1.54418</v>
       </c>
       <c r="C126" t="n">
-        <v>1.47018</v>
+        <v>1.40409</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35142</v>
+        <v>1.34059</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55312</v>
+        <v>1.54908</v>
       </c>
       <c r="C127" t="n">
-        <v>1.46942</v>
+        <v>1.39486</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3353</v>
+        <v>1.3433</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56524</v>
+        <v>1.52985</v>
       </c>
       <c r="C128" t="n">
-        <v>1.46774</v>
+        <v>1.3805</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31786</v>
+        <v>1.35115</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.54348</v>
+        <v>1.53442</v>
       </c>
       <c r="C129" t="n">
-        <v>1.43703</v>
+        <v>1.37489</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3267</v>
+        <v>1.34078</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.52376</v>
+        <v>1.55161</v>
       </c>
       <c r="C130" t="n">
-        <v>1.44854</v>
+        <v>1.37684</v>
       </c>
       <c r="D130" t="n">
-        <v>1.32885</v>
+        <v>1.3316</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.55059</v>
+        <v>1.5426</v>
       </c>
       <c r="C131" t="n">
-        <v>1.46259</v>
+        <v>1.39881</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3184</v>
+        <v>1.33906</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.51966</v>
+        <v>1.55667</v>
       </c>
       <c r="C132" t="n">
-        <v>1.45772</v>
+        <v>1.36858</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31494</v>
+        <v>1.33112</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.5366</v>
+        <v>1.52348</v>
       </c>
       <c r="C133" t="n">
-        <v>1.43495</v>
+        <v>1.37374</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29922</v>
+        <v>1.34735</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.5527</v>
+        <v>1.54227</v>
       </c>
       <c r="C134" t="n">
-        <v>1.44378</v>
+        <v>1.37578</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31418</v>
+        <v>1.32354</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.55214</v>
+        <v>1.54247</v>
       </c>
       <c r="C135" t="n">
-        <v>1.47709</v>
+        <v>1.38044</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31564</v>
+        <v>1.34895</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.55056</v>
+        <v>1.56059</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47587</v>
+        <v>1.38597</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31964</v>
+        <v>1.33542</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.55682</v>
+        <v>1.52642</v>
       </c>
       <c r="C137" t="n">
-        <v>1.4375</v>
+        <v>1.36342</v>
       </c>
       <c r="D137" t="n">
-        <v>1.67784</v>
+        <v>1.64677</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86742</v>
+        <v>1.85518</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79078</v>
+        <v>1.7178</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65955</v>
+        <v>1.6628</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.85761</v>
+        <v>1.86343</v>
       </c>
       <c r="C139" t="n">
-        <v>1.79238</v>
+        <v>1.71212</v>
       </c>
       <c r="D139" t="n">
-        <v>1.65923</v>
+        <v>1.65341</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85077</v>
+        <v>1.85119</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78814</v>
+        <v>1.71459</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66062</v>
+        <v>1.66978</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86307</v>
+        <v>1.8756</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76068</v>
+        <v>1.72304</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64884</v>
+        <v>1.66832</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85209</v>
+        <v>1.86276</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77836</v>
+        <v>1.689</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63457</v>
+        <v>1.66291</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84435</v>
+        <v>1.85922</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78267</v>
+        <v>1.71472</v>
       </c>
       <c r="D143" t="n">
-        <v>1.63875</v>
+        <v>1.66724</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.513717</v>
+        <v>0.510595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276688</v>
+        <v>0.278288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.316345</v>
+        <v>0.330656</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.428126</v>
+        <v>0.42459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277598</v>
+        <v>0.267899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317131</v>
+        <v>0.311762</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.448295</v>
+        <v>0.422158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.277235</v>
+        <v>0.262345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.328022</v>
+        <v>0.313104</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.441983</v>
+        <v>0.426826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26933</v>
+        <v>0.276258</v>
       </c>
       <c r="D5" t="n">
-        <v>0.304929</v>
+        <v>0.320479</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.431381</v>
+        <v>0.43641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.259404</v>
+        <v>0.255795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.309494</v>
+        <v>0.317038</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.409339</v>
+        <v>0.409961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.263008</v>
+        <v>0.250342</v>
       </c>
       <c r="D7" t="n">
-        <v>0.308878</v>
+        <v>0.30298</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.424184</v>
+        <v>0.422295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.256909</v>
+        <v>0.251371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304261</v>
+        <v>0.304901</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.42077</v>
+        <v>0.40659</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25725</v>
+        <v>0.254072</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398851</v>
+        <v>0.395545</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.495006</v>
+        <v>0.490218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3402</v>
+        <v>0.338363</v>
       </c>
       <c r="D10" t="n">
-        <v>0.390648</v>
+        <v>0.384241</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.495067</v>
+        <v>0.478752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.339456</v>
+        <v>0.33107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.375917</v>
+        <v>0.372034</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.483695</v>
+        <v>0.489848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31785</v>
+        <v>0.323268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.36601</v>
+        <v>0.377164</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.474415</v>
+        <v>0.48357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.319311</v>
+        <v>0.317254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.360481</v>
+        <v>0.355957</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.457154</v>
+        <v>0.460962</v>
       </c>
       <c r="C14" t="n">
-        <v>0.303697</v>
+        <v>0.297505</v>
       </c>
       <c r="D14" t="n">
-        <v>0.350024</v>
+        <v>0.346966</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.453367</v>
+        <v>0.451528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.294943</v>
+        <v>0.289037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.34255</v>
+        <v>0.348801</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449812</v>
+        <v>0.44023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.286346</v>
+        <v>0.282851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.330203</v>
+        <v>0.336778</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.43769</v>
+        <v>0.439419</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281818</v>
+        <v>0.278733</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332867</v>
+        <v>0.331956</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.433994</v>
+        <v>0.441132</v>
       </c>
       <c r="C18" t="n">
-        <v>0.274677</v>
+        <v>0.272524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.328144</v>
+        <v>0.321457</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.424917</v>
+        <v>0.42627</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265592</v>
+        <v>0.265385</v>
       </c>
       <c r="D19" t="n">
-        <v>0.315389</v>
+        <v>0.318757</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42456</v>
+        <v>0.422471</v>
       </c>
       <c r="C20" t="n">
-        <v>0.260999</v>
+        <v>0.262626</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31875</v>
+        <v>0.309886</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.416737</v>
+        <v>0.429174</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266127</v>
+        <v>0.253408</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310777</v>
+        <v>0.310995</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.405715</v>
+        <v>0.416696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253904</v>
+        <v>0.251435</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31113</v>
+        <v>0.303305</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.410852</v>
+        <v>0.412765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.259748</v>
+        <v>0.253879</v>
       </c>
       <c r="D23" t="n">
-        <v>0.408916</v>
+        <v>0.398251</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.663874</v>
+        <v>0.654606</v>
       </c>
       <c r="C24" t="n">
-        <v>0.50782</v>
+        <v>0.506462</v>
       </c>
       <c r="D24" t="n">
-        <v>0.397387</v>
+        <v>0.398533</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.646053</v>
+        <v>0.644104</v>
       </c>
       <c r="C25" t="n">
-        <v>0.493546</v>
+        <v>0.492139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.387851</v>
+        <v>0.387953</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.623176</v>
+        <v>0.615745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.479659</v>
+        <v>0.470366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.383768</v>
+        <v>0.377863</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6164770000000001</v>
+        <v>0.614356</v>
       </c>
       <c r="C27" t="n">
-        <v>0.457398</v>
+        <v>0.448695</v>
       </c>
       <c r="D27" t="n">
-        <v>0.371083</v>
+        <v>0.368973</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608935</v>
+        <v>0.6014620000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.444472</v>
+        <v>0.445054</v>
       </c>
       <c r="D28" t="n">
-        <v>0.367351</v>
+        <v>0.367261</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.587564</v>
+        <v>0.592077</v>
       </c>
       <c r="C29" t="n">
-        <v>0.425553</v>
+        <v>0.434035</v>
       </c>
       <c r="D29" t="n">
-        <v>0.357098</v>
+        <v>0.352833</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.580918</v>
+        <v>0.578147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.421819</v>
+        <v>0.421932</v>
       </c>
       <c r="D30" t="n">
-        <v>0.356991</v>
+        <v>0.355978</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.56829</v>
+        <v>0.55805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.406417</v>
+        <v>0.401056</v>
       </c>
       <c r="D31" t="n">
-        <v>0.344436</v>
+        <v>0.342444</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.568261</v>
+        <v>0.558225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.402845</v>
+        <v>0.396342</v>
       </c>
       <c r="D32" t="n">
-        <v>0.344062</v>
+        <v>0.335021</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549373</v>
+        <v>0.542427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.388062</v>
+        <v>0.382982</v>
       </c>
       <c r="D33" t="n">
-        <v>0.33584</v>
+        <v>0.340167</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.542218</v>
+        <v>0.529935</v>
       </c>
       <c r="C34" t="n">
-        <v>0.379498</v>
+        <v>0.366111</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332624</v>
+        <v>0.323255</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.524184</v>
+        <v>0.520298</v>
       </c>
       <c r="C35" t="n">
-        <v>0.371296</v>
+        <v>0.366936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.323361</v>
+        <v>0.330949</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.512829</v>
+        <v>0.528191</v>
       </c>
       <c r="C36" t="n">
-        <v>0.351235</v>
+        <v>0.359384</v>
       </c>
       <c r="D36" t="n">
-        <v>0.324022</v>
+        <v>0.318758</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5114919999999999</v>
+        <v>0.509597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.347503</v>
+        <v>0.350433</v>
       </c>
       <c r="D37" t="n">
-        <v>0.587567</v>
+        <v>0.567035</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.774855</v>
+        <v>0.770073</v>
       </c>
       <c r="C38" t="n">
-        <v>0.623072</v>
+        <v>0.622808</v>
       </c>
       <c r="D38" t="n">
-        <v>0.560456</v>
+        <v>0.556432</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.753594</v>
+        <v>0.740249</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602975</v>
+        <v>0.594209</v>
       </c>
       <c r="D39" t="n">
-        <v>0.557654</v>
+        <v>0.543247</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7444809999999999</v>
+        <v>0.749288</v>
       </c>
       <c r="C40" t="n">
-        <v>0.568366</v>
+        <v>0.579562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.529008</v>
+        <v>0.537345</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.706172</v>
+        <v>0.705654</v>
       </c>
       <c r="C41" t="n">
-        <v>0.553185</v>
+        <v>0.552664</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519717</v>
+        <v>0.504291</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.708072</v>
+        <v>0.703549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5474250000000001</v>
+        <v>0.529652</v>
       </c>
       <c r="D42" t="n">
-        <v>0.51294</v>
+        <v>0.502344</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.678428</v>
+        <v>0.6828149999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.520225</v>
+        <v>0.529645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.490423</v>
+        <v>0.491661</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.671558</v>
+        <v>0.6497270000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.509675</v>
+        <v>0.496115</v>
       </c>
       <c r="D44" t="n">
-        <v>0.481508</v>
+        <v>0.48233</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6520860000000001</v>
+        <v>0.646483</v>
       </c>
       <c r="C45" t="n">
-        <v>0.485007</v>
+        <v>0.477842</v>
       </c>
       <c r="D45" t="n">
-        <v>0.474379</v>
+        <v>0.459394</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.652247</v>
+        <v>0.62593</v>
       </c>
       <c r="C46" t="n">
-        <v>0.478416</v>
+        <v>0.480222</v>
       </c>
       <c r="D46" t="n">
-        <v>0.452607</v>
+        <v>0.447179</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.62558</v>
+        <v>0.620768</v>
       </c>
       <c r="C47" t="n">
-        <v>0.472</v>
+        <v>0.455545</v>
       </c>
       <c r="D47" t="n">
-        <v>0.44956</v>
+        <v>0.448651</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.618716</v>
+        <v>0.601942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.447017</v>
+        <v>0.437992</v>
       </c>
       <c r="D48" t="n">
-        <v>0.439453</v>
+        <v>0.438285</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.602712</v>
+        <v>0.611272</v>
       </c>
       <c r="C49" t="n">
-        <v>0.43853</v>
+        <v>0.426913</v>
       </c>
       <c r="D49" t="n">
-        <v>0.43729</v>
+        <v>0.424172</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.615473</v>
+        <v>0.587273</v>
       </c>
       <c r="C50" t="n">
-        <v>0.423464</v>
+        <v>0.4211</v>
       </c>
       <c r="D50" t="n">
-        <v>0.425363</v>
+        <v>0.415718</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.60717</v>
+        <v>0.567985</v>
       </c>
       <c r="C51" t="n">
-        <v>0.418201</v>
+        <v>0.417665</v>
       </c>
       <c r="D51" t="n">
-        <v>0.703726</v>
+        <v>0.704026</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.575274</v>
+        <v>0.564565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.40907</v>
+        <v>0.410673</v>
       </c>
       <c r="D52" t="n">
-        <v>0.693307</v>
+        <v>0.694109</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.832009</v>
+        <v>0.822052</v>
       </c>
       <c r="C53" t="n">
-        <v>0.665065</v>
+        <v>0.665535</v>
       </c>
       <c r="D53" t="n">
-        <v>0.666162</v>
+        <v>0.677238</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.833519</v>
+        <v>0.836098</v>
       </c>
       <c r="C54" t="n">
-        <v>0.662404</v>
+        <v>0.6473989999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.664057</v>
+        <v>0.652731</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.815464</v>
+        <v>0.810578</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6395420000000001</v>
+        <v>0.625241</v>
       </c>
       <c r="D55" t="n">
-        <v>0.64794</v>
+        <v>0.630348</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.791499</v>
+        <v>0.785368</v>
       </c>
       <c r="C56" t="n">
-        <v>0.620112</v>
+        <v>0.620013</v>
       </c>
       <c r="D56" t="n">
-        <v>0.621626</v>
+        <v>0.610325</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.779827</v>
+        <v>0.772895</v>
       </c>
       <c r="C57" t="n">
-        <v>0.62295</v>
+        <v>0.585386</v>
       </c>
       <c r="D57" t="n">
-        <v>0.621043</v>
+        <v>0.6005239999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.752027</v>
+        <v>0.74126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.587022</v>
+        <v>0.604</v>
       </c>
       <c r="D58" t="n">
-        <v>0.609758</v>
+        <v>0.595066</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755767</v>
+        <v>0.7299369999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.56853</v>
+        <v>0.565955</v>
       </c>
       <c r="D59" t="n">
-        <v>0.581962</v>
+        <v>0.57742</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7340140000000001</v>
+        <v>0.732609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.570106</v>
+        <v>0.554354</v>
       </c>
       <c r="D60" t="n">
-        <v>0.576817</v>
+        <v>0.561437</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.723886</v>
+        <v>0.739088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.541614</v>
+        <v>0.543741</v>
       </c>
       <c r="D61" t="n">
-        <v>0.553108</v>
+        <v>0.561349</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.718363</v>
+        <v>0.719602</v>
       </c>
       <c r="C62" t="n">
-        <v>0.531477</v>
+        <v>0.535517</v>
       </c>
       <c r="D62" t="n">
-        <v>0.544167</v>
+        <v>0.5535330000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.703281</v>
+        <v>0.713357</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5313600000000001</v>
+        <v>0.522539</v>
       </c>
       <c r="D63" t="n">
-        <v>0.541297</v>
+        <v>0.53464</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.701719</v>
+        <v>0.6813900000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.517509</v>
+        <v>0.501453</v>
       </c>
       <c r="D64" t="n">
-        <v>0.534129</v>
+        <v>0.517255</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.673257</v>
+        <v>0.690561</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502934</v>
+        <v>0.487414</v>
       </c>
       <c r="D65" t="n">
-        <v>0.530558</v>
+        <v>0.515521</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6737300000000001</v>
+        <v>0.662456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.49454</v>
+        <v>0.478061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.80699</v>
+        <v>0.82533</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.978368</v>
+        <v>0.945223</v>
       </c>
       <c r="C67" t="n">
-        <v>0.773021</v>
+        <v>0.765306</v>
       </c>
       <c r="D67" t="n">
-        <v>0.79708</v>
+        <v>0.776246</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.945701</v>
+        <v>0.931633</v>
       </c>
       <c r="C68" t="n">
-        <v>0.732866</v>
+        <v>0.752451</v>
       </c>
       <c r="D68" t="n">
-        <v>0.746397</v>
+        <v>0.762258</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9208769999999999</v>
+        <v>0.90471</v>
       </c>
       <c r="C69" t="n">
-        <v>0.716862</v>
+        <v>0.730938</v>
       </c>
       <c r="D69" t="n">
-        <v>0.729897</v>
+        <v>0.746534</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.933646</v>
+        <v>0.9306219999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6999109999999999</v>
+        <v>0.7067</v>
       </c>
       <c r="D70" t="n">
-        <v>0.711553</v>
+        <v>0.716893</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8911480000000001</v>
+        <v>0.887711</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6767069999999999</v>
+        <v>0.6912970000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.704324</v>
+        <v>0.706698</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.857221</v>
+        <v>0.861426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6649119999999999</v>
+        <v>0.659404</v>
       </c>
       <c r="D72" t="n">
-        <v>0.684059</v>
+        <v>0.678895</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.864742</v>
+        <v>0.861982</v>
       </c>
       <c r="C73" t="n">
-        <v>0.660806</v>
+        <v>0.641775</v>
       </c>
       <c r="D73" t="n">
-        <v>0.675864</v>
+        <v>0.671156</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.852286</v>
+        <v>0.8448639999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.671789</v>
+        <v>0.634093</v>
       </c>
       <c r="D74" t="n">
-        <v>0.684916</v>
+        <v>0.647501</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.845243</v>
+        <v>0.8178879999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.645111</v>
+        <v>0.641321</v>
       </c>
       <c r="D75" t="n">
-        <v>0.677791</v>
+        <v>0.643005</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.817937</v>
+        <v>0.812252</v>
       </c>
       <c r="C76" t="n">
-        <v>0.623932</v>
+        <v>0.627808</v>
       </c>
       <c r="D76" t="n">
-        <v>0.663894</v>
+        <v>0.635418</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.800998</v>
+        <v>0.801556</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6066550000000001</v>
+        <v>0.603388</v>
       </c>
       <c r="D77" t="n">
-        <v>0.621486</v>
+        <v>0.618538</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8019770000000001</v>
+        <v>0.785012</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6025700000000001</v>
+        <v>0.598788</v>
       </c>
       <c r="D78" t="n">
-        <v>0.617359</v>
+        <v>0.615094</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.795757</v>
+        <v>0.789644</v>
       </c>
       <c r="C79" t="n">
-        <v>0.579362</v>
+        <v>0.584614</v>
       </c>
       <c r="D79" t="n">
-        <v>0.603343</v>
+        <v>0.623676</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.771046</v>
+        <v>0.777228</v>
       </c>
       <c r="C80" t="n">
-        <v>0.571593</v>
+        <v>0.580458</v>
       </c>
       <c r="D80" t="n">
-        <v>0.950994</v>
+        <v>0.918666</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08507</v>
+        <v>1.06902</v>
       </c>
       <c r="C81" t="n">
-        <v>0.874362</v>
+        <v>0.901582</v>
       </c>
       <c r="D81" t="n">
-        <v>0.934372</v>
+        <v>0.901853</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08946</v>
+        <v>1.07332</v>
       </c>
       <c r="C82" t="n">
-        <v>0.881623</v>
+        <v>0.868965</v>
       </c>
       <c r="D82" t="n">
-        <v>0.889562</v>
+        <v>0.896606</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03438</v>
+        <v>1.02492</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845063</v>
+        <v>0.84968</v>
       </c>
       <c r="D83" t="n">
-        <v>0.883582</v>
+        <v>0.873157</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04147</v>
+        <v>1.03953</v>
       </c>
       <c r="C84" t="n">
-        <v>0.847449</v>
+        <v>0.831472</v>
       </c>
       <c r="D84" t="n">
-        <v>0.856757</v>
+        <v>0.840804</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02016</v>
+        <v>1.02563</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8352540000000001</v>
+        <v>0.806748</v>
       </c>
       <c r="D85" t="n">
-        <v>0.840225</v>
+        <v>0.83435</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.994187</v>
+        <v>0.983698</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7962360000000001</v>
+        <v>0.80847</v>
       </c>
       <c r="D86" t="n">
-        <v>0.810413</v>
+        <v>0.802876</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00815</v>
+        <v>0.964291</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7920199999999999</v>
+        <v>0.776386</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8045909999999999</v>
+        <v>0.781542</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.978853</v>
+        <v>0.9769099999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.766466</v>
+        <v>0.784434</v>
       </c>
       <c r="D88" t="n">
-        <v>0.786633</v>
+        <v>0.793014</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.972197</v>
+        <v>0.944717</v>
       </c>
       <c r="C89" t="n">
-        <v>0.757819</v>
+        <v>0.733951</v>
       </c>
       <c r="D89" t="n">
-        <v>0.76641</v>
+        <v>0.763968</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.957437</v>
+        <v>0.93967</v>
       </c>
       <c r="C90" t="n">
-        <v>0.73581</v>
+        <v>0.739108</v>
       </c>
       <c r="D90" t="n">
-        <v>0.751745</v>
+        <v>0.737031</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9265679999999999</v>
+        <v>0.921959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7332070000000001</v>
+        <v>0.715203</v>
       </c>
       <c r="D91" t="n">
-        <v>0.744136</v>
+        <v>0.740918</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.924335</v>
+        <v>0.932916</v>
       </c>
       <c r="C92" t="n">
-        <v>0.711105</v>
+        <v>0.70256</v>
       </c>
       <c r="D92" t="n">
-        <v>0.731907</v>
+        <v>0.7377590000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.919916</v>
+        <v>0.926423</v>
       </c>
       <c r="C93" t="n">
-        <v>0.697361</v>
+        <v>0.7054240000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.718437</v>
+        <v>0.714577</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.90551</v>
+        <v>0.895359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.690877</v>
+        <v>0.695191</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05236</v>
+        <v>1.02495</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23811</v>
+        <v>1.22103</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01305</v>
+        <v>1.00367</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03</v>
+        <v>1.01199</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1957</v>
+        <v>1.18916</v>
       </c>
       <c r="C96" t="n">
-        <v>0.996879</v>
+        <v>1.04266</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00992</v>
+        <v>0.999297</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18912</v>
+        <v>1.16765</v>
       </c>
       <c r="C97" t="n">
-        <v>0.984747</v>
+        <v>0.994731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.968858</v>
+        <v>0.965275</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.14952</v>
+        <v>1.16365</v>
       </c>
       <c r="C98" t="n">
-        <v>0.973137</v>
+        <v>0.960803</v>
       </c>
       <c r="D98" t="n">
-        <v>0.957468</v>
+        <v>0.955767</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13288</v>
+        <v>1.14572</v>
       </c>
       <c r="C99" t="n">
-        <v>0.962341</v>
+        <v>0.928129</v>
       </c>
       <c r="D99" t="n">
-        <v>0.950105</v>
+        <v>0.928368</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12187</v>
+        <v>1.13818</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9408879999999999</v>
+        <v>0.958938</v>
       </c>
       <c r="D100" t="n">
-        <v>0.946909</v>
+        <v>0.919876</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.11849</v>
+        <v>1.107</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9278419999999999</v>
+        <v>0.918248</v>
       </c>
       <c r="D101" t="n">
-        <v>0.897219</v>
+        <v>0.898594</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10054</v>
+        <v>1.10504</v>
       </c>
       <c r="C102" t="n">
-        <v>0.900956</v>
+        <v>0.914443</v>
       </c>
       <c r="D102" t="n">
-        <v>0.906601</v>
+        <v>0.905128</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.08316</v>
+        <v>1.09273</v>
       </c>
       <c r="C103" t="n">
-        <v>0.885373</v>
+        <v>0.90313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.892018</v>
+        <v>0.873741</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06684</v>
+        <v>1.08065</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8802410000000001</v>
+        <v>0.861495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.878295</v>
+        <v>0.843013</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05769</v>
+        <v>1.06618</v>
       </c>
       <c r="C105" t="n">
-        <v>0.861876</v>
+        <v>0.854425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.859793</v>
+        <v>0.8482189999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.08866</v>
+        <v>1.04809</v>
       </c>
       <c r="C106" t="n">
-        <v>0.87462</v>
+        <v>0.846018</v>
       </c>
       <c r="D106" t="n">
-        <v>0.855012</v>
+        <v>0.831687</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06493</v>
+        <v>1.06536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.857291</v>
+        <v>0.849673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8304009999999999</v>
+        <v>0.826106</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04378</v>
+        <v>1.03544</v>
       </c>
       <c r="C108" t="n">
-        <v>0.851962</v>
+        <v>0.82707</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19186</v>
+        <v>1.17929</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04353</v>
+        <v>1.03798</v>
       </c>
       <c r="C109" t="n">
-        <v>0.837943</v>
+        <v>0.8349220000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14879</v>
+        <v>1.13314</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36763</v>
+        <v>1.34437</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1899</v>
+        <v>1.1588</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14469</v>
+        <v>1.12058</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33892</v>
+        <v>1.31549</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1444</v>
+        <v>1.14811</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11752</v>
+        <v>1.11811</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.3376</v>
+        <v>1.30736</v>
       </c>
       <c r="C112" t="n">
-        <v>1.144</v>
+        <v>1.15445</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09919</v>
+        <v>1.12775</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29709</v>
+        <v>1.31456</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10824</v>
+        <v>1.12401</v>
       </c>
       <c r="D113" t="n">
-        <v>1.10963</v>
+        <v>1.06796</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29292</v>
+        <v>1.2903</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09899</v>
+        <v>1.10377</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10049</v>
+        <v>1.10744</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31919</v>
+        <v>1.29838</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11297</v>
+        <v>1.10766</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0856</v>
+        <v>1.06688</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31109</v>
+        <v>1.26493</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09317</v>
+        <v>1.12222</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08631</v>
+        <v>1.05902</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.27238</v>
+        <v>1.26064</v>
       </c>
       <c r="C117" t="n">
-        <v>1.10971</v>
+        <v>1.09736</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06039</v>
+        <v>1.08575</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.27581</v>
+        <v>1.26126</v>
       </c>
       <c r="C118" t="n">
-        <v>1.09144</v>
+        <v>1.07286</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06108</v>
+        <v>1.02339</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26206</v>
+        <v>1.27151</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06388</v>
+        <v>1.06452</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05234</v>
+        <v>1.03382</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25535</v>
+        <v>1.24992</v>
       </c>
       <c r="C120" t="n">
-        <v>1.08401</v>
+        <v>1.09735</v>
       </c>
       <c r="D120" t="n">
-        <v>1.02579</v>
+        <v>1.03943</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26136</v>
+        <v>1.27455</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07733</v>
+        <v>1.08748</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01895</v>
+        <v>1.01903</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.26145</v>
+        <v>1.25019</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05529</v>
+        <v>1.05703</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01</v>
+        <v>1.01756</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.25324</v>
+        <v>1.2386</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06779</v>
+        <v>1.05395</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37973</v>
+        <v>1.34969</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.5908</v>
+        <v>1.57025</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39422</v>
+        <v>1.39834</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34839</v>
+        <v>1.34796</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.55053</v>
+        <v>1.57611</v>
       </c>
       <c r="C125" t="n">
-        <v>1.37141</v>
+        <v>1.40784</v>
       </c>
       <c r="D125" t="n">
-        <v>1.36344</v>
+        <v>1.32985</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.54418</v>
+        <v>1.54699</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40409</v>
+        <v>1.36313</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34059</v>
+        <v>1.34696</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.54908</v>
+        <v>1.54723</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39486</v>
+        <v>1.36916</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3433</v>
+        <v>1.35122</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.52985</v>
+        <v>1.55284</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3805</v>
+        <v>1.4019</v>
       </c>
       <c r="D128" t="n">
-        <v>1.35115</v>
+        <v>1.3436</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.53442</v>
+        <v>1.53319</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37489</v>
+        <v>1.38315</v>
       </c>
       <c r="D129" t="n">
-        <v>1.34078</v>
+        <v>1.35575</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55161</v>
+        <v>1.56373</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37684</v>
+        <v>1.40496</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3316</v>
+        <v>1.34374</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.5426</v>
+        <v>1.54649</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39881</v>
+        <v>1.37457</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33906</v>
+        <v>1.32715</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55667</v>
+        <v>1.56873</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36858</v>
+        <v>1.37457</v>
       </c>
       <c r="D132" t="n">
-        <v>1.33112</v>
+        <v>1.33085</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.52348</v>
+        <v>1.53916</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37374</v>
+        <v>1.38655</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34735</v>
+        <v>1.33773</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54227</v>
+        <v>1.54936</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37578</v>
+        <v>1.37255</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32354</v>
+        <v>1.31948</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54247</v>
+        <v>1.54531</v>
       </c>
       <c r="C135" t="n">
-        <v>1.38044</v>
+        <v>1.39004</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34895</v>
+        <v>1.34412</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56059</v>
+        <v>1.54225</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38597</v>
+        <v>1.38694</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33542</v>
+        <v>1.33339</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.52642</v>
+        <v>1.57873</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36342</v>
+        <v>1.37737</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64677</v>
+        <v>1.67451</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.85518</v>
+        <v>1.86977</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7178</v>
+        <v>1.72626</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6628</v>
+        <v>1.65782</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86343</v>
+        <v>1.86369</v>
       </c>
       <c r="C139" t="n">
-        <v>1.71212</v>
+        <v>1.70746</v>
       </c>
       <c r="D139" t="n">
-        <v>1.65341</v>
+        <v>1.67597</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85119</v>
+        <v>1.8759</v>
       </c>
       <c r="C140" t="n">
-        <v>1.71459</v>
+        <v>1.72264</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66978</v>
+        <v>1.65387</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.8756</v>
+        <v>1.8655</v>
       </c>
       <c r="C141" t="n">
-        <v>1.72304</v>
+        <v>1.70731</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66832</v>
+        <v>1.64726</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86276</v>
+        <v>1.85295</v>
       </c>
       <c r="C142" t="n">
-        <v>1.689</v>
+        <v>1.69145</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66291</v>
+        <v>1.66161</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85922</v>
+        <v>1.85072</v>
       </c>
       <c r="C143" t="n">
-        <v>1.71472</v>
+        <v>1.69627</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66724</v>
+        <v>1.6484</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510595</v>
+        <v>0.521937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278288</v>
+        <v>0.251664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.330656</v>
+        <v>0.234543</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.42459</v>
+        <v>0.436555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.267899</v>
+        <v>0.24484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311762</v>
+        <v>0.229782</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.422158</v>
+        <v>0.428655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.262345</v>
+        <v>0.236838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313104</v>
+        <v>0.232951</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.426826</v>
+        <v>0.41698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.276258</v>
+        <v>0.235922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.320479</v>
+        <v>0.216318</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.43641</v>
+        <v>0.405004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.255795</v>
+        <v>0.226586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317038</v>
+        <v>0.212508</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.409961</v>
+        <v>0.404412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250342</v>
+        <v>0.220558</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30298</v>
+        <v>0.214433</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.422295</v>
+        <v>0.412363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.251371</v>
+        <v>0.225415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304901</v>
+        <v>0.21395</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.40659</v>
+        <v>0.411712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.254072</v>
+        <v>0.214664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.395545</v>
+        <v>0.306894</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.490218</v>
+        <v>0.500387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338363</v>
+        <v>0.308436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.384241</v>
+        <v>0.294455</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.478752</v>
+        <v>0.487477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.33107</v>
+        <v>0.299176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.372034</v>
+        <v>0.292914</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.489848</v>
+        <v>0.477252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.323268</v>
+        <v>0.298572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.377164</v>
+        <v>0.287744</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.48357</v>
+        <v>0.476091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.317254</v>
+        <v>0.287725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.355957</v>
+        <v>0.271633</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.460962</v>
+        <v>0.456012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.297505</v>
+        <v>0.274794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.346966</v>
+        <v>0.260745</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451528</v>
+        <v>0.444299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.289037</v>
+        <v>0.26794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.348801</v>
+        <v>0.267718</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.44023</v>
+        <v>0.451186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282851</v>
+        <v>0.255077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.336778</v>
+        <v>0.245495</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.439419</v>
+        <v>0.442282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.278733</v>
+        <v>0.252216</v>
       </c>
       <c r="D17" t="n">
-        <v>0.331956</v>
+        <v>0.242233</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.441132</v>
+        <v>0.442733</v>
       </c>
       <c r="C18" t="n">
-        <v>0.272524</v>
+        <v>0.248792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.321457</v>
+        <v>0.239436</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.42627</v>
+        <v>0.428295</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265385</v>
+        <v>0.24022</v>
       </c>
       <c r="D19" t="n">
-        <v>0.318757</v>
+        <v>0.23155</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.422471</v>
+        <v>0.425823</v>
       </c>
       <c r="C20" t="n">
-        <v>0.262626</v>
+        <v>0.235112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.309886</v>
+        <v>0.229211</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429174</v>
+        <v>0.42962</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253408</v>
+        <v>0.234599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310995</v>
+        <v>0.228305</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416696</v>
+        <v>0.420072</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251435</v>
+        <v>0.229894</v>
       </c>
       <c r="D22" t="n">
-        <v>0.303305</v>
+        <v>0.222554</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.412765</v>
+        <v>0.412977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253879</v>
+        <v>0.23502</v>
       </c>
       <c r="D23" t="n">
-        <v>0.398251</v>
+        <v>0.560493</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.654606</v>
+        <v>0.661728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.506462</v>
+        <v>0.472352</v>
       </c>
       <c r="D24" t="n">
-        <v>0.398533</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.644104</v>
+        <v>0.645869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.492139</v>
+        <v>0.459032</v>
       </c>
       <c r="D25" t="n">
-        <v>0.387953</v>
+        <v>0.515022</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.615745</v>
+        <v>0.634382</v>
       </c>
       <c r="C26" t="n">
-        <v>0.470366</v>
+        <v>0.451351</v>
       </c>
       <c r="D26" t="n">
-        <v>0.377863</v>
+        <v>0.500812</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.614356</v>
+        <v>0.612803</v>
       </c>
       <c r="C27" t="n">
-        <v>0.448695</v>
+        <v>0.444031</v>
       </c>
       <c r="D27" t="n">
-        <v>0.368973</v>
+        <v>0.476059</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6014620000000001</v>
+        <v>0.601564</v>
       </c>
       <c r="C28" t="n">
-        <v>0.445054</v>
+        <v>0.417697</v>
       </c>
       <c r="D28" t="n">
-        <v>0.367261</v>
+        <v>0.455971</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.592077</v>
+        <v>0.585305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.434035</v>
+        <v>0.410456</v>
       </c>
       <c r="D29" t="n">
-        <v>0.352833</v>
+        <v>0.445463</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.578147</v>
+        <v>0.574552</v>
       </c>
       <c r="C30" t="n">
-        <v>0.421932</v>
+        <v>0.394051</v>
       </c>
       <c r="D30" t="n">
-        <v>0.355978</v>
+        <v>0.433298</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.55805</v>
+        <v>0.580534</v>
       </c>
       <c r="C31" t="n">
-        <v>0.401056</v>
+        <v>0.386558</v>
       </c>
       <c r="D31" t="n">
-        <v>0.342444</v>
+        <v>0.411131</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.558225</v>
+        <v>0.55167</v>
       </c>
       <c r="C32" t="n">
-        <v>0.396342</v>
+        <v>0.36583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.335021</v>
+        <v>0.410856</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.542427</v>
+        <v>0.539964</v>
       </c>
       <c r="C33" t="n">
-        <v>0.382982</v>
+        <v>0.36436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340167</v>
+        <v>0.395601</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.529935</v>
+        <v>0.542525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.366111</v>
+        <v>0.350609</v>
       </c>
       <c r="D34" t="n">
-        <v>0.323255</v>
+        <v>0.393029</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520298</v>
+        <v>0.517248</v>
       </c>
       <c r="C35" t="n">
-        <v>0.366936</v>
+        <v>0.344891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.330949</v>
+        <v>0.379125</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.528191</v>
+        <v>0.523404</v>
       </c>
       <c r="C36" t="n">
-        <v>0.359384</v>
+        <v>0.335687</v>
       </c>
       <c r="D36" t="n">
-        <v>0.318758</v>
+        <v>0.364226</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.509597</v>
+        <v>0.5139320000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.350433</v>
+        <v>0.323284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.567035</v>
+        <v>0.625726</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.770073</v>
+        <v>0.752791</v>
       </c>
       <c r="C38" t="n">
-        <v>0.622808</v>
+        <v>0.599414</v>
       </c>
       <c r="D38" t="n">
-        <v>0.556432</v>
+        <v>0.591327</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.740249</v>
+        <v>0.759547</v>
       </c>
       <c r="C39" t="n">
-        <v>0.594209</v>
+        <v>0.575964</v>
       </c>
       <c r="D39" t="n">
-        <v>0.543247</v>
+        <v>0.579219</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.749288</v>
+        <v>0.7387049999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.579562</v>
+        <v>0.5829569999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.537345</v>
+        <v>0.567587</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.705654</v>
+        <v>0.717907</v>
       </c>
       <c r="C41" t="n">
-        <v>0.552664</v>
+        <v>0.542666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.504291</v>
+        <v>0.540174</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.703549</v>
+        <v>0.705501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.529652</v>
+        <v>0.52385</v>
       </c>
       <c r="D42" t="n">
-        <v>0.502344</v>
+        <v>0.521737</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6828149999999999</v>
+        <v>0.689381</v>
       </c>
       <c r="C43" t="n">
-        <v>0.529645</v>
+        <v>0.509699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.491661</v>
+        <v>0.506592</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6497270000000001</v>
+        <v>0.663103</v>
       </c>
       <c r="C44" t="n">
-        <v>0.496115</v>
+        <v>0.486847</v>
       </c>
       <c r="D44" t="n">
-        <v>0.48233</v>
+        <v>0.489835</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.646483</v>
+        <v>0.65012</v>
       </c>
       <c r="C45" t="n">
-        <v>0.477842</v>
+        <v>0.465699</v>
       </c>
       <c r="D45" t="n">
-        <v>0.459394</v>
+        <v>0.469013</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.62593</v>
+        <v>0.637354</v>
       </c>
       <c r="C46" t="n">
-        <v>0.480222</v>
+        <v>0.456246</v>
       </c>
       <c r="D46" t="n">
-        <v>0.447179</v>
+        <v>0.460382</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.620768</v>
+        <v>0.644642</v>
       </c>
       <c r="C47" t="n">
-        <v>0.455545</v>
+        <v>0.441937</v>
       </c>
       <c r="D47" t="n">
-        <v>0.448651</v>
+        <v>0.44726</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.601942</v>
+        <v>0.615419</v>
       </c>
       <c r="C48" t="n">
-        <v>0.437992</v>
+        <v>0.433196</v>
       </c>
       <c r="D48" t="n">
-        <v>0.438285</v>
+        <v>0.443735</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.611272</v>
+        <v>0.618424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.426913</v>
+        <v>0.427384</v>
       </c>
       <c r="D49" t="n">
-        <v>0.424172</v>
+        <v>0.421305</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.587273</v>
+        <v>0.598377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4211</v>
+        <v>0.417863</v>
       </c>
       <c r="D50" t="n">
-        <v>0.415718</v>
+        <v>0.412559</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.567985</v>
+        <v>0.587545</v>
       </c>
       <c r="C51" t="n">
-        <v>0.417665</v>
+        <v>0.41594</v>
       </c>
       <c r="D51" t="n">
-        <v>0.704026</v>
+        <v>0.689719</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.564565</v>
+        <v>0.585904</v>
       </c>
       <c r="C52" t="n">
-        <v>0.410673</v>
+        <v>0.396111</v>
       </c>
       <c r="D52" t="n">
-        <v>0.694109</v>
+        <v>0.652884</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.822052</v>
+        <v>0.837642</v>
       </c>
       <c r="C53" t="n">
-        <v>0.665535</v>
+        <v>0.673992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.677238</v>
+        <v>0.639357</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.836098</v>
+        <v>0.818647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6473989999999999</v>
+        <v>0.682582</v>
       </c>
       <c r="D54" t="n">
-        <v>0.652731</v>
+        <v>0.614693</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.810578</v>
+        <v>0.824376</v>
       </c>
       <c r="C55" t="n">
-        <v>0.625241</v>
+        <v>0.640598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.630348</v>
+        <v>0.596033</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.785368</v>
+        <v>0.783845</v>
       </c>
       <c r="C56" t="n">
-        <v>0.620013</v>
+        <v>0.628565</v>
       </c>
       <c r="D56" t="n">
-        <v>0.610325</v>
+        <v>0.57814</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.772895</v>
+        <v>0.777929</v>
       </c>
       <c r="C57" t="n">
-        <v>0.585386</v>
+        <v>0.626217</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6005239999999999</v>
+        <v>0.5700730000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.74126</v>
+        <v>0.775264</v>
       </c>
       <c r="C58" t="n">
-        <v>0.604</v>
+        <v>0.606514</v>
       </c>
       <c r="D58" t="n">
-        <v>0.595066</v>
+        <v>0.550104</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7299369999999999</v>
+        <v>0.760996</v>
       </c>
       <c r="C59" t="n">
-        <v>0.565955</v>
+        <v>0.5929489999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.57742</v>
+        <v>0.539258</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.732609</v>
+        <v>0.744864</v>
       </c>
       <c r="C60" t="n">
-        <v>0.554354</v>
+        <v>0.585008</v>
       </c>
       <c r="D60" t="n">
-        <v>0.561437</v>
+        <v>0.521066</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739088</v>
+        <v>0.739389</v>
       </c>
       <c r="C61" t="n">
-        <v>0.543741</v>
+        <v>0.554318</v>
       </c>
       <c r="D61" t="n">
-        <v>0.561349</v>
+        <v>0.492265</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.719602</v>
+        <v>0.715136</v>
       </c>
       <c r="C62" t="n">
-        <v>0.535517</v>
+        <v>0.550441</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5535330000000001</v>
+        <v>0.484931</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.713357</v>
+        <v>0.704223</v>
       </c>
       <c r="C63" t="n">
-        <v>0.522539</v>
+        <v>0.520392</v>
       </c>
       <c r="D63" t="n">
-        <v>0.53464</v>
+        <v>0.477019</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6813900000000001</v>
+        <v>0.703352</v>
       </c>
       <c r="C64" t="n">
-        <v>0.501453</v>
+        <v>0.512508</v>
       </c>
       <c r="D64" t="n">
-        <v>0.517255</v>
+        <v>0.467001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.690561</v>
+        <v>0.6909380000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.487414</v>
+        <v>0.520503</v>
       </c>
       <c r="D65" t="n">
-        <v>0.515521</v>
+        <v>0.466647</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.662456</v>
+        <v>0.684468</v>
       </c>
       <c r="C66" t="n">
-        <v>0.478061</v>
+        <v>0.525802</v>
       </c>
       <c r="D66" t="n">
-        <v>0.82533</v>
+        <v>0.744621</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.945223</v>
+        <v>0.976081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.765306</v>
+        <v>0.798207</v>
       </c>
       <c r="D67" t="n">
-        <v>0.776246</v>
+        <v>0.703083</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.931633</v>
+        <v>0.938634</v>
       </c>
       <c r="C68" t="n">
-        <v>0.752451</v>
+        <v>0.7723179999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.762258</v>
+        <v>0.682949</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.90471</v>
+        <v>0.9409650000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.730938</v>
+        <v>0.7751749999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.746534</v>
+        <v>0.65708</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9306219999999999</v>
+        <v>0.909042</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7067</v>
+        <v>0.728737</v>
       </c>
       <c r="D70" t="n">
-        <v>0.716893</v>
+        <v>0.6578850000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.887711</v>
+        <v>0.89706</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6912970000000001</v>
+        <v>0.713581</v>
       </c>
       <c r="D71" t="n">
-        <v>0.706698</v>
+        <v>0.635289</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.861426</v>
+        <v>0.891245</v>
       </c>
       <c r="C72" t="n">
-        <v>0.659404</v>
+        <v>0.699113</v>
       </c>
       <c r="D72" t="n">
-        <v>0.678895</v>
+        <v>0.629283</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.861982</v>
+        <v>0.879325</v>
       </c>
       <c r="C73" t="n">
-        <v>0.641775</v>
+        <v>0.700197</v>
       </c>
       <c r="D73" t="n">
-        <v>0.671156</v>
+        <v>0.618213</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8448639999999999</v>
+        <v>0.866942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634093</v>
+        <v>0.675504</v>
       </c>
       <c r="D74" t="n">
-        <v>0.647501</v>
+        <v>0.613218</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8178879999999999</v>
+        <v>0.840881</v>
       </c>
       <c r="C75" t="n">
-        <v>0.641321</v>
+        <v>0.662433</v>
       </c>
       <c r="D75" t="n">
-        <v>0.643005</v>
+        <v>0.582036</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.812252</v>
+        <v>0.841428</v>
       </c>
       <c r="C76" t="n">
-        <v>0.627808</v>
+        <v>0.649678</v>
       </c>
       <c r="D76" t="n">
-        <v>0.635418</v>
+        <v>0.560442</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.801556</v>
+        <v>0.851133</v>
       </c>
       <c r="C77" t="n">
-        <v>0.603388</v>
+        <v>0.63662</v>
       </c>
       <c r="D77" t="n">
-        <v>0.618538</v>
+        <v>0.567288</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.785012</v>
+        <v>0.818345</v>
       </c>
       <c r="C78" t="n">
-        <v>0.598788</v>
+        <v>0.62722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.615094</v>
+        <v>0.549029</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.789644</v>
+        <v>0.803878</v>
       </c>
       <c r="C79" t="n">
-        <v>0.584614</v>
+        <v>0.610899</v>
       </c>
       <c r="D79" t="n">
-        <v>0.623676</v>
+        <v>0.536949</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.777228</v>
+        <v>0.791293</v>
       </c>
       <c r="C80" t="n">
-        <v>0.580458</v>
+        <v>0.613262</v>
       </c>
       <c r="D80" t="n">
-        <v>0.918666</v>
+        <v>0.868655</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06902</v>
+        <v>1.118</v>
       </c>
       <c r="C81" t="n">
-        <v>0.901582</v>
+        <v>0.91382</v>
       </c>
       <c r="D81" t="n">
-        <v>0.901853</v>
+        <v>0.8382270000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07332</v>
+        <v>1.09807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.868965</v>
+        <v>0.92596</v>
       </c>
       <c r="D82" t="n">
-        <v>0.896606</v>
+        <v>0.8202430000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02492</v>
+        <v>1.10336</v>
       </c>
       <c r="C83" t="n">
-        <v>0.84968</v>
+        <v>0.899502</v>
       </c>
       <c r="D83" t="n">
-        <v>0.873157</v>
+        <v>0.806001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03953</v>
+        <v>1.06771</v>
       </c>
       <c r="C84" t="n">
-        <v>0.831472</v>
+        <v>0.878512</v>
       </c>
       <c r="D84" t="n">
-        <v>0.840804</v>
+        <v>0.765328</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02563</v>
+        <v>1.03472</v>
       </c>
       <c r="C85" t="n">
-        <v>0.806748</v>
+        <v>0.845921</v>
       </c>
       <c r="D85" t="n">
-        <v>0.83435</v>
+        <v>0.750738</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.983698</v>
+        <v>1.03223</v>
       </c>
       <c r="C86" t="n">
-        <v>0.80847</v>
+        <v>0.843723</v>
       </c>
       <c r="D86" t="n">
-        <v>0.802876</v>
+        <v>0.757035</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.964291</v>
+        <v>1.02283</v>
       </c>
       <c r="C87" t="n">
-        <v>0.776386</v>
+        <v>0.81528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.781542</v>
+        <v>0.734728</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9769099999999999</v>
+        <v>1.0096</v>
       </c>
       <c r="C88" t="n">
-        <v>0.784434</v>
+        <v>0.81238</v>
       </c>
       <c r="D88" t="n">
-        <v>0.793014</v>
+        <v>0.710036</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.944717</v>
+        <v>0.985254</v>
       </c>
       <c r="C89" t="n">
-        <v>0.733951</v>
+        <v>0.809053</v>
       </c>
       <c r="D89" t="n">
-        <v>0.763968</v>
+        <v>0.707919</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.93967</v>
+        <v>0.971576</v>
       </c>
       <c r="C90" t="n">
-        <v>0.739108</v>
+        <v>0.787001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.737031</v>
+        <v>0.689155</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.921959</v>
+        <v>0.965091</v>
       </c>
       <c r="C91" t="n">
-        <v>0.715203</v>
+        <v>0.776598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.740918</v>
+        <v>0.679504</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.932916</v>
+        <v>0.9491540000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.70256</v>
+        <v>0.757648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7377590000000001</v>
+        <v>0.663983</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.926423</v>
+        <v>0.936403</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7054240000000001</v>
+        <v>0.7700900000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.714577</v>
+        <v>0.646149</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.895359</v>
+        <v>0.943119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.695191</v>
+        <v>0.7412609999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02495</v>
+        <v>0.971661</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22103</v>
+        <v>1.25023</v>
       </c>
       <c r="C95" t="n">
-        <v>1.00367</v>
+        <v>1.05934</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01199</v>
+        <v>0.9448800000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18916</v>
+        <v>1.23748</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04266</v>
+        <v>1.06696</v>
       </c>
       <c r="D96" t="n">
-        <v>0.999297</v>
+        <v>0.9499880000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16765</v>
+        <v>1.24985</v>
       </c>
       <c r="C97" t="n">
-        <v>0.994731</v>
+        <v>1.05269</v>
       </c>
       <c r="D97" t="n">
-        <v>0.965275</v>
+        <v>0.95046</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16365</v>
+        <v>1.23784</v>
       </c>
       <c r="C98" t="n">
-        <v>0.960803</v>
+        <v>1.02328</v>
       </c>
       <c r="D98" t="n">
-        <v>0.955767</v>
+        <v>0.88988</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14572</v>
+        <v>1.23008</v>
       </c>
       <c r="C99" t="n">
-        <v>0.928129</v>
+        <v>1.02488</v>
       </c>
       <c r="D99" t="n">
-        <v>0.928368</v>
+        <v>0.8949240000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13818</v>
+        <v>1.1706</v>
       </c>
       <c r="C100" t="n">
-        <v>0.958938</v>
+        <v>0.996931</v>
       </c>
       <c r="D100" t="n">
-        <v>0.919876</v>
+        <v>0.873764</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.107</v>
+        <v>1.15593</v>
       </c>
       <c r="C101" t="n">
-        <v>0.918248</v>
+        <v>1.01051</v>
       </c>
       <c r="D101" t="n">
-        <v>0.898594</v>
+        <v>0.862096</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10504</v>
+        <v>1.17477</v>
       </c>
       <c r="C102" t="n">
-        <v>0.914443</v>
+        <v>0.97604</v>
       </c>
       <c r="D102" t="n">
-        <v>0.905128</v>
+        <v>0.850973</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09273</v>
+        <v>1.12931</v>
       </c>
       <c r="C103" t="n">
-        <v>0.90313</v>
+        <v>0.9771840000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.873741</v>
+        <v>0.836761</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08065</v>
+        <v>1.15946</v>
       </c>
       <c r="C104" t="n">
-        <v>0.861495</v>
+        <v>0.958759</v>
       </c>
       <c r="D104" t="n">
-        <v>0.843013</v>
+        <v>0.816475</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06618</v>
+        <v>1.12033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.854425</v>
+        <v>0.936172</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8482189999999999</v>
+        <v>0.803377</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04809</v>
+        <v>1.13434</v>
       </c>
       <c r="C106" t="n">
-        <v>0.846018</v>
+        <v>0.9368379999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.831687</v>
+        <v>0.792238</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06536</v>
+        <v>1.12728</v>
       </c>
       <c r="C107" t="n">
-        <v>0.849673</v>
+        <v>0.923999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.826106</v>
+        <v>0.794006</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.03544</v>
+        <v>1.14224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.82707</v>
+        <v>0.92096</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17929</v>
+        <v>1.11754</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.03798</v>
+        <v>1.12587</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8349220000000001</v>
+        <v>0.902064</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13314</v>
+        <v>1.09911</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.34437</v>
+        <v>1.44398</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1588</v>
+        <v>1.22927</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12058</v>
+        <v>1.07969</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31549</v>
+        <v>1.42701</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14811</v>
+        <v>1.23812</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11811</v>
+        <v>1.10734</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30736</v>
+        <v>1.44303</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15445</v>
+        <v>1.21473</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12775</v>
+        <v>1.08936</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31456</v>
+        <v>1.40124</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12401</v>
+        <v>1.20749</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06796</v>
+        <v>1.05676</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2903</v>
+        <v>1.38648</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10377</v>
+        <v>1.22329</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10744</v>
+        <v>1.04758</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29838</v>
+        <v>1.38724</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10766</v>
+        <v>1.17816</v>
       </c>
       <c r="D115" t="n">
-        <v>1.06688</v>
+        <v>1.03763</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.26493</v>
+        <v>1.39208</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12222</v>
+        <v>1.1856</v>
       </c>
       <c r="D116" t="n">
-        <v>1.05902</v>
+        <v>1.03615</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.26064</v>
+        <v>1.40408</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09736</v>
+        <v>1.16663</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08575</v>
+        <v>1.05129</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26126</v>
+        <v>1.3987</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07286</v>
+        <v>1.19476</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02339</v>
+        <v>1.03921</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.27151</v>
+        <v>1.37257</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06452</v>
+        <v>1.16564</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03382</v>
+        <v>1.04829</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.24992</v>
+        <v>1.37889</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09735</v>
+        <v>1.15678</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03943</v>
+        <v>1.01132</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.27455</v>
+        <v>1.36793</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08748</v>
+        <v>1.16717</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01903</v>
+        <v>1.02154</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25019</v>
+        <v>1.36419</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05703</v>
+        <v>1.15902</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01756</v>
+        <v>1.00672</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2386</v>
+        <v>1.35539</v>
       </c>
       <c r="C123" t="n">
-        <v>1.05395</v>
+        <v>1.15122</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34969</v>
+        <v>1.36583</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.57025</v>
+        <v>1.69327</v>
       </c>
       <c r="C124" t="n">
-        <v>1.39834</v>
+        <v>1.47567</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34796</v>
+        <v>1.33325</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.57611</v>
+        <v>1.69511</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40784</v>
+        <v>1.49308</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32985</v>
+        <v>1.34294</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.54699</v>
+        <v>1.6781</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36313</v>
+        <v>1.47755</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34696</v>
+        <v>1.33715</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.54723</v>
+        <v>1.68812</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36916</v>
+        <v>1.48174</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35122</v>
+        <v>1.33304</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55284</v>
+        <v>1.70173</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4019</v>
+        <v>1.4738</v>
       </c>
       <c r="D128" t="n">
-        <v>1.3436</v>
+        <v>1.33061</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.53319</v>
+        <v>1.69579</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38315</v>
+        <v>1.50133</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35575</v>
+        <v>1.3466</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.56373</v>
+        <v>1.6995</v>
       </c>
       <c r="C130" t="n">
-        <v>1.40496</v>
+        <v>1.48428</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34374</v>
+        <v>1.35416</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54649</v>
+        <v>1.69818</v>
       </c>
       <c r="C131" t="n">
-        <v>1.37457</v>
+        <v>1.46692</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32715</v>
+        <v>1.33663</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.56873</v>
+        <v>1.71327</v>
       </c>
       <c r="C132" t="n">
-        <v>1.37457</v>
+        <v>1.45352</v>
       </c>
       <c r="D132" t="n">
-        <v>1.33085</v>
+        <v>1.34763</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.53916</v>
+        <v>1.70633</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38655</v>
+        <v>1.47013</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33773</v>
+        <v>1.34004</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54936</v>
+        <v>1.7043</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37255</v>
+        <v>1.47231</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31948</v>
+        <v>1.34682</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54531</v>
+        <v>1.70016</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39004</v>
+        <v>1.49268</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34412</v>
+        <v>1.35788</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.54225</v>
+        <v>1.72338</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38694</v>
+        <v>1.46657</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33339</v>
+        <v>1.33505</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.57873</v>
+        <v>1.73281</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37737</v>
+        <v>1.47552</v>
       </c>
       <c r="D137" t="n">
-        <v>1.67451</v>
+        <v>1.71174</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86977</v>
+        <v>2.03425</v>
       </c>
       <c r="C138" t="n">
-        <v>1.72626</v>
+        <v>1.83524</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65782</v>
+        <v>1.68177</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86369</v>
+        <v>2.03685</v>
       </c>
       <c r="C139" t="n">
-        <v>1.70746</v>
+        <v>1.83114</v>
       </c>
       <c r="D139" t="n">
-        <v>1.67597</v>
+        <v>1.71106</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.8759</v>
+        <v>2.04641</v>
       </c>
       <c r="C140" t="n">
-        <v>1.72264</v>
+        <v>1.79658</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65387</v>
+        <v>1.70511</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.8655</v>
+        <v>2.06865</v>
       </c>
       <c r="C141" t="n">
-        <v>1.70731</v>
+        <v>1.8153</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64726</v>
+        <v>1.69852</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85295</v>
+        <v>2.08246</v>
       </c>
       <c r="C142" t="n">
-        <v>1.69145</v>
+        <v>1.80301</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66161</v>
+        <v>1.70147</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85072</v>
+        <v>2.06504</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69627</v>
+        <v>1.83846</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6484</v>
+        <v>1.70216</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.521937</v>
+        <v>0.516841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251664</v>
+        <v>0.506385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234543</v>
+        <v>0.239055</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436555</v>
+        <v>0.436288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24484</v>
+        <v>0.498892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229782</v>
+        <v>0.225214</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428655</v>
+        <v>0.427886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236838</v>
+        <v>0.487541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232951</v>
+        <v>0.22626</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41698</v>
+        <v>0.439548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235922</v>
+        <v>0.50149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216318</v>
+        <v>0.230591</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.405004</v>
+        <v>0.432317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226586</v>
+        <v>0.528073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212508</v>
+        <v>0.224224</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.404412</v>
+        <v>0.425848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220558</v>
+        <v>0.539097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214433</v>
+        <v>0.222625</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.412363</v>
+        <v>0.413892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225415</v>
+        <v>0.628951</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21395</v>
+        <v>0.21936</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411712</v>
+        <v>0.402879</v>
       </c>
       <c r="C9" t="n">
-        <v>0.214664</v>
+        <v>0.589844</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306894</v>
+        <v>0.316916</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500387</v>
+        <v>0.496214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.308436</v>
+        <v>0.592445</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294455</v>
+        <v>0.304809</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.487477</v>
+        <v>0.491751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299176</v>
+        <v>0.562312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292914</v>
+        <v>0.293804</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.477252</v>
+        <v>0.487873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.298572</v>
+        <v>0.535563</v>
       </c>
       <c r="D12" t="n">
-        <v>0.287744</v>
+        <v>0.280376</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.476091</v>
+        <v>0.483958</v>
       </c>
       <c r="C13" t="n">
-        <v>0.287725</v>
+        <v>0.544781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271633</v>
+        <v>0.282473</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.456012</v>
+        <v>0.469447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274794</v>
+        <v>0.547269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260745</v>
+        <v>0.272903</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.444299</v>
+        <v>0.46344</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26794</v>
+        <v>0.551084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267718</v>
+        <v>0.263112</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451186</v>
+        <v>0.453668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.255077</v>
+        <v>0.526518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245495</v>
+        <v>0.257241</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442282</v>
+        <v>0.445239</v>
       </c>
       <c r="C17" t="n">
-        <v>0.252216</v>
+        <v>0.520014</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242233</v>
+        <v>0.250256</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442733</v>
+        <v>0.439533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248792</v>
+        <v>0.510273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239436</v>
+        <v>0.244804</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428295</v>
+        <v>0.429247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24022</v>
+        <v>0.503228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23155</v>
+        <v>0.236965</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.425823</v>
+        <v>0.424431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235112</v>
+        <v>0.504039</v>
       </c>
       <c r="D20" t="n">
-        <v>0.229211</v>
+        <v>0.231924</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42962</v>
+        <v>0.414676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234599</v>
+        <v>0.524069</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228305</v>
+        <v>0.231723</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420072</v>
+        <v>0.40158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229894</v>
+        <v>0.802995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222554</v>
+        <v>0.226221</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.412977</v>
+        <v>0.423969</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23502</v>
+        <v>0.761758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.560493</v>
+        <v>0.323407</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.661728</v>
+        <v>0.666005</v>
       </c>
       <c r="C24" t="n">
-        <v>0.472352</v>
+        <v>0.5986590000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5374</v>
+        <v>0.316225</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.645869</v>
+        <v>0.646734</v>
       </c>
       <c r="C25" t="n">
-        <v>0.459032</v>
+        <v>0.583584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.515022</v>
+        <v>0.304672</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.634382</v>
+        <v>0.630174</v>
       </c>
       <c r="C26" t="n">
-        <v>0.451351</v>
+        <v>0.570852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.500812</v>
+        <v>0.301988</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.612803</v>
+        <v>0.60756</v>
       </c>
       <c r="C27" t="n">
-        <v>0.444031</v>
+        <v>0.552495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476059</v>
+        <v>0.29033</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.601564</v>
+        <v>0.598365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.417697</v>
+        <v>0.549274</v>
       </c>
       <c r="D28" t="n">
-        <v>0.455971</v>
+        <v>0.284629</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.585305</v>
+        <v>0.587921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410456</v>
+        <v>0.546871</v>
       </c>
       <c r="D29" t="n">
-        <v>0.445463</v>
+        <v>0.274294</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574552</v>
+        <v>0.582647</v>
       </c>
       <c r="C30" t="n">
-        <v>0.394051</v>
+        <v>0.5278620000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.433298</v>
+        <v>0.268486</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.580534</v>
+        <v>0.5755940000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.386558</v>
+        <v>0.522023</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411131</v>
+        <v>0.270209</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55167</v>
+        <v>0.562153</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36583</v>
+        <v>0.531352</v>
       </c>
       <c r="D32" t="n">
-        <v>0.410856</v>
+        <v>0.258085</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539964</v>
+        <v>0.54377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36436</v>
+        <v>0.549476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395601</v>
+        <v>0.255914</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.542525</v>
+        <v>0.533529</v>
       </c>
       <c r="C34" t="n">
-        <v>0.350609</v>
+        <v>0.5329</v>
       </c>
       <c r="D34" t="n">
-        <v>0.393029</v>
+        <v>0.249532</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.517248</v>
+        <v>0.521686</v>
       </c>
       <c r="C35" t="n">
-        <v>0.344891</v>
+        <v>0.551312</v>
       </c>
       <c r="D35" t="n">
-        <v>0.379125</v>
+        <v>0.251234</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.523404</v>
+        <v>0.52493</v>
       </c>
       <c r="C36" t="n">
-        <v>0.335687</v>
+        <v>0.552287</v>
       </c>
       <c r="D36" t="n">
-        <v>0.364226</v>
+        <v>0.24316</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5139320000000001</v>
+        <v>0.5101290000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.323284</v>
+        <v>0.743079</v>
       </c>
       <c r="D37" t="n">
-        <v>0.625726</v>
+        <v>0.496012</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.752791</v>
+        <v>0.777531</v>
       </c>
       <c r="C38" t="n">
-        <v>0.599414</v>
+        <v>0.70827</v>
       </c>
       <c r="D38" t="n">
-        <v>0.591327</v>
+        <v>0.472924</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.759547</v>
+        <v>0.742797</v>
       </c>
       <c r="C39" t="n">
-        <v>0.575964</v>
+        <v>0.690974</v>
       </c>
       <c r="D39" t="n">
-        <v>0.579219</v>
+        <v>0.469242</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7387049999999999</v>
+        <v>0.7400910000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5829569999999999</v>
+        <v>0.757717</v>
       </c>
       <c r="D40" t="n">
-        <v>0.567587</v>
+        <v>0.451964</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717907</v>
+        <v>0.716253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.542666</v>
+        <v>0.761792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.540174</v>
+        <v>0.42967</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.705501</v>
+        <v>0.705573</v>
       </c>
       <c r="C42" t="n">
-        <v>0.52385</v>
+        <v>0.767759</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521737</v>
+        <v>0.422292</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.689381</v>
+        <v>0.698607</v>
       </c>
       <c r="C43" t="n">
-        <v>0.509699</v>
+        <v>0.736529</v>
       </c>
       <c r="D43" t="n">
-        <v>0.506592</v>
+        <v>0.412962</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.663103</v>
+        <v>0.679497</v>
       </c>
       <c r="C44" t="n">
-        <v>0.486847</v>
+        <v>0.730144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.489835</v>
+        <v>0.393559</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.65012</v>
+        <v>0.654894</v>
       </c>
       <c r="C45" t="n">
-        <v>0.465699</v>
+        <v>0.74051</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469013</v>
+        <v>0.384367</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.637354</v>
+        <v>0.648501</v>
       </c>
       <c r="C46" t="n">
-        <v>0.456246</v>
+        <v>0.704254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.460382</v>
+        <v>0.373221</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.644642</v>
+        <v>0.622455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.441937</v>
+        <v>0.704933</v>
       </c>
       <c r="D47" t="n">
-        <v>0.44726</v>
+        <v>0.371232</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.615419</v>
+        <v>0.614435</v>
       </c>
       <c r="C48" t="n">
-        <v>0.433196</v>
+        <v>0.785632</v>
       </c>
       <c r="D48" t="n">
-        <v>0.443735</v>
+        <v>0.351985</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.618424</v>
+        <v>0.60555</v>
       </c>
       <c r="C49" t="n">
-        <v>0.427384</v>
+        <v>0.777898</v>
       </c>
       <c r="D49" t="n">
-        <v>0.421305</v>
+        <v>0.346185</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.598377</v>
+        <v>0.600286</v>
       </c>
       <c r="C50" t="n">
-        <v>0.417863</v>
+        <v>0.770855</v>
       </c>
       <c r="D50" t="n">
-        <v>0.412559</v>
+        <v>0.342561</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.587545</v>
+        <v>0.588552</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41594</v>
+        <v>1.00743</v>
       </c>
       <c r="D51" t="n">
-        <v>0.689719</v>
+        <v>0.616218</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.585904</v>
+        <v>0.588485</v>
       </c>
       <c r="C52" t="n">
-        <v>0.396111</v>
+        <v>0.960496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.652884</v>
+        <v>0.591604</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.837642</v>
+        <v>0.842813</v>
       </c>
       <c r="C53" t="n">
-        <v>0.673992</v>
+        <v>0.942419</v>
       </c>
       <c r="D53" t="n">
-        <v>0.639357</v>
+        <v>0.576694</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.818647</v>
+        <v>0.8150539999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.682582</v>
+        <v>0.881667</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614693</v>
+        <v>0.5562589999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.824376</v>
+        <v>0.81877</v>
       </c>
       <c r="C55" t="n">
-        <v>0.640598</v>
+        <v>0.893041</v>
       </c>
       <c r="D55" t="n">
-        <v>0.596033</v>
+        <v>0.536734</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.783845</v>
+        <v>0.793539</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628565</v>
+        <v>0.8658439999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.57814</v>
+        <v>0.537133</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.777929</v>
+        <v>0.787659</v>
       </c>
       <c r="C57" t="n">
-        <v>0.626217</v>
+        <v>0.965928</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5700730000000001</v>
+        <v>0.514925</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.775264</v>
+        <v>0.765021</v>
       </c>
       <c r="C58" t="n">
-        <v>0.606514</v>
+        <v>0.965333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550104</v>
+        <v>0.49608</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.760996</v>
+        <v>0.753657</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5929489999999999</v>
+        <v>0.930625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.539258</v>
+        <v>0.498521</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.744864</v>
+        <v>0.732541</v>
       </c>
       <c r="C60" t="n">
-        <v>0.585008</v>
+        <v>0.886991</v>
       </c>
       <c r="D60" t="n">
-        <v>0.521066</v>
+        <v>0.472858</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739389</v>
+        <v>0.716244</v>
       </c>
       <c r="C61" t="n">
-        <v>0.554318</v>
+        <v>0.861349</v>
       </c>
       <c r="D61" t="n">
-        <v>0.492265</v>
+        <v>0.469191</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.715136</v>
+        <v>0.720291</v>
       </c>
       <c r="C62" t="n">
-        <v>0.550441</v>
+        <v>0.849575</v>
       </c>
       <c r="D62" t="n">
-        <v>0.484931</v>
+        <v>0.459467</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.704223</v>
+        <v>0.698784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.520392</v>
+        <v>0.870134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477019</v>
+        <v>0.439511</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.703352</v>
+        <v>0.6792859999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.512508</v>
+        <v>0.846702</v>
       </c>
       <c r="D64" t="n">
-        <v>0.467001</v>
+        <v>0.427356</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6909380000000001</v>
+        <v>0.678355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.520503</v>
+        <v>1.21863</v>
       </c>
       <c r="D65" t="n">
-        <v>0.466647</v>
+        <v>0.441067</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.684468</v>
+        <v>0.675395</v>
       </c>
       <c r="C66" t="n">
-        <v>0.525802</v>
+        <v>1.21743</v>
       </c>
       <c r="D66" t="n">
-        <v>0.744621</v>
+        <v>0.711859</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.976081</v>
+        <v>0.983053</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798207</v>
+        <v>1.18976</v>
       </c>
       <c r="D67" t="n">
-        <v>0.703083</v>
+        <v>0.7040920000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.938634</v>
+        <v>0.94221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7723179999999999</v>
+        <v>1.16063</v>
       </c>
       <c r="D68" t="n">
-        <v>0.682949</v>
+        <v>0.673811</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9409650000000001</v>
+        <v>0.915162</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7751749999999999</v>
+        <v>1.11173</v>
       </c>
       <c r="D69" t="n">
-        <v>0.65708</v>
+        <v>0.661635</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.909042</v>
+        <v>0.900956</v>
       </c>
       <c r="C70" t="n">
-        <v>0.728737</v>
+        <v>1.10471</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6578850000000001</v>
+        <v>0.635829</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89706</v>
+        <v>0.879524</v>
       </c>
       <c r="C71" t="n">
-        <v>0.713581</v>
+        <v>1.04307</v>
       </c>
       <c r="D71" t="n">
-        <v>0.635289</v>
+        <v>0.616048</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.891245</v>
+        <v>0.857226</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699113</v>
+        <v>1.0552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.629283</v>
+        <v>0.594919</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.879325</v>
+        <v>0.851899</v>
       </c>
       <c r="C73" t="n">
-        <v>0.700197</v>
+        <v>1.15173</v>
       </c>
       <c r="D73" t="n">
-        <v>0.618213</v>
+        <v>0.579442</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.866942</v>
+        <v>0.833911</v>
       </c>
       <c r="C74" t="n">
-        <v>0.675504</v>
+        <v>1.1406</v>
       </c>
       <c r="D74" t="n">
-        <v>0.613218</v>
+        <v>0.5565</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.840881</v>
+        <v>0.82398</v>
       </c>
       <c r="C75" t="n">
-        <v>0.662433</v>
+        <v>1.15106</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582036</v>
+        <v>0.555867</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.841428</v>
+        <v>0.812702</v>
       </c>
       <c r="C76" t="n">
-        <v>0.649678</v>
+        <v>1.1407</v>
       </c>
       <c r="D76" t="n">
-        <v>0.560442</v>
+        <v>0.541419</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.851133</v>
+        <v>0.810034</v>
       </c>
       <c r="C77" t="n">
-        <v>0.63662</v>
+        <v>1.12522</v>
       </c>
       <c r="D77" t="n">
-        <v>0.567288</v>
+        <v>0.5308</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.818345</v>
+        <v>0.790274</v>
       </c>
       <c r="C78" t="n">
-        <v>0.62722</v>
+        <v>1.09749</v>
       </c>
       <c r="D78" t="n">
-        <v>0.549029</v>
+        <v>0.520356</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.803878</v>
+        <v>0.787206</v>
       </c>
       <c r="C79" t="n">
-        <v>0.610899</v>
+        <v>1.49132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.536949</v>
+        <v>0.508087</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.791293</v>
+        <v>0.764586</v>
       </c>
       <c r="C80" t="n">
-        <v>0.613262</v>
+        <v>1.43381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.868655</v>
+        <v>0.830664</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.118</v>
+        <v>1.07892</v>
       </c>
       <c r="C81" t="n">
-        <v>0.91382</v>
+        <v>1.42103</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8382270000000001</v>
+        <v>0.801373</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09807</v>
+        <v>1.06099</v>
       </c>
       <c r="C82" t="n">
-        <v>0.92596</v>
+        <v>1.51916</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8202430000000001</v>
+        <v>0.7955</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10336</v>
+        <v>1.02363</v>
       </c>
       <c r="C83" t="n">
-        <v>0.899502</v>
+        <v>1.47689</v>
       </c>
       <c r="D83" t="n">
-        <v>0.806001</v>
+        <v>0.765332</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06771</v>
+        <v>1.02463</v>
       </c>
       <c r="C84" t="n">
-        <v>0.878512</v>
+        <v>1.44754</v>
       </c>
       <c r="D84" t="n">
-        <v>0.765328</v>
+        <v>0.754811</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03472</v>
+        <v>1.03636</v>
       </c>
       <c r="C85" t="n">
-        <v>0.845921</v>
+        <v>1.48513</v>
       </c>
       <c r="D85" t="n">
-        <v>0.750738</v>
+        <v>0.747749</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03223</v>
+        <v>1.00756</v>
       </c>
       <c r="C86" t="n">
-        <v>0.843723</v>
+        <v>1.40218</v>
       </c>
       <c r="D86" t="n">
-        <v>0.757035</v>
+        <v>0.72449</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02283</v>
+        <v>0.982783</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81528</v>
+        <v>1.40436</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734728</v>
+        <v>0.694912</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0096</v>
+        <v>0.973342</v>
       </c>
       <c r="C88" t="n">
-        <v>0.81238</v>
+        <v>1.36846</v>
       </c>
       <c r="D88" t="n">
-        <v>0.710036</v>
+        <v>0.683797</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.985254</v>
+        <v>0.957803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.809053</v>
+        <v>1.36513</v>
       </c>
       <c r="D89" t="n">
-        <v>0.707919</v>
+        <v>0.663171</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.971576</v>
+        <v>0.934449</v>
       </c>
       <c r="C90" t="n">
-        <v>0.787001</v>
+        <v>1.46237</v>
       </c>
       <c r="D90" t="n">
-        <v>0.689155</v>
+        <v>0.65768</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.965091</v>
+        <v>0.910409</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776598</v>
+        <v>1.45921</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679504</v>
+        <v>0.647485</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9491540000000001</v>
+        <v>0.917439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757648</v>
+        <v>1.45505</v>
       </c>
       <c r="D92" t="n">
-        <v>0.663983</v>
+        <v>0.641796</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.936403</v>
+        <v>0.910192</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7700900000000001</v>
+        <v>1.4333</v>
       </c>
       <c r="D93" t="n">
-        <v>0.646149</v>
+        <v>0.6263300000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.943119</v>
+        <v>0.902227</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7412609999999999</v>
+        <v>1.8383</v>
       </c>
       <c r="D94" t="n">
-        <v>0.971661</v>
+        <v>0.946872</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25023</v>
+        <v>1.22039</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05934</v>
+        <v>1.80446</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9448800000000001</v>
+        <v>0.921871</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.23748</v>
+        <v>1.21746</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06696</v>
+        <v>1.76688</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9499880000000001</v>
+        <v>0.8941210000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.24985</v>
+        <v>1.18238</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05269</v>
+        <v>1.77589</v>
       </c>
       <c r="D97" t="n">
-        <v>0.95046</v>
+        <v>0.882907</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.23784</v>
+        <v>1.15784</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02328</v>
+        <v>1.88213</v>
       </c>
       <c r="D98" t="n">
-        <v>0.88988</v>
+        <v>0.88478</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23008</v>
+        <v>1.17871</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02488</v>
+        <v>1.82679</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8949240000000001</v>
+        <v>0.85955</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1706</v>
+        <v>1.16339</v>
       </c>
       <c r="C100" t="n">
-        <v>0.996931</v>
+        <v>1.78053</v>
       </c>
       <c r="D100" t="n">
-        <v>0.873764</v>
+        <v>0.841238</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15593</v>
+        <v>1.11197</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01051</v>
+        <v>1.73333</v>
       </c>
       <c r="D101" t="n">
-        <v>0.862096</v>
+        <v>0.814697</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.17477</v>
+        <v>1.09165</v>
       </c>
       <c r="C102" t="n">
-        <v>0.97604</v>
+        <v>1.7078</v>
       </c>
       <c r="D102" t="n">
-        <v>0.850973</v>
+        <v>0.830763</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12931</v>
+        <v>1.1005</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9771840000000001</v>
+        <v>1.70192</v>
       </c>
       <c r="D103" t="n">
-        <v>0.836761</v>
+        <v>0.789971</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15946</v>
+        <v>1.0857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.958759</v>
+        <v>1.66222</v>
       </c>
       <c r="D104" t="n">
-        <v>0.816475</v>
+        <v>0.771134</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12033</v>
+        <v>1.07887</v>
       </c>
       <c r="C105" t="n">
-        <v>0.936172</v>
+        <v>1.66875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.803377</v>
+        <v>0.771414</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.13434</v>
+        <v>1.05909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9368379999999999</v>
+        <v>1.64691</v>
       </c>
       <c r="D106" t="n">
-        <v>0.792238</v>
+        <v>0.76846</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.12728</v>
+        <v>1.04286</v>
       </c>
       <c r="C107" t="n">
-        <v>0.923999</v>
+        <v>1.74038</v>
       </c>
       <c r="D107" t="n">
-        <v>0.794006</v>
+        <v>0.754854</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14224</v>
+        <v>1.04718</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92096</v>
+        <v>2.17326</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11754</v>
+        <v>1.08493</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12587</v>
+        <v>1.0336</v>
       </c>
       <c r="C109" t="n">
-        <v>0.902064</v>
+        <v>2.14575</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09911</v>
+        <v>1.08052</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.44398</v>
+        <v>1.35914</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22927</v>
+        <v>2.14375</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07969</v>
+        <v>1.05816</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42701</v>
+        <v>1.32666</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23812</v>
+        <v>2.09675</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10734</v>
+        <v>1.04961</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44303</v>
+        <v>1.31185</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21473</v>
+        <v>2.02238</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08936</v>
+        <v>1.05253</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.40124</v>
+        <v>1.3045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20749</v>
+        <v>1.98626</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05676</v>
+        <v>1.06167</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.38648</v>
+        <v>1.31291</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22329</v>
+        <v>1.9676</v>
       </c>
       <c r="D114" t="n">
-        <v>1.04758</v>
+        <v>1.01941</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.38724</v>
+        <v>1.30369</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17816</v>
+        <v>2.04788</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03763</v>
+        <v>1.00726</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39208</v>
+        <v>1.30339</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1856</v>
+        <v>2.00165</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03615</v>
+        <v>1.00499</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.40408</v>
+        <v>1.29415</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16663</v>
+        <v>1.99223</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05129</v>
+        <v>0.999053</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3987</v>
+        <v>1.27551</v>
       </c>
       <c r="C118" t="n">
-        <v>1.19476</v>
+        <v>1.98264</v>
       </c>
       <c r="D118" t="n">
-        <v>1.03921</v>
+        <v>1.01508</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.37257</v>
+        <v>1.27895</v>
       </c>
       <c r="C119" t="n">
-        <v>1.16564</v>
+        <v>1.95415</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04829</v>
+        <v>0.981039</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.37889</v>
+        <v>1.27941</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15678</v>
+        <v>1.89109</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01132</v>
+        <v>0.959368</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.36793</v>
+        <v>1.19521</v>
       </c>
       <c r="C121" t="n">
-        <v>1.16717</v>
+        <v>1.85279</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02154</v>
+        <v>0.942159</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.36419</v>
+        <v>1.25358</v>
       </c>
       <c r="C122" t="n">
-        <v>1.15902</v>
+        <v>2.38636</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00672</v>
+        <v>0.985762</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.35539</v>
+        <v>1.25953</v>
       </c>
       <c r="C123" t="n">
-        <v>1.15122</v>
+        <v>2.52537</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36583</v>
+        <v>1.2941</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.69327</v>
+        <v>1.5707</v>
       </c>
       <c r="C124" t="n">
-        <v>1.47567</v>
+        <v>2.41842</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33325</v>
+        <v>1.31818</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.69511</v>
+        <v>1.56135</v>
       </c>
       <c r="C125" t="n">
-        <v>1.49308</v>
+        <v>2.34152</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34294</v>
+        <v>1.29397</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.6781</v>
+        <v>1.5518</v>
       </c>
       <c r="C126" t="n">
-        <v>1.47755</v>
+        <v>2.3056</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33715</v>
+        <v>1.31644</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.68812</v>
+        <v>1.54161</v>
       </c>
       <c r="C127" t="n">
-        <v>1.48174</v>
+        <v>2.28699</v>
       </c>
       <c r="D127" t="n">
-        <v>1.33304</v>
+        <v>1.32937</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.70173</v>
+        <v>1.54917</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4738</v>
+        <v>2.24123</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33061</v>
+        <v>1.29762</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.69579</v>
+        <v>1.53255</v>
       </c>
       <c r="C129" t="n">
-        <v>1.50133</v>
+        <v>2.22079</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3466</v>
+        <v>1.30215</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.6995</v>
+        <v>1.5495</v>
       </c>
       <c r="C130" t="n">
-        <v>1.48428</v>
+        <v>2.18778</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35416</v>
+        <v>1.29514</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.69818</v>
+        <v>1.55169</v>
       </c>
       <c r="C131" t="n">
-        <v>1.46692</v>
+        <v>2.14392</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33663</v>
+        <v>1.2982</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.71327</v>
+        <v>1.5473</v>
       </c>
       <c r="C132" t="n">
-        <v>1.45352</v>
+        <v>2.22635</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34763</v>
+        <v>1.30918</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.70633</v>
+        <v>1.53837</v>
       </c>
       <c r="C133" t="n">
-        <v>1.47013</v>
+        <v>2.20925</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34004</v>
+        <v>1.32744</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.7043</v>
+        <v>1.54576</v>
       </c>
       <c r="C134" t="n">
-        <v>1.47231</v>
+        <v>2.17412</v>
       </c>
       <c r="D134" t="n">
-        <v>1.34682</v>
+        <v>1.31891</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.70016</v>
+        <v>1.55447</v>
       </c>
       <c r="C135" t="n">
-        <v>1.49268</v>
+        <v>2.14743</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35788</v>
+        <v>1.32218</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.72338</v>
+        <v>1.52588</v>
       </c>
       <c r="C136" t="n">
-        <v>1.46657</v>
+        <v>2.73359</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33505</v>
+        <v>1.31697</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.73281</v>
+        <v>1.55187</v>
       </c>
       <c r="C137" t="n">
-        <v>1.47552</v>
+        <v>2.70003</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71174</v>
+        <v>1.65338</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.03425</v>
+        <v>1.88465</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83524</v>
+        <v>2.6414</v>
       </c>
       <c r="D138" t="n">
-        <v>1.68177</v>
+        <v>1.65976</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.03685</v>
+        <v>1.86313</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83114</v>
+        <v>2.59993</v>
       </c>
       <c r="D139" t="n">
-        <v>1.71106</v>
+        <v>1.6632</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.04641</v>
+        <v>1.8446</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79658</v>
+        <v>2.64315</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70511</v>
+        <v>1.65393</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.06865</v>
+        <v>1.85481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.8153</v>
+        <v>2.60684</v>
       </c>
       <c r="D141" t="n">
-        <v>1.69852</v>
+        <v>1.65489</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.08246</v>
+        <v>1.85499</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80301</v>
+        <v>2.56806</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70147</v>
+        <v>1.66008</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.06504</v>
+        <v>1.84036</v>
       </c>
       <c r="C143" t="n">
-        <v>1.83846</v>
+        <v>2.50269</v>
       </c>
       <c r="D143" t="n">
-        <v>1.70216</v>
+        <v>1.7309</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.521937</v>
+        <v>0.548883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251664</v>
+        <v>0.248619</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234543</v>
+        <v>0.239551</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.436555</v>
+        <v>0.442025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24484</v>
+        <v>0.245723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229782</v>
+        <v>0.235314</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428655</v>
+        <v>0.431071</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236838</v>
+        <v>0.236431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232951</v>
+        <v>0.225067</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41698</v>
+        <v>0.412953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235922</v>
+        <v>0.228693</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216318</v>
+        <v>0.222482</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.405004</v>
+        <v>0.412273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226586</v>
+        <v>0.219551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212508</v>
+        <v>0.217425</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.404412</v>
+        <v>0.417585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220558</v>
+        <v>0.22565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214433</v>
+        <v>0.218411</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.412363</v>
+        <v>0.420273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225415</v>
+        <v>0.218927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21395</v>
+        <v>0.216056</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411712</v>
+        <v>0.40591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.214664</v>
+        <v>0.221131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306894</v>
+        <v>0.303607</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500387</v>
+        <v>0.49591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.308436</v>
+        <v>0.311468</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294455</v>
+        <v>0.304538</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.487477</v>
+        <v>0.496669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299176</v>
+        <v>0.304017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292914</v>
+        <v>0.290569</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.477252</v>
+        <v>0.482846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.298572</v>
+        <v>0.296606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.287744</v>
+        <v>0.282752</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.476091</v>
+        <v>0.480707</v>
       </c>
       <c r="C13" t="n">
-        <v>0.287725</v>
+        <v>0.291469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271633</v>
+        <v>0.27337</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.456012</v>
+        <v>0.460733</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274794</v>
+        <v>0.27717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260745</v>
+        <v>0.270571</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.444299</v>
+        <v>0.456282</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26794</v>
+        <v>0.265716</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267718</v>
+        <v>0.258051</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451186</v>
+        <v>0.444248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.255077</v>
+        <v>0.257631</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245495</v>
+        <v>0.247184</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442282</v>
+        <v>0.434911</v>
       </c>
       <c r="C17" t="n">
-        <v>0.252216</v>
+        <v>0.257375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242233</v>
+        <v>0.240871</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.442733</v>
+        <v>0.436298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248792</v>
+        <v>0.244574</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239436</v>
+        <v>0.239854</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428295</v>
+        <v>0.429542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24022</v>
+        <v>0.245582</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23155</v>
+        <v>0.238965</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.425823</v>
+        <v>0.428049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235112</v>
+        <v>0.239209</v>
       </c>
       <c r="D20" t="n">
-        <v>0.229211</v>
+        <v>0.231957</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42962</v>
+        <v>0.421778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234599</v>
+        <v>0.231309</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228305</v>
+        <v>0.22245</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420072</v>
+        <v>0.422368</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229894</v>
+        <v>0.236364</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222554</v>
+        <v>0.225992</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.412977</v>
+        <v>0.416683</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23502</v>
+        <v>0.232003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.560493</v>
+        <v>0.556885</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.661728</v>
+        <v>0.663377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.472352</v>
+        <v>0.473825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5374</v>
+        <v>0.531416</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.645869</v>
+        <v>0.655313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.459032</v>
+        <v>0.464471</v>
       </c>
       <c r="D25" t="n">
-        <v>0.515022</v>
+        <v>0.503935</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.634382</v>
+        <v>0.619272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.451351</v>
+        <v>0.454161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.500812</v>
+        <v>0.49739</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.612803</v>
+        <v>0.6187780000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.444031</v>
+        <v>0.439593</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476059</v>
+        <v>0.472122</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.601564</v>
+        <v>0.608048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.417697</v>
+        <v>0.421355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.455971</v>
+        <v>0.470752</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.585305</v>
+        <v>0.599094</v>
       </c>
       <c r="C29" t="n">
-        <v>0.410456</v>
+        <v>0.400174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.445463</v>
+        <v>0.453791</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.574552</v>
+        <v>0.568214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.394051</v>
+        <v>0.398984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.433298</v>
+        <v>0.432406</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.580534</v>
+        <v>0.5602819999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.386558</v>
+        <v>0.377364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411131</v>
+        <v>0.410576</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55167</v>
+        <v>0.558681</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36583</v>
+        <v>0.367819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.410856</v>
+        <v>0.399901</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539964</v>
+        <v>0.5609150000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36436</v>
+        <v>0.353596</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395601</v>
+        <v>0.392837</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.542525</v>
+        <v>0.548014</v>
       </c>
       <c r="C34" t="n">
-        <v>0.350609</v>
+        <v>0.348061</v>
       </c>
       <c r="D34" t="n">
-        <v>0.393029</v>
+        <v>0.380816</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.517248</v>
+        <v>0.54199</v>
       </c>
       <c r="C35" t="n">
-        <v>0.344891</v>
+        <v>0.348038</v>
       </c>
       <c r="D35" t="n">
-        <v>0.379125</v>
+        <v>0.365784</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.523404</v>
+        <v>0.512723</v>
       </c>
       <c r="C36" t="n">
-        <v>0.335687</v>
+        <v>0.334653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.364226</v>
+        <v>0.363424</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5139320000000001</v>
+        <v>0.51152</v>
       </c>
       <c r="C37" t="n">
-        <v>0.323284</v>
+        <v>0.331392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.625726</v>
+        <v>0.629531</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.752791</v>
+        <v>0.781331</v>
       </c>
       <c r="C38" t="n">
-        <v>0.599414</v>
+        <v>0.591124</v>
       </c>
       <c r="D38" t="n">
-        <v>0.591327</v>
+        <v>0.604723</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.759547</v>
+        <v>0.761871</v>
       </c>
       <c r="C39" t="n">
-        <v>0.575964</v>
+        <v>0.5833120000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.579219</v>
+        <v>0.583409</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7387049999999999</v>
+        <v>0.734362</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5829569999999999</v>
+        <v>0.558679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.567587</v>
+        <v>0.56373</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717907</v>
+        <v>0.752501</v>
       </c>
       <c r="C41" t="n">
-        <v>0.542666</v>
+        <v>0.546042</v>
       </c>
       <c r="D41" t="n">
-        <v>0.540174</v>
+        <v>0.538438</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.705501</v>
+        <v>0.686046</v>
       </c>
       <c r="C42" t="n">
-        <v>0.52385</v>
+        <v>0.513856</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521737</v>
+        <v>0.513642</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.689381</v>
+        <v>0.674894</v>
       </c>
       <c r="C43" t="n">
-        <v>0.509699</v>
+        <v>0.501562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.506592</v>
+        <v>0.497087</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.663103</v>
+        <v>0.672867</v>
       </c>
       <c r="C44" t="n">
-        <v>0.486847</v>
+        <v>0.490718</v>
       </c>
       <c r="D44" t="n">
-        <v>0.489835</v>
+        <v>0.49812</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.65012</v>
+        <v>0.651984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.465699</v>
+        <v>0.479878</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469013</v>
+        <v>0.474379</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.637354</v>
+        <v>0.650307</v>
       </c>
       <c r="C46" t="n">
-        <v>0.456246</v>
+        <v>0.468707</v>
       </c>
       <c r="D46" t="n">
-        <v>0.460382</v>
+        <v>0.456136</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.644642</v>
+        <v>0.626439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.441937</v>
+        <v>0.439138</v>
       </c>
       <c r="D47" t="n">
-        <v>0.44726</v>
+        <v>0.438991</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.615419</v>
+        <v>0.611262</v>
       </c>
       <c r="C48" t="n">
-        <v>0.433196</v>
+        <v>0.436642</v>
       </c>
       <c r="D48" t="n">
-        <v>0.443735</v>
+        <v>0.428552</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.618424</v>
+        <v>0.608229</v>
       </c>
       <c r="C49" t="n">
-        <v>0.427384</v>
+        <v>0.425645</v>
       </c>
       <c r="D49" t="n">
-        <v>0.421305</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.598377</v>
+        <v>0.589096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.417863</v>
+        <v>0.404198</v>
       </c>
       <c r="D50" t="n">
-        <v>0.412559</v>
+        <v>0.407167</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.587545</v>
+        <v>0.573449</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41594</v>
+        <v>0.393262</v>
       </c>
       <c r="D51" t="n">
-        <v>0.689719</v>
+        <v>0.666692</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.585904</v>
+        <v>0.57142</v>
       </c>
       <c r="C52" t="n">
-        <v>0.396111</v>
+        <v>0.3894</v>
       </c>
       <c r="D52" t="n">
-        <v>0.652884</v>
+        <v>0.6523139999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.837642</v>
+        <v>0.846455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.673992</v>
+        <v>0.674183</v>
       </c>
       <c r="D53" t="n">
-        <v>0.639357</v>
+        <v>0.627835</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.818647</v>
+        <v>0.82686</v>
       </c>
       <c r="C54" t="n">
-        <v>0.682582</v>
+        <v>0.657579</v>
       </c>
       <c r="D54" t="n">
-        <v>0.614693</v>
+        <v>0.605139</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.824376</v>
+        <v>0.801832</v>
       </c>
       <c r="C55" t="n">
-        <v>0.640598</v>
+        <v>0.645159</v>
       </c>
       <c r="D55" t="n">
-        <v>0.596033</v>
+        <v>0.593471</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.783845</v>
+        <v>0.787681</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628565</v>
+        <v>0.617989</v>
       </c>
       <c r="D56" t="n">
-        <v>0.57814</v>
+        <v>0.570898</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.777929</v>
+        <v>0.779155</v>
       </c>
       <c r="C57" t="n">
-        <v>0.626217</v>
+        <v>0.581149</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5700730000000001</v>
+        <v>0.557123</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.775264</v>
+        <v>0.792789</v>
       </c>
       <c r="C58" t="n">
-        <v>0.606514</v>
+        <v>0.588314</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550104</v>
+        <v>0.552191</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.760996</v>
+        <v>0.745758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5929489999999999</v>
+        <v>0.563068</v>
       </c>
       <c r="D59" t="n">
-        <v>0.539258</v>
+        <v>0.517348</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.744864</v>
+        <v>0.730586</v>
       </c>
       <c r="C60" t="n">
-        <v>0.585008</v>
+        <v>0.539158</v>
       </c>
       <c r="D60" t="n">
-        <v>0.521066</v>
+        <v>0.511426</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739389</v>
+        <v>0.754564</v>
       </c>
       <c r="C61" t="n">
-        <v>0.554318</v>
+        <v>0.53205</v>
       </c>
       <c r="D61" t="n">
-        <v>0.492265</v>
+        <v>0.501814</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.715136</v>
+        <v>0.720516</v>
       </c>
       <c r="C62" t="n">
-        <v>0.550441</v>
+        <v>0.532378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.484931</v>
+        <v>0.486144</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.704223</v>
+        <v>0.691231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.520392</v>
+        <v>0.507419</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477019</v>
+        <v>0.471023</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.703352</v>
+        <v>0.696877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.512508</v>
+        <v>0.496484</v>
       </c>
       <c r="D64" t="n">
-        <v>0.467001</v>
+        <v>0.447654</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6909380000000001</v>
+        <v>0.675027</v>
       </c>
       <c r="C65" t="n">
-        <v>0.520503</v>
+        <v>0.48248</v>
       </c>
       <c r="D65" t="n">
-        <v>0.466647</v>
+        <v>0.442397</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.684468</v>
+        <v>0.654249</v>
       </c>
       <c r="C66" t="n">
-        <v>0.525802</v>
+        <v>0.473429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.744621</v>
+        <v>0.706824</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.976081</v>
+        <v>0.95128</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798207</v>
+        <v>0.733225</v>
       </c>
       <c r="D67" t="n">
-        <v>0.703083</v>
+        <v>0.670331</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.938634</v>
+        <v>0.925583</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7723179999999999</v>
+        <v>0.714083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.682949</v>
+        <v>0.651448</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9409650000000001</v>
+        <v>0.891939</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7751749999999999</v>
+        <v>0.688797</v>
       </c>
       <c r="D69" t="n">
-        <v>0.65708</v>
+        <v>0.634352</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.909042</v>
+        <v>0.925796</v>
       </c>
       <c r="C70" t="n">
-        <v>0.728737</v>
+        <v>0.678837</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6578850000000001</v>
+        <v>0.623356</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89706</v>
+        <v>0.86029</v>
       </c>
       <c r="C71" t="n">
-        <v>0.713581</v>
+        <v>0.654694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.635289</v>
+        <v>0.625149</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.891245</v>
+        <v>0.851949</v>
       </c>
       <c r="C72" t="n">
-        <v>0.699113</v>
+        <v>0.6450900000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.629283</v>
+        <v>0.592465</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.879325</v>
+        <v>0.834982</v>
       </c>
       <c r="C73" t="n">
-        <v>0.700197</v>
+        <v>0.622437</v>
       </c>
       <c r="D73" t="n">
-        <v>0.618213</v>
+        <v>0.57007</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.866942</v>
+        <v>0.857702</v>
       </c>
       <c r="C74" t="n">
-        <v>0.675504</v>
+        <v>0.616003</v>
       </c>
       <c r="D74" t="n">
-        <v>0.613218</v>
+        <v>0.552866</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.840881</v>
+        <v>0.839708</v>
       </c>
       <c r="C75" t="n">
-        <v>0.662433</v>
+        <v>0.609632</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582036</v>
+        <v>0.554862</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.841428</v>
+        <v>0.803276</v>
       </c>
       <c r="C76" t="n">
-        <v>0.649678</v>
+        <v>0.58411</v>
       </c>
       <c r="D76" t="n">
-        <v>0.560442</v>
+        <v>0.535036</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.851133</v>
+        <v>0.792315</v>
       </c>
       <c r="C77" t="n">
-        <v>0.63662</v>
+        <v>0.595381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.567288</v>
+        <v>0.521741</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.818345</v>
+        <v>0.775717</v>
       </c>
       <c r="C78" t="n">
-        <v>0.62722</v>
+        <v>0.564249</v>
       </c>
       <c r="D78" t="n">
-        <v>0.549029</v>
+        <v>0.505759</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.803878</v>
+        <v>0.775108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.610899</v>
+        <v>0.559577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.536949</v>
+        <v>0.524069</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.791293</v>
+        <v>0.789025</v>
       </c>
       <c r="C80" t="n">
-        <v>0.613262</v>
+        <v>0.540798</v>
       </c>
       <c r="D80" t="n">
-        <v>0.868655</v>
+        <v>0.808324</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.118</v>
+        <v>1.0698</v>
       </c>
       <c r="C81" t="n">
-        <v>0.91382</v>
+        <v>0.854106</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8382270000000001</v>
+        <v>0.805674</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09807</v>
+        <v>1.0418</v>
       </c>
       <c r="C82" t="n">
-        <v>0.92596</v>
+        <v>0.831646</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8202430000000001</v>
+        <v>0.76825</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10336</v>
+        <v>1.02752</v>
       </c>
       <c r="C83" t="n">
-        <v>0.899502</v>
+        <v>0.813768</v>
       </c>
       <c r="D83" t="n">
-        <v>0.806001</v>
+        <v>0.748265</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06771</v>
+        <v>1.06359</v>
       </c>
       <c r="C84" t="n">
-        <v>0.878512</v>
+        <v>0.793906</v>
       </c>
       <c r="D84" t="n">
-        <v>0.765328</v>
+        <v>0.7450020000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03472</v>
+        <v>1.0367</v>
       </c>
       <c r="C85" t="n">
-        <v>0.845921</v>
+        <v>0.809708</v>
       </c>
       <c r="D85" t="n">
-        <v>0.750738</v>
+        <v>0.732313</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03223</v>
+        <v>0.988803</v>
       </c>
       <c r="C86" t="n">
-        <v>0.843723</v>
+        <v>0.76497</v>
       </c>
       <c r="D86" t="n">
-        <v>0.757035</v>
+        <v>0.700775</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02283</v>
+        <v>0.96816</v>
       </c>
       <c r="C87" t="n">
-        <v>0.81528</v>
+        <v>0.752243</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734728</v>
+        <v>0.683579</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0096</v>
+        <v>0.951894</v>
       </c>
       <c r="C88" t="n">
-        <v>0.81238</v>
+        <v>0.7295739999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.710036</v>
+        <v>0.6657189999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.985254</v>
+        <v>0.9370810000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.809053</v>
+        <v>0.712245</v>
       </c>
       <c r="D89" t="n">
-        <v>0.707919</v>
+        <v>0.654089</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.971576</v>
+        <v>0.939832</v>
       </c>
       <c r="C90" t="n">
-        <v>0.787001</v>
+        <v>0.715314</v>
       </c>
       <c r="D90" t="n">
-        <v>0.689155</v>
+        <v>0.639062</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.965091</v>
+        <v>0.915997</v>
       </c>
       <c r="C91" t="n">
-        <v>0.776598</v>
+        <v>0.683588</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679504</v>
+        <v>0.63221</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9491540000000001</v>
+        <v>0.900811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757648</v>
+        <v>0.671603</v>
       </c>
       <c r="D92" t="n">
-        <v>0.663983</v>
+        <v>0.625224</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.936403</v>
+        <v>0.909535</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7700900000000001</v>
+        <v>0.658568</v>
       </c>
       <c r="D93" t="n">
-        <v>0.646149</v>
+        <v>0.612174</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.943119</v>
+        <v>0.919335</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7412609999999999</v>
+        <v>0.6530359999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.971661</v>
+        <v>0.973926</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.25023</v>
+        <v>1.20325</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05934</v>
+        <v>0.961023</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9448800000000001</v>
+        <v>0.903993</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.23748</v>
+        <v>1.21278</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06696</v>
+        <v>0.983886</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9499880000000001</v>
+        <v>0.908358</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.24985</v>
+        <v>1.17247</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05269</v>
+        <v>0.944809</v>
       </c>
       <c r="D97" t="n">
-        <v>0.95046</v>
+        <v>0.899116</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.23784</v>
+        <v>1.19561</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02328</v>
+        <v>0.972359</v>
       </c>
       <c r="D98" t="n">
-        <v>0.88988</v>
+        <v>0.881423</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23008</v>
+        <v>1.16111</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02488</v>
+        <v>0.927607</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8949240000000001</v>
+        <v>0.9012520000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1706</v>
+        <v>1.16164</v>
       </c>
       <c r="C100" t="n">
-        <v>0.996931</v>
+        <v>0.921956</v>
       </c>
       <c r="D100" t="n">
-        <v>0.873764</v>
+        <v>0.8502999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15593</v>
+        <v>1.11196</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01051</v>
+        <v>0.899725</v>
       </c>
       <c r="D101" t="n">
-        <v>0.862096</v>
+        <v>0.826668</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.17477</v>
+        <v>1.13215</v>
       </c>
       <c r="C102" t="n">
-        <v>0.97604</v>
+        <v>0.8936809999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.850973</v>
+        <v>0.816219</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12931</v>
+        <v>1.08866</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9771840000000001</v>
+        <v>0.8784110000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.836761</v>
+        <v>0.819669</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15946</v>
+        <v>1.08255</v>
       </c>
       <c r="C104" t="n">
-        <v>0.958759</v>
+        <v>0.853505</v>
       </c>
       <c r="D104" t="n">
-        <v>0.816475</v>
+        <v>0.772586</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12033</v>
+        <v>1.08101</v>
       </c>
       <c r="C105" t="n">
-        <v>0.936172</v>
+        <v>0.828655</v>
       </c>
       <c r="D105" t="n">
-        <v>0.803377</v>
+        <v>0.762091</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.13434</v>
+        <v>1.0826</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9368379999999999</v>
+        <v>0.842158</v>
       </c>
       <c r="D106" t="n">
-        <v>0.792238</v>
+        <v>0.754351</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.12728</v>
+        <v>1.03507</v>
       </c>
       <c r="C107" t="n">
-        <v>0.923999</v>
+        <v>0.818128</v>
       </c>
       <c r="D107" t="n">
-        <v>0.794006</v>
+        <v>0.75483</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14224</v>
+        <v>1.02509</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92096</v>
+        <v>0.802931</v>
       </c>
       <c r="D108" t="n">
-        <v>1.11754</v>
+        <v>1.0875</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12587</v>
+        <v>1.00946</v>
       </c>
       <c r="C109" t="n">
-        <v>0.902064</v>
+        <v>0.781184</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09911</v>
+        <v>1.07917</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.44398</v>
+        <v>1.34699</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22927</v>
+        <v>1.13122</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07969</v>
+        <v>1.07501</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42701</v>
+        <v>1.34687</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23812</v>
+        <v>1.10613</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10734</v>
+        <v>1.0457</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44303</v>
+        <v>1.30328</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21473</v>
+        <v>1.08534</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08936</v>
+        <v>1.02504</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.40124</v>
+        <v>1.35184</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20749</v>
+        <v>1.1042</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05676</v>
+        <v>1.04416</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.38648</v>
+        <v>1.33281</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22329</v>
+        <v>1.09464</v>
       </c>
       <c r="D114" t="n">
-        <v>1.04758</v>
+        <v>1.03315</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.38724</v>
+        <v>1.30346</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17816</v>
+        <v>1.10845</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03763</v>
+        <v>1.01371</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39208</v>
+        <v>1.32396</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1856</v>
+        <v>1.07231</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03615</v>
+        <v>1.02798</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.40408</v>
+        <v>1.24673</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16663</v>
+        <v>1.09273</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05129</v>
+        <v>1.01709</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3987</v>
+        <v>1.29951</v>
       </c>
       <c r="C118" t="n">
-        <v>1.19476</v>
+        <v>1.04162</v>
       </c>
       <c r="D118" t="n">
-        <v>1.03921</v>
+        <v>0.9951449999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.37257</v>
+        <v>1.24968</v>
       </c>
       <c r="C119" t="n">
-        <v>1.16564</v>
+        <v>1.04646</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04829</v>
+        <v>0.966743</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.37889</v>
+        <v>1.26131</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15678</v>
+        <v>1.05639</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01132</v>
+        <v>0.936607</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.36793</v>
+        <v>1.18546</v>
       </c>
       <c r="C121" t="n">
-        <v>1.16717</v>
+        <v>0.986991</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02154</v>
+        <v>0.925546</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.36419</v>
+        <v>1.21624</v>
       </c>
       <c r="C122" t="n">
-        <v>1.15902</v>
+        <v>1.00963</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00672</v>
+        <v>0.938269</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.35539</v>
+        <v>1.18238</v>
       </c>
       <c r="C123" t="n">
-        <v>1.15122</v>
+        <v>1.01392</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36583</v>
+        <v>1.30706</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.69327</v>
+        <v>1.51975</v>
       </c>
       <c r="C124" t="n">
-        <v>1.47567</v>
+        <v>1.31457</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33325</v>
+        <v>1.27581</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.69511</v>
+        <v>1.50729</v>
       </c>
       <c r="C125" t="n">
-        <v>1.49308</v>
+        <v>1.3731</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34294</v>
+        <v>1.30263</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.6781</v>
+        <v>1.53381</v>
       </c>
       <c r="C126" t="n">
-        <v>1.47755</v>
+        <v>1.35699</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33715</v>
+        <v>1.29509</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.68812</v>
+        <v>1.53282</v>
       </c>
       <c r="C127" t="n">
-        <v>1.48174</v>
+        <v>1.2953</v>
       </c>
       <c r="D127" t="n">
-        <v>1.33304</v>
+        <v>1.25607</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.70173</v>
+        <v>1.51365</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4738</v>
+        <v>1.35252</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33061</v>
+        <v>1.28598</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.69579</v>
+        <v>1.50452</v>
       </c>
       <c r="C129" t="n">
-        <v>1.50133</v>
+        <v>1.34902</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3466</v>
+        <v>1.26101</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.6995</v>
+        <v>1.46807</v>
       </c>
       <c r="C130" t="n">
-        <v>1.48428</v>
+        <v>1.30948</v>
       </c>
       <c r="D130" t="n">
-        <v>1.35416</v>
+        <v>1.28739</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.69818</v>
+        <v>1.51867</v>
       </c>
       <c r="C131" t="n">
-        <v>1.46692</v>
+        <v>1.33266</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33663</v>
+        <v>1.24658</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.71327</v>
+        <v>1.478</v>
       </c>
       <c r="C132" t="n">
-        <v>1.45352</v>
+        <v>1.34169</v>
       </c>
       <c r="D132" t="n">
-        <v>1.34763</v>
+        <v>1.28903</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.70633</v>
+        <v>1.53773</v>
       </c>
       <c r="C133" t="n">
-        <v>1.47013</v>
+        <v>1.33685</v>
       </c>
       <c r="D133" t="n">
-        <v>1.34004</v>
+        <v>1.27699</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.7043</v>
+        <v>1.50386</v>
       </c>
       <c r="C134" t="n">
-        <v>1.47231</v>
+        <v>1.30687</v>
       </c>
       <c r="D134" t="n">
-        <v>1.34682</v>
+        <v>1.26647</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.70016</v>
+        <v>1.47437</v>
       </c>
       <c r="C135" t="n">
-        <v>1.49268</v>
+        <v>1.29485</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35788</v>
+        <v>1.25757</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.72338</v>
+        <v>1.44393</v>
       </c>
       <c r="C136" t="n">
-        <v>1.46657</v>
+        <v>1.30219</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33505</v>
+        <v>1.29726</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.73281</v>
+        <v>1.50734</v>
       </c>
       <c r="C137" t="n">
-        <v>1.47552</v>
+        <v>1.31732</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71174</v>
+        <v>1.64177</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.03425</v>
+        <v>1.84922</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83524</v>
+        <v>1.6342</v>
       </c>
       <c r="D138" t="n">
-        <v>1.68177</v>
+        <v>1.62345</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.03685</v>
+        <v>1.86044</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83114</v>
+        <v>1.6545</v>
       </c>
       <c r="D139" t="n">
-        <v>1.71106</v>
+        <v>1.64344</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.04641</v>
+        <v>1.85422</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79658</v>
+        <v>1.66621</v>
       </c>
       <c r="D140" t="n">
-        <v>1.70511</v>
+        <v>1.64212</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.06865</v>
+        <v>1.80985</v>
       </c>
       <c r="C141" t="n">
-        <v>1.8153</v>
+        <v>1.66408</v>
       </c>
       <c r="D141" t="n">
-        <v>1.69852</v>
+        <v>1.62898</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.08246</v>
+        <v>1.86001</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80301</v>
+        <v>1.65778</v>
       </c>
       <c r="D142" t="n">
-        <v>1.70147</v>
+        <v>1.63856</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.06504</v>
+        <v>1.82846</v>
       </c>
       <c r="C143" t="n">
-        <v>1.83846</v>
+        <v>1.68892</v>
       </c>
       <c r="D143" t="n">
-        <v>1.70216</v>
+        <v>1.6503</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548883</v>
+        <v>0.505455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248619</v>
+        <v>0.246135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239551</v>
+        <v>0.236025</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442025</v>
+        <v>0.444259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245723</v>
+        <v>0.248405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235314</v>
+        <v>0.227136</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.431071</v>
+        <v>0.432494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236431</v>
+        <v>0.232676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.225067</v>
+        <v>0.217726</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412953</v>
+        <v>0.42569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228693</v>
+        <v>0.228057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.222482</v>
+        <v>0.218842</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.412273</v>
+        <v>0.418236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.219551</v>
+        <v>0.223138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217425</v>
+        <v>0.21219</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417585</v>
+        <v>0.406385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22565</v>
+        <v>0.225306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218411</v>
+        <v>0.213979</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.420273</v>
+        <v>0.424118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218927</v>
+        <v>0.222581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216056</v>
+        <v>0.209463</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.40591</v>
+        <v>0.404306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221131</v>
+        <v>0.218639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.303607</v>
+        <v>0.306243</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.49591</v>
+        <v>0.49693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.311468</v>
+        <v>0.309239</v>
       </c>
       <c r="D10" t="n">
-        <v>0.304538</v>
+        <v>0.297021</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.496669</v>
+        <v>0.501753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.304017</v>
+        <v>0.302517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.290569</v>
+        <v>0.293203</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.482846</v>
+        <v>0.483644</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296606</v>
+        <v>0.28964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.282752</v>
+        <v>0.275759</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480707</v>
+        <v>0.472145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.291469</v>
+        <v>0.281486</v>
       </c>
       <c r="D13" t="n">
-        <v>0.27337</v>
+        <v>0.266456</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.460733</v>
+        <v>0.467871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.27717</v>
+        <v>0.272585</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270571</v>
+        <v>0.266822</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456282</v>
+        <v>0.464841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.265716</v>
+        <v>0.26482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.258051</v>
+        <v>0.258743</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.444248</v>
+        <v>0.450174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.257631</v>
+        <v>0.260892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247184</v>
+        <v>0.252284</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.434911</v>
+        <v>0.468794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.257375</v>
+        <v>0.251884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240871</v>
+        <v>0.241775</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.436298</v>
+        <v>0.433785</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244574</v>
+        <v>0.245053</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239854</v>
+        <v>0.236307</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.429542</v>
+        <v>0.436697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245582</v>
+        <v>0.239475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238965</v>
+        <v>0.230831</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428049</v>
+        <v>0.433742</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239209</v>
+        <v>0.238572</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231957</v>
+        <v>0.225828</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421778</v>
+        <v>0.436328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231309</v>
+        <v>0.23042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22245</v>
+        <v>0.227012</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.422368</v>
+        <v>0.431775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236364</v>
+        <v>0.230121</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225992</v>
+        <v>0.219508</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.416683</v>
+        <v>0.41794</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232003</v>
+        <v>0.230821</v>
       </c>
       <c r="D23" t="n">
-        <v>0.556885</v>
+        <v>0.549818</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.663377</v>
+        <v>0.660013</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473825</v>
+        <v>0.47915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.531416</v>
+        <v>0.533664</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.655313</v>
+        <v>0.645198</v>
       </c>
       <c r="C25" t="n">
-        <v>0.464471</v>
+        <v>0.468135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.503935</v>
+        <v>0.507847</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.619272</v>
+        <v>0.641277</v>
       </c>
       <c r="C26" t="n">
-        <v>0.454161</v>
+        <v>0.44974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.49739</v>
+        <v>0.504263</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6187780000000001</v>
+        <v>0.6292410000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.439593</v>
+        <v>0.439142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.472122</v>
+        <v>0.479099</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.608048</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421355</v>
+        <v>0.412628</v>
       </c>
       <c r="D28" t="n">
-        <v>0.470752</v>
+        <v>0.460163</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.599094</v>
+        <v>0.586673</v>
       </c>
       <c r="C29" t="n">
-        <v>0.400174</v>
+        <v>0.413651</v>
       </c>
       <c r="D29" t="n">
-        <v>0.453791</v>
+        <v>0.445196</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.568214</v>
+        <v>0.591208</v>
       </c>
       <c r="C30" t="n">
-        <v>0.398984</v>
+        <v>0.395428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.432406</v>
+        <v>0.437926</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5602819999999999</v>
+        <v>0.570219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377364</v>
+        <v>0.383952</v>
       </c>
       <c r="D31" t="n">
-        <v>0.410576</v>
+        <v>0.420879</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.558681</v>
+        <v>0.571565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.367819</v>
+        <v>0.377146</v>
       </c>
       <c r="D32" t="n">
-        <v>0.399901</v>
+        <v>0.402124</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5609150000000001</v>
+        <v>0.55638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.353596</v>
+        <v>0.36268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392837</v>
+        <v>0.395109</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.548014</v>
+        <v>0.537053</v>
       </c>
       <c r="C34" t="n">
-        <v>0.348061</v>
+        <v>0.352874</v>
       </c>
       <c r="D34" t="n">
-        <v>0.380816</v>
+        <v>0.385645</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.54199</v>
+        <v>0.536596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.348038</v>
+        <v>0.337547</v>
       </c>
       <c r="D35" t="n">
-        <v>0.365784</v>
+        <v>0.371393</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.512723</v>
+        <v>0.520778</v>
       </c>
       <c r="C36" t="n">
-        <v>0.334653</v>
+        <v>0.338601</v>
       </c>
       <c r="D36" t="n">
-        <v>0.363424</v>
+        <v>0.356778</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.51152</v>
+        <v>0.515068</v>
       </c>
       <c r="C37" t="n">
-        <v>0.331392</v>
+        <v>0.329626</v>
       </c>
       <c r="D37" t="n">
-        <v>0.629531</v>
+        <v>0.627728</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.781331</v>
+        <v>0.796184</v>
       </c>
       <c r="C38" t="n">
-        <v>0.591124</v>
+        <v>0.590548</v>
       </c>
       <c r="D38" t="n">
-        <v>0.604723</v>
+        <v>0.599247</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.761871</v>
+        <v>0.772861</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5833120000000001</v>
+        <v>0.584305</v>
       </c>
       <c r="D39" t="n">
-        <v>0.583409</v>
+        <v>0.575125</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.734362</v>
+        <v>0.740438</v>
       </c>
       <c r="C40" t="n">
-        <v>0.558679</v>
+        <v>0.556322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.56373</v>
+        <v>0.559602</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.752501</v>
+        <v>0.717432</v>
       </c>
       <c r="C41" t="n">
-        <v>0.546042</v>
+        <v>0.5314759999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.538438</v>
+        <v>0.540613</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.686046</v>
+        <v>0.717041</v>
       </c>
       <c r="C42" t="n">
-        <v>0.513856</v>
+        <v>0.5241479999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.513642</v>
+        <v>0.534937</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.674894</v>
+        <v>0.695064</v>
       </c>
       <c r="C43" t="n">
-        <v>0.501562</v>
+        <v>0.515524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.497087</v>
+        <v>0.515581</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.672867</v>
+        <v>0.673031</v>
       </c>
       <c r="C44" t="n">
-        <v>0.490718</v>
+        <v>0.495641</v>
       </c>
       <c r="D44" t="n">
-        <v>0.49812</v>
+        <v>0.481142</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.651984</v>
+        <v>0.653379</v>
       </c>
       <c r="C45" t="n">
-        <v>0.479878</v>
+        <v>0.474963</v>
       </c>
       <c r="D45" t="n">
-        <v>0.474379</v>
+        <v>0.480013</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.650307</v>
+        <v>0.646128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.468707</v>
+        <v>0.465526</v>
       </c>
       <c r="D46" t="n">
-        <v>0.456136</v>
+        <v>0.461951</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.626439</v>
+        <v>0.635898</v>
       </c>
       <c r="C47" t="n">
-        <v>0.439138</v>
+        <v>0.441126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.438991</v>
+        <v>0.452452</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611262</v>
+        <v>0.622626</v>
       </c>
       <c r="C48" t="n">
-        <v>0.436642</v>
+        <v>0.426784</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428552</v>
+        <v>0.42855</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.608229</v>
+        <v>0.605952</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425645</v>
+        <v>0.419915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4179</v>
+        <v>0.428481</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.589096</v>
+        <v>0.589743</v>
       </c>
       <c r="C50" t="n">
-        <v>0.404198</v>
+        <v>0.421395</v>
       </c>
       <c r="D50" t="n">
-        <v>0.407167</v>
+        <v>0.413492</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.573449</v>
+        <v>0.581996</v>
       </c>
       <c r="C51" t="n">
-        <v>0.393262</v>
+        <v>0.401425</v>
       </c>
       <c r="D51" t="n">
-        <v>0.666692</v>
+        <v>0.671521</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.57142</v>
+        <v>0.574007</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3894</v>
+        <v>0.392122</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6523139999999999</v>
+        <v>0.647687</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.846455</v>
+        <v>0.833548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.674183</v>
+        <v>0.684567</v>
       </c>
       <c r="D53" t="n">
-        <v>0.627835</v>
+        <v>0.636315</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.82686</v>
+        <v>0.8210769999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.657579</v>
+        <v>0.667913</v>
       </c>
       <c r="D54" t="n">
-        <v>0.605139</v>
+        <v>0.608546</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.801832</v>
+        <v>0.808785</v>
       </c>
       <c r="C55" t="n">
-        <v>0.645159</v>
+        <v>0.6463719999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.593471</v>
+        <v>0.597872</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.787681</v>
+        <v>0.802674</v>
       </c>
       <c r="C56" t="n">
-        <v>0.617989</v>
+        <v>0.613255</v>
       </c>
       <c r="D56" t="n">
-        <v>0.570898</v>
+        <v>0.5670230000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.779155</v>
+        <v>0.786486</v>
       </c>
       <c r="C57" t="n">
-        <v>0.581149</v>
+        <v>0.587824</v>
       </c>
       <c r="D57" t="n">
-        <v>0.557123</v>
+        <v>0.5595830000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.792789</v>
+        <v>0.776211</v>
       </c>
       <c r="C58" t="n">
-        <v>0.588314</v>
+        <v>0.579166</v>
       </c>
       <c r="D58" t="n">
-        <v>0.552191</v>
+        <v>0.5416609999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.745758</v>
+        <v>0.7506080000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.563068</v>
+        <v>0.564443</v>
       </c>
       <c r="D59" t="n">
-        <v>0.517348</v>
+        <v>0.524055</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.730586</v>
+        <v>0.74607</v>
       </c>
       <c r="C60" t="n">
-        <v>0.539158</v>
+        <v>0.546266</v>
       </c>
       <c r="D60" t="n">
-        <v>0.511426</v>
+        <v>0.5141829999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.754564</v>
+        <v>0.739434</v>
       </c>
       <c r="C61" t="n">
-        <v>0.53205</v>
+        <v>0.529694</v>
       </c>
       <c r="D61" t="n">
-        <v>0.501814</v>
+        <v>0.501418</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.720516</v>
+        <v>0.740169</v>
       </c>
       <c r="C62" t="n">
-        <v>0.532378</v>
+        <v>0.523362</v>
       </c>
       <c r="D62" t="n">
-        <v>0.486144</v>
+        <v>0.481988</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.691231</v>
+        <v>0.690763</v>
       </c>
       <c r="C63" t="n">
-        <v>0.507419</v>
+        <v>0.523015</v>
       </c>
       <c r="D63" t="n">
-        <v>0.471023</v>
+        <v>0.472546</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.696877</v>
+        <v>0.686315</v>
       </c>
       <c r="C64" t="n">
-        <v>0.496484</v>
+        <v>0.498564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.447654</v>
+        <v>0.460727</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.675027</v>
+        <v>0.681929</v>
       </c>
       <c r="C65" t="n">
-        <v>0.48248</v>
+        <v>0.498948</v>
       </c>
       <c r="D65" t="n">
-        <v>0.442397</v>
+        <v>0.455785</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.654249</v>
+        <v>0.683701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.473429</v>
+        <v>0.495463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.706824</v>
+        <v>0.726969</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.95128</v>
+        <v>0.960191</v>
       </c>
       <c r="C67" t="n">
-        <v>0.733225</v>
+        <v>0.764751</v>
       </c>
       <c r="D67" t="n">
-        <v>0.670331</v>
+        <v>0.708476</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.925583</v>
+        <v>0.922956</v>
       </c>
       <c r="C68" t="n">
-        <v>0.714083</v>
+        <v>0.75256</v>
       </c>
       <c r="D68" t="n">
-        <v>0.651448</v>
+        <v>0.679629</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.891939</v>
+        <v>0.919121</v>
       </c>
       <c r="C69" t="n">
-        <v>0.688797</v>
+        <v>0.736606</v>
       </c>
       <c r="D69" t="n">
-        <v>0.634352</v>
+        <v>0.662358</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.925796</v>
+        <v>0.9067</v>
       </c>
       <c r="C70" t="n">
-        <v>0.678837</v>
+        <v>0.709962</v>
       </c>
       <c r="D70" t="n">
-        <v>0.623356</v>
+        <v>0.656338</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.86029</v>
+        <v>0.888196</v>
       </c>
       <c r="C71" t="n">
-        <v>0.654694</v>
+        <v>0.6966290000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.625149</v>
+        <v>0.637078</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.851949</v>
+        <v>0.866941</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6450900000000001</v>
+        <v>0.66917</v>
       </c>
       <c r="D72" t="n">
-        <v>0.592465</v>
+        <v>0.616807</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.834982</v>
+        <v>0.854999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.622437</v>
+        <v>0.671795</v>
       </c>
       <c r="D73" t="n">
-        <v>0.57007</v>
+        <v>0.6039600000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.857702</v>
+        <v>0.846272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.616003</v>
+        <v>0.63972</v>
       </c>
       <c r="D74" t="n">
-        <v>0.552866</v>
+        <v>0.57513</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.839708</v>
+        <v>0.842465</v>
       </c>
       <c r="C75" t="n">
-        <v>0.609632</v>
+        <v>0.62041</v>
       </c>
       <c r="D75" t="n">
-        <v>0.554862</v>
+        <v>0.555683</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.803276</v>
+        <v>0.817995</v>
       </c>
       <c r="C76" t="n">
-        <v>0.58411</v>
+        <v>0.611659</v>
       </c>
       <c r="D76" t="n">
-        <v>0.535036</v>
+        <v>0.552048</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.792315</v>
+        <v>0.800431</v>
       </c>
       <c r="C77" t="n">
-        <v>0.595381</v>
+        <v>0.595736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.521741</v>
+        <v>0.538311</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.775717</v>
+        <v>0.795055</v>
       </c>
       <c r="C78" t="n">
-        <v>0.564249</v>
+        <v>0.577562</v>
       </c>
       <c r="D78" t="n">
-        <v>0.505759</v>
+        <v>0.531927</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.775108</v>
+        <v>0.77649</v>
       </c>
       <c r="C79" t="n">
-        <v>0.559577</v>
+        <v>0.568671</v>
       </c>
       <c r="D79" t="n">
-        <v>0.524069</v>
+        <v>0.531929</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.789025</v>
+        <v>0.807168</v>
       </c>
       <c r="C80" t="n">
-        <v>0.540798</v>
+        <v>0.573148</v>
       </c>
       <c r="D80" t="n">
-        <v>0.808324</v>
+        <v>0.853665</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0698</v>
+        <v>1.11902</v>
       </c>
       <c r="C81" t="n">
-        <v>0.854106</v>
+        <v>0.891042</v>
       </c>
       <c r="D81" t="n">
-        <v>0.805674</v>
+        <v>0.816859</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0418</v>
+        <v>1.0769</v>
       </c>
       <c r="C82" t="n">
-        <v>0.831646</v>
+        <v>0.857711</v>
       </c>
       <c r="D82" t="n">
-        <v>0.76825</v>
+        <v>0.797233</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02752</v>
+        <v>1.07346</v>
       </c>
       <c r="C83" t="n">
-        <v>0.813768</v>
+        <v>0.8542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.748265</v>
+        <v>0.787925</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06359</v>
+        <v>1.02828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.793906</v>
+        <v>0.833489</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7450020000000001</v>
+        <v>0.757074</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0367</v>
+        <v>1.01184</v>
       </c>
       <c r="C85" t="n">
-        <v>0.809708</v>
+        <v>0.8065600000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.732313</v>
+        <v>0.739446</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.988803</v>
+        <v>1.015</v>
       </c>
       <c r="C86" t="n">
-        <v>0.76497</v>
+        <v>0.786346</v>
       </c>
       <c r="D86" t="n">
-        <v>0.700775</v>
+        <v>0.722447</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.96816</v>
+        <v>0.979301</v>
       </c>
       <c r="C87" t="n">
-        <v>0.752243</v>
+        <v>0.752865</v>
       </c>
       <c r="D87" t="n">
-        <v>0.683579</v>
+        <v>0.70722</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.951894</v>
+        <v>0.991936</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7295739999999999</v>
+        <v>0.7693449999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6657189999999999</v>
+        <v>0.70033</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9370810000000001</v>
+        <v>0.953825</v>
       </c>
       <c r="C89" t="n">
-        <v>0.712245</v>
+        <v>0.736326</v>
       </c>
       <c r="D89" t="n">
-        <v>0.654089</v>
+        <v>0.67942</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.939832</v>
+        <v>0.944742</v>
       </c>
       <c r="C90" t="n">
-        <v>0.715314</v>
+        <v>0.721387</v>
       </c>
       <c r="D90" t="n">
-        <v>0.639062</v>
+        <v>0.668566</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.915997</v>
+        <v>0.959742</v>
       </c>
       <c r="C91" t="n">
-        <v>0.683588</v>
+        <v>0.712719</v>
       </c>
       <c r="D91" t="n">
-        <v>0.63221</v>
+        <v>0.664726</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.900811</v>
+        <v>0.938182</v>
       </c>
       <c r="C92" t="n">
-        <v>0.671603</v>
+        <v>0.700878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.625224</v>
+        <v>0.6451789999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.909535</v>
+        <v>0.923721</v>
       </c>
       <c r="C93" t="n">
-        <v>0.658568</v>
+        <v>0.673876</v>
       </c>
       <c r="D93" t="n">
-        <v>0.612174</v>
+        <v>0.629987</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.919335</v>
+        <v>0.907058</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6530359999999999</v>
+        <v>0.670596</v>
       </c>
       <c r="D94" t="n">
-        <v>0.973926</v>
+        <v>0.942621</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20325</v>
+        <v>1.22942</v>
       </c>
       <c r="C95" t="n">
-        <v>0.961023</v>
+        <v>0.976603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.903993</v>
+        <v>0.919894</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21278</v>
+        <v>1.22038</v>
       </c>
       <c r="C96" t="n">
-        <v>0.983886</v>
+        <v>0.987891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.908358</v>
+        <v>0.920362</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17247</v>
+        <v>1.16733</v>
       </c>
       <c r="C97" t="n">
-        <v>0.944809</v>
+        <v>0.963067</v>
       </c>
       <c r="D97" t="n">
-        <v>0.899116</v>
+        <v>0.891389</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.19561</v>
+        <v>1.18014</v>
       </c>
       <c r="C98" t="n">
-        <v>0.972359</v>
+        <v>0.961213</v>
       </c>
       <c r="D98" t="n">
-        <v>0.881423</v>
+        <v>0.873586</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.16111</v>
+        <v>1.15408</v>
       </c>
       <c r="C99" t="n">
-        <v>0.927607</v>
+        <v>0.930596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9012520000000001</v>
+        <v>0.855583</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16164</v>
+        <v>1.13508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.921956</v>
+        <v>0.923984</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8502999999999999</v>
+        <v>0.852949</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.11196</v>
+        <v>1.1138</v>
       </c>
       <c r="C101" t="n">
-        <v>0.899725</v>
+        <v>0.89971</v>
       </c>
       <c r="D101" t="n">
-        <v>0.826668</v>
+        <v>0.828717</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.13215</v>
+        <v>1.11048</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8936809999999999</v>
+        <v>0.879365</v>
       </c>
       <c r="D102" t="n">
-        <v>0.816219</v>
+        <v>0.818503</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.08866</v>
+        <v>1.09681</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8784110000000001</v>
+        <v>0.883745</v>
       </c>
       <c r="D103" t="n">
-        <v>0.819669</v>
+        <v>0.798132</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08255</v>
+        <v>1.08845</v>
       </c>
       <c r="C104" t="n">
-        <v>0.853505</v>
+        <v>0.864394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.772586</v>
+        <v>0.797806</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08101</v>
+        <v>1.08791</v>
       </c>
       <c r="C105" t="n">
-        <v>0.828655</v>
+        <v>0.864505</v>
       </c>
       <c r="D105" t="n">
-        <v>0.762091</v>
+        <v>0.7752</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0826</v>
+        <v>1.06011</v>
       </c>
       <c r="C106" t="n">
-        <v>0.842158</v>
+        <v>0.836919</v>
       </c>
       <c r="D106" t="n">
-        <v>0.754351</v>
+        <v>0.7612679999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.03507</v>
+        <v>1.03734</v>
       </c>
       <c r="C107" t="n">
-        <v>0.818128</v>
+        <v>0.830117</v>
       </c>
       <c r="D107" t="n">
-        <v>0.75483</v>
+        <v>0.758455</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.02509</v>
+        <v>1.06072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.802931</v>
+        <v>0.808427</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0875</v>
+        <v>1.0747</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.00946</v>
+        <v>1.05911</v>
       </c>
       <c r="C109" t="n">
-        <v>0.781184</v>
+        <v>0.823381</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07917</v>
+        <v>1.08735</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.34699</v>
+        <v>1.34793</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13122</v>
+        <v>1.15185</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07501</v>
+        <v>1.06049</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34687</v>
+        <v>1.3178</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10613</v>
+        <v>1.13129</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0457</v>
+        <v>1.07041</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30328</v>
+        <v>1.30274</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08534</v>
+        <v>1.14301</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02504</v>
+        <v>1.03079</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.35184</v>
+        <v>1.34051</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1042</v>
+        <v>1.10783</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04416</v>
+        <v>1.04499</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.33281</v>
+        <v>1.28307</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09464</v>
+        <v>1.08997</v>
       </c>
       <c r="D114" t="n">
-        <v>1.03315</v>
+        <v>1.04216</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30346</v>
+        <v>1.29461</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10845</v>
+        <v>1.07911</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01371</v>
+        <v>1.03473</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.32396</v>
+        <v>1.30897</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07231</v>
+        <v>1.08448</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02798</v>
+        <v>1.03876</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.24673</v>
+        <v>1.30254</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09273</v>
+        <v>1.08652</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01709</v>
+        <v>1.02884</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29951</v>
+        <v>1.28088</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04162</v>
+        <v>1.05864</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9951449999999999</v>
+        <v>0.983806</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.24968</v>
+        <v>1.24198</v>
       </c>
       <c r="C119" t="n">
-        <v>1.04646</v>
+        <v>1.06617</v>
       </c>
       <c r="D119" t="n">
-        <v>0.966743</v>
+        <v>0.985387</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.26131</v>
+        <v>1.2566</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05639</v>
+        <v>1.03951</v>
       </c>
       <c r="D120" t="n">
-        <v>0.936607</v>
+        <v>0.959202</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.18546</v>
+        <v>1.26353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.986991</v>
+        <v>1.07536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.925546</v>
+        <v>0.950783</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.21624</v>
+        <v>1.26049</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00963</v>
+        <v>1.03911</v>
       </c>
       <c r="D122" t="n">
-        <v>0.938269</v>
+        <v>0.973752</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.18238</v>
+        <v>1.26126</v>
       </c>
       <c r="C123" t="n">
-        <v>1.01392</v>
+        <v>1.02109</v>
       </c>
       <c r="D123" t="n">
-        <v>1.30706</v>
+        <v>1.29622</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.51975</v>
+        <v>1.55261</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31457</v>
+        <v>1.35467</v>
       </c>
       <c r="D124" t="n">
-        <v>1.27581</v>
+        <v>1.33197</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.50729</v>
+        <v>1.55838</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3731</v>
+        <v>1.37814</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30263</v>
+        <v>1.31267</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.53381</v>
+        <v>1.55689</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35699</v>
+        <v>1.36941</v>
       </c>
       <c r="D126" t="n">
-        <v>1.29509</v>
+        <v>1.30838</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.53282</v>
+        <v>1.54169</v>
       </c>
       <c r="C127" t="n">
-        <v>1.2953</v>
+        <v>1.37517</v>
       </c>
       <c r="D127" t="n">
-        <v>1.25607</v>
+        <v>1.32014</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.51365</v>
+        <v>1.55262</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35252</v>
+        <v>1.36513</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28598</v>
+        <v>1.31234</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.50452</v>
+        <v>1.53459</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34902</v>
+        <v>1.36019</v>
       </c>
       <c r="D129" t="n">
-        <v>1.26101</v>
+        <v>1.30217</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.46807</v>
+        <v>1.55587</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30948</v>
+        <v>1.37012</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28739</v>
+        <v>1.34025</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.51867</v>
+        <v>1.5461</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33266</v>
+        <v>1.35688</v>
       </c>
       <c r="D131" t="n">
-        <v>1.24658</v>
+        <v>1.31109</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.478</v>
+        <v>1.54908</v>
       </c>
       <c r="C132" t="n">
-        <v>1.34169</v>
+        <v>1.35841</v>
       </c>
       <c r="D132" t="n">
-        <v>1.28903</v>
+        <v>1.30617</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.53773</v>
+        <v>1.54454</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33685</v>
+        <v>1.37277</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27699</v>
+        <v>1.29866</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.50386</v>
+        <v>1.54804</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30687</v>
+        <v>1.35005</v>
       </c>
       <c r="D134" t="n">
-        <v>1.26647</v>
+        <v>1.29735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.47437</v>
+        <v>1.54097</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29485</v>
+        <v>1.35291</v>
       </c>
       <c r="D135" t="n">
-        <v>1.25757</v>
+        <v>1.32017</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.44393</v>
+        <v>1.56203</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30219</v>
+        <v>1.35691</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29726</v>
+        <v>1.31171</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.50734</v>
+        <v>1.55988</v>
       </c>
       <c r="C137" t="n">
-        <v>1.31732</v>
+        <v>1.36916</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64177</v>
+        <v>1.64615</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.84922</v>
+        <v>1.8669</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6342</v>
+        <v>1.66824</v>
       </c>
       <c r="D138" t="n">
-        <v>1.62345</v>
+        <v>1.66153</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86044</v>
+        <v>1.86586</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6545</v>
+        <v>1.67777</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64344</v>
+        <v>1.63836</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85422</v>
+        <v>1.87247</v>
       </c>
       <c r="C140" t="n">
-        <v>1.66621</v>
+        <v>1.69839</v>
       </c>
       <c r="D140" t="n">
-        <v>1.64212</v>
+        <v>1.65663</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.80985</v>
+        <v>1.86114</v>
       </c>
       <c r="C141" t="n">
-        <v>1.66408</v>
+        <v>1.68997</v>
       </c>
       <c r="D141" t="n">
-        <v>1.62898</v>
+        <v>1.6576</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86001</v>
+        <v>1.85988</v>
       </c>
       <c r="C142" t="n">
-        <v>1.65778</v>
+        <v>1.68317</v>
       </c>
       <c r="D142" t="n">
-        <v>1.63856</v>
+        <v>1.67987</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.82846</v>
+        <v>1.84523</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68892</v>
+        <v>1.68909</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6503</v>
+        <v>1.66221</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.505455</v>
+        <v>0.5175110000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.246135</v>
+        <v>0.261846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236025</v>
+        <v>0.249846</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444259</v>
+        <v>0.431081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.248405</v>
+        <v>0.245328</v>
       </c>
       <c r="D3" t="n">
-        <v>0.227136</v>
+        <v>0.241351</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.432494</v>
+        <v>0.441786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232676</v>
+        <v>0.238181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.217726</v>
+        <v>0.229926</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.42569</v>
+        <v>0.428577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228057</v>
+        <v>0.238191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.218842</v>
+        <v>0.224898</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418236</v>
+        <v>0.416941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223138</v>
+        <v>0.226654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21219</v>
+        <v>0.217322</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.406385</v>
+        <v>0.406317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225306</v>
+        <v>0.222801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213979</v>
+        <v>0.219527</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.424118</v>
+        <v>0.407325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222581</v>
+        <v>0.222314</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209463</v>
+        <v>0.211982</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.404306</v>
+        <v>0.405638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218639</v>
+        <v>0.2154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306243</v>
+        <v>0.303068</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.49693</v>
+        <v>0.491771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.309239</v>
+        <v>0.29098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.297021</v>
+        <v>0.291752</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.501753</v>
+        <v>0.485983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.302517</v>
+        <v>0.299017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.293203</v>
+        <v>0.29846</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.483644</v>
+        <v>0.48929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.28964</v>
+        <v>0.295035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.275759</v>
+        <v>0.284957</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.472145</v>
+        <v>0.488982</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281486</v>
+        <v>0.281011</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266456</v>
+        <v>0.27544</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.467871</v>
+        <v>0.475164</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272585</v>
+        <v>0.271332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266822</v>
+        <v>0.262373</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.464841</v>
+        <v>0.466867</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26482</v>
+        <v>0.265384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.258743</v>
+        <v>0.261217</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450174</v>
+        <v>0.463245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260892</v>
+        <v>0.259173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.252284</v>
+        <v>0.247979</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.468794</v>
+        <v>0.446213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251884</v>
+        <v>0.255575</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241775</v>
+        <v>0.245857</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.433785</v>
+        <v>0.441251</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245053</v>
+        <v>0.243503</v>
       </c>
       <c r="D18" t="n">
-        <v>0.236307</v>
+        <v>0.237329</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.436697</v>
+        <v>0.4235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239475</v>
+        <v>0.242333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230831</v>
+        <v>0.233075</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.433742</v>
+        <v>0.424281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238572</v>
+        <v>0.238603</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225828</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436328</v>
+        <v>0.422403</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23042</v>
+        <v>0.238135</v>
       </c>
       <c r="D21" t="n">
-        <v>0.227012</v>
+        <v>0.224102</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431775</v>
+        <v>0.40967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230121</v>
+        <v>0.232636</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219508</v>
+        <v>0.223458</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41794</v>
+        <v>0.409995</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230821</v>
+        <v>0.218394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.549818</v>
+        <v>0.315141</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.660013</v>
+        <v>0.66103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.47915</v>
+        <v>0.504322</v>
       </c>
       <c r="D24" t="n">
-        <v>0.533664</v>
+        <v>0.306284</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.645198</v>
+        <v>0.6513060000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.468135</v>
+        <v>0.468272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.507847</v>
+        <v>0.306646</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.641277</v>
+        <v>0.635747</v>
       </c>
       <c r="C26" t="n">
-        <v>0.44974</v>
+        <v>0.448277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.504263</v>
+        <v>0.293359</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6292410000000001</v>
+        <v>0.62197</v>
       </c>
       <c r="C27" t="n">
-        <v>0.439142</v>
+        <v>0.429607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.479099</v>
+        <v>0.28623</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5987749999999999</v>
+        <v>0.6199789999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.412628</v>
+        <v>0.417478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.460163</v>
+        <v>0.276321</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586673</v>
+        <v>0.579744</v>
       </c>
       <c r="C29" t="n">
-        <v>0.413651</v>
+        <v>0.40993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.445196</v>
+        <v>0.272344</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591208</v>
+        <v>0.586984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.395428</v>
+        <v>0.392064</v>
       </c>
       <c r="D30" t="n">
-        <v>0.437926</v>
+        <v>0.261613</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.570219</v>
+        <v>0.55737</v>
       </c>
       <c r="C31" t="n">
-        <v>0.383952</v>
+        <v>0.385749</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420879</v>
+        <v>0.257335</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.571565</v>
+        <v>0.567738</v>
       </c>
       <c r="C32" t="n">
-        <v>0.377146</v>
+        <v>0.374668</v>
       </c>
       <c r="D32" t="n">
-        <v>0.402124</v>
+        <v>0.256621</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.55638</v>
+        <v>0.539587</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36268</v>
+        <v>0.354014</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395109</v>
+        <v>0.247619</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.537053</v>
+        <v>0.5402940000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.352874</v>
+        <v>0.343981</v>
       </c>
       <c r="D34" t="n">
-        <v>0.385645</v>
+        <v>0.241066</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.536596</v>
+        <v>0.537151</v>
       </c>
       <c r="C35" t="n">
-        <v>0.337547</v>
+        <v>0.340594</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371393</v>
+        <v>0.238167</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.520778</v>
+        <v>0.528787</v>
       </c>
       <c r="C36" t="n">
-        <v>0.338601</v>
+        <v>0.33101</v>
       </c>
       <c r="D36" t="n">
-        <v>0.356778</v>
+        <v>0.234297</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.515068</v>
+        <v>0.508985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.329626</v>
+        <v>0.323044</v>
       </c>
       <c r="D37" t="n">
-        <v>0.627728</v>
+        <v>0.48774</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.796184</v>
+        <v>0.789106</v>
       </c>
       <c r="C38" t="n">
-        <v>0.590548</v>
+        <v>0.6031260000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.599247</v>
+        <v>0.472863</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.772861</v>
+        <v>0.762195</v>
       </c>
       <c r="C39" t="n">
-        <v>0.584305</v>
+        <v>0.565433</v>
       </c>
       <c r="D39" t="n">
-        <v>0.575125</v>
+        <v>0.465319</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.740438</v>
+        <v>0.764213</v>
       </c>
       <c r="C40" t="n">
-        <v>0.556322</v>
+        <v>0.558678</v>
       </c>
       <c r="D40" t="n">
-        <v>0.559602</v>
+        <v>0.439329</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717432</v>
+        <v>0.721817</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5314759999999999</v>
+        <v>0.529848</v>
       </c>
       <c r="D41" t="n">
-        <v>0.540613</v>
+        <v>0.423695</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.717041</v>
+        <v>0.70208</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5241479999999999</v>
+        <v>0.516668</v>
       </c>
       <c r="D42" t="n">
-        <v>0.534937</v>
+        <v>0.426273</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.695064</v>
+        <v>0.694933</v>
       </c>
       <c r="C43" t="n">
-        <v>0.515524</v>
+        <v>0.497388</v>
       </c>
       <c r="D43" t="n">
-        <v>0.515581</v>
+        <v>0.397598</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.673031</v>
+        <v>0.678105</v>
       </c>
       <c r="C44" t="n">
-        <v>0.495641</v>
+        <v>0.481866</v>
       </c>
       <c r="D44" t="n">
-        <v>0.481142</v>
+        <v>0.392284</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.653379</v>
+        <v>0.6626609999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474963</v>
+        <v>0.481494</v>
       </c>
       <c r="D45" t="n">
-        <v>0.480013</v>
+        <v>0.38684</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.646128</v>
+        <v>0.640524</v>
       </c>
       <c r="C46" t="n">
-        <v>0.465526</v>
+        <v>0.455784</v>
       </c>
       <c r="D46" t="n">
-        <v>0.461951</v>
+        <v>0.373945</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.635898</v>
+        <v>0.633815</v>
       </c>
       <c r="C47" t="n">
-        <v>0.441126</v>
+        <v>0.440013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.452452</v>
+        <v>0.362339</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.622626</v>
+        <v>0.623071</v>
       </c>
       <c r="C48" t="n">
-        <v>0.426784</v>
+        <v>0.434183</v>
       </c>
       <c r="D48" t="n">
-        <v>0.42855</v>
+        <v>0.351121</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605952</v>
+        <v>0.605163</v>
       </c>
       <c r="C49" t="n">
-        <v>0.419915</v>
+        <v>0.418451</v>
       </c>
       <c r="D49" t="n">
-        <v>0.428481</v>
+        <v>0.339326</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.589743</v>
+        <v>0.584739</v>
       </c>
       <c r="C50" t="n">
-        <v>0.421395</v>
+        <v>0.406729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.413492</v>
+        <v>0.333123</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.581996</v>
+        <v>0.5786289999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.401425</v>
+        <v>0.401444</v>
       </c>
       <c r="D51" t="n">
-        <v>0.671521</v>
+        <v>0.624526</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.574007</v>
+        <v>0.5657180000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.392122</v>
+        <v>0.393255</v>
       </c>
       <c r="D52" t="n">
-        <v>0.647687</v>
+        <v>0.59756</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.833548</v>
+        <v>0.852844</v>
       </c>
       <c r="C53" t="n">
-        <v>0.684567</v>
+        <v>0.678142</v>
       </c>
       <c r="D53" t="n">
-        <v>0.636315</v>
+        <v>0.596422</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8210769999999999</v>
+        <v>0.828511</v>
       </c>
       <c r="C54" t="n">
-        <v>0.667913</v>
+        <v>0.6795</v>
       </c>
       <c r="D54" t="n">
-        <v>0.608546</v>
+        <v>0.572033</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.808785</v>
+        <v>0.808794</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6463719999999999</v>
+        <v>0.646647</v>
       </c>
       <c r="D55" t="n">
-        <v>0.597872</v>
+        <v>0.55367</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.802674</v>
+        <v>0.78814</v>
       </c>
       <c r="C56" t="n">
-        <v>0.613255</v>
+        <v>0.63156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5670230000000001</v>
+        <v>0.535649</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.786486</v>
+        <v>0.780643</v>
       </c>
       <c r="C57" t="n">
-        <v>0.587824</v>
+        <v>0.600377</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5595830000000001</v>
+        <v>0.518074</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.776211</v>
+        <v>0.765631</v>
       </c>
       <c r="C58" t="n">
-        <v>0.579166</v>
+        <v>0.580483</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5416609999999999</v>
+        <v>0.5018089999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7506080000000001</v>
+        <v>0.744748</v>
       </c>
       <c r="C59" t="n">
-        <v>0.564443</v>
+        <v>0.568828</v>
       </c>
       <c r="D59" t="n">
-        <v>0.524055</v>
+        <v>0.488382</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.74607</v>
+        <v>0.73851</v>
       </c>
       <c r="C60" t="n">
-        <v>0.546266</v>
+        <v>0.566397</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5141829999999999</v>
+        <v>0.479072</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739434</v>
+        <v>0.721963</v>
       </c>
       <c r="C61" t="n">
-        <v>0.529694</v>
+        <v>0.549938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.501418</v>
+        <v>0.471556</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.740169</v>
+        <v>0.721797</v>
       </c>
       <c r="C62" t="n">
-        <v>0.523362</v>
+        <v>0.521392</v>
       </c>
       <c r="D62" t="n">
-        <v>0.481988</v>
+        <v>0.461909</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.690763</v>
+        <v>0.708956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.523015</v>
+        <v>0.519913</v>
       </c>
       <c r="D63" t="n">
-        <v>0.472546</v>
+        <v>0.455453</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.686315</v>
+        <v>0.682953</v>
       </c>
       <c r="C64" t="n">
-        <v>0.498564</v>
+        <v>0.5061870000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460727</v>
+        <v>0.432017</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.681929</v>
+        <v>0.696366</v>
       </c>
       <c r="C65" t="n">
-        <v>0.498948</v>
+        <v>0.495144</v>
       </c>
       <c r="D65" t="n">
-        <v>0.455785</v>
+        <v>0.420641</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.683701</v>
+        <v>0.67906</v>
       </c>
       <c r="C66" t="n">
-        <v>0.495463</v>
+        <v>0.482028</v>
       </c>
       <c r="D66" t="n">
-        <v>0.726969</v>
+        <v>0.714356</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.960191</v>
+        <v>0.95769</v>
       </c>
       <c r="C67" t="n">
-        <v>0.764751</v>
+        <v>0.785555</v>
       </c>
       <c r="D67" t="n">
-        <v>0.708476</v>
+        <v>0.68149</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.922956</v>
+        <v>0.944949</v>
       </c>
       <c r="C68" t="n">
-        <v>0.75256</v>
+        <v>0.757802</v>
       </c>
       <c r="D68" t="n">
-        <v>0.679629</v>
+        <v>0.670332</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.919121</v>
+        <v>0.943031</v>
       </c>
       <c r="C69" t="n">
-        <v>0.736606</v>
+        <v>0.735735</v>
       </c>
       <c r="D69" t="n">
-        <v>0.662358</v>
+        <v>0.650708</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9067</v>
+        <v>0.916772</v>
       </c>
       <c r="C70" t="n">
-        <v>0.709962</v>
+        <v>0.724827</v>
       </c>
       <c r="D70" t="n">
-        <v>0.656338</v>
+        <v>0.6306310000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.888196</v>
+        <v>0.888229</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6966290000000001</v>
+        <v>0.708321</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637078</v>
+        <v>0.612226</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.866941</v>
+        <v>0.881875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.66917</v>
+        <v>0.673853</v>
       </c>
       <c r="D72" t="n">
-        <v>0.616807</v>
+        <v>0.589854</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.854999</v>
+        <v>0.864657</v>
       </c>
       <c r="C73" t="n">
-        <v>0.671795</v>
+        <v>0.682947</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6039600000000001</v>
+        <v>0.57729</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.846272</v>
+        <v>0.858473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.63972</v>
+        <v>0.637769</v>
       </c>
       <c r="D74" t="n">
-        <v>0.57513</v>
+        <v>0.563391</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.842465</v>
+        <v>0.8379180000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.62041</v>
+        <v>0.616907</v>
       </c>
       <c r="D75" t="n">
-        <v>0.555683</v>
+        <v>0.5474020000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.817995</v>
+        <v>0.832055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.611659</v>
+        <v>0.613217</v>
       </c>
       <c r="D76" t="n">
-        <v>0.552048</v>
+        <v>0.538633</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.800431</v>
+        <v>0.805193</v>
       </c>
       <c r="C77" t="n">
-        <v>0.595736</v>
+        <v>0.599014</v>
       </c>
       <c r="D77" t="n">
-        <v>0.538311</v>
+        <v>0.522109</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.795055</v>
+        <v>0.802763</v>
       </c>
       <c r="C78" t="n">
-        <v>0.577562</v>
+        <v>0.578511</v>
       </c>
       <c r="D78" t="n">
-        <v>0.531927</v>
+        <v>0.525034</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.77649</v>
+        <v>0.800678</v>
       </c>
       <c r="C79" t="n">
-        <v>0.568671</v>
+        <v>0.572291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.531929</v>
+        <v>0.506749</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.807168</v>
+        <v>0.781915</v>
       </c>
       <c r="C80" t="n">
-        <v>0.573148</v>
+        <v>0.55929</v>
       </c>
       <c r="D80" t="n">
-        <v>0.853665</v>
+        <v>0.817415</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.11902</v>
+        <v>1.08635</v>
       </c>
       <c r="C81" t="n">
-        <v>0.891042</v>
+        <v>0.887369</v>
       </c>
       <c r="D81" t="n">
-        <v>0.816859</v>
+        <v>0.815971</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0769</v>
+        <v>1.07668</v>
       </c>
       <c r="C82" t="n">
-        <v>0.857711</v>
+        <v>0.870386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.797233</v>
+        <v>0.7735649999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07346</v>
+        <v>1.05579</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8542</v>
+        <v>0.84309</v>
       </c>
       <c r="D83" t="n">
-        <v>0.787925</v>
+        <v>0.773776</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02828</v>
+        <v>1.02885</v>
       </c>
       <c r="C84" t="n">
-        <v>0.833489</v>
+        <v>0.820694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.757074</v>
+        <v>0.757711</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01184</v>
+        <v>1.00931</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8065600000000001</v>
+        <v>0.803776</v>
       </c>
       <c r="D85" t="n">
-        <v>0.739446</v>
+        <v>0.730321</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.015</v>
+        <v>1.00776</v>
       </c>
       <c r="C86" t="n">
-        <v>0.786346</v>
+        <v>0.786121</v>
       </c>
       <c r="D86" t="n">
-        <v>0.722447</v>
+        <v>0.7115050000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.979301</v>
+        <v>0.971126</v>
       </c>
       <c r="C87" t="n">
-        <v>0.752865</v>
+        <v>0.7725880000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.70722</v>
+        <v>0.7048410000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.991936</v>
+        <v>0.961873</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7693449999999999</v>
+        <v>0.744543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.70033</v>
+        <v>0.698755</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.953825</v>
+        <v>0.969747</v>
       </c>
       <c r="C89" t="n">
-        <v>0.736326</v>
+        <v>0.7350370000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.67942</v>
+        <v>0.668997</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.944742</v>
+        <v>0.962968</v>
       </c>
       <c r="C90" t="n">
-        <v>0.721387</v>
+        <v>0.735242</v>
       </c>
       <c r="D90" t="n">
-        <v>0.668566</v>
+        <v>0.658681</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.959742</v>
+        <v>0.9625629999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.712719</v>
+        <v>0.711055</v>
       </c>
       <c r="D91" t="n">
-        <v>0.664726</v>
+        <v>0.6516</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.938182</v>
+        <v>0.9257</v>
       </c>
       <c r="C92" t="n">
-        <v>0.700878</v>
+        <v>0.696116</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6451789999999999</v>
+        <v>0.637946</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.923721</v>
+        <v>0.898477</v>
       </c>
       <c r="C93" t="n">
-        <v>0.673876</v>
+        <v>0.677897</v>
       </c>
       <c r="D93" t="n">
-        <v>0.629987</v>
+        <v>0.6287779999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.907058</v>
+        <v>0.908208</v>
       </c>
       <c r="C94" t="n">
-        <v>0.670596</v>
+        <v>0.677464</v>
       </c>
       <c r="D94" t="n">
-        <v>0.942621</v>
+        <v>0.947149</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22942</v>
+        <v>1.22406</v>
       </c>
       <c r="C95" t="n">
-        <v>0.976603</v>
+        <v>0.985305</v>
       </c>
       <c r="D95" t="n">
-        <v>0.919894</v>
+        <v>0.931959</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.22038</v>
+        <v>1.19544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.987891</v>
+        <v>0.992888</v>
       </c>
       <c r="D96" t="n">
-        <v>0.920362</v>
+        <v>0.9140239999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.16733</v>
+        <v>1.17266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.963067</v>
+        <v>0.980944</v>
       </c>
       <c r="D97" t="n">
-        <v>0.891389</v>
+        <v>0.896514</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.18014</v>
+        <v>1.17596</v>
       </c>
       <c r="C98" t="n">
-        <v>0.961213</v>
+        <v>0.9307609999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.873586</v>
+        <v>0.891293</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.15408</v>
+        <v>1.14336</v>
       </c>
       <c r="C99" t="n">
-        <v>0.930596</v>
+        <v>0.933512</v>
       </c>
       <c r="D99" t="n">
-        <v>0.855583</v>
+        <v>0.846029</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13508</v>
+        <v>1.15996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.923984</v>
+        <v>0.915455</v>
       </c>
       <c r="D100" t="n">
-        <v>0.852949</v>
+        <v>0.84694</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1138</v>
+        <v>1.10561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.89971</v>
+        <v>0.9053060000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.828717</v>
+        <v>0.818781</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11048</v>
+        <v>1.11401</v>
       </c>
       <c r="C102" t="n">
-        <v>0.879365</v>
+        <v>0.897905</v>
       </c>
       <c r="D102" t="n">
-        <v>0.818503</v>
+        <v>0.801011</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09681</v>
+        <v>1.11652</v>
       </c>
       <c r="C103" t="n">
-        <v>0.883745</v>
+        <v>0.89297</v>
       </c>
       <c r="D103" t="n">
-        <v>0.798132</v>
+        <v>0.799752</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08845</v>
+        <v>1.07855</v>
       </c>
       <c r="C104" t="n">
-        <v>0.864394</v>
+        <v>0.886534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.797806</v>
+        <v>0.7935680000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08791</v>
+        <v>1.08928</v>
       </c>
       <c r="C105" t="n">
-        <v>0.864505</v>
+        <v>0.854877</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7752</v>
+        <v>0.783425</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06011</v>
+        <v>1.06177</v>
       </c>
       <c r="C106" t="n">
-        <v>0.836919</v>
+        <v>0.836211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7612679999999999</v>
+        <v>0.765531</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.03734</v>
+        <v>1.04447</v>
       </c>
       <c r="C107" t="n">
-        <v>0.830117</v>
+        <v>0.823147</v>
       </c>
       <c r="D107" t="n">
-        <v>0.758455</v>
+        <v>0.758647</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06072</v>
+        <v>1.04192</v>
       </c>
       <c r="C108" t="n">
-        <v>0.808427</v>
+        <v>0.815155</v>
       </c>
       <c r="D108" t="n">
-        <v>1.0747</v>
+        <v>1.08448</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05911</v>
+        <v>1.06986</v>
       </c>
       <c r="C109" t="n">
-        <v>0.823381</v>
+        <v>0.803492</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08735</v>
+        <v>1.0665</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.34793</v>
+        <v>1.39963</v>
       </c>
       <c r="C110" t="n">
-        <v>1.15185</v>
+        <v>1.12998</v>
       </c>
       <c r="D110" t="n">
-        <v>1.06049</v>
+        <v>1.05666</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3178</v>
+        <v>1.34696</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13129</v>
+        <v>1.13319</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07041</v>
+        <v>1.06831</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30274</v>
+        <v>1.34702</v>
       </c>
       <c r="C112" t="n">
-        <v>1.14301</v>
+        <v>1.1107</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03079</v>
+        <v>1.05565</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.34051</v>
+        <v>1.3142</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10783</v>
+        <v>1.10662</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04499</v>
+        <v>1.01793</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28307</v>
+        <v>1.29975</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08997</v>
+        <v>1.10383</v>
       </c>
       <c r="D114" t="n">
-        <v>1.04216</v>
+        <v>1.00809</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29461</v>
+        <v>1.29873</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07911</v>
+        <v>1.05655</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03473</v>
+        <v>1.01387</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30897</v>
+        <v>1.27111</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08448</v>
+        <v>1.07448</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03876</v>
+        <v>1.03798</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30254</v>
+        <v>1.2959</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08652</v>
+        <v>1.07498</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02884</v>
+        <v>0.9989</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.28088</v>
+        <v>1.3003</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05864</v>
+        <v>1.05639</v>
       </c>
       <c r="D118" t="n">
-        <v>0.983806</v>
+        <v>0.989608</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.24198</v>
+        <v>1.25109</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06617</v>
+        <v>1.07114</v>
       </c>
       <c r="D119" t="n">
-        <v>0.985387</v>
+        <v>0.998343</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2566</v>
+        <v>1.28166</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03951</v>
+        <v>1.05402</v>
       </c>
       <c r="D120" t="n">
-        <v>0.959202</v>
+        <v>0.982494</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26353</v>
+        <v>1.27677</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07536</v>
+        <v>1.05944</v>
       </c>
       <c r="D121" t="n">
-        <v>0.950783</v>
+        <v>0.9663389999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.26049</v>
+        <v>1.27739</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03911</v>
+        <v>1.0256</v>
       </c>
       <c r="D122" t="n">
-        <v>0.973752</v>
+        <v>0.973411</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.26126</v>
+        <v>1.25294</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02109</v>
+        <v>1.03097</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29622</v>
+        <v>1.32017</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.55261</v>
+        <v>1.57764</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35467</v>
+        <v>1.35312</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33197</v>
+        <v>1.31801</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.55838</v>
+        <v>1.56368</v>
       </c>
       <c r="C125" t="n">
-        <v>1.37814</v>
+        <v>1.35258</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31267</v>
+        <v>1.31177</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.55689</v>
+        <v>1.56751</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36941</v>
+        <v>1.36498</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30838</v>
+        <v>1.33566</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.54169</v>
+        <v>1.55871</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37517</v>
+        <v>1.37231</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32014</v>
+        <v>1.30705</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55262</v>
+        <v>1.54676</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36513</v>
+        <v>1.34495</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31234</v>
+        <v>1.32958</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.53459</v>
+        <v>1.55239</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36019</v>
+        <v>1.37875</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30217</v>
+        <v>1.32057</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55587</v>
+        <v>1.52446</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37012</v>
+        <v>1.37038</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34025</v>
+        <v>1.30198</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.5461</v>
+        <v>1.5575</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35688</v>
+        <v>1.35317</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31109</v>
+        <v>1.31326</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54908</v>
+        <v>1.55312</v>
       </c>
       <c r="C132" t="n">
-        <v>1.35841</v>
+        <v>1.3482</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30617</v>
+        <v>1.32564</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.54454</v>
+        <v>1.55629</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37277</v>
+        <v>1.37467</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29866</v>
+        <v>1.30764</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54804</v>
+        <v>1.53498</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35005</v>
+        <v>1.35465</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29735</v>
+        <v>1.29684</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54097</v>
+        <v>1.54446</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35291</v>
+        <v>1.36545</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32017</v>
+        <v>1.32204</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.56203</v>
+        <v>1.55718</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35691</v>
+        <v>1.3446</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31171</v>
+        <v>1.30725</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.55988</v>
+        <v>1.54448</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36916</v>
+        <v>1.35795</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64615</v>
+        <v>1.64793</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8669</v>
+        <v>1.88417</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66824</v>
+        <v>1.66023</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66153</v>
+        <v>1.64281</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86586</v>
+        <v>1.86344</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67777</v>
+        <v>1.68548</v>
       </c>
       <c r="D139" t="n">
-        <v>1.63836</v>
+        <v>1.66338</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87247</v>
+        <v>1.85277</v>
       </c>
       <c r="C140" t="n">
-        <v>1.69839</v>
+        <v>1.68052</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65663</v>
+        <v>1.65355</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.86114</v>
+        <v>1.85438</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68997</v>
+        <v>1.6876</v>
       </c>
       <c r="D141" t="n">
-        <v>1.6576</v>
+        <v>1.68125</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85988</v>
+        <v>1.86225</v>
       </c>
       <c r="C142" t="n">
-        <v>1.68317</v>
+        <v>1.69754</v>
       </c>
       <c r="D142" t="n">
-        <v>1.67987</v>
+        <v>1.68383</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84523</v>
+        <v>1.85502</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68909</v>
+        <v>1.69809</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66221</v>
+        <v>1.66587</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5175110000000001</v>
+        <v>0.553034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.261846</v>
+        <v>0.255798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249846</v>
+        <v>0.241032</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.431081</v>
+        <v>0.43418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245328</v>
+        <v>0.249265</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241351</v>
+        <v>0.238921</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.441786</v>
+        <v>0.440438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238181</v>
+        <v>0.244566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229926</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428577</v>
+        <v>0.424996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238191</v>
+        <v>0.233404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.224898</v>
+        <v>0.21941</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.416941</v>
+        <v>0.415908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226654</v>
+        <v>0.228941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217322</v>
+        <v>0.221022</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.406317</v>
+        <v>0.412545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222801</v>
+        <v>0.223112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219527</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.407325</v>
+        <v>0.414762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222314</v>
+        <v>0.216063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.211982</v>
+        <v>0.209563</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.405638</v>
+        <v>0.40226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2154</v>
+        <v>0.213673</v>
       </c>
       <c r="D9" t="n">
-        <v>0.303068</v>
+        <v>0.302636</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.491771</v>
+        <v>0.493022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.29098</v>
+        <v>0.30149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.291752</v>
+        <v>0.299598</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.485983</v>
+        <v>0.490724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299017</v>
+        <v>0.303069</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29846</v>
+        <v>0.288606</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.48929</v>
+        <v>0.490989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.295035</v>
+        <v>0.296749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.284957</v>
+        <v>0.282713</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.488982</v>
+        <v>0.47891</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281011</v>
+        <v>0.288743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.27544</v>
+        <v>0.278617</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.475164</v>
+        <v>0.480215</v>
       </c>
       <c r="C14" t="n">
-        <v>0.271332</v>
+        <v>0.275354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262373</v>
+        <v>0.267332</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.466867</v>
+        <v>0.465229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.265384</v>
+        <v>0.270436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.261217</v>
+        <v>0.257189</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.463245</v>
+        <v>0.446446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.259173</v>
+        <v>0.262198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247979</v>
+        <v>0.250089</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.446213</v>
+        <v>0.442225</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255575</v>
+        <v>0.247423</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245857</v>
+        <v>0.247349</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.441251</v>
+        <v>0.435978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.243503</v>
+        <v>0.248432</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237329</v>
+        <v>0.234104</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4235</v>
+        <v>0.43827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242333</v>
+        <v>0.245417</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233075</v>
+        <v>0.23098</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.424281</v>
+        <v>0.420573</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238603</v>
+        <v>0.238571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2341</v>
+        <v>0.232254</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.422403</v>
+        <v>0.420924</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238135</v>
+        <v>0.236651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.224102</v>
+        <v>0.225742</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40967</v>
+        <v>0.418789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232636</v>
+        <v>0.231594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.223458</v>
+        <v>0.221985</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409995</v>
+        <v>0.421633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.218394</v>
+        <v>0.228624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315141</v>
+        <v>0.5630039999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.66103</v>
+        <v>0.659345</v>
       </c>
       <c r="C24" t="n">
-        <v>0.504322</v>
+        <v>0.474632</v>
       </c>
       <c r="D24" t="n">
-        <v>0.306284</v>
+        <v>0.539514</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6513060000000001</v>
+        <v>0.638274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.468272</v>
+        <v>0.458655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.306646</v>
+        <v>0.511804</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.635747</v>
+        <v>0.642966</v>
       </c>
       <c r="C26" t="n">
-        <v>0.448277</v>
+        <v>0.447289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.293359</v>
+        <v>0.498945</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.62197</v>
+        <v>0.62502</v>
       </c>
       <c r="C27" t="n">
-        <v>0.429607</v>
+        <v>0.434693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.28623</v>
+        <v>0.47908</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6199789999999999</v>
+        <v>0.600891</v>
       </c>
       <c r="C28" t="n">
-        <v>0.417478</v>
+        <v>0.425675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.276321</v>
+        <v>0.476902</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579744</v>
+        <v>0.5978520000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.40993</v>
+        <v>0.407183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.272344</v>
+        <v>0.447343</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.586984</v>
+        <v>0.582788</v>
       </c>
       <c r="C30" t="n">
-        <v>0.392064</v>
+        <v>0.38971</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261613</v>
+        <v>0.432573</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.55737</v>
+        <v>0.559568</v>
       </c>
       <c r="C31" t="n">
-        <v>0.385749</v>
+        <v>0.388799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.257335</v>
+        <v>0.416663</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.567738</v>
+        <v>0.559885</v>
       </c>
       <c r="C32" t="n">
-        <v>0.374668</v>
+        <v>0.3741</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256621</v>
+        <v>0.411074</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539587</v>
+        <v>0.544277</v>
       </c>
       <c r="C33" t="n">
-        <v>0.354014</v>
+        <v>0.365246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247619</v>
+        <v>0.392153</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5402940000000001</v>
+        <v>0.53898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.343981</v>
+        <v>0.348373</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241066</v>
+        <v>0.386473</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.537151</v>
+        <v>0.533569</v>
       </c>
       <c r="C35" t="n">
-        <v>0.340594</v>
+        <v>0.341238</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238167</v>
+        <v>0.369152</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.528787</v>
+        <v>0.516632</v>
       </c>
       <c r="C36" t="n">
-        <v>0.33101</v>
+        <v>0.339194</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234297</v>
+        <v>0.375365</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.508985</v>
+        <v>0.521119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.323044</v>
+        <v>0.327959</v>
       </c>
       <c r="D37" t="n">
-        <v>0.48774</v>
+        <v>0.627304</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.789106</v>
+        <v>0.788343</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6031260000000001</v>
+        <v>0.592522</v>
       </c>
       <c r="D38" t="n">
-        <v>0.472863</v>
+        <v>0.600454</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.762195</v>
+        <v>0.7609669999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.565433</v>
+        <v>0.576238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.465319</v>
+        <v>0.584745</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.764213</v>
+        <v>0.737598</v>
       </c>
       <c r="C40" t="n">
-        <v>0.558678</v>
+        <v>0.558609</v>
       </c>
       <c r="D40" t="n">
-        <v>0.439329</v>
+        <v>0.5606</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.721817</v>
+        <v>0.73104</v>
       </c>
       <c r="C41" t="n">
-        <v>0.529848</v>
+        <v>0.541733</v>
       </c>
       <c r="D41" t="n">
-        <v>0.423695</v>
+        <v>0.5480930000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.70208</v>
+        <v>0.723729</v>
       </c>
       <c r="C42" t="n">
-        <v>0.516668</v>
+        <v>0.521868</v>
       </c>
       <c r="D42" t="n">
-        <v>0.426273</v>
+        <v>0.528071</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.694933</v>
+        <v>0.7069</v>
       </c>
       <c r="C43" t="n">
-        <v>0.497388</v>
+        <v>0.510253</v>
       </c>
       <c r="D43" t="n">
-        <v>0.397598</v>
+        <v>0.515177</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678105</v>
+        <v>0.678941</v>
       </c>
       <c r="C44" t="n">
-        <v>0.481866</v>
+        <v>0.484839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.392284</v>
+        <v>0.492977</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6626609999999999</v>
+        <v>0.669057</v>
       </c>
       <c r="C45" t="n">
-        <v>0.481494</v>
+        <v>0.472775</v>
       </c>
       <c r="D45" t="n">
-        <v>0.38684</v>
+        <v>0.490037</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.640524</v>
+        <v>0.651552</v>
       </c>
       <c r="C46" t="n">
-        <v>0.455784</v>
+        <v>0.465277</v>
       </c>
       <c r="D46" t="n">
-        <v>0.373945</v>
+        <v>0.463425</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.633815</v>
+        <v>0.6455689999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.440013</v>
+        <v>0.445658</v>
       </c>
       <c r="D47" t="n">
-        <v>0.362339</v>
+        <v>0.443847</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623071</v>
+        <v>0.616115</v>
       </c>
       <c r="C48" t="n">
-        <v>0.434183</v>
+        <v>0.429882</v>
       </c>
       <c r="D48" t="n">
-        <v>0.351121</v>
+        <v>0.429705</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605163</v>
+        <v>0.610257</v>
       </c>
       <c r="C49" t="n">
-        <v>0.418451</v>
+        <v>0.42582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.339326</v>
+        <v>0.422465</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.584739</v>
+        <v>0.604826</v>
       </c>
       <c r="C50" t="n">
-        <v>0.406729</v>
+        <v>0.413984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.333123</v>
+        <v>0.41057</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5786289999999999</v>
+        <v>0.602939</v>
       </c>
       <c r="C51" t="n">
-        <v>0.401444</v>
+        <v>0.39862</v>
       </c>
       <c r="D51" t="n">
-        <v>0.624526</v>
+        <v>0.683825</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5657180000000001</v>
+        <v>0.576303</v>
       </c>
       <c r="C52" t="n">
-        <v>0.393255</v>
+        <v>0.394323</v>
       </c>
       <c r="D52" t="n">
-        <v>0.59756</v>
+        <v>0.651591</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.852844</v>
+        <v>0.828448</v>
       </c>
       <c r="C53" t="n">
-        <v>0.678142</v>
+        <v>0.664961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.596422</v>
+        <v>0.624067</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828511</v>
+        <v>0.828974</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6795</v>
+        <v>0.652818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.572033</v>
+        <v>0.61854</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.808794</v>
+        <v>0.82642</v>
       </c>
       <c r="C55" t="n">
-        <v>0.646647</v>
+        <v>0.628119</v>
       </c>
       <c r="D55" t="n">
-        <v>0.55367</v>
+        <v>0.595625</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.78814</v>
+        <v>0.796233</v>
       </c>
       <c r="C56" t="n">
-        <v>0.63156</v>
+        <v>0.602351</v>
       </c>
       <c r="D56" t="n">
-        <v>0.535649</v>
+        <v>0.565864</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780643</v>
+        <v>0.7749239999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.600377</v>
+        <v>0.59799</v>
       </c>
       <c r="D57" t="n">
-        <v>0.518074</v>
+        <v>0.559799</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.765631</v>
+        <v>0.7928770000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.580483</v>
+        <v>0.577002</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5018089999999999</v>
+        <v>0.537014</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.744748</v>
+        <v>0.75479</v>
       </c>
       <c r="C59" t="n">
-        <v>0.568828</v>
+        <v>0.558148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.488382</v>
+        <v>0.516651</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.73851</v>
+        <v>0.730233</v>
       </c>
       <c r="C60" t="n">
-        <v>0.566397</v>
+        <v>0.562311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.479072</v>
+        <v>0.512821</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.721963</v>
+        <v>0.724951</v>
       </c>
       <c r="C61" t="n">
-        <v>0.549938</v>
+        <v>0.543489</v>
       </c>
       <c r="D61" t="n">
-        <v>0.471556</v>
+        <v>0.511445</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.721797</v>
+        <v>0.710902</v>
       </c>
       <c r="C62" t="n">
-        <v>0.521392</v>
+        <v>0.540662</v>
       </c>
       <c r="D62" t="n">
-        <v>0.461909</v>
+        <v>0.488098</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.708956</v>
+        <v>0.710681</v>
       </c>
       <c r="C63" t="n">
-        <v>0.519913</v>
+        <v>0.5161829999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.455453</v>
+        <v>0.466225</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.682953</v>
+        <v>0.686505</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5061870000000001</v>
+        <v>0.504456</v>
       </c>
       <c r="D64" t="n">
-        <v>0.432017</v>
+        <v>0.456152</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.696366</v>
+        <v>0.697288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.495144</v>
+        <v>0.485921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.420641</v>
+        <v>0.449298</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.67906</v>
+        <v>0.659658</v>
       </c>
       <c r="C66" t="n">
-        <v>0.482028</v>
+        <v>0.485787</v>
       </c>
       <c r="D66" t="n">
-        <v>0.714356</v>
+        <v>0.73315</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.95769</v>
+        <v>0.958226</v>
       </c>
       <c r="C67" t="n">
-        <v>0.785555</v>
+        <v>0.77782</v>
       </c>
       <c r="D67" t="n">
-        <v>0.68149</v>
+        <v>0.712664</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.944949</v>
+        <v>0.9486830000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.757802</v>
+        <v>0.7381</v>
       </c>
       <c r="D68" t="n">
-        <v>0.670332</v>
+        <v>0.675844</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.943031</v>
+        <v>0.912772</v>
       </c>
       <c r="C69" t="n">
-        <v>0.735735</v>
+        <v>0.721377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.650708</v>
+        <v>0.695305</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.916772</v>
+        <v>0.922887</v>
       </c>
       <c r="C70" t="n">
-        <v>0.724827</v>
+        <v>0.72577</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.655617</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.888229</v>
+        <v>0.911788</v>
       </c>
       <c r="C71" t="n">
-        <v>0.708321</v>
+        <v>0.7047369999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.612226</v>
+        <v>0.626194</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.881875</v>
+        <v>0.898508</v>
       </c>
       <c r="C72" t="n">
-        <v>0.673853</v>
+        <v>0.677885</v>
       </c>
       <c r="D72" t="n">
-        <v>0.589854</v>
+        <v>0.625408</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.864657</v>
+        <v>0.864748</v>
       </c>
       <c r="C73" t="n">
-        <v>0.682947</v>
+        <v>0.651457</v>
       </c>
       <c r="D73" t="n">
-        <v>0.57729</v>
+        <v>0.59529</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.858473</v>
+        <v>0.851024</v>
       </c>
       <c r="C74" t="n">
-        <v>0.637769</v>
+        <v>0.632972</v>
       </c>
       <c r="D74" t="n">
-        <v>0.563391</v>
+        <v>0.578039</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8379180000000001</v>
+        <v>0.839735</v>
       </c>
       <c r="C75" t="n">
-        <v>0.616907</v>
+        <v>0.623461</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5474020000000001</v>
+        <v>0.572053</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.832055</v>
+        <v>0.818392</v>
       </c>
       <c r="C76" t="n">
-        <v>0.613217</v>
+        <v>0.61335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.538633</v>
+        <v>0.557786</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.805193</v>
+        <v>0.828685</v>
       </c>
       <c r="C77" t="n">
-        <v>0.599014</v>
+        <v>0.588387</v>
       </c>
       <c r="D77" t="n">
-        <v>0.522109</v>
+        <v>0.5318349999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.802763</v>
+        <v>0.801827</v>
       </c>
       <c r="C78" t="n">
-        <v>0.578511</v>
+        <v>0.603308</v>
       </c>
       <c r="D78" t="n">
-        <v>0.525034</v>
+        <v>0.535717</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.800678</v>
+        <v>0.805246</v>
       </c>
       <c r="C79" t="n">
-        <v>0.572291</v>
+        <v>0.58256</v>
       </c>
       <c r="D79" t="n">
-        <v>0.506749</v>
+        <v>0.533726</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.781915</v>
+        <v>0.779955</v>
       </c>
       <c r="C80" t="n">
-        <v>0.55929</v>
+        <v>0.5757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.817415</v>
+        <v>0.843286</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08635</v>
+        <v>1.10599</v>
       </c>
       <c r="C81" t="n">
-        <v>0.887369</v>
+        <v>0.8886540000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.815971</v>
+        <v>0.81675</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07668</v>
+        <v>1.06128</v>
       </c>
       <c r="C82" t="n">
-        <v>0.870386</v>
+        <v>0.878154</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7735649999999999</v>
+        <v>0.803844</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.05579</v>
+        <v>1.06452</v>
       </c>
       <c r="C83" t="n">
-        <v>0.84309</v>
+        <v>0.838526</v>
       </c>
       <c r="D83" t="n">
-        <v>0.773776</v>
+        <v>0.787739</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02885</v>
+        <v>1.03295</v>
       </c>
       <c r="C84" t="n">
-        <v>0.820694</v>
+        <v>0.819309</v>
       </c>
       <c r="D84" t="n">
-        <v>0.757711</v>
+        <v>0.7758350000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00931</v>
+        <v>1.04211</v>
       </c>
       <c r="C85" t="n">
-        <v>0.803776</v>
+        <v>0.795868</v>
       </c>
       <c r="D85" t="n">
-        <v>0.730321</v>
+        <v>0.7433920000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00776</v>
+        <v>1.00206</v>
       </c>
       <c r="C86" t="n">
-        <v>0.786121</v>
+        <v>0.811696</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7115050000000001</v>
+        <v>0.72065</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.971126</v>
+        <v>0.979527</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7725880000000001</v>
+        <v>0.7712599999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7048410000000001</v>
+        <v>0.709595</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.961873</v>
+        <v>1.01237</v>
       </c>
       <c r="C88" t="n">
-        <v>0.744543</v>
+        <v>0.778091</v>
       </c>
       <c r="D88" t="n">
-        <v>0.698755</v>
+        <v>0.70551</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.969747</v>
+        <v>0.963878</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7350370000000001</v>
+        <v>0.753288</v>
       </c>
       <c r="D89" t="n">
-        <v>0.668997</v>
+        <v>0.685974</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.962968</v>
+        <v>0.993527</v>
       </c>
       <c r="C90" t="n">
-        <v>0.735242</v>
+        <v>0.7278019999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.658681</v>
+        <v>0.668714</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9625629999999999</v>
+        <v>0.952663</v>
       </c>
       <c r="C91" t="n">
-        <v>0.711055</v>
+        <v>0.706276</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6516</v>
+        <v>0.652651</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9257</v>
+        <v>0.923844</v>
       </c>
       <c r="C92" t="n">
-        <v>0.696116</v>
+        <v>0.711564</v>
       </c>
       <c r="D92" t="n">
-        <v>0.637946</v>
+        <v>0.629642</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.898477</v>
+        <v>0.915787</v>
       </c>
       <c r="C93" t="n">
-        <v>0.677897</v>
+        <v>0.6855250000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6287779999999999</v>
+        <v>0.629483</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.908208</v>
+        <v>0.898214</v>
       </c>
       <c r="C94" t="n">
-        <v>0.677464</v>
+        <v>0.67389</v>
       </c>
       <c r="D94" t="n">
-        <v>0.947149</v>
+        <v>0.932165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.22406</v>
+        <v>1.23217</v>
       </c>
       <c r="C95" t="n">
-        <v>0.985305</v>
+        <v>1.0024</v>
       </c>
       <c r="D95" t="n">
-        <v>0.931959</v>
+        <v>0.921376</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19544</v>
+        <v>1.20451</v>
       </c>
       <c r="C96" t="n">
-        <v>0.992888</v>
+        <v>0.963374</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9140239999999999</v>
+        <v>0.924094</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17266</v>
+        <v>1.18727</v>
       </c>
       <c r="C97" t="n">
-        <v>0.980944</v>
+        <v>0.975527</v>
       </c>
       <c r="D97" t="n">
-        <v>0.896514</v>
+        <v>0.898091</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17596</v>
+        <v>1.19627</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9307609999999999</v>
+        <v>0.941061</v>
       </c>
       <c r="D98" t="n">
-        <v>0.891293</v>
+        <v>0.873874</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14336</v>
+        <v>1.17302</v>
       </c>
       <c r="C99" t="n">
-        <v>0.933512</v>
+        <v>0.948986</v>
       </c>
       <c r="D99" t="n">
-        <v>0.846029</v>
+        <v>0.854289</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.15996</v>
+        <v>1.12971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.915455</v>
+        <v>0.931909</v>
       </c>
       <c r="D100" t="n">
-        <v>0.84694</v>
+        <v>0.860081</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10561</v>
+        <v>1.14566</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9053060000000001</v>
+        <v>0.911931</v>
       </c>
       <c r="D101" t="n">
-        <v>0.818781</v>
+        <v>0.827448</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11401</v>
+        <v>1.0949</v>
       </c>
       <c r="C102" t="n">
-        <v>0.897905</v>
+        <v>0.885367</v>
       </c>
       <c r="D102" t="n">
-        <v>0.801011</v>
+        <v>0.815876</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11652</v>
+        <v>1.09682</v>
       </c>
       <c r="C103" t="n">
-        <v>0.89297</v>
+        <v>0.881593</v>
       </c>
       <c r="D103" t="n">
-        <v>0.799752</v>
+        <v>0.798427</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07855</v>
+        <v>1.08992</v>
       </c>
       <c r="C104" t="n">
-        <v>0.886534</v>
+        <v>0.861434</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7935680000000001</v>
+        <v>0.788219</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08928</v>
+        <v>1.07304</v>
       </c>
       <c r="C105" t="n">
-        <v>0.854877</v>
+        <v>0.849033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.783425</v>
+        <v>0.782375</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06177</v>
+        <v>1.0728</v>
       </c>
       <c r="C106" t="n">
-        <v>0.836211</v>
+        <v>0.836467</v>
       </c>
       <c r="D106" t="n">
-        <v>0.765531</v>
+        <v>0.7687889999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04447</v>
+        <v>1.05039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.823147</v>
+        <v>0.816672</v>
       </c>
       <c r="D107" t="n">
-        <v>0.758647</v>
+        <v>0.751414</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04192</v>
+        <v>1.07185</v>
       </c>
       <c r="C108" t="n">
-        <v>0.815155</v>
+        <v>0.821186</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08448</v>
+        <v>1.08864</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06986</v>
+        <v>1.02648</v>
       </c>
       <c r="C109" t="n">
-        <v>0.803492</v>
+        <v>0.80554</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0665</v>
+        <v>1.08399</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39963</v>
+        <v>1.3489</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12998</v>
+        <v>1.13903</v>
       </c>
       <c r="D110" t="n">
-        <v>1.05666</v>
+        <v>1.08532</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34696</v>
+        <v>1.32034</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13319</v>
+        <v>1.11889</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06831</v>
+        <v>1.05719</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34702</v>
+        <v>1.32357</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1107</v>
+        <v>1.15247</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05565</v>
+        <v>1.04539</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3142</v>
+        <v>1.31744</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10662</v>
+        <v>1.09569</v>
       </c>
       <c r="D113" t="n">
-        <v>1.01793</v>
+        <v>1.04805</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29975</v>
+        <v>1.30593</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10383</v>
+        <v>1.1181</v>
       </c>
       <c r="D114" t="n">
-        <v>1.00809</v>
+        <v>1.04101</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29873</v>
+        <v>1.28981</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05655</v>
+        <v>1.08462</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01387</v>
+        <v>1.02176</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.27111</v>
+        <v>1.26816</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07448</v>
+        <v>1.09867</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03798</v>
+        <v>0.995187</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.2959</v>
+        <v>1.26096</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07498</v>
+        <v>1.06534</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9989</v>
+        <v>1.00741</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.3003</v>
+        <v>1.27324</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05639</v>
+        <v>1.07732</v>
       </c>
       <c r="D118" t="n">
-        <v>0.989608</v>
+        <v>1.00391</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25109</v>
+        <v>1.2768</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07114</v>
+        <v>1.0546</v>
       </c>
       <c r="D119" t="n">
-        <v>0.998343</v>
+        <v>1.00353</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.28166</v>
+        <v>1.27927</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05402</v>
+        <v>1.03691</v>
       </c>
       <c r="D120" t="n">
-        <v>0.982494</v>
+        <v>0.995684</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.27677</v>
+        <v>1.26979</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05944</v>
+        <v>1.04545</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9663389999999999</v>
+        <v>0.962241</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.27739</v>
+        <v>1.24712</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0256</v>
+        <v>1.06111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.973411</v>
+        <v>0.9836819999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.25294</v>
+        <v>1.26837</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03097</v>
+        <v>1.03564</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32017</v>
+        <v>1.3316</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.57764</v>
+        <v>1.6053</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35312</v>
+        <v>1.35917</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31801</v>
+        <v>1.29707</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.56368</v>
+        <v>1.56506</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35258</v>
+        <v>1.38282</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31177</v>
+        <v>1.29847</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56751</v>
+        <v>1.5509</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36498</v>
+        <v>1.34602</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33566</v>
+        <v>1.31218</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55871</v>
+        <v>1.586</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37231</v>
+        <v>1.35362</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30705</v>
+        <v>1.31069</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54676</v>
+        <v>1.56436</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34495</v>
+        <v>1.35738</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32958</v>
+        <v>1.31519</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55239</v>
+        <v>1.56216</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37875</v>
+        <v>1.36851</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32057</v>
+        <v>1.31874</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.52446</v>
+        <v>1.55339</v>
       </c>
       <c r="C130" t="n">
-        <v>1.37038</v>
+        <v>1.375</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30198</v>
+        <v>1.30617</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.5575</v>
+        <v>1.54451</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35317</v>
+        <v>1.35449</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31326</v>
+        <v>1.32883</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.55312</v>
+        <v>1.54891</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3482</v>
+        <v>1.37528</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32564</v>
+        <v>1.2991</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55629</v>
+        <v>1.54782</v>
       </c>
       <c r="C133" t="n">
-        <v>1.37467</v>
+        <v>1.3566</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30764</v>
+        <v>1.30935</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53498</v>
+        <v>1.55021</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35465</v>
+        <v>1.34242</v>
       </c>
       <c r="D134" t="n">
-        <v>1.29684</v>
+        <v>1.28306</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54446</v>
+        <v>1.55017</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36545</v>
+        <v>1.34826</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32204</v>
+        <v>1.31073</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.55718</v>
+        <v>1.53482</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3446</v>
+        <v>1.35689</v>
       </c>
       <c r="D136" t="n">
-        <v>1.30725</v>
+        <v>1.30075</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54448</v>
+        <v>1.5628</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35795</v>
+        <v>1.35057</v>
       </c>
       <c r="D137" t="n">
-        <v>1.64793</v>
+        <v>1.66476</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.88417</v>
+        <v>1.89085</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66023</v>
+        <v>1.67466</v>
       </c>
       <c r="D138" t="n">
-        <v>1.64281</v>
+        <v>1.66714</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.86344</v>
+        <v>1.87829</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68548</v>
+        <v>1.67134</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66338</v>
+        <v>1.6706</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85277</v>
+        <v>1.87129</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68052</v>
+        <v>1.65913</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65355</v>
+        <v>1.6389</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85438</v>
+        <v>1.85081</v>
       </c>
       <c r="C141" t="n">
-        <v>1.6876</v>
+        <v>1.67545</v>
       </c>
       <c r="D141" t="n">
-        <v>1.68125</v>
+        <v>1.68659</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.86225</v>
+        <v>1.84228</v>
       </c>
       <c r="C142" t="n">
-        <v>1.69754</v>
+        <v>1.70302</v>
       </c>
       <c r="D142" t="n">
-        <v>1.68383</v>
+        <v>1.66752</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85502</v>
+        <v>1.84889</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69809</v>
+        <v>1.67302</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66587</v>
+        <v>1.67146</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.553034</v>
+        <v>0.528096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255798</v>
+        <v>0.250616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.241032</v>
+        <v>0.256483</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.43418</v>
+        <v>0.429271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.249265</v>
+        <v>0.23962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238921</v>
+        <v>0.243339</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.440438</v>
+        <v>0.419713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244566</v>
+        <v>0.234126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22876</v>
+        <v>0.246277</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424996</v>
+        <v>0.44281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233404</v>
+        <v>0.239061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21941</v>
+        <v>0.247022</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.415908</v>
+        <v>0.422837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228941</v>
+        <v>0.227289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221022</v>
+        <v>0.240306</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.412545</v>
+        <v>0.421399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223112</v>
+        <v>0.231113</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2152</v>
+        <v>0.232124</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414762</v>
+        <v>0.416158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.216063</v>
+        <v>0.223748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209563</v>
+        <v>0.236337</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.40226</v>
+        <v>0.403389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213673</v>
+        <v>0.217585</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302636</v>
+        <v>0.23716</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.493022</v>
+        <v>0.494788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.30149</v>
+        <v>0.312677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.299598</v>
+        <v>0.326835</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.490724</v>
+        <v>0.470716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.303069</v>
+        <v>0.298861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.288606</v>
+        <v>0.316205</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.490989</v>
+        <v>0.478768</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296749</v>
+        <v>0.293721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.282713</v>
+        <v>0.304635</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.47891</v>
+        <v>0.470965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.288743</v>
+        <v>0.282052</v>
       </c>
       <c r="D13" t="n">
-        <v>0.278617</v>
+        <v>0.293747</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.480215</v>
+        <v>0.455655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.275354</v>
+        <v>0.269617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.267332</v>
+        <v>0.287423</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.465229</v>
+        <v>0.449046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270436</v>
+        <v>0.270191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.257189</v>
+        <v>0.277809</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446446</v>
+        <v>0.441554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.262198</v>
+        <v>0.264275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250089</v>
+        <v>0.273543</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.442225</v>
+        <v>0.443433</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247423</v>
+        <v>0.254744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247349</v>
+        <v>0.264197</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.435978</v>
+        <v>0.428148</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248432</v>
+        <v>0.251413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.234104</v>
+        <v>0.260636</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43827</v>
+        <v>0.423546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245417</v>
+        <v>0.242446</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23098</v>
+        <v>0.249643</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.420573</v>
+        <v>0.412232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238571</v>
+        <v>0.241503</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232254</v>
+        <v>0.247575</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.420924</v>
+        <v>0.412009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236651</v>
+        <v>0.231585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.225742</v>
+        <v>0.240263</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418789</v>
+        <v>0.417533</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231594</v>
+        <v>0.235478</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221985</v>
+        <v>0.241878</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421633</v>
+        <v>0.408352</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228624</v>
+        <v>0.230578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5630039999999999</v>
+        <v>0.241676</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.659345</v>
+        <v>0.649515</v>
       </c>
       <c r="C24" t="n">
-        <v>0.474632</v>
+        <v>0.475198</v>
       </c>
       <c r="D24" t="n">
-        <v>0.539514</v>
+        <v>0.48768</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.638274</v>
+        <v>0.644744</v>
       </c>
       <c r="C25" t="n">
-        <v>0.458655</v>
+        <v>0.463516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.511804</v>
+        <v>0.47632</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.642966</v>
+        <v>0.62903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.447289</v>
+        <v>0.442509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.498945</v>
+        <v>0.46139</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.62502</v>
+        <v>0.610546</v>
       </c>
       <c r="C27" t="n">
-        <v>0.434693</v>
+        <v>0.435696</v>
       </c>
       <c r="D27" t="n">
-        <v>0.47908</v>
+        <v>0.443373</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.600891</v>
+        <v>0.595323</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425675</v>
+        <v>0.420417</v>
       </c>
       <c r="D28" t="n">
-        <v>0.476902</v>
+        <v>0.426262</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5978520000000001</v>
+        <v>0.584207</v>
       </c>
       <c r="C29" t="n">
-        <v>0.407183</v>
+        <v>0.397898</v>
       </c>
       <c r="D29" t="n">
-        <v>0.447343</v>
+        <v>0.420016</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.582788</v>
+        <v>0.586513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.38971</v>
+        <v>0.390534</v>
       </c>
       <c r="D30" t="n">
-        <v>0.432573</v>
+        <v>0.405753</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.559568</v>
+        <v>0.564407</v>
       </c>
       <c r="C31" t="n">
-        <v>0.388799</v>
+        <v>0.386745</v>
       </c>
       <c r="D31" t="n">
-        <v>0.416663</v>
+        <v>0.397677</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.559885</v>
+        <v>0.548836</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3741</v>
+        <v>0.376327</v>
       </c>
       <c r="D32" t="n">
-        <v>0.411074</v>
+        <v>0.381824</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544277</v>
+        <v>0.552557</v>
       </c>
       <c r="C33" t="n">
-        <v>0.365246</v>
+        <v>0.362489</v>
       </c>
       <c r="D33" t="n">
-        <v>0.392153</v>
+        <v>0.369207</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.53898</v>
+        <v>0.542413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.348373</v>
+        <v>0.356642</v>
       </c>
       <c r="D34" t="n">
-        <v>0.386473</v>
+        <v>0.357121</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.533569</v>
+        <v>0.520981</v>
       </c>
       <c r="C35" t="n">
-        <v>0.341238</v>
+        <v>0.343138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369152</v>
+        <v>0.353324</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.516632</v>
+        <v>0.510325</v>
       </c>
       <c r="C36" t="n">
-        <v>0.339194</v>
+        <v>0.32889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.375365</v>
+        <v>0.345005</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.521119</v>
+        <v>0.5054920000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.327959</v>
+        <v>0.332334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.627304</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.788343</v>
+        <v>0.765367</v>
       </c>
       <c r="C38" t="n">
-        <v>0.592522</v>
+        <v>0.600499</v>
       </c>
       <c r="D38" t="n">
-        <v>0.600454</v>
+        <v>0.606214</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7609669999999999</v>
+        <v>0.746924</v>
       </c>
       <c r="C39" t="n">
-        <v>0.576238</v>
+        <v>0.575909</v>
       </c>
       <c r="D39" t="n">
-        <v>0.584745</v>
+        <v>0.572672</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.737598</v>
+        <v>0.729196</v>
       </c>
       <c r="C40" t="n">
-        <v>0.558609</v>
+        <v>0.56309</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5606</v>
+        <v>0.551122</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.73104</v>
+        <v>0.715817</v>
       </c>
       <c r="C41" t="n">
-        <v>0.541733</v>
+        <v>0.547598</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5480930000000001</v>
+        <v>0.541194</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.723729</v>
+        <v>0.705963</v>
       </c>
       <c r="C42" t="n">
-        <v>0.521868</v>
+        <v>0.5132949999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.528071</v>
+        <v>0.5209589999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7069</v>
+        <v>0.68177</v>
       </c>
       <c r="C43" t="n">
-        <v>0.510253</v>
+        <v>0.507405</v>
       </c>
       <c r="D43" t="n">
-        <v>0.515177</v>
+        <v>0.5056310000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678941</v>
+        <v>0.660012</v>
       </c>
       <c r="C44" t="n">
-        <v>0.484839</v>
+        <v>0.495763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.492977</v>
+        <v>0.497934</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669057</v>
+        <v>0.651982</v>
       </c>
       <c r="C45" t="n">
-        <v>0.472775</v>
+        <v>0.464374</v>
       </c>
       <c r="D45" t="n">
-        <v>0.490037</v>
+        <v>0.487463</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.651552</v>
+        <v>0.640128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.465277</v>
+        <v>0.459742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.463425</v>
+        <v>0.458366</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6455689999999999</v>
+        <v>0.639628</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445658</v>
+        <v>0.437861</v>
       </c>
       <c r="D47" t="n">
-        <v>0.443847</v>
+        <v>0.448367</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.616115</v>
+        <v>0.623119</v>
       </c>
       <c r="C48" t="n">
-        <v>0.429882</v>
+        <v>0.431892</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429705</v>
+        <v>0.428359</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.610257</v>
+        <v>0.597078</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42582</v>
+        <v>0.419559</v>
       </c>
       <c r="D49" t="n">
-        <v>0.422465</v>
+        <v>0.416582</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.604826</v>
+        <v>0.586407</v>
       </c>
       <c r="C50" t="n">
-        <v>0.413984</v>
+        <v>0.42214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.41057</v>
+        <v>0.414343</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.602939</v>
+        <v>0.579283</v>
       </c>
       <c r="C51" t="n">
-        <v>0.39862</v>
+        <v>0.404709</v>
       </c>
       <c r="D51" t="n">
-        <v>0.683825</v>
+        <v>0.399696</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.576303</v>
+        <v>0.571362</v>
       </c>
       <c r="C52" t="n">
-        <v>0.394323</v>
+        <v>0.39715</v>
       </c>
       <c r="D52" t="n">
-        <v>0.651591</v>
+        <v>0.390201</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.828448</v>
+        <v>0.825419</v>
       </c>
       <c r="C53" t="n">
-        <v>0.664961</v>
+        <v>0.6939</v>
       </c>
       <c r="D53" t="n">
-        <v>0.624067</v>
+        <v>0.654925</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828974</v>
+        <v>0.804534</v>
       </c>
       <c r="C54" t="n">
-        <v>0.652818</v>
+        <v>0.661776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.61854</v>
+        <v>0.630667</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.82642</v>
+        <v>0.809144</v>
       </c>
       <c r="C55" t="n">
-        <v>0.628119</v>
+        <v>0.6446730000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.595625</v>
+        <v>0.62203</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.796233</v>
+        <v>0.775559</v>
       </c>
       <c r="C56" t="n">
-        <v>0.602351</v>
+        <v>0.643018</v>
       </c>
       <c r="D56" t="n">
-        <v>0.565864</v>
+        <v>0.597074</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7749239999999999</v>
+        <v>0.762036</v>
       </c>
       <c r="C57" t="n">
-        <v>0.59799</v>
+        <v>0.600892</v>
       </c>
       <c r="D57" t="n">
-        <v>0.559799</v>
+        <v>0.570659</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7928770000000001</v>
+        <v>0.754968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.577002</v>
+        <v>0.606385</v>
       </c>
       <c r="D58" t="n">
-        <v>0.537014</v>
+        <v>0.561581</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.75479</v>
+        <v>0.75869</v>
       </c>
       <c r="C59" t="n">
-        <v>0.558148</v>
+        <v>0.581148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.516651</v>
+        <v>0.562055</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.730233</v>
+        <v>0.746723</v>
       </c>
       <c r="C60" t="n">
-        <v>0.562311</v>
+        <v>0.559853</v>
       </c>
       <c r="D60" t="n">
-        <v>0.512821</v>
+        <v>0.52475</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.724951</v>
+        <v>0.732854</v>
       </c>
       <c r="C61" t="n">
-        <v>0.543489</v>
+        <v>0.543094</v>
       </c>
       <c r="D61" t="n">
-        <v>0.511445</v>
+        <v>0.518788</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.710902</v>
+        <v>0.717921</v>
       </c>
       <c r="C62" t="n">
-        <v>0.540662</v>
+        <v>0.534915</v>
       </c>
       <c r="D62" t="n">
-        <v>0.488098</v>
+        <v>0.500574</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.710681</v>
+        <v>0.687978</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5161829999999999</v>
+        <v>0.5194800000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.466225</v>
+        <v>0.485985</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.686505</v>
+        <v>0.68424</v>
       </c>
       <c r="C64" t="n">
-        <v>0.504456</v>
+        <v>0.506226</v>
       </c>
       <c r="D64" t="n">
-        <v>0.456152</v>
+        <v>0.479992</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.697288</v>
+        <v>0.684739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.485921</v>
+        <v>0.506293</v>
       </c>
       <c r="D65" t="n">
-        <v>0.449298</v>
+        <v>0.466251</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.659658</v>
+        <v>0.668171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.485787</v>
+        <v>0.493064</v>
       </c>
       <c r="D66" t="n">
-        <v>0.73315</v>
+        <v>0.464751</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.958226</v>
+        <v>0.96188</v>
       </c>
       <c r="C67" t="n">
-        <v>0.77782</v>
+        <v>0.783295</v>
       </c>
       <c r="D67" t="n">
-        <v>0.712664</v>
+        <v>0.734532</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9486830000000001</v>
+        <v>0.9642579999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7381</v>
+        <v>0.758607</v>
       </c>
       <c r="D68" t="n">
-        <v>0.675844</v>
+        <v>0.717496</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.912772</v>
+        <v>0.913532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.721377</v>
+        <v>0.746183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.695305</v>
+        <v>0.703687</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.922887</v>
+        <v>0.912674</v>
       </c>
       <c r="C70" t="n">
-        <v>0.72577</v>
+        <v>0.715293</v>
       </c>
       <c r="D70" t="n">
-        <v>0.655617</v>
+        <v>0.672533</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.911788</v>
+        <v>0.899876</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7047369999999999</v>
+        <v>0.706607</v>
       </c>
       <c r="D71" t="n">
-        <v>0.626194</v>
+        <v>0.67109</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.898508</v>
+        <v>0.848174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.677885</v>
+        <v>0.6787029999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.625408</v>
+        <v>0.648178</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.864748</v>
+        <v>0.856024</v>
       </c>
       <c r="C73" t="n">
-        <v>0.651457</v>
+        <v>0.661255</v>
       </c>
       <c r="D73" t="n">
-        <v>0.59529</v>
+        <v>0.620818</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.851024</v>
+        <v>0.83656</v>
       </c>
       <c r="C74" t="n">
-        <v>0.632972</v>
+        <v>0.645204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.578039</v>
+        <v>0.616447</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.839735</v>
+        <v>0.867196</v>
       </c>
       <c r="C75" t="n">
-        <v>0.623461</v>
+        <v>0.626912</v>
       </c>
       <c r="D75" t="n">
-        <v>0.572053</v>
+        <v>0.601865</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.818392</v>
+        <v>0.812249</v>
       </c>
       <c r="C76" t="n">
-        <v>0.61335</v>
+        <v>0.614334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.557786</v>
+        <v>0.569479</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.828685</v>
+        <v>0.802704</v>
       </c>
       <c r="C77" t="n">
-        <v>0.588387</v>
+        <v>0.598805</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5318349999999999</v>
+        <v>0.559326</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.801827</v>
+        <v>0.804822</v>
       </c>
       <c r="C78" t="n">
-        <v>0.603308</v>
+        <v>0.598235</v>
       </c>
       <c r="D78" t="n">
-        <v>0.535717</v>
+        <v>0.55119</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.805246</v>
+        <v>0.794312</v>
       </c>
       <c r="C79" t="n">
-        <v>0.58256</v>
+        <v>0.586481</v>
       </c>
       <c r="D79" t="n">
-        <v>0.533726</v>
+        <v>0.539571</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.779955</v>
+        <v>0.773359</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5757</v>
+        <v>0.570984</v>
       </c>
       <c r="D80" t="n">
-        <v>0.843286</v>
+        <v>0.540833</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10599</v>
+        <v>1.08195</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8886540000000001</v>
+        <v>0.879549</v>
       </c>
       <c r="D81" t="n">
-        <v>0.81675</v>
+        <v>0.850322</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06128</v>
+        <v>1.07107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.878154</v>
+        <v>0.853749</v>
       </c>
       <c r="D82" t="n">
-        <v>0.803844</v>
+        <v>0.833678</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06452</v>
+        <v>1.05424</v>
       </c>
       <c r="C83" t="n">
-        <v>0.838526</v>
+        <v>0.849037</v>
       </c>
       <c r="D83" t="n">
-        <v>0.787739</v>
+        <v>0.813755</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03295</v>
+        <v>1.03717</v>
       </c>
       <c r="C84" t="n">
-        <v>0.819309</v>
+        <v>0.820607</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7758350000000001</v>
+        <v>0.791485</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.04211</v>
+        <v>1.02558</v>
       </c>
       <c r="C85" t="n">
-        <v>0.795868</v>
+        <v>0.817504</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7433920000000001</v>
+        <v>0.770269</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00206</v>
+        <v>1.01583</v>
       </c>
       <c r="C86" t="n">
-        <v>0.811696</v>
+        <v>0.792647</v>
       </c>
       <c r="D86" t="n">
-        <v>0.72065</v>
+        <v>0.7589590000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.979527</v>
+        <v>0.985664</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.771863</v>
       </c>
       <c r="D87" t="n">
-        <v>0.709595</v>
+        <v>0.734586</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01237</v>
+        <v>0.9686669999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.778091</v>
+        <v>0.746878</v>
       </c>
       <c r="D88" t="n">
-        <v>0.70551</v>
+        <v>0.716311</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.963878</v>
+        <v>0.965717</v>
       </c>
       <c r="C89" t="n">
-        <v>0.753288</v>
+        <v>0.747633</v>
       </c>
       <c r="D89" t="n">
-        <v>0.685974</v>
+        <v>0.692736</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.993527</v>
+        <v>0.933893</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7278019999999999</v>
+        <v>0.719015</v>
       </c>
       <c r="D90" t="n">
-        <v>0.668714</v>
+        <v>0.7027870000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.952663</v>
+        <v>0.9298650000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.706276</v>
+        <v>0.6997060000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.652651</v>
+        <v>0.674474</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.923844</v>
+        <v>0.928141</v>
       </c>
       <c r="C92" t="n">
-        <v>0.711564</v>
+        <v>0.69441</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629642</v>
+        <v>0.662924</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.915787</v>
+        <v>0.899452</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6855250000000001</v>
+        <v>0.677528</v>
       </c>
       <c r="D93" t="n">
-        <v>0.629483</v>
+        <v>0.66179</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.898214</v>
+        <v>0.895739</v>
       </c>
       <c r="C94" t="n">
-        <v>0.67389</v>
+        <v>0.6801430000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.932165</v>
+        <v>0.641467</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23217</v>
+        <v>1.21159</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0024</v>
+        <v>0.9840370000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.921376</v>
+        <v>0.961414</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20451</v>
+        <v>1.19438</v>
       </c>
       <c r="C96" t="n">
-        <v>0.963374</v>
+        <v>0.983049</v>
       </c>
       <c r="D96" t="n">
-        <v>0.924094</v>
+        <v>0.9422469999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18727</v>
+        <v>1.18475</v>
       </c>
       <c r="C97" t="n">
-        <v>0.975527</v>
+        <v>0.9937319999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.898091</v>
+        <v>0.919809</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.19627</v>
+        <v>1.1907</v>
       </c>
       <c r="C98" t="n">
-        <v>0.941061</v>
+        <v>0.950308</v>
       </c>
       <c r="D98" t="n">
-        <v>0.873874</v>
+        <v>0.9252359999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17302</v>
+        <v>1.14493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.948986</v>
+        <v>0.926917</v>
       </c>
       <c r="D99" t="n">
-        <v>0.854289</v>
+        <v>0.90972</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12971</v>
+        <v>1.17733</v>
       </c>
       <c r="C100" t="n">
-        <v>0.931909</v>
+        <v>0.932535</v>
       </c>
       <c r="D100" t="n">
-        <v>0.860081</v>
+        <v>0.894508</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.14566</v>
+        <v>1.14553</v>
       </c>
       <c r="C101" t="n">
-        <v>0.911931</v>
+        <v>0.897047</v>
       </c>
       <c r="D101" t="n">
-        <v>0.827448</v>
+        <v>0.869063</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.0949</v>
+        <v>1.10353</v>
       </c>
       <c r="C102" t="n">
-        <v>0.885367</v>
+        <v>0.894019</v>
       </c>
       <c r="D102" t="n">
-        <v>0.815876</v>
+        <v>0.856819</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09682</v>
+        <v>1.09698</v>
       </c>
       <c r="C103" t="n">
-        <v>0.881593</v>
+        <v>0.870994</v>
       </c>
       <c r="D103" t="n">
-        <v>0.798427</v>
+        <v>0.830246</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08992</v>
+        <v>1.07614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.861434</v>
+        <v>0.856187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.788219</v>
+        <v>0.814003</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07304</v>
+        <v>1.10832</v>
       </c>
       <c r="C105" t="n">
-        <v>0.849033</v>
+        <v>0.8469100000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.782375</v>
+        <v>0.806785</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0728</v>
+        <v>1.07082</v>
       </c>
       <c r="C106" t="n">
-        <v>0.836467</v>
+        <v>0.827325</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7687889999999999</v>
+        <v>0.795226</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.05039</v>
+        <v>1.06976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.816672</v>
+        <v>0.826358</v>
       </c>
       <c r="D107" t="n">
-        <v>0.751414</v>
+        <v>0.778563</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07185</v>
+        <v>1.06127</v>
       </c>
       <c r="C108" t="n">
-        <v>0.821186</v>
+        <v>0.815848</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08864</v>
+        <v>0.7780049999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02648</v>
+        <v>1.04332</v>
       </c>
       <c r="C109" t="n">
-        <v>0.80554</v>
+        <v>0.821312</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08399</v>
+        <v>0.768468</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3489</v>
+        <v>1.36533</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13903</v>
+        <v>1.12987</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08532</v>
+        <v>1.08943</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32034</v>
+        <v>1.3565</v>
       </c>
       <c r="C111" t="n">
-        <v>1.11889</v>
+        <v>1.10131</v>
       </c>
       <c r="D111" t="n">
-        <v>1.05719</v>
+        <v>1.06182</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32357</v>
+        <v>1.34966</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15247</v>
+        <v>1.11512</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04539</v>
+        <v>1.06699</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31744</v>
+        <v>1.33534</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09569</v>
+        <v>1.09881</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04805</v>
+        <v>1.0628</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30593</v>
+        <v>1.3169</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1181</v>
+        <v>1.08274</v>
       </c>
       <c r="D114" t="n">
-        <v>1.04101</v>
+        <v>1.0435</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.28981</v>
+        <v>1.31965</v>
       </c>
       <c r="C115" t="n">
-        <v>1.08462</v>
+        <v>1.09004</v>
       </c>
       <c r="D115" t="n">
-        <v>1.02176</v>
+        <v>1.05368</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.26816</v>
+        <v>1.29332</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09867</v>
+        <v>1.07687</v>
       </c>
       <c r="D116" t="n">
-        <v>0.995187</v>
+        <v>1.0323</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.26096</v>
+        <v>1.30809</v>
       </c>
       <c r="C117" t="n">
-        <v>1.06534</v>
+        <v>1.07276</v>
       </c>
       <c r="D117" t="n">
-        <v>1.00741</v>
+        <v>1.01851</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.27324</v>
+        <v>1.30223</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07732</v>
+        <v>1.06665</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00391</v>
+        <v>1.01839</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2768</v>
+        <v>1.29087</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0546</v>
+        <v>1.06298</v>
       </c>
       <c r="D119" t="n">
-        <v>1.00353</v>
+        <v>1.00699</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27927</v>
+        <v>1.27891</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03691</v>
+        <v>1.04119</v>
       </c>
       <c r="D120" t="n">
-        <v>0.995684</v>
+        <v>0.998577</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26979</v>
+        <v>1.28168</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04545</v>
+        <v>1.04641</v>
       </c>
       <c r="D121" t="n">
-        <v>0.962241</v>
+        <v>0.997637</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.24712</v>
+        <v>1.26176</v>
       </c>
       <c r="C122" t="n">
-        <v>1.06111</v>
+        <v>1.022</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9836819999999999</v>
+        <v>0.986313</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.26837</v>
+        <v>1.28485</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03564</v>
+        <v>1.03955</v>
       </c>
       <c r="D123" t="n">
-        <v>1.3316</v>
+        <v>0.983997</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.6053</v>
+        <v>1.58354</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35917</v>
+        <v>1.35833</v>
       </c>
       <c r="D124" t="n">
-        <v>1.29707</v>
+        <v>1.32381</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.56506</v>
+        <v>1.56372</v>
       </c>
       <c r="C125" t="n">
-        <v>1.38282</v>
+        <v>1.35922</v>
       </c>
       <c r="D125" t="n">
-        <v>1.29847</v>
+        <v>1.3316</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.5509</v>
+        <v>1.57582</v>
       </c>
       <c r="C126" t="n">
-        <v>1.34602</v>
+        <v>1.35169</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31218</v>
+        <v>1.32159</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.586</v>
+        <v>1.6112</v>
       </c>
       <c r="C127" t="n">
-        <v>1.35362</v>
+        <v>1.37086</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31069</v>
+        <v>1.32455</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.56436</v>
+        <v>1.60247</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35738</v>
+        <v>1.34973</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31519</v>
+        <v>1.32543</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.56216</v>
+        <v>1.58275</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36851</v>
+        <v>1.36274</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31874</v>
+        <v>1.31169</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55339</v>
+        <v>1.58036</v>
       </c>
       <c r="C130" t="n">
-        <v>1.375</v>
+        <v>1.35982</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30617</v>
+        <v>1.3085</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54451</v>
+        <v>1.58036</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35449</v>
+        <v>1.36524</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32883</v>
+        <v>1.31569</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54891</v>
+        <v>1.58311</v>
       </c>
       <c r="C132" t="n">
-        <v>1.37528</v>
+        <v>1.34604</v>
       </c>
       <c r="D132" t="n">
-        <v>1.2991</v>
+        <v>1.31181</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.54782</v>
+        <v>1.57314</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3566</v>
+        <v>1.33133</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30935</v>
+        <v>1.33206</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.55021</v>
+        <v>1.57406</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34242</v>
+        <v>1.3455</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28306</v>
+        <v>1.30234</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.55017</v>
+        <v>1.58992</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34826</v>
+        <v>1.35608</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31073</v>
+        <v>1.32003</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.53482</v>
+        <v>1.6058</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35689</v>
+        <v>1.34464</v>
       </c>
       <c r="D136" t="n">
-        <v>1.30075</v>
+        <v>1.33854</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.5628</v>
+        <v>1.56876</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35057</v>
+        <v>1.33831</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66476</v>
+        <v>1.33679</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.89085</v>
+        <v>1.91819</v>
       </c>
       <c r="C138" t="n">
-        <v>1.67466</v>
+        <v>1.65857</v>
       </c>
       <c r="D138" t="n">
-        <v>1.66714</v>
+        <v>1.6472</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.87829</v>
+        <v>1.89998</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67134</v>
+        <v>1.69819</v>
       </c>
       <c r="D139" t="n">
-        <v>1.6706</v>
+        <v>1.66738</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.87129</v>
+        <v>1.90456</v>
       </c>
       <c r="C140" t="n">
-        <v>1.65913</v>
+        <v>1.66513</v>
       </c>
       <c r="D140" t="n">
-        <v>1.6389</v>
+        <v>1.67198</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85081</v>
+        <v>1.90032</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67545</v>
+        <v>1.69276</v>
       </c>
       <c r="D141" t="n">
-        <v>1.68659</v>
+        <v>1.64923</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.84228</v>
+        <v>1.89218</v>
       </c>
       <c r="C142" t="n">
-        <v>1.70302</v>
+        <v>1.67488</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66752</v>
+        <v>1.66144</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84889</v>
+        <v>1.92303</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67302</v>
+        <v>1.68125</v>
       </c>
       <c r="D143" t="n">
-        <v>1.67146</v>
+        <v>1.69288</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.528096</v>
+        <v>0.50959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.250616</v>
+        <v>0.245275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.256483</v>
+        <v>0.252209</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.429271</v>
+        <v>0.434019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23962</v>
+        <v>0.236817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243339</v>
+        <v>0.253422</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.419713</v>
+        <v>0.447231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234126</v>
+        <v>0.24606</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246277</v>
+        <v>0.246642</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.44281</v>
+        <v>0.427821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239061</v>
+        <v>0.231125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247022</v>
+        <v>0.239916</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.422837</v>
+        <v>0.426052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227289</v>
+        <v>0.230283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240306</v>
+        <v>0.235172</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421399</v>
+        <v>0.41885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231113</v>
+        <v>0.224746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232124</v>
+        <v>0.228944</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416158</v>
+        <v>0.41512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223748</v>
+        <v>0.219014</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236337</v>
+        <v>0.236766</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.403389</v>
+        <v>0.407351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217585</v>
+        <v>0.216473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23716</v>
+        <v>0.223882</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.494788</v>
+        <v>0.50314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.312677</v>
+        <v>0.308293</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326835</v>
+        <v>0.319239</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.470716</v>
+        <v>0.48958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.298861</v>
+        <v>0.299691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316205</v>
+        <v>0.311636</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.478768</v>
+        <v>0.476001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293721</v>
+        <v>0.290424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304635</v>
+        <v>0.298629</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.470965</v>
+        <v>0.46875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.282052</v>
+        <v>0.281042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.293747</v>
+        <v>0.289197</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.455655</v>
+        <v>0.466926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.269617</v>
+        <v>0.268071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287423</v>
+        <v>0.277004</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449046</v>
+        <v>0.459075</v>
       </c>
       <c r="C15" t="n">
-        <v>0.270191</v>
+        <v>0.266684</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277809</v>
+        <v>0.270541</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.441554</v>
+        <v>0.449498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.264275</v>
+        <v>0.256574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.273543</v>
+        <v>0.270041</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443433</v>
+        <v>0.443899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254744</v>
+        <v>0.251957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.264197</v>
+        <v>0.258587</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.428148</v>
+        <v>0.421815</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251413</v>
+        <v>0.248092</v>
       </c>
       <c r="D18" t="n">
-        <v>0.260636</v>
+        <v>0.25423</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.423546</v>
+        <v>0.433193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242446</v>
+        <v>0.238484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249643</v>
+        <v>0.246743</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.412232</v>
+        <v>0.433177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.241503</v>
+        <v>0.230587</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247575</v>
+        <v>0.240785</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.412009</v>
+        <v>0.417089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231585</v>
+        <v>0.2308</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240263</v>
+        <v>0.241465</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417533</v>
+        <v>0.403598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235478</v>
+        <v>0.226288</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241878</v>
+        <v>0.240859</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408352</v>
+        <v>0.413178</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230578</v>
+        <v>0.227532</v>
       </c>
       <c r="D23" t="n">
-        <v>0.241676</v>
+        <v>0.240865</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.649515</v>
+        <v>0.652513</v>
       </c>
       <c r="C24" t="n">
-        <v>0.475198</v>
+        <v>0.472544</v>
       </c>
       <c r="D24" t="n">
-        <v>0.48768</v>
+        <v>0.489867</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.644744</v>
+        <v>0.654213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.463516</v>
+        <v>0.456917</v>
       </c>
       <c r="D25" t="n">
-        <v>0.47632</v>
+        <v>0.470217</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.62903</v>
+        <v>0.632172</v>
       </c>
       <c r="C26" t="n">
-        <v>0.442509</v>
+        <v>0.450194</v>
       </c>
       <c r="D26" t="n">
-        <v>0.46139</v>
+        <v>0.458458</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.610546</v>
+        <v>0.606158</v>
       </c>
       <c r="C27" t="n">
-        <v>0.435696</v>
+        <v>0.43679</v>
       </c>
       <c r="D27" t="n">
-        <v>0.443373</v>
+        <v>0.437909</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.595323</v>
+        <v>0.60307</v>
       </c>
       <c r="C28" t="n">
-        <v>0.420417</v>
+        <v>0.412671</v>
       </c>
       <c r="D28" t="n">
-        <v>0.426262</v>
+        <v>0.433931</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.584207</v>
+        <v>0.584022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.397898</v>
+        <v>0.403229</v>
       </c>
       <c r="D29" t="n">
-        <v>0.420016</v>
+        <v>0.418524</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.586513</v>
+        <v>0.57229</v>
       </c>
       <c r="C30" t="n">
-        <v>0.390534</v>
+        <v>0.395527</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405753</v>
+        <v>0.395226</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.564407</v>
+        <v>0.570727</v>
       </c>
       <c r="C31" t="n">
-        <v>0.386745</v>
+        <v>0.377758</v>
       </c>
       <c r="D31" t="n">
-        <v>0.397677</v>
+        <v>0.397693</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.548836</v>
+        <v>0.561611</v>
       </c>
       <c r="C32" t="n">
-        <v>0.376327</v>
+        <v>0.372645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381824</v>
+        <v>0.375349</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.552557</v>
+        <v>0.552825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.362489</v>
+        <v>0.364354</v>
       </c>
       <c r="D33" t="n">
-        <v>0.369207</v>
+        <v>0.369782</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.542413</v>
+        <v>0.541223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.356642</v>
+        <v>0.349075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357121</v>
+        <v>0.360728</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520981</v>
+        <v>0.5280359999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.343138</v>
+        <v>0.34823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.353324</v>
+        <v>0.352152</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.510325</v>
+        <v>0.52466</v>
       </c>
       <c r="C36" t="n">
-        <v>0.32889</v>
+        <v>0.334137</v>
       </c>
       <c r="D36" t="n">
-        <v>0.345005</v>
+        <v>0.337671</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5054920000000001</v>
+        <v>0.506138</v>
       </c>
       <c r="C37" t="n">
-        <v>0.332334</v>
+        <v>0.322742</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3367</v>
+        <v>0.337966</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.765367</v>
+        <v>0.7638239999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.600499</v>
+        <v>0.597921</v>
       </c>
       <c r="D38" t="n">
-        <v>0.606214</v>
+        <v>0.6014429999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746924</v>
+        <v>0.748054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.575909</v>
+        <v>0.568204</v>
       </c>
       <c r="D39" t="n">
-        <v>0.572672</v>
+        <v>0.5748760000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.729196</v>
+        <v>0.744891</v>
       </c>
       <c r="C40" t="n">
-        <v>0.56309</v>
+        <v>0.566854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.551122</v>
+        <v>0.572539</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.715817</v>
+        <v>0.717625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.547598</v>
+        <v>0.540532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.541194</v>
+        <v>0.545751</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.705963</v>
+        <v>0.685805</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5132949999999999</v>
+        <v>0.511537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5209589999999999</v>
+        <v>0.523325</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.68177</v>
+        <v>0.700113</v>
       </c>
       <c r="C43" t="n">
-        <v>0.507405</v>
+        <v>0.498384</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5056310000000001</v>
+        <v>0.507917</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.660012</v>
+        <v>0.696666</v>
       </c>
       <c r="C44" t="n">
-        <v>0.495763</v>
+        <v>0.491036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.497934</v>
+        <v>0.499208</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.651982</v>
+        <v>0.6546689999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.464374</v>
+        <v>0.470843</v>
       </c>
       <c r="D45" t="n">
-        <v>0.487463</v>
+        <v>0.469916</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.640128</v>
+        <v>0.658334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.459742</v>
+        <v>0.460586</v>
       </c>
       <c r="D46" t="n">
-        <v>0.458366</v>
+        <v>0.468516</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.639628</v>
+        <v>0.63035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437861</v>
+        <v>0.439206</v>
       </c>
       <c r="D47" t="n">
-        <v>0.448367</v>
+        <v>0.443982</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623119</v>
+        <v>0.607287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.431892</v>
+        <v>0.425827</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428359</v>
+        <v>0.438723</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.597078</v>
+        <v>0.606097</v>
       </c>
       <c r="C49" t="n">
-        <v>0.419559</v>
+        <v>0.42588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.416582</v>
+        <v>0.42789</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.586407</v>
+        <v>0.608658</v>
       </c>
       <c r="C50" t="n">
-        <v>0.42214</v>
+        <v>0.421457</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414343</v>
+        <v>0.407202</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.579283</v>
+        <v>0.5788990000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.404709</v>
+        <v>0.411003</v>
       </c>
       <c r="D51" t="n">
-        <v>0.399696</v>
+        <v>0.404984</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.571362</v>
+        <v>0.580148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.39715</v>
+        <v>0.391153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.390201</v>
+        <v>0.402327</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.825419</v>
+        <v>0.83929</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6939</v>
+        <v>0.663122</v>
       </c>
       <c r="D53" t="n">
-        <v>0.654925</v>
+        <v>0.662706</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.804534</v>
+        <v>0.806673</v>
       </c>
       <c r="C54" t="n">
-        <v>0.661776</v>
+        <v>0.645583</v>
       </c>
       <c r="D54" t="n">
-        <v>0.630667</v>
+        <v>0.651432</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.809144</v>
+        <v>0.812889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6446730000000001</v>
+        <v>0.627893</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62203</v>
+        <v>0.6158670000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.775559</v>
+        <v>0.786849</v>
       </c>
       <c r="C56" t="n">
-        <v>0.643018</v>
+        <v>0.617418</v>
       </c>
       <c r="D56" t="n">
-        <v>0.597074</v>
+        <v>0.5935589999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.762036</v>
+        <v>0.774047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.600892</v>
+        <v>0.615961</v>
       </c>
       <c r="D57" t="n">
-        <v>0.570659</v>
+        <v>0.590083</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.754968</v>
+        <v>0.763045</v>
       </c>
       <c r="C58" t="n">
-        <v>0.606385</v>
+        <v>0.589374</v>
       </c>
       <c r="D58" t="n">
-        <v>0.561581</v>
+        <v>0.554251</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.75869</v>
+        <v>0.771379</v>
       </c>
       <c r="C59" t="n">
-        <v>0.581148</v>
+        <v>0.5640810000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.562055</v>
+        <v>0.538466</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.746723</v>
+        <v>0.735605</v>
       </c>
       <c r="C60" t="n">
-        <v>0.559853</v>
+        <v>0.546833</v>
       </c>
       <c r="D60" t="n">
-        <v>0.52475</v>
+        <v>0.51995</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.732854</v>
+        <v>0.7349059999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.543094</v>
+        <v>0.537793</v>
       </c>
       <c r="D61" t="n">
-        <v>0.518788</v>
+        <v>0.51505</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.717921</v>
+        <v>0.725183</v>
       </c>
       <c r="C62" t="n">
-        <v>0.534915</v>
+        <v>0.527632</v>
       </c>
       <c r="D62" t="n">
-        <v>0.500574</v>
+        <v>0.498953</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.687978</v>
+        <v>0.723301</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5194800000000001</v>
+        <v>0.503302</v>
       </c>
       <c r="D63" t="n">
-        <v>0.485985</v>
+        <v>0.483527</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.68424</v>
+        <v>0.677291</v>
       </c>
       <c r="C64" t="n">
-        <v>0.506226</v>
+        <v>0.495127</v>
       </c>
       <c r="D64" t="n">
-        <v>0.479992</v>
+        <v>0.474704</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.684739</v>
+        <v>0.66833</v>
       </c>
       <c r="C65" t="n">
-        <v>0.506293</v>
+        <v>0.504189</v>
       </c>
       <c r="D65" t="n">
-        <v>0.466251</v>
+        <v>0.471517</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.668171</v>
+        <v>0.672641</v>
       </c>
       <c r="C66" t="n">
-        <v>0.493064</v>
+        <v>0.48277</v>
       </c>
       <c r="D66" t="n">
-        <v>0.464751</v>
+        <v>0.456249</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.96188</v>
+        <v>0.950487</v>
       </c>
       <c r="C67" t="n">
-        <v>0.783295</v>
+        <v>0.7816</v>
       </c>
       <c r="D67" t="n">
-        <v>0.734532</v>
+        <v>0.749623</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9642579999999999</v>
+        <v>0.928524</v>
       </c>
       <c r="C68" t="n">
-        <v>0.758607</v>
+        <v>0.748023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.717496</v>
+        <v>0.724309</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.913532</v>
+        <v>0.90682</v>
       </c>
       <c r="C69" t="n">
-        <v>0.746183</v>
+        <v>0.739214</v>
       </c>
       <c r="D69" t="n">
-        <v>0.703687</v>
+        <v>0.708369</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.912674</v>
+        <v>0.906289</v>
       </c>
       <c r="C70" t="n">
-        <v>0.715293</v>
+        <v>0.711027</v>
       </c>
       <c r="D70" t="n">
-        <v>0.672533</v>
+        <v>0.6938260000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.899876</v>
+        <v>0.8933449999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706607</v>
+        <v>0.688151</v>
       </c>
       <c r="D71" t="n">
-        <v>0.67109</v>
+        <v>0.669615</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.848174</v>
+        <v>0.879626</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6787029999999999</v>
+        <v>0.687258</v>
       </c>
       <c r="D72" t="n">
-        <v>0.648178</v>
+        <v>0.640084</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.856024</v>
+        <v>0.849983</v>
       </c>
       <c r="C73" t="n">
-        <v>0.661255</v>
+        <v>0.652651</v>
       </c>
       <c r="D73" t="n">
-        <v>0.620818</v>
+        <v>0.634386</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.83656</v>
+        <v>0.843425</v>
       </c>
       <c r="C74" t="n">
-        <v>0.645204</v>
+        <v>0.65839</v>
       </c>
       <c r="D74" t="n">
-        <v>0.616447</v>
+        <v>0.621505</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.867196</v>
+        <v>0.840062</v>
       </c>
       <c r="C75" t="n">
-        <v>0.626912</v>
+        <v>0.614628</v>
       </c>
       <c r="D75" t="n">
-        <v>0.601865</v>
+        <v>0.605742</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.812249</v>
+        <v>0.827314</v>
       </c>
       <c r="C76" t="n">
-        <v>0.614334</v>
+        <v>0.614659</v>
       </c>
       <c r="D76" t="n">
-        <v>0.569479</v>
+        <v>0.579691</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.802704</v>
+        <v>0.807945</v>
       </c>
       <c r="C77" t="n">
-        <v>0.598805</v>
+        <v>0.597532</v>
       </c>
       <c r="D77" t="n">
-        <v>0.559326</v>
+        <v>0.564779</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.804822</v>
+        <v>0.782436</v>
       </c>
       <c r="C78" t="n">
-        <v>0.598235</v>
+        <v>0.593435</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55119</v>
+        <v>0.556905</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.794312</v>
+        <v>0.7654339999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.586481</v>
+        <v>0.575444</v>
       </c>
       <c r="D79" t="n">
-        <v>0.539571</v>
+        <v>0.539415</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.773359</v>
+        <v>0.785127</v>
       </c>
       <c r="C80" t="n">
-        <v>0.570984</v>
+        <v>0.572597</v>
       </c>
       <c r="D80" t="n">
-        <v>0.540833</v>
+        <v>0.529942</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08195</v>
+        <v>1.09681</v>
       </c>
       <c r="C81" t="n">
-        <v>0.879549</v>
+        <v>0.87496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.850322</v>
+        <v>0.861235</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07107</v>
+        <v>1.04949</v>
       </c>
       <c r="C82" t="n">
-        <v>0.853749</v>
+        <v>0.885388</v>
       </c>
       <c r="D82" t="n">
-        <v>0.833678</v>
+        <v>0.833416</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.05424</v>
+        <v>1.03381</v>
       </c>
       <c r="C83" t="n">
-        <v>0.849037</v>
+        <v>0.831026</v>
       </c>
       <c r="D83" t="n">
-        <v>0.813755</v>
+        <v>0.827002</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03717</v>
+        <v>1.0244</v>
       </c>
       <c r="C84" t="n">
-        <v>0.820607</v>
+        <v>0.834754</v>
       </c>
       <c r="D84" t="n">
-        <v>0.791485</v>
+        <v>0.794408</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02558</v>
+        <v>1.0303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.817504</v>
+        <v>0.808032</v>
       </c>
       <c r="D85" t="n">
-        <v>0.770269</v>
+        <v>0.782349</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01583</v>
+        <v>1.01458</v>
       </c>
       <c r="C86" t="n">
-        <v>0.792647</v>
+        <v>0.776125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7589590000000001</v>
+        <v>0.755918</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.985664</v>
+        <v>0.982853</v>
       </c>
       <c r="C87" t="n">
-        <v>0.771863</v>
+        <v>0.770034</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734586</v>
+        <v>0.7362919999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9686669999999999</v>
+        <v>0.956941</v>
       </c>
       <c r="C88" t="n">
-        <v>0.746878</v>
+        <v>0.758724</v>
       </c>
       <c r="D88" t="n">
-        <v>0.716311</v>
+        <v>0.726147</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.965717</v>
+        <v>0.9588410000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.747633</v>
+        <v>0.742109</v>
       </c>
       <c r="D89" t="n">
-        <v>0.692736</v>
+        <v>0.712126</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.933893</v>
+        <v>0.9705549999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.719015</v>
+        <v>0.731904</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7027870000000001</v>
+        <v>0.704152</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9298650000000001</v>
+        <v>0.931125</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6997060000000001</v>
+        <v>0.706753</v>
       </c>
       <c r="D91" t="n">
-        <v>0.674474</v>
+        <v>0.678733</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.928141</v>
+        <v>0.934294</v>
       </c>
       <c r="C92" t="n">
-        <v>0.69441</v>
+        <v>0.706816</v>
       </c>
       <c r="D92" t="n">
-        <v>0.662924</v>
+        <v>0.66571</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.899452</v>
+        <v>0.9652809999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.677528</v>
+        <v>0.681103</v>
       </c>
       <c r="D93" t="n">
-        <v>0.66179</v>
+        <v>0.648336</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.895739</v>
+        <v>0.909371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6801430000000001</v>
+        <v>0.667705</v>
       </c>
       <c r="D94" t="n">
-        <v>0.641467</v>
+        <v>0.647604</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21159</v>
+        <v>1.20632</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9840370000000001</v>
+        <v>0.9820140000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.961414</v>
+        <v>0.989231</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.19438</v>
+        <v>1.1964</v>
       </c>
       <c r="C96" t="n">
-        <v>0.983049</v>
+        <v>0.987464</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9422469999999999</v>
+        <v>0.94999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.18475</v>
+        <v>1.17992</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9937319999999999</v>
+        <v>0.966544</v>
       </c>
       <c r="D97" t="n">
-        <v>0.919809</v>
+        <v>0.955399</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1907</v>
+        <v>1.17509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.950308</v>
+        <v>0.933109</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9252359999999999</v>
+        <v>0.927358</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14493</v>
+        <v>1.14752</v>
       </c>
       <c r="C99" t="n">
-        <v>0.926917</v>
+        <v>0.929343</v>
       </c>
       <c r="D99" t="n">
-        <v>0.90972</v>
+        <v>0.911233</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.17733</v>
+        <v>1.12918</v>
       </c>
       <c r="C100" t="n">
-        <v>0.932535</v>
+        <v>0.929231</v>
       </c>
       <c r="D100" t="n">
-        <v>0.894508</v>
+        <v>0.8939589999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.14553</v>
+        <v>1.11119</v>
       </c>
       <c r="C101" t="n">
-        <v>0.897047</v>
+        <v>0.924365</v>
       </c>
       <c r="D101" t="n">
-        <v>0.869063</v>
+        <v>0.863643</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10353</v>
+        <v>1.11371</v>
       </c>
       <c r="C102" t="n">
-        <v>0.894019</v>
+        <v>0.8966229999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.856819</v>
+        <v>0.868803</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09698</v>
+        <v>1.09807</v>
       </c>
       <c r="C103" t="n">
-        <v>0.870994</v>
+        <v>0.8716159999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.830246</v>
+        <v>0.857938</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.07614</v>
+        <v>1.08603</v>
       </c>
       <c r="C104" t="n">
-        <v>0.856187</v>
+        <v>0.871669</v>
       </c>
       <c r="D104" t="n">
-        <v>0.814003</v>
+        <v>0.842123</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10832</v>
+        <v>1.10243</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8469100000000001</v>
+        <v>0.85101</v>
       </c>
       <c r="D105" t="n">
-        <v>0.806785</v>
+        <v>0.82638</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.07082</v>
+        <v>1.06651</v>
       </c>
       <c r="C106" t="n">
-        <v>0.827325</v>
+        <v>0.837514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.795226</v>
+        <v>0.797395</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06976</v>
+        <v>1.0544</v>
       </c>
       <c r="C107" t="n">
-        <v>0.826358</v>
+        <v>0.824144</v>
       </c>
       <c r="D107" t="n">
-        <v>0.778563</v>
+        <v>0.7972050000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06127</v>
+        <v>1.06792</v>
       </c>
       <c r="C108" t="n">
-        <v>0.815848</v>
+        <v>0.8187179999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7780049999999999</v>
+        <v>0.7964290000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04332</v>
+        <v>1.03833</v>
       </c>
       <c r="C109" t="n">
-        <v>0.821312</v>
+        <v>0.830045</v>
       </c>
       <c r="D109" t="n">
-        <v>0.768468</v>
+        <v>0.790204</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36533</v>
+        <v>1.38031</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12987</v>
+        <v>1.14433</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08943</v>
+        <v>1.10945</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3565</v>
+        <v>1.33479</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10131</v>
+        <v>1.15678</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06182</v>
+        <v>1.10278</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34966</v>
+        <v>1.33786</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11512</v>
+        <v>1.1193</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06699</v>
+        <v>1.09707</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.33534</v>
+        <v>1.32475</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09881</v>
+        <v>1.1103</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0628</v>
+        <v>1.08715</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3169</v>
+        <v>1.3036</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08274</v>
+        <v>1.0965</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0435</v>
+        <v>1.05668</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31965</v>
+        <v>1.29919</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09004</v>
+        <v>1.09204</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05368</v>
+        <v>1.0772</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.29332</v>
+        <v>1.28126</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07687</v>
+        <v>1.08516</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0323</v>
+        <v>1.04538</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30809</v>
+        <v>1.29354</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07276</v>
+        <v>1.09445</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01851</v>
+        <v>1.07581</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30223</v>
+        <v>1.30231</v>
       </c>
       <c r="C118" t="n">
-        <v>1.06665</v>
+        <v>1.08883</v>
       </c>
       <c r="D118" t="n">
-        <v>1.01839</v>
+        <v>1.03092</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.29087</v>
+        <v>1.2701</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06298</v>
+        <v>1.05139</v>
       </c>
       <c r="D119" t="n">
-        <v>1.00699</v>
+        <v>1.01465</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27891</v>
+        <v>1.2717</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04119</v>
+        <v>1.04837</v>
       </c>
       <c r="D120" t="n">
-        <v>0.998577</v>
+        <v>1.01396</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.28168</v>
+        <v>1.24007</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04641</v>
+        <v>1.02638</v>
       </c>
       <c r="D121" t="n">
-        <v>0.997637</v>
+        <v>1.00273</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.26176</v>
+        <v>1.25532</v>
       </c>
       <c r="C122" t="n">
-        <v>1.022</v>
+        <v>1.04148</v>
       </c>
       <c r="D122" t="n">
-        <v>0.986313</v>
+        <v>0.984639</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.28485</v>
+        <v>1.2723</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03955</v>
+        <v>1.03047</v>
       </c>
       <c r="D123" t="n">
-        <v>0.983997</v>
+        <v>0.9802070000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58354</v>
+        <v>1.57832</v>
       </c>
       <c r="C124" t="n">
-        <v>1.35833</v>
+        <v>1.36103</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32381</v>
+        <v>1.31642</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.56372</v>
+        <v>1.58558</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35922</v>
+        <v>1.37803</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3316</v>
+        <v>1.3295</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.57582</v>
+        <v>1.56168</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35169</v>
+        <v>1.35108</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32159</v>
+        <v>1.33057</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.6112</v>
+        <v>1.55322</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37086</v>
+        <v>1.36564</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32455</v>
+        <v>1.32983</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.60247</v>
+        <v>1.55478</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34973</v>
+        <v>1.37534</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32543</v>
+        <v>1.31228</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.58275</v>
+        <v>1.57238</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36274</v>
+        <v>1.35756</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31169</v>
+        <v>1.32436</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.58036</v>
+        <v>1.54499</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35982</v>
+        <v>1.33429</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3085</v>
+        <v>1.33243</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.58036</v>
+        <v>1.54922</v>
       </c>
       <c r="C131" t="n">
-        <v>1.36524</v>
+        <v>1.32025</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31569</v>
+        <v>1.32041</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.58311</v>
+        <v>1.54933</v>
       </c>
       <c r="C132" t="n">
-        <v>1.34604</v>
+        <v>1.36073</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31181</v>
+        <v>1.31156</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.57314</v>
+        <v>1.52669</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33133</v>
+        <v>1.34504</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33206</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.57406</v>
+        <v>1.53665</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3455</v>
+        <v>1.32552</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30234</v>
+        <v>1.35625</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.58992</v>
+        <v>1.54811</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35608</v>
+        <v>1.35411</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32003</v>
+        <v>1.33075</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.6058</v>
+        <v>1.52944</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34464</v>
+        <v>1.34506</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33854</v>
+        <v>1.32057</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.56876</v>
+        <v>1.54395</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33831</v>
+        <v>1.37172</v>
       </c>
       <c r="D137" t="n">
-        <v>1.33679</v>
+        <v>1.33821</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.91819</v>
+        <v>1.87552</v>
       </c>
       <c r="C138" t="n">
-        <v>1.65857</v>
+        <v>1.67632</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6472</v>
+        <v>1.67526</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.89998</v>
+        <v>1.8797</v>
       </c>
       <c r="C139" t="n">
-        <v>1.69819</v>
+        <v>1.69583</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66738</v>
+        <v>1.64461</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.90456</v>
+        <v>1.85755</v>
       </c>
       <c r="C140" t="n">
-        <v>1.66513</v>
+        <v>1.6722</v>
       </c>
       <c r="D140" t="n">
-        <v>1.67198</v>
+        <v>1.68294</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.90032</v>
+        <v>1.85827</v>
       </c>
       <c r="C141" t="n">
-        <v>1.69276</v>
+        <v>1.67468</v>
       </c>
       <c r="D141" t="n">
-        <v>1.64923</v>
+        <v>1.69362</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.89218</v>
+        <v>1.85084</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67488</v>
+        <v>1.65685</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66144</v>
+        <v>1.69394</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.92303</v>
+        <v>1.85853</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68125</v>
+        <v>1.69582</v>
       </c>
       <c r="D143" t="n">
-        <v>1.69288</v>
+        <v>1.67732</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.50959</v>
+        <v>0.517297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.245275</v>
+        <v>0.257072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252209</v>
+        <v>0.267701</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.434019</v>
+        <v>0.449691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236817</v>
+        <v>0.248453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253422</v>
+        <v>0.253571</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.447231</v>
+        <v>0.44976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24606</v>
+        <v>0.241787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246642</v>
+        <v>0.24566</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.427821</v>
+        <v>0.428517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.231125</v>
+        <v>0.233372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239916</v>
+        <v>0.242941</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426052</v>
+        <v>0.413939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230283</v>
+        <v>0.228315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235172</v>
+        <v>0.234219</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.41885</v>
+        <v>0.4057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224746</v>
+        <v>0.220195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228944</v>
+        <v>0.228476</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41512</v>
+        <v>0.406639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219014</v>
+        <v>0.21713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236766</v>
+        <v>0.227068</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407351</v>
+        <v>0.404536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216473</v>
+        <v>0.21535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223882</v>
+        <v>0.233195</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.50314</v>
+        <v>0.503942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.308293</v>
+        <v>0.315889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.319239</v>
+        <v>0.321329</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48958</v>
+        <v>0.507948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299691</v>
+        <v>0.304293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311636</v>
+        <v>0.323337</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.476001</v>
+        <v>0.48348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.290424</v>
+        <v>0.292078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.298629</v>
+        <v>0.302599</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.46875</v>
+        <v>0.482978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281042</v>
+        <v>0.293185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.289197</v>
+        <v>0.301821</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.466926</v>
+        <v>0.464767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.268071</v>
+        <v>0.280696</v>
       </c>
       <c r="D14" t="n">
-        <v>0.277004</v>
+        <v>0.287809</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.459075</v>
+        <v>0.451977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.266684</v>
+        <v>0.264664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270541</v>
+        <v>0.277543</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449498</v>
+        <v>0.445659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.256574</v>
+        <v>0.260208</v>
       </c>
       <c r="D16" t="n">
-        <v>0.270041</v>
+        <v>0.269747</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443899</v>
+        <v>0.452594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251957</v>
+        <v>0.256471</v>
       </c>
       <c r="D17" t="n">
-        <v>0.258587</v>
+        <v>0.261818</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.421815</v>
+        <v>0.432001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248092</v>
+        <v>0.247182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25423</v>
+        <v>0.260623</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.433193</v>
+        <v>0.426884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238484</v>
+        <v>0.243595</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246743</v>
+        <v>0.251029</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.433177</v>
+        <v>0.435731</v>
       </c>
       <c r="C20" t="n">
-        <v>0.230587</v>
+        <v>0.239295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240785</v>
+        <v>0.251441</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.417089</v>
+        <v>0.430911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2308</v>
+        <v>0.236916</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241465</v>
+        <v>0.24284</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.403598</v>
+        <v>0.417462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.226288</v>
+        <v>0.229151</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240859</v>
+        <v>0.244171</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.413178</v>
+        <v>0.42322</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227532</v>
+        <v>0.224659</v>
       </c>
       <c r="D23" t="n">
-        <v>0.240865</v>
+        <v>0.235708</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.652513</v>
+        <v>0.655373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.472544</v>
+        <v>0.48538</v>
       </c>
       <c r="D24" t="n">
-        <v>0.489867</v>
+        <v>0.488733</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.654213</v>
+        <v>0.638633</v>
       </c>
       <c r="C25" t="n">
-        <v>0.456917</v>
+        <v>0.461124</v>
       </c>
       <c r="D25" t="n">
-        <v>0.470217</v>
+        <v>0.47602</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.632172</v>
+        <v>0.62881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.450194</v>
+        <v>0.446429</v>
       </c>
       <c r="D26" t="n">
-        <v>0.458458</v>
+        <v>0.4629</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606158</v>
+        <v>0.61849</v>
       </c>
       <c r="C27" t="n">
-        <v>0.43679</v>
+        <v>0.440965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.437909</v>
+        <v>0.447852</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.60307</v>
+        <v>0.60423</v>
       </c>
       <c r="C28" t="n">
-        <v>0.412671</v>
+        <v>0.418429</v>
       </c>
       <c r="D28" t="n">
-        <v>0.433931</v>
+        <v>0.434328</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.584022</v>
+        <v>0.600738</v>
       </c>
       <c r="C29" t="n">
-        <v>0.403229</v>
+        <v>0.405704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.418524</v>
+        <v>0.416237</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.57229</v>
+        <v>0.578099</v>
       </c>
       <c r="C30" t="n">
-        <v>0.395527</v>
+        <v>0.391081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.395226</v>
+        <v>0.401477</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.570727</v>
+        <v>0.564105</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377758</v>
+        <v>0.380489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.397693</v>
+        <v>0.394688</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561611</v>
+        <v>0.555548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.372645</v>
+        <v>0.369508</v>
       </c>
       <c r="D32" t="n">
-        <v>0.375349</v>
+        <v>0.378113</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.552825</v>
+        <v>0.557568</v>
       </c>
       <c r="C33" t="n">
-        <v>0.364354</v>
+        <v>0.35925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.369782</v>
+        <v>0.368851</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.541223</v>
+        <v>0.530939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.349075</v>
+        <v>0.346283</v>
       </c>
       <c r="D34" t="n">
-        <v>0.360728</v>
+        <v>0.355878</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5280359999999999</v>
+        <v>0.532245</v>
       </c>
       <c r="C35" t="n">
-        <v>0.34823</v>
+        <v>0.346356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.352152</v>
+        <v>0.354496</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.52466</v>
+        <v>0.529006</v>
       </c>
       <c r="C36" t="n">
-        <v>0.334137</v>
+        <v>0.328088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.337671</v>
+        <v>0.341609</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.506138</v>
+        <v>0.503547</v>
       </c>
       <c r="C37" t="n">
-        <v>0.322742</v>
+        <v>0.332535</v>
       </c>
       <c r="D37" t="n">
-        <v>0.337966</v>
+        <v>0.333161</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7638239999999999</v>
+        <v>0.76964</v>
       </c>
       <c r="C38" t="n">
-        <v>0.597921</v>
+        <v>0.59726</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6014429999999999</v>
+        <v>0.612262</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.748054</v>
+        <v>0.745196</v>
       </c>
       <c r="C39" t="n">
-        <v>0.568204</v>
+        <v>0.577842</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5748760000000001</v>
+        <v>0.579078</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.744891</v>
+        <v>0.735574</v>
       </c>
       <c r="C40" t="n">
-        <v>0.566854</v>
+        <v>0.554912</v>
       </c>
       <c r="D40" t="n">
-        <v>0.572539</v>
+        <v>0.563086</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.717625</v>
+        <v>0.713036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540532</v>
+        <v>0.532357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545751</v>
+        <v>0.546195</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.685805</v>
+        <v>0.707831</v>
       </c>
       <c r="C42" t="n">
-        <v>0.511537</v>
+        <v>0.519715</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523325</v>
+        <v>0.53561</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.700113</v>
+        <v>0.687396</v>
       </c>
       <c r="C43" t="n">
-        <v>0.498384</v>
+        <v>0.506391</v>
       </c>
       <c r="D43" t="n">
-        <v>0.507917</v>
+        <v>0.5274450000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.696666</v>
+        <v>0.677493</v>
       </c>
       <c r="C44" t="n">
-        <v>0.491036</v>
+        <v>0.48232</v>
       </c>
       <c r="D44" t="n">
-        <v>0.499208</v>
+        <v>0.491836</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6546689999999999</v>
+        <v>0.641602</v>
       </c>
       <c r="C45" t="n">
-        <v>0.470843</v>
+        <v>0.46793</v>
       </c>
       <c r="D45" t="n">
-        <v>0.469916</v>
+        <v>0.477465</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.658334</v>
+        <v>0.639697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.460586</v>
+        <v>0.458192</v>
       </c>
       <c r="D46" t="n">
-        <v>0.468516</v>
+        <v>0.454603</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.63035</v>
+        <v>0.631863</v>
       </c>
       <c r="C47" t="n">
-        <v>0.439206</v>
+        <v>0.445962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.443982</v>
+        <v>0.45052</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.607287</v>
+        <v>0.613448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.425827</v>
+        <v>0.424566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.438723</v>
+        <v>0.42286</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.606097</v>
+        <v>0.621746</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42588</v>
+        <v>0.423718</v>
       </c>
       <c r="D49" t="n">
-        <v>0.42789</v>
+        <v>0.422819</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.608658</v>
+        <v>0.593033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.421457</v>
+        <v>0.407024</v>
       </c>
       <c r="D50" t="n">
-        <v>0.407202</v>
+        <v>0.408949</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5788990000000001</v>
+        <v>0.5841150000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.411003</v>
+        <v>0.400296</v>
       </c>
       <c r="D51" t="n">
-        <v>0.404984</v>
+        <v>0.403806</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.580148</v>
+        <v>0.5740459999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.391153</v>
+        <v>0.388909</v>
       </c>
       <c r="D52" t="n">
-        <v>0.402327</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.83929</v>
+        <v>0.8393699999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.663122</v>
+        <v>0.679646</v>
       </c>
       <c r="D53" t="n">
-        <v>0.662706</v>
+        <v>0.655257</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.806673</v>
+        <v>0.814364</v>
       </c>
       <c r="C54" t="n">
-        <v>0.645583</v>
+        <v>0.655071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.651432</v>
+        <v>0.642184</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.812889</v>
+        <v>0.792733</v>
       </c>
       <c r="C55" t="n">
-        <v>0.627893</v>
+        <v>0.644142</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6158670000000001</v>
+        <v>0.63775</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.786849</v>
+        <v>0.780052</v>
       </c>
       <c r="C56" t="n">
-        <v>0.617418</v>
+        <v>0.62073</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5935589999999999</v>
+        <v>0.596043</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.774047</v>
+        <v>0.766022</v>
       </c>
       <c r="C57" t="n">
-        <v>0.615961</v>
+        <v>0.612783</v>
       </c>
       <c r="D57" t="n">
-        <v>0.590083</v>
+        <v>0.572719</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.763045</v>
+        <v>0.751808</v>
       </c>
       <c r="C58" t="n">
-        <v>0.589374</v>
+        <v>0.583896</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554251</v>
+        <v>0.566768</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.771379</v>
+        <v>0.734986</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5640810000000001</v>
+        <v>0.570712</v>
       </c>
       <c r="D59" t="n">
-        <v>0.538466</v>
+        <v>0.541543</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.735605</v>
+        <v>0.729786</v>
       </c>
       <c r="C60" t="n">
-        <v>0.546833</v>
+        <v>0.550876</v>
       </c>
       <c r="D60" t="n">
-        <v>0.51995</v>
+        <v>0.536254</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7349059999999999</v>
+        <v>0.727986</v>
       </c>
       <c r="C61" t="n">
-        <v>0.537793</v>
+        <v>0.537754</v>
       </c>
       <c r="D61" t="n">
-        <v>0.51505</v>
+        <v>0.510547</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.725183</v>
+        <v>0.706592</v>
       </c>
       <c r="C62" t="n">
-        <v>0.527632</v>
+        <v>0.527906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.498953</v>
+        <v>0.494881</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.723301</v>
+        <v>0.701488</v>
       </c>
       <c r="C63" t="n">
-        <v>0.503302</v>
+        <v>0.519544</v>
       </c>
       <c r="D63" t="n">
-        <v>0.483527</v>
+        <v>0.489189</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.677291</v>
+        <v>0.68364</v>
       </c>
       <c r="C64" t="n">
-        <v>0.495127</v>
+        <v>0.504843</v>
       </c>
       <c r="D64" t="n">
-        <v>0.474704</v>
+        <v>0.468186</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.66833</v>
+        <v>0.681266</v>
       </c>
       <c r="C65" t="n">
-        <v>0.504189</v>
+        <v>0.489792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471517</v>
+        <v>0.462388</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.672641</v>
+        <v>0.674437</v>
       </c>
       <c r="C66" t="n">
-        <v>0.48277</v>
+        <v>0.482402</v>
       </c>
       <c r="D66" t="n">
-        <v>0.456249</v>
+        <v>0.453075</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.950487</v>
+        <v>0.957425</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7816</v>
+        <v>0.772268</v>
       </c>
       <c r="D67" t="n">
-        <v>0.749623</v>
+        <v>0.7429789999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.928524</v>
+        <v>0.953067</v>
       </c>
       <c r="C68" t="n">
-        <v>0.748023</v>
+        <v>0.769504</v>
       </c>
       <c r="D68" t="n">
-        <v>0.724309</v>
+        <v>0.733386</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.90682</v>
+        <v>0.911297</v>
       </c>
       <c r="C69" t="n">
-        <v>0.739214</v>
+        <v>0.7359290000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.708369</v>
+        <v>0.707728</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.906289</v>
+        <v>0.909149</v>
       </c>
       <c r="C70" t="n">
-        <v>0.711027</v>
+        <v>0.731822</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6938260000000001</v>
+        <v>0.676582</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8933449999999999</v>
+        <v>0.872238</v>
       </c>
       <c r="C71" t="n">
-        <v>0.688151</v>
+        <v>0.696447</v>
       </c>
       <c r="D71" t="n">
-        <v>0.669615</v>
+        <v>0.679848</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.879626</v>
+        <v>0.8784110000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.687258</v>
+        <v>0.675576</v>
       </c>
       <c r="D72" t="n">
-        <v>0.640084</v>
+        <v>0.6466150000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.849983</v>
+        <v>0.863121</v>
       </c>
       <c r="C73" t="n">
-        <v>0.652651</v>
+        <v>0.671949</v>
       </c>
       <c r="D73" t="n">
-        <v>0.634386</v>
+        <v>0.6228050000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.843425</v>
+        <v>0.840493</v>
       </c>
       <c r="C74" t="n">
-        <v>0.65839</v>
+        <v>0.639346</v>
       </c>
       <c r="D74" t="n">
-        <v>0.621505</v>
+        <v>0.608499</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.840062</v>
+        <v>0.831897</v>
       </c>
       <c r="C75" t="n">
-        <v>0.614628</v>
+        <v>0.614836</v>
       </c>
       <c r="D75" t="n">
-        <v>0.605742</v>
+        <v>0.58838</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.827314</v>
+        <v>0.818645</v>
       </c>
       <c r="C76" t="n">
-        <v>0.614659</v>
+        <v>0.598224</v>
       </c>
       <c r="D76" t="n">
-        <v>0.579691</v>
+        <v>0.581246</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.807945</v>
+        <v>0.807885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.597532</v>
+        <v>0.605762</v>
       </c>
       <c r="D77" t="n">
-        <v>0.564779</v>
+        <v>0.562577</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.782436</v>
+        <v>0.7922169999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.593435</v>
+        <v>0.586359</v>
       </c>
       <c r="D78" t="n">
-        <v>0.556905</v>
+        <v>0.552864</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7654339999999999</v>
+        <v>0.802078</v>
       </c>
       <c r="C79" t="n">
-        <v>0.575444</v>
+        <v>0.575549</v>
       </c>
       <c r="D79" t="n">
-        <v>0.539415</v>
+        <v>0.546557</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.785127</v>
+        <v>0.766783</v>
       </c>
       <c r="C80" t="n">
-        <v>0.572597</v>
+        <v>0.565261</v>
       </c>
       <c r="D80" t="n">
-        <v>0.529942</v>
+        <v>0.531657</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09681</v>
+        <v>1.08958</v>
       </c>
       <c r="C81" t="n">
-        <v>0.87496</v>
+        <v>0.88336</v>
       </c>
       <c r="D81" t="n">
-        <v>0.861235</v>
+        <v>0.867173</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.04949</v>
+        <v>1.09164</v>
       </c>
       <c r="C82" t="n">
-        <v>0.885388</v>
+        <v>0.86048</v>
       </c>
       <c r="D82" t="n">
-        <v>0.833416</v>
+        <v>0.833714</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03381</v>
+        <v>1.0507</v>
       </c>
       <c r="C83" t="n">
-        <v>0.831026</v>
+        <v>0.831506</v>
       </c>
       <c r="D83" t="n">
-        <v>0.827002</v>
+        <v>0.82128</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0244</v>
+        <v>1.02612</v>
       </c>
       <c r="C84" t="n">
-        <v>0.834754</v>
+        <v>0.824672</v>
       </c>
       <c r="D84" t="n">
-        <v>0.794408</v>
+        <v>0.79396</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0303</v>
+        <v>1.02583</v>
       </c>
       <c r="C85" t="n">
-        <v>0.808032</v>
+        <v>0.818059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.782349</v>
+        <v>0.798331</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01458</v>
+        <v>1.01205</v>
       </c>
       <c r="C86" t="n">
-        <v>0.776125</v>
+        <v>0.772651</v>
       </c>
       <c r="D86" t="n">
-        <v>0.755918</v>
+        <v>0.76372</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.982853</v>
+        <v>1.01437</v>
       </c>
       <c r="C87" t="n">
-        <v>0.770034</v>
+        <v>0.768972</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7362919999999999</v>
+        <v>0.744849</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.956941</v>
+        <v>0.977835</v>
       </c>
       <c r="C88" t="n">
-        <v>0.758724</v>
+        <v>0.750387</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726147</v>
+        <v>0.728256</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9588410000000001</v>
+        <v>0.96071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.742109</v>
+        <v>0.748741</v>
       </c>
       <c r="D89" t="n">
-        <v>0.712126</v>
+        <v>0.717685</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9705549999999999</v>
+        <v>0.951306</v>
       </c>
       <c r="C90" t="n">
-        <v>0.731904</v>
+        <v>0.719252</v>
       </c>
       <c r="D90" t="n">
-        <v>0.704152</v>
+        <v>0.7252999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.931125</v>
+        <v>0.939979</v>
       </c>
       <c r="C91" t="n">
-        <v>0.706753</v>
+        <v>0.715207</v>
       </c>
       <c r="D91" t="n">
-        <v>0.678733</v>
+        <v>0.679281</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.934294</v>
+        <v>0.943554</v>
       </c>
       <c r="C92" t="n">
-        <v>0.706816</v>
+        <v>0.683512</v>
       </c>
       <c r="D92" t="n">
-        <v>0.66571</v>
+        <v>0.680272</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9652809999999999</v>
+        <v>0.920289</v>
       </c>
       <c r="C93" t="n">
-        <v>0.681103</v>
+        <v>0.708937</v>
       </c>
       <c r="D93" t="n">
-        <v>0.648336</v>
+        <v>0.656297</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.909371</v>
+        <v>0.899773</v>
       </c>
       <c r="C94" t="n">
-        <v>0.667705</v>
+        <v>0.681196</v>
       </c>
       <c r="D94" t="n">
-        <v>0.647604</v>
+        <v>0.645472</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20632</v>
+        <v>1.2048</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9820140000000001</v>
+        <v>0.995739</v>
       </c>
       <c r="D95" t="n">
-        <v>0.989231</v>
+        <v>0.96623</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1964</v>
+        <v>1.20251</v>
       </c>
       <c r="C96" t="n">
-        <v>0.987464</v>
+        <v>0.974709</v>
       </c>
       <c r="D96" t="n">
-        <v>0.94999</v>
+        <v>0.955747</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17992</v>
+        <v>1.15152</v>
       </c>
       <c r="C97" t="n">
-        <v>0.966544</v>
+        <v>0.949271</v>
       </c>
       <c r="D97" t="n">
-        <v>0.955399</v>
+        <v>0.9349</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17509</v>
+        <v>1.1882</v>
       </c>
       <c r="C98" t="n">
-        <v>0.933109</v>
+        <v>0.95258</v>
       </c>
       <c r="D98" t="n">
-        <v>0.927358</v>
+        <v>0.912759</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14752</v>
+        <v>1.15323</v>
       </c>
       <c r="C99" t="n">
-        <v>0.929343</v>
+        <v>0.948973</v>
       </c>
       <c r="D99" t="n">
-        <v>0.911233</v>
+        <v>0.9116030000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.12918</v>
+        <v>1.13356</v>
       </c>
       <c r="C100" t="n">
-        <v>0.929231</v>
+        <v>0.907695</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8939589999999999</v>
+        <v>0.877226</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.11119</v>
+        <v>1.13054</v>
       </c>
       <c r="C101" t="n">
-        <v>0.924365</v>
+        <v>0.89505</v>
       </c>
       <c r="D101" t="n">
-        <v>0.863643</v>
+        <v>0.862656</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.11371</v>
+        <v>1.1044</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8966229999999999</v>
+        <v>0.8968930000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.868803</v>
+        <v>0.854621</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09807</v>
+        <v>1.09678</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8716159999999999</v>
+        <v>0.872961</v>
       </c>
       <c r="D103" t="n">
-        <v>0.857938</v>
+        <v>0.841755</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08603</v>
+        <v>1.08311</v>
       </c>
       <c r="C104" t="n">
-        <v>0.871669</v>
+        <v>0.858177</v>
       </c>
       <c r="D104" t="n">
-        <v>0.842123</v>
+        <v>0.820948</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10243</v>
+        <v>1.05876</v>
       </c>
       <c r="C105" t="n">
-        <v>0.85101</v>
+        <v>0.841271</v>
       </c>
       <c r="D105" t="n">
-        <v>0.82638</v>
+        <v>0.818775</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06651</v>
+        <v>1.05891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.837514</v>
+        <v>0.840077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.797395</v>
+        <v>0.797079</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0544</v>
+        <v>1.0556</v>
       </c>
       <c r="C107" t="n">
-        <v>0.824144</v>
+        <v>0.820924</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7972050000000001</v>
+        <v>0.7764529999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06792</v>
+        <v>1.02856</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8187179999999999</v>
+        <v>0.815199</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7964290000000001</v>
+        <v>0.772445</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.03833</v>
+        <v>1.05239</v>
       </c>
       <c r="C109" t="n">
-        <v>0.830045</v>
+        <v>0.810248</v>
       </c>
       <c r="D109" t="n">
-        <v>0.790204</v>
+        <v>0.788427</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38031</v>
+        <v>1.37988</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14433</v>
+        <v>1.13541</v>
       </c>
       <c r="D110" t="n">
-        <v>1.10945</v>
+        <v>1.11946</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33479</v>
+        <v>1.32455</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15678</v>
+        <v>1.12127</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10278</v>
+        <v>1.0964</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33786</v>
+        <v>1.33959</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1193</v>
+        <v>1.10312</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09707</v>
+        <v>1.08176</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.32475</v>
+        <v>1.29807</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1103</v>
+        <v>1.11164</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08715</v>
+        <v>1.09616</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3036</v>
+        <v>1.32041</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0965</v>
+        <v>1.0777</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05668</v>
+        <v>1.0608</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29919</v>
+        <v>1.29135</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09204</v>
+        <v>1.09305</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0772</v>
+        <v>1.06991</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.28126</v>
+        <v>1.30357</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08516</v>
+        <v>1.08345</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04538</v>
+        <v>1.0596</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.29354</v>
+        <v>1.26202</v>
       </c>
       <c r="C117" t="n">
-        <v>1.09445</v>
+        <v>1.05932</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07581</v>
+        <v>1.01625</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30231</v>
+        <v>1.27968</v>
       </c>
       <c r="C118" t="n">
-        <v>1.08883</v>
+        <v>1.0526</v>
       </c>
       <c r="D118" t="n">
-        <v>1.03092</v>
+        <v>1.02547</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2701</v>
+        <v>1.26394</v>
       </c>
       <c r="C119" t="n">
-        <v>1.05139</v>
+        <v>1.06798</v>
       </c>
       <c r="D119" t="n">
-        <v>1.01465</v>
+        <v>1.00634</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2717</v>
+        <v>1.27996</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04837</v>
+        <v>1.05389</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01396</v>
+        <v>1.00401</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.24007</v>
+        <v>1.26549</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02638</v>
+        <v>1.03758</v>
       </c>
       <c r="D121" t="n">
-        <v>1.00273</v>
+        <v>1.00027</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25532</v>
+        <v>1.25352</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04148</v>
+        <v>1.0353</v>
       </c>
       <c r="D122" t="n">
-        <v>0.984639</v>
+        <v>1.02098</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2723</v>
+        <v>1.24629</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03047</v>
+        <v>1.03104</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9802070000000001</v>
+        <v>0.98799</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.57832</v>
+        <v>1.56756</v>
       </c>
       <c r="C124" t="n">
-        <v>1.36103</v>
+        <v>1.38058</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31642</v>
+        <v>1.33457</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58558</v>
+        <v>1.5367</v>
       </c>
       <c r="C125" t="n">
-        <v>1.37803</v>
+        <v>1.36149</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3295</v>
+        <v>1.33221</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56168</v>
+        <v>1.56937</v>
       </c>
       <c r="C126" t="n">
-        <v>1.35108</v>
+        <v>1.34639</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33057</v>
+        <v>1.32454</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55322</v>
+        <v>1.55144</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36564</v>
+        <v>1.35412</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32983</v>
+        <v>1.32343</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.55478</v>
+        <v>1.54934</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37534</v>
+        <v>1.38917</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31228</v>
+        <v>1.31851</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.57238</v>
+        <v>1.55485</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35756</v>
+        <v>1.34313</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32436</v>
+        <v>1.34007</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54499</v>
+        <v>1.55394</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33429</v>
+        <v>1.36312</v>
       </c>
       <c r="D130" t="n">
-        <v>1.33243</v>
+        <v>1.33969</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54922</v>
+        <v>1.58126</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32025</v>
+        <v>1.35506</v>
       </c>
       <c r="D131" t="n">
-        <v>1.32041</v>
+        <v>1.3321</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54933</v>
+        <v>1.54763</v>
       </c>
       <c r="C132" t="n">
-        <v>1.36073</v>
+        <v>1.34972</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31156</v>
+        <v>1.32427</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.52669</v>
+        <v>1.52566</v>
       </c>
       <c r="C133" t="n">
-        <v>1.34504</v>
+        <v>1.3494</v>
       </c>
       <c r="D133" t="n">
-        <v>1.328</v>
+        <v>1.32103</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.53665</v>
+        <v>1.52884</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32552</v>
+        <v>1.34787</v>
       </c>
       <c r="D134" t="n">
-        <v>1.35625</v>
+        <v>1.33642</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.54811</v>
+        <v>1.53017</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35411</v>
+        <v>1.34787</v>
       </c>
       <c r="D135" t="n">
-        <v>1.33075</v>
+        <v>1.33127</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52944</v>
+        <v>1.52668</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34506</v>
+        <v>1.35735</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32057</v>
+        <v>1.33306</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.54395</v>
+        <v>1.53122</v>
       </c>
       <c r="C137" t="n">
-        <v>1.37172</v>
+        <v>1.36604</v>
       </c>
       <c r="D137" t="n">
-        <v>1.33821</v>
+        <v>1.32893</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.87552</v>
+        <v>1.8757</v>
       </c>
       <c r="C138" t="n">
-        <v>1.67632</v>
+        <v>1.66867</v>
       </c>
       <c r="D138" t="n">
-        <v>1.67526</v>
+        <v>1.65897</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.8797</v>
+        <v>1.87225</v>
       </c>
       <c r="C139" t="n">
-        <v>1.69583</v>
+        <v>1.69192</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64461</v>
+        <v>1.67866</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85755</v>
+        <v>1.85241</v>
       </c>
       <c r="C140" t="n">
-        <v>1.6722</v>
+        <v>1.70248</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68294</v>
+        <v>1.66007</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.85827</v>
+        <v>1.87131</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67468</v>
+        <v>1.68154</v>
       </c>
       <c r="D141" t="n">
-        <v>1.69362</v>
+        <v>1.66853</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.85084</v>
+        <v>1.84952</v>
       </c>
       <c r="C142" t="n">
-        <v>1.65685</v>
+        <v>1.67992</v>
       </c>
       <c r="D142" t="n">
-        <v>1.69394</v>
+        <v>1.66503</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.85853</v>
+        <v>1.84198</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69582</v>
+        <v>1.67789</v>
       </c>
       <c r="D143" t="n">
-        <v>1.67732</v>
+        <v>1.68104</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.517297</v>
+        <v>0.5038319999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.257072</v>
+        <v>0.242834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.267701</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.449691</v>
+        <v>0.41923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.248453</v>
+        <v>0.235818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253571</v>
+        <v>0.246526</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44976</v>
+        <v>0.413917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241787</v>
+        <v>0.228371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24566</v>
+        <v>0.241189</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428517</v>
+        <v>0.407682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233372</v>
+        <v>0.224195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242941</v>
+        <v>0.235249</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.413939</v>
+        <v>0.421585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228315</v>
+        <v>0.226371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234219</v>
+        <v>0.232045</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4057</v>
+        <v>0.405579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220195</v>
+        <v>0.214317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.228476</v>
+        <v>0.234733</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.406639</v>
+        <v>0.396507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21713</v>
+        <v>0.218064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227068</v>
+        <v>0.228413</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.404536</v>
+        <v>0.400286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21535</v>
+        <v>0.211046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233195</v>
+        <v>0.227855</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.503942</v>
+        <v>0.485214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.315889</v>
+        <v>0.29658</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321329</v>
+        <v>0.317465</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.507948</v>
+        <v>0.470422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.304293</v>
+        <v>0.293824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.323337</v>
+        <v>0.311571</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.48348</v>
+        <v>0.45909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.292078</v>
+        <v>0.288176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.302599</v>
+        <v>0.297445</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.482978</v>
+        <v>0.473517</v>
       </c>
       <c r="C13" t="n">
-        <v>0.293185</v>
+        <v>0.276327</v>
       </c>
       <c r="D13" t="n">
-        <v>0.301821</v>
+        <v>0.29015</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.464767</v>
+        <v>0.450193</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280696</v>
+        <v>0.268408</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287809</v>
+        <v>0.282316</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451977</v>
+        <v>0.445756</v>
       </c>
       <c r="C15" t="n">
-        <v>0.264664</v>
+        <v>0.268502</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277543</v>
+        <v>0.272243</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445659</v>
+        <v>0.459982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.260208</v>
+        <v>0.262724</v>
       </c>
       <c r="D16" t="n">
-        <v>0.269747</v>
+        <v>0.279511</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.452594</v>
+        <v>0.44127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.256471</v>
+        <v>0.249737</v>
       </c>
       <c r="D17" t="n">
-        <v>0.261818</v>
+        <v>0.265987</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.432001</v>
+        <v>0.422444</v>
       </c>
       <c r="C18" t="n">
-        <v>0.247182</v>
+        <v>0.248434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.260623</v>
+        <v>0.259476</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426884</v>
+        <v>0.428502</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243595</v>
+        <v>0.243219</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251029</v>
+        <v>0.253441</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.435731</v>
+        <v>0.425608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239295</v>
+        <v>0.234483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251441</v>
+        <v>0.244232</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.430911</v>
+        <v>0.417793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236916</v>
+        <v>0.229736</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24284</v>
+        <v>0.247204</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417462</v>
+        <v>0.409365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229151</v>
+        <v>0.230297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244171</v>
+        <v>0.239637</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.42322</v>
+        <v>0.435283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224659</v>
+        <v>0.223357</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235708</v>
+        <v>0.25519</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.655373</v>
+        <v>0.655496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.48538</v>
+        <v>0.471001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.488733</v>
+        <v>0.494632</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.638633</v>
+        <v>0.64009</v>
       </c>
       <c r="C25" t="n">
-        <v>0.461124</v>
+        <v>0.471559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.47602</v>
+        <v>0.482942</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.62881</v>
+        <v>0.634159</v>
       </c>
       <c r="C26" t="n">
-        <v>0.446429</v>
+        <v>0.451826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4629</v>
+        <v>0.470612</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.61849</v>
+        <v>0.6056</v>
       </c>
       <c r="C27" t="n">
-        <v>0.440965</v>
+        <v>0.431281</v>
       </c>
       <c r="D27" t="n">
-        <v>0.447852</v>
+        <v>0.439847</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.60423</v>
+        <v>0.594324</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418429</v>
+        <v>0.426432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.434328</v>
+        <v>0.438226</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.600738</v>
+        <v>0.599078</v>
       </c>
       <c r="C29" t="n">
-        <v>0.405704</v>
+        <v>0.402084</v>
       </c>
       <c r="D29" t="n">
-        <v>0.416237</v>
+        <v>0.418324</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.578099</v>
+        <v>0.587812</v>
       </c>
       <c r="C30" t="n">
-        <v>0.391081</v>
+        <v>0.387396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401477</v>
+        <v>0.398729</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.564105</v>
+        <v>0.567832</v>
       </c>
       <c r="C31" t="n">
-        <v>0.380489</v>
+        <v>0.381733</v>
       </c>
       <c r="D31" t="n">
-        <v>0.394688</v>
+        <v>0.394765</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.555548</v>
+        <v>0.550037</v>
       </c>
       <c r="C32" t="n">
-        <v>0.369508</v>
+        <v>0.370396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.378113</v>
+        <v>0.381378</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.557568</v>
+        <v>0.539567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.35925</v>
+        <v>0.35329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.368851</v>
+        <v>0.36843</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.530939</v>
+        <v>0.536545</v>
       </c>
       <c r="C34" t="n">
-        <v>0.346283</v>
+        <v>0.344267</v>
       </c>
       <c r="D34" t="n">
-        <v>0.355878</v>
+        <v>0.355675</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.532245</v>
+        <v>0.537919</v>
       </c>
       <c r="C35" t="n">
-        <v>0.346356</v>
+        <v>0.334596</v>
       </c>
       <c r="D35" t="n">
-        <v>0.354496</v>
+        <v>0.351528</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.529006</v>
+        <v>0.520629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.328088</v>
+        <v>0.330994</v>
       </c>
       <c r="D36" t="n">
-        <v>0.341609</v>
+        <v>0.345546</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.503547</v>
+        <v>0.510347</v>
       </c>
       <c r="C37" t="n">
-        <v>0.332535</v>
+        <v>0.319495</v>
       </c>
       <c r="D37" t="n">
-        <v>0.333161</v>
+        <v>0.336443</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.76964</v>
+        <v>0.766989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.59726</v>
+        <v>0.585683</v>
       </c>
       <c r="D38" t="n">
-        <v>0.612262</v>
+        <v>0.589733</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745196</v>
+        <v>0.746741</v>
       </c>
       <c r="C39" t="n">
-        <v>0.577842</v>
+        <v>0.559801</v>
       </c>
       <c r="D39" t="n">
-        <v>0.579078</v>
+        <v>0.5787639999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.735574</v>
+        <v>0.730219</v>
       </c>
       <c r="C40" t="n">
-        <v>0.554912</v>
+        <v>0.54362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.563086</v>
+        <v>0.554083</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.713036</v>
+        <v>0.7113080000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.532357</v>
+        <v>0.542296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.546195</v>
+        <v>0.545879</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.707831</v>
+        <v>0.710295</v>
       </c>
       <c r="C42" t="n">
-        <v>0.519715</v>
+        <v>0.51481</v>
       </c>
       <c r="D42" t="n">
-        <v>0.53561</v>
+        <v>0.535591</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.687396</v>
+        <v>0.678638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.506391</v>
+        <v>0.506723</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5274450000000001</v>
+        <v>0.510504</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.677493</v>
+        <v>0.680217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48232</v>
+        <v>0.479136</v>
       </c>
       <c r="D44" t="n">
-        <v>0.491836</v>
+        <v>0.495438</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.641602</v>
+        <v>0.649443</v>
       </c>
       <c r="C45" t="n">
-        <v>0.46793</v>
+        <v>0.465754</v>
       </c>
       <c r="D45" t="n">
-        <v>0.477465</v>
+        <v>0.474789</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.639697</v>
+        <v>0.635104</v>
       </c>
       <c r="C46" t="n">
-        <v>0.458192</v>
+        <v>0.443978</v>
       </c>
       <c r="D46" t="n">
-        <v>0.454603</v>
+        <v>0.463522</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631863</v>
+        <v>0.631509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445962</v>
+        <v>0.44674</v>
       </c>
       <c r="D47" t="n">
-        <v>0.45052</v>
+        <v>0.441683</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.613448</v>
+        <v>0.629717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.424566</v>
+        <v>0.437061</v>
       </c>
       <c r="D48" t="n">
-        <v>0.42286</v>
+        <v>0.432727</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.621746</v>
+        <v>0.606845</v>
       </c>
       <c r="C49" t="n">
-        <v>0.423718</v>
+        <v>0.418493</v>
       </c>
       <c r="D49" t="n">
-        <v>0.422819</v>
+        <v>0.422272</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.593033</v>
+        <v>0.600139</v>
       </c>
       <c r="C50" t="n">
-        <v>0.407024</v>
+        <v>0.407564</v>
       </c>
       <c r="D50" t="n">
-        <v>0.408949</v>
+        <v>0.417973</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5841150000000001</v>
+        <v>0.589056</v>
       </c>
       <c r="C51" t="n">
-        <v>0.400296</v>
+        <v>0.401223</v>
       </c>
       <c r="D51" t="n">
-        <v>0.403806</v>
+        <v>0.412678</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5740459999999999</v>
+        <v>0.58892</v>
       </c>
       <c r="C52" t="n">
-        <v>0.388909</v>
+        <v>0.38822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.394433</v>
+        <v>0.404678</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8393699999999999</v>
+        <v>0.845686</v>
       </c>
       <c r="C53" t="n">
-        <v>0.679646</v>
+        <v>0.660108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.655257</v>
+        <v>0.660798</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.814364</v>
+        <v>0.818894</v>
       </c>
       <c r="C54" t="n">
-        <v>0.655071</v>
+        <v>0.634731</v>
       </c>
       <c r="D54" t="n">
-        <v>0.642184</v>
+        <v>0.62932</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.792733</v>
+        <v>0.816726</v>
       </c>
       <c r="C55" t="n">
-        <v>0.644142</v>
+        <v>0.632804</v>
       </c>
       <c r="D55" t="n">
-        <v>0.63775</v>
+        <v>0.623107</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.780052</v>
+        <v>0.791167</v>
       </c>
       <c r="C56" t="n">
-        <v>0.62073</v>
+        <v>0.611532</v>
       </c>
       <c r="D56" t="n">
-        <v>0.596043</v>
+        <v>0.5849529999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.766022</v>
+        <v>0.776274</v>
       </c>
       <c r="C57" t="n">
-        <v>0.612783</v>
+        <v>0.5883119999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.572719</v>
+        <v>0.562747</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.751808</v>
+        <v>0.775681</v>
       </c>
       <c r="C58" t="n">
-        <v>0.583896</v>
+        <v>0.57316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.566768</v>
+        <v>0.559213</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.734986</v>
+        <v>0.756024</v>
       </c>
       <c r="C59" t="n">
-        <v>0.570712</v>
+        <v>0.578919</v>
       </c>
       <c r="D59" t="n">
-        <v>0.541543</v>
+        <v>0.555053</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.729786</v>
+        <v>0.739441</v>
       </c>
       <c r="C60" t="n">
-        <v>0.550876</v>
+        <v>0.552169</v>
       </c>
       <c r="D60" t="n">
-        <v>0.536254</v>
+        <v>0.536296</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.727986</v>
+        <v>0.723077</v>
       </c>
       <c r="C61" t="n">
-        <v>0.537754</v>
+        <v>0.526018</v>
       </c>
       <c r="D61" t="n">
-        <v>0.510547</v>
+        <v>0.506181</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.706592</v>
+        <v>0.727291</v>
       </c>
       <c r="C62" t="n">
-        <v>0.527906</v>
+        <v>0.515324</v>
       </c>
       <c r="D62" t="n">
-        <v>0.494881</v>
+        <v>0.493697</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.701488</v>
+        <v>0.695453</v>
       </c>
       <c r="C63" t="n">
-        <v>0.519544</v>
+        <v>0.5012259999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.489189</v>
+        <v>0.495054</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.68364</v>
+        <v>0.680962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.504843</v>
+        <v>0.499398</v>
       </c>
       <c r="D64" t="n">
-        <v>0.468186</v>
+        <v>0.479965</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.681266</v>
+        <v>0.67994</v>
       </c>
       <c r="C65" t="n">
-        <v>0.489792</v>
+        <v>0.482289</v>
       </c>
       <c r="D65" t="n">
-        <v>0.462388</v>
+        <v>0.468741</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.674437</v>
+        <v>0.683071</v>
       </c>
       <c r="C66" t="n">
-        <v>0.482402</v>
+        <v>0.472935</v>
       </c>
       <c r="D66" t="n">
-        <v>0.453075</v>
+        <v>0.462521</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.957425</v>
+        <v>0.976851</v>
       </c>
       <c r="C67" t="n">
-        <v>0.772268</v>
+        <v>0.755995</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7429789999999999</v>
+        <v>0.739382</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.953067</v>
+        <v>0.945111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.769504</v>
+        <v>0.7340989999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.733386</v>
+        <v>0.711685</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.911297</v>
+        <v>0.914651</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7359290000000001</v>
+        <v>0.734385</v>
       </c>
       <c r="D69" t="n">
-        <v>0.707728</v>
+        <v>0.702184</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.909149</v>
+        <v>0.894639</v>
       </c>
       <c r="C70" t="n">
-        <v>0.731822</v>
+        <v>0.728164</v>
       </c>
       <c r="D70" t="n">
-        <v>0.676582</v>
+        <v>0.679586</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.872238</v>
+        <v>0.903505</v>
       </c>
       <c r="C71" t="n">
-        <v>0.696447</v>
+        <v>0.681135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.679848</v>
+        <v>0.675774</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8784110000000001</v>
+        <v>0.864565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.675576</v>
+        <v>0.687087</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6466150000000001</v>
+        <v>0.664262</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.863121</v>
+        <v>0.848285</v>
       </c>
       <c r="C73" t="n">
-        <v>0.671949</v>
+        <v>0.647253</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6228050000000001</v>
+        <v>0.637148</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.840493</v>
+        <v>0.825447</v>
       </c>
       <c r="C74" t="n">
-        <v>0.639346</v>
+        <v>0.622512</v>
       </c>
       <c r="D74" t="n">
-        <v>0.608499</v>
+        <v>0.609639</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.831897</v>
+        <v>0.825599</v>
       </c>
       <c r="C75" t="n">
-        <v>0.614836</v>
+        <v>0.639119</v>
       </c>
       <c r="D75" t="n">
-        <v>0.58838</v>
+        <v>0.6044119999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.818645</v>
+        <v>0.831767</v>
       </c>
       <c r="C76" t="n">
-        <v>0.598224</v>
+        <v>0.607053</v>
       </c>
       <c r="D76" t="n">
-        <v>0.581246</v>
+        <v>0.582647</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.807885</v>
+        <v>0.8043709999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.605762</v>
+        <v>0.6128130000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562577</v>
+        <v>0.575125</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7922169999999999</v>
+        <v>0.798056</v>
       </c>
       <c r="C78" t="n">
-        <v>0.586359</v>
+        <v>0.580193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.552864</v>
+        <v>0.582433</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.802078</v>
+        <v>0.796374</v>
       </c>
       <c r="C79" t="n">
-        <v>0.575549</v>
+        <v>0.5655250000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.546557</v>
+        <v>0.547045</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.766783</v>
+        <v>0.770212</v>
       </c>
       <c r="C80" t="n">
-        <v>0.565261</v>
+        <v>0.571472</v>
       </c>
       <c r="D80" t="n">
-        <v>0.531657</v>
+        <v>0.545111</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08958</v>
+        <v>1.08449</v>
       </c>
       <c r="C81" t="n">
-        <v>0.88336</v>
+        <v>0.878333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.867173</v>
+        <v>0.853644</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09164</v>
+        <v>1.1054</v>
       </c>
       <c r="C82" t="n">
-        <v>0.86048</v>
+        <v>0.854135</v>
       </c>
       <c r="D82" t="n">
-        <v>0.833714</v>
+        <v>0.849012</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0507</v>
+        <v>1.03904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.831506</v>
+        <v>0.835135</v>
       </c>
       <c r="D83" t="n">
-        <v>0.82128</v>
+        <v>0.835619</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.02612</v>
+        <v>1.058</v>
       </c>
       <c r="C84" t="n">
-        <v>0.824672</v>
+        <v>0.836632</v>
       </c>
       <c r="D84" t="n">
-        <v>0.79396</v>
+        <v>0.80327</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02583</v>
+        <v>1.0174</v>
       </c>
       <c r="C85" t="n">
-        <v>0.818059</v>
+        <v>0.798945</v>
       </c>
       <c r="D85" t="n">
-        <v>0.798331</v>
+        <v>0.796315</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01205</v>
+        <v>1.01269</v>
       </c>
       <c r="C86" t="n">
-        <v>0.772651</v>
+        <v>0.807126</v>
       </c>
       <c r="D86" t="n">
-        <v>0.76372</v>
+        <v>0.773512</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01437</v>
+        <v>0.996296</v>
       </c>
       <c r="C87" t="n">
-        <v>0.768972</v>
+        <v>0.760854</v>
       </c>
       <c r="D87" t="n">
-        <v>0.744849</v>
+        <v>0.765119</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.977835</v>
+        <v>0.9864309999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.750387</v>
+        <v>0.757767</v>
       </c>
       <c r="D88" t="n">
-        <v>0.728256</v>
+        <v>0.726002</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.96071</v>
+        <v>0.971407</v>
       </c>
       <c r="C89" t="n">
-        <v>0.748741</v>
+        <v>0.726791</v>
       </c>
       <c r="D89" t="n">
-        <v>0.717685</v>
+        <v>0.7073660000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.951306</v>
+        <v>0.973341</v>
       </c>
       <c r="C90" t="n">
-        <v>0.719252</v>
+        <v>0.723984</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7252999999999999</v>
+        <v>0.697719</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.939979</v>
+        <v>0.947257</v>
       </c>
       <c r="C91" t="n">
-        <v>0.715207</v>
+        <v>0.704949</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679281</v>
+        <v>0.694953</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.943554</v>
+        <v>0.932926</v>
       </c>
       <c r="C92" t="n">
-        <v>0.683512</v>
+        <v>0.706488</v>
       </c>
       <c r="D92" t="n">
-        <v>0.680272</v>
+        <v>0.681241</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.920289</v>
+        <v>0.926587</v>
       </c>
       <c r="C93" t="n">
-        <v>0.708937</v>
+        <v>0.679637</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656297</v>
+        <v>0.6703440000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.899773</v>
+        <v>0.915553</v>
       </c>
       <c r="C94" t="n">
-        <v>0.681196</v>
+        <v>0.674924</v>
       </c>
       <c r="D94" t="n">
-        <v>0.645472</v>
+        <v>0.665429</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2048</v>
+        <v>1.20999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.995739</v>
+        <v>0.988414</v>
       </c>
       <c r="D95" t="n">
-        <v>0.96623</v>
+        <v>0.965601</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20251</v>
+        <v>1.2286</v>
       </c>
       <c r="C96" t="n">
-        <v>0.974709</v>
+        <v>0.9998899999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.955747</v>
+        <v>0.980357</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.15152</v>
+        <v>1.2055</v>
       </c>
       <c r="C97" t="n">
-        <v>0.949271</v>
+        <v>0.9607599999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9349</v>
+        <v>0.970958</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1882</v>
+        <v>1.20865</v>
       </c>
       <c r="C98" t="n">
-        <v>0.95258</v>
+        <v>0.961421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.912759</v>
+        <v>0.933067</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.15323</v>
+        <v>1.20164</v>
       </c>
       <c r="C99" t="n">
-        <v>0.948973</v>
+        <v>0.939828</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9116030000000001</v>
+        <v>0.91007</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13356</v>
+        <v>1.16567</v>
       </c>
       <c r="C100" t="n">
-        <v>0.907695</v>
+        <v>0.936296</v>
       </c>
       <c r="D100" t="n">
-        <v>0.877226</v>
+        <v>0.915888</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.13054</v>
+        <v>1.15484</v>
       </c>
       <c r="C101" t="n">
-        <v>0.89505</v>
+        <v>0.895235</v>
       </c>
       <c r="D101" t="n">
-        <v>0.862656</v>
+        <v>0.9053060000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.1044</v>
+        <v>1.13258</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8968930000000001</v>
+        <v>0.892066</v>
       </c>
       <c r="D102" t="n">
-        <v>0.854621</v>
+        <v>0.8753649999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09678</v>
+        <v>1.10669</v>
       </c>
       <c r="C103" t="n">
-        <v>0.872961</v>
+        <v>0.884005</v>
       </c>
       <c r="D103" t="n">
-        <v>0.841755</v>
+        <v>0.873277</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08311</v>
+        <v>1.08277</v>
       </c>
       <c r="C104" t="n">
-        <v>0.858177</v>
+        <v>0.85827</v>
       </c>
       <c r="D104" t="n">
-        <v>0.820948</v>
+        <v>0.849788</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05876</v>
+        <v>1.08584</v>
       </c>
       <c r="C105" t="n">
-        <v>0.841271</v>
+        <v>0.861529</v>
       </c>
       <c r="D105" t="n">
-        <v>0.818775</v>
+        <v>0.830302</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05891</v>
+        <v>1.10413</v>
       </c>
       <c r="C106" t="n">
-        <v>0.840077</v>
+        <v>0.859681</v>
       </c>
       <c r="D106" t="n">
-        <v>0.797079</v>
+        <v>0.818581</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0556</v>
+        <v>1.06206</v>
       </c>
       <c r="C107" t="n">
-        <v>0.820924</v>
+        <v>0.827024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7764529999999999</v>
+        <v>0.808906</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.02856</v>
+        <v>1.08538</v>
       </c>
       <c r="C108" t="n">
-        <v>0.815199</v>
+        <v>0.818612</v>
       </c>
       <c r="D108" t="n">
-        <v>0.772445</v>
+        <v>0.785701</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05239</v>
+        <v>1.04547</v>
       </c>
       <c r="C109" t="n">
-        <v>0.810248</v>
+        <v>0.820794</v>
       </c>
       <c r="D109" t="n">
-        <v>0.788427</v>
+        <v>0.797841</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37988</v>
+        <v>1.37053</v>
       </c>
       <c r="C110" t="n">
-        <v>1.13541</v>
+        <v>1.14338</v>
       </c>
       <c r="D110" t="n">
-        <v>1.11946</v>
+        <v>1.12827</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32455</v>
+        <v>1.35568</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12127</v>
+        <v>1.13115</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0964</v>
+        <v>1.12915</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33959</v>
+        <v>1.33688</v>
       </c>
       <c r="C112" t="n">
-        <v>1.10312</v>
+        <v>1.12699</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08176</v>
+        <v>1.11114</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29807</v>
+        <v>1.32287</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11164</v>
+        <v>1.12109</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09616</v>
+        <v>1.09974</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.32041</v>
+        <v>1.29091</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0777</v>
+        <v>1.1126</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0608</v>
+        <v>1.09292</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.29135</v>
+        <v>1.30489</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09305</v>
+        <v>1.10886</v>
       </c>
       <c r="D115" t="n">
-        <v>1.06991</v>
+        <v>1.0771</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.30357</v>
+        <v>1.3337</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08345</v>
+        <v>1.09425</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0596</v>
+        <v>1.06847</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.26202</v>
+        <v>1.25977</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05932</v>
+        <v>1.07344</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01625</v>
+        <v>1.07567</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.27968</v>
+        <v>1.30754</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0526</v>
+        <v>1.06795</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02547</v>
+        <v>1.04585</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26394</v>
+        <v>1.26991</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06798</v>
+        <v>1.06572</v>
       </c>
       <c r="D119" t="n">
-        <v>1.00634</v>
+        <v>1.01859</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.27996</v>
+        <v>1.25364</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05389</v>
+        <v>1.03962</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00401</v>
+        <v>1.01775</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26549</v>
+        <v>1.26494</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03758</v>
+        <v>1.03638</v>
       </c>
       <c r="D121" t="n">
-        <v>1.00027</v>
+        <v>1.00926</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.25352</v>
+        <v>1.23957</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0353</v>
+        <v>1.01451</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02098</v>
+        <v>1.01908</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.24629</v>
+        <v>1.26191</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03104</v>
+        <v>1.02379</v>
       </c>
       <c r="D123" t="n">
-        <v>0.98799</v>
+        <v>1.01342</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.56756</v>
+        <v>1.58197</v>
       </c>
       <c r="C124" t="n">
-        <v>1.38058</v>
+        <v>1.36608</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33457</v>
+        <v>1.34775</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.5367</v>
+        <v>1.54052</v>
       </c>
       <c r="C125" t="n">
-        <v>1.36149</v>
+        <v>1.3788</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33221</v>
+        <v>1.34375</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.56937</v>
+        <v>1.55078</v>
       </c>
       <c r="C126" t="n">
-        <v>1.34639</v>
+        <v>1.352</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32454</v>
+        <v>1.35106</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55144</v>
+        <v>1.55718</v>
       </c>
       <c r="C127" t="n">
-        <v>1.35412</v>
+        <v>1.35122</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32343</v>
+        <v>1.35194</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.54934</v>
+        <v>1.52777</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38917</v>
+        <v>1.3553</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31851</v>
+        <v>1.33496</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55485</v>
+        <v>1.55318</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34313</v>
+        <v>1.35867</v>
       </c>
       <c r="D129" t="n">
-        <v>1.34007</v>
+        <v>1.35151</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.55394</v>
+        <v>1.54074</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36312</v>
+        <v>1.35698</v>
       </c>
       <c r="D130" t="n">
-        <v>1.33969</v>
+        <v>1.34323</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.58126</v>
+        <v>1.54772</v>
       </c>
       <c r="C131" t="n">
-        <v>1.35506</v>
+        <v>1.34537</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3321</v>
+        <v>1.33234</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.54763</v>
+        <v>1.53495</v>
       </c>
       <c r="C132" t="n">
-        <v>1.34972</v>
+        <v>1.33788</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32427</v>
+        <v>1.32929</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.52566</v>
+        <v>1.55364</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3494</v>
+        <v>1.33677</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32103</v>
+        <v>1.33922</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.52884</v>
+        <v>1.54385</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34787</v>
+        <v>1.34149</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33642</v>
+        <v>1.33905</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.53017</v>
+        <v>1.56848</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34787</v>
+        <v>1.34334</v>
       </c>
       <c r="D135" t="n">
-        <v>1.33127</v>
+        <v>1.35236</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52668</v>
+        <v>1.52809</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35735</v>
+        <v>1.35124</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33306</v>
+        <v>1.36243</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.53122</v>
+        <v>1.55412</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36604</v>
+        <v>1.34673</v>
       </c>
       <c r="D137" t="n">
-        <v>1.32893</v>
+        <v>1.33873</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.8757</v>
+        <v>1.86908</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66867</v>
+        <v>1.6716</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65897</v>
+        <v>1.6821</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.87225</v>
+        <v>1.87908</v>
       </c>
       <c r="C139" t="n">
-        <v>1.69192</v>
+        <v>1.67783</v>
       </c>
       <c r="D139" t="n">
-        <v>1.67866</v>
+        <v>1.69229</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.85241</v>
+        <v>1.86447</v>
       </c>
       <c r="C140" t="n">
-        <v>1.70248</v>
+        <v>1.67401</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66007</v>
+        <v>1.68932</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.87131</v>
+        <v>1.8548</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68154</v>
+        <v>1.67141</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66853</v>
+        <v>1.68592</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.84952</v>
+        <v>1.83448</v>
       </c>
       <c r="C142" t="n">
-        <v>1.67992</v>
+        <v>1.68182</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66503</v>
+        <v>1.67462</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84198</v>
+        <v>1.84995</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67789</v>
+        <v>1.68001</v>
       </c>
       <c r="D143" t="n">
-        <v>1.68104</v>
+        <v>1.66933</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5038319999999999</v>
+        <v>0.518716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242834</v>
+        <v>0.248357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2503</v>
+        <v>0.23421</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.41923</v>
+        <v>0.419665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235818</v>
+        <v>0.235506</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246526</v>
+        <v>0.224895</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413917</v>
+        <v>0.427282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228371</v>
+        <v>0.233584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241189</v>
+        <v>0.230937</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.407682</v>
+        <v>0.429692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224195</v>
+        <v>0.234786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235249</v>
+        <v>0.226022</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.421585</v>
+        <v>0.423067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226371</v>
+        <v>0.231975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232045</v>
+        <v>0.223292</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.405579</v>
+        <v>0.412537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214317</v>
+        <v>0.22608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.234733</v>
+        <v>0.217756</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.396507</v>
+        <v>0.405033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218064</v>
+        <v>0.219442</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228413</v>
+        <v>0.215237</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.400286</v>
+        <v>0.412197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.211046</v>
+        <v>0.215716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.227855</v>
+        <v>0.306318</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.485214</v>
+        <v>0.501814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.29658</v>
+        <v>0.312462</v>
       </c>
       <c r="D10" t="n">
-        <v>0.317465</v>
+        <v>0.294489</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.470422</v>
+        <v>0.488153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.293824</v>
+        <v>0.299718</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311571</v>
+        <v>0.289294</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45909</v>
+        <v>0.489131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.288176</v>
+        <v>0.287899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297445</v>
+        <v>0.283793</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.473517</v>
+        <v>0.475492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.276327</v>
+        <v>0.285588</v>
       </c>
       <c r="D13" t="n">
-        <v>0.29015</v>
+        <v>0.275896</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.450193</v>
+        <v>0.459073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.268408</v>
+        <v>0.272991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282316</v>
+        <v>0.259541</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.445756</v>
+        <v>0.459649</v>
       </c>
       <c r="C15" t="n">
-        <v>0.268502</v>
+        <v>0.26818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272243</v>
+        <v>0.260299</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.459982</v>
+        <v>0.449246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.262724</v>
+        <v>0.25547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279511</v>
+        <v>0.249228</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.44127</v>
+        <v>0.440683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249737</v>
+        <v>0.251543</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265987</v>
+        <v>0.245538</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.422444</v>
+        <v>0.429686</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248434</v>
+        <v>0.242859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259476</v>
+        <v>0.236502</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428502</v>
+        <v>0.440676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243219</v>
+        <v>0.24105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253441</v>
+        <v>0.234325</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.425608</v>
+        <v>0.428896</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234483</v>
+        <v>0.234474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244232</v>
+        <v>0.226391</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.417793</v>
+        <v>0.427077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.229736</v>
+        <v>0.235379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247204</v>
+        <v>0.224983</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.409365</v>
+        <v>0.420371</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230297</v>
+        <v>0.231005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239637</v>
+        <v>0.221045</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.435283</v>
+        <v>0.41723</v>
       </c>
       <c r="C23" t="n">
-        <v>0.223357</v>
+        <v>0.228488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25519</v>
+        <v>0.320188</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.655496</v>
+        <v>0.67293</v>
       </c>
       <c r="C24" t="n">
-        <v>0.471001</v>
+        <v>0.467292</v>
       </c>
       <c r="D24" t="n">
-        <v>0.494632</v>
+        <v>0.302395</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.64009</v>
+        <v>0.65376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.471559</v>
+        <v>0.45912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.482942</v>
+        <v>0.305271</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.634159</v>
+        <v>0.649825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.451826</v>
+        <v>0.446053</v>
       </c>
       <c r="D26" t="n">
-        <v>0.470612</v>
+        <v>0.292295</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6056</v>
+        <v>0.620528</v>
       </c>
       <c r="C27" t="n">
-        <v>0.431281</v>
+        <v>0.433416</v>
       </c>
       <c r="D27" t="n">
-        <v>0.439847</v>
+        <v>0.292217</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.594324</v>
+        <v>0.6150099999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.426432</v>
+        <v>0.424917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.438226</v>
+        <v>0.284507</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.599078</v>
+        <v>0.592753</v>
       </c>
       <c r="C29" t="n">
-        <v>0.402084</v>
+        <v>0.404963</v>
       </c>
       <c r="D29" t="n">
-        <v>0.418324</v>
+        <v>0.273151</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.587812</v>
+        <v>0.585857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.387396</v>
+        <v>0.390909</v>
       </c>
       <c r="D30" t="n">
-        <v>0.398729</v>
+        <v>0.266694</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.567832</v>
+        <v>0.570153</v>
       </c>
       <c r="C31" t="n">
-        <v>0.381733</v>
+        <v>0.38601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.394765</v>
+        <v>0.256739</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.550037</v>
+        <v>0.555866</v>
       </c>
       <c r="C32" t="n">
-        <v>0.370396</v>
+        <v>0.3757</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381378</v>
+        <v>0.254216</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.539567</v>
+        <v>0.546739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.35329</v>
+        <v>0.360681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.36843</v>
+        <v>0.250097</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.536545</v>
+        <v>0.534991</v>
       </c>
       <c r="C34" t="n">
-        <v>0.344267</v>
+        <v>0.348529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.355675</v>
+        <v>0.249286</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.537919</v>
+        <v>0.525544</v>
       </c>
       <c r="C35" t="n">
-        <v>0.334596</v>
+        <v>0.341959</v>
       </c>
       <c r="D35" t="n">
-        <v>0.351528</v>
+        <v>0.241044</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.520629</v>
+        <v>0.516103</v>
       </c>
       <c r="C36" t="n">
-        <v>0.330994</v>
+        <v>0.336448</v>
       </c>
       <c r="D36" t="n">
-        <v>0.345546</v>
+        <v>0.238037</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.510347</v>
+        <v>0.513199</v>
       </c>
       <c r="C37" t="n">
-        <v>0.319495</v>
+        <v>0.329716</v>
       </c>
       <c r="D37" t="n">
-        <v>0.336443</v>
+        <v>0.488356</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.766989</v>
+        <v>0.773923</v>
       </c>
       <c r="C38" t="n">
-        <v>0.585683</v>
+        <v>0.593822</v>
       </c>
       <c r="D38" t="n">
-        <v>0.589733</v>
+        <v>0.473268</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746741</v>
+        <v>0.746599</v>
       </c>
       <c r="C39" t="n">
-        <v>0.559801</v>
+        <v>0.564921</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5787639999999999</v>
+        <v>0.456661</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.730219</v>
+        <v>0.733531</v>
       </c>
       <c r="C40" t="n">
-        <v>0.54362</v>
+        <v>0.554802</v>
       </c>
       <c r="D40" t="n">
-        <v>0.554083</v>
+        <v>0.440434</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7113080000000001</v>
+        <v>0.716789</v>
       </c>
       <c r="C41" t="n">
-        <v>0.542296</v>
+        <v>0.53603</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545879</v>
+        <v>0.431275</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.710295</v>
+        <v>0.691202</v>
       </c>
       <c r="C42" t="n">
-        <v>0.51481</v>
+        <v>0.510979</v>
       </c>
       <c r="D42" t="n">
-        <v>0.535591</v>
+        <v>0.416391</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.678638</v>
+        <v>0.699081</v>
       </c>
       <c r="C43" t="n">
-        <v>0.506723</v>
+        <v>0.5185149999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.510504</v>
+        <v>0.400595</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.680217</v>
+        <v>0.668061</v>
       </c>
       <c r="C44" t="n">
-        <v>0.479136</v>
+        <v>0.50182</v>
       </c>
       <c r="D44" t="n">
-        <v>0.495438</v>
+        <v>0.402532</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.649443</v>
+        <v>0.650224</v>
       </c>
       <c r="C45" t="n">
-        <v>0.465754</v>
+        <v>0.472696</v>
       </c>
       <c r="D45" t="n">
-        <v>0.474789</v>
+        <v>0.376992</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.635104</v>
+        <v>0.640299</v>
       </c>
       <c r="C46" t="n">
-        <v>0.443978</v>
+        <v>0.458048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.463522</v>
+        <v>0.370822</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631509</v>
+        <v>0.624333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.44674</v>
+        <v>0.45178</v>
       </c>
       <c r="D47" t="n">
-        <v>0.441683</v>
+        <v>0.361392</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.629717</v>
+        <v>0.618523</v>
       </c>
       <c r="C48" t="n">
-        <v>0.437061</v>
+        <v>0.430722</v>
       </c>
       <c r="D48" t="n">
-        <v>0.432727</v>
+        <v>0.352392</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.606845</v>
+        <v>0.59922</v>
       </c>
       <c r="C49" t="n">
-        <v>0.418493</v>
+        <v>0.416502</v>
       </c>
       <c r="D49" t="n">
-        <v>0.422272</v>
+        <v>0.341825</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.600139</v>
+        <v>0.6128169999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.407564</v>
+        <v>0.414429</v>
       </c>
       <c r="D50" t="n">
-        <v>0.417973</v>
+        <v>0.333449</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.589056</v>
+        <v>0.581436</v>
       </c>
       <c r="C51" t="n">
-        <v>0.401223</v>
+        <v>0.41976</v>
       </c>
       <c r="D51" t="n">
-        <v>0.412678</v>
+        <v>0.6182609999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.58892</v>
+        <v>0.576064</v>
       </c>
       <c r="C52" t="n">
-        <v>0.38822</v>
+        <v>0.394389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.404678</v>
+        <v>0.603456</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.845686</v>
+        <v>0.840789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.660108</v>
+        <v>0.665349</v>
       </c>
       <c r="D53" t="n">
-        <v>0.660798</v>
+        <v>0.56621</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.818894</v>
+        <v>0.824592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.634731</v>
+        <v>0.666091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.62932</v>
+        <v>0.5539809999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.816726</v>
+        <v>0.794969</v>
       </c>
       <c r="C55" t="n">
-        <v>0.632804</v>
+        <v>0.647506</v>
       </c>
       <c r="D55" t="n">
-        <v>0.623107</v>
+        <v>0.5505949999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.791167</v>
+        <v>0.795693</v>
       </c>
       <c r="C56" t="n">
-        <v>0.611532</v>
+        <v>0.623843</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5849529999999999</v>
+        <v>0.542932</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.776274</v>
+        <v>0.775675</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5883119999999999</v>
+        <v>0.603776</v>
       </c>
       <c r="D57" t="n">
-        <v>0.562747</v>
+        <v>0.515168</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.775681</v>
+        <v>0.762045</v>
       </c>
       <c r="C58" t="n">
-        <v>0.57316</v>
+        <v>0.592515</v>
       </c>
       <c r="D58" t="n">
-        <v>0.559213</v>
+        <v>0.497092</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.756024</v>
+        <v>0.7584</v>
       </c>
       <c r="C59" t="n">
-        <v>0.578919</v>
+        <v>0.571152</v>
       </c>
       <c r="D59" t="n">
-        <v>0.555053</v>
+        <v>0.484006</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.739441</v>
+        <v>0.729125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.552169</v>
+        <v>0.586311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.536296</v>
+        <v>0.475132</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.723077</v>
+        <v>0.711318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.526018</v>
+        <v>0.538672</v>
       </c>
       <c r="D61" t="n">
-        <v>0.506181</v>
+        <v>0.460643</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.727291</v>
+        <v>0.7395620000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.515324</v>
+        <v>0.532061</v>
       </c>
       <c r="D62" t="n">
-        <v>0.493697</v>
+        <v>0.454265</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.695453</v>
+        <v>0.699443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5012259999999999</v>
+        <v>0.514633</v>
       </c>
       <c r="D63" t="n">
-        <v>0.495054</v>
+        <v>0.440692</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.680962</v>
+        <v>0.695082</v>
       </c>
       <c r="C64" t="n">
-        <v>0.499398</v>
+        <v>0.512406</v>
       </c>
       <c r="D64" t="n">
-        <v>0.479965</v>
+        <v>0.430453</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.67994</v>
+        <v>0.675724</v>
       </c>
       <c r="C65" t="n">
-        <v>0.482289</v>
+        <v>0.494408</v>
       </c>
       <c r="D65" t="n">
-        <v>0.468741</v>
+        <v>0.417325</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.683071</v>
+        <v>0.681899</v>
       </c>
       <c r="C66" t="n">
-        <v>0.472935</v>
+        <v>0.480112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.462521</v>
+        <v>0.716684</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.976851</v>
+        <v>0.955581</v>
       </c>
       <c r="C67" t="n">
-        <v>0.755995</v>
+        <v>0.755211</v>
       </c>
       <c r="D67" t="n">
-        <v>0.739382</v>
+        <v>0.665087</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.945111</v>
+        <v>0.9307260000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7340989999999999</v>
+        <v>0.761404</v>
       </c>
       <c r="D68" t="n">
-        <v>0.711685</v>
+        <v>0.662285</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.914651</v>
+        <v>0.911232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.734385</v>
+        <v>0.758925</v>
       </c>
       <c r="D69" t="n">
-        <v>0.702184</v>
+        <v>0.647158</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.894639</v>
+        <v>0.91772</v>
       </c>
       <c r="C70" t="n">
-        <v>0.728164</v>
+        <v>0.696921</v>
       </c>
       <c r="D70" t="n">
-        <v>0.679586</v>
+        <v>0.610924</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.903505</v>
+        <v>0.913726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.681135</v>
+        <v>0.688394</v>
       </c>
       <c r="D71" t="n">
-        <v>0.675774</v>
+        <v>0.611681</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.864565</v>
+        <v>0.87061</v>
       </c>
       <c r="C72" t="n">
-        <v>0.687087</v>
+        <v>0.672107</v>
       </c>
       <c r="D72" t="n">
-        <v>0.664262</v>
+        <v>0.596901</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.848285</v>
+        <v>0.875134</v>
       </c>
       <c r="C73" t="n">
-        <v>0.647253</v>
+        <v>0.650709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.637148</v>
+        <v>0.582907</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.825447</v>
+        <v>0.848975</v>
       </c>
       <c r="C74" t="n">
-        <v>0.622512</v>
+        <v>0.649447</v>
       </c>
       <c r="D74" t="n">
-        <v>0.609639</v>
+        <v>0.5693049999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.825599</v>
+        <v>0.833544</v>
       </c>
       <c r="C75" t="n">
-        <v>0.639119</v>
+        <v>0.627835</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6044119999999999</v>
+        <v>0.562252</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.831767</v>
+        <v>0.8343159999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.607053</v>
+        <v>0.604725</v>
       </c>
       <c r="D76" t="n">
-        <v>0.582647</v>
+        <v>0.542408</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8043709999999999</v>
+        <v>0.827715</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6128130000000001</v>
+        <v>0.602923</v>
       </c>
       <c r="D77" t="n">
-        <v>0.575125</v>
+        <v>0.530892</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.798056</v>
+        <v>0.820001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.580193</v>
+        <v>0.578362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.582433</v>
+        <v>0.521728</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.796374</v>
+        <v>0.795251</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5655250000000001</v>
+        <v>0.575624</v>
       </c>
       <c r="D79" t="n">
-        <v>0.547045</v>
+        <v>0.506626</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.770212</v>
+        <v>0.783919</v>
       </c>
       <c r="C80" t="n">
-        <v>0.571472</v>
+        <v>0.568787</v>
       </c>
       <c r="D80" t="n">
-        <v>0.545111</v>
+        <v>0.830012</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08449</v>
+        <v>1.10477</v>
       </c>
       <c r="C81" t="n">
-        <v>0.878333</v>
+        <v>0.885207</v>
       </c>
       <c r="D81" t="n">
-        <v>0.853644</v>
+        <v>0.8034790000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.1054</v>
+        <v>1.06596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.854135</v>
+        <v>0.8576</v>
       </c>
       <c r="D82" t="n">
-        <v>0.849012</v>
+        <v>0.790972</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03904</v>
+        <v>1.0368</v>
       </c>
       <c r="C83" t="n">
-        <v>0.835135</v>
+        <v>0.844025</v>
       </c>
       <c r="D83" t="n">
-        <v>0.835619</v>
+        <v>0.7562219999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.058</v>
+        <v>1.03471</v>
       </c>
       <c r="C84" t="n">
-        <v>0.836632</v>
+        <v>0.822601</v>
       </c>
       <c r="D84" t="n">
-        <v>0.80327</v>
+        <v>0.741344</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0174</v>
+        <v>1.03377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.798945</v>
+        <v>0.8126989999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.796315</v>
+        <v>0.7383150000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01269</v>
+        <v>1.01035</v>
       </c>
       <c r="C86" t="n">
-        <v>0.807126</v>
+        <v>0.779025</v>
       </c>
       <c r="D86" t="n">
-        <v>0.773512</v>
+        <v>0.704622</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.996296</v>
+        <v>0.96931</v>
       </c>
       <c r="C87" t="n">
-        <v>0.760854</v>
+        <v>0.761491</v>
       </c>
       <c r="D87" t="n">
-        <v>0.765119</v>
+        <v>0.6996790000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9864309999999999</v>
+        <v>0.986286</v>
       </c>
       <c r="C88" t="n">
-        <v>0.757767</v>
+        <v>0.75635</v>
       </c>
       <c r="D88" t="n">
-        <v>0.726002</v>
+        <v>0.690918</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.971407</v>
+        <v>0.98951</v>
       </c>
       <c r="C89" t="n">
-        <v>0.726791</v>
+        <v>0.73503</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7073660000000001</v>
+        <v>0.660343</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.973341</v>
+        <v>0.940313</v>
       </c>
       <c r="C90" t="n">
-        <v>0.723984</v>
+        <v>0.709575</v>
       </c>
       <c r="D90" t="n">
-        <v>0.697719</v>
+        <v>0.652548</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.947257</v>
+        <v>0.924933</v>
       </c>
       <c r="C91" t="n">
-        <v>0.704949</v>
+        <v>0.702968</v>
       </c>
       <c r="D91" t="n">
-        <v>0.694953</v>
+        <v>0.635047</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.932926</v>
+        <v>0.924047</v>
       </c>
       <c r="C92" t="n">
-        <v>0.706488</v>
+        <v>0.689939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.681241</v>
+        <v>0.631619</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.926587</v>
+        <v>0.916228</v>
       </c>
       <c r="C93" t="n">
-        <v>0.679637</v>
+        <v>0.68604</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6703440000000001</v>
+        <v>0.630974</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.915553</v>
+        <v>0.903857</v>
       </c>
       <c r="C94" t="n">
-        <v>0.674924</v>
+        <v>0.671249</v>
       </c>
       <c r="D94" t="n">
-        <v>0.665429</v>
+        <v>0.940405</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20999</v>
+        <v>1.21226</v>
       </c>
       <c r="C95" t="n">
-        <v>0.988414</v>
+        <v>0.9854349999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.965601</v>
+        <v>0.92173</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2286</v>
+        <v>1.20025</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9998899999999999</v>
+        <v>0.981645</v>
       </c>
       <c r="D96" t="n">
-        <v>0.980357</v>
+        <v>0.896217</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2055</v>
+        <v>1.1998</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9607599999999999</v>
+        <v>0.965123</v>
       </c>
       <c r="D97" t="n">
-        <v>0.970958</v>
+        <v>0.883701</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.20865</v>
+        <v>1.15666</v>
       </c>
       <c r="C98" t="n">
-        <v>0.961421</v>
+        <v>0.962844</v>
       </c>
       <c r="D98" t="n">
-        <v>0.933067</v>
+        <v>0.867136</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20164</v>
+        <v>1.15026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.939828</v>
+        <v>0.923814</v>
       </c>
       <c r="D99" t="n">
-        <v>0.91007</v>
+        <v>0.865753</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16567</v>
+        <v>1.14438</v>
       </c>
       <c r="C100" t="n">
-        <v>0.936296</v>
+        <v>0.923027</v>
       </c>
       <c r="D100" t="n">
-        <v>0.915888</v>
+        <v>0.853997</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.15484</v>
+        <v>1.1338</v>
       </c>
       <c r="C101" t="n">
-        <v>0.895235</v>
+        <v>0.89445</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9053060000000001</v>
+        <v>0.826493</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.13258</v>
+        <v>1.12206</v>
       </c>
       <c r="C102" t="n">
-        <v>0.892066</v>
+        <v>0.886433</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8753649999999999</v>
+        <v>0.803637</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10669</v>
+        <v>1.09906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.884005</v>
+        <v>0.868532</v>
       </c>
       <c r="D103" t="n">
-        <v>0.873277</v>
+        <v>0.795724</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08277</v>
+        <v>1.08669</v>
       </c>
       <c r="C104" t="n">
-        <v>0.85827</v>
+        <v>0.859307</v>
       </c>
       <c r="D104" t="n">
-        <v>0.849788</v>
+        <v>0.7758429999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08584</v>
+        <v>1.07361</v>
       </c>
       <c r="C105" t="n">
-        <v>0.861529</v>
+        <v>0.85458</v>
       </c>
       <c r="D105" t="n">
-        <v>0.830302</v>
+        <v>0.764613</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10413</v>
+        <v>1.05838</v>
       </c>
       <c r="C106" t="n">
-        <v>0.859681</v>
+        <v>0.835168</v>
       </c>
       <c r="D106" t="n">
-        <v>0.818581</v>
+        <v>0.7679589999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06206</v>
+        <v>1.05066</v>
       </c>
       <c r="C107" t="n">
-        <v>0.827024</v>
+        <v>0.8196639999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.808906</v>
+        <v>0.7485810000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08538</v>
+        <v>1.04589</v>
       </c>
       <c r="C108" t="n">
-        <v>0.818612</v>
+        <v>0.817327</v>
       </c>
       <c r="D108" t="n">
-        <v>0.785701</v>
+        <v>1.08803</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04547</v>
+        <v>1.05271</v>
       </c>
       <c r="C109" t="n">
-        <v>0.820794</v>
+        <v>0.804233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.797841</v>
+        <v>1.07162</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37053</v>
+        <v>1.3706</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14338</v>
+        <v>1.12789</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12827</v>
+        <v>1.0604</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.35568</v>
+        <v>1.33271</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13115</v>
+        <v>1.10693</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12915</v>
+        <v>1.04931</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33688</v>
+        <v>1.33849</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12699</v>
+        <v>1.11789</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11114</v>
+        <v>1.06629</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.32287</v>
+        <v>1.33398</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12109</v>
+        <v>1.10524</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09974</v>
+        <v>1.03078</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29091</v>
+        <v>1.34096</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1126</v>
+        <v>1.1011</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09292</v>
+        <v>1.01734</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.30489</v>
+        <v>1.3082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10886</v>
+        <v>1.06979</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0771</v>
+        <v>1.01965</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3337</v>
+        <v>1.31459</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09425</v>
+        <v>1.07068</v>
       </c>
       <c r="D116" t="n">
-        <v>1.06847</v>
+        <v>1.02308</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.25977</v>
+        <v>1.32957</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07344</v>
+        <v>1.0693</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07567</v>
+        <v>0.981379</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.30754</v>
+        <v>1.29682</v>
       </c>
       <c r="C118" t="n">
-        <v>1.06795</v>
+        <v>1.05134</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04585</v>
+        <v>0.994768</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26991</v>
+        <v>1.28404</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06572</v>
+        <v>1.07888</v>
       </c>
       <c r="D119" t="n">
-        <v>1.01859</v>
+        <v>0.991478</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25364</v>
+        <v>1.2943</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03962</v>
+        <v>1.04811</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01775</v>
+        <v>0.967553</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.26494</v>
+        <v>1.29526</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03638</v>
+        <v>1.05702</v>
       </c>
       <c r="D121" t="n">
-        <v>1.00926</v>
+        <v>0.970287</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.23957</v>
+        <v>1.2865</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01451</v>
+        <v>1.05076</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01908</v>
+        <v>0.966185</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.26191</v>
+        <v>1.27962</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02379</v>
+        <v>1.065</v>
       </c>
       <c r="D123" t="n">
-        <v>1.01342</v>
+        <v>1.32021</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.58197</v>
+        <v>1.60612</v>
       </c>
       <c r="C124" t="n">
-        <v>1.36608</v>
+        <v>1.36772</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34775</v>
+        <v>1.30307</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.54052</v>
+        <v>1.58844</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3788</v>
+        <v>1.38137</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34375</v>
+        <v>1.34624</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.55078</v>
+        <v>1.59112</v>
       </c>
       <c r="C126" t="n">
-        <v>1.352</v>
+        <v>1.36802</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35106</v>
+        <v>1.32372</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.55718</v>
+        <v>1.56482</v>
       </c>
       <c r="C127" t="n">
-        <v>1.35122</v>
+        <v>1.37796</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35194</v>
+        <v>1.29972</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.52777</v>
+        <v>1.58117</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3553</v>
+        <v>1.35637</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33496</v>
+        <v>1.29047</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.55318</v>
+        <v>1.57161</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35867</v>
+        <v>1.3487</v>
       </c>
       <c r="D129" t="n">
-        <v>1.35151</v>
+        <v>1.32829</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.54074</v>
+        <v>1.56986</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35698</v>
+        <v>1.34748</v>
       </c>
       <c r="D130" t="n">
-        <v>1.34323</v>
+        <v>1.30896</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.54772</v>
+        <v>1.58421</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34537</v>
+        <v>1.37</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33234</v>
+        <v>1.29375</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.53495</v>
+        <v>1.58567</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33788</v>
+        <v>1.37201</v>
       </c>
       <c r="D132" t="n">
-        <v>1.32929</v>
+        <v>1.31707</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.55364</v>
+        <v>1.5923</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33677</v>
+        <v>1.35532</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33922</v>
+        <v>1.33856</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.54385</v>
+        <v>1.57443</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34149</v>
+        <v>1.35438</v>
       </c>
       <c r="D134" t="n">
-        <v>1.33905</v>
+        <v>1.31898</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.56848</v>
+        <v>1.58299</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34334</v>
+        <v>1.34123</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35236</v>
+        <v>1.3157</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52809</v>
+        <v>1.57988</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35124</v>
+        <v>1.35192</v>
       </c>
       <c r="D136" t="n">
-        <v>1.36243</v>
+        <v>1.31949</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.55412</v>
+        <v>1.60112</v>
       </c>
       <c r="C137" t="n">
-        <v>1.34673</v>
+        <v>1.33794</v>
       </c>
       <c r="D137" t="n">
-        <v>1.33873</v>
+        <v>1.6548</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.86908</v>
+        <v>1.91891</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6716</v>
+        <v>1.66324</v>
       </c>
       <c r="D138" t="n">
-        <v>1.6821</v>
+        <v>1.64052</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.87908</v>
+        <v>1.90088</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67783</v>
+        <v>1.67381</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69229</v>
+        <v>1.66909</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.86447</v>
+        <v>1.90048</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67401</v>
+        <v>1.68013</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68932</v>
+        <v>1.66579</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.8548</v>
+        <v>1.88667</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67141</v>
+        <v>1.68214</v>
       </c>
       <c r="D141" t="n">
-        <v>1.68592</v>
+        <v>1.65936</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.83448</v>
+        <v>1.8975</v>
       </c>
       <c r="C142" t="n">
-        <v>1.68182</v>
+        <v>1.71425</v>
       </c>
       <c r="D142" t="n">
-        <v>1.67462</v>
+        <v>1.67149</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.84995</v>
+        <v>1.91642</v>
       </c>
       <c r="C143" t="n">
-        <v>1.68001</v>
+        <v>1.67915</v>
       </c>
       <c r="D143" t="n">
-        <v>1.66933</v>
+        <v>1.67193</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.518716</v>
+        <v>0.526917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248357</v>
+        <v>0.253517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23421</v>
+        <v>0.235689</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419665</v>
+        <v>0.428885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235506</v>
+        <v>0.244855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224895</v>
+        <v>0.23627</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.427282</v>
+        <v>0.428747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233584</v>
+        <v>0.245413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230937</v>
+        <v>0.226826</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.429692</v>
+        <v>0.424611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234786</v>
+        <v>0.234942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.226022</v>
+        <v>0.22445</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423067</v>
+        <v>0.426962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231975</v>
+        <v>0.232478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223292</v>
+        <v>0.222867</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.412537</v>
+        <v>0.418848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22608</v>
+        <v>0.228042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217756</v>
+        <v>0.220128</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405033</v>
+        <v>0.413473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219442</v>
+        <v>0.223461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.215237</v>
+        <v>0.220237</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.412197</v>
+        <v>0.412449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215716</v>
+        <v>0.2175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306318</v>
+        <v>0.311849</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.501814</v>
+        <v>0.50562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.312462</v>
+        <v>0.309256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294489</v>
+        <v>0.302338</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488153</v>
+        <v>0.501963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299718</v>
+        <v>0.305198</v>
       </c>
       <c r="D11" t="n">
-        <v>0.289294</v>
+        <v>0.29188</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.489131</v>
+        <v>0.487267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.287899</v>
+        <v>0.2953</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283793</v>
+        <v>0.279141</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.475492</v>
+        <v>0.46854</v>
       </c>
       <c r="C13" t="n">
-        <v>0.285588</v>
+        <v>0.280708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.275896</v>
+        <v>0.269633</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.459073</v>
+        <v>0.471504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272991</v>
+        <v>0.274044</v>
       </c>
       <c r="D14" t="n">
-        <v>0.259541</v>
+        <v>0.263963</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.459649</v>
+        <v>0.468623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26818</v>
+        <v>0.273511</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260299</v>
+        <v>0.258756</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449246</v>
+        <v>0.449983</v>
       </c>
       <c r="C16" t="n">
-        <v>0.25547</v>
+        <v>0.257069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249228</v>
+        <v>0.249985</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.440683</v>
+        <v>0.45437</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251543</v>
+        <v>0.250184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245538</v>
+        <v>0.242265</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429686</v>
+        <v>0.430974</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242859</v>
+        <v>0.249334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.236502</v>
+        <v>0.237067</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440676</v>
+        <v>0.426659</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24105</v>
+        <v>0.244155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234325</v>
+        <v>0.233777</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428896</v>
+        <v>0.431379</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234474</v>
+        <v>0.236911</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226391</v>
+        <v>0.231383</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.427077</v>
+        <v>0.421451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235379</v>
+        <v>0.233378</v>
       </c>
       <c r="D21" t="n">
-        <v>0.224983</v>
+        <v>0.226753</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420371</v>
+        <v>0.418306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231005</v>
+        <v>0.228061</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221045</v>
+        <v>0.220337</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41723</v>
+        <v>0.411823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228488</v>
+        <v>0.224034</v>
       </c>
       <c r="D23" t="n">
-        <v>0.320188</v>
+        <v>0.552447</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.67293</v>
+        <v>0.672061</v>
       </c>
       <c r="C24" t="n">
-        <v>0.467292</v>
+        <v>0.468518</v>
       </c>
       <c r="D24" t="n">
-        <v>0.302395</v>
+        <v>0.529406</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.65376</v>
+        <v>0.659868</v>
       </c>
       <c r="C25" t="n">
-        <v>0.45912</v>
+        <v>0.463141</v>
       </c>
       <c r="D25" t="n">
-        <v>0.305271</v>
+        <v>0.513336</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.649825</v>
+        <v>0.644615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.446053</v>
+        <v>0.45292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.292295</v>
+        <v>0.490279</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.620528</v>
+        <v>0.635788</v>
       </c>
       <c r="C27" t="n">
-        <v>0.433416</v>
+        <v>0.437728</v>
       </c>
       <c r="D27" t="n">
-        <v>0.292217</v>
+        <v>0.477635</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6150099999999999</v>
+        <v>0.614411</v>
       </c>
       <c r="C28" t="n">
-        <v>0.424917</v>
+        <v>0.42072</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284507</v>
+        <v>0.464921</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.592753</v>
+        <v>0.586215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.404963</v>
+        <v>0.408402</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273151</v>
+        <v>0.446068</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.585857</v>
+        <v>0.579824</v>
       </c>
       <c r="C30" t="n">
-        <v>0.390909</v>
+        <v>0.399714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.266694</v>
+        <v>0.432124</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.570153</v>
+        <v>0.574881</v>
       </c>
       <c r="C31" t="n">
-        <v>0.38601</v>
+        <v>0.384166</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256739</v>
+        <v>0.425616</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.555866</v>
+        <v>0.555964</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3757</v>
+        <v>0.370516</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254216</v>
+        <v>0.402644</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.546739</v>
+        <v>0.547716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.360681</v>
+        <v>0.361581</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250097</v>
+        <v>0.383666</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.534991</v>
+        <v>0.540398</v>
       </c>
       <c r="C34" t="n">
-        <v>0.348529</v>
+        <v>0.361923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.249286</v>
+        <v>0.389434</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525544</v>
+        <v>0.528714</v>
       </c>
       <c r="C35" t="n">
-        <v>0.341959</v>
+        <v>0.345982</v>
       </c>
       <c r="D35" t="n">
-        <v>0.241044</v>
+        <v>0.369548</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.516103</v>
+        <v>0.523455</v>
       </c>
       <c r="C36" t="n">
-        <v>0.336448</v>
+        <v>0.334557</v>
       </c>
       <c r="D36" t="n">
-        <v>0.238037</v>
+        <v>0.361141</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.513199</v>
+        <v>0.514809</v>
       </c>
       <c r="C37" t="n">
-        <v>0.329716</v>
+        <v>0.330132</v>
       </c>
       <c r="D37" t="n">
-        <v>0.488356</v>
+        <v>0.6367</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.773923</v>
+        <v>0.768776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.593822</v>
+        <v>0.605468</v>
       </c>
       <c r="D38" t="n">
-        <v>0.473268</v>
+        <v>0.601718</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746599</v>
+        <v>0.751726</v>
       </c>
       <c r="C39" t="n">
-        <v>0.564921</v>
+        <v>0.585758</v>
       </c>
       <c r="D39" t="n">
-        <v>0.456661</v>
+        <v>0.590218</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.733531</v>
+        <v>0.742998</v>
       </c>
       <c r="C40" t="n">
-        <v>0.554802</v>
+        <v>0.5591660000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.440434</v>
+        <v>0.561404</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.716789</v>
+        <v>0.724008</v>
       </c>
       <c r="C41" t="n">
-        <v>0.53603</v>
+        <v>0.537762</v>
       </c>
       <c r="D41" t="n">
-        <v>0.431275</v>
+        <v>0.540562</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.691202</v>
+        <v>0.702841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.510979</v>
+        <v>0.525087</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416391</v>
+        <v>0.526726</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.699081</v>
+        <v>0.691098</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5185149999999999</v>
+        <v>0.513812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.400595</v>
+        <v>0.506072</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.668061</v>
+        <v>0.678038</v>
       </c>
       <c r="C44" t="n">
-        <v>0.50182</v>
+        <v>0.48989</v>
       </c>
       <c r="D44" t="n">
-        <v>0.402532</v>
+        <v>0.486266</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.650224</v>
+        <v>0.669417</v>
       </c>
       <c r="C45" t="n">
-        <v>0.472696</v>
+        <v>0.47386</v>
       </c>
       <c r="D45" t="n">
-        <v>0.376992</v>
+        <v>0.46644</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.640299</v>
+        <v>0.651056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.458048</v>
+        <v>0.464728</v>
       </c>
       <c r="D46" t="n">
-        <v>0.370822</v>
+        <v>0.455688</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.624333</v>
+        <v>0.632593</v>
       </c>
       <c r="C47" t="n">
-        <v>0.45178</v>
+        <v>0.450318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.361392</v>
+        <v>0.439229</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.618523</v>
+        <v>0.630034</v>
       </c>
       <c r="C48" t="n">
-        <v>0.430722</v>
+        <v>0.431701</v>
       </c>
       <c r="D48" t="n">
-        <v>0.352392</v>
+        <v>0.439093</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.59922</v>
+        <v>0.59917</v>
       </c>
       <c r="C49" t="n">
-        <v>0.416502</v>
+        <v>0.413938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341825</v>
+        <v>0.422229</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6128169999999999</v>
+        <v>0.603213</v>
       </c>
       <c r="C50" t="n">
-        <v>0.414429</v>
+        <v>0.407772</v>
       </c>
       <c r="D50" t="n">
-        <v>0.333449</v>
+        <v>0.418954</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.581436</v>
+        <v>0.598525</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41976</v>
+        <v>0.403181</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6182609999999999</v>
+        <v>0.677739</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.576064</v>
+        <v>0.581825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.394389</v>
+        <v>0.396413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.603456</v>
+        <v>0.655874</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.840789</v>
+        <v>0.8547169999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.665349</v>
+        <v>0.675445</v>
       </c>
       <c r="D53" t="n">
-        <v>0.56621</v>
+        <v>0.62596</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.824592</v>
+        <v>0.842726</v>
       </c>
       <c r="C54" t="n">
-        <v>0.666091</v>
+        <v>0.640187</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5539809999999999</v>
+        <v>0.6146470000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.794969</v>
+        <v>0.818688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.647506</v>
+        <v>0.623474</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5505949999999999</v>
+        <v>0.586292</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.795693</v>
+        <v>0.801246</v>
       </c>
       <c r="C56" t="n">
-        <v>0.623843</v>
+        <v>0.612911</v>
       </c>
       <c r="D56" t="n">
-        <v>0.542932</v>
+        <v>0.565812</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.775675</v>
+        <v>0.790611</v>
       </c>
       <c r="C57" t="n">
-        <v>0.603776</v>
+        <v>0.5910300000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.515168</v>
+        <v>0.560547</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.762045</v>
+        <v>0.7585730000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.592515</v>
+        <v>0.59014</v>
       </c>
       <c r="D58" t="n">
-        <v>0.497092</v>
+        <v>0.537647</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7584</v>
+        <v>0.755555</v>
       </c>
       <c r="C59" t="n">
-        <v>0.571152</v>
+        <v>0.5784589999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.484006</v>
+        <v>0.532975</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.729125</v>
+        <v>0.756473</v>
       </c>
       <c r="C60" t="n">
-        <v>0.586311</v>
+        <v>0.554539</v>
       </c>
       <c r="D60" t="n">
-        <v>0.475132</v>
+        <v>0.522573</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.711318</v>
+        <v>0.7438979999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.538672</v>
+        <v>0.544237</v>
       </c>
       <c r="D61" t="n">
-        <v>0.460643</v>
+        <v>0.490385</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7395620000000001</v>
+        <v>0.713873</v>
       </c>
       <c r="C62" t="n">
-        <v>0.532061</v>
+        <v>0.527722</v>
       </c>
       <c r="D62" t="n">
-        <v>0.454265</v>
+        <v>0.488289</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.699443</v>
+        <v>0.72296</v>
       </c>
       <c r="C63" t="n">
-        <v>0.514633</v>
+        <v>0.506378</v>
       </c>
       <c r="D63" t="n">
-        <v>0.440692</v>
+        <v>0.46373</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.695082</v>
+        <v>0.685456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.512406</v>
+        <v>0.495664</v>
       </c>
       <c r="D64" t="n">
-        <v>0.430453</v>
+        <v>0.467734</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.675724</v>
+        <v>0.676294</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494408</v>
+        <v>0.495543</v>
       </c>
       <c r="D65" t="n">
-        <v>0.417325</v>
+        <v>0.454059</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.681899</v>
+        <v>0.685729</v>
       </c>
       <c r="C66" t="n">
-        <v>0.480112</v>
+        <v>0.485736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.716684</v>
+        <v>0.740889</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.955581</v>
+        <v>0.959192</v>
       </c>
       <c r="C67" t="n">
-        <v>0.755211</v>
+        <v>0.762446</v>
       </c>
       <c r="D67" t="n">
-        <v>0.665087</v>
+        <v>0.708834</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9307260000000001</v>
+        <v>0.956191</v>
       </c>
       <c r="C68" t="n">
-        <v>0.761404</v>
+        <v>0.7608549999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.662285</v>
+        <v>0.69473</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.911232</v>
+        <v>0.924571</v>
       </c>
       <c r="C69" t="n">
-        <v>0.758925</v>
+        <v>0.747417</v>
       </c>
       <c r="D69" t="n">
-        <v>0.647158</v>
+        <v>0.658349</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.91772</v>
+        <v>0.910303</v>
       </c>
       <c r="C70" t="n">
-        <v>0.696921</v>
+        <v>0.690062</v>
       </c>
       <c r="D70" t="n">
-        <v>0.610924</v>
+        <v>0.640637</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.913726</v>
+        <v>0.900591</v>
       </c>
       <c r="C71" t="n">
-        <v>0.688394</v>
+        <v>0.69465</v>
       </c>
       <c r="D71" t="n">
-        <v>0.611681</v>
+        <v>0.6149</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.87061</v>
+        <v>0.893828</v>
       </c>
       <c r="C72" t="n">
-        <v>0.672107</v>
+        <v>0.669407</v>
       </c>
       <c r="D72" t="n">
-        <v>0.596901</v>
+        <v>0.600676</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.875134</v>
+        <v>0.866147</v>
       </c>
       <c r="C73" t="n">
-        <v>0.650709</v>
+        <v>0.637956</v>
       </c>
       <c r="D73" t="n">
-        <v>0.582907</v>
+        <v>0.597906</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.848975</v>
+        <v>0.859986</v>
       </c>
       <c r="C74" t="n">
-        <v>0.649447</v>
+        <v>0.6289090000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5693049999999999</v>
+        <v>0.584325</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.833544</v>
+        <v>0.843641</v>
       </c>
       <c r="C75" t="n">
-        <v>0.627835</v>
+        <v>0.606894</v>
       </c>
       <c r="D75" t="n">
-        <v>0.562252</v>
+        <v>0.5677</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8343159999999999</v>
+        <v>0.816089</v>
       </c>
       <c r="C76" t="n">
-        <v>0.604725</v>
+        <v>0.603482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.542408</v>
+        <v>0.554476</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.827715</v>
+        <v>0.827877</v>
       </c>
       <c r="C77" t="n">
-        <v>0.602923</v>
+        <v>0.587195</v>
       </c>
       <c r="D77" t="n">
-        <v>0.530892</v>
+        <v>0.537409</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.820001</v>
+        <v>0.815479</v>
       </c>
       <c r="C78" t="n">
-        <v>0.578362</v>
+        <v>0.567954</v>
       </c>
       <c r="D78" t="n">
-        <v>0.521728</v>
+        <v>0.530291</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.795251</v>
+        <v>0.80045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.575624</v>
+        <v>0.566117</v>
       </c>
       <c r="D79" t="n">
-        <v>0.506626</v>
+        <v>0.519711</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.783919</v>
+        <v>0.775463</v>
       </c>
       <c r="C80" t="n">
-        <v>0.568787</v>
+        <v>0.551934</v>
       </c>
       <c r="D80" t="n">
-        <v>0.830012</v>
+        <v>0.835515</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10477</v>
+        <v>1.09991</v>
       </c>
       <c r="C81" t="n">
-        <v>0.885207</v>
+        <v>0.876799</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8034790000000001</v>
+        <v>0.803766</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06596</v>
+        <v>1.07519</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8576</v>
+        <v>0.845569</v>
       </c>
       <c r="D82" t="n">
-        <v>0.790972</v>
+        <v>0.788167</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0368</v>
+        <v>1.04674</v>
       </c>
       <c r="C83" t="n">
-        <v>0.844025</v>
+        <v>0.833368</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7562219999999999</v>
+        <v>0.775562</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03471</v>
+        <v>1.04741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.822601</v>
+        <v>0.845472</v>
       </c>
       <c r="D84" t="n">
-        <v>0.741344</v>
+        <v>0.775667</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.03377</v>
+        <v>1.02935</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8126989999999999</v>
+        <v>0.806362</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7383150000000001</v>
+        <v>0.745201</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01035</v>
+        <v>1.02139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.779025</v>
+        <v>0.779376</v>
       </c>
       <c r="D86" t="n">
-        <v>0.704622</v>
+        <v>0.7195549999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.96931</v>
+        <v>0.985321</v>
       </c>
       <c r="C87" t="n">
-        <v>0.761491</v>
+        <v>0.769084</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6996790000000001</v>
+        <v>0.709697</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.986286</v>
+        <v>0.974384</v>
       </c>
       <c r="C88" t="n">
-        <v>0.75635</v>
+        <v>0.746304</v>
       </c>
       <c r="D88" t="n">
-        <v>0.690918</v>
+        <v>0.698924</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.98951</v>
+        <v>0.960954</v>
       </c>
       <c r="C89" t="n">
-        <v>0.73503</v>
+        <v>0.739086</v>
       </c>
       <c r="D89" t="n">
-        <v>0.660343</v>
+        <v>0.675547</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.940313</v>
+        <v>0.934001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.709575</v>
+        <v>0.7225</v>
       </c>
       <c r="D90" t="n">
-        <v>0.652548</v>
+        <v>0.6647110000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.924933</v>
+        <v>0.941926</v>
       </c>
       <c r="C91" t="n">
-        <v>0.702968</v>
+        <v>0.7079</v>
       </c>
       <c r="D91" t="n">
-        <v>0.635047</v>
+        <v>0.6490669999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.924047</v>
+        <v>0.927407</v>
       </c>
       <c r="C92" t="n">
-        <v>0.689939</v>
+        <v>0.706241</v>
       </c>
       <c r="D92" t="n">
-        <v>0.631619</v>
+        <v>0.646713</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.916228</v>
+        <v>0.93342</v>
       </c>
       <c r="C93" t="n">
-        <v>0.68604</v>
+        <v>0.689769</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630974</v>
+        <v>0.630988</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.903857</v>
+        <v>0.908337</v>
       </c>
       <c r="C94" t="n">
-        <v>0.671249</v>
+        <v>0.666199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.940405</v>
+        <v>0.958286</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.21226</v>
+        <v>1.20508</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9854349999999999</v>
+        <v>1.0032</v>
       </c>
       <c r="D95" t="n">
-        <v>0.92173</v>
+        <v>0.946281</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20025</v>
+        <v>1.22102</v>
       </c>
       <c r="C96" t="n">
-        <v>0.981645</v>
+        <v>0.980861</v>
       </c>
       <c r="D96" t="n">
-        <v>0.896217</v>
+        <v>0.917624</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1998</v>
+        <v>1.19273</v>
       </c>
       <c r="C97" t="n">
-        <v>0.965123</v>
+        <v>0.965276</v>
       </c>
       <c r="D97" t="n">
-        <v>0.883701</v>
+        <v>0.895914</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15666</v>
+        <v>1.1729</v>
       </c>
       <c r="C98" t="n">
-        <v>0.962844</v>
+        <v>0.944587</v>
       </c>
       <c r="D98" t="n">
-        <v>0.867136</v>
+        <v>0.861693</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.15026</v>
+        <v>1.17039</v>
       </c>
       <c r="C99" t="n">
-        <v>0.923814</v>
+        <v>0.937934</v>
       </c>
       <c r="D99" t="n">
-        <v>0.865753</v>
+        <v>0.874658</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14438</v>
+        <v>1.13082</v>
       </c>
       <c r="C100" t="n">
-        <v>0.923027</v>
+        <v>0.9240969999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.853997</v>
+        <v>0.8580179999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1338</v>
+        <v>1.12078</v>
       </c>
       <c r="C101" t="n">
-        <v>0.89445</v>
+        <v>0.897018</v>
       </c>
       <c r="D101" t="n">
-        <v>0.826493</v>
+        <v>0.818062</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12206</v>
+        <v>1.12383</v>
       </c>
       <c r="C102" t="n">
-        <v>0.886433</v>
+        <v>0.897382</v>
       </c>
       <c r="D102" t="n">
-        <v>0.803637</v>
+        <v>0.822288</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09906</v>
+        <v>1.09857</v>
       </c>
       <c r="C103" t="n">
-        <v>0.868532</v>
+        <v>0.893119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.795724</v>
+        <v>0.798833</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08669</v>
+        <v>1.06638</v>
       </c>
       <c r="C104" t="n">
-        <v>0.859307</v>
+        <v>0.849948</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7758429999999999</v>
+        <v>0.77824</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07361</v>
+        <v>1.10218</v>
       </c>
       <c r="C105" t="n">
-        <v>0.85458</v>
+        <v>0.840564</v>
       </c>
       <c r="D105" t="n">
-        <v>0.764613</v>
+        <v>0.780763</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05838</v>
+        <v>1.06719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.835168</v>
+        <v>0.8587089999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7679589999999999</v>
+        <v>0.776715</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.05066</v>
+        <v>1.06715</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8196639999999999</v>
+        <v>0.807316</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7485810000000001</v>
+        <v>0.758069</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04589</v>
+        <v>1.05584</v>
       </c>
       <c r="C108" t="n">
-        <v>0.817327</v>
+        <v>0.824425</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08803</v>
+        <v>1.09202</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05271</v>
+        <v>1.05304</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804233</v>
+        <v>0.795381</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07162</v>
+        <v>1.09772</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3706</v>
+        <v>1.37013</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12789</v>
+        <v>1.12683</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0604</v>
+        <v>1.09836</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.33271</v>
+        <v>1.34885</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10693</v>
+        <v>1.13159</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04931</v>
+        <v>1.06864</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33849</v>
+        <v>1.33941</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11789</v>
+        <v>1.13384</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06629</v>
+        <v>1.07105</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.33398</v>
+        <v>1.37146</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10524</v>
+        <v>1.14409</v>
       </c>
       <c r="D113" t="n">
-        <v>1.03078</v>
+        <v>1.05113</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.34096</v>
+        <v>1.33952</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1011</v>
+        <v>1.10808</v>
       </c>
       <c r="D114" t="n">
-        <v>1.01734</v>
+        <v>1.03279</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.3082</v>
+        <v>1.31638</v>
       </c>
       <c r="C115" t="n">
-        <v>1.06979</v>
+        <v>1.07481</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01965</v>
+        <v>1.05077</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31459</v>
+        <v>1.29671</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07068</v>
+        <v>1.09578</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02308</v>
+        <v>1.01623</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32957</v>
+        <v>1.30773</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0693</v>
+        <v>1.08044</v>
       </c>
       <c r="D117" t="n">
-        <v>0.981379</v>
+        <v>1.01762</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29682</v>
+        <v>1.27321</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05134</v>
+        <v>1.0913</v>
       </c>
       <c r="D118" t="n">
-        <v>0.994768</v>
+        <v>1.00481</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.28404</v>
+        <v>1.28166</v>
       </c>
       <c r="C119" t="n">
-        <v>1.07888</v>
+        <v>1.07635</v>
       </c>
       <c r="D119" t="n">
-        <v>0.991478</v>
+        <v>0.984941</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2943</v>
+        <v>1.27591</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04811</v>
+        <v>1.05485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.967553</v>
+        <v>1.00269</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.29526</v>
+        <v>1.256</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05702</v>
+        <v>1.03536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.970287</v>
+        <v>0.977876</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2865</v>
+        <v>1.22236</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05076</v>
+        <v>1.03928</v>
       </c>
       <c r="D122" t="n">
-        <v>0.966185</v>
+        <v>0.968677</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.27962</v>
+        <v>1.23955</v>
       </c>
       <c r="C123" t="n">
-        <v>1.065</v>
+        <v>1.05075</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32021</v>
+        <v>1.34843</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.60612</v>
+        <v>1.60531</v>
       </c>
       <c r="C124" t="n">
-        <v>1.36772</v>
+        <v>1.38732</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30307</v>
+        <v>1.32583</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.58844</v>
+        <v>1.54267</v>
       </c>
       <c r="C125" t="n">
-        <v>1.38137</v>
+        <v>1.36885</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34624</v>
+        <v>1.32558</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.59112</v>
+        <v>1.55791</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36802</v>
+        <v>1.37191</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32372</v>
+        <v>1.30641</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.56482</v>
+        <v>1.55025</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37796</v>
+        <v>1.39089</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29972</v>
+        <v>1.3177</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.58117</v>
+        <v>1.53882</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35637</v>
+        <v>1.35479</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29047</v>
+        <v>1.32242</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.57161</v>
+        <v>1.58467</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3487</v>
+        <v>1.35444</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32829</v>
+        <v>1.31554</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.56986</v>
+        <v>1.55644</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34748</v>
+        <v>1.36291</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30896</v>
+        <v>1.33414</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.58421</v>
+        <v>1.55658</v>
       </c>
       <c r="C131" t="n">
-        <v>1.37</v>
+        <v>1.38428</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29375</v>
+        <v>1.29306</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.58567</v>
+        <v>1.54537</v>
       </c>
       <c r="C132" t="n">
-        <v>1.37201</v>
+        <v>1.35379</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31707</v>
+        <v>1.29997</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.5923</v>
+        <v>1.54528</v>
       </c>
       <c r="C133" t="n">
-        <v>1.35532</v>
+        <v>1.34931</v>
       </c>
       <c r="D133" t="n">
-        <v>1.33856</v>
+        <v>1.31005</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.57443</v>
+        <v>1.56202</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35438</v>
+        <v>1.35059</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31898</v>
+        <v>1.30098</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.58299</v>
+        <v>1.54313</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34123</v>
+        <v>1.33871</v>
       </c>
       <c r="D135" t="n">
-        <v>1.3157</v>
+        <v>1.32158</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.57988</v>
+        <v>1.56694</v>
       </c>
       <c r="C136" t="n">
-        <v>1.35192</v>
+        <v>1.34663</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31949</v>
+        <v>1.32727</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.60112</v>
+        <v>1.5504</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33794</v>
+        <v>1.34541</v>
       </c>
       <c r="D137" t="n">
-        <v>1.6548</v>
+        <v>1.66053</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.91891</v>
+        <v>1.87327</v>
       </c>
       <c r="C138" t="n">
-        <v>1.66324</v>
+        <v>1.67896</v>
       </c>
       <c r="D138" t="n">
-        <v>1.64052</v>
+        <v>1.6679</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.90088</v>
+        <v>1.86414</v>
       </c>
       <c r="C139" t="n">
-        <v>1.67381</v>
+        <v>1.68239</v>
       </c>
       <c r="D139" t="n">
-        <v>1.66909</v>
+        <v>1.66696</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.90048</v>
+        <v>1.86569</v>
       </c>
       <c r="C140" t="n">
-        <v>1.68013</v>
+        <v>1.68775</v>
       </c>
       <c r="D140" t="n">
-        <v>1.66579</v>
+        <v>1.66217</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.88667</v>
+        <v>1.86509</v>
       </c>
       <c r="C141" t="n">
-        <v>1.68214</v>
+        <v>1.69717</v>
       </c>
       <c r="D141" t="n">
-        <v>1.65936</v>
+        <v>1.65487</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.8975</v>
+        <v>1.87762</v>
       </c>
       <c r="C142" t="n">
-        <v>1.71425</v>
+        <v>1.67605</v>
       </c>
       <c r="D142" t="n">
-        <v>1.67149</v>
+        <v>1.66895</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.91642</v>
+        <v>1.8385</v>
       </c>
       <c r="C143" t="n">
-        <v>1.67915</v>
+        <v>1.71086</v>
       </c>
       <c r="D143" t="n">
-        <v>1.67193</v>
+        <v>1.66322</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Running insertion.xlsx
+++ b/vs-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.526917</v>
+        <v>0.537492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.253517</v>
+        <v>0.252614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.235689</v>
+        <v>0.237312</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.428885</v>
+        <v>0.423944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244855</v>
+        <v>0.248295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23627</v>
+        <v>0.231333</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428747</v>
+        <v>0.424282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.245413</v>
+        <v>0.235855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.226826</v>
+        <v>0.221657</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424611</v>
+        <v>0.413505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234942</v>
+        <v>0.232301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22445</v>
+        <v>0.218547</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426962</v>
+        <v>0.414704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232478</v>
+        <v>0.224334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.222867</v>
+        <v>0.218188</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.418848</v>
+        <v>0.410636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.228042</v>
+        <v>0.22447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220128</v>
+        <v>0.215381</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413473</v>
+        <v>0.40955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223461</v>
+        <v>0.220706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220237</v>
+        <v>0.214272</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.412449</v>
+        <v>0.405691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2175</v>
+        <v>0.219209</v>
       </c>
       <c r="D9" t="n">
-        <v>0.311849</v>
+        <v>0.304708</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.50562</v>
+        <v>0.485391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.309256</v>
+        <v>0.306921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.302338</v>
+        <v>0.292658</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.501963</v>
+        <v>0.48215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.305198</v>
+        <v>0.300096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29188</v>
+        <v>0.28827</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.487267</v>
+        <v>0.483418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2953</v>
+        <v>0.292834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279141</v>
+        <v>0.276988</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.46854</v>
+        <v>0.473818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.280708</v>
+        <v>0.28294</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269633</v>
+        <v>0.27688</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.471504</v>
+        <v>0.476401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.274044</v>
+        <v>0.275119</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263963</v>
+        <v>0.264665</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.468623</v>
+        <v>0.452597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.273511</v>
+        <v>0.269819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.258756</v>
+        <v>0.251666</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449983</v>
+        <v>0.437167</v>
       </c>
       <c r="C16" t="n">
-        <v>0.257069</v>
+        <v>0.262761</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249985</v>
+        <v>0.24512</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.45437</v>
+        <v>0.442963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.250184</v>
+        <v>0.253842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242265</v>
+        <v>0.247705</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.430974</v>
+        <v>0.429011</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249334</v>
+        <v>0.250198</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237067</v>
+        <v>0.240919</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.426659</v>
+        <v>0.425126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244155</v>
+        <v>0.243816</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233777</v>
+        <v>0.228279</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431379</v>
+        <v>0.444506</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236911</v>
+        <v>0.232637</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231383</v>
+        <v>0.232309</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.421451</v>
+        <v>0.416423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233378</v>
+        <v>0.234028</v>
       </c>
       <c r="D21" t="n">
-        <v>0.226753</v>
+        <v>0.230706</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418306</v>
+        <v>0.411215</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228061</v>
+        <v>0.22744</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220337</v>
+        <v>0.224159</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.411823</v>
+        <v>0.416229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224034</v>
+        <v>0.230394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.552447</v>
+        <v>0.559796</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.672061</v>
+        <v>0.65643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.468518</v>
+        <v>0.48745</v>
       </c>
       <c r="D24" t="n">
-        <v>0.529406</v>
+        <v>0.530687</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659868</v>
+        <v>0.641798</v>
       </c>
       <c r="C25" t="n">
-        <v>0.463141</v>
+        <v>0.473588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.513336</v>
+        <v>0.521188</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.644615</v>
+        <v>0.644104</v>
       </c>
       <c r="C26" t="n">
-        <v>0.45292</v>
+        <v>0.453929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.490279</v>
+        <v>0.492308</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.635788</v>
+        <v>0.621099</v>
       </c>
       <c r="C27" t="n">
-        <v>0.437728</v>
+        <v>0.43704</v>
       </c>
       <c r="D27" t="n">
-        <v>0.477635</v>
+        <v>0.477622</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.614411</v>
+        <v>0.611747</v>
       </c>
       <c r="C28" t="n">
-        <v>0.42072</v>
+        <v>0.424454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.464921</v>
+        <v>0.466512</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586215</v>
+        <v>0.590718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.408402</v>
+        <v>0.411755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.446068</v>
+        <v>0.441663</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.579824</v>
+        <v>0.578856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.399714</v>
+        <v>0.403912</v>
       </c>
       <c r="D30" t="n">
-        <v>0.432124</v>
+        <v>0.42674</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.574881</v>
+        <v>0.560659</v>
       </c>
       <c r="C31" t="n">
-        <v>0.384166</v>
+        <v>0.384356</v>
       </c>
       <c r="D31" t="n">
-        <v>0.425616</v>
+        <v>0.423291</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.555964</v>
+        <v>0.553463</v>
       </c>
       <c r="C32" t="n">
-        <v>0.370516</v>
+        <v>0.370675</v>
       </c>
       <c r="D32" t="n">
-        <v>0.402644</v>
+        <v>0.401552</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.547716</v>
+        <v>0.54109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.361581</v>
+        <v>0.360971</v>
       </c>
       <c r="D33" t="n">
-        <v>0.383666</v>
+        <v>0.39862</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.540398</v>
+        <v>0.540093</v>
       </c>
       <c r="C34" t="n">
-        <v>0.361923</v>
+        <v>0.356337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.389434</v>
+        <v>0.381234</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.528714</v>
+        <v>0.524347</v>
       </c>
       <c r="C35" t="n">
-        <v>0.345982</v>
+        <v>0.339522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369548</v>
+        <v>0.370453</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.523455</v>
+        <v>0.5242869999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.334557</v>
+        <v>0.34111</v>
       </c>
       <c r="D36" t="n">
-        <v>0.361141</v>
+        <v>0.357047</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.514809</v>
+        <v>0.501262</v>
       </c>
       <c r="C37" t="n">
-        <v>0.330132</v>
+        <v>0.327623</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6367</v>
+        <v>0.624131</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.768776</v>
+        <v>0.77554</v>
       </c>
       <c r="C38" t="n">
-        <v>0.605468</v>
+        <v>0.6042689999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.601718</v>
+        <v>0.596939</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.751726</v>
+        <v>0.758763</v>
       </c>
       <c r="C39" t="n">
-        <v>0.585758</v>
+        <v>0.581085</v>
       </c>
       <c r="D39" t="n">
-        <v>0.590218</v>
+        <v>0.58023</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.742998</v>
+        <v>0.735842</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5591660000000001</v>
+        <v>0.554769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.561404</v>
+        <v>0.566022</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.724008</v>
+        <v>0.726405</v>
       </c>
       <c r="C41" t="n">
-        <v>0.537762</v>
+        <v>0.540079</v>
       </c>
       <c r="D41" t="n">
-        <v>0.540562</v>
+        <v>0.548219</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.702841</v>
+        <v>0.711769</v>
       </c>
       <c r="C42" t="n">
-        <v>0.525087</v>
+        <v>0.531015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.526726</v>
+        <v>0.514586</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.691098</v>
+        <v>0.675616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.513812</v>
+        <v>0.507394</v>
       </c>
       <c r="D43" t="n">
-        <v>0.506072</v>
+        <v>0.501849</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678038</v>
+        <v>0.661102</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48989</v>
+        <v>0.487476</v>
       </c>
       <c r="D44" t="n">
-        <v>0.486266</v>
+        <v>0.491118</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669417</v>
+        <v>0.664925</v>
       </c>
       <c r="C45" t="n">
-        <v>0.47386</v>
+        <v>0.473644</v>
       </c>
       <c r="D45" t="n">
-        <v>0.46644</v>
+        <v>0.475874</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.651056</v>
+        <v>0.635582</v>
       </c>
       <c r="C46" t="n">
-        <v>0.464728</v>
+        <v>0.463762</v>
       </c>
       <c r="D46" t="n">
-        <v>0.455688</v>
+        <v>0.460719</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.632593</v>
+        <v>0.620621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.450318</v>
+        <v>0.447793</v>
       </c>
       <c r="D47" t="n">
-        <v>0.439229</v>
+        <v>0.444686</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.630034</v>
+        <v>0.604304</v>
       </c>
       <c r="C48" t="n">
-        <v>0.431701</v>
+        <v>0.434955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.439093</v>
+        <v>0.429223</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.59917</v>
+        <v>0.622013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.413938</v>
+        <v>0.410674</v>
       </c>
       <c r="D49" t="n">
-        <v>0.422229</v>
+        <v>0.420618</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.603213</v>
+        <v>0.590058</v>
       </c>
       <c r="C50" t="n">
-        <v>0.407772</v>
+        <v>0.425718</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418954</v>
+        <v>0.409232</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.598525</v>
+        <v>0.57803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.403181</v>
+        <v>0.407877</v>
       </c>
       <c r="D51" t="n">
-        <v>0.677739</v>
+        <v>0.687418</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.581825</v>
+        <v>0.572204</v>
       </c>
       <c r="C52" t="n">
-        <v>0.396413</v>
+        <v>0.392755</v>
       </c>
       <c r="D52" t="n">
-        <v>0.655874</v>
+        <v>0.661184</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8547169999999999</v>
+        <v>0.8415</v>
       </c>
       <c r="C53" t="n">
-        <v>0.675445</v>
+        <v>0.668353</v>
       </c>
       <c r="D53" t="n">
-        <v>0.62596</v>
+        <v>0.6437040000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.842726</v>
+        <v>0.822913</v>
       </c>
       <c r="C54" t="n">
-        <v>0.640187</v>
+        <v>0.6385420000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6146470000000001</v>
+        <v>0.60259</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.818688</v>
+        <v>0.834046</v>
       </c>
       <c r="C55" t="n">
-        <v>0.623474</v>
+        <v>0.636721</v>
       </c>
       <c r="D55" t="n">
-        <v>0.586292</v>
+        <v>0.60124</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.801246</v>
+        <v>0.789144</v>
       </c>
       <c r="C56" t="n">
-        <v>0.612911</v>
+        <v>0.61016</v>
       </c>
       <c r="D56" t="n">
-        <v>0.565812</v>
+        <v>0.578131</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.790611</v>
+        <v>0.77955</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5910300000000001</v>
+        <v>0.601806</v>
       </c>
       <c r="D57" t="n">
-        <v>0.560547</v>
+        <v>0.5640540000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7585730000000001</v>
+        <v>0.7746960000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.59014</v>
+        <v>0.592395</v>
       </c>
       <c r="D58" t="n">
-        <v>0.537647</v>
+        <v>0.550476</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755555</v>
+        <v>0.748938</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5784589999999999</v>
+        <v>0.567701</v>
       </c>
       <c r="D59" t="n">
-        <v>0.532975</v>
+        <v>0.521414</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.756473</v>
+        <v>0.744551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.554539</v>
+        <v>0.556584</v>
       </c>
       <c r="D60" t="n">
-        <v>0.522573</v>
+        <v>0.512252</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7438979999999999</v>
+        <v>0.737442</v>
       </c>
       <c r="C61" t="n">
-        <v>0.544237</v>
+        <v>0.5396260000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.490385</v>
+        <v>0.49718</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.713873</v>
+        <v>0.695811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.527722</v>
+        <v>0.523054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.488289</v>
+        <v>0.487236</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.72296</v>
+        <v>0.716938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.506378</v>
+        <v>0.5186190000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.46373</v>
+        <v>0.479299</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.685456</v>
+        <v>0.690657</v>
       </c>
       <c r="C64" t="n">
-        <v>0.495664</v>
+        <v>0.507789</v>
       </c>
       <c r="D64" t="n">
-        <v>0.467734</v>
+        <v>0.45718</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.676294</v>
+        <v>0.680322</v>
       </c>
       <c r="C65" t="n">
-        <v>0.495543</v>
+        <v>0.494095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.454059</v>
+        <v>0.458242</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.685729</v>
+        <v>0.676561</v>
       </c>
       <c r="C66" t="n">
-        <v>0.485736</v>
+        <v>0.486081</v>
       </c>
       <c r="D66" t="n">
-        <v>0.740889</v>
+        <v>0.747541</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959192</v>
+        <v>0.974614</v>
       </c>
       <c r="C67" t="n">
-        <v>0.762446</v>
+        <v>0.772769</v>
       </c>
       <c r="D67" t="n">
-        <v>0.708834</v>
+        <v>0.720758</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.956191</v>
+        <v>0.941186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7608549999999999</v>
+        <v>0.762047</v>
       </c>
       <c r="D68" t="n">
-        <v>0.69473</v>
+        <v>0.698136</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.924571</v>
+        <v>0.936365</v>
       </c>
       <c r="C69" t="n">
-        <v>0.747417</v>
+        <v>0.736284</v>
       </c>
       <c r="D69" t="n">
-        <v>0.658349</v>
+        <v>0.659144</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.910303</v>
+        <v>0.923749</v>
       </c>
       <c r="C70" t="n">
-        <v>0.690062</v>
+        <v>0.6939380000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.640637</v>
+        <v>0.637289</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.900591</v>
+        <v>0.884271</v>
       </c>
       <c r="C71" t="n">
-        <v>0.69465</v>
+        <v>0.682186</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6149</v>
+        <v>0.624613</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.893828</v>
+        <v>0.883752</v>
       </c>
       <c r="C72" t="n">
-        <v>0.669407</v>
+        <v>0.6810659999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.600676</v>
+        <v>0.613112</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.866147</v>
+        <v>0.862254</v>
       </c>
       <c r="C73" t="n">
-        <v>0.637956</v>
+        <v>0.656952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.597906</v>
+        <v>0.597051</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.859986</v>
+        <v>0.853275</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6289090000000001</v>
+        <v>0.639029</v>
       </c>
       <c r="D74" t="n">
-        <v>0.584325</v>
+        <v>0.584974</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.843641</v>
+        <v>0.82304</v>
       </c>
       <c r="C75" t="n">
-        <v>0.606894</v>
+        <v>0.622259</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5677</v>
+        <v>0.587012</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.816089</v>
+        <v>0.829437</v>
       </c>
       <c r="C76" t="n">
-        <v>0.603482</v>
+        <v>0.617416</v>
       </c>
       <c r="D76" t="n">
-        <v>0.554476</v>
+        <v>0.560033</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.827877</v>
+        <v>0.81099</v>
       </c>
       <c r="C77" t="n">
-        <v>0.587195</v>
+        <v>0.594916</v>
       </c>
       <c r="D77" t="n">
-        <v>0.537409</v>
+        <v>0.539256</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.815479</v>
+        <v>0.788559</v>
       </c>
       <c r="C78" t="n">
-        <v>0.567954</v>
+        <v>0.579081</v>
       </c>
       <c r="D78" t="n">
-        <v>0.530291</v>
+        <v>0.547148</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.80045</v>
+        <v>0.803741</v>
       </c>
       <c r="C79" t="n">
-        <v>0.566117</v>
+        <v>0.581713</v>
       </c>
       <c r="D79" t="n">
-        <v>0.519711</v>
+        <v>0.530293</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.775463</v>
+        <v>0.799269</v>
       </c>
       <c r="C80" t="n">
-        <v>0.551934</v>
+        <v>0.570255</v>
       </c>
       <c r="D80" t="n">
-        <v>0.835515</v>
+        <v>0.844147</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.09991</v>
+        <v>1.10524</v>
       </c>
       <c r="C81" t="n">
-        <v>0.876799</v>
+        <v>0.880777</v>
       </c>
       <c r="D81" t="n">
-        <v>0.803766</v>
+        <v>0.831391</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07519</v>
+        <v>1.10006</v>
       </c>
       <c r="C82" t="n">
-        <v>0.845569</v>
+        <v>0.863708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.788167</v>
+        <v>0.797296</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.04674</v>
+        <v>1.05872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.833368</v>
+        <v>0.854081</v>
       </c>
       <c r="D83" t="n">
-        <v>0.775562</v>
+        <v>0.785672</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04741</v>
+        <v>1.02522</v>
       </c>
       <c r="C84" t="n">
-        <v>0.845472</v>
+        <v>0.819126</v>
       </c>
       <c r="D84" t="n">
-        <v>0.775667</v>
+        <v>0.765146</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02935</v>
+        <v>1.04416</v>
       </c>
       <c r="C85" t="n">
-        <v>0.806362</v>
+        <v>0.79405</v>
       </c>
       <c r="D85" t="n">
-        <v>0.745201</v>
+        <v>0.75288</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02139</v>
+        <v>1.01083</v>
       </c>
       <c r="C86" t="n">
-        <v>0.779376</v>
+        <v>0.788012</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7195549999999999</v>
+        <v>0.7232769999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.985321</v>
+        <v>1.00411</v>
       </c>
       <c r="C87" t="n">
-        <v>0.769084</v>
+        <v>0.772675</v>
       </c>
       <c r="D87" t="n">
-        <v>0.709697</v>
+        <v>0.720838</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.974384</v>
+        <v>0.983081</v>
       </c>
       <c r="C88" t="n">
-        <v>0.746304</v>
+        <v>0.759664</v>
       </c>
       <c r="D88" t="n">
-        <v>0.698924</v>
+        <v>0.707381</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.960954</v>
+        <v>0.967374</v>
       </c>
       <c r="C89" t="n">
-        <v>0.739086</v>
+        <v>0.741179</v>
       </c>
       <c r="D89" t="n">
-        <v>0.675547</v>
+        <v>0.685978</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.934001</v>
+        <v>0.9563469999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7225</v>
+        <v>0.720955</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6647110000000001</v>
+        <v>0.669822</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.941926</v>
+        <v>0.949796</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7079</v>
+        <v>0.715454</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6490669999999999</v>
+        <v>0.688937</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.927407</v>
+        <v>0.9408029999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.706241</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.646713</v>
+        <v>0.645468</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.93342</v>
+        <v>0.926826</v>
       </c>
       <c r="C93" t="n">
-        <v>0.689769</v>
+        <v>0.688317</v>
       </c>
       <c r="D93" t="n">
-        <v>0.630988</v>
+        <v>0.625012</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.908337</v>
+        <v>0.912246</v>
       </c>
       <c r="C94" t="n">
-        <v>0.666199</v>
+        <v>0.66876</v>
       </c>
       <c r="D94" t="n">
-        <v>0.958286</v>
+        <v>0.953516</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.20508</v>
+        <v>1.21183</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0032</v>
+        <v>0.981839</v>
       </c>
       <c r="D95" t="n">
-        <v>0.946281</v>
+        <v>0.943756</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.22102</v>
+        <v>1.19687</v>
       </c>
       <c r="C96" t="n">
-        <v>0.980861</v>
+        <v>0.996297</v>
       </c>
       <c r="D96" t="n">
-        <v>0.917624</v>
+        <v>0.935998</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.19273</v>
+        <v>1.16854</v>
       </c>
       <c r="C97" t="n">
-        <v>0.965276</v>
+        <v>0.979905</v>
       </c>
       <c r="D97" t="n">
-        <v>0.895914</v>
+        <v>0.898994</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1729</v>
+        <v>1.17389</v>
       </c>
       <c r="C98" t="n">
-        <v>0.944587</v>
+        <v>0.9634509999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.861693</v>
+        <v>0.885794</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17039</v>
+        <v>1.16602</v>
       </c>
       <c r="C99" t="n">
-        <v>0.937934</v>
+        <v>0.9293090000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.874658</v>
+        <v>0.871449</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13082</v>
+        <v>1.14537</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9240969999999999</v>
+        <v>0.9220930000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8580179999999999</v>
+        <v>0.859882</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12078</v>
+        <v>1.12777</v>
       </c>
       <c r="C101" t="n">
-        <v>0.897018</v>
+        <v>0.906998</v>
       </c>
       <c r="D101" t="n">
-        <v>0.818062</v>
+        <v>0.864672</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12383</v>
+        <v>1.11241</v>
       </c>
       <c r="C102" t="n">
-        <v>0.897382</v>
+        <v>0.910979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.822288</v>
+        <v>0.821881</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09857</v>
+        <v>1.11097</v>
       </c>
       <c r="C103" t="n">
-        <v>0.893119</v>
+        <v>0.875438</v>
       </c>
       <c r="D103" t="n">
-        <v>0.798833</v>
+        <v>0.807995</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06638</v>
+        <v>1.11061</v>
       </c>
       <c r="C104" t="n">
-        <v>0.849948</v>
+        <v>0.86987</v>
       </c>
       <c r="D104" t="n">
-        <v>0.77824</v>
+        <v>0.808438</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10218</v>
+        <v>1.07261</v>
       </c>
       <c r="C105" t="n">
-        <v>0.840564</v>
+        <v>0.871093</v>
       </c>
       <c r="D105" t="n">
-        <v>0.780763</v>
+        <v>0.780335</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06719</v>
+        <v>1.07123</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8587089999999999</v>
+        <v>0.8435780000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776715</v>
+        <v>0.779809</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06715</v>
+        <v>1.04629</v>
       </c>
       <c r="C107" t="n">
-        <v>0.807316</v>
+        <v>0.837004</v>
       </c>
       <c r="D107" t="n">
-        <v>0.758069</v>
+        <v>0.7532720000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.05584</v>
+        <v>1.03813</v>
       </c>
       <c r="C108" t="n">
-        <v>0.824425</v>
+        <v>0.811604</v>
       </c>
       <c r="D108" t="n">
-        <v>1.09202</v>
+        <v>1.08386</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.05304</v>
+        <v>1.03621</v>
       </c>
       <c r="C109" t="n">
-        <v>0.795381</v>
+        <v>0.811078</v>
       </c>
       <c r="D109" t="n">
-        <v>1.09772</v>
+        <v>1.07969</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37013</v>
+        <v>1.34349</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12683</v>
+        <v>1.13939</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09836</v>
+        <v>1.0608</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.34885</v>
+        <v>1.31502</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13159</v>
+        <v>1.12333</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06864</v>
+        <v>1.04955</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33941</v>
+        <v>1.32131</v>
       </c>
       <c r="C112" t="n">
-        <v>1.13384</v>
+        <v>1.1328</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07105</v>
+        <v>1.05591</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       